--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9500" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="25600" windowHeight="9500" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="deepseek_ft" sheetId="7" r:id="rId6"/>
     <sheet name="数据集" sheetId="6" r:id="rId7"/>
     <sheet name="greedy_ft" sheetId="8" r:id="rId8"/>
+    <sheet name="cmp" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="114">
   <si>
     <t>origin PPL</t>
   </si>
@@ -454,9 +455,6 @@
     <t>删除16/64个expert，剪枝27/27层</t>
   </si>
   <si>
-    <t>fp32</t>
-  </si>
-  <si>
     <t>layer trimming</t>
   </si>
   <si>
@@ -473,32 +471,32 @@
   </si>
   <si>
     <t>w/o bad ppl layer</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>ave</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="35">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -513,6 +511,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -520,14 +533,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -754,13 +759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor theme="3" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,101 +1254,116 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1352,43 +1372,46 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1439,286 +1462,286 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1748,22 +1771,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1772,61 +1795,61 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="180" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1835,7 +1858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2412,452 +2435,452 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="157"/>
-      <c r="B1" s="157" t="s">
+      <c r="A1" s="163"/>
+      <c r="B1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="158">
+      <c r="C1" s="164">
         <v>9.51</v>
       </c>
-      <c r="D1" s="158"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203" t="s">
+      <c r="D1" s="164"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="205">
+      <c r="I1" s="211">
         <v>9.51</v>
       </c>
-      <c r="J1" s="205"/>
+      <c r="J1" s="211"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="159" t="s">
+      <c r="D2" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="204" t="s">
+      <c r="F2" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="204" t="s">
+      <c r="G2" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="204" t="s">
+      <c r="H2" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="204" t="s">
+      <c r="I2" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="204" t="s">
+      <c r="J2" s="210" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="160">
+      <c r="A3" s="166">
         <v>1</v>
       </c>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="160">
+      <c r="C3" s="166">
         <v>9.83</v>
       </c>
-      <c r="D3" s="160">
+      <c r="D3" s="166">
         <v>12.5</v>
       </c>
-      <c r="F3" s="179">
+      <c r="F3" s="185">
         <v>1</v>
       </c>
-      <c r="G3" s="179">
+      <c r="G3" s="185">
         <v>1</v>
       </c>
-      <c r="H3" s="180" t="s">
+      <c r="H3" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="179">
+      <c r="I3" s="185">
         <v>9.83</v>
       </c>
-      <c r="J3" s="179">
+      <c r="J3" s="185">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="160"/>
-      <c r="B4" s="160" t="s">
+      <c r="A4" s="166"/>
+      <c r="B4" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160">
+      <c r="C4" s="166"/>
+      <c r="D4" s="166">
         <v>13.3</v>
       </c>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="180" t="s">
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179">
+      <c r="I4" s="185"/>
+      <c r="J4" s="185">
         <v>13.3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="160"/>
-      <c r="B5" s="160" t="s">
+      <c r="A5" s="166"/>
+      <c r="B5" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="202">
+      <c r="C5" s="166"/>
+      <c r="D5" s="208">
         <v>9.75</v>
       </c>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="180" t="s">
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="179"/>
-      <c r="J5" s="202">
+      <c r="I5" s="185"/>
+      <c r="J5" s="208">
         <v>9.75</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="162">
+      <c r="A6" s="168">
         <v>2</v>
       </c>
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="168">
         <v>9.78</v>
       </c>
-      <c r="D6" s="162">
+      <c r="D6" s="168">
         <v>9.65</v>
       </c>
-      <c r="F6" s="182">
+      <c r="F6" s="188">
         <v>2</v>
       </c>
-      <c r="G6" s="182" t="s">
+      <c r="G6" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="183" t="s">
+      <c r="H6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="173">
+      <c r="I6" s="179">
         <v>9.75</v>
       </c>
-      <c r="J6" s="182">
+      <c r="J6" s="188">
         <v>9.99</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="162"/>
-      <c r="B7" s="162" t="s">
+      <c r="A7" s="168"/>
+      <c r="B7" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="162"/>
-      <c r="D7" s="173">
+      <c r="C7" s="168"/>
+      <c r="D7" s="179">
         <v>9.62</v>
       </c>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="183" t="s">
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182">
+      <c r="I7" s="188"/>
+      <c r="J7" s="188">
         <v>13.4</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="162"/>
-      <c r="B8" s="162" t="s">
+      <c r="A8" s="168"/>
+      <c r="B8" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162">
+      <c r="C8" s="168"/>
+      <c r="D8" s="168">
         <v>9.72</v>
       </c>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="183" t="s">
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182">
+      <c r="I8" s="188"/>
+      <c r="J8" s="188">
         <v>9.7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="160">
+      <c r="A9" s="166">
         <v>4</v>
       </c>
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="160">
+      <c r="C9" s="166">
         <v>9.71</v>
       </c>
-      <c r="D9" s="160">
+      <c r="D9" s="166">
         <v>9.92</v>
       </c>
-      <c r="F9" s="179">
+      <c r="F9" s="185">
         <v>4</v>
       </c>
-      <c r="G9" s="179" t="s">
+      <c r="G9" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="180" t="s">
+      <c r="H9" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="175">
+      <c r="I9" s="181">
         <v>72</v>
       </c>
-      <c r="J9" s="179">
+      <c r="J9" s="185">
         <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="160"/>
-      <c r="B10" s="160" t="s">
+      <c r="A10" s="166"/>
+      <c r="B10" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="160"/>
-      <c r="D10" s="175">
+      <c r="C10" s="166"/>
+      <c r="D10" s="181">
         <v>9.69</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="180" t="s">
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179">
+      <c r="I10" s="185"/>
+      <c r="J10" s="185">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="160"/>
-      <c r="B11" s="160" t="s">
+      <c r="A11" s="166"/>
+      <c r="B11" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160">
+      <c r="C11" s="166"/>
+      <c r="D11" s="166">
         <v>9.7</v>
       </c>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="180" t="s">
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179">
+      <c r="I11" s="185"/>
+      <c r="J11" s="185">
         <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="162">
+      <c r="A12" s="168">
         <v>8</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="162">
+      <c r="C12" s="168">
         <v>9.79</v>
       </c>
-      <c r="D12" s="162">
+      <c r="D12" s="168">
         <v>9.76</v>
       </c>
-      <c r="F12" s="182">
+      <c r="F12" s="188">
         <v>8</v>
       </c>
-      <c r="G12" s="182" t="s">
+      <c r="G12" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="183" t="s">
+      <c r="H12" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="182">
+      <c r="I12" s="188">
         <v>2548</v>
       </c>
-      <c r="J12" s="182">
+      <c r="J12" s="188">
         <v>1439</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="162"/>
-      <c r="B13" s="162" t="s">
+      <c r="A13" s="168"/>
+      <c r="B13" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162">
+      <c r="C13" s="168"/>
+      <c r="D13" s="168">
         <v>9.77</v>
       </c>
-      <c r="F13" s="182"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="183" t="s">
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="182"/>
-      <c r="J13" s="173">
+      <c r="I13" s="188"/>
+      <c r="J13" s="179">
         <v>813</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="162"/>
-      <c r="B14" s="162" t="s">
+      <c r="A14" s="168"/>
+      <c r="B14" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="173">
+      <c r="C14" s="168"/>
+      <c r="D14" s="179">
         <v>9.75</v>
       </c>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="183" t="s">
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="182"/>
-      <c r="J14" s="182">
+      <c r="I14" s="188"/>
+      <c r="J14" s="188">
         <v>1438</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="160">
+      <c r="A15" s="166">
         <v>12</v>
       </c>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="160">
+      <c r="C15" s="166">
         <v>9.7</v>
       </c>
-      <c r="D15" s="160">
+      <c r="D15" s="166">
         <v>9.69</v>
       </c>
-      <c r="F15" s="179">
+      <c r="F15" s="185">
         <v>12</v>
       </c>
-      <c r="G15" s="179" t="s">
+      <c r="G15" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="180" t="s">
+      <c r="H15" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="179">
+      <c r="I15" s="185">
         <v>418</v>
       </c>
-      <c r="J15" s="175">
+      <c r="J15" s="181">
         <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="160"/>
-      <c r="B16" s="160" t="s">
+      <c r="A16" s="166"/>
+      <c r="B16" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="175">
+      <c r="C16" s="166"/>
+      <c r="D16" s="181">
         <v>9.57</v>
       </c>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="180" t="s">
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179">
+      <c r="I16" s="185"/>
+      <c r="J16" s="185">
         <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="160"/>
-      <c r="B17" s="160" t="s">
+      <c r="A17" s="166"/>
+      <c r="B17" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="160"/>
-      <c r="D17" s="160">
+      <c r="C17" s="166"/>
+      <c r="D17" s="166">
         <v>9.67</v>
       </c>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="180" t="s">
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="179"/>
-      <c r="J17" s="179">
+      <c r="I17" s="185"/>
+      <c r="J17" s="185">
         <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="162">
+      <c r="A18" s="168">
         <v>24</v>
       </c>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="162">
+      <c r="C18" s="168">
         <v>9.87</v>
       </c>
-      <c r="D18" s="162">
+      <c r="D18" s="168">
         <v>9.99</v>
       </c>
-      <c r="F18" s="182">
+      <c r="F18" s="188">
         <v>24</v>
       </c>
-      <c r="G18" s="182" t="s">
+      <c r="G18" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="183" t="s">
+      <c r="H18" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="182">
+      <c r="I18" s="188">
         <v>4427</v>
       </c>
-      <c r="J18" s="173">
+      <c r="J18" s="179">
         <v>3336</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="162"/>
-      <c r="B19" s="162" t="s">
+      <c r="A19" s="168"/>
+      <c r="B19" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162">
+      <c r="C19" s="168"/>
+      <c r="D19" s="168">
         <v>9.92</v>
       </c>
-      <c r="F19" s="182"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="183" t="s">
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="182"/>
-      <c r="J19" s="182">
+      <c r="I19" s="188"/>
+      <c r="J19" s="188">
         <v>27430</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="162"/>
-      <c r="B20" s="162" t="s">
+      <c r="A20" s="168"/>
+      <c r="B20" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162">
+      <c r="C20" s="168"/>
+      <c r="D20" s="168">
         <v>9.87</v>
       </c>
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="183" t="s">
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="182"/>
-      <c r="J20" s="182">
+      <c r="I20" s="188"/>
+      <c r="J20" s="188">
         <v>5145</v>
       </c>
     </row>
@@ -2890,464 +2913,464 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="196" t="s">
+      <c r="C1" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="196" t="s">
+      <c r="D1" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="201"/>
-      <c r="F1" s="196" t="s">
+      <c r="E1" s="207"/>
+      <c r="F1" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="196" t="s">
+      <c r="G1" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="196" t="s">
+      <c r="H1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="196" t="s">
+      <c r="I1" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="196" t="s">
+      <c r="J1" s="202" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="197">
+      <c r="A2" s="203">
         <v>1</v>
       </c>
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="197">
+      <c r="C2" s="203">
         <v>9.83</v>
       </c>
-      <c r="D2" s="197">
+      <c r="D2" s="203">
         <v>12.5</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="197">
+      <c r="E2" s="207"/>
+      <c r="F2" s="203">
         <v>1</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="198" t="s">
+      <c r="G2" s="203"/>
+      <c r="H2" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="197">
+      <c r="I2" s="203">
         <v>9.9</v>
       </c>
-      <c r="J2" s="197">
+      <c r="J2" s="203">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="197"/>
-      <c r="B3" s="198" t="s">
+      <c r="A3" s="203"/>
+      <c r="B3" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197">
+      <c r="C3" s="203"/>
+      <c r="D3" s="203">
         <v>13.3</v>
       </c>
-      <c r="E3" s="201"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="198" t="s">
+      <c r="E3" s="207"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="197">
+      <c r="I3" s="203">
         <v>10.5</v>
       </c>
-      <c r="J3" s="197">
+      <c r="J3" s="203">
         <v>11.9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="197"/>
-      <c r="B4" s="198" t="s">
+      <c r="A4" s="203"/>
+      <c r="B4" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="197"/>
-      <c r="D4" s="199">
+      <c r="C4" s="203"/>
+      <c r="D4" s="205">
         <v>9.75</v>
       </c>
-      <c r="E4" s="201"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="198" t="s">
+      <c r="E4" s="207"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="197">
+      <c r="I4" s="203">
         <v>9.8</v>
       </c>
-      <c r="J4" s="199">
+      <c r="J4" s="205">
         <v>9.8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="200">
+      <c r="A5" s="206">
         <v>2</v>
       </c>
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="200">
+      <c r="C5" s="206">
         <v>9.78</v>
       </c>
-      <c r="D5" s="200">
+      <c r="D5" s="206">
         <v>9.65</v>
       </c>
-      <c r="E5" s="201"/>
-      <c r="F5" s="200">
+      <c r="E5" s="207"/>
+      <c r="F5" s="206">
         <v>2</v>
       </c>
-      <c r="G5" s="196"/>
-      <c r="H5" s="196" t="s">
+      <c r="G5" s="202"/>
+      <c r="H5" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="200">
+      <c r="I5" s="206">
         <v>9.9</v>
       </c>
-      <c r="J5" s="200">
+      <c r="J5" s="206">
         <v>11.1</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="200"/>
-      <c r="B6" s="196" t="s">
+      <c r="A6" s="206"/>
+      <c r="B6" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200">
+      <c r="C6" s="206"/>
+      <c r="D6" s="206">
         <v>9.62</v>
       </c>
-      <c r="E6" s="201"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="196" t="s">
+      <c r="E6" s="207"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="200">
+      <c r="I6" s="206">
         <v>10.7</v>
       </c>
-      <c r="J6" s="200">
+      <c r="J6" s="206">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="200"/>
-      <c r="B7" s="196" t="s">
+      <c r="A7" s="206"/>
+      <c r="B7" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200">
+      <c r="C7" s="206"/>
+      <c r="D7" s="206">
         <v>9.72</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="196" t="s">
+      <c r="E7" s="207"/>
+      <c r="F7" s="206"/>
+      <c r="G7" s="206"/>
+      <c r="H7" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="200">
+      <c r="I7" s="206">
         <v>9.9</v>
       </c>
-      <c r="J7" s="200">
+      <c r="J7" s="206">
         <v>9.7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="197">
+      <c r="A8" s="203">
         <v>4</v>
       </c>
-      <c r="B8" s="198" t="s">
+      <c r="B8" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="197">
+      <c r="C8" s="203">
         <v>9.71</v>
       </c>
-      <c r="D8" s="197">
+      <c r="D8" s="203">
         <v>9.92</v>
       </c>
-      <c r="E8" s="201"/>
-      <c r="F8" s="197">
+      <c r="E8" s="207"/>
+      <c r="F8" s="203">
         <v>4</v>
       </c>
-      <c r="G8" s="198"/>
-      <c r="H8" s="198" t="s">
+      <c r="G8" s="204"/>
+      <c r="H8" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="197">
+      <c r="I8" s="203">
         <v>27</v>
       </c>
-      <c r="J8" s="197">
+      <c r="J8" s="203">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="197"/>
-      <c r="B9" s="198" t="s">
+      <c r="A9" s="203"/>
+      <c r="B9" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="197"/>
-      <c r="D9" s="197">
+      <c r="C9" s="203"/>
+      <c r="D9" s="203">
         <v>9.69</v>
       </c>
-      <c r="E9" s="201"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="198" t="s">
+      <c r="E9" s="207"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="203"/>
+      <c r="H9" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="197">
+      <c r="I9" s="203">
         <v>32</v>
       </c>
-      <c r="J9" s="197">
+      <c r="J9" s="203">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="197"/>
-      <c r="B10" s="198" t="s">
+      <c r="A10" s="203"/>
+      <c r="B10" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="197"/>
-      <c r="D10" s="197">
+      <c r="C10" s="203"/>
+      <c r="D10" s="203">
         <v>9.7</v>
       </c>
-      <c r="E10" s="201"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="197"/>
-      <c r="H10" s="198" t="s">
+      <c r="E10" s="207"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="197">
+      <c r="I10" s="203">
         <v>27</v>
       </c>
-      <c r="J10" s="197">
+      <c r="J10" s="203">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="200">
+      <c r="A11" s="206">
         <v>8</v>
       </c>
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="206">
         <v>9.79</v>
       </c>
-      <c r="D11" s="200">
+      <c r="D11" s="206">
         <v>9.76</v>
       </c>
-      <c r="E11" s="201"/>
-      <c r="F11" s="200">
+      <c r="E11" s="207"/>
+      <c r="F11" s="206">
         <v>8</v>
       </c>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196" t="s">
+      <c r="G11" s="202"/>
+      <c r="H11" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="200">
+      <c r="I11" s="206">
         <v>79</v>
       </c>
-      <c r="J11" s="200">
+      <c r="J11" s="206">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="200"/>
-      <c r="B12" s="196" t="s">
+      <c r="A12" s="206"/>
+      <c r="B12" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="200"/>
-      <c r="D12" s="200">
+      <c r="C12" s="206"/>
+      <c r="D12" s="206">
         <v>9.77</v>
       </c>
-      <c r="E12" s="201"/>
-      <c r="F12" s="200"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="196" t="s">
+      <c r="E12" s="207"/>
+      <c r="F12" s="206"/>
+      <c r="G12" s="206"/>
+      <c r="H12" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="200">
+      <c r="I12" s="206">
         <v>72</v>
       </c>
-      <c r="J12" s="200">
+      <c r="J12" s="206">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="200"/>
-      <c r="B13" s="196" t="s">
+      <c r="A13" s="206"/>
+      <c r="B13" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="200"/>
-      <c r="D13" s="200">
+      <c r="C13" s="206"/>
+      <c r="D13" s="206">
         <v>9.75</v>
       </c>
-      <c r="E13" s="201"/>
-      <c r="F13" s="200"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="196" t="s">
+      <c r="E13" s="207"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="200">
+      <c r="I13" s="206">
         <v>93</v>
       </c>
-      <c r="J13" s="200">
+      <c r="J13" s="206">
         <v>1919</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="197">
+      <c r="A14" s="203">
         <v>12</v>
       </c>
-      <c r="B14" s="198" t="s">
+      <c r="B14" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="197">
+      <c r="C14" s="203">
         <v>9.7</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="203">
         <v>9.69</v>
       </c>
-      <c r="E14" s="201"/>
-      <c r="F14" s="197">
+      <c r="E14" s="207"/>
+      <c r="F14" s="203">
         <v>12</v>
       </c>
-      <c r="G14" s="198"/>
-      <c r="H14" s="198" t="s">
+      <c r="G14" s="204"/>
+      <c r="H14" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="197">
+      <c r="I14" s="203">
         <v>1167</v>
       </c>
-      <c r="J14" s="197">
+      <c r="J14" s="203">
         <v>2431</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="197"/>
-      <c r="B15" s="198" t="s">
+      <c r="A15" s="203"/>
+      <c r="B15" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="197"/>
-      <c r="D15" s="197">
+      <c r="C15" s="203"/>
+      <c r="D15" s="203">
         <v>9.57</v>
       </c>
-      <c r="E15" s="201"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="198" t="s">
+      <c r="E15" s="207"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="197">
+      <c r="I15" s="203">
         <v>1073</v>
       </c>
-      <c r="J15" s="197">
+      <c r="J15" s="203">
         <v>1209</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="197"/>
-      <c r="B16" s="198" t="s">
+      <c r="A16" s="203"/>
+      <c r="B16" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197">
+      <c r="C16" s="203"/>
+      <c r="D16" s="203">
         <v>9.67</v>
       </c>
-      <c r="E16" s="201"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="198" t="s">
+      <c r="E16" s="207"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="197">
+      <c r="I16" s="203">
         <v>1855</v>
       </c>
-      <c r="J16" s="197">
+      <c r="J16" s="203">
         <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="200">
+      <c r="A17" s="206">
         <v>24</v>
       </c>
-      <c r="B17" s="196" t="s">
+      <c r="B17" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="206">
         <v>9.87</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="206">
         <v>9.99</v>
       </c>
-      <c r="E17" s="201"/>
-      <c r="F17" s="200">
+      <c r="E17" s="207"/>
+      <c r="F17" s="206">
         <v>24</v>
       </c>
-      <c r="G17" s="196"/>
-      <c r="H17" s="196" t="s">
+      <c r="G17" s="202"/>
+      <c r="H17" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="200">
+      <c r="I17" s="206">
         <v>9229</v>
       </c>
-      <c r="J17" s="200">
+      <c r="J17" s="206">
         <v>21000</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="200"/>
-      <c r="B18" s="196" t="s">
+      <c r="A18" s="206"/>
+      <c r="B18" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="200"/>
-      <c r="D18" s="200">
+      <c r="C18" s="206"/>
+      <c r="D18" s="206">
         <v>9.92</v>
       </c>
-      <c r="E18" s="201"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="196" t="s">
+      <c r="E18" s="207"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="200">
+      <c r="I18" s="206">
         <v>10613</v>
       </c>
-      <c r="J18" s="200">
+      <c r="J18" s="206">
         <v>13636</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="200"/>
-      <c r="B19" s="196" t="s">
+      <c r="A19" s="206"/>
+      <c r="B19" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200">
+      <c r="C19" s="206"/>
+      <c r="D19" s="206">
         <v>9.87</v>
       </c>
-      <c r="E19" s="201"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="196" t="s">
+      <c r="E19" s="207"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="200">
+      <c r="I19" s="206">
         <v>16262</v>
       </c>
-      <c r="J19" s="200">
+      <c r="J19" s="206">
         <v>31950</v>
       </c>
     </row>
@@ -3369,343 +3392,343 @@
   <sheetFormatPr defaultColWidth="20.9807692307692" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="3" width="20.9807692307692" customWidth="1"/>
-    <col min="4" max="4" width="22.4230769230769" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.4230769230769" style="7" customWidth="1"/>
     <col min="5" max="16379" width="20.9807692307692" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="157"/>
-      <c r="B1" s="157" t="s">
+      <c r="A1" s="163"/>
+      <c r="B1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="158">
+      <c r="C1" s="164">
         <v>12.42</v>
       </c>
-      <c r="D1" s="177"/>
+      <c r="D1" s="183"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="159"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="178"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="184"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="178" t="s">
+      <c r="D3" s="184" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:4">
-      <c r="A4" s="179">
+      <c r="A4" s="185">
         <v>1</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="179">
+      <c r="C4" s="185">
         <v>19.1</v>
       </c>
-      <c r="D4" s="181">
+      <c r="D4" s="187">
         <v>16.8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="179"/>
-      <c r="B5" s="180" t="s">
+      <c r="A5" s="185"/>
+      <c r="B5" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="179"/>
-      <c r="D5" s="181">
+      <c r="C5" s="185"/>
+      <c r="D5" s="187">
         <v>13.43</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="179"/>
-      <c r="B6" s="180" t="s">
+      <c r="A6" s="185"/>
+      <c r="B6" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="179"/>
-      <c r="D6" s="181">
+      <c r="C6" s="185"/>
+      <c r="D6" s="187">
         <v>12.84</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="179"/>
-      <c r="B7" s="180" t="s">
+      <c r="A7" s="185"/>
+      <c r="B7" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="179"/>
-      <c r="D7" s="181">
+      <c r="C7" s="185"/>
+      <c r="D7" s="187">
         <v>13.4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="182">
+      <c r="A8" s="188">
         <v>2</v>
       </c>
-      <c r="B8" s="183" t="s">
+      <c r="B8" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="182">
+      <c r="C8" s="188">
         <v>12.7</v>
       </c>
-      <c r="D8" s="184">
+      <c r="D8" s="190">
         <v>12.7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="182"/>
-      <c r="B9" s="183" t="s">
+      <c r="A9" s="188"/>
+      <c r="B9" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="184">
+      <c r="C9" s="188"/>
+      <c r="D9" s="190">
         <v>12.6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="182"/>
-      <c r="B10" s="183" t="s">
+      <c r="A10" s="188"/>
+      <c r="B10" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="184">
+      <c r="C10" s="188"/>
+      <c r="D10" s="190">
         <v>12.8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="179">
+      <c r="A11" s="185">
         <v>3</v>
       </c>
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="179">
+      <c r="C11" s="185">
         <v>13</v>
       </c>
-      <c r="D11" s="181">
+      <c r="D11" s="187">
         <v>12.9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="179"/>
-      <c r="B12" s="180" t="s">
+      <c r="A12" s="185"/>
+      <c r="B12" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="179"/>
-      <c r="D12" s="181">
+      <c r="C12" s="185"/>
+      <c r="D12" s="187">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="179"/>
-      <c r="B13" s="180" t="s">
+      <c r="A13" s="185"/>
+      <c r="B13" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="179"/>
-      <c r="D13" s="181">
+      <c r="C13" s="185"/>
+      <c r="D13" s="187">
         <v>12.9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="182">
+      <c r="A14" s="188">
         <v>4</v>
       </c>
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="182">
+      <c r="C14" s="188">
         <v>12.9</v>
       </c>
-      <c r="D14" s="184">
+      <c r="D14" s="190">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="182"/>
-      <c r="B15" s="183" t="s">
+      <c r="A15" s="188"/>
+      <c r="B15" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="184">
+      <c r="C15" s="188"/>
+      <c r="D15" s="190">
         <v>12.92</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="182"/>
-      <c r="B16" s="183" t="s">
+      <c r="A16" s="188"/>
+      <c r="B16" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="182"/>
-      <c r="D16" s="184">
+      <c r="C16" s="188"/>
+      <c r="D16" s="190">
         <v>12.8</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="179">
+      <c r="A17" s="185">
         <v>5</v>
       </c>
-      <c r="B17" s="180" t="s">
+      <c r="B17" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="179">
+      <c r="C17" s="185">
         <v>13</v>
       </c>
-      <c r="D17" s="181">
+      <c r="D17" s="187">
         <v>13.1</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:4">
-      <c r="A18" s="179"/>
-      <c r="B18" s="180" t="s">
+      <c r="A18" s="185"/>
+      <c r="B18" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="179"/>
-      <c r="D18" s="181">
+      <c r="C18" s="185"/>
+      <c r="D18" s="187">
         <v>13.07</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:4">
-      <c r="A19" s="179"/>
-      <c r="B19" s="180" t="s">
+      <c r="A19" s="185"/>
+      <c r="B19" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="179"/>
-      <c r="D19" s="181">
+      <c r="C19" s="185"/>
+      <c r="D19" s="187">
         <v>12.4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="182">
+      <c r="A20" s="188">
         <v>6</v>
       </c>
-      <c r="B20" s="183" t="s">
+      <c r="B20" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="182">
+      <c r="C20" s="188">
         <v>12.9</v>
       </c>
-      <c r="D20" s="184">
+      <c r="D20" s="190">
         <v>12.8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="185"/>
-      <c r="B21" s="183" t="s">
+      <c r="A21" s="191"/>
+      <c r="B21" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="186">
+      <c r="C21" s="191"/>
+      <c r="D21" s="192">
         <v>12.73</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="185"/>
-      <c r="B22" s="183" t="s">
+      <c r="A22" s="191"/>
+      <c r="B22" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="185"/>
-      <c r="D22" s="186">
+      <c r="C22" s="191"/>
+      <c r="D22" s="192">
         <v>12.9</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="161">
+      <c r="A23" s="167">
         <v>7</v>
       </c>
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="161">
+      <c r="C23" s="167">
         <v>12.6</v>
       </c>
-      <c r="D23" s="187">
+      <c r="D23" s="193">
         <v>12.6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="161"/>
-      <c r="B24" s="180" t="s">
+      <c r="A24" s="167"/>
+      <c r="B24" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="187">
+      <c r="C24" s="167"/>
+      <c r="D24" s="193">
         <v>12.55</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="161"/>
-      <c r="B25" s="161" t="s">
+      <c r="A25" s="167"/>
+      <c r="B25" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="161"/>
-      <c r="D25" s="187">
+      <c r="C25" s="167"/>
+      <c r="D25" s="193">
         <v>12.6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="163">
+      <c r="A26" s="169">
         <v>8</v>
       </c>
-      <c r="B26" s="183" t="s">
+      <c r="B26" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="163">
+      <c r="C26" s="169">
         <v>12.7</v>
       </c>
-      <c r="D26" s="188">
+      <c r="D26" s="194">
         <v>12.7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="163"/>
-      <c r="B27" s="183" t="s">
+      <c r="A27" s="169"/>
+      <c r="B27" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="163"/>
-      <c r="D27" s="188">
+      <c r="C27" s="169"/>
+      <c r="D27" s="194">
         <v>12.6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="163"/>
-      <c r="B28" s="183" t="s">
+      <c r="A28" s="169"/>
+      <c r="B28" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="163"/>
-      <c r="D28" s="188">
+      <c r="C28" s="169"/>
+      <c r="D28" s="194">
         <v>12.7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="161">
+      <c r="A29" s="167">
         <v>9</v>
       </c>
-      <c r="B29" s="161" t="s">
+      <c r="B29" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="161">
+      <c r="C29" s="167">
         <v>12.7</v>
       </c>
-      <c r="D29" s="187">
+      <c r="D29" s="193">
         <v>12.5</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="161"/>
-      <c r="B30" s="180" t="s">
+      <c r="A30" s="167"/>
+      <c r="B30" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="161"/>
-      <c r="D30" s="187">
+      <c r="C30" s="167"/>
+      <c r="D30" s="193">
         <v>13.8</v>
       </c>
       <c r="E30">
@@ -3713,70 +3736,70 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="161"/>
-      <c r="B31" s="161" t="s">
+      <c r="A31" s="167"/>
+      <c r="B31" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="161"/>
-      <c r="D31" s="187">
+      <c r="C31" s="167"/>
+      <c r="D31" s="193">
         <v>12.9</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="163">
+      <c r="A32" s="169">
         <v>10</v>
       </c>
-      <c r="B32" s="183" t="s">
+      <c r="B32" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="163">
+      <c r="C32" s="169">
         <v>12.7</v>
       </c>
-      <c r="D32" s="188">
+      <c r="D32" s="194">
         <v>12.7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="163"/>
-      <c r="B33" s="183" t="s">
+      <c r="A33" s="169"/>
+      <c r="B33" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="163"/>
-      <c r="D33" s="188">
+      <c r="C33" s="169"/>
+      <c r="D33" s="194">
         <v>12.52</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="163"/>
-      <c r="B34" s="183" t="s">
+      <c r="A34" s="169"/>
+      <c r="B34" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="188">
+      <c r="C34" s="169"/>
+      <c r="D34" s="194">
         <v>12.9</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="161">
+      <c r="A35" s="167">
         <v>11</v>
       </c>
-      <c r="B35" s="161" t="s">
+      <c r="B35" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="161">
+      <c r="C35" s="167">
         <v>12.6</v>
       </c>
-      <c r="D35" s="187">
+      <c r="D35" s="193">
         <v>12.6</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="161"/>
-      <c r="B36" s="180" t="s">
+      <c r="A36" s="167"/>
+      <c r="B36" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="161"/>
-      <c r="D36" s="187">
+      <c r="C36" s="167"/>
+      <c r="D36" s="193">
         <v>12.63</v>
       </c>
       <c r="E36">
@@ -3784,570 +3807,570 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="161"/>
-      <c r="B37" s="161" t="s">
+      <c r="A37" s="167"/>
+      <c r="B37" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="161"/>
-      <c r="D37" s="187">
+      <c r="C37" s="167"/>
+      <c r="D37" s="193">
         <v>12.6</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="163">
+      <c r="A38" s="169">
         <v>12</v>
       </c>
-      <c r="B38" s="183" t="s">
+      <c r="B38" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="163">
+      <c r="C38" s="169">
         <v>15.6</v>
       </c>
-      <c r="D38" s="188">
+      <c r="D38" s="194">
         <v>15.6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="189"/>
-      <c r="B39" s="183" t="s">
+      <c r="A39" s="195"/>
+      <c r="B39" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="189"/>
-      <c r="D39" s="190">
+      <c r="C39" s="195"/>
+      <c r="D39" s="196">
         <v>15.55</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="189"/>
-      <c r="B40" s="183" t="s">
+      <c r="A40" s="195"/>
+      <c r="B40" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="189"/>
-      <c r="D40" s="190">
+      <c r="C40" s="195"/>
+      <c r="D40" s="196">
         <v>15.6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="160">
+      <c r="A41" s="166">
         <v>13</v>
       </c>
-      <c r="B41" s="160" t="s">
+      <c r="B41" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="160">
+      <c r="C41" s="166">
         <v>12.7</v>
       </c>
-      <c r="D41" s="181">
+      <c r="D41" s="187">
         <v>12.7</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="161"/>
-      <c r="B42" s="180" t="s">
+      <c r="A42" s="167"/>
+      <c r="B42" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="161"/>
-      <c r="D42" s="181">
+      <c r="C42" s="167"/>
+      <c r="D42" s="187">
         <v>12.7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="161"/>
-      <c r="B43" s="161" t="s">
+      <c r="A43" s="167"/>
+      <c r="B43" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="161"/>
-      <c r="D43" s="181">
+      <c r="C43" s="167"/>
+      <c r="D43" s="187">
         <v>12.7</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="163">
+      <c r="A44" s="169">
         <v>14</v>
       </c>
-      <c r="B44" s="183" t="s">
+      <c r="B44" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="163">
+      <c r="C44" s="169">
         <v>16</v>
       </c>
-      <c r="D44" s="184">
+      <c r="D44" s="190">
         <v>16.1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="163"/>
-      <c r="B45" s="183" t="s">
+      <c r="A45" s="169"/>
+      <c r="B45" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="163"/>
-      <c r="D45" s="184">
+      <c r="C45" s="169"/>
+      <c r="D45" s="190">
         <v>15.98</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="163"/>
-      <c r="B46" s="183" t="s">
+      <c r="A46" s="169"/>
+      <c r="B46" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="184">
+      <c r="C46" s="169"/>
+      <c r="D46" s="190">
         <v>14.1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="161">
+      <c r="A47" s="167">
         <v>15</v>
       </c>
-      <c r="B47" s="161" t="s">
+      <c r="B47" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="161">
+      <c r="C47" s="167">
         <v>12.7</v>
       </c>
-      <c r="D47" s="181">
+      <c r="D47" s="187">
         <v>12.7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="161"/>
-      <c r="B48" s="180" t="s">
+      <c r="A48" s="167"/>
+      <c r="B48" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="161"/>
-      <c r="D48" s="181">
+      <c r="C48" s="167"/>
+      <c r="D48" s="187">
         <v>12.4</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="161"/>
-      <c r="B49" s="161" t="s">
+      <c r="A49" s="167"/>
+      <c r="B49" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="161"/>
-      <c r="D49" s="181">
+      <c r="C49" s="167"/>
+      <c r="D49" s="187">
         <v>12.6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="163">
+      <c r="A50" s="169">
         <v>16</v>
       </c>
-      <c r="B50" s="183" t="s">
+      <c r="B50" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="163">
+      <c r="C50" s="169">
         <v>12.7</v>
       </c>
-      <c r="D50" s="184">
+      <c r="D50" s="190">
         <v>12.7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="163"/>
-      <c r="B51" s="183" t="s">
+      <c r="A51" s="169"/>
+      <c r="B51" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="163"/>
-      <c r="D51" s="184">
+      <c r="C51" s="169"/>
+      <c r="D51" s="190">
         <v>12.62</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="163"/>
-      <c r="B52" s="183" t="s">
+      <c r="A52" s="169"/>
+      <c r="B52" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="163"/>
-      <c r="D52" s="184">
+      <c r="C52" s="169"/>
+      <c r="D52" s="190">
         <v>12.7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="161">
+      <c r="A53" s="167">
         <v>17</v>
       </c>
-      <c r="B53" s="161" t="s">
+      <c r="B53" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="161">
+      <c r="C53" s="167">
         <v>15.1</v>
       </c>
-      <c r="D53" s="181">
+      <c r="D53" s="187">
         <v>14.9</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="161"/>
-      <c r="B54" s="180" t="s">
+      <c r="A54" s="167"/>
+      <c r="B54" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="161"/>
-      <c r="D54" s="181">
+      <c r="C54" s="167"/>
+      <c r="D54" s="187">
         <v>15.02</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="161"/>
-      <c r="B55" s="161" t="s">
+      <c r="A55" s="167"/>
+      <c r="B55" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="161"/>
-      <c r="D55" s="181">
+      <c r="C55" s="167"/>
+      <c r="D55" s="187">
         <v>13.4</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="163">
+      <c r="A56" s="169">
         <v>18</v>
       </c>
-      <c r="B56" s="183" t="s">
+      <c r="B56" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="163">
+      <c r="C56" s="169">
         <v>12.6</v>
       </c>
-      <c r="D56" s="188">
+      <c r="D56" s="194">
         <v>12.6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="189"/>
-      <c r="B57" s="183" t="s">
+      <c r="A57" s="195"/>
+      <c r="B57" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="189"/>
-      <c r="D57" s="190">
+      <c r="C57" s="195"/>
+      <c r="D57" s="196">
         <v>12.56</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="189"/>
-      <c r="B58" s="183" t="s">
+      <c r="A58" s="195"/>
+      <c r="B58" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="189"/>
-      <c r="D58" s="190">
+      <c r="C58" s="195"/>
+      <c r="D58" s="196">
         <v>12.6</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="161">
+      <c r="A59" s="167">
         <v>19</v>
       </c>
-      <c r="B59" s="161" t="s">
+      <c r="B59" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="161">
+      <c r="C59" s="167">
         <v>12.8</v>
       </c>
-      <c r="D59" s="187">
+      <c r="D59" s="193">
         <v>12.8</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="161"/>
-      <c r="B60" s="180" t="s">
+      <c r="A60" s="167"/>
+      <c r="B60" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="161"/>
-      <c r="D60" s="187">
+      <c r="C60" s="167"/>
+      <c r="D60" s="193">
         <v>12.81</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="161"/>
-      <c r="B61" s="161" t="s">
+      <c r="A61" s="167"/>
+      <c r="B61" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="161"/>
-      <c r="D61" s="187">
+      <c r="C61" s="167"/>
+      <c r="D61" s="193">
         <v>12.8</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="163">
+      <c r="A62" s="169">
         <v>20</v>
       </c>
-      <c r="B62" s="183" t="s">
+      <c r="B62" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="163">
+      <c r="C62" s="169">
         <v>12.7</v>
       </c>
-      <c r="D62" s="188">
+      <c r="D62" s="194">
         <v>12.7</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="163"/>
-      <c r="B63" s="183" t="s">
+      <c r="A63" s="169"/>
+      <c r="B63" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="163"/>
-      <c r="D63" s="188">
+      <c r="C63" s="169"/>
+      <c r="D63" s="194">
         <v>12.64</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="163"/>
-      <c r="B64" s="183" t="s">
+      <c r="A64" s="169"/>
+      <c r="B64" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="163"/>
-      <c r="D64" s="188">
+      <c r="C64" s="169"/>
+      <c r="D64" s="194">
         <v>12.8</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="161">
+      <c r="A65" s="167">
         <v>21</v>
       </c>
-      <c r="B65" s="161" t="s">
+      <c r="B65" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="161">
+      <c r="C65" s="167">
         <v>14</v>
       </c>
-      <c r="D65" s="187">
+      <c r="D65" s="193">
         <v>13.8</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="161"/>
-      <c r="B66" s="180" t="s">
+      <c r="A66" s="167"/>
+      <c r="B66" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="161"/>
-      <c r="D66" s="187">
+      <c r="C66" s="167"/>
+      <c r="D66" s="193">
         <v>13.95</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="161"/>
-      <c r="B67" s="161" t="s">
+      <c r="A67" s="167"/>
+      <c r="B67" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="161"/>
-      <c r="D67" s="187">
+      <c r="C67" s="167"/>
+      <c r="D67" s="193">
         <v>13.8</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="163">
+      <c r="A68" s="169">
         <v>22</v>
       </c>
-      <c r="B68" s="183" t="s">
+      <c r="B68" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="163">
+      <c r="C68" s="169">
         <v>12.7</v>
       </c>
-      <c r="D68" s="188">
+      <c r="D68" s="194">
         <v>12.7</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="163"/>
-      <c r="B69" s="183" t="s">
+      <c r="A69" s="169"/>
+      <c r="B69" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="163"/>
-      <c r="D69" s="188">
+      <c r="C69" s="169"/>
+      <c r="D69" s="194">
         <v>12.62</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="163"/>
-      <c r="B70" s="183" t="s">
+      <c r="A70" s="169"/>
+      <c r="B70" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="163"/>
-      <c r="D70" s="188">
+      <c r="C70" s="169"/>
+      <c r="D70" s="194">
         <v>12.6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="161">
+      <c r="A71" s="167">
         <v>23</v>
       </c>
-      <c r="B71" s="161" t="s">
+      <c r="B71" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="161">
+      <c r="C71" s="167">
         <v>12.7</v>
       </c>
-      <c r="D71" s="187">
+      <c r="D71" s="193">
         <v>12.6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="161"/>
-      <c r="B72" s="180" t="s">
+      <c r="A72" s="167"/>
+      <c r="B72" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="161"/>
-      <c r="D72" s="187">
+      <c r="C72" s="167"/>
+      <c r="D72" s="193">
         <v>12.63</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="161"/>
-      <c r="B73" s="161" t="s">
+      <c r="A73" s="167"/>
+      <c r="B73" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="161"/>
-      <c r="D73" s="187">
+      <c r="C73" s="167"/>
+      <c r="D73" s="193">
         <v>12.7</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="163">
+      <c r="A74" s="169">
         <v>24</v>
       </c>
-      <c r="B74" s="183" t="s">
+      <c r="B74" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="163">
+      <c r="C74" s="169">
         <v>12.8</v>
       </c>
-      <c r="D74" s="188">
+      <c r="D74" s="194">
         <v>12.7</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="189"/>
-      <c r="B75" s="183" t="s">
+      <c r="A75" s="195"/>
+      <c r="B75" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="189"/>
-      <c r="D75" s="190">
+      <c r="C75" s="195"/>
+      <c r="D75" s="196">
         <v>12.66</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="189"/>
-      <c r="B76" s="183" t="s">
+      <c r="A76" s="195"/>
+      <c r="B76" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="189"/>
-      <c r="D76" s="190">
+      <c r="C76" s="195"/>
+      <c r="D76" s="196">
         <v>12.8</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" spans="1:4">
-      <c r="A77" s="161">
+      <c r="A77" s="167">
         <v>25</v>
       </c>
-      <c r="B77" s="161" t="s">
+      <c r="B77" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="161">
+      <c r="C77" s="167">
         <v>12.8</v>
       </c>
-      <c r="D77" s="187">
+      <c r="D77" s="193">
         <v>12.9</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="161"/>
-      <c r="B78" s="180" t="s">
+      <c r="A78" s="167"/>
+      <c r="B78" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="161"/>
-      <c r="D78" s="187">
+      <c r="C78" s="167"/>
+      <c r="D78" s="193">
         <v>12.92</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="161"/>
-      <c r="B79" s="161" t="s">
+      <c r="A79" s="167"/>
+      <c r="B79" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="161"/>
-      <c r="D79" s="187">
+      <c r="C79" s="167"/>
+      <c r="D79" s="193">
         <v>12.9</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="163">
+      <c r="A80" s="169">
         <v>26</v>
       </c>
-      <c r="B80" s="183" t="s">
+      <c r="B80" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="163">
+      <c r="C80" s="169">
         <v>16</v>
       </c>
-      <c r="D80" s="188">
+      <c r="D80" s="194">
         <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="163"/>
-      <c r="B81" s="183" t="s">
+      <c r="A81" s="169"/>
+      <c r="B81" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="163"/>
-      <c r="D81" s="188">
+      <c r="C81" s="169"/>
+      <c r="D81" s="194">
         <v>15.94</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="163"/>
-      <c r="B82" s="183" t="s">
+      <c r="A82" s="169"/>
+      <c r="B82" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="163"/>
-      <c r="D82" s="188">
+      <c r="C82" s="169"/>
+      <c r="D82" s="194">
         <v>16.2</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="161">
+      <c r="A83" s="167">
         <v>27</v>
       </c>
-      <c r="B83" s="161" t="s">
+      <c r="B83" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="161">
+      <c r="C83" s="167">
         <v>14.1</v>
       </c>
-      <c r="D83" s="187">
+      <c r="D83" s="193">
         <v>13.8</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="161"/>
-      <c r="B84" s="180" t="s">
+      <c r="A84" s="167"/>
+      <c r="B84" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="161"/>
-      <c r="D84" s="187">
+      <c r="C84" s="167"/>
+      <c r="D84" s="193">
         <v>13.73</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="161"/>
-      <c r="B85" s="161" t="s">
+      <c r="A85" s="167"/>
+      <c r="B85" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="161"/>
-      <c r="D85" s="187">
+      <c r="C85" s="167"/>
+      <c r="D85" s="193">
         <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="191"/>
-      <c r="B86" s="191"/>
-      <c r="C86" s="191"/>
-      <c r="D86" s="192"/>
+      <c r="A86" s="197"/>
+      <c r="B86" s="197"/>
+      <c r="C86" s="197"/>
+      <c r="D86" s="198"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="193"/>
-      <c r="B87" s="194"/>
-      <c r="C87" s="193"/>
-      <c r="D87" s="195"/>
+      <c r="A87" s="199"/>
+      <c r="B87" s="200"/>
+      <c r="C87" s="199"/>
+      <c r="D87" s="201"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4370,357 +4393,357 @@
     <col min="2" max="2" width="11.6153846153846" customWidth="1"/>
     <col min="3" max="3" width="26.4423076923077" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="18.2980769230769" style="156" customWidth="1"/>
+    <col min="5" max="5" width="18.2980769230769" style="162" customWidth="1"/>
     <col min="6" max="6" width="18.2980769230769" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="158">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164">
         <v>12.42</v>
       </c>
-      <c r="E1" s="166"/>
-      <c r="F1" s="158"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="164"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="159"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="159"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="165"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159" t="s">
+      <c r="B3" s="165"/>
+      <c r="C3" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="159" t="s">
+      <c r="D3" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="167" t="s">
+      <c r="E3" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="159" t="s">
+      <c r="F3" s="165" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="160">
+      <c r="A4" s="166">
         <v>3</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160" t="s">
+      <c r="B4" s="166"/>
+      <c r="C4" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="161"/>
-      <c r="E4" s="168">
+      <c r="D4" s="167"/>
+      <c r="E4" s="174">
         <v>13.03</v>
       </c>
-      <c r="F4" s="169">
+      <c r="F4" s="175">
         <v>0.11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="160"/>
-      <c r="B5" s="160"/>
-      <c r="C5" s="160" t="s">
+      <c r="A5" s="166"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="168">
+      <c r="D5" s="167"/>
+      <c r="E5" s="174">
         <v>13.09</v>
       </c>
-      <c r="F5" s="160"/>
+      <c r="F5" s="166"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="160"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160" t="s">
+      <c r="A6" s="166"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="161"/>
-      <c r="E6" s="170">
+      <c r="D6" s="167"/>
+      <c r="E6" s="176">
         <v>12.77</v>
       </c>
-      <c r="F6" s="169"/>
+      <c r="F6" s="175"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="160"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160" t="s">
+      <c r="A7" s="166"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="161"/>
-      <c r="E7" s="168">
+      <c r="D7" s="167"/>
+      <c r="E7" s="174">
         <v>12.92</v>
       </c>
-      <c r="F7" s="169"/>
+      <c r="F7" s="175"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="162">
+      <c r="A8" s="168">
         <v>6</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162" t="s">
+      <c r="B8" s="168"/>
+      <c r="C8" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="163"/>
-      <c r="E8" s="171">
+      <c r="D8" s="169"/>
+      <c r="E8" s="177">
         <v>14.19</v>
       </c>
-      <c r="F8" s="172">
+      <c r="F8" s="178">
         <v>0.22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="162"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162" t="s">
+      <c r="A9" s="168"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="163"/>
-      <c r="E9" s="171">
+      <c r="D9" s="169"/>
+      <c r="E9" s="177">
         <v>14.23</v>
       </c>
-      <c r="F9" s="173"/>
+      <c r="F9" s="179"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="162"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162" t="s">
+      <c r="A10" s="168"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="163"/>
-      <c r="E10" s="174">
+      <c r="D10" s="169"/>
+      <c r="E10" s="180">
         <v>13.7</v>
       </c>
-      <c r="F10" s="172"/>
+      <c r="F10" s="178"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="162"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162" t="s">
+      <c r="A11" s="168"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="163"/>
-      <c r="E11" s="171">
+      <c r="D11" s="169"/>
+      <c r="E11" s="177">
         <v>14.13</v>
       </c>
-      <c r="F11" s="172"/>
+      <c r="F11" s="178"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="160">
+      <c r="A12" s="166">
         <v>9</v>
       </c>
-      <c r="B12" s="160"/>
-      <c r="C12" s="160" t="s">
+      <c r="B12" s="166"/>
+      <c r="C12" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="161"/>
-      <c r="E12" s="168">
+      <c r="D12" s="167"/>
+      <c r="E12" s="174">
         <v>16.12</v>
       </c>
-      <c r="F12" s="169">
+      <c r="F12" s="175">
         <v>0.33</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:6">
-      <c r="A13" s="160"/>
-      <c r="B13" s="160"/>
-      <c r="C13" s="160" t="s">
+      <c r="A13" s="166"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="161"/>
-      <c r="E13" s="168">
+      <c r="D13" s="167"/>
+      <c r="E13" s="174">
         <v>16.35</v>
       </c>
-      <c r="F13" s="175"/>
+      <c r="F13" s="181"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="160"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="160" t="s">
+      <c r="A14" s="166"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="161"/>
-      <c r="E14" s="170">
+      <c r="D14" s="167"/>
+      <c r="E14" s="176">
         <v>15.54</v>
       </c>
-      <c r="F14" s="169"/>
+      <c r="F14" s="175"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="160"/>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160" t="s">
+      <c r="A15" s="166"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="161"/>
-      <c r="E15" s="168">
+      <c r="D15" s="167"/>
+      <c r="E15" s="174">
         <v>16.25</v>
       </c>
-      <c r="F15" s="169"/>
+      <c r="F15" s="175"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="162">
+      <c r="A16" s="168">
         <v>12</v>
       </c>
-      <c r="B16" s="162"/>
-      <c r="C16" s="162" t="s">
+      <c r="B16" s="168"/>
+      <c r="C16" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="163"/>
-      <c r="E16" s="171">
+      <c r="D16" s="169"/>
+      <c r="E16" s="177">
         <v>19.12</v>
       </c>
-      <c r="F16" s="172">
+      <c r="F16" s="178">
         <v>0.44</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="162"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="162" t="s">
+      <c r="A17" s="168"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="163"/>
-      <c r="E17" s="171">
+      <c r="D17" s="169"/>
+      <c r="E17" s="177">
         <v>21.84</v>
       </c>
-      <c r="F17" s="162"/>
+      <c r="F17" s="168"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="162"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="162" t="s">
+      <c r="A18" s="168"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="163"/>
-      <c r="E18" s="174">
+      <c r="D18" s="169"/>
+      <c r="E18" s="180">
         <v>17.8</v>
       </c>
-      <c r="F18" s="172"/>
+      <c r="F18" s="178"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="162"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="162" t="s">
+      <c r="A19" s="168"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="163"/>
-      <c r="E19" s="171">
+      <c r="D19" s="169"/>
+      <c r="E19" s="177">
         <v>21.74</v>
       </c>
-      <c r="F19" s="172"/>
+      <c r="F19" s="178"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="160">
+      <c r="A20" s="166">
         <v>15</v>
       </c>
-      <c r="B20" s="160"/>
-      <c r="C20" s="160" t="s">
+      <c r="B20" s="166"/>
+      <c r="C20" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="161"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="169">
+      <c r="D20" s="167"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="175">
         <v>0.55</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="160"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160" t="s">
+      <c r="A21" s="166"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="161"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="175"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="181"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="160"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="160" t="s">
+      <c r="A22" s="166"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="161"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="169"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="175"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="162">
+      <c r="A23" s="168">
         <v>18</v>
       </c>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162" t="s">
+      <c r="B23" s="168"/>
+      <c r="C23" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="163"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="172">
+      <c r="D23" s="169"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="178">
         <v>0.66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="162"/>
-      <c r="B24" s="162"/>
-      <c r="C24" s="162" t="s">
+      <c r="A24" s="168"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="163"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="162"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="168"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="162"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="162" t="s">
+      <c r="A25" s="168"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="163"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="172"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="178"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="160">
+      <c r="A26" s="166">
         <v>21</v>
       </c>
-      <c r="B26" s="160"/>
-      <c r="C26" s="160" t="s">
+      <c r="B26" s="166"/>
+      <c r="C26" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="161"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="169">
+      <c r="D26" s="167"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="175">
         <v>0.77</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="160"/>
-      <c r="B27" s="160"/>
-      <c r="C27" s="160" t="s">
+      <c r="A27" s="166"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="161"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="175"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="181"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="164"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="160" t="s">
+      <c r="A28" s="170"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="165"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="164"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="170"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4744,47 +4767,47 @@
     <col min="1" max="1" width="19.8173076923077" customWidth="1"/>
     <col min="2" max="2" width="17.6346153846154" customWidth="1"/>
     <col min="3" max="3" width="32.9230769230769" customWidth="1"/>
-    <col min="4" max="4" width="13.6153846153846" style="117" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6153846153846" style="123" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.6153846153846" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11.0673076923077" customWidth="1"/>
-    <col min="10" max="10" width="10.1538461538462" style="4"/>
-    <col min="11" max="11" width="10.5480769230769" style="118" customWidth="1"/>
-    <col min="13" max="13" width="14.5673076923077" style="118" customWidth="1"/>
+    <col min="10" max="10" width="10.1538461538462" style="7"/>
+    <col min="11" max="11" width="10.5480769230769" style="124" customWidth="1"/>
+    <col min="13" max="13" width="14.5673076923077" style="124" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.6" spans="1:13">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="132" t="s">
+      <c r="J1" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="118" t="s">
+      <c r="L1" s="124" t="s">
         <v>34</v>
       </c>
       <c r="M1" t="s">
@@ -4792,977 +4815,977 @@
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:11">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120">
+      <c r="E2" s="126"/>
+      <c r="F2" s="126">
         <v>72.4</v>
       </c>
-      <c r="G2" s="120">
+      <c r="G2" s="126">
         <v>80.4</v>
       </c>
-      <c r="H2" s="120">
+      <c r="H2" s="126">
         <v>63.9</v>
       </c>
-      <c r="I2" s="120">
+      <c r="I2" s="126">
         <v>70.3</v>
       </c>
-      <c r="J2" s="134">
+      <c r="J2" s="140">
         <f>AVERAGE(F2:I2)</f>
         <v>71.75</v>
       </c>
-      <c r="K2" s="135">
+      <c r="K2" s="141">
         <f>(J2-71.2)/71.2</f>
         <v>0.00772471910112356</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:11">
-      <c r="A3" s="121"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="122" t="s">
+      <c r="A3" s="127"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="122"/>
-      <c r="F3" s="129">
+      <c r="E3" s="128"/>
+      <c r="F3" s="135">
         <v>72.7</v>
       </c>
-      <c r="G3" s="129">
+      <c r="G3" s="135">
         <v>78.7</v>
       </c>
-      <c r="H3" s="129">
+      <c r="H3" s="135">
         <v>63.2</v>
       </c>
-      <c r="I3" s="129">
+      <c r="I3" s="135">
         <v>70.1</v>
       </c>
-      <c r="J3" s="136">
+      <c r="J3" s="142">
         <f>AVERAGE(F3:I3)</f>
         <v>71.175</v>
       </c>
-      <c r="K3" s="137">
+      <c r="K3" s="143">
         <f>(J3-71.2)/71.2</f>
         <v>-0.000351123595505498</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:11">
-      <c r="A4" s="123"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123" t="s">
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="130">
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="136">
         <v>72.8</v>
       </c>
-      <c r="G4" s="130">
+      <c r="G4" s="136">
         <v>78.4</v>
       </c>
-      <c r="H4" s="130">
+      <c r="H4" s="136">
         <v>62.1</v>
       </c>
-      <c r="I4" s="130">
+      <c r="I4" s="136">
         <v>70.3</v>
       </c>
-      <c r="J4" s="136">
+      <c r="J4" s="142">
         <f>AVERAGE(F4:I4)</f>
         <v>70.9</v>
       </c>
-      <c r="K4" s="137">
+      <c r="K4" s="143">
         <f>(J4-71.2)/71.2</f>
         <v>-0.00421348314606758</v>
       </c>
     </row>
     <row r="5" ht="17.6" spans="1:11">
-      <c r="A5" s="123"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123" t="s">
+      <c r="A5" s="129"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="130">
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="136">
         <v>74.4</v>
       </c>
-      <c r="G5" s="130">
+      <c r="G5" s="136">
         <v>78.2</v>
       </c>
-      <c r="H5" s="130">
+      <c r="H5" s="136">
         <v>61</v>
       </c>
-      <c r="I5" s="130">
+      <c r="I5" s="136">
         <v>71.2</v>
       </c>
-      <c r="J5" s="136">
+      <c r="J5" s="142">
         <f>AVERAGE(F5:I5)</f>
         <v>71.2</v>
       </c>
-      <c r="K5" s="137">
+      <c r="K5" s="143">
         <f>(J5-71.2)/71.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="17.6" spans="1:11">
-      <c r="A6" s="123"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123" t="s">
+      <c r="A6" s="129"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="130">
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="136">
         <v>73.2</v>
       </c>
-      <c r="G6" s="130">
+      <c r="G6" s="136">
         <v>77.6</v>
       </c>
-      <c r="H6" s="130">
+      <c r="H6" s="136">
         <v>60.3</v>
       </c>
-      <c r="I6" s="130">
+      <c r="I6" s="136">
         <v>71.1</v>
       </c>
-      <c r="J6" s="136">
+      <c r="J6" s="142">
         <f>AVERAGE(F6:I6)</f>
         <v>70.55</v>
       </c>
-      <c r="K6" s="137">
+      <c r="K6" s="143">
         <f>(J6-71.2)/71.2</f>
         <v>-0.00912921348314595</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:11">
-      <c r="A7" s="123"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="130">
+      <c r="A7" s="129"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="136">
         <v>72.6</v>
       </c>
-      <c r="G7" s="130">
+      <c r="G7" s="136">
         <v>75.5</v>
       </c>
-      <c r="H7" s="130">
+      <c r="H7" s="136">
         <v>68.2</v>
       </c>
-      <c r="I7" s="130">
+      <c r="I7" s="136">
         <v>65</v>
       </c>
-      <c r="J7" s="138">
+      <c r="J7" s="144">
         <f>AVERAGE(F7:I7)</f>
         <v>70.325</v>
       </c>
-      <c r="K7" s="135">
+      <c r="K7" s="141">
         <f>(J7-71.2)/71.2</f>
         <v>-0.0122893258426966</v>
       </c>
     </row>
     <row r="8" ht="17.6" spans="1:11">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124" t="s">
+      <c r="B8" s="130"/>
+      <c r="C8" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="124"/>
-      <c r="F8" s="127">
+      <c r="E8" s="130"/>
+      <c r="F8" s="133">
         <v>67.1</v>
       </c>
-      <c r="G8" s="127">
+      <c r="G8" s="133">
         <v>80.2</v>
       </c>
-      <c r="H8" s="127">
+      <c r="H8" s="133">
         <v>59.9</v>
       </c>
-      <c r="I8" s="127">
+      <c r="I8" s="133">
         <v>70</v>
       </c>
-      <c r="J8" s="139">
+      <c r="J8" s="145">
         <f>AVERAGE(F8:I8)</f>
         <v>69.3</v>
       </c>
-      <c r="K8" s="140">
+      <c r="K8" s="146">
         <f>(J8-71.2)/71.2</f>
         <v>-0.0266853932584268</v>
       </c>
     </row>
     <row r="9" ht="17.6" spans="1:11">
-      <c r="A9" s="124"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124" t="s">
+      <c r="A9" s="130"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="124"/>
-      <c r="F9" s="127">
+      <c r="E9" s="130"/>
+      <c r="F9" s="133">
         <v>66</v>
       </c>
-      <c r="G9" s="127">
+      <c r="G9" s="133">
         <v>78.5</v>
       </c>
-      <c r="H9" s="127">
+      <c r="H9" s="133">
         <v>56.3</v>
       </c>
-      <c r="I9" s="127">
+      <c r="I9" s="133">
         <v>67.3</v>
       </c>
-      <c r="J9" s="139">
+      <c r="J9" s="145">
         <f>AVERAGE(F9:I9)</f>
         <v>67.025</v>
       </c>
-      <c r="K9" s="140">
+      <c r="K9" s="146">
         <f>(J9-71.2)/71.2</f>
         <v>-0.0586376404494382</v>
       </c>
     </row>
     <row r="10" ht="17.6" spans="1:11">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124" t="s">
+      <c r="B10" s="130"/>
+      <c r="C10" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="124"/>
-      <c r="F10" s="127">
+      <c r="E10" s="130"/>
+      <c r="F10" s="133">
         <v>71.3</v>
       </c>
-      <c r="G10" s="127">
+      <c r="G10" s="133">
         <v>75.8</v>
       </c>
-      <c r="H10" s="127">
+      <c r="H10" s="133">
         <v>51.6</v>
       </c>
-      <c r="I10" s="127">
+      <c r="I10" s="133">
         <v>68</v>
       </c>
-      <c r="J10" s="139">
+      <c r="J10" s="145">
         <f>AVERAGE(F10:I10)</f>
         <v>66.675</v>
       </c>
-      <c r="K10" s="140">
+      <c r="K10" s="146">
         <f>(J10-71.2)/71.2</f>
         <v>-0.0635533707865169</v>
       </c>
     </row>
     <row r="11" ht="17.6" spans="1:11">
-      <c r="A11" s="125"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="124" t="s">
+      <c r="A11" s="131"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="127">
+      <c r="E11" s="130"/>
+      <c r="F11" s="133">
         <v>70.2</v>
       </c>
-      <c r="G11" s="127">
+      <c r="G11" s="133">
         <v>76.2</v>
       </c>
-      <c r="H11" s="127">
+      <c r="H11" s="133">
         <v>51.6</v>
       </c>
-      <c r="I11" s="127">
+      <c r="I11" s="133">
         <v>66.4</v>
       </c>
-      <c r="J11" s="139">
+      <c r="J11" s="145">
         <f t="shared" ref="J11:J15" si="0">AVERAGE(F11:I11)</f>
         <v>66.1</v>
       </c>
-      <c r="K11" s="140">
+      <c r="K11" s="146">
         <f t="shared" ref="K11:K15" si="1">(J11-71.2)/71.2</f>
         <v>-0.0716292134831462</v>
       </c>
     </row>
     <row r="12" ht="17.6" spans="1:11">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="126">
+      <c r="C12" s="132">
         <v>2</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="131">
+      <c r="E12" s="132"/>
+      <c r="F12" s="137">
         <v>74.4</v>
       </c>
-      <c r="G12" s="131">
+      <c r="G12" s="137">
         <v>78.2</v>
       </c>
-      <c r="H12" s="131">
+      <c r="H12" s="137">
         <v>59.2</v>
       </c>
-      <c r="I12" s="131">
+      <c r="I12" s="137">
         <v>68.7</v>
       </c>
-      <c r="J12" s="141">
+      <c r="J12" s="147">
         <f t="shared" si="0"/>
         <v>70.125</v>
       </c>
-      <c r="K12" s="142">
+      <c r="K12" s="148">
         <f t="shared" si="1"/>
         <v>-0.0150983146067416</v>
       </c>
     </row>
     <row r="13" ht="17.6" spans="1:11">
-      <c r="A13" s="126"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126" t="s">
+      <c r="A13" s="132"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="131">
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="137">
         <v>73.3</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="137">
         <v>78.1</v>
       </c>
-      <c r="H13" s="131">
+      <c r="H13" s="137">
         <v>61</v>
       </c>
-      <c r="I13" s="131">
+      <c r="I13" s="137">
         <v>69.8</v>
       </c>
-      <c r="J13" s="141">
+      <c r="J13" s="147">
         <f t="shared" si="0"/>
         <v>70.55</v>
       </c>
-      <c r="K13" s="142">
+      <c r="K13" s="148">
         <f t="shared" si="1"/>
         <v>-0.00912921348314615</v>
       </c>
     </row>
     <row r="14" ht="17.6" spans="1:14">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="124">
+      <c r="C14" s="130">
         <v>2</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="127">
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="133">
         <v>70</v>
       </c>
-      <c r="G14" s="127">
+      <c r="G14" s="133">
         <v>74.8</v>
       </c>
-      <c r="H14" s="127">
+      <c r="H14" s="133">
         <v>53.4</v>
       </c>
-      <c r="I14" s="127">
+      <c r="I14" s="133">
         <v>66.6</v>
       </c>
-      <c r="J14" s="143">
+      <c r="J14" s="149">
         <f t="shared" si="0"/>
         <v>66.2</v>
       </c>
-      <c r="K14" s="144">
+      <c r="K14" s="150">
         <f t="shared" si="1"/>
         <v>-0.0702247191011236</v>
       </c>
       <c r="L14">
         <v>69</v>
       </c>
-      <c r="M14" s="118">
+      <c r="M14" s="124">
         <v>-0.031</v>
       </c>
-      <c r="N14" s="155"/>
+      <c r="N14" s="161"/>
     </row>
     <row r="15" ht="17.6" spans="1:14">
-      <c r="A15" s="124"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124" t="s">
+      <c r="A15" s="130"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="127">
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="133">
         <v>67.8</v>
       </c>
-      <c r="G15" s="127">
+      <c r="G15" s="133">
         <v>75.1</v>
       </c>
-      <c r="H15" s="127">
+      <c r="H15" s="133">
         <v>58.1</v>
       </c>
-      <c r="I15" s="145">
+      <c r="I15" s="151">
         <v>67.5</v>
       </c>
-      <c r="J15" s="146">
+      <c r="J15" s="152">
         <f t="shared" si="0"/>
         <v>67.125</v>
       </c>
-      <c r="K15" s="147">
+      <c r="K15" s="153">
         <f t="shared" si="1"/>
         <v>-0.0572331460674158</v>
       </c>
       <c r="L15">
         <v>68.9</v>
       </c>
-      <c r="M15" s="118">
+      <c r="M15" s="124">
         <v>-0.032</v>
       </c>
-      <c r="N15" s="155"/>
+      <c r="N15" s="161"/>
     </row>
     <row r="16" ht="17.6" spans="1:13">
-      <c r="A16" s="124"/>
-      <c r="B16" s="124" t="s">
+      <c r="A16" s="130"/>
+      <c r="B16" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="124">
+      <c r="C16" s="130">
         <v>2</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="127">
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="133">
         <v>68.5</v>
       </c>
-      <c r="G16" s="127">
+      <c r="G16" s="133">
         <v>75.6</v>
       </c>
-      <c r="H16" s="127">
+      <c r="H16" s="133">
         <v>60.7</v>
       </c>
-      <c r="I16" s="145">
+      <c r="I16" s="151">
         <v>67.6</v>
       </c>
-      <c r="J16" s="146">
+      <c r="J16" s="152">
         <f t="shared" ref="J16:J19" si="2">AVERAGE(F16:I16)</f>
         <v>68.1</v>
       </c>
-      <c r="K16" s="147">
+      <c r="K16" s="153">
         <f t="shared" ref="K16:K19" si="3">(J16-71.2)/71.2</f>
         <v>-0.0435393258426967</v>
       </c>
       <c r="L16">
         <v>69.2</v>
       </c>
-      <c r="M16" s="118">
+      <c r="M16" s="124">
         <v>-0.028</v>
       </c>
     </row>
     <row r="17" ht="17.6" spans="1:13">
-      <c r="A17" s="124"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124" t="s">
+      <c r="A17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="127">
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="133">
         <v>69.3</v>
       </c>
-      <c r="G17" s="127">
+      <c r="G17" s="133">
         <v>74.1</v>
       </c>
-      <c r="H17" s="127">
+      <c r="H17" s="133">
         <v>59.6</v>
       </c>
-      <c r="I17" s="145">
+      <c r="I17" s="151">
         <v>66.9</v>
       </c>
-      <c r="J17" s="146">
+      <c r="J17" s="152">
         <f t="shared" si="2"/>
         <v>67.475</v>
       </c>
-      <c r="K17" s="147">
+      <c r="K17" s="153">
         <f t="shared" si="3"/>
         <v>-0.0523174157303372</v>
       </c>
-      <c r="L17" s="148">
+      <c r="L17" s="154">
         <v>68.4</v>
       </c>
-      <c r="M17" s="118">
+      <c r="M17" s="124">
         <v>-0.04</v>
       </c>
     </row>
     <row r="18" ht="17.6" spans="1:13">
-      <c r="A18" s="124"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124" t="s">
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="127">
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="133">
         <v>72.6</v>
       </c>
-      <c r="G18" s="127">
+      <c r="G18" s="133">
         <v>75</v>
       </c>
-      <c r="H18" s="127">
+      <c r="H18" s="133">
         <v>61.7</v>
       </c>
-      <c r="I18" s="145">
+      <c r="I18" s="151">
         <v>66.5</v>
       </c>
-      <c r="J18" s="146">
+      <c r="J18" s="152">
         <f t="shared" si="2"/>
         <v>68.95</v>
       </c>
-      <c r="K18" s="149">
+      <c r="K18" s="155">
         <f t="shared" si="3"/>
         <v>-0.0316011235955056</v>
       </c>
       <c r="L18">
         <v>67.4</v>
       </c>
-      <c r="M18" s="118">
+      <c r="M18" s="124">
         <v>-0.054</v>
       </c>
     </row>
     <row r="19" ht="17.6" spans="1:13">
-      <c r="A19" s="124"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124" t="s">
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="127">
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="133">
         <v>67.6</v>
       </c>
-      <c r="G19" s="127">
+      <c r="G19" s="133">
         <v>75.7</v>
       </c>
-      <c r="H19" s="127">
+      <c r="H19" s="133">
         <v>56.3</v>
       </c>
-      <c r="I19" s="145">
+      <c r="I19" s="151">
         <v>66.6</v>
       </c>
-      <c r="J19" s="146">
+      <c r="J19" s="152">
         <f t="shared" si="2"/>
         <v>66.55</v>
       </c>
-      <c r="K19" s="147">
+      <c r="K19" s="153">
         <f t="shared" si="3"/>
         <v>-0.0653089887640448</v>
       </c>
       <c r="L19">
         <v>66.5</v>
       </c>
-      <c r="M19" s="118">
+      <c r="M19" s="124">
         <v>-0.066</v>
       </c>
     </row>
     <row r="20" ht="17.6" spans="1:13">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="126">
+      <c r="C20" s="132">
         <v>2</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="131">
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="137">
         <v>65.8</v>
       </c>
-      <c r="G20" s="131">
+      <c r="G20" s="137">
         <v>72.5</v>
       </c>
-      <c r="H20" s="131">
+      <c r="H20" s="137">
         <v>55.2</v>
       </c>
-      <c r="I20" s="150">
+      <c r="I20" s="156">
         <v>62.8</v>
       </c>
-      <c r="J20" s="151">
+      <c r="J20" s="157">
         <f>AVERAGE(F20:I20)</f>
         <v>64.075</v>
       </c>
-      <c r="K20" s="152">
+      <c r="K20" s="158">
         <f>(J20-71.2)/71.2</f>
         <v>-0.100070224719101</v>
       </c>
       <c r="L20">
         <v>63.4</v>
       </c>
-      <c r="M20" s="118">
+      <c r="M20" s="124">
         <v>-0.11</v>
       </c>
     </row>
     <row r="21" ht="17.6" spans="1:13">
-      <c r="A21" s="126"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="126" t="s">
+      <c r="A21" s="132"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="131">
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="137">
         <v>66.2</v>
       </c>
-      <c r="G21" s="131">
+      <c r="G21" s="137">
         <v>71.6</v>
       </c>
-      <c r="H21" s="131">
+      <c r="H21" s="137">
         <v>61.7</v>
       </c>
-      <c r="I21" s="150">
+      <c r="I21" s="156">
         <v>63.5</v>
       </c>
-      <c r="J21" s="151">
+      <c r="J21" s="157">
         <f>AVERAGE(F21:I21)</f>
         <v>65.75</v>
       </c>
-      <c r="K21" s="152">
+      <c r="K21" s="158">
         <f>(J21-71.2)/71.2</f>
         <v>-0.0765449438202248</v>
       </c>
       <c r="L21">
         <v>63.4</v>
       </c>
-      <c r="M21" s="118">
+      <c r="M21" s="124">
         <v>-0.11</v>
       </c>
     </row>
     <row r="22" ht="17.6" spans="1:11">
-      <c r="A22" s="126"/>
-      <c r="B22" s="126" t="s">
+      <c r="A22" s="132"/>
+      <c r="B22" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="126">
+      <c r="C22" s="132">
         <v>2</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="131">
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="137">
         <v>68.5</v>
       </c>
-      <c r="G22" s="131">
+      <c r="G22" s="137">
         <v>72.4</v>
       </c>
-      <c r="H22" s="131">
+      <c r="H22" s="137">
         <v>58.8</v>
       </c>
-      <c r="I22" s="150">
+      <c r="I22" s="156">
         <v>66</v>
       </c>
-      <c r="J22" s="151">
+      <c r="J22" s="157">
         <f>AVERAGE(F22:I22)</f>
         <v>66.425</v>
       </c>
-      <c r="K22" s="153">
+      <c r="K22" s="159">
         <f>(J22-71.2)/71.2</f>
         <v>-0.0670646067415731</v>
       </c>
     </row>
     <row r="23" ht="17.6" spans="1:13">
-      <c r="A23" s="126"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="126" t="s">
+      <c r="A23" s="132"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="131">
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="137">
         <v>67.4</v>
       </c>
-      <c r="G23" s="131">
+      <c r="G23" s="137">
         <v>71.8</v>
       </c>
-      <c r="H23" s="131">
+      <c r="H23" s="137">
         <v>62.1</v>
       </c>
-      <c r="I23" s="150">
+      <c r="I23" s="156">
         <v>64.8</v>
       </c>
-      <c r="J23" s="151">
+      <c r="J23" s="157">
         <f>AVERAGE(F23:I23)</f>
         <v>66.525</v>
       </c>
-      <c r="K23" s="154">
+      <c r="K23" s="160">
         <f>(J23-71.2)/71.2</f>
         <v>-0.0656601123595507</v>
       </c>
       <c r="L23">
         <v>68.3</v>
       </c>
-      <c r="M23" s="118">
+      <c r="M23" s="124">
         <v>-0.041</v>
       </c>
     </row>
     <row r="24" ht="17.6" spans="1:13">
-      <c r="A24" s="126"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="126" t="s">
+      <c r="A24" s="132"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="131">
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="137">
         <v>65.2</v>
       </c>
-      <c r="G24" s="131">
+      <c r="G24" s="137">
         <v>71.3</v>
       </c>
-      <c r="H24" s="131">
+      <c r="H24" s="137">
         <v>57.8</v>
       </c>
-      <c r="I24" s="150">
+      <c r="I24" s="156">
         <v>63.5</v>
       </c>
-      <c r="J24" s="151">
+      <c r="J24" s="157">
         <f>AVERAGE(F24:I24)</f>
         <v>64.45</v>
       </c>
-      <c r="K24" s="152">
+      <c r="K24" s="158">
         <f>(J24-71.2)/71.2</f>
         <v>-0.0948033707865168</v>
       </c>
       <c r="L24">
         <v>66.8</v>
       </c>
-      <c r="M24" s="118">
+      <c r="M24" s="124">
         <v>-0.061</v>
       </c>
     </row>
     <row r="25" ht="17.6" spans="1:11">
-      <c r="A25" s="126"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="126" t="s">
+      <c r="A25" s="132"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="131">
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="137">
         <v>67</v>
       </c>
-      <c r="G25" s="131">
+      <c r="G25" s="137">
         <v>73.3</v>
       </c>
-      <c r="H25" s="131">
+      <c r="H25" s="137">
         <v>54.9</v>
       </c>
-      <c r="I25" s="150">
+      <c r="I25" s="156">
         <v>62.9</v>
       </c>
-      <c r="J25" s="151">
+      <c r="J25" s="157">
         <f>AVERAGE(F25:I25)</f>
         <v>64.525</v>
       </c>
-      <c r="K25" s="152">
+      <c r="K25" s="158">
         <f>(J25-71.2)/71.2</f>
         <v>-0.09375</v>
       </c>
     </row>
     <row r="26" ht="17.6" spans="1:13">
-      <c r="A26" s="124" t="s">
+      <c r="A26" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="124">
+      <c r="C26" s="130">
         <v>2</v>
       </c>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="127">
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="133">
         <v>63.2</v>
       </c>
-      <c r="G26" s="127">
+      <c r="G26" s="133">
         <v>69.6</v>
       </c>
-      <c r="H26" s="127">
+      <c r="H26" s="133">
         <v>56.3</v>
       </c>
-      <c r="I26" s="145">
+      <c r="I26" s="151">
         <v>61.6</v>
       </c>
-      <c r="J26" s="146">
+      <c r="J26" s="152">
         <f>AVERAGE(F26:I26)</f>
         <v>62.675</v>
       </c>
-      <c r="K26" s="147">
+      <c r="K26" s="153">
         <f>(J26-71.2)/71.2</f>
         <v>-0.119733146067416</v>
       </c>
       <c r="L26">
         <v>50.2</v>
       </c>
-      <c r="M26" s="118">
+      <c r="M26" s="124">
         <v>-0.295</v>
       </c>
     </row>
     <row r="27" ht="17.6" spans="1:13">
-      <c r="A27" s="127"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="124" t="s">
+      <c r="A27" s="133"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="124"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127">
+      <c r="D27" s="130"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133">
         <v>63.1</v>
       </c>
-      <c r="G27" s="127">
+      <c r="G27" s="133">
         <v>68.3</v>
       </c>
-      <c r="H27" s="127">
+      <c r="H27" s="133">
         <v>60.3</v>
       </c>
-      <c r="I27" s="145">
+      <c r="I27" s="151">
         <v>61.9</v>
       </c>
-      <c r="J27" s="146">
+      <c r="J27" s="152">
         <f>AVERAGE(F27:I27)</f>
         <v>63.4</v>
       </c>
-      <c r="K27" s="149">
+      <c r="K27" s="155">
         <f>(J27-71.2)/71.2</f>
         <v>-0.109550561797753</v>
       </c>
       <c r="L27">
         <v>50.1</v>
       </c>
-      <c r="M27" s="118">
+      <c r="M27" s="124">
         <v>-0.296</v>
       </c>
     </row>
     <row r="28" ht="17.6" spans="1:11">
-      <c r="A28" s="124"/>
-      <c r="B28" s="124" t="s">
+      <c r="A28" s="130"/>
+      <c r="B28" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="124">
+      <c r="C28" s="130">
         <v>2</v>
       </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="127">
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="133">
         <v>66.1</v>
       </c>
-      <c r="G28" s="127">
+      <c r="G28" s="133">
         <v>69.8</v>
       </c>
-      <c r="H28" s="127">
+      <c r="H28" s="133">
         <v>54.2</v>
       </c>
-      <c r="I28" s="145">
+      <c r="I28" s="151">
         <v>61.5</v>
       </c>
-      <c r="J28" s="146">
+      <c r="J28" s="152">
         <f>AVERAGE(F28:I28)</f>
         <v>62.9</v>
       </c>
-      <c r="K28" s="147">
+      <c r="K28" s="153">
         <f>(J28-71.2)/71.2</f>
         <v>-0.116573033707865</v>
       </c>
     </row>
     <row r="29" ht="17.6" spans="1:11">
-      <c r="A29" s="124"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124" t="s">
+      <c r="A29" s="130"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="127">
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="133">
         <v>63.8</v>
       </c>
-      <c r="G29" s="127">
+      <c r="G29" s="133">
         <v>68.1</v>
       </c>
-      <c r="H29" s="127">
+      <c r="H29" s="133">
         <v>58.1</v>
       </c>
-      <c r="I29" s="145">
+      <c r="I29" s="151">
         <v>61.4</v>
       </c>
-      <c r="J29" s="146">
+      <c r="J29" s="152">
         <f>AVERAGE(F29:I29)</f>
         <v>62.85</v>
       </c>
-      <c r="K29" s="147">
+      <c r="K29" s="153">
         <f>(J29-71.2)/71.2</f>
         <v>-0.117275280898877</v>
       </c>
     </row>
     <row r="30" ht="17.6" spans="1:11">
-      <c r="A30" s="124"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124" t="s">
+      <c r="A30" s="130"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="127">
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="133">
         <v>61.4</v>
       </c>
-      <c r="G30" s="127">
+      <c r="G30" s="133">
         <v>68.1</v>
       </c>
-      <c r="H30" s="127">
+      <c r="H30" s="133">
         <v>58.5</v>
       </c>
-      <c r="I30" s="145">
+      <c r="I30" s="151">
         <v>61.9</v>
       </c>
-      <c r="J30" s="146">
+      <c r="J30" s="152">
         <f>AVERAGE(F30:I30)</f>
         <v>62.475</v>
       </c>
-      <c r="K30" s="147">
+      <c r="K30" s="153">
         <f>(J30-71.2)/71.2</f>
         <v>-0.122542134831461</v>
       </c>
     </row>
     <row r="31" ht="17.6" spans="1:11">
-      <c r="A31" s="124"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="124" t="s">
+      <c r="A31" s="130"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="127">
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="133">
         <v>65.8</v>
       </c>
-      <c r="G31" s="127">
+      <c r="G31" s="133">
         <v>69.6</v>
       </c>
-      <c r="H31" s="127">
+      <c r="H31" s="133">
         <v>52.7</v>
       </c>
-      <c r="I31" s="127">
+      <c r="I31" s="133">
         <v>60.7</v>
       </c>
-      <c r="J31" s="143">
+      <c r="J31" s="149">
         <f>AVERAGE(F31:I31)</f>
         <v>62.2</v>
       </c>
-      <c r="K31" s="144">
+      <c r="K31" s="150">
         <f>(J31-71.2)/71.2</f>
         <v>-0.126404494382023</v>
       </c>
@@ -5795,1266 +5818,1266 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.6" spans="1:11">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="97" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:11">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="22">
+      <c r="B2" s="69"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="24">
         <v>72.7</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="24">
         <v>78.7</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="24">
         <v>63.2</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="24">
         <v>70.1</v>
       </c>
-      <c r="I2" s="92">
+      <c r="I2" s="98">
         <f>AVERAGE(E2:H2)</f>
         <v>71.175</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93">
+      <c r="J2" s="99"/>
+      <c r="K2" s="99">
         <f>(I2-71.2)/71.2</f>
         <v>-0.000351123595505498</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:11">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="81">
         <v>67.1</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="81">
         <v>80.2</v>
       </c>
-      <c r="G3" s="75">
+      <c r="G3" s="81">
         <v>59.9</v>
       </c>
-      <c r="H3" s="75">
+      <c r="H3" s="81">
         <v>70</v>
       </c>
-      <c r="I3" s="94">
+      <c r="I3" s="100">
         <f t="shared" ref="I3:I8" si="0">AVERAGE(E3:H3)</f>
         <v>69.3</v>
       </c>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95">
+      <c r="J3" s="101"/>
+      <c r="K3" s="101">
         <f t="shared" ref="K3:K8" si="1">(I3-71.2)/71.2</f>
         <v>-0.0266853932584268</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:11">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="75">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="81">
         <v>66</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="81">
         <v>78.5</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="81">
         <v>56.3</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="81">
         <v>67.3</v>
       </c>
-      <c r="I4" s="94">
+      <c r="I4" s="100">
         <f t="shared" si="0"/>
         <v>67.025</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95">
+      <c r="J4" s="101"/>
+      <c r="K4" s="101">
         <f t="shared" si="1"/>
         <v>-0.0586376404494382</v>
       </c>
     </row>
     <row r="5" ht="17.6" spans="1:11">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="75">
+      <c r="E5" s="81">
         <v>71.3</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="81">
         <v>75.8</v>
       </c>
-      <c r="G5" s="75">
+      <c r="G5" s="81">
         <v>51.6</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="81">
         <v>68</v>
       </c>
-      <c r="I5" s="94">
+      <c r="I5" s="100">
         <f t="shared" si="0"/>
         <v>66.675</v>
       </c>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95">
+      <c r="J5" s="101"/>
+      <c r="K5" s="101">
         <f t="shared" si="1"/>
         <v>-0.0635533707865169</v>
       </c>
     </row>
     <row r="6" ht="17.6" spans="1:11">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="76">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="82">
         <v>70.2</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="82">
         <v>76.2</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="82">
         <v>51.6</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="82">
         <v>66.4</v>
       </c>
-      <c r="I6" s="96">
+      <c r="I6" s="102">
         <f t="shared" si="0"/>
         <v>66.1</v>
       </c>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97">
+      <c r="J6" s="103"/>
+      <c r="K6" s="103">
         <f t="shared" si="1"/>
         <v>-0.0716292134831462</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:11">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="83">
         <v>68.5</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F7" s="83">
         <v>75.6</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="83">
         <v>60.7</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="84">
         <v>67.6</v>
       </c>
-      <c r="I7" s="98">
+      <c r="I7" s="104">
         <f t="shared" si="0"/>
         <v>68.1</v>
       </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99">
+      <c r="J7" s="105"/>
+      <c r="K7" s="105">
         <f t="shared" si="1"/>
         <v>-0.0435393258426967</v>
       </c>
     </row>
     <row r="8" ht="17.6" spans="1:11">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="85">
         <v>72.6</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="85">
         <v>75</v>
       </c>
-      <c r="G8" s="79">
+      <c r="G8" s="85">
         <v>61.7</v>
       </c>
-      <c r="H8" s="80">
+      <c r="H8" s="86">
         <v>66.5</v>
       </c>
-      <c r="I8" s="100">
+      <c r="I8" s="106">
         <f t="shared" si="0"/>
         <v>68.95</v>
       </c>
-      <c r="J8" s="101"/>
-      <c r="K8" s="102">
+      <c r="J8" s="107"/>
+      <c r="K8" s="108">
         <f>(I8-71.2)/71.2</f>
         <v>-0.0316011235955056</v>
       </c>
     </row>
     <row r="9" ht="17.6" spans="1:11">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="85">
         <v>73.1</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="85">
         <v>75.2</v>
       </c>
-      <c r="G9" s="79">
+      <c r="G9" s="85">
         <v>61.2</v>
       </c>
-      <c r="H9" s="80">
+      <c r="H9" s="86">
         <v>66.9</v>
       </c>
-      <c r="I9" s="100">
+      <c r="I9" s="106">
         <f>AVERAGE(E9:H9)</f>
         <v>69.1</v>
       </c>
-      <c r="J9" s="101">
+      <c r="J9" s="107">
         <v>0.001</v>
       </c>
-      <c r="K9" s="102">
+      <c r="K9" s="108">
         <f>(I9-71.2)/71.2</f>
         <v>-0.029494382022472</v>
       </c>
     </row>
     <row r="10" ht="17.6" spans="1:11">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="79">
+      <c r="E10" s="85">
         <v>73.3</v>
       </c>
-      <c r="F10" s="79">
+      <c r="F10" s="85">
         <v>75.7</v>
       </c>
-      <c r="G10" s="79">
+      <c r="G10" s="85">
         <v>58.8</v>
       </c>
-      <c r="H10" s="80">
+      <c r="H10" s="86">
         <v>68.1</v>
       </c>
-      <c r="I10" s="100">
+      <c r="I10" s="106">
         <f>AVERAGE(E10:H10)</f>
         <v>68.975</v>
       </c>
-      <c r="J10" s="101"/>
-      <c r="K10" s="102">
+      <c r="J10" s="107"/>
+      <c r="K10" s="108">
         <f>(I10-71.2)/71.2</f>
         <v>-0.0312500000000001</v>
       </c>
     </row>
     <row r="11" ht="17.6" spans="1:11">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="85">
         <v>74.2</v>
       </c>
-      <c r="F11" s="79">
+      <c r="F11" s="85">
         <v>76.1</v>
       </c>
-      <c r="G11" s="79">
+      <c r="G11" s="85">
         <v>59.9</v>
       </c>
-      <c r="H11" s="80">
+      <c r="H11" s="86">
         <v>68.3</v>
       </c>
-      <c r="I11" s="103">
+      <c r="I11" s="109">
         <f>AVERAGE(E11:H11)</f>
         <v>69.625</v>
       </c>
-      <c r="J11" s="101">
+      <c r="J11" s="107">
         <v>0.006</v>
       </c>
-      <c r="K11" s="104">
+      <c r="K11" s="110">
         <f>(I11-71.2)/71.2</f>
         <v>-0.022120786516854</v>
       </c>
     </row>
     <row r="12" ht="17.6" spans="1:11">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E12" s="81">
         <v>68.5</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="81">
         <v>72.4</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="81">
         <v>58.8</v>
       </c>
-      <c r="H12" s="81">
+      <c r="H12" s="87">
         <v>66</v>
       </c>
-      <c r="I12" s="105">
+      <c r="I12" s="111">
         <f t="shared" ref="I12:I17" si="2">AVERAGE(E12:H12)</f>
         <v>66.425</v>
       </c>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106">
+      <c r="J12" s="112"/>
+      <c r="K12" s="112">
         <f t="shared" ref="K12:K17" si="3">(I12-71.2)/71.2</f>
         <v>-0.0670646067415731</v>
       </c>
     </row>
     <row r="13" ht="17.6" spans="1:11">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69" t="s">
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="88">
         <v>68.3</v>
       </c>
-      <c r="F13" s="82">
+      <c r="F13" s="88">
         <v>72.9</v>
       </c>
-      <c r="G13" s="82">
+      <c r="G13" s="88">
         <v>55.7</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="89">
         <v>64.9</v>
       </c>
-      <c r="I13" s="107">
+      <c r="I13" s="113">
         <f t="shared" si="2"/>
         <v>65.45</v>
       </c>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108">
+      <c r="J13" s="114"/>
+      <c r="K13" s="114">
         <f t="shared" si="3"/>
         <v>-0.0807584269662923</v>
       </c>
     </row>
     <row r="14" ht="17.6" hidden="1" spans="1:11">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64" t="s">
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="75">
+      <c r="E14" s="81">
         <v>68.3</v>
       </c>
-      <c r="F14" s="75">
+      <c r="F14" s="81">
         <v>72.6</v>
       </c>
-      <c r="G14" s="75">
+      <c r="G14" s="81">
         <v>57.4</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H14" s="87">
         <v>63.9</v>
       </c>
-      <c r="I14" s="105">
+      <c r="I14" s="111">
         <f t="shared" si="2"/>
         <v>65.55</v>
       </c>
-      <c r="J14" s="106">
+      <c r="J14" s="112">
         <v>0.001</v>
       </c>
-      <c r="K14" s="106">
+      <c r="K14" s="112">
         <f t="shared" si="3"/>
         <v>-0.0793539325842697</v>
       </c>
     </row>
     <row r="15" ht="17.6" hidden="1" spans="1:11">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64" t="s">
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="75">
+      <c r="E15" s="81">
         <v>69.4</v>
       </c>
-      <c r="F15" s="75">
+      <c r="F15" s="81">
         <v>73.1</v>
       </c>
-      <c r="G15" s="75">
+      <c r="G15" s="81">
         <v>56</v>
       </c>
-      <c r="H15" s="81">
+      <c r="H15" s="87">
         <v>64.2</v>
       </c>
-      <c r="I15" s="105">
+      <c r="I15" s="111">
         <f t="shared" si="2"/>
         <v>65.675</v>
       </c>
-      <c r="J15" s="106">
+      <c r="J15" s="112">
         <v>0.002</v>
       </c>
-      <c r="K15" s="106">
+      <c r="K15" s="112">
         <f t="shared" si="3"/>
         <v>-0.0775983146067416</v>
       </c>
     </row>
     <row r="16" ht="17.6" spans="1:11">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64" t="s">
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="75">
+      <c r="E16" s="81">
         <v>68.9</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="81">
         <v>73.6</v>
       </c>
-      <c r="G16" s="75">
+      <c r="G16" s="81">
         <v>55.6</v>
       </c>
-      <c r="H16" s="81">
+      <c r="H16" s="87">
         <v>65.7</v>
       </c>
-      <c r="I16" s="105">
+      <c r="I16" s="111">
         <f t="shared" si="2"/>
         <v>65.95</v>
       </c>
-      <c r="J16" s="106">
+      <c r="J16" s="112">
         <v>0.005</v>
       </c>
-      <c r="K16" s="106">
+      <c r="K16" s="112">
         <f t="shared" si="3"/>
         <v>-0.0737359550561798</v>
       </c>
     </row>
     <row r="17" ht="17.6" hidden="1" spans="1:11">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64" t="s">
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="75">
+      <c r="E17" s="81">
         <v>68.8</v>
       </c>
-      <c r="F17" s="75">
+      <c r="F17" s="81">
         <v>73.8</v>
       </c>
-      <c r="G17" s="75">
+      <c r="G17" s="81">
         <v>56</v>
       </c>
-      <c r="H17" s="81">
+      <c r="H17" s="87">
         <v>65.1</v>
       </c>
-      <c r="I17" s="105">
+      <c r="I17" s="111">
         <f t="shared" si="2"/>
         <v>65.925</v>
       </c>
-      <c r="J17" s="106">
+      <c r="J17" s="112">
         <v>0.004</v>
       </c>
-      <c r="K17" s="106">
+      <c r="K17" s="112">
         <f t="shared" si="3"/>
         <v>-0.0740870786516855</v>
       </c>
     </row>
     <row r="18" ht="17.6" hidden="1" spans="1:11">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64" t="s">
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="81">
         <v>68</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="81">
         <v>72.7</v>
       </c>
-      <c r="G18" s="75">
+      <c r="G18" s="81">
         <v>56</v>
       </c>
-      <c r="H18" s="81">
+      <c r="H18" s="87">
         <v>64.5</v>
       </c>
-      <c r="I18" s="105">
+      <c r="I18" s="111">
         <f>AVERAGE(E18:H18)</f>
         <v>65.3</v>
       </c>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106">
+      <c r="J18" s="112"/>
+      <c r="K18" s="112">
         <f>(I18-71.2)/71.2</f>
         <v>-0.0828651685393259</v>
       </c>
     </row>
     <row r="19" ht="17.6" spans="1:11">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64" t="s">
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="75">
+      <c r="E19" s="81">
         <v>69.9</v>
       </c>
-      <c r="F19" s="75">
+      <c r="F19" s="81">
         <v>73.5</v>
       </c>
-      <c r="G19" s="75">
+      <c r="G19" s="81">
         <v>65</v>
       </c>
-      <c r="H19" s="81">
+      <c r="H19" s="87">
         <v>67.2</v>
       </c>
-      <c r="I19" s="109">
+      <c r="I19" s="115">
         <f>AVERAGE(E19:H19)</f>
         <v>68.9</v>
       </c>
-      <c r="J19" s="106"/>
-      <c r="K19" s="110">
+      <c r="J19" s="112"/>
+      <c r="K19" s="116">
         <f>(I19-71.2)/71.2</f>
         <v>-0.0323033707865168</v>
       </c>
     </row>
     <row r="20" ht="17.6" hidden="1" spans="1:11">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64" t="s">
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="75">
+      <c r="E20" s="81">
         <v>68.4</v>
       </c>
-      <c r="F20" s="75">
+      <c r="F20" s="81">
         <v>73.5</v>
       </c>
-      <c r="G20" s="75">
+      <c r="G20" s="81">
         <v>64.3</v>
       </c>
-      <c r="H20" s="81">
+      <c r="H20" s="87">
         <v>66.9</v>
       </c>
-      <c r="I20" s="105">
+      <c r="I20" s="111">
         <f>AVERAGE(E20:H20)</f>
         <v>68.275</v>
       </c>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106">
+      <c r="J20" s="112"/>
+      <c r="K20" s="112">
         <f>(I20-71.2)/71.2</f>
         <v>-0.0410814606741573</v>
       </c>
     </row>
     <row r="21" ht="17.6" spans="1:11">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64" t="s">
+      <c r="A21" s="70"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="75">
+      <c r="E21" s="81">
         <v>70</v>
       </c>
-      <c r="F21" s="75">
+      <c r="F21" s="81">
         <v>73.3</v>
       </c>
-      <c r="G21" s="75">
+      <c r="G21" s="81">
         <v>64.3</v>
       </c>
-      <c r="H21" s="81">
+      <c r="H21" s="87">
         <v>67.1</v>
       </c>
-      <c r="I21" s="105">
+      <c r="I21" s="111">
         <f>AVERAGE(E21:H21)</f>
         <v>68.675</v>
       </c>
-      <c r="J21" s="106">
+      <c r="J21" s="112">
         <v>-0.002</v>
       </c>
-      <c r="K21" s="106">
+      <c r="K21" s="112">
         <f>(I21-71.2)/71.2</f>
         <v>-0.0354634831460673</v>
       </c>
     </row>
     <row r="22" ht="17.6" spans="1:11">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64" t="s">
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="75">
+      <c r="E22" s="81">
         <v>64.5</v>
       </c>
-      <c r="F22" s="75">
+      <c r="F22" s="81">
         <v>73.8</v>
       </c>
-      <c r="G22" s="75">
+      <c r="G22" s="81">
         <v>58.5</v>
       </c>
-      <c r="H22" s="81">
+      <c r="H22" s="87">
         <v>67.3</v>
       </c>
-      <c r="I22" s="105">
+      <c r="I22" s="111">
         <f>AVERAGE(E22:H22)</f>
         <v>66.025</v>
       </c>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106">
+      <c r="J22" s="112"/>
+      <c r="K22" s="112">
         <f>(I22-71.2)/71.2</f>
         <v>-0.0726825842696629</v>
       </c>
     </row>
     <row r="23" ht="17.6" spans="1:11">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64" t="s">
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="105" t="e">
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="111" t="e">
         <f>AVERAGE(E23:H23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106" t="e">
+      <c r="J23" s="112"/>
+      <c r="K23" s="112" t="e">
         <f>(I23-71.2)/71.2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" ht="17.6" hidden="1" spans="1:11">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69" t="s">
+      <c r="A24" s="75"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="82">
+      <c r="E24" s="88">
         <v>65.2</v>
       </c>
-      <c r="F24" s="82">
+      <c r="F24" s="88">
         <v>71.3</v>
       </c>
-      <c r="G24" s="82">
+      <c r="G24" s="88">
         <v>57.8</v>
       </c>
-      <c r="H24" s="83">
+      <c r="H24" s="89">
         <v>63.5</v>
       </c>
-      <c r="I24" s="107">
+      <c r="I24" s="113">
         <f t="shared" ref="I24:I27" si="4">AVERAGE(E24:H24)</f>
         <v>64.45</v>
       </c>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108">
+      <c r="J24" s="114"/>
+      <c r="K24" s="114">
         <f t="shared" ref="K24:K27" si="5">(I24-71.2)/71.2</f>
         <v>-0.0948033707865168</v>
       </c>
     </row>
     <row r="25" ht="17.6" hidden="1" spans="1:11">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64" t="s">
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="75">
+      <c r="E25" s="81">
         <v>65.9</v>
       </c>
-      <c r="F25" s="75">
+      <c r="F25" s="81">
         <v>72.2</v>
       </c>
-      <c r="G25" s="75">
+      <c r="G25" s="81">
         <v>60.7</v>
       </c>
-      <c r="H25" s="81">
+      <c r="H25" s="87">
         <v>64.7</v>
       </c>
-      <c r="I25" s="105">
+      <c r="I25" s="111">
         <f t="shared" si="4"/>
         <v>65.875</v>
       </c>
-      <c r="J25" s="106">
+      <c r="J25" s="112">
         <v>0.014</v>
       </c>
-      <c r="K25" s="106">
+      <c r="K25" s="112">
         <f t="shared" si="5"/>
         <v>-0.0747893258426967</v>
       </c>
     </row>
     <row r="26" ht="17.6" hidden="1" spans="1:11">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="75">
+      <c r="E26" s="81">
         <v>66.3</v>
       </c>
-      <c r="F26" s="75">
+      <c r="F26" s="81">
         <v>72.9</v>
       </c>
-      <c r="G26" s="75">
+      <c r="G26" s="81">
         <v>62.1</v>
       </c>
-      <c r="H26" s="81">
+      <c r="H26" s="87">
         <v>65</v>
       </c>
-      <c r="I26" s="105">
+      <c r="I26" s="111">
         <f t="shared" si="4"/>
         <v>66.575</v>
       </c>
-      <c r="J26" s="106">
+      <c r="J26" s="112">
         <v>0.021</v>
       </c>
-      <c r="K26" s="106">
+      <c r="K26" s="112">
         <f t="shared" si="5"/>
         <v>-0.0649578651685395</v>
       </c>
     </row>
     <row r="27" ht="17.6" hidden="1" spans="1:11">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64" t="s">
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="75">
+      <c r="E27" s="81">
         <v>65.8</v>
       </c>
-      <c r="F27" s="75">
+      <c r="F27" s="81">
         <v>72.9</v>
       </c>
-      <c r="G27" s="75">
+      <c r="G27" s="81">
         <v>57.4</v>
       </c>
-      <c r="H27" s="81">
+      <c r="H27" s="87">
         <v>63.7</v>
       </c>
-      <c r="I27" s="105">
+      <c r="I27" s="111">
         <f t="shared" si="4"/>
         <v>64.95</v>
       </c>
-      <c r="J27" s="106">
+      <c r="J27" s="112">
         <v>0.005</v>
       </c>
-      <c r="K27" s="106">
+      <c r="K27" s="112">
         <f t="shared" si="5"/>
         <v>-0.0877808988764045</v>
       </c>
     </row>
     <row r="28" ht="17.6" hidden="1" spans="1:11">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64" t="s">
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="75">
+      <c r="E28" s="81">
         <v>66.2</v>
       </c>
-      <c r="F28" s="75">
+      <c r="F28" s="81">
         <v>73.8</v>
       </c>
-      <c r="G28" s="75">
+      <c r="G28" s="81">
         <v>55.6</v>
       </c>
-      <c r="H28" s="81">
+      <c r="H28" s="87">
         <v>63.9</v>
       </c>
-      <c r="I28" s="105">
+      <c r="I28" s="111">
         <f>AVERAGE(E28:H28)</f>
         <v>64.875</v>
       </c>
-      <c r="J28" s="106">
+      <c r="J28" s="112">
         <v>0.004</v>
       </c>
-      <c r="K28" s="106">
+      <c r="K28" s="112">
         <f>(I28-71.2)/71.2</f>
         <v>-0.0888342696629214</v>
       </c>
     </row>
     <row r="29" ht="17.6" spans="1:11">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="79">
+      <c r="E29" s="85">
         <v>66.1</v>
       </c>
-      <c r="F29" s="79">
+      <c r="F29" s="85">
         <v>69.8</v>
       </c>
-      <c r="G29" s="79">
+      <c r="G29" s="85">
         <v>54.2</v>
       </c>
-      <c r="H29" s="80">
+      <c r="H29" s="86">
         <v>61.5</v>
       </c>
-      <c r="I29" s="100">
+      <c r="I29" s="106">
         <f>AVERAGE(E29:H29)</f>
         <v>62.9</v>
       </c>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102">
+      <c r="J29" s="108"/>
+      <c r="K29" s="108">
         <f>(I29-71.2)/71.2</f>
         <v>-0.116573033707865</v>
       </c>
     </row>
     <row r="30" ht="17.6" spans="1:11">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70" t="s">
+      <c r="A30" s="76"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="70" t="s">
+      <c r="D30" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="84">
+      <c r="E30" s="90">
         <v>63.7</v>
       </c>
-      <c r="F30" s="84">
+      <c r="F30" s="90">
         <v>69.9</v>
       </c>
-      <c r="G30" s="84">
+      <c r="G30" s="90">
         <v>58.5</v>
       </c>
-      <c r="H30" s="85">
+      <c r="H30" s="91">
         <v>61.8</v>
       </c>
-      <c r="I30" s="111">
+      <c r="I30" s="117">
         <f>AVERAGE(E30:H30)</f>
         <v>63.475</v>
       </c>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112">
+      <c r="J30" s="118"/>
+      <c r="K30" s="118">
         <f>(I30-71.2)/71.2</f>
         <v>-0.108497191011236</v>
       </c>
     </row>
     <row r="31" ht="17.6" hidden="1" spans="1:11">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68" t="s">
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="79">
+      <c r="E31" s="85">
         <v>63.8</v>
       </c>
-      <c r="F31" s="79">
+      <c r="F31" s="85">
         <v>70.2</v>
       </c>
-      <c r="G31" s="79">
+      <c r="G31" s="85">
         <v>60.3</v>
       </c>
-      <c r="H31" s="80">
+      <c r="H31" s="86">
         <v>63.2</v>
       </c>
-      <c r="I31" s="100">
+      <c r="I31" s="106">
         <f>AVERAGE(E31:H31)</f>
         <v>64.375</v>
       </c>
-      <c r="J31" s="102">
+      <c r="J31" s="108">
         <v>0.009</v>
       </c>
-      <c r="K31" s="102">
+      <c r="K31" s="108">
         <f>(I31-71.2)/71.2</f>
         <v>-0.0958567415730337</v>
       </c>
     </row>
     <row r="32" ht="17.6" hidden="1" spans="1:11">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68" t="s">
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="79">
+      <c r="E32" s="85">
         <v>65.7</v>
       </c>
-      <c r="F32" s="79">
+      <c r="F32" s="85">
         <v>70.2</v>
       </c>
-      <c r="G32" s="79">
+      <c r="G32" s="85">
         <v>57.8</v>
       </c>
-      <c r="H32" s="80">
+      <c r="H32" s="86">
         <v>62.4</v>
       </c>
-      <c r="I32" s="100">
+      <c r="I32" s="106">
         <f>AVERAGE(E32:H32)</f>
         <v>64.025</v>
       </c>
-      <c r="J32" s="102">
+      <c r="J32" s="108">
         <v>0.005</v>
       </c>
-      <c r="K32" s="102">
+      <c r="K32" s="108">
         <f>(I32-71.2)/71.2</f>
         <v>-0.100772471910113</v>
       </c>
     </row>
     <row r="33" ht="17.6" spans="1:11">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71" t="s">
+      <c r="A33" s="77"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="77">
         <v>62.8</v>
       </c>
-      <c r="F33" s="71">
+      <c r="F33" s="77">
         <v>71.8</v>
       </c>
-      <c r="G33" s="71">
+      <c r="G33" s="77">
         <v>66.4</v>
       </c>
-      <c r="H33" s="71">
+      <c r="H33" s="77">
         <v>63.6</v>
       </c>
-      <c r="I33" s="103">
+      <c r="I33" s="109">
         <f>AVERAGE(E33:H33)</f>
         <v>66.15</v>
       </c>
-      <c r="J33" s="102">
+      <c r="J33" s="108">
         <v>0.027</v>
       </c>
-      <c r="K33" s="104">
+      <c r="K33" s="110">
         <f>(I33-71.2)/71.2</f>
         <v>-0.0709269662921348</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:11">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68" t="s">
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="79">
+      <c r="E34" s="85">
         <v>63.2</v>
       </c>
-      <c r="F34" s="79">
+      <c r="F34" s="85">
         <v>70.4</v>
       </c>
-      <c r="G34" s="79">
+      <c r="G34" s="85">
         <v>66.1</v>
       </c>
-      <c r="H34" s="80">
+      <c r="H34" s="86">
         <v>62.3</v>
       </c>
-      <c r="I34" s="100">
+      <c r="I34" s="106">
         <f>AVERAGE(E34:H34)</f>
         <v>65.5</v>
       </c>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102">
+      <c r="J34" s="108"/>
+      <c r="K34" s="108">
         <f>(I34-71.2)/71.2</f>
         <v>-0.0800561797752809</v>
       </c>
     </row>
     <row r="35" ht="17.6" spans="1:11">
-      <c r="A35" s="68"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68" t="s">
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="79">
+      <c r="E35" s="85">
         <v>62</v>
       </c>
-      <c r="F35" s="79">
+      <c r="F35" s="85">
         <v>70.3</v>
       </c>
-      <c r="G35" s="79">
+      <c r="G35" s="85">
         <v>56.3</v>
       </c>
-      <c r="H35" s="80">
+      <c r="H35" s="86">
         <v>62.2</v>
       </c>
-      <c r="I35" s="100">
+      <c r="I35" s="106">
         <f>AVERAGE(E35:H35)</f>
         <v>62.7</v>
       </c>
-      <c r="J35" s="102">
+      <c r="J35" s="108">
         <v>-0.028</v>
       </c>
-      <c r="K35" s="102">
+      <c r="K35" s="108">
         <f>(I35-71.2)/71.2</f>
         <v>-0.11938202247191</v>
       </c>
     </row>
     <row r="36" ht="17.6" spans="1:11">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="72" t="s">
+      <c r="D36" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="86">
+      <c r="E36" s="92">
         <v>65.9</v>
       </c>
-      <c r="F36" s="86">
+      <c r="F36" s="92">
         <v>69.5</v>
       </c>
-      <c r="G36" s="86">
+      <c r="G36" s="92">
         <v>54.9</v>
       </c>
-      <c r="H36" s="87">
+      <c r="H36" s="93">
         <v>60.9</v>
       </c>
-      <c r="I36" s="113">
+      <c r="I36" s="119">
         <f>AVERAGE(E36:H36)</f>
         <v>62.8</v>
       </c>
-      <c r="J36" s="114"/>
-      <c r="K36" s="114">
+      <c r="J36" s="120"/>
+      <c r="K36" s="120">
         <f>(I36-71.2)/71.2</f>
         <v>-0.117977528089888</v>
       </c>
     </row>
     <row r="37" ht="17.6" spans="1:11">
-      <c r="A37" s="73"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73" t="s">
+      <c r="A37" s="79"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="94">
         <v>61.4</v>
       </c>
-      <c r="F37" s="88">
+      <c r="F37" s="94">
         <v>63.5</v>
       </c>
-      <c r="G37" s="88">
+      <c r="G37" s="94">
         <v>54.5</v>
       </c>
-      <c r="H37" s="89">
+      <c r="H37" s="95">
         <v>53.3</v>
       </c>
-      <c r="I37" s="105">
+      <c r="I37" s="111">
         <f>AVERAGE(E37:H37)</f>
         <v>58.175</v>
       </c>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115">
+      <c r="J37" s="121"/>
+      <c r="K37" s="121">
         <f>(I37-71.2)/71.2</f>
         <v>-0.182935393258427</v>
       </c>
     </row>
     <row r="38" ht="17.6" hidden="1" spans="1:11">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64" t="s">
+      <c r="A38" s="70"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="75">
+      <c r="E38" s="81">
         <v>62.6</v>
       </c>
-      <c r="F38" s="75">
+      <c r="F38" s="81">
         <v>67.2</v>
       </c>
-      <c r="G38" s="75">
+      <c r="G38" s="81">
         <v>53.8</v>
       </c>
-      <c r="H38" s="81">
+      <c r="H38" s="87">
         <v>53.4</v>
       </c>
-      <c r="I38" s="105">
+      <c r="I38" s="111">
         <f>AVERAGE(E38:H38)</f>
         <v>59.25</v>
       </c>
-      <c r="J38" s="106">
+      <c r="J38" s="112">
         <v>0.001</v>
       </c>
-      <c r="K38" s="106">
+      <c r="K38" s="112">
         <f>(I38-71.2)/71.2</f>
         <v>-0.167837078651685</v>
       </c>
     </row>
-    <row r="39" s="62" customFormat="1" ht="17.6" spans="1:11">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74" t="s">
+    <row r="39" s="68" customFormat="1" ht="17.6" spans="1:11">
+      <c r="A39" s="80"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="74">
+      <c r="E39" s="80">
         <v>62.5</v>
       </c>
-      <c r="F39" s="74">
+      <c r="F39" s="80">
         <v>67.4</v>
       </c>
-      <c r="G39" s="74">
+      <c r="G39" s="80">
         <v>52.4</v>
       </c>
-      <c r="H39" s="74">
+      <c r="H39" s="80">
         <v>54.6</v>
       </c>
-      <c r="I39" s="105">
+      <c r="I39" s="111">
         <f>AVERAGE(E39:H39)</f>
         <v>59.225</v>
       </c>
-      <c r="J39" s="116">
+      <c r="J39" s="122">
         <v>0.01</v>
       </c>
-      <c r="K39" s="116">
+      <c r="K39" s="122">
         <f>(I39-71.2)/71.2</f>
         <v>-0.168188202247191</v>
       </c>
     </row>
     <row r="40" ht="17.6" spans="1:11">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64" t="s">
+      <c r="A40" s="70"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="D40" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="75">
+      <c r="E40" s="81">
         <v>62.6</v>
       </c>
-      <c r="F40" s="75">
+      <c r="F40" s="81">
         <v>68.2</v>
       </c>
-      <c r="G40" s="75">
+      <c r="G40" s="81">
         <v>59.6</v>
       </c>
-      <c r="H40" s="81">
+      <c r="H40" s="87">
         <v>60.7</v>
       </c>
-      <c r="I40" s="109">
+      <c r="I40" s="115">
         <f>AVERAGE(E40:H40)</f>
         <v>62.775</v>
       </c>
-      <c r="J40" s="106"/>
-      <c r="K40" s="110">
+      <c r="J40" s="112"/>
+      <c r="K40" s="116">
         <f>(I40-71.2)/71.2</f>
         <v>-0.118328651685393</v>
       </c>
     </row>
     <row r="41" ht="17.6" spans="1:11">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64" t="s">
+      <c r="A41" s="70"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="75">
+      <c r="E41" s="81">
         <v>62.2</v>
       </c>
-      <c r="F41" s="75">
+      <c r="F41" s="81">
         <v>67</v>
       </c>
-      <c r="G41" s="75">
+      <c r="G41" s="81">
         <v>53.4</v>
       </c>
-      <c r="H41" s="81">
+      <c r="H41" s="87">
         <v>60.4</v>
       </c>
-      <c r="I41" s="105">
+      <c r="I41" s="111">
         <f>AVERAGE(E41:H41)</f>
         <v>60.75</v>
       </c>
-      <c r="J41" s="106">
+      <c r="J41" s="112">
         <v>-0.02</v>
       </c>
-      <c r="K41" s="106">
+      <c r="K41" s="112">
         <f>(I41-71.2)/71.2</f>
         <v>-0.146769662921348</v>
       </c>
@@ -7080,119 +7103,119 @@
     <col min="2" max="2" width="24.8365384615385" customWidth="1"/>
     <col min="3" max="3" width="23.875" customWidth="1"/>
     <col min="4" max="4" width="24.9903846153846" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="47" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="119.5" customHeight="1" spans="1:5">
-      <c r="A1" s="48"/>
-      <c r="B1" s="49" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="65" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" ht="41" spans="1:5">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="65" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" ht="123" spans="1:5">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="65" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" ht="21" spans="1:5">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="55" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" ht="35.5" customHeight="1" spans="1:5">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="66" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" ht="41" spans="1:5">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="61"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" ht="21" spans="1:5">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="56" t="b">
+      <c r="C7" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="65" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7210,10 +7233,10 @@
   <sheetPr/>
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -7229,101 +7252,101 @@
     <col min="10" max="10" width="7.53846153846154" customWidth="1"/>
     <col min="12" max="12" width="9.25" customWidth="1"/>
     <col min="13" max="13" width="9.76923076923077" customWidth="1"/>
-    <col min="14" max="14" width="14.0961538461538" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.4134615384615" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14.0961538461538" style="6" customWidth="1"/>
+    <col min="15" max="15" width="10.4134615384615" style="7" customWidth="1"/>
     <col min="16" max="16" width="12.0192307692308" customWidth="1"/>
     <col min="17" max="18" width="13.8173076923077" customWidth="1"/>
-    <col min="19" max="19" width="12.9230769230769" style="5"/>
+    <col min="19" max="19" width="12.9230769230769" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.6" spans="1:15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="40" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="9">
         <v>48.3</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="24">
         <v>72.7</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="24">
         <v>77.4</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="24">
         <v>38.3</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="24">
         <v>44.2</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="24">
         <v>78.7</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="24">
         <v>63.2</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="24">
         <v>70.1</v>
       </c>
-      <c r="N2" s="36">
+      <c r="N2" s="41">
         <f t="shared" ref="N2:N6" si="0">AVERAGE(F2:M2)</f>
         <v>61.6125</v>
       </c>
-      <c r="O2" s="37">
+      <c r="O2" s="42">
         <f t="shared" ref="O2:O6" si="1">N2-61.6</f>
         <v>0.0124999999999957</v>
       </c>
@@ -7338,42 +7361,42 @@
         <v>105</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F3" s="9">
         <v>45</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="25">
         <v>67.1</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="25">
         <v>75.6</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="25">
         <v>31.8</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="25">
         <v>42.2</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="25">
         <v>80.2</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="25">
         <v>59.9</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="25">
         <v>70</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N3" s="41">
         <f t="shared" si="0"/>
         <v>58.975</v>
       </c>
-      <c r="O3" s="39">
+      <c r="O3" s="42">
         <f t="shared" si="1"/>
         <v>-2.62500000000001</v>
       </c>
     </row>
-    <row r="4" ht="17.6" spans="1:15">
+    <row r="4" ht="17.6" hidden="1" spans="1:15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7384,118 +7407,118 @@
       <c r="F4" s="9">
         <v>44</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="25">
         <v>66</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="25">
         <v>74.5</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="25">
         <v>27.9</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="25">
         <v>42.6</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="25">
         <v>78.5</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="25">
         <v>56.3</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="25">
         <v>67.3</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="41">
         <f t="shared" si="0"/>
         <v>57.1375</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="42">
         <f t="shared" si="1"/>
         <v>-4.4625</v>
       </c>
     </row>
     <row r="5" ht="17.6" spans="1:15">
       <c r="A5" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F5" s="9">
         <v>39.5</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="25">
         <v>70.2</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="25">
         <v>67.6</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="25">
         <v>35.2</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="25">
         <v>40.4</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="25">
         <v>75.8</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="25">
         <v>48.4</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="25">
         <v>65.7</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="41">
         <f t="shared" si="0"/>
         <v>55.35</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="42">
         <f t="shared" si="1"/>
         <v>-6.25000000000001</v>
       </c>
     </row>
-    <row r="6" ht="17.6" spans="1:15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="24" t="s">
+    <row r="6" ht="17.6" hidden="1" spans="1:15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>42.1</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="27">
         <v>72</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="27">
         <v>69.2</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="27">
         <v>33.7</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="27">
         <v>39.8</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="27">
         <v>75.1</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="27">
         <v>47.7</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="27">
         <v>66.5</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6" s="41">
         <f t="shared" si="0"/>
         <v>55.7625</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="43">
         <f t="shared" si="1"/>
         <v>-5.83750000000001</v>
       </c>
@@ -7507,259 +7530,259 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F7" s="9">
         <v>40.3</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="25">
         <v>71.3</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="25">
         <v>69</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="25">
         <v>36.2</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="25">
         <v>37.8</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="25">
         <v>75.8</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="25">
         <v>51.6</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="25">
         <v>68</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="41">
         <f>AVERAGE(F7:M7)</f>
         <v>56.25</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="42">
         <f>N7-61.6</f>
         <v>-5.34999999999999</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="17.6" spans="1:19">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="24" t="s">
+    <row r="8" s="4" customFormat="1" ht="17.6" spans="1:19">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="12">
         <v>40.1</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="29">
         <v>70.2</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="29">
         <v>68.6</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="29">
         <v>36.1</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="29">
         <v>38.4</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="29">
         <v>76.2</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="29">
         <v>51.6</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="29">
         <v>66.4</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="44">
         <f>AVERAGE(F8:M8)</f>
         <v>55.95</v>
       </c>
-      <c r="O8" s="40">
+      <c r="O8" s="45">
         <f>N8-61.6</f>
         <v>-5.65</v>
       </c>
-      <c r="S8" s="46"/>
+      <c r="S8" s="52"/>
     </row>
     <row r="9" customFormat="1" ht="17.6" spans="1:19">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="13">
         <v>43.4</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="30">
         <v>74.4</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="30">
         <v>73.7</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="30">
         <v>32.6</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="30">
         <v>42.2</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="30">
         <v>79.3</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="30">
         <v>59.6</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="30">
         <v>68.3</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="44">
         <f>AVERAGE(F9:M9)</f>
         <v>59.1875</v>
       </c>
-      <c r="O9" s="40">
+      <c r="O9" s="45">
         <f>N9-61.6</f>
         <v>-2.41249999999999</v>
       </c>
-      <c r="S9" s="5"/>
+      <c r="S9" s="8"/>
     </row>
     <row r="10" customFormat="1" ht="17.6" spans="1:19">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13">
         <v>43.3</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="30">
         <v>74</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="30">
         <v>74.8</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="30">
         <v>38</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="30">
         <v>39.4</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="30">
         <v>78.6</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="30">
         <v>58.8</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="30">
         <v>68.8</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="44">
         <f>AVERAGE(F10:M10)</f>
         <v>59.4625</v>
       </c>
-      <c r="O10" s="40">
+      <c r="O10" s="45">
         <f>N10-61.6</f>
         <v>-2.1375</v>
       </c>
-      <c r="S10" s="5"/>
+      <c r="S10" s="8"/>
     </row>
     <row r="11" customFormat="1" ht="17.6" spans="1:19">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13">
         <v>43.5</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="30">
         <v>73.6</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="30">
         <v>74.7</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="30">
         <v>37.9</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="30">
         <v>39.6</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="30">
         <v>78.8</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="37">
         <v>58.5</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="30">
         <v>68.3</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="44">
         <f>AVERAGE(F11:M11)</f>
         <v>59.3625</v>
       </c>
-      <c r="O11" s="40">
+      <c r="O11" s="45">
         <f>N11-61.6</f>
         <v>-2.2375</v>
       </c>
-      <c r="S11" s="5"/>
+      <c r="S11" s="8"/>
     </row>
     <row r="12" customFormat="1" ht="17.6" spans="1:19">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13">
         <v>43.7</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="30">
         <v>73.7</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="30">
         <v>74.8</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="30">
         <v>38</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="30">
         <v>39</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="30">
         <v>78.8</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="37">
         <v>58.8</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="30">
         <v>68.6</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="44">
         <f>AVERAGE(F12:M12)</f>
         <v>59.425</v>
       </c>
-      <c r="O12" s="40">
+      <c r="O12" s="45">
         <f>N12-61.6</f>
         <v>-2.175</v>
       </c>
@@ -7772,614 +7795,614 @@
       <c r="R12">
         <v>16375728128</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="8">
         <f>P12/R12</f>
         <v>0.908081624570557</v>
       </c>
     </row>
     <row r="13" ht="17.6" spans="1:15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="14">
         <v>38.1</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="31">
         <v>71.8</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="31">
         <v>67.3</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="31">
         <v>29.4</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="31">
         <v>40.8</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="31">
         <v>76.5</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="31">
         <v>59.6</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="31">
         <v>67.3</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="46">
         <f>AVERAGE(F13:M13)</f>
         <v>56.35</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="47">
         <f>N13-61.6</f>
         <v>-5.25</v>
       </c>
     </row>
     <row r="14" ht="17.6" spans="1:15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16">
         <v>38.8</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="32">
         <v>67.9</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="32">
         <v>66.6</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="32">
         <v>29.7</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="32">
         <v>37.4</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="32">
         <v>75.8</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="32">
         <v>54.5</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="32">
         <v>66.1</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="46">
         <f>AVERAGE(F14:M14)</f>
         <v>54.6</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="47">
         <f>N14-61.6</f>
         <v>-7.00000000000001</v>
       </c>
     </row>
     <row r="15" ht="17.6" spans="1:15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="32">
         <v>73.1</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="32">
         <v>75.2</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="32">
         <v>61.2</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="32">
         <v>66.9</v>
       </c>
-      <c r="N15" s="41">
+      <c r="N15" s="46">
         <f>AVERAGE(F15:M15)</f>
         <v>69.1</v>
       </c>
-      <c r="O15" s="42" t="s">
+      <c r="O15" s="47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" ht="17.6" spans="1:15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16">
         <v>38.4</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="32">
         <v>73</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="32">
         <v>66.5</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="32">
         <v>29.3</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="32">
         <v>37.8</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="32">
         <v>77.2</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="32">
         <v>58.1</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="32">
         <v>68.5</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="46">
         <f>AVERAGE(F16:M16)</f>
         <v>56.1</v>
       </c>
-      <c r="O16" s="42">
+      <c r="O16" s="47">
         <f>N16-61.6</f>
         <v>-5.5</v>
       </c>
     </row>
     <row r="17" ht="17.6" spans="1:15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16">
         <v>38.9</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="32">
         <v>73.9</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="32">
         <v>68.8</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="32">
         <v>29.7</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="32">
         <v>38.8</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="32">
         <v>77.3</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="32">
         <v>59.9</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="32">
         <v>68.3</v>
       </c>
-      <c r="N17" s="41">
+      <c r="N17" s="46">
         <f>AVERAGE(F17:M17)</f>
         <v>56.95</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="47">
         <f>N17-61.6</f>
         <v>-4.65</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="17.6" spans="1:19">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13">
+    <row r="18" s="5" customFormat="1" ht="17.6" spans="1:19">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16">
         <v>39.5</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="32">
         <v>74.1</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="32">
         <v>69.1</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="32">
         <v>29.7</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="32">
         <v>38</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="32">
         <v>77.2</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="32">
         <v>60.7</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="32">
         <v>68.4</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="46">
         <f>AVERAGE(F18:M18)</f>
         <v>57.0875</v>
       </c>
-      <c r="O18" s="43">
+      <c r="O18" s="48">
         <f>N18-61.6</f>
         <v>-4.51250000000001</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="5">
         <v>13365267476</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="5">
         <v>415236096</v>
       </c>
       <c r="R18">
         <v>16375728128</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="8">
         <f>P18/R18</f>
         <v>0.816163249141113</v>
       </c>
     </row>
     <row r="19" ht="17.6" spans="1:15">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13">
         <v>36.6</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="30">
         <v>65.1</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="30">
         <v>64.7</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="30">
         <v>29.6</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="30">
         <v>38</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="30">
         <v>74.9</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="30">
         <v>62.5</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="30">
         <v>64.6</v>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="44">
         <f>AVERAGE(F19:M19)</f>
         <v>54.5</v>
       </c>
-      <c r="O19" s="39">
+      <c r="O19" s="49">
         <f>N19-61.6</f>
         <v>-7.1</v>
       </c>
     </row>
     <row r="20" ht="17.6" spans="1:15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13">
         <v>37.7</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="30">
         <v>64.7</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="30">
         <v>65.2</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="30">
         <v>28.9</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="30">
         <v>39</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="30">
         <v>74.8</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="30">
         <v>59.9</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="30">
         <v>63.2</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="44">
         <f>AVERAGE(F20:M20)</f>
         <v>54.175</v>
       </c>
-      <c r="O20" s="39">
+      <c r="O20" s="49">
         <f>N20-61.6</f>
         <v>-7.425</v>
       </c>
     </row>
     <row r="21" ht="17.6" spans="1:15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17">
         <v>35.3</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="33">
         <v>67.9</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="33">
         <v>61.8</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="33">
         <v>27.9</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="33">
         <v>34.6</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="33">
         <v>73.8</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="33">
         <v>55.6</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M21" s="33">
         <v>63.5</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="44">
         <f>AVERAGE(F21:M21)</f>
         <v>52.55</v>
       </c>
-      <c r="O21" s="39">
+      <c r="O21" s="49">
         <f>N21-61.6</f>
         <v>-9.05</v>
       </c>
     </row>
     <row r="22" ht="17.6" spans="1:15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="30">
         <v>68.9</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="30">
         <v>73.6</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="30">
         <v>55.6</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="30">
         <v>65.7</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22" s="44">
         <f>AVERAGE(F22:M22)</f>
         <v>65.95</v>
       </c>
-      <c r="O22" s="39" t="s">
+      <c r="O22" s="49" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" ht="17.6" spans="1:15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13">
         <v>36.4</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="30">
         <v>70.3</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="30">
         <v>63.1</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="30">
         <v>27.8</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="30">
         <v>37.4</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="30">
         <v>75.2</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="30">
         <v>64.6</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="30">
         <v>67.2</v>
       </c>
-      <c r="N23" s="38">
+      <c r="N23" s="44">
         <f>AVERAGE(F23:M23)</f>
         <v>55.25</v>
       </c>
-      <c r="O23" s="39">
+      <c r="O23" s="49">
         <f>N23-61.6</f>
         <v>-6.35000000000001</v>
       </c>
     </row>
     <row r="24" ht="17.6" spans="1:15">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13">
         <v>34.6</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="30">
         <v>65.7</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="30">
         <v>59.4</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="30">
         <v>26.7</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="30">
         <v>36</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="30">
         <v>74.5</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="30">
         <v>59.6</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="30">
         <v>66.3</v>
       </c>
-      <c r="N24" s="38">
+      <c r="N24" s="44">
         <f>AVERAGE(F24:M24)</f>
         <v>52.85</v>
       </c>
-      <c r="O24" s="39">
+      <c r="O24" s="49">
         <f>N24-61.6</f>
         <v>-8.75</v>
       </c>
     </row>
     <row r="25" ht="17.6" spans="1:15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13">
         <v>38.8</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="30">
         <v>71.5</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="30">
         <v>65.4</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="30">
         <v>27.7</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="30">
         <v>38</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="30">
         <v>75.1</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="37">
         <v>59.2</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="30">
         <v>66.3</v>
       </c>
-      <c r="N25" s="38">
+      <c r="N25" s="44">
         <f>AVERAGE(F25:M25)</f>
         <v>55.25</v>
       </c>
-      <c r="O25" s="39">
+      <c r="O25" s="49">
         <f>N25-61.6</f>
         <v>-6.35</v>
       </c>
     </row>
     <row r="26" ht="17.6" spans="1:19">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13">
         <v>38.7</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="30">
         <v>71.6</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="30">
         <v>67.6</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="30">
         <v>27.9</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="30">
         <v>37.8</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="30">
         <v>75.6</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="37">
         <v>59.6</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="30">
         <v>66.5</v>
       </c>
-      <c r="N26" s="38">
+      <c r="N26" s="44">
         <f>AVERAGE(F26:M26)</f>
         <v>55.6625</v>
       </c>
-      <c r="O26" s="44">
+      <c r="O26" s="50">
         <f>N26-61.6</f>
         <v>-5.93750000000001</v>
       </c>
@@ -8392,302 +8415,302 @@
       <c r="R26">
         <v>16375728128</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="8">
         <f>P26/R26</f>
         <v>0.72424487371167</v>
       </c>
     </row>
     <row r="27" ht="17.6" spans="1:15">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16">
         <v>33</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="32">
         <v>64.1</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="32">
         <v>58.5</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="32">
         <v>28.3</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="32">
         <v>36</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K27" s="32">
         <v>70.3</v>
       </c>
-      <c r="L27" s="27">
+      <c r="L27" s="32">
         <v>62.1</v>
       </c>
-      <c r="M27" s="27">
+      <c r="M27" s="32">
         <v>62.4</v>
       </c>
-      <c r="N27" s="41">
+      <c r="N27" s="46">
         <f>AVERAGE(F27:M27)</f>
         <v>51.8375</v>
       </c>
-      <c r="O27" s="42">
+      <c r="O27" s="47">
         <f>N27-61.6</f>
         <v>-9.7625</v>
       </c>
     </row>
     <row r="28" ht="17.6" spans="1:15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15">
+      <c r="E28" s="18"/>
+      <c r="F28" s="18">
         <v>30.6</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="34">
         <v>63.7</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="34">
         <v>56.2</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="34">
         <v>26.1</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28" s="34">
         <v>32.6</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="34">
         <v>70.4</v>
       </c>
-      <c r="L28" s="29">
+      <c r="L28" s="34">
         <v>59.2</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M28" s="34">
         <v>61.7</v>
       </c>
-      <c r="N28" s="41">
+      <c r="N28" s="46">
         <f>AVERAGE(F28:M28)</f>
         <v>50.0625</v>
       </c>
-      <c r="O28" s="42">
+      <c r="O28" s="47">
         <f>N28-61.6</f>
         <v>-11.5375</v>
       </c>
     </row>
     <row r="29" ht="17.6" spans="1:15">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17">
+      <c r="E29" s="20"/>
+      <c r="F29" s="20">
         <v>32.8</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="19">
         <v>62.9</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="19">
         <v>61.4</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="19">
         <v>26.3</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="19">
         <v>34.4</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="19">
         <v>71.8</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="19">
         <v>66.8</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="51">
         <v>63.9</v>
       </c>
-      <c r="N29" s="41">
+      <c r="N29" s="46">
         <f>AVERAGE(F29:M29)</f>
         <v>52.5375</v>
       </c>
-      <c r="O29" s="42">
+      <c r="O29" s="47">
         <f>N29-61.6</f>
         <v>-9.0625</v>
       </c>
     </row>
     <row r="30" ht="17.6" spans="1:15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16">
         <v>31.3</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="32">
         <v>63.9</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="32">
         <v>57</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="32">
         <v>26.4</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="32">
         <v>32</v>
       </c>
-      <c r="K30" s="27">
+      <c r="K30" s="32">
         <v>71.7</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L30" s="32">
         <v>63.5</v>
       </c>
-      <c r="M30" s="27">
+      <c r="M30" s="32">
         <v>62.6</v>
       </c>
-      <c r="N30" s="41">
+      <c r="N30" s="46">
         <f>AVERAGE(F30:M30)</f>
         <v>51.05</v>
       </c>
-      <c r="O30" s="42">
+      <c r="O30" s="47">
         <f>N30-61.6</f>
         <v>-10.55</v>
       </c>
     </row>
     <row r="31" ht="17.6" spans="1:15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13">
+      <c r="E31" s="16"/>
+      <c r="F31" s="16">
         <v>31.7</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="32">
         <v>63.2</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="32">
         <v>57.9</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="32">
         <v>26.1</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J31" s="32">
         <v>34.8</v>
       </c>
-      <c r="K31" s="27">
+      <c r="K31" s="32">
         <v>71.6</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L31" s="32">
         <v>66.8</v>
       </c>
-      <c r="M31" s="27">
+      <c r="M31" s="32">
         <v>63.2</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N31" s="46">
         <f>AVERAGE(F31:M31)</f>
         <v>51.9125</v>
       </c>
-      <c r="O31" s="42">
+      <c r="O31" s="47">
         <f t="shared" ref="O31:O37" si="2">N31-61.6</f>
         <v>-9.68750000000001</v>
       </c>
     </row>
     <row r="32" ht="17.6" spans="1:15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16">
         <v>35.1</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="32">
         <v>64.6</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="32">
         <v>60.1</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="32">
         <v>25.9</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J32" s="32">
         <v>36</v>
       </c>
-      <c r="K32" s="27">
+      <c r="K32" s="32">
         <v>72.6</v>
       </c>
-      <c r="L32" s="33">
+      <c r="L32" s="38">
         <v>59.6</v>
       </c>
-      <c r="M32" s="27">
+      <c r="M32" s="32">
         <v>63.1</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="46">
         <f>AVERAGE(F32:M32)</f>
         <v>52.125</v>
       </c>
-      <c r="O32" s="42">
+      <c r="O32" s="47">
         <f>N32-61.6</f>
         <v>-9.475</v>
       </c>
     </row>
     <row r="33" ht="17.6" spans="1:19">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16">
         <v>35.7</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="32">
         <v>65.1</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="32">
         <v>63.9</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="32">
         <v>26</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J33" s="32">
         <v>36.6</v>
       </c>
-      <c r="K33" s="27">
+      <c r="K33" s="32">
         <v>73.7</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L33" s="38">
         <v>59.9</v>
       </c>
-      <c r="M33" s="27">
+      <c r="M33" s="32">
         <v>64.6</v>
       </c>
-      <c r="N33" s="41">
+      <c r="N33" s="46">
         <f>AVERAGE(F33:M33)</f>
         <v>53.1875</v>
       </c>
-      <c r="O33" s="43">
+      <c r="O33" s="48">
         <f>N33-61.6</f>
         <v>-8.4125</v>
       </c>
@@ -8700,178 +8723,178 @@
       <c r="R33">
         <v>16375728128</v>
       </c>
-      <c r="S33" s="5">
+      <c r="S33" s="8">
         <f>P33/R33</f>
         <v>0.632326498282227</v>
       </c>
     </row>
     <row r="34" ht="17.6" spans="1:15">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18">
+      <c r="E34" s="21"/>
+      <c r="F34" s="21">
         <v>30.8</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="35">
         <v>62.8</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="35">
         <v>49.3</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="35">
         <v>25.2</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="35">
         <v>31.6</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="35">
         <v>66.9</v>
       </c>
-      <c r="L34" s="30">
+      <c r="L34" s="35">
         <v>59.2</v>
       </c>
-      <c r="M34" s="30">
+      <c r="M34" s="35">
         <v>59.1</v>
       </c>
-      <c r="N34" s="41">
+      <c r="N34" s="46">
         <f>AVERAGE(F34:M34)</f>
         <v>48.1125</v>
       </c>
-      <c r="O34" s="42">
+      <c r="O34" s="47">
         <f>N34-61.6</f>
         <v>-13.4875</v>
       </c>
     </row>
     <row r="35" ht="17.6" spans="1:15">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="39"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="49"/>
     </row>
     <row r="36" ht="17.6" spans="1:15">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="9" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="39"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="49"/>
     </row>
     <row r="37" ht="17.6" spans="1:15">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9">
+      <c r="E37" s="13"/>
+      <c r="F37" s="13">
         <v>31</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="30">
         <v>62.3</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="30">
         <v>53.2</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="30">
         <v>24.3</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="30">
         <v>33</v>
       </c>
-      <c r="K37" s="23">
+      <c r="K37" s="30">
         <v>68.2</v>
       </c>
-      <c r="L37" s="23">
+      <c r="L37" s="30">
         <v>57.4</v>
       </c>
-      <c r="M37" s="23">
+      <c r="M37" s="30">
         <v>60</v>
       </c>
-      <c r="N37" s="38">
+      <c r="N37" s="44">
         <f>AVERAGE(F37:M37)</f>
         <v>48.675</v>
       </c>
-      <c r="O37" s="39">
+      <c r="O37" s="49">
         <f>N37-61.6</f>
         <v>-12.925</v>
       </c>
     </row>
     <row r="38" ht="17.6" spans="1:19">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9">
+      <c r="E38" s="13"/>
+      <c r="F38" s="13">
         <v>32.3</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="30">
         <v>62.7</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="30">
         <v>57.1</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="30">
         <v>25.1</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="30">
         <v>34.2</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="30">
         <v>69.6</v>
       </c>
-      <c r="L38" s="23">
+      <c r="L38" s="30">
         <v>56.7</v>
       </c>
-      <c r="M38" s="23">
+      <c r="M38" s="30">
         <v>62</v>
       </c>
-      <c r="N38" s="38">
+      <c r="N38" s="44">
         <f>AVERAGE(F38:M38)</f>
         <v>49.9625</v>
       </c>
-      <c r="O38" s="44">
+      <c r="O38" s="50">
         <f>N38-61.6</f>
         <v>-11.6375</v>
       </c>
@@ -8884,9 +8907,297 @@
       <c r="R38">
         <v>16375728128</v>
       </c>
-      <c r="S38" s="5">
+      <c r="S38" s="8">
         <f>P38/R38</f>
         <v>0.540408122852783</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="18.2596153846154" customWidth="1"/>
+    <col min="10" max="10" width="18.2692307692308" customWidth="1"/>
+    <col min="11" max="11" width="10.0865384615385" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.6" spans="2:11">
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>48.1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>72.3631</v>
+      </c>
+      <c r="E2" s="3">
+        <v>77.2617</v>
+      </c>
+      <c r="F2" s="3">
+        <v>37.8119</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44.0262</v>
+      </c>
+      <c r="H2" s="3">
+        <v>80.3932</v>
+      </c>
+      <c r="I2" s="3">
+        <v>63.932</v>
+      </c>
+      <c r="J2" s="3">
+        <v>70.2981</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(C2:J2)</f>
+        <v>61.773275</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>42.2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>71.7102</v>
+      </c>
+      <c r="E3" s="3">
+        <v>71.3793</v>
+      </c>
+      <c r="F3" s="3">
+        <v>36.8906</v>
+      </c>
+      <c r="G3" s="3">
+        <v>39.794</v>
+      </c>
+      <c r="H3" s="3">
+        <v>77.1624</v>
+      </c>
+      <c r="I3" s="3">
+        <v>47.3058</v>
+      </c>
+      <c r="J3" s="3">
+        <v>69.7871</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(C3:J3)</f>
+        <v>57.028675</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>38.7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>69.497</v>
+      </c>
+      <c r="E4" s="3">
+        <v>67.1197</v>
+      </c>
+      <c r="F4" s="3">
+        <v>32.8983</v>
+      </c>
+      <c r="G4" s="3">
+        <v>37.809</v>
+      </c>
+      <c r="H4" s="3">
+        <v>74.7094</v>
+      </c>
+      <c r="I4" s="3">
+        <v>48.034</v>
+      </c>
+      <c r="J4" s="3">
+        <v>67.5383</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE(C4:J4)</f>
+        <v>54.5382125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>36.2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>62.2236</v>
+      </c>
+      <c r="E5" s="3">
+        <v>57.1805</v>
+      </c>
+      <c r="F5" s="3">
+        <v>28.9827</v>
+      </c>
+      <c r="G5" s="3">
+        <v>34.6255</v>
+      </c>
+      <c r="H5" s="3">
+        <v>70.1624</v>
+      </c>
+      <c r="I5" s="3">
+        <v>63.2443</v>
+      </c>
+      <c r="J5" s="3">
+        <v>64.6763</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGE(C5:J5)</f>
+        <v>52.1619125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>31.9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>62.1256</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50.3854</v>
+      </c>
+      <c r="F6" s="3">
+        <v>26.142</v>
+      </c>
+      <c r="G6" s="3">
+        <v>33.2397</v>
+      </c>
+      <c r="H6" s="3">
+        <v>67.8291</v>
+      </c>
+      <c r="I6" s="3">
+        <v>59.199</v>
+      </c>
+      <c r="J6" s="3">
+        <v>62.121</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGE(C6:J6)</f>
+        <v>49.117725</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>28.3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>62.2083</v>
+      </c>
+      <c r="E7" s="3">
+        <v>37.8093</v>
+      </c>
+      <c r="F7" s="3">
+        <v>24.3762</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30.4307</v>
+      </c>
+      <c r="H7" s="3">
+        <v>58.7949</v>
+      </c>
+      <c r="I7" s="3">
+        <v>57.8236</v>
+      </c>
+      <c r="J7" s="3">
+        <v>53.586</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE(C7:J7)</f>
+        <v>44.166125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE(C8:J8)</f>
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="146">
   <si>
     <t>origin PPL</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>Throughput</t>
+  </si>
+  <si>
+    <t>speedup</t>
   </si>
   <si>
     <t>no prune</t>
@@ -3161,10 +3164,10 @@
       <c r="B2" s="33"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F2" s="3">
         <v>48.3</v>
@@ -3202,7 +3205,7 @@
         <v>100</v>
       </c>
       <c r="Q2" s="50" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" ht="17.6" hidden="1" spans="1:15">
@@ -3212,10 +3215,10 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F3" s="3">
         <v>45</v>
@@ -3252,15 +3255,15 @@
     </row>
     <row r="4" ht="17.6" hidden="1" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F4" s="3">
         <v>39.5</v>
@@ -3302,10 +3305,10 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F5" s="3">
         <v>40.3</v>
@@ -3348,13 +3351,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F6" s="5">
         <v>43.4</v>
@@ -3398,7 +3401,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3421,7 +3424,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>60</v>
@@ -3511,7 +3514,7 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
@@ -3556,13 +3559,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F11" s="34">
         <v>38.1</v>
@@ -3606,7 +3609,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -3714,7 +3717,7 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>60</v>
@@ -3804,7 +3807,7 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7">
@@ -3849,7 +3852,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>60</v>
@@ -3897,7 +3900,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5">
@@ -3939,7 +3942,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5">
@@ -4065,7 +4068,7 @@
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>60</v>
@@ -4113,7 +4116,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5">
@@ -4197,7 +4200,7 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5">
@@ -4242,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>60</v>
@@ -4290,7 +4293,7 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7">
@@ -4417,7 +4420,7 @@
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>60</v>
@@ -4507,7 +4510,7 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7">
@@ -4552,7 +4555,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>60</v>
@@ -4600,7 +4603,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -4620,7 +4623,7 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5">
@@ -4703,7 +4706,7 @@
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>60</v>
@@ -4751,7 +4754,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5">
@@ -4814,7 +4817,7 @@
   <sheetData>
     <row r="1" s="15" customFormat="1" ht="17.6" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>56</v>
@@ -4850,10 +4853,10 @@
         <v>31</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" ht="17.6" spans="1:14">
@@ -4862,10 +4865,10 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="3">
         <v>48.3</v>
@@ -4906,10 +4909,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3" s="3">
         <v>45</v>
@@ -4986,14 +4989,14 @@
     </row>
     <row r="5" s="15" customFormat="1" ht="17.6" hidden="1" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E5" s="3">
         <v>39.5</v>
@@ -5074,10 +5077,10 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="3">
         <v>40.3</v>
@@ -5200,7 +5203,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
@@ -5324,7 +5327,7 @@
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7">
@@ -5448,7 +5451,7 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5">
@@ -5572,7 +5575,7 @@
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7">
@@ -5674,7 +5677,7 @@
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5">
@@ -5733,7 +5736,7 @@
   <sheetData>
     <row r="1" ht="17.6" spans="1:10">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>97</v>
@@ -5760,7 +5763,7 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:10">
@@ -5984,7 +5987,7 @@
   <sheetData>
     <row r="1" ht="17.6" spans="1:10">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>97</v>
@@ -6011,7 +6014,7 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:10">
@@ -6231,7 +6234,7 @@
   <sheetData>
     <row r="1" ht="17.6" spans="1:10">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>97</v>
@@ -6258,7 +6261,7 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:10">
@@ -10806,17 +10809,17 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S42" sqref="S42"/>
+      <selection pane="bottomLeft" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="15.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="11.5769230769231" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="12.2788461538462" customWidth="1"/>
     <col min="4" max="4" width="30.2403846153846" customWidth="1"/>
@@ -10833,13 +10836,16 @@
     <col min="15" max="15" width="10.4134615384615" style="58" customWidth="1"/>
     <col min="16" max="16" width="14.4230769230769" customWidth="1"/>
     <col min="17" max="17" width="13.1634615384615" customWidth="1"/>
-    <col min="18" max="20" width="12.6923076923077" style="32"/>
+    <col min="18" max="18" width="12.6923076923077" style="32"/>
+    <col min="19" max="19" width="13.5288461538462" style="32" customWidth="1"/>
+    <col min="20" max="20" width="12.6923076923077" style="32"/>
     <col min="21" max="21" width="9.23076923076923" style="75"/>
     <col min="22" max="22" width="21.7115384615385" style="75" customWidth="1"/>
-    <col min="23" max="23" width="9.23076923076923" style="75"/>
+    <col min="23" max="23" width="14.7692307692308" style="75" customWidth="1"/>
+    <col min="24" max="24" width="12.9230769230769"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="17.6" spans="1:23">
+    <row r="1" s="15" customFormat="1" ht="17.6" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -10908,6 +10914,9 @@
       </c>
       <c r="W1" s="81" t="s">
         <v>110</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" ht="17.6" spans="1:23">
@@ -10917,10 +10926,10 @@
       <c r="B2" s="33"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F2" s="3">
         <v>48.3</v>
@@ -10955,7 +10964,7 @@
         <v>0.0124999999999957</v>
       </c>
       <c r="R2" s="50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S2" s="50">
         <v>16375728128</v>
@@ -10978,7 +10987,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F3" s="3">
         <v>35</v>
@@ -11013,7 +11022,7 @@
         <v>-7.8875</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -11028,10 +11037,10 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F4" s="3">
         <v>45</v>
@@ -11121,15 +11130,15 @@
     </row>
     <row r="6" s="15" customFormat="1" ht="17.6" spans="1:23">
       <c r="A6" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F6" s="3">
         <v>39.5</v>
@@ -11224,10 +11233,10 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F8" s="3">
         <v>40.3</v>
@@ -11315,7 +11324,7 @@
       <c r="V9" s="82"/>
       <c r="W9" s="82"/>
     </row>
-    <row r="10" s="16" customFormat="1" ht="17.6" spans="1:23">
+    <row r="10" s="16" customFormat="1" ht="17.6" spans="1:24">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -11329,7 +11338,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F10" s="5">
         <v>43.4</v>
@@ -11363,16 +11372,32 @@
         <f>N10-61.6</f>
         <v>-2.41249999999999</v>
       </c>
-      <c r="U10" s="83"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
+      <c r="S10" s="16">
+        <v>14714784320</v>
+      </c>
+      <c r="T10" s="16">
+        <v>28203</v>
+      </c>
+      <c r="U10" s="83">
+        <v>29403</v>
+      </c>
+      <c r="V10" s="83">
+        <v>0.4467</v>
+      </c>
+      <c r="W10" s="83">
+        <v>2.24</v>
+      </c>
+      <c r="X10" s="16">
+        <f>0.4884/V10</f>
+        <v>1.09335124244459</v>
+      </c>
     </row>
     <row r="11" s="16" customFormat="1" ht="17.6" spans="1:23">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -11392,7 +11417,7 @@
       <c r="V11" s="83"/>
       <c r="W11" s="83"/>
     </row>
-    <row r="12" s="16" customFormat="1" ht="17.6" spans="1:23">
+    <row r="12" s="16" customFormat="1" ht="17.6" spans="1:24">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -11435,7 +11460,7 @@
         <v>-2.1375</v>
       </c>
       <c r="R12" s="51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S12" s="51">
         <v>14870497802</v>
@@ -11451,6 +11476,10 @@
       </c>
       <c r="W12" s="83">
         <v>2.15</v>
+      </c>
+      <c r="X12" s="16">
+        <f>0.4884/V12</f>
+        <v>1.05077452667814</v>
       </c>
     </row>
     <row r="13" s="16" customFormat="1" ht="17.6" spans="1:23">
@@ -11505,7 +11534,7 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
@@ -11547,7 +11576,7 @@
       <c r="V14" s="83"/>
       <c r="W14" s="83"/>
     </row>
-    <row r="15" s="17" customFormat="1" ht="17.6" spans="1:23">
+    <row r="15" s="17" customFormat="1" ht="17.6" spans="1:24">
       <c r="A15" s="34" t="s">
         <v>50</v>
       </c>
@@ -11561,7 +11590,7 @@
         <v>60</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F15" s="34">
         <v>38.1</v>
@@ -11595,16 +11624,32 @@
         <f>N15-61.6</f>
         <v>-5.25</v>
       </c>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-    </row>
-    <row r="16" s="17" customFormat="1" ht="17.6" spans="1:23">
+      <c r="S15" s="17">
+        <v>13053840512</v>
+      </c>
+      <c r="T15" s="17">
+        <v>25035</v>
+      </c>
+      <c r="U15" s="84">
+        <v>26235</v>
+      </c>
+      <c r="V15" s="84">
+        <v>0.4155</v>
+      </c>
+      <c r="W15" s="84">
+        <v>2.41</v>
+      </c>
+      <c r="X15" s="16">
+        <f>0.4884/V15</f>
+        <v>1.17545126353791</v>
+      </c>
+    </row>
+    <row r="16" s="17" customFormat="1" ht="17.6" spans="1:24">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -11623,8 +11668,9 @@
       <c r="U16" s="84"/>
       <c r="V16" s="84"/>
       <c r="W16" s="84"/>
-    </row>
-    <row r="17" s="17" customFormat="1" ht="17.6" spans="1:23">
+      <c r="X16" s="16"/>
+    </row>
+    <row r="17" s="17" customFormat="1" ht="17.6" spans="1:24">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
@@ -11667,7 +11713,7 @@
         <v>-7.00000000000001</v>
       </c>
       <c r="R17" s="52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S17" s="52">
         <v>13365267476</v>
@@ -11684,8 +11730,12 @@
       <c r="W17" s="84">
         <v>2.18</v>
       </c>
-    </row>
-    <row r="18" s="17" customFormat="1" ht="17.6" spans="1:23">
+      <c r="X17" s="16">
+        <f>0.4884/V17</f>
+        <v>1.06428415776858</v>
+      </c>
+    </row>
+    <row r="18" s="17" customFormat="1" ht="17.6" spans="1:24">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -11730,8 +11780,9 @@
       <c r="U18" s="84"/>
       <c r="V18" s="84"/>
       <c r="W18" s="84"/>
-    </row>
-    <row r="19" s="17" customFormat="1" ht="17.6" spans="1:23">
+      <c r="X18" s="16"/>
+    </row>
+    <row r="19" s="17" customFormat="1" ht="17.6" spans="1:24">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
@@ -11779,8 +11830,9 @@
       <c r="U19" s="84"/>
       <c r="V19" s="84"/>
       <c r="W19" s="84"/>
-    </row>
-    <row r="20" s="17" customFormat="1" ht="17.6" spans="1:23">
+      <c r="X19" s="16"/>
+    </row>
+    <row r="20" s="17" customFormat="1" ht="17.6" spans="1:24">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -11826,13 +11878,14 @@
       <c r="U20" s="84"/>
       <c r="V20" s="84"/>
       <c r="W20" s="84"/>
-    </row>
-    <row r="21" s="17" customFormat="1" ht="17.6" spans="1:23">
+      <c r="X20" s="16"/>
+    </row>
+    <row r="21" s="17" customFormat="1" ht="17.6" spans="1:24">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7">
@@ -11873,8 +11926,9 @@
       <c r="U21" s="84"/>
       <c r="V21" s="84"/>
       <c r="W21" s="84"/>
-    </row>
-    <row r="22" s="16" customFormat="1" ht="17.6" spans="1:23">
+      <c r="X21" s="16"/>
+    </row>
+    <row r="22" s="16" customFormat="1" ht="17.6" spans="1:24">
       <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
@@ -11920,16 +11974,32 @@
         <f>N22-61.6</f>
         <v>-7.1</v>
       </c>
-      <c r="U22" s="83"/>
-      <c r="V22" s="83"/>
-      <c r="W22" s="83"/>
+      <c r="S22" s="16">
+        <v>11392896704</v>
+      </c>
+      <c r="T22" s="16">
+        <v>21868</v>
+      </c>
+      <c r="U22" s="83">
+        <v>23068</v>
+      </c>
+      <c r="V22" s="83">
+        <v>0.3722</v>
+      </c>
+      <c r="W22" s="83">
+        <v>2.69</v>
+      </c>
+      <c r="X22" s="16">
+        <f>0.4884/V22</f>
+        <v>1.31219774314884</v>
+      </c>
     </row>
     <row r="23" s="16" customFormat="1" ht="17.6" spans="1:23">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5">
@@ -11973,7 +12043,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5">
@@ -12015,7 +12085,7 @@
       <c r="V24" s="83"/>
       <c r="W24" s="83"/>
     </row>
-    <row r="25" s="16" customFormat="1" ht="17.6" spans="1:23">
+    <row r="25" s="16" customFormat="1" ht="17.6" spans="1:24">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36" t="s">
@@ -12058,7 +12128,7 @@
         <v>-9.05</v>
       </c>
       <c r="R25" s="51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S25" s="51">
         <v>11860037150</v>
@@ -12074,6 +12144,10 @@
       </c>
       <c r="W25" s="83">
         <v>2.45</v>
+      </c>
+      <c r="X25" s="16">
+        <f>0.4884/V25</f>
+        <v>1.19735229222849</v>
       </c>
     </row>
     <row r="26" s="16" customFormat="1" ht="17.6" spans="1:23">
@@ -12176,7 +12250,7 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5">
@@ -12270,7 +12344,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5">
@@ -12312,7 +12386,7 @@
       <c r="V30" s="83"/>
       <c r="W30" s="83"/>
     </row>
-    <row r="31" s="17" customFormat="1" ht="17.6" spans="1:23">
+    <row r="31" s="17" customFormat="1" ht="17.6" spans="1:24">
       <c r="A31" s="7" t="s">
         <v>54</v>
       </c>
@@ -12358,16 +12432,32 @@
         <f>N31-61.6</f>
         <v>-9.7625</v>
       </c>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84"/>
-    </row>
-    <row r="32" s="17" customFormat="1" ht="17.6" spans="1:23">
+      <c r="S31" s="17">
+        <v>9731952896</v>
+      </c>
+      <c r="T31" s="17">
+        <v>18700</v>
+      </c>
+      <c r="U31" s="84">
+        <v>19900</v>
+      </c>
+      <c r="V31" s="84">
+        <v>0.3417</v>
+      </c>
+      <c r="W31" s="84">
+        <v>2.93</v>
+      </c>
+      <c r="X31" s="16">
+        <f>0.4884/V31</f>
+        <v>1.42932396839333</v>
+      </c>
+    </row>
+    <row r="32" s="17" customFormat="1" ht="17.6" spans="1:24">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7">
@@ -12408,8 +12498,9 @@
       <c r="U32" s="84"/>
       <c r="V32" s="84"/>
       <c r="W32" s="84"/>
-    </row>
-    <row r="33" s="17" customFormat="1" ht="17.6" spans="1:23">
+      <c r="X32" s="16"/>
+    </row>
+    <row r="33" s="17" customFormat="1" ht="17.6" spans="1:24">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37" t="s">
@@ -12452,7 +12543,7 @@
         <v>-11.5375</v>
       </c>
       <c r="R33" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S33" s="52">
         <v>10354806824</v>
@@ -12469,8 +12560,12 @@
       <c r="W33" s="84">
         <v>2.64</v>
       </c>
-    </row>
-    <row r="34" s="17" customFormat="1" ht="17.6" spans="1:23">
+      <c r="X33" s="16">
+        <f>0.4884/V33</f>
+        <v>1.28763511732138</v>
+      </c>
+    </row>
+    <row r="34" s="17" customFormat="1" ht="17.6" spans="1:24">
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
@@ -12516,8 +12611,9 @@
       <c r="U34" s="84"/>
       <c r="V34" s="84"/>
       <c r="W34" s="84"/>
-    </row>
-    <row r="35" s="17" customFormat="1" ht="17.6" spans="1:23">
+      <c r="X34" s="16"/>
+    </row>
+    <row r="35" s="17" customFormat="1" ht="17.6" spans="1:24">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
@@ -12565,8 +12661,9 @@
       <c r="U35" s="84"/>
       <c r="V35" s="84"/>
       <c r="W35" s="84"/>
-    </row>
-    <row r="36" s="17" customFormat="1" ht="17.6" spans="1:23">
+      <c r="X35" s="16"/>
+    </row>
+    <row r="36" s="17" customFormat="1" ht="17.6" spans="1:24">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -12612,13 +12709,14 @@
       <c r="U36" s="84"/>
       <c r="V36" s="84"/>
       <c r="W36" s="84"/>
-    </row>
-    <row r="37" s="17" customFormat="1" ht="17.6" spans="1:23">
+      <c r="X36" s="16"/>
+    </row>
+    <row r="37" s="17" customFormat="1" ht="17.6" spans="1:24">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7">
@@ -12659,8 +12757,9 @@
       <c r="U37" s="84"/>
       <c r="V37" s="84"/>
       <c r="W37" s="84"/>
-    </row>
-    <row r="38" s="16" customFormat="1" ht="17.6" spans="1:23">
+      <c r="X37" s="16"/>
+    </row>
+    <row r="38" s="16" customFormat="1" ht="17.6" spans="1:24">
       <c r="A38" s="39" t="s">
         <v>72</v>
       </c>
@@ -12707,14 +12806,24 @@
         <v>-13.4875</v>
       </c>
       <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="83"/>
+      <c r="S38" s="51">
+        <v>8071009088</v>
+      </c>
+      <c r="T38" s="51">
+        <v>15532</v>
+      </c>
+      <c r="U38" s="83">
+        <v>16732</v>
+      </c>
       <c r="V38" s="83">
-        <v>0.3012</v>
+        <v>0.2997</v>
       </c>
       <c r="W38" s="83">
-        <v>3.32</v>
+        <v>3.34</v>
+      </c>
+      <c r="X38" s="16">
+        <f>0.4884/V38</f>
+        <v>1.62962962962963</v>
       </c>
     </row>
     <row r="39" s="16" customFormat="1" ht="17.6" spans="1:23">
@@ -12722,7 +12831,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5">
@@ -12764,7 +12873,7 @@
       <c r="V39" s="83"/>
       <c r="W39" s="83"/>
     </row>
-    <row r="40" s="16" customFormat="1" ht="17.6" spans="1:23">
+    <row r="40" s="16" customFormat="1" ht="17.6" spans="1:24">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40" t="s">
@@ -12785,7 +12894,7 @@
       <c r="N40" s="10"/>
       <c r="O40" s="30"/>
       <c r="R40" s="51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S40" s="51">
         <v>8849576498</v>
@@ -12801,6 +12910,10 @@
       </c>
       <c r="W40" s="83">
         <v>2.95</v>
+      </c>
+      <c r="X40" s="16">
+        <f>0.4884/V40</f>
+        <v>1.44198405668733</v>
       </c>
     </row>
     <row r="41" s="16" customFormat="1" ht="17.6" spans="1:23">
@@ -12882,7 +12995,7 @@
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5">
@@ -12950,7 +13063,7 @@
   <sheetData>
     <row r="1" s="53" customFormat="1" spans="1:11">
       <c r="A1" s="60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="61" t="s">
         <v>2</v>
@@ -12980,13 +13093,13 @@
         <v>31</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" s="54" customFormat="1" spans="1:11">
       <c r="A2" s="63"/>
       <c r="B2" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3">
         <v>48.3</v>
@@ -13058,7 +13171,7 @@
         <v>0.908</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4" s="68">
         <v>43.3</v>
@@ -13092,7 +13205,7 @@
     <row r="5" ht="17" customHeight="1" spans="1:11">
       <c r="A5" s="65"/>
       <c r="B5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" s="68">
         <v>43.7</v>
@@ -13119,7 +13232,7 @@
         <v>68.6</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" s="55" customFormat="1" spans="1:11">
@@ -13163,7 +13276,7 @@
         <v>0.816</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" s="72">
         <v>38.4</v>
@@ -13197,7 +13310,7 @@
     <row r="8" s="55" customFormat="1" spans="1:11">
       <c r="A8" s="69"/>
       <c r="B8" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" s="72">
         <v>39.5</v>
@@ -13224,7 +13337,7 @@
         <v>68.4</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13268,7 +13381,7 @@
         <v>0.724</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" s="68">
         <v>36.4</v>
@@ -13302,7 +13415,7 @@
     <row r="11" spans="1:11">
       <c r="A11" s="65"/>
       <c r="B11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" s="68">
         <v>38.7</v>
@@ -13329,7 +13442,7 @@
         <v>66.5</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" s="55" customFormat="1" spans="1:11">
@@ -13373,7 +13486,7 @@
         <v>0.632</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="72">
         <v>31.7</v>
@@ -13407,7 +13520,7 @@
     <row r="14" s="55" customFormat="1" spans="1:11">
       <c r="A14" s="69"/>
       <c r="B14" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14" s="72">
         <v>35.7</v>
@@ -13434,7 +13547,7 @@
         <v>64.6</v>
       </c>
       <c r="K14" s="72" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" s="56" customFormat="1" spans="1:11">
@@ -13478,7 +13591,7 @@
         <v>0.54</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" s="68">
         <v>31</v>
@@ -13512,7 +13625,7 @@
     <row r="17" s="56" customFormat="1" spans="1:11">
       <c r="A17" s="65"/>
       <c r="B17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C17" s="68">
         <v>32.3</v>
@@ -13539,7 +13652,7 @@
         <v>62</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9500" firstSheet="7" activeTab="7"/>
+    <workbookView windowWidth="25600" windowHeight="9500" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="block" sheetId="9" r:id="rId12"/>
     <sheet name="finetune" sheetId="12" r:id="rId13"/>
     <sheet name="wo_finetune" sheetId="13" r:id="rId14"/>
+    <sheet name="shared_finetune" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="146">
   <si>
     <t>origin PPL</t>
   </si>
@@ -451,112 +452,112 @@
     <t>Drop(%)</t>
   </si>
   <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>PARA</t>
+  </si>
+  <si>
+    <t>MAX_MEM</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>Average inference time</t>
+  </si>
+  <si>
+    <t>Throughput</t>
+  </si>
+  <si>
+    <t>speedup</t>
+  </si>
+  <si>
+    <t>no prune</t>
+  </si>
+  <si>
+    <t>bf16</t>
+  </si>
+  <si>
+    <t>2.8B</t>
+  </si>
+  <si>
+    <t>qw1.8B</t>
+  </si>
+  <si>
+    <t>1.8B</t>
+  </si>
+  <si>
+    <t>删除16/64个expert，剪枝27/27层</t>
+  </si>
+  <si>
+    <t>layer trimming</t>
+  </si>
+  <si>
+    <t>删除64/64 expert，剪枝4/27层</t>
+  </si>
+  <si>
+    <t>删除64/64 attention+expert，剪枝4/27层</t>
+  </si>
+  <si>
+    <t>finetune</t>
+  </si>
+  <si>
+    <t>2.7B</t>
+  </si>
+  <si>
+    <t>finetune 2+6 extra expert 5w</t>
+  </si>
+  <si>
+    <t>2.5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lora finetune</t>
+  </si>
+  <si>
+    <t>2.4B</t>
+  </si>
+  <si>
+    <t>w/o bad ppl layer</t>
+  </si>
+  <si>
+    <t>2.2B</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>parameter ratio</t>
+  </si>
+  <si>
+    <t>AVE</t>
+  </si>
+  <si>
+    <t>greedy search w/o ft</t>
+  </si>
+  <si>
+    <t>greedy search with ft</t>
+  </si>
+  <si>
+    <t>59.4(+2.4)</t>
+  </si>
+  <si>
+    <t>57.1(+2.6)</t>
+  </si>
+  <si>
+    <t>55.7(+3.5)</t>
+  </si>
+  <si>
+    <t>53.2(+4.1)</t>
+  </si>
+  <si>
+    <t>50.0(+5.8)</t>
+  </si>
+  <si>
     <t>Parameter(%)</t>
   </si>
   <si>
     <t>Speed up</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>PARA</t>
-  </si>
-  <si>
-    <t>MAX_MEM</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>Average inference time</t>
-  </si>
-  <si>
-    <t>Throughput</t>
-  </si>
-  <si>
-    <t>speedup</t>
-  </si>
-  <si>
-    <t>no prune</t>
-  </si>
-  <si>
-    <t>bf16</t>
-  </si>
-  <si>
-    <t>2.8B</t>
-  </si>
-  <si>
-    <t>qw1.8B</t>
-  </si>
-  <si>
-    <t>1.8B</t>
-  </si>
-  <si>
-    <t>删除16/64个expert，剪枝27/27层</t>
-  </si>
-  <si>
-    <t>layer trimming</t>
-  </si>
-  <si>
-    <t>删除64/64 expert，剪枝4/27层</t>
-  </si>
-  <si>
-    <t>删除64/64 attention+expert，剪枝4/27层</t>
-  </si>
-  <si>
-    <t>finetune</t>
-  </si>
-  <si>
-    <t>2.7B</t>
-  </si>
-  <si>
-    <t>finetune 2+6 extra expert 5w</t>
-  </si>
-  <si>
-    <t>2.5B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lora finetune</t>
-  </si>
-  <si>
-    <t>2.4B</t>
-  </si>
-  <si>
-    <t>w/o bad ppl layer</t>
-  </si>
-  <si>
-    <t>2.2B</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>parameter ratio</t>
-  </si>
-  <si>
-    <t>AVE</t>
-  </si>
-  <si>
-    <t>greedy search w/o ft</t>
-  </si>
-  <si>
-    <t>greedy search with ft</t>
-  </si>
-  <si>
-    <t>59.4(+2.4)</t>
-  </si>
-  <si>
-    <t>57.1(+2.6)</t>
-  </si>
-  <si>
-    <t>55.7(+3.5)</t>
-  </si>
-  <si>
-    <t>53.2(+4.1)</t>
-  </si>
-  <si>
-    <t>50.0(+5.8)</t>
   </si>
   <si>
     <t>1x</t>
@@ -1388,27 +1389,45 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1511,15 +1530,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1604,16 +1614,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3101,10 +3102,10 @@
     <col min="5" max="13" width="9.23076923076923" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="17.625" customWidth="1"/>
     <col min="16" max="16" width="13.4615384615385" customWidth="1"/>
-    <col min="17" max="17" width="9.23076923076923" style="32"/>
+    <col min="17" max="17" width="9.23076923076923" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="17.6" spans="1:17">
+    <row r="1" s="18" customFormat="1" ht="17.6" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3144,30 +3145,30 @@
       <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" s="49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" s="15" customFormat="1" ht="17.6" spans="1:17">
+      <c r="P1" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" s="18" customFormat="1" ht="17.6" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" s="3">
         <v>48.3</v>
@@ -3193,18 +3194,18 @@
       <c r="M2" s="4">
         <v>70.1</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="12">
         <f>AVERAGE(F2:M2)</f>
         <v>61.6125</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="30">
         <f>N2-61.6</f>
         <v>0.0124999999999957</v>
       </c>
-      <c r="P2" s="48">
+      <c r="P2" s="54">
         <v>100</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3215,85 +3216,85 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F3" s="3">
         <v>45</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="26">
         <v>67.1</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="26">
         <v>75.6</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="26">
         <v>31.8</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="26">
         <v>42.2</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="26">
         <v>80.2</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="26">
         <v>59.9</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="26">
         <v>70</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="12">
         <f>AVERAGE(F3:M3)</f>
         <v>58.975</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="30">
         <f>N3-61.6</f>
         <v>-2.62500000000001</v>
       </c>
     </row>
     <row r="4" ht="17.6" hidden="1" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F4" s="3">
         <v>39.5</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="26">
         <v>70.2</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="26">
         <v>67.6</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="26">
         <v>35.2</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="26">
         <v>40.4</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="26">
         <v>75.8</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="26">
         <v>48.4</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="26">
         <v>65.7</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="12">
         <f>AVERAGE(F4:M4)</f>
         <v>55.35</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="30">
         <f>N4-61.6</f>
         <v>-6.25000000000001</v>
       </c>
@@ -3305,45 +3306,45 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F5" s="3">
         <v>40.3</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="26">
         <v>71.3</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="26">
         <v>69</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="26">
         <v>36.2</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="26">
         <v>37.8</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="26">
         <v>75.8</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="26">
         <v>51.6</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="26">
         <v>68</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="12">
         <f>AVERAGE(F5:M5)</f>
         <v>56.25</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="30">
         <f>N5-61.6</f>
         <v>-5.34999999999999</v>
       </c>
     </row>
-    <row r="6" s="16" customFormat="1" ht="17.6" spans="1:17">
+    <row r="6" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>60</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="5">
         <v>43.4</v>
@@ -3383,25 +3384,25 @@
       <c r="M6" s="6">
         <v>68.3</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="13">
         <f>AVERAGE(F6:M6)</f>
         <v>59.1875</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="33">
         <f>N6-61.6</f>
         <v>-2.41249999999999</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="22">
         <v>89.9</v>
       </c>
-      <c r="Q6" s="51"/>
-    </row>
-    <row r="7" s="16" customFormat="1" ht="17.6" spans="1:17">
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3412,15 +3413,15 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="51"/>
-    </row>
-    <row r="8" s="16" customFormat="1" ht="17.6" spans="1:17">
+      <c r="Q7" s="14"/>
+    </row>
+    <row r="8" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
@@ -3454,20 +3455,20 @@
       <c r="M8" s="6">
         <v>68.8</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="13">
         <f>AVERAGE(F8:M8)</f>
         <v>59.4625</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="33">
         <f>N8-61.6</f>
         <v>-2.1375</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="22">
         <v>90.8</v>
       </c>
-      <c r="Q8" s="51"/>
-    </row>
-    <row r="9" s="16" customFormat="1" ht="17.6" hidden="1" spans="1:17">
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3493,28 +3494,28 @@
       <c r="K9" s="6">
         <v>78.8</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="9">
         <v>58.5</v>
       </c>
       <c r="M9" s="6">
         <v>68.3</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="13">
         <f>AVERAGE(F9:M9)</f>
         <v>59.3625</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="33">
         <f>N9-61.6</f>
         <v>-2.2375</v>
       </c>
-      <c r="Q9" s="51"/>
-    </row>
-    <row r="10" s="16" customFormat="1" ht="17.6" spans="1:17">
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
@@ -3535,81 +3536,81 @@
       <c r="K10" s="6">
         <v>78.8</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="9">
         <v>58.8</v>
       </c>
       <c r="M10" s="6">
         <v>68.6</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="13">
         <f>AVERAGE(F10:M10)</f>
         <v>59.425</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="33">
         <f>N10-61.6</f>
         <v>-2.175</v>
       </c>
-      <c r="Q10" s="51"/>
-    </row>
-    <row r="11" s="17" customFormat="1" ht="17.6" spans="1:17">
-      <c r="A11" s="34" t="s">
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" s="23" customFormat="1" ht="17.6" spans="1:17">
+      <c r="A11" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="34">
+      <c r="E11" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="40">
         <v>38.1</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="48">
         <v>71.8</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="48">
         <v>67.3</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="48">
         <v>29.4</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="48">
         <v>40.8</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="48">
         <v>76.5</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="48">
         <v>59.6</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="48">
         <v>67.3</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="15">
         <f>AVERAGE(F11:M11)</f>
         <v>56.35</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="34">
         <f>N11-61.6</f>
         <v>-5.25</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="23">
         <v>79.7</v>
       </c>
-      <c r="Q11" s="52"/>
-    </row>
-    <row r="12" s="17" customFormat="1" ht="17.6" spans="1:17">
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" s="23" customFormat="1" ht="17.6" spans="1:17">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -3620,15 +3621,15 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="O12" s="28" t="s">
+      <c r="O12" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="Q12" s="52"/>
-    </row>
-    <row r="13" s="17" customFormat="1" ht="17.6" hidden="1" spans="1:17">
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" s="23" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
@@ -3662,17 +3663,17 @@
       <c r="M13" s="8">
         <v>66.1</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="15">
         <f t="shared" ref="N13:N35" si="0">AVERAGE(F13:M13)</f>
         <v>54.6</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="34">
         <f>N13-61.6</f>
         <v>-7.00000000000001</v>
       </c>
-      <c r="Q13" s="52"/>
-    </row>
-    <row r="14" s="17" customFormat="1" ht="17.6" hidden="1" spans="1:17">
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" s="23" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3704,16 +3705,16 @@
       <c r="M14" s="8">
         <v>66.9</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="15">
         <f t="shared" si="0"/>
         <v>69.1</v>
       </c>
-      <c r="O14" s="28" t="s">
+      <c r="O14" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="Q14" s="52"/>
-    </row>
-    <row r="15" s="17" customFormat="1" ht="17.6" spans="1:17">
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" s="23" customFormat="1" ht="17.6" spans="1:17">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
@@ -3747,20 +3748,20 @@
       <c r="M15" s="8">
         <v>68.5</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="15">
         <f t="shared" si="0"/>
         <v>56.1</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="34">
         <f t="shared" ref="O15:O21" si="1">N15-61.6</f>
         <v>-5.5</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="23">
         <v>81.6</v>
       </c>
-      <c r="Q15" s="52"/>
-    </row>
-    <row r="16" s="17" customFormat="1" ht="17.6" hidden="1" spans="1:17">
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" s="23" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3792,22 +3793,22 @@
       <c r="M16" s="8">
         <v>68.3</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="15">
         <f t="shared" si="0"/>
         <v>56.95</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="34">
         <f t="shared" si="1"/>
         <v>-4.65</v>
       </c>
-      <c r="Q16" s="52"/>
-    </row>
-    <row r="17" s="17" customFormat="1" ht="17.6" spans="1:17">
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" s="23" customFormat="1" ht="17.6" spans="1:17">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7">
@@ -3834,17 +3835,17 @@
       <c r="M17" s="8">
         <v>68.4</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="15">
         <f t="shared" si="0"/>
         <v>57.0875</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="35">
         <f t="shared" si="1"/>
         <v>-4.51250000000001</v>
       </c>
-      <c r="Q17" s="52"/>
-    </row>
-    <row r="18" s="16" customFormat="1" ht="17.6" spans="1:17">
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
@@ -3882,25 +3883,25 @@
       <c r="M18" s="6">
         <v>64.6</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="13">
         <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
-      <c r="O18" s="30">
+      <c r="O18" s="36">
         <f t="shared" si="1"/>
         <v>-7.1</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="22">
         <v>69.6</v>
       </c>
-      <c r="Q18" s="51"/>
-    </row>
-    <row r="19" s="16" customFormat="1" ht="17.6" hidden="1" spans="1:17">
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5">
@@ -3927,22 +3928,22 @@
       <c r="M19" s="6">
         <v>63.2</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="13">
         <f t="shared" si="0"/>
         <v>54.175</v>
       </c>
-      <c r="O19" s="30">
+      <c r="O19" s="36">
         <f t="shared" si="1"/>
         <v>-7.425</v>
       </c>
-      <c r="Q19" s="51"/>
-    </row>
-    <row r="20" s="16" customFormat="1" ht="17.6" spans="1:17">
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5">
@@ -3963,67 +3964,67 @@
       <c r="K20" s="6">
         <v>75</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="9">
         <v>62.1</v>
       </c>
       <c r="M20" s="6">
         <v>65</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="13">
         <f t="shared" si="0"/>
         <v>54.9</v>
       </c>
-      <c r="O20" s="30">
+      <c r="O20" s="36">
         <f t="shared" si="1"/>
         <v>-6.7</v>
       </c>
-      <c r="Q20" s="51"/>
-    </row>
-    <row r="21" s="16" customFormat="1" ht="17.6" hidden="1" spans="1:17">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36" t="s">
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36">
+      <c r="E21" s="42"/>
+      <c r="F21" s="42">
         <v>35.3</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="49">
         <v>67.9</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="49">
         <v>61.8</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="49">
         <v>27.9</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="49">
         <v>34.6</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="49">
         <v>73.8</v>
       </c>
-      <c r="L21" s="43">
+      <c r="L21" s="49">
         <v>55.6</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="49">
         <v>63.5</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="13">
         <f t="shared" si="0"/>
         <v>52.55</v>
       </c>
-      <c r="O21" s="30">
+      <c r="O21" s="36">
         <f t="shared" si="1"/>
         <v>-9.05</v>
       </c>
-      <c r="Q21" s="51"/>
-    </row>
-    <row r="22" s="16" customFormat="1" ht="17.6" hidden="1" spans="1:17">
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -4055,16 +4056,16 @@
       <c r="M22" s="6">
         <v>65.7</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="13">
         <f t="shared" si="0"/>
         <v>65.95</v>
       </c>
-      <c r="O22" s="30" t="s">
+      <c r="O22" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="Q22" s="51"/>
-    </row>
-    <row r="23" s="16" customFormat="1" ht="17.6" spans="1:17">
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
@@ -4098,25 +4099,25 @@
       <c r="M23" s="6">
         <v>67.2</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="13">
         <f t="shared" si="0"/>
         <v>55.25</v>
       </c>
-      <c r="O23" s="30">
+      <c r="O23" s="36">
         <f t="shared" ref="O23:O35" si="2">N23-61.6</f>
         <v>-6.35000000000001</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23" s="22">
         <v>72.4</v>
       </c>
-      <c r="Q23" s="51"/>
-    </row>
-    <row r="24" s="16" customFormat="1" ht="17.6" hidden="1" spans="1:17">
+      <c r="Q23" s="14"/>
+    </row>
+    <row r="24" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5">
@@ -4143,17 +4144,17 @@
       <c r="M24" s="6">
         <v>66.3</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="13">
         <f t="shared" si="0"/>
         <v>52.85</v>
       </c>
-      <c r="O24" s="30">
+      <c r="O24" s="36">
         <f t="shared" si="2"/>
         <v>-8.75</v>
       </c>
-      <c r="Q24" s="51"/>
-    </row>
-    <row r="25" s="16" customFormat="1" ht="17.6" hidden="1" spans="1:17">
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -4179,28 +4180,28 @@
       <c r="K25" s="6">
         <v>75.1</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="9">
         <v>59.2</v>
       </c>
       <c r="M25" s="6">
         <v>66.3</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="13">
         <f t="shared" si="0"/>
         <v>55.25</v>
       </c>
-      <c r="O25" s="30">
+      <c r="O25" s="36">
         <f t="shared" si="2"/>
         <v>-6.35</v>
       </c>
-      <c r="Q25" s="51"/>
-    </row>
-    <row r="26" s="16" customFormat="1" ht="17.6" spans="1:17">
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5">
@@ -4221,23 +4222,23 @@
       <c r="K26" s="6">
         <v>75.6</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="9">
         <v>59.6</v>
       </c>
       <c r="M26" s="6">
         <v>66.5</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="13">
         <f t="shared" si="0"/>
         <v>55.6625</v>
       </c>
-      <c r="O26" s="31">
+      <c r="O26" s="37">
         <f t="shared" si="2"/>
         <v>-5.93750000000001</v>
       </c>
-      <c r="Q26" s="51"/>
-    </row>
-    <row r="27" s="17" customFormat="1" ht="17.6" spans="1:17">
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" s="23" customFormat="1" ht="17.6" spans="1:17">
       <c r="A27" s="7" t="s">
         <v>54</v>
       </c>
@@ -4275,25 +4276,25 @@
       <c r="M27" s="8">
         <v>62.4</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="15">
         <f t="shared" si="0"/>
         <v>51.8375</v>
       </c>
-      <c r="O27" s="28">
+      <c r="O27" s="34">
         <f t="shared" si="2"/>
         <v>-9.7625</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P27" s="23">
         <v>59.4</v>
       </c>
-      <c r="Q27" s="52"/>
-    </row>
-    <row r="28" s="17" customFormat="1" ht="17.6" spans="1:17">
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" s="23" customFormat="1" ht="17.6" spans="1:17">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7">
@@ -4314,70 +4315,70 @@
       <c r="K28" s="8">
         <v>71.2</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="10">
         <v>59.6</v>
       </c>
       <c r="M28" s="8">
         <v>64.2</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="15">
         <f t="shared" si="0"/>
         <v>52.6125</v>
       </c>
-      <c r="O28" s="28">
+      <c r="O28" s="34">
         <f t="shared" si="2"/>
         <v>-8.9875</v>
       </c>
-      <c r="Q28" s="52"/>
-    </row>
-    <row r="29" s="17" customFormat="1" ht="17.6" hidden="1" spans="1:17">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37" t="s">
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" s="23" customFormat="1" ht="17.6" hidden="1" spans="1:17">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37">
+      <c r="E29" s="43"/>
+      <c r="F29" s="43">
         <v>30.6</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="50">
         <v>63.7</v>
       </c>
-      <c r="H29" s="44">
+      <c r="H29" s="50">
         <v>56.2</v>
       </c>
-      <c r="I29" s="44">
+      <c r="I29" s="50">
         <v>26.1</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J29" s="50">
         <v>32.6</v>
       </c>
-      <c r="K29" s="44">
+      <c r="K29" s="50">
         <v>70.4</v>
       </c>
-      <c r="L29" s="44">
+      <c r="L29" s="50">
         <v>59.2</v>
       </c>
-      <c r="M29" s="44">
+      <c r="M29" s="50">
         <v>61.7</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="15">
         <f t="shared" si="0"/>
         <v>50.0625</v>
       </c>
-      <c r="O29" s="28">
+      <c r="O29" s="34">
         <f t="shared" si="2"/>
         <v>-11.5375</v>
       </c>
-      <c r="Q29" s="52"/>
-    </row>
-    <row r="30" s="17" customFormat="1" ht="17.6" hidden="1" spans="1:17">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" s="23" customFormat="1" ht="17.6" hidden="1" spans="1:17">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="7" t="s">
         <v>61</v>
       </c>
@@ -4385,38 +4386,38 @@
       <c r="F30" s="7">
         <v>32.8</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="44">
         <v>62.9</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="44">
         <v>61.4</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="44">
         <v>26.3</v>
       </c>
-      <c r="J30" s="38">
+      <c r="J30" s="44">
         <v>34.4</v>
       </c>
-      <c r="K30" s="38">
+      <c r="K30" s="44">
         <v>71.8</v>
       </c>
-      <c r="L30" s="38">
+      <c r="L30" s="44">
         <v>66.8</v>
       </c>
-      <c r="M30" s="38">
+      <c r="M30" s="44">
         <v>63.9</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="15">
         <f t="shared" si="0"/>
         <v>52.5375</v>
       </c>
-      <c r="O30" s="28">
+      <c r="O30" s="34">
         <f t="shared" si="2"/>
         <v>-9.0625</v>
       </c>
-      <c r="Q30" s="52"/>
-    </row>
-    <row r="31" s="17" customFormat="1" ht="17.6" spans="1:17">
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" s="23" customFormat="1" ht="17.6" spans="1:17">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
@@ -4450,20 +4451,20 @@
       <c r="M31" s="8">
         <v>63.2</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="15">
         <f t="shared" si="0"/>
         <v>51.9125</v>
       </c>
-      <c r="O31" s="28">
+      <c r="O31" s="34">
         <f t="shared" si="2"/>
         <v>-9.68750000000001</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P31" s="23">
         <v>63.2</v>
       </c>
-      <c r="Q31" s="52"/>
-    </row>
-    <row r="32" s="17" customFormat="1" ht="17.6" hidden="1" spans="1:17">
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" s="23" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -4489,28 +4490,28 @@
       <c r="K32" s="8">
         <v>72.6</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="10">
         <v>59.6</v>
       </c>
       <c r="M32" s="8">
         <v>63.1</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="15">
         <f t="shared" si="0"/>
         <v>52.125</v>
       </c>
-      <c r="O32" s="28">
+      <c r="O32" s="34">
         <f t="shared" si="2"/>
         <v>-9.475</v>
       </c>
-      <c r="Q32" s="52"/>
-    </row>
-    <row r="33" s="17" customFormat="1" ht="17.6" spans="1:17">
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" s="23" customFormat="1" ht="17.6" spans="1:17">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7">
@@ -4531,79 +4532,79 @@
       <c r="K33" s="8">
         <v>73.7</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="10">
         <v>59.9</v>
       </c>
       <c r="M33" s="8">
         <v>64.6</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="15">
         <f t="shared" si="0"/>
         <v>53.1875</v>
       </c>
-      <c r="O33" s="29">
+      <c r="O33" s="35">
         <f t="shared" si="2"/>
         <v>-8.4125</v>
       </c>
-      <c r="Q33" s="52"/>
-    </row>
-    <row r="34" s="16" customFormat="1" ht="17.6" spans="1:17">
-      <c r="A34" s="39" t="s">
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" s="22" customFormat="1" ht="17.6" spans="1:17">
+      <c r="A34" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39">
+      <c r="E34" s="45"/>
+      <c r="F34" s="45">
         <v>30.8</v>
       </c>
-      <c r="G34" s="45">
+      <c r="G34" s="51">
         <v>62.8</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="51">
         <v>49.3</v>
       </c>
-      <c r="I34" s="45">
+      <c r="I34" s="51">
         <v>25.2</v>
       </c>
-      <c r="J34" s="45">
+      <c r="J34" s="51">
         <v>31.6</v>
       </c>
-      <c r="K34" s="45">
+      <c r="K34" s="51">
         <v>66.9</v>
       </c>
-      <c r="L34" s="45">
+      <c r="L34" s="51">
         <v>59.2</v>
       </c>
-      <c r="M34" s="45">
+      <c r="M34" s="51">
         <v>59.1</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="13">
         <f t="shared" si="0"/>
         <v>48.1125</v>
       </c>
-      <c r="O34" s="30">
+      <c r="O34" s="36">
         <f t="shared" si="2"/>
         <v>-13.4875</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="22">
         <v>49.3</v>
       </c>
-      <c r="Q34" s="51"/>
-    </row>
-    <row r="35" s="16" customFormat="1" ht="17.6" hidden="1" spans="1:17">
+      <c r="Q34" s="14"/>
+    </row>
+    <row r="35" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -4614,16 +4615,16 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="30"/>
-      <c r="Q35" s="51"/>
-    </row>
-    <row r="36" s="16" customFormat="1" ht="17.6" spans="1:17">
+      <c r="N35" s="13"/>
+      <c r="O35" s="36"/>
+      <c r="Q35" s="14"/>
+    </row>
+    <row r="36" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5">
@@ -4650,59 +4651,59 @@
       <c r="M36" s="6">
         <v>60.5</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="13">
         <f>AVERAGE(F36:M36)</f>
         <v>48.725</v>
       </c>
-      <c r="O36" s="30">
+      <c r="O36" s="36">
         <f>N36-61.6</f>
         <v>-12.875</v>
       </c>
-      <c r="Q36" s="51"/>
-    </row>
-    <row r="37" s="16" customFormat="1" ht="17.6" hidden="1" spans="1:17">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40" t="s">
+      <c r="Q36" s="14"/>
+    </row>
+    <row r="37" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="30"/>
-      <c r="Q37" s="51"/>
-    </row>
-    <row r="38" s="16" customFormat="1" ht="17.6" hidden="1" spans="1:17">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="36"/>
+      <c r="Q37" s="14"/>
+    </row>
+    <row r="38" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="30"/>
-      <c r="Q38" s="51"/>
-    </row>
-    <row r="39" s="16" customFormat="1" ht="17.6" spans="1:17">
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="36"/>
+      <c r="Q38" s="14"/>
+    </row>
+    <row r="39" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
@@ -4736,25 +4737,25 @@
       <c r="M39" s="6">
         <v>60</v>
       </c>
-      <c r="N39" s="10">
+      <c r="N39" s="13">
         <f>AVERAGE(F39:M39)</f>
         <v>48.675</v>
       </c>
-      <c r="O39" s="30">
+      <c r="O39" s="36">
         <f>N39-61.6</f>
         <v>-12.925</v>
       </c>
-      <c r="P39" s="16">
+      <c r="P39" s="22">
         <v>54</v>
       </c>
-      <c r="Q39" s="51"/>
-    </row>
-    <row r="40" s="16" customFormat="1" ht="17.6" spans="1:17">
+      <c r="Q39" s="14"/>
+    </row>
+    <row r="40" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5">
@@ -4781,15 +4782,15 @@
       <c r="M40" s="6">
         <v>62</v>
       </c>
-      <c r="N40" s="10">
+      <c r="N40" s="13">
         <f>AVERAGE(F40:M40)</f>
         <v>49.9625</v>
       </c>
-      <c r="O40" s="31">
+      <c r="O40" s="37">
         <f>N40-61.6</f>
         <v>-11.6375</v>
       </c>
-      <c r="Q40" s="51"/>
+      <c r="Q40" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4815,7 +4816,7 @@
     <col min="13" max="13" width="15.2211538461538" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="17.6" spans="1:14">
+    <row r="1" s="18" customFormat="1" ht="17.6" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
@@ -4852,23 +4853,23 @@
       <c r="L1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="29" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" s="15" customFormat="1" ht="17.6" spans="1:14">
+    <row r="2" s="18" customFormat="1" ht="17.6" spans="1:14">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E2" s="3">
         <v>48.3</v>
@@ -4894,60 +4895,60 @@
       <c r="L2" s="4">
         <v>70.1</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="12">
         <f>AVERAGE(E2:L2)</f>
         <v>61.6125</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="30">
         <f t="shared" ref="N2:N14" si="0">M2-61.6</f>
         <v>0.0124999999999957</v>
       </c>
     </row>
-    <row r="3" s="15" customFormat="1" ht="17.6" hidden="1" spans="1:14">
+    <row r="3" s="18" customFormat="1" ht="17.6" hidden="1" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" s="3">
         <v>45</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="26">
         <v>67.1</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="26">
         <v>75.6</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="26">
         <v>31.8</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="26">
         <v>42.2</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="26">
         <v>80.2</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="26">
         <v>59.9</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="26">
         <v>70</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="12">
         <f>AVERAGE(E3:L3)</f>
         <v>58.975</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="30">
         <f t="shared" si="0"/>
         <v>-2.62500000000001</v>
       </c>
     </row>
-    <row r="4" s="15" customFormat="1" ht="17.6" hidden="1" spans="1:14">
+    <row r="4" s="18" customFormat="1" ht="17.6" hidden="1" spans="1:14">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4957,165 +4958,165 @@
       <c r="E4" s="3">
         <v>44</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="26">
         <v>66</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="26">
         <v>74.5</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="26">
         <v>27.9</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="26">
         <v>42.6</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="26">
         <v>78.5</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="26">
         <v>56.3</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="26">
         <v>67.3</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="12">
         <f>AVERAGE(E4:L4)</f>
         <v>57.1375</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="30">
         <f t="shared" si="0"/>
         <v>-4.4625</v>
       </c>
     </row>
-    <row r="5" s="15" customFormat="1" ht="17.6" hidden="1" spans="1:14">
+    <row r="5" s="18" customFormat="1" ht="17.6" hidden="1" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" s="3">
         <v>39.5</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="26">
         <v>70.2</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="26">
         <v>67.6</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="26">
         <v>35.2</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="26">
         <v>40.4</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="26">
         <v>75.8</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="26">
         <v>48.4</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="26">
         <v>65.7</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="12">
         <f>AVERAGE(E5:L5)</f>
         <v>55.35</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="30">
         <f t="shared" si="0"/>
         <v>-6.25000000000001</v>
       </c>
     </row>
-    <row r="6" s="15" customFormat="1" ht="17.6" hidden="1" spans="1:14">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19" t="s">
+    <row r="6" s="18" customFormat="1" ht="17.6" hidden="1" spans="1:14">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="24">
         <v>42.1</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="27">
         <v>72</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="27">
         <v>69.2</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="27">
         <v>33.7</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="27">
         <v>39.8</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="27">
         <v>75.1</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="27">
         <v>47.7</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="27">
         <v>66.5</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="12">
         <f>AVERAGE(E6:L6)</f>
         <v>55.7625</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="31">
         <f t="shared" si="0"/>
         <v>-5.83750000000001</v>
       </c>
     </row>
-    <row r="7" s="15" customFormat="1" ht="17.6" hidden="1" spans="1:14">
+    <row r="7" s="18" customFormat="1" ht="17.6" hidden="1" spans="1:14">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E7" s="3">
         <v>40.3</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="26">
         <v>71.3</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="26">
         <v>69</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="26">
         <v>36.2</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="26">
         <v>37.8</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="26">
         <v>75.8</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="26">
         <v>51.6</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="26">
         <v>68</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="12">
         <f>AVERAGE(E7:L7)</f>
         <v>56.25</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="30">
         <f t="shared" si="0"/>
         <v>-5.34999999999999</v>
       </c>
     </row>
-    <row r="8" s="16" customFormat="1" ht="17.6" spans="1:14">
+    <row r="8" s="22" customFormat="1" ht="17.6" spans="1:14">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -5150,16 +5151,16 @@
       <c r="L8" s="6">
         <v>68.8</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="13">
         <f>AVERAGE(E8:L8)</f>
         <v>59.4625</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="32">
         <f>M8-61.6</f>
         <v>-2.1375</v>
       </c>
     </row>
-    <row r="9" s="16" customFormat="1" ht="17.6" spans="1:14">
+    <row r="9" s="22" customFormat="1" ht="17.6" spans="1:14">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
@@ -5184,26 +5185,26 @@
       <c r="J9" s="6">
         <v>78.8</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="9">
         <v>58.5</v>
       </c>
       <c r="L9" s="6">
         <v>68.3</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="13">
         <f>AVERAGE(E9:L9)</f>
         <v>59.3625</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="33">
         <f>M9-61.6</f>
         <v>-2.2375</v>
       </c>
     </row>
-    <row r="10" s="16" customFormat="1" ht="17.6" spans="1:14">
+    <row r="10" s="22" customFormat="1" ht="17.6" spans="1:14">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
@@ -5224,22 +5225,22 @@
       <c r="J10" s="6">
         <v>78.8</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="9">
         <v>58.8</v>
       </c>
       <c r="L10" s="6">
         <v>68.6</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="13">
         <f>AVERAGE(E10:L10)</f>
         <v>59.425</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="33">
         <f>M10-61.6</f>
         <v>-2.175</v>
       </c>
     </row>
-    <row r="11" s="17" customFormat="1" ht="17.6" spans="1:14">
+    <row r="11" s="23" customFormat="1" ht="17.6" spans="1:14">
       <c r="A11" s="7">
         <v>6</v>
       </c>
@@ -5274,16 +5275,16 @@
       <c r="L11" s="8">
         <v>68.5</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="15">
         <f>AVERAGE(E11:L11)</f>
         <v>56.1</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="34">
         <f>M11-61.6</f>
         <v>-5.5</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="1" ht="17.6" spans="1:14">
+    <row r="12" s="23" customFormat="1" ht="17.6" spans="1:14">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
@@ -5314,20 +5315,20 @@
       <c r="L12" s="8">
         <v>68.3</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="15">
         <f>AVERAGE(E12:L12)</f>
         <v>56.95</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="34">
         <f>M12-61.6</f>
         <v>-4.65</v>
       </c>
     </row>
-    <row r="13" s="17" customFormat="1" ht="17.6" spans="1:14">
+    <row r="13" s="23" customFormat="1" ht="17.6" spans="1:14">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7">
@@ -5354,16 +5355,16 @@
       <c r="L13" s="8">
         <v>68.4</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="15">
         <f>AVERAGE(E13:L13)</f>
         <v>57.0875</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="35">
         <f>M13-61.6</f>
         <v>-4.51250000000001</v>
       </c>
     </row>
-    <row r="14" s="16" customFormat="1" ht="17.6" spans="1:14">
+    <row r="14" s="22" customFormat="1" ht="17.6" spans="1:14">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -5398,16 +5399,16 @@
       <c r="L14" s="6">
         <v>67.2</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="13">
         <f>AVERAGE(E14:L14)</f>
         <v>55.25</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="36">
         <f>M14-61.6</f>
         <v>-6.35000000000001</v>
       </c>
     </row>
-    <row r="15" s="16" customFormat="1" ht="17.6" spans="1:14">
+    <row r="15" s="22" customFormat="1" ht="17.6" spans="1:14">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
@@ -5432,26 +5433,26 @@
       <c r="J15" s="6">
         <v>75.1</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="9">
         <v>59.2</v>
       </c>
       <c r="L15" s="6">
         <v>66.3</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="13">
         <f>AVERAGE(E15:L15)</f>
         <v>55.25</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="36">
         <f>M15-61.6</f>
         <v>-6.35</v>
       </c>
     </row>
-    <row r="16" s="16" customFormat="1" ht="17.6" spans="1:14">
+    <row r="16" s="22" customFormat="1" ht="17.6" spans="1:14">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5">
@@ -5472,22 +5473,22 @@
       <c r="J16" s="6">
         <v>75.6</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="9">
         <v>59.6</v>
       </c>
       <c r="L16" s="6">
         <v>66.5</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="13">
         <f>AVERAGE(E16:L16)</f>
         <v>55.6625</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="37">
         <f>M16-61.6</f>
         <v>-5.93750000000001</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="1" ht="17.6" spans="1:14">
+    <row r="17" s="23" customFormat="1" ht="17.6" spans="1:14">
       <c r="A17" s="7">
         <v>12</v>
       </c>
@@ -5522,16 +5523,16 @@
       <c r="L17" s="8">
         <v>63.2</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="15">
         <f>AVERAGE(E17:L17)</f>
         <v>51.9125</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="34">
         <f>M17-61.6</f>
         <v>-9.68750000000001</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" ht="17.6" spans="1:14">
+    <row r="18" s="23" customFormat="1" ht="17.6" spans="1:14">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
@@ -5556,26 +5557,26 @@
       <c r="J18" s="8">
         <v>72.6</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="10">
         <v>59.6</v>
       </c>
       <c r="L18" s="8">
         <v>63.1</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="15">
         <f>AVERAGE(E18:L18)</f>
         <v>52.125</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="34">
         <f>M18-61.6</f>
         <v>-9.475</v>
       </c>
     </row>
-    <row r="19" s="17" customFormat="1" ht="17.6" spans="1:14">
+    <row r="19" s="23" customFormat="1" ht="17.6" spans="1:14">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7">
@@ -5596,22 +5597,22 @@
       <c r="J19" s="8">
         <v>73.7</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="10">
         <v>59.9</v>
       </c>
       <c r="L19" s="8">
         <v>64.6</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="15">
         <f>AVERAGE(E19:L19)</f>
         <v>53.1875</v>
       </c>
-      <c r="N19" s="29">
+      <c r="N19" s="35">
         <f>M19-61.6</f>
         <v>-8.4125</v>
       </c>
     </row>
-    <row r="20" s="16" customFormat="1" ht="17.6" spans="1:14">
+    <row r="20" s="22" customFormat="1" ht="17.6" spans="1:14">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -5646,16 +5647,16 @@
       <c r="L20" s="6">
         <v>60</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="13">
         <f>AVERAGE(E20:L20)</f>
         <v>48.675</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="36">
         <f>M20-61.6</f>
         <v>-12.925</v>
       </c>
     </row>
-    <row r="21" s="16" customFormat="1" ht="17.6" spans="1:14">
+    <row r="21" s="22" customFormat="1" ht="17.6" spans="1:14">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
@@ -5670,14 +5671,14 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="31"/>
-    </row>
-    <row r="22" s="16" customFormat="1" ht="17.6" spans="1:14">
+      <c r="M21" s="13"/>
+      <c r="N21" s="37"/>
+    </row>
+    <row r="22" s="22" customFormat="1" ht="17.6" spans="1:14">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5">
@@ -5704,11 +5705,11 @@
       <c r="L22" s="6">
         <v>62</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="13">
         <f>AVERAGE(E22:L22)</f>
         <v>49.9625</v>
       </c>
-      <c r="N22" s="31">
+      <c r="N22" s="37">
         <f>M22-61.6</f>
         <v>-11.6375</v>
       </c>
@@ -5722,19 +5723,24 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="$A8:$XFD8"/>
+      <selection activeCell="K1" sqref="K1:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
     <col min="9" max="9" width="18.2692307692308" customWidth="1"/>
     <col min="10" max="10" width="10.0865384615385" customWidth="1"/>
+    <col min="11" max="11" width="13.6153846153846" customWidth="1"/>
+    <col min="12" max="12" width="9.44230769230769" customWidth="1"/>
+    <col min="14" max="14" width="21.9519230769231" customWidth="1"/>
+    <col min="15" max="15" width="13.2980769230769" customWidth="1"/>
+    <col min="16" max="16" width="12.9230769230769"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:10">
+    <row r="1" ht="17.6" spans="1:16">
       <c r="A1" t="s">
         <v>142</v>
       </c>
@@ -5765,8 +5771,26 @@
       <c r="J1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" ht="17.6" spans="1:10">
+      <c r="K1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5794,174 +5818,288 @@
       <c r="I2" s="4">
         <v>70.1</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="12">
         <f>AVERAGE(B2:I2)</f>
         <v>61.6125</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="11">
+        <v>16375728128</v>
+      </c>
+      <c r="L2" s="11">
+        <v>31371</v>
+      </c>
+      <c r="M2" s="17">
+        <v>32571</v>
+      </c>
+      <c r="N2" s="17">
+        <v>0.4884</v>
+      </c>
+      <c r="O2" s="17">
+        <v>2.05</v>
+      </c>
+      <c r="P2" s="18">
+        <f>0.4884/N2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
         <v>42.2</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="21">
         <v>71.7102</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="21">
         <v>71.3793</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="21">
         <v>36.8906</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="21">
         <v>39.794</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="21">
         <v>77.1624</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="21">
         <v>47.3058</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="21">
         <v>69.7871</v>
       </c>
       <c r="J3">
         <f>AVERAGE(B3:I3)</f>
         <v>57.028675</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>14612142080</v>
+      </c>
+      <c r="L3">
+        <v>27992</v>
+      </c>
+      <c r="M3">
+        <v>29148</v>
+      </c>
+      <c r="N3">
+        <v>0.4414</v>
+      </c>
+      <c r="O3">
+        <v>2.27</v>
+      </c>
+      <c r="P3" s="18">
+        <f>0.4884/N3</f>
+        <v>1.10647938377889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
         <v>38.7</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="21">
         <v>69.497</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="21">
         <v>67.1197</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="21">
         <v>32.8983</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="21">
         <v>37.809</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="21">
         <v>74.7094</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="21">
         <v>48.034</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="21">
         <v>67.5383</v>
       </c>
       <c r="J4">
         <f>AVERAGE(B4:I4)</f>
         <v>54.5382125</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>13436418048</v>
+      </c>
+      <c r="L4">
+        <v>25739</v>
+      </c>
+      <c r="M4">
+        <v>26866</v>
+      </c>
+      <c r="N4">
+        <v>0.4442</v>
+      </c>
+      <c r="O4">
+        <v>2.25</v>
+      </c>
+      <c r="P4" s="18">
+        <f>0.4884/N4</f>
+        <v>1.09950472760018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
         <v>36.2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="21">
         <v>62.2236</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="21">
         <v>57.1805</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="21">
         <v>28.9827</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="21">
         <v>34.6255</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="21">
         <v>70.1624</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="21">
         <v>63.2443</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="21">
         <v>64.6763</v>
       </c>
       <c r="J5">
         <f>AVERAGE(B5:I5)</f>
         <v>52.1619125</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>11672832000</v>
+      </c>
+      <c r="L5">
+        <v>22361</v>
+      </c>
+      <c r="M5">
+        <v>23444</v>
+      </c>
+      <c r="N5">
+        <v>0.3524</v>
+      </c>
+      <c r="O5">
+        <v>2.84</v>
+      </c>
+      <c r="P5" s="18">
+        <f>0.4884/N5</f>
+        <v>1.38592508513053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6">
         <v>31.9</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="21">
         <v>62.1256</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="21">
         <v>50.3854</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="21">
         <v>26.142</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="21">
         <v>33.2397</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="21">
         <v>67.8291</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="21">
         <v>59.199</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="21">
         <v>62.121</v>
       </c>
       <c r="J6">
         <f>AVERAGE(B6:I6)</f>
         <v>49.117725</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>10497107968</v>
+      </c>
+      <c r="L6">
+        <v>20108</v>
+      </c>
+      <c r="M6">
+        <v>21162</v>
+      </c>
+      <c r="N6">
+        <v>0.3173</v>
+      </c>
+      <c r="O6">
+        <v>3.15</v>
+      </c>
+      <c r="P6" s="18">
+        <f>0.4884/N6</f>
+        <v>1.539237314844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>13</v>
       </c>
       <c r="B7">
         <v>28.3</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="21">
         <v>62.2083</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="21">
         <v>37.8093</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="21">
         <v>24.3762</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="21">
         <v>30.4307</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="21">
         <v>58.7949</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="21">
         <v>57.8236</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="21">
         <v>53.586</v>
       </c>
       <c r="J7">
         <f>AVERAGE(B7:I7)</f>
         <v>44.166125</v>
+      </c>
+      <c r="K7">
+        <v>8733521920</v>
+      </c>
+      <c r="L7">
+        <v>16729</v>
+      </c>
+      <c r="M7">
+        <v>17739</v>
+      </c>
+      <c r="N7">
+        <v>0.264</v>
+      </c>
+      <c r="O7">
+        <v>3.79</v>
+      </c>
+      <c r="P7" s="18">
+        <f>0.4884/N7</f>
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>
@@ -5973,19 +6111,20 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
     <col min="9" max="9" width="24.3461538461538" customWidth="1"/>
     <col min="10" max="10" width="11.7692307692308"/>
+    <col min="11" max="11" width="14.5769230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:10">
+    <row r="1" ht="17.6" spans="1:16">
       <c r="A1" t="s">
         <v>142</v>
       </c>
@@ -6016,8 +6155,26 @@
       <c r="J1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" ht="17.6" spans="1:10">
+      <c r="K1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6045,12 +6202,31 @@
       <c r="I2" s="4">
         <v>70.1</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="12">
         <f>AVERAGE(B2:I2)</f>
         <v>61.6125</v>
       </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:10">
+      <c r="K2" s="11">
+        <v>16375728128</v>
+      </c>
+      <c r="L2" s="11">
+        <v>31371</v>
+      </c>
+      <c r="M2" s="17">
+        <v>32571</v>
+      </c>
+      <c r="N2" s="17">
+        <v>0.4884</v>
+      </c>
+      <c r="O2" s="17">
+        <v>2.05</v>
+      </c>
+      <c r="P2" s="18">
+        <f t="shared" ref="P2:P7" si="0">0.4884/N2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:16">
       <c r="A3">
         <v>3</v>
       </c>
@@ -6072,18 +6248,37 @@
       <c r="G3" s="6">
         <v>78.8</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="9">
         <v>58.8</v>
       </c>
       <c r="I3" s="6">
         <v>68.6</v>
       </c>
-      <c r="J3" s="10">
-        <f t="shared" ref="J3:J7" si="0">AVERAGE(B3:I3)</f>
+      <c r="J3" s="13">
+        <f t="shared" ref="J3:J7" si="1">AVERAGE(B3:I3)</f>
         <v>59.425</v>
       </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:10">
+      <c r="K3" s="14">
+        <v>14870497802</v>
+      </c>
+      <c r="L3" s="14">
+        <v>28500</v>
+      </c>
+      <c r="M3" s="19">
+        <v>29700</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0.4648</v>
+      </c>
+      <c r="O3" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="P3" s="18">
+        <f t="shared" si="0"/>
+        <v>1.05077452667814</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:16">
       <c r="A4">
         <v>6</v>
       </c>
@@ -6111,12 +6306,31 @@
       <c r="I4" s="8">
         <v>68.4</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="15">
+        <f t="shared" si="1"/>
+        <v>57.0875</v>
+      </c>
+      <c r="K4" s="16">
+        <v>13365267476</v>
+      </c>
+      <c r="L4" s="16">
+        <v>25629</v>
+      </c>
+      <c r="M4" s="20">
+        <v>26289</v>
+      </c>
+      <c r="N4" s="20">
+        <v>0.4589</v>
+      </c>
+      <c r="O4" s="20">
+        <v>2.18</v>
+      </c>
+      <c r="P4" s="18">
         <f t="shared" si="0"/>
-        <v>57.0875</v>
-      </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:10">
+        <v>1.06428415776858</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:16">
       <c r="A5">
         <v>9</v>
       </c>
@@ -6138,18 +6352,37 @@
       <c r="G5" s="6">
         <v>75.6</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="9">
         <v>59.6</v>
       </c>
       <c r="I5" s="6">
         <v>66.5</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="13">
+        <f t="shared" si="1"/>
+        <v>55.6625</v>
+      </c>
+      <c r="K5" s="14">
+        <v>11860037150</v>
+      </c>
+      <c r="L5" s="14">
+        <v>22759</v>
+      </c>
+      <c r="M5" s="19">
+        <v>23958</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0.4079</v>
+      </c>
+      <c r="O5" s="19">
+        <v>2.45</v>
+      </c>
+      <c r="P5" s="18">
         <f t="shared" si="0"/>
-        <v>55.6625</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:10">
+        <v>1.19735229222849</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:16">
       <c r="A6">
         <v>12</v>
       </c>
@@ -6171,18 +6404,37 @@
       <c r="G6" s="8">
         <v>73.7</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="10">
         <v>59.9</v>
       </c>
       <c r="I6" s="8">
         <v>64.6</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="15">
+        <f t="shared" si="1"/>
+        <v>53.1875</v>
+      </c>
+      <c r="K6" s="16">
+        <v>10354806824</v>
+      </c>
+      <c r="L6" s="16">
+        <v>19888</v>
+      </c>
+      <c r="M6" s="20">
+        <v>21088</v>
+      </c>
+      <c r="N6" s="20">
+        <v>0.3793</v>
+      </c>
+      <c r="O6" s="20">
+        <v>2.64</v>
+      </c>
+      <c r="P6" s="18">
         <f t="shared" si="0"/>
-        <v>53.1875</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:10">
+        <v>1.28763511732138</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:16">
       <c r="A7">
         <v>15</v>
       </c>
@@ -6210,9 +6462,28 @@
       <c r="I7" s="6">
         <v>62</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="13">
+        <f t="shared" si="1"/>
+        <v>49.9625</v>
+      </c>
+      <c r="K7" s="14">
+        <v>8849576498</v>
+      </c>
+      <c r="L7" s="14">
+        <v>17017</v>
+      </c>
+      <c r="M7" s="19">
+        <v>18217</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0.3387</v>
+      </c>
+      <c r="O7" s="19">
+        <v>2.95</v>
+      </c>
+      <c r="P7" s="18">
         <f t="shared" si="0"/>
-        <v>49.9625</v>
+        <v>1.44198405668733</v>
       </c>
     </row>
   </sheetData>
@@ -6224,15 +6495,18 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="11" max="11" width="18.9038461538462" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:10">
+    <row r="1" ht="17.6" spans="1:16">
       <c r="A1" t="s">
         <v>142</v>
       </c>
@@ -6263,8 +6537,26 @@
       <c r="J1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" ht="17.6" spans="1:10">
+      <c r="K1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6292,12 +6584,31 @@
       <c r="I2" s="4">
         <v>70.1</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="12">
         <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
         <v>61.6125</v>
       </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:10">
+      <c r="K2" s="11">
+        <v>16375728128</v>
+      </c>
+      <c r="L2" s="11">
+        <v>31371</v>
+      </c>
+      <c r="M2" s="17">
+        <v>32571</v>
+      </c>
+      <c r="N2" s="17">
+        <v>0.4884</v>
+      </c>
+      <c r="O2" s="17">
+        <v>2.05</v>
+      </c>
+      <c r="P2" s="18">
+        <f t="shared" ref="P2:P7" si="1">0.4884/N2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:16">
       <c r="A3">
         <v>3</v>
       </c>
@@ -6325,12 +6636,31 @@
       <c r="I3" s="6">
         <v>68.8</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="13">
         <f t="shared" si="0"/>
         <v>59.4625</v>
       </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:10">
+      <c r="K3" s="14">
+        <v>14870497802</v>
+      </c>
+      <c r="L3" s="14">
+        <v>28500</v>
+      </c>
+      <c r="M3" s="19">
+        <v>29700</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0.4648</v>
+      </c>
+      <c r="O3" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="P3" s="18">
+        <f t="shared" si="1"/>
+        <v>1.05077452667814</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:16">
       <c r="A4">
         <v>6</v>
       </c>
@@ -6358,12 +6688,31 @@
       <c r="I4" s="8">
         <v>68.5</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="15">
         <f t="shared" si="0"/>
         <v>56.1</v>
       </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:10">
+      <c r="K4" s="16">
+        <v>13365267476</v>
+      </c>
+      <c r="L4" s="16">
+        <v>25629</v>
+      </c>
+      <c r="M4" s="20">
+        <v>26289</v>
+      </c>
+      <c r="N4" s="20">
+        <v>0.4589</v>
+      </c>
+      <c r="O4" s="20">
+        <v>2.18</v>
+      </c>
+      <c r="P4" s="18">
+        <f t="shared" si="1"/>
+        <v>1.06428415776858</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:16">
       <c r="A5">
         <v>9</v>
       </c>
@@ -6391,12 +6740,31 @@
       <c r="I5" s="6">
         <v>67.2</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="13">
         <f t="shared" si="0"/>
         <v>55.25</v>
       </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:10">
+      <c r="K5" s="14">
+        <v>11860037150</v>
+      </c>
+      <c r="L5" s="14">
+        <v>22759</v>
+      </c>
+      <c r="M5" s="19">
+        <v>23958</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0.4079</v>
+      </c>
+      <c r="O5" s="19">
+        <v>2.45</v>
+      </c>
+      <c r="P5" s="18">
+        <f t="shared" si="1"/>
+        <v>1.19735229222849</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:16">
       <c r="A6">
         <v>12</v>
       </c>
@@ -6424,12 +6792,31 @@
       <c r="I6" s="8">
         <v>63.2</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="15">
         <f t="shared" si="0"/>
         <v>51.9125</v>
       </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:10">
+      <c r="K6" s="16">
+        <v>10354806824</v>
+      </c>
+      <c r="L6" s="16">
+        <v>19888</v>
+      </c>
+      <c r="M6" s="20">
+        <v>21088</v>
+      </c>
+      <c r="N6" s="20">
+        <v>0.3793</v>
+      </c>
+      <c r="O6" s="20">
+        <v>2.64</v>
+      </c>
+      <c r="P6" s="18">
+        <f t="shared" si="1"/>
+        <v>1.28763511732138</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:16">
       <c r="A7">
         <v>15</v>
       </c>
@@ -6457,9 +6844,410 @@
       <c r="I7" s="6">
         <v>60</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="13">
         <f t="shared" si="0"/>
         <v>48.675</v>
+      </c>
+      <c r="K7" s="14">
+        <v>8849576498</v>
+      </c>
+      <c r="L7" s="14">
+        <v>17017</v>
+      </c>
+      <c r="M7" s="19">
+        <v>18217</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0.3387</v>
+      </c>
+      <c r="O7" s="19">
+        <v>2.95</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="shared" si="1"/>
+        <v>1.44198405668733</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="K1:P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="11" max="11" width="16.1826923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:16">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:16">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>48.3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>77.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>38.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>78.7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>63.2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>70.1</v>
+      </c>
+      <c r="J2" s="12">
+        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
+        <v>61.6125</v>
+      </c>
+      <c r="K2" s="11">
+        <v>16375728128</v>
+      </c>
+      <c r="L2" s="11">
+        <v>31371</v>
+      </c>
+      <c r="M2" s="17">
+        <v>32571</v>
+      </c>
+      <c r="N2" s="17">
+        <v>0.4884</v>
+      </c>
+      <c r="O2" s="17">
+        <v>2.05</v>
+      </c>
+      <c r="P2" s="18">
+        <f t="shared" ref="P2:P7" si="1">0.4884/N2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:16">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43.7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>73.7</v>
+      </c>
+      <c r="D3" s="6">
+        <v>74.8</v>
+      </c>
+      <c r="E3" s="6">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6">
+        <v>39</v>
+      </c>
+      <c r="G3" s="6">
+        <v>78.8</v>
+      </c>
+      <c r="H3" s="9">
+        <v>58.8</v>
+      </c>
+      <c r="I3" s="6">
+        <v>68.6</v>
+      </c>
+      <c r="J3" s="13">
+        <f t="shared" si="0"/>
+        <v>59.425</v>
+      </c>
+      <c r="K3" s="14">
+        <v>14870497802</v>
+      </c>
+      <c r="L3" s="14">
+        <v>28500</v>
+      </c>
+      <c r="M3" s="19">
+        <v>29700</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0.4648</v>
+      </c>
+      <c r="O3" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="P3" s="18">
+        <f t="shared" si="1"/>
+        <v>1.05077452667814</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:16">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>39.5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>74.1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>69.1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>29.7</v>
+      </c>
+      <c r="F4" s="8">
+        <v>38</v>
+      </c>
+      <c r="G4" s="8">
+        <v>77.2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>60.7</v>
+      </c>
+      <c r="I4" s="8">
+        <v>68.4</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="0"/>
+        <v>57.0875</v>
+      </c>
+      <c r="K4" s="16">
+        <v>13365267476</v>
+      </c>
+      <c r="L4" s="16">
+        <v>25629</v>
+      </c>
+      <c r="M4" s="20">
+        <v>26289</v>
+      </c>
+      <c r="N4" s="20">
+        <v>0.4589</v>
+      </c>
+      <c r="O4" s="20">
+        <v>2.18</v>
+      </c>
+      <c r="P4" s="18">
+        <f t="shared" si="1"/>
+        <v>1.06428415776858</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:16">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>38.7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>71.6</v>
+      </c>
+      <c r="D5" s="6">
+        <v>67.6</v>
+      </c>
+      <c r="E5" s="6">
+        <v>27.9</v>
+      </c>
+      <c r="F5" s="6">
+        <v>37.8</v>
+      </c>
+      <c r="G5" s="6">
+        <v>75.6</v>
+      </c>
+      <c r="H5" s="9">
+        <v>59.6</v>
+      </c>
+      <c r="I5" s="6">
+        <v>66.5</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" si="0"/>
+        <v>55.6625</v>
+      </c>
+      <c r="K5" s="14">
+        <v>11860037150</v>
+      </c>
+      <c r="L5" s="14">
+        <v>22759</v>
+      </c>
+      <c r="M5" s="19">
+        <v>23958</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0.4079</v>
+      </c>
+      <c r="O5" s="19">
+        <v>2.45</v>
+      </c>
+      <c r="P5" s="18">
+        <f t="shared" si="1"/>
+        <v>1.19735229222849</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:16">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7">
+        <v>35.7</v>
+      </c>
+      <c r="C6" s="8">
+        <v>65.1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>63.9</v>
+      </c>
+      <c r="E6" s="8">
+        <v>26</v>
+      </c>
+      <c r="F6" s="8">
+        <v>36.6</v>
+      </c>
+      <c r="G6" s="8">
+        <v>73.7</v>
+      </c>
+      <c r="H6" s="10">
+        <v>59.9</v>
+      </c>
+      <c r="I6" s="8">
+        <v>64.6</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="0"/>
+        <v>53.1875</v>
+      </c>
+      <c r="K6" s="16">
+        <v>10354806824</v>
+      </c>
+      <c r="L6" s="16">
+        <v>19888</v>
+      </c>
+      <c r="M6" s="20">
+        <v>21088</v>
+      </c>
+      <c r="N6" s="20">
+        <v>0.3793</v>
+      </c>
+      <c r="O6" s="20">
+        <v>2.64</v>
+      </c>
+      <c r="P6" s="18">
+        <f t="shared" si="1"/>
+        <v>1.28763511732138</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:16">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>32.3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>62.7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>57.1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>25.1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>34.2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>69.6</v>
+      </c>
+      <c r="H7" s="6">
+        <v>56.7</v>
+      </c>
+      <c r="I7" s="6">
+        <v>62</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>49.9625</v>
+      </c>
+      <c r="K7" s="14">
+        <v>8849576498</v>
+      </c>
+      <c r="L7" s="14">
+        <v>17017</v>
+      </c>
+      <c r="M7" s="19">
+        <v>18217</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0.3387</v>
+      </c>
+      <c r="O7" s="19">
+        <v>2.95</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="shared" si="1"/>
+        <v>1.44198405668733</v>
       </c>
     </row>
   </sheetData>
@@ -6970,7 +7758,7 @@
   <sheetFormatPr defaultColWidth="20.9807692307692" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="3" width="20.9807692307692" customWidth="1"/>
-    <col min="4" max="4" width="22.4230769230769" style="58" customWidth="1"/>
+    <col min="4" max="4" width="22.4230769230769" style="61" customWidth="1"/>
     <col min="5" max="16379" width="20.9807692307692" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8314,14 +9102,14 @@
       <c r="F27" s="210"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="196" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="200"/>
       <c r="E28" s="211"/>
-      <c r="F28" s="16"/>
+      <c r="F28" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8348,7 +9136,7 @@
     <col min="4" max="4" width="13.6153846153846" style="154" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.6153846153846" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11.0673076923077" customWidth="1"/>
-    <col min="10" max="10" width="10.1538461538462" style="58"/>
+    <col min="10" max="10" width="10.1538461538462" style="61"/>
     <col min="11" max="11" width="10.5480769230769" style="155" customWidth="1"/>
     <col min="13" max="13" width="14.5673076923077" style="155" customWidth="1"/>
   </cols>
@@ -8662,9 +9450,9 @@
       </c>
     </row>
     <row r="11" ht="17.6" spans="1:11">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="161" t="s">
         <v>44</v>
       </c>
@@ -9420,7 +10208,7 @@
       <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="28" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="128" t="s">
@@ -10809,12 +11597,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X43"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="X11" sqref="X11"/>
+      <selection pane="bottomLeft" activeCell="Q40" sqref="Q40:U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -10832,20 +11620,18 @@
     <col min="11" max="11" width="9.23076923076923" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9.25" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="9.76923076923077" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.4134615384615" style="58" customWidth="1"/>
-    <col min="16" max="16" width="14.4230769230769" customWidth="1"/>
-    <col min="17" max="17" width="13.1634615384615" customWidth="1"/>
-    <col min="18" max="18" width="12.6923076923077" style="32"/>
-    <col min="19" max="19" width="13.5288461538462" style="32" customWidth="1"/>
-    <col min="20" max="20" width="12.6923076923077" style="32"/>
-    <col min="21" max="21" width="9.23076923076923" style="75"/>
-    <col min="22" max="22" width="21.7115384615385" style="75" customWidth="1"/>
-    <col min="23" max="23" width="14.7692307692308" style="75" customWidth="1"/>
-    <col min="24" max="24" width="12.9230769230769"/>
+    <col min="14" max="14" width="16.375" style="77" customWidth="1"/>
+    <col min="15" max="15" width="10.4134615384615" style="61" customWidth="1"/>
+    <col min="16" max="16" width="12.6923076923077" style="38"/>
+    <col min="17" max="17" width="13.5288461538462" style="38" customWidth="1"/>
+    <col min="18" max="18" width="12.6923076923077" style="38"/>
+    <col min="19" max="19" width="9.23076923076923" style="78"/>
+    <col min="20" max="20" width="21.7115384615385" style="78" customWidth="1"/>
+    <col min="21" max="21" width="14.7692307692308" style="78" customWidth="1"/>
+    <col min="22" max="22" width="12.9230769230769"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="17.6" spans="1:24">
+    <row r="1" s="18" customFormat="1" ht="17.6" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -10885,51 +11671,45 @@
       <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="79" t="s">
+      <c r="N1" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="U1" s="81" t="s">
+      <c r="U1" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="81" t="s">
+      <c r="V1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" s="15" customFormat="1" ht="17.6" spans="1:23">
+    </row>
+    <row r="2" s="18" customFormat="1" ht="17.6" spans="1:21">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" s="3">
         <v>48.3</v>
@@ -10955,133 +11735,133 @@
       <c r="M2" s="4">
         <v>70.1</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="12">
         <f>AVERAGE(F2:M2)</f>
         <v>61.6125</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="30">
         <f>N2-61.6</f>
         <v>0.0124999999999957</v>
       </c>
-      <c r="R2" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="S2" s="50">
+      <c r="P2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q2" s="11">
         <v>16375728128</v>
       </c>
-      <c r="T2" s="50">
+      <c r="R2" s="11">
         <v>31371</v>
       </c>
-      <c r="U2" s="81">
+      <c r="S2" s="17">
         <v>32571</v>
       </c>
-      <c r="V2" s="81">
+      <c r="T2" s="17">
         <v>0.4884</v>
       </c>
-      <c r="W2" s="81">
+      <c r="U2" s="17">
         <v>2.05</v>
       </c>
     </row>
-    <row r="3" s="15" customFormat="1" ht="17.6" spans="1:23">
+    <row r="3" s="18" customFormat="1" ht="17.6" spans="1:21">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F3" s="3">
         <v>35</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="26">
         <v>66</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="26">
         <v>60.3</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="26">
         <v>45.4</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="26">
         <v>34</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="26">
         <v>73.2</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="26">
         <v>57</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="26">
         <v>58.8</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="12">
         <f>AVERAGE(F3:M3)</f>
         <v>53.7125</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="30">
         <f>N3-61.6</f>
         <v>-7.8875</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-    </row>
-    <row r="4" s="15" customFormat="1" ht="17.6" spans="1:23">
+      <c r="P3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+    </row>
+    <row r="4" s="18" customFormat="1" ht="17.6" spans="1:21">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F4" s="3">
         <v>45</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="26">
         <v>67.1</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="26">
         <v>75.6</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="26">
         <v>31.8</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="26">
         <v>42.2</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="26">
         <v>80.2</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="26">
         <v>59.9</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="26">
         <v>70</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="12">
         <f>AVERAGE(F4:M4)</f>
         <v>58.975</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="30">
         <f>N4-61.6</f>
         <v>-2.62500000000001</v>
       </c>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-    </row>
-    <row r="5" s="15" customFormat="1" ht="17.6" hidden="1" spans="1:23">
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+    </row>
+    <row r="5" s="18" customFormat="1" ht="17.6" hidden="1" spans="1:21">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -11092,239 +11872,239 @@
       <c r="F5" s="3">
         <v>44</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="26">
         <v>66</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="26">
         <v>74.5</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="26">
         <v>27.9</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="26">
         <v>42.6</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="26">
         <v>78.5</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="26">
         <v>56.3</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="26">
         <v>67.3</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="12">
         <f>AVERAGE(F5:M5)</f>
         <v>57.1375</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="30">
         <f>N5-61.6</f>
         <v>-4.4625</v>
       </c>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
-    </row>
-    <row r="6" s="15" customFormat="1" ht="17.6" spans="1:23">
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+    </row>
+    <row r="6" s="18" customFormat="1" ht="17.6" spans="1:21">
       <c r="A6" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="3">
         <v>39.5</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="26">
         <v>70.2</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="26">
         <v>67.6</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="26">
         <v>35.2</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="26">
         <v>40.4</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="26">
         <v>75.8</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="26">
         <v>48.4</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="26">
         <v>65.7</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="12">
         <f>AVERAGE(F6:M6)</f>
         <v>55.35</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="30">
         <f>N6-61.6</f>
         <v>-6.25000000000001</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-    </row>
-    <row r="7" s="15" customFormat="1" ht="17.6" hidden="1" spans="1:23">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19" t="s">
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+    </row>
+    <row r="7" s="18" customFormat="1" ht="17.6" hidden="1" spans="1:21">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="24">
         <v>42.1</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="27">
         <v>72</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="27">
         <v>69.2</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="27">
         <v>33.7</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="27">
         <v>39.8</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="27">
         <v>75.1</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="27">
         <v>47.7</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="27">
         <v>66.5</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="12">
         <f>AVERAGE(F7:M7)</f>
         <v>55.7625</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="31">
         <f>N7-61.6</f>
         <v>-5.83750000000001</v>
       </c>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-    </row>
-    <row r="8" s="15" customFormat="1" ht="17.6" spans="1:23">
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+    </row>
+    <row r="8" s="18" customFormat="1" ht="17.6" spans="1:21">
       <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F8" s="3">
         <v>40.3</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="26">
         <v>71.3</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="26">
         <v>69</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="26">
         <v>36.2</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="26">
         <v>37.8</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="26">
         <v>75.8</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="26">
         <v>51.6</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="26">
         <v>68</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="12">
         <f>AVERAGE(F8:M8)</f>
         <v>56.25</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="30">
         <f>N8-61.6</f>
         <v>-5.34999999999999</v>
       </c>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-    </row>
-    <row r="9" s="73" customFormat="1" ht="17.6" spans="1:23">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77" t="s">
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+    </row>
+    <row r="9" s="76" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="79">
         <v>40.1</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="81">
         <v>70.2</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="81">
         <v>68.6</v>
       </c>
-      <c r="I9" s="78">
+      <c r="I9" s="81">
         <v>36.1</v>
       </c>
-      <c r="J9" s="78">
+      <c r="J9" s="81">
         <v>38.4</v>
       </c>
-      <c r="K9" s="78">
+      <c r="K9" s="81">
         <v>76.2</v>
       </c>
-      <c r="L9" s="78">
+      <c r="L9" s="81">
         <v>51.6</v>
       </c>
-      <c r="M9" s="78">
+      <c r="M9" s="81">
         <v>66.4</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="13">
         <f>AVERAGE(F9:M9)</f>
         <v>55.95</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="33">
         <f>N9-61.6</f>
         <v>-5.65</v>
       </c>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-    </row>
-    <row r="10" s="16" customFormat="1" ht="17.6" spans="1:24">
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+    </row>
+    <row r="10" s="22" customFormat="1" ht="17.6" spans="1:22">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -11338,7 +12118,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F10" s="5">
         <v>43.4</v>
@@ -11364,40 +12144,40 @@
       <c r="M10" s="6">
         <v>68.3</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="13">
         <f>AVERAGE(F10:M10)</f>
         <v>59.1875</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="33">
         <f>N10-61.6</f>
         <v>-2.41249999999999</v>
       </c>
-      <c r="S10" s="16">
+      <c r="Q10" s="22">
         <v>14714784320</v>
       </c>
-      <c r="T10" s="16">
+      <c r="R10" s="22">
         <v>28203</v>
       </c>
-      <c r="U10" s="83">
+      <c r="S10" s="19">
         <v>29403</v>
       </c>
-      <c r="V10" s="83">
+      <c r="T10" s="19">
         <v>0.4467</v>
       </c>
-      <c r="W10" s="83">
+      <c r="U10" s="19">
         <v>2.24</v>
       </c>
-      <c r="X10" s="16">
-        <f>0.4884/V10</f>
+      <c r="V10" s="22">
+        <f>0.4884/T10</f>
         <v>1.09335124244459</v>
       </c>
     </row>
-    <row r="11" s="16" customFormat="1" ht="17.6" spans="1:23">
+    <row r="11" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -11408,16 +12188,16 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="27"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-    </row>
-    <row r="12" s="16" customFormat="1" ht="17.6" spans="1:24">
+      <c r="N11" s="13"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+    </row>
+    <row r="12" s="22" customFormat="1" ht="17.6" spans="1:22">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -11451,38 +12231,38 @@
       <c r="M12" s="6">
         <v>68.8</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="13">
         <f>AVERAGE(F12:M12)</f>
         <v>59.4625</v>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="33">
         <f>N12-61.6</f>
         <v>-2.1375</v>
       </c>
-      <c r="R12" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="S12" s="51">
+      <c r="P12" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q12" s="14">
         <v>14870497802</v>
       </c>
-      <c r="T12" s="51">
+      <c r="R12" s="14">
         <v>28500</v>
       </c>
-      <c r="U12" s="83">
+      <c r="S12" s="19">
         <v>29700</v>
       </c>
-      <c r="V12" s="83">
+      <c r="T12" s="19">
         <v>0.4648</v>
       </c>
-      <c r="W12" s="83">
+      <c r="U12" s="19">
         <v>2.15</v>
       </c>
-      <c r="X12" s="16">
-        <f>0.4884/V12</f>
+      <c r="V12" s="22">
+        <f>0.4884/T12</f>
         <v>1.05077452667814</v>
       </c>
     </row>
-    <row r="13" s="16" customFormat="1" ht="17.6" spans="1:23">
+    <row r="13" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -11508,33 +12288,33 @@
       <c r="K13" s="6">
         <v>78.8</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="9">
         <v>58.5</v>
       </c>
       <c r="M13" s="6">
         <v>68.3</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="13">
         <f>AVERAGE(F13:M13)</f>
         <v>59.3625</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="33">
         <f>N13-61.6</f>
         <v>-2.2375</v>
       </c>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-    </row>
-    <row r="14" s="16" customFormat="1" ht="17.6" spans="1:23">
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+    </row>
+    <row r="14" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
@@ -11555,101 +12335,101 @@
       <c r="K14" s="6">
         <v>78.8</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="9">
         <v>58.8</v>
       </c>
       <c r="M14" s="6">
         <v>68.6</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="13">
         <f>AVERAGE(F14:M14)</f>
         <v>59.425</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="33">
         <f>N14-61.6</f>
         <v>-2.175</v>
       </c>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-    </row>
-    <row r="15" s="17" customFormat="1" ht="17.6" spans="1:24">
-      <c r="A15" s="34" t="s">
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+    </row>
+    <row r="15" s="23" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A15" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="34">
+      <c r="E15" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="40">
         <v>38.1</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="48">
         <v>71.8</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="48">
         <v>67.3</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="48">
         <v>29.4</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="48">
         <v>40.8</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="48">
         <v>76.5</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="48">
         <v>59.6</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15" s="48">
         <v>67.3</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="15">
         <f>AVERAGE(F15:M15)</f>
         <v>56.35</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="34">
         <f>N15-61.6</f>
         <v>-5.25</v>
       </c>
-      <c r="S15" s="17">
+      <c r="Q15" s="23">
         <v>13053840512</v>
       </c>
-      <c r="T15" s="17">
+      <c r="R15" s="23">
         <v>25035</v>
       </c>
-      <c r="U15" s="84">
+      <c r="S15" s="20">
         <v>26235</v>
       </c>
-      <c r="V15" s="84">
+      <c r="T15" s="20">
         <v>0.4155</v>
       </c>
-      <c r="W15" s="84">
+      <c r="U15" s="20">
         <v>2.41</v>
       </c>
-      <c r="X15" s="16">
-        <f>0.4884/V15</f>
+      <c r="V15" s="22">
+        <f>0.4884/T15</f>
         <v>1.17545126353791</v>
       </c>
     </row>
-    <row r="16" s="17" customFormat="1" ht="17.6" spans="1:24">
+    <row r="16" s="23" customFormat="1" ht="17.6" spans="1:22">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -11660,17 +12440,17 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="28"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="16"/>
-    </row>
-    <row r="17" s="17" customFormat="1" ht="17.6" spans="1:24">
+      <c r="N16" s="15"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="22"/>
+    </row>
+    <row r="17" s="23" customFormat="1" ht="17.6" spans="1:22">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
@@ -11704,38 +12484,38 @@
       <c r="M17" s="8">
         <v>66.1</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="15">
         <f>AVERAGE(F17:M17)</f>
         <v>54.6</v>
       </c>
-      <c r="O17" s="28">
+      <c r="O17" s="34">
         <f>N17-61.6</f>
         <v>-7.00000000000001</v>
       </c>
-      <c r="R17" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="S17" s="52">
+      <c r="P17" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" s="16">
         <v>13365267476</v>
       </c>
-      <c r="T17" s="52">
+      <c r="R17" s="16">
         <v>25629</v>
       </c>
-      <c r="U17" s="84">
+      <c r="S17" s="20">
         <v>26289</v>
       </c>
-      <c r="V17" s="84">
+      <c r="T17" s="20">
         <v>0.4589</v>
       </c>
-      <c r="W17" s="84">
+      <c r="U17" s="20">
         <v>2.18</v>
       </c>
-      <c r="X17" s="16">
-        <f>0.4884/V17</f>
+      <c r="V17" s="22">
+        <f>0.4884/T17</f>
         <v>1.06428415776858</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" ht="17.6" spans="1:24">
+    <row r="18" s="23" customFormat="1" ht="17.6" spans="1:22">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -11767,22 +12547,22 @@
       <c r="M18" s="8">
         <v>66.9</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="15">
         <f>AVERAGE(F18:M18)</f>
         <v>69.1</v>
       </c>
-      <c r="O18" s="28" t="s">
+      <c r="O18" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="16"/>
-    </row>
-    <row r="19" s="17" customFormat="1" ht="17.6" spans="1:24">
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="22"/>
+    </row>
+    <row r="19" s="23" customFormat="1" ht="17.6" spans="1:22">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
@@ -11816,23 +12596,23 @@
       <c r="M19" s="8">
         <v>68.5</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="15">
         <f>AVERAGE(F19:M19)</f>
         <v>56.1</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="34">
         <f>N19-61.6</f>
         <v>-5.5</v>
       </c>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="16"/>
-    </row>
-    <row r="20" s="17" customFormat="1" ht="17.6" spans="1:24">
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="22"/>
+    </row>
+    <row r="20" s="23" customFormat="1" ht="17.6" spans="1:22">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -11864,28 +12644,28 @@
       <c r="M20" s="8">
         <v>68.3</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="15">
         <f>AVERAGE(F20:M20)</f>
         <v>56.95</v>
       </c>
-      <c r="O20" s="28">
+      <c r="O20" s="34">
         <f>N20-61.6</f>
         <v>-4.65</v>
       </c>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="16"/>
-    </row>
-    <row r="21" s="17" customFormat="1" ht="17.6" spans="1:24">
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="22"/>
+    </row>
+    <row r="21" s="23" customFormat="1" ht="17.6" spans="1:22">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7">
@@ -11912,23 +12692,23 @@
       <c r="M21" s="8">
         <v>68.4</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="15">
         <f>AVERAGE(F21:M21)</f>
         <v>57.0875</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21" s="35">
         <f>N21-61.6</f>
         <v>-4.51250000000001</v>
       </c>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="16"/>
-    </row>
-    <row r="22" s="16" customFormat="1" ht="17.6" spans="1:24">
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="22"/>
+    </row>
+    <row r="22" s="22" customFormat="1" ht="17.6" spans="1:22">
       <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
@@ -11966,40 +12746,40 @@
       <c r="M22" s="6">
         <v>64.6</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="13">
         <f>AVERAGE(F22:M22)</f>
         <v>54.5</v>
       </c>
-      <c r="O22" s="30">
+      <c r="O22" s="36">
         <f>N22-61.6</f>
         <v>-7.1</v>
       </c>
-      <c r="S22" s="16">
+      <c r="Q22" s="22">
         <v>11392896704</v>
       </c>
-      <c r="T22" s="16">
+      <c r="R22" s="22">
         <v>21868</v>
       </c>
-      <c r="U22" s="83">
+      <c r="S22" s="19">
         <v>23068</v>
       </c>
-      <c r="V22" s="83">
+      <c r="T22" s="19">
         <v>0.3722</v>
       </c>
-      <c r="W22" s="83">
+      <c r="U22" s="19">
         <v>2.69</v>
       </c>
-      <c r="X22" s="16">
-        <f>0.4884/V22</f>
+      <c r="V22" s="22">
+        <f>0.4884/T22</f>
         <v>1.31219774314884</v>
       </c>
     </row>
-    <row r="23" s="16" customFormat="1" ht="17.6" spans="1:23">
+    <row r="23" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5">
@@ -12026,24 +12806,24 @@
       <c r="M23" s="6">
         <v>63.2</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="13">
         <f>AVERAGE(F23:M23)</f>
         <v>54.175</v>
       </c>
-      <c r="O23" s="30">
+      <c r="O23" s="36">
         <f>N23-61.6</f>
         <v>-7.425</v>
       </c>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-    </row>
-    <row r="24" s="16" customFormat="1" ht="17.6" spans="1:23">
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+    </row>
+    <row r="24" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5">
@@ -12064,93 +12844,93 @@
       <c r="K24" s="6">
         <v>75</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="9">
         <v>62.1</v>
       </c>
       <c r="M24" s="6">
         <v>65</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="13">
         <f>AVERAGE(F24:M24)</f>
         <v>54.9</v>
       </c>
-      <c r="O24" s="30">
+      <c r="O24" s="36">
         <f>N24-61.6</f>
         <v>-6.7</v>
       </c>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-    </row>
-    <row r="25" s="16" customFormat="1" ht="17.6" spans="1:24">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36" t="s">
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+    </row>
+    <row r="25" s="22" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36">
+      <c r="E25" s="42"/>
+      <c r="F25" s="42">
         <v>35.3</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="49">
         <v>67.9</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="49">
         <v>61.8</v>
       </c>
-      <c r="I25" s="43">
+      <c r="I25" s="49">
         <v>27.9</v>
       </c>
-      <c r="J25" s="43">
+      <c r="J25" s="49">
         <v>34.6</v>
       </c>
-      <c r="K25" s="43">
+      <c r="K25" s="49">
         <v>73.8</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="49">
         <v>55.6</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="49">
         <v>63.5</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="13">
         <f>AVERAGE(F25:M25)</f>
         <v>52.55</v>
       </c>
-      <c r="O25" s="30">
+      <c r="O25" s="36">
         <f>N25-61.6</f>
         <v>-9.05</v>
       </c>
-      <c r="R25" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="S25" s="51">
+      <c r="P25" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" s="14">
         <v>11860037150</v>
       </c>
-      <c r="T25" s="51">
+      <c r="R25" s="14">
         <v>22759</v>
       </c>
-      <c r="U25" s="83">
+      <c r="S25" s="19">
         <v>23958</v>
       </c>
-      <c r="V25" s="83">
+      <c r="T25" s="19">
         <v>0.4079</v>
       </c>
-      <c r="W25" s="83">
+      <c r="U25" s="19">
         <v>2.45</v>
       </c>
-      <c r="X25" s="16">
-        <f>0.4884/V25</f>
+      <c r="V25" s="22">
+        <f>0.4884/T25</f>
         <v>1.19735229222849</v>
       </c>
     </row>
-    <row r="26" s="16" customFormat="1" ht="17.6" spans="1:23">
+    <row r="26" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -12182,21 +12962,21 @@
       <c r="M26" s="6">
         <v>65.7</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="13">
         <f>AVERAGE(F26:M26)</f>
         <v>65.95</v>
       </c>
-      <c r="O26" s="30" t="s">
+      <c r="O26" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="83"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="83"/>
-    </row>
-    <row r="27" s="16" customFormat="1" ht="17.6" spans="1:23">
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+    </row>
+    <row r="27" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
@@ -12230,27 +13010,27 @@
       <c r="M27" s="6">
         <v>67.2</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="13">
         <f>AVERAGE(F27:M27)</f>
         <v>55.25</v>
       </c>
-      <c r="O27" s="30">
+      <c r="O27" s="36">
         <f>N27-61.6</f>
         <v>-6.35000000000001</v>
       </c>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
-    </row>
-    <row r="28" s="16" customFormat="1" ht="17.6" spans="1:23">
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+    </row>
+    <row r="28" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5">
@@ -12277,22 +13057,22 @@
       <c r="M28" s="6">
         <v>66.3</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="13">
         <f>AVERAGE(F28:M28)</f>
         <v>52.85</v>
       </c>
-      <c r="O28" s="30">
+      <c r="O28" s="36">
         <f>N28-61.6</f>
         <v>-8.75</v>
       </c>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-    </row>
-    <row r="29" s="16" customFormat="1" ht="17.6" spans="1:23">
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+    </row>
+    <row r="29" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -12318,33 +13098,33 @@
       <c r="K29" s="6">
         <v>75.1</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="9">
         <v>59.2</v>
       </c>
       <c r="M29" s="6">
         <v>66.3</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="13">
         <f>AVERAGE(F29:M29)</f>
         <v>55.25</v>
       </c>
-      <c r="O29" s="30">
+      <c r="O29" s="36">
         <f>N29-61.6</f>
         <v>-6.35</v>
       </c>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="83"/>
-    </row>
-    <row r="30" s="16" customFormat="1" ht="17.6" spans="1:23">
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+    </row>
+    <row r="30" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5">
@@ -12365,28 +13145,28 @@
       <c r="K30" s="6">
         <v>75.6</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="9">
         <v>59.6</v>
       </c>
       <c r="M30" s="6">
         <v>66.5</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="13">
         <f>AVERAGE(F30:M30)</f>
         <v>55.6625</v>
       </c>
-      <c r="O30" s="31">
+      <c r="O30" s="37">
         <f>N30-61.6</f>
         <v>-5.93750000000001</v>
       </c>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="83"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-    </row>
-    <row r="31" s="17" customFormat="1" ht="17.6" spans="1:24">
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+    </row>
+    <row r="31" s="23" customFormat="1" ht="17.6" spans="1:22">
       <c r="A31" s="7" t="s">
         <v>54</v>
       </c>
@@ -12424,40 +13204,40 @@
       <c r="M31" s="8">
         <v>62.4</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="15">
         <f>AVERAGE(F31:M31)</f>
         <v>51.8375</v>
       </c>
-      <c r="O31" s="28">
+      <c r="O31" s="34">
         <f>N31-61.6</f>
         <v>-9.7625</v>
       </c>
-      <c r="S31" s="17">
+      <c r="Q31" s="23">
         <v>9731952896</v>
       </c>
-      <c r="T31" s="17">
+      <c r="R31" s="23">
         <v>18700</v>
       </c>
-      <c r="U31" s="84">
+      <c r="S31" s="20">
         <v>19900</v>
       </c>
-      <c r="V31" s="84">
+      <c r="T31" s="20">
         <v>0.3417</v>
       </c>
-      <c r="W31" s="84">
+      <c r="U31" s="20">
         <v>2.93</v>
       </c>
-      <c r="X31" s="16">
-        <f>0.4884/V31</f>
+      <c r="V31" s="22">
+        <f>0.4884/T31</f>
         <v>1.42932396839333</v>
       </c>
     </row>
-    <row r="32" s="17" customFormat="1" ht="17.6" spans="1:24">
+    <row r="32" s="23" customFormat="1" ht="17.6" spans="1:22">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7">
@@ -12478,97 +13258,97 @@
       <c r="K32" s="8">
         <v>71.2</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="10">
         <v>59.6</v>
       </c>
       <c r="M32" s="8">
         <v>64.2</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="15">
         <f>AVERAGE(F32:M32)</f>
         <v>52.6125</v>
       </c>
-      <c r="O32" s="28">
+      <c r="O32" s="34">
         <f>N32-61.6</f>
         <v>-8.9875</v>
       </c>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="84"/>
-      <c r="V32" s="84"/>
-      <c r="W32" s="84"/>
-      <c r="X32" s="16"/>
-    </row>
-    <row r="33" s="17" customFormat="1" ht="17.6" spans="1:24">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37" t="s">
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="22"/>
+    </row>
+    <row r="33" s="23" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37">
+      <c r="E33" s="43"/>
+      <c r="F33" s="43">
         <v>30.6</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="50">
         <v>63.7</v>
       </c>
-      <c r="H33" s="44">
+      <c r="H33" s="50">
         <v>56.2</v>
       </c>
-      <c r="I33" s="44">
+      <c r="I33" s="50">
         <v>26.1</v>
       </c>
-      <c r="J33" s="44">
+      <c r="J33" s="50">
         <v>32.6</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33" s="50">
         <v>70.4</v>
       </c>
-      <c r="L33" s="44">
+      <c r="L33" s="50">
         <v>59.2</v>
       </c>
-      <c r="M33" s="44">
+      <c r="M33" s="50">
         <v>61.7</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="15">
         <f>AVERAGE(F33:M33)</f>
         <v>50.0625</v>
       </c>
-      <c r="O33" s="28">
+      <c r="O33" s="34">
         <f>N33-61.6</f>
         <v>-11.5375</v>
       </c>
-      <c r="R33" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="S33" s="52">
+      <c r="P33" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q33" s="16">
         <v>10354806824</v>
       </c>
-      <c r="T33" s="52">
+      <c r="R33" s="16">
         <v>19888</v>
       </c>
-      <c r="U33" s="84">
+      <c r="S33" s="20">
         <v>21088</v>
       </c>
-      <c r="V33" s="84">
+      <c r="T33" s="20">
         <v>0.3793</v>
       </c>
-      <c r="W33" s="84">
+      <c r="U33" s="20">
         <v>2.64</v>
       </c>
-      <c r="X33" s="16">
-        <f>0.4884/V33</f>
+      <c r="V33" s="22">
+        <f>0.4884/T33</f>
         <v>1.28763511732138</v>
       </c>
     </row>
-    <row r="34" s="17" customFormat="1" ht="17.6" spans="1:24">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+    <row r="34" s="23" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="7" t="s">
         <v>61</v>
       </c>
@@ -12576,44 +13356,44 @@
       <c r="F34" s="7">
         <v>32.8</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="44">
         <v>62.9</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="44">
         <v>61.4</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="44">
         <v>26.3</v>
       </c>
-      <c r="J34" s="38">
+      <c r="J34" s="44">
         <v>34.4</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="44">
         <v>71.8</v>
       </c>
-      <c r="L34" s="38">
+      <c r="L34" s="44">
         <v>66.8</v>
       </c>
-      <c r="M34" s="38">
+      <c r="M34" s="44">
         <v>63.9</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="15">
         <f>AVERAGE(F34:M34)</f>
         <v>52.5375</v>
       </c>
-      <c r="O34" s="28">
+      <c r="O34" s="34">
         <f>N34-61.6</f>
         <v>-9.0625</v>
       </c>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="84"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="84"/>
-      <c r="X34" s="16"/>
-    </row>
-    <row r="35" s="17" customFormat="1" ht="17.6" spans="1:24">
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="22"/>
+    </row>
+    <row r="35" s="23" customFormat="1" ht="17.6" spans="1:22">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
@@ -12647,23 +13427,23 @@
       <c r="M35" s="8">
         <v>63.2</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N35" s="15">
         <f>AVERAGE(F35:M35)</f>
         <v>51.9125</v>
       </c>
-      <c r="O35" s="28">
+      <c r="O35" s="34">
         <f>N35-61.6</f>
         <v>-9.68750000000001</v>
       </c>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="84"/>
-      <c r="V35" s="84"/>
-      <c r="W35" s="84"/>
-      <c r="X35" s="16"/>
-    </row>
-    <row r="36" s="17" customFormat="1" ht="17.6" spans="1:24">
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="22"/>
+    </row>
+    <row r="36" s="23" customFormat="1" ht="17.6" spans="1:22">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -12689,34 +13469,34 @@
       <c r="K36" s="8">
         <v>72.6</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="10">
         <v>59.6</v>
       </c>
       <c r="M36" s="8">
         <v>63.1</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N36" s="15">
         <f>AVERAGE(F36:M36)</f>
         <v>52.125</v>
       </c>
-      <c r="O36" s="28">
+      <c r="O36" s="34">
         <f>N36-61.6</f>
         <v>-9.475</v>
       </c>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="84"/>
-      <c r="V36" s="84"/>
-      <c r="W36" s="84"/>
-      <c r="X36" s="16"/>
-    </row>
-    <row r="37" s="17" customFormat="1" ht="17.6" spans="1:24">
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="22"/>
+    </row>
+    <row r="37" s="23" customFormat="1" ht="17.6" spans="1:22">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7">
@@ -12737,101 +13517,101 @@
       <c r="K37" s="8">
         <v>73.7</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="10">
         <v>59.9</v>
       </c>
       <c r="M37" s="8">
         <v>64.6</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="15">
         <f>AVERAGE(F37:M37)</f>
         <v>53.1875</v>
       </c>
-      <c r="O37" s="29">
+      <c r="O37" s="35">
         <f>N37-61.6</f>
         <v>-8.4125</v>
       </c>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="84"/>
-      <c r="V37" s="84"/>
-      <c r="W37" s="84"/>
-      <c r="X37" s="16"/>
-    </row>
-    <row r="38" s="16" customFormat="1" ht="17.6" spans="1:24">
-      <c r="A38" s="39" t="s">
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="22"/>
+    </row>
+    <row r="38" s="22" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A38" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39">
+      <c r="E38" s="45"/>
+      <c r="F38" s="45">
         <v>30.8</v>
       </c>
-      <c r="G38" s="45">
+      <c r="G38" s="51">
         <v>62.8</v>
       </c>
-      <c r="H38" s="45">
+      <c r="H38" s="51">
         <v>49.3</v>
       </c>
-      <c r="I38" s="45">
+      <c r="I38" s="51">
         <v>25.2</v>
       </c>
-      <c r="J38" s="45">
+      <c r="J38" s="51">
         <v>31.6</v>
       </c>
-      <c r="K38" s="45">
+      <c r="K38" s="51">
         <v>66.9</v>
       </c>
-      <c r="L38" s="45">
+      <c r="L38" s="51">
         <v>59.2</v>
       </c>
-      <c r="M38" s="45">
+      <c r="M38" s="51">
         <v>59.1</v>
       </c>
-      <c r="N38" s="10">
+      <c r="N38" s="13">
         <f>AVERAGE(F38:M38)</f>
         <v>48.1125</v>
       </c>
-      <c r="O38" s="30">
+      <c r="O38" s="36">
         <f>N38-61.6</f>
         <v>-13.4875</v>
       </c>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51">
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14">
         <v>8071009088</v>
       </c>
-      <c r="T38" s="51">
+      <c r="R38" s="14">
         <v>15532</v>
       </c>
-      <c r="U38" s="83">
+      <c r="S38" s="19">
         <v>16732</v>
       </c>
-      <c r="V38" s="83">
+      <c r="T38" s="19">
         <v>0.2997</v>
       </c>
-      <c r="W38" s="83">
+      <c r="U38" s="19">
         <v>3.34</v>
       </c>
-      <c r="X38" s="16">
-        <f>0.4884/V38</f>
+      <c r="V38" s="22">
+        <f>0.4884/T38</f>
         <v>1.62962962962963</v>
       </c>
     </row>
-    <row r="39" s="16" customFormat="1" ht="17.6" spans="1:23">
+    <row r="39" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5">
@@ -12858,90 +13638,90 @@
       <c r="M39" s="6">
         <v>60.5</v>
       </c>
-      <c r="N39" s="10">
+      <c r="N39" s="13">
         <f>AVERAGE(F39:M39)</f>
         <v>48.725</v>
       </c>
-      <c r="O39" s="30">
+      <c r="O39" s="36">
         <f>N39-61.6</f>
         <v>-12.875</v>
       </c>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="83"/>
-      <c r="V39" s="83"/>
-      <c r="W39" s="83"/>
-    </row>
-    <row r="40" s="16" customFormat="1" ht="17.6" spans="1:24">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40" t="s">
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+    </row>
+    <row r="40" s="22" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="30"/>
-      <c r="R40" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="S40" s="51">
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q40" s="14">
         <v>8849576498</v>
       </c>
-      <c r="T40" s="51">
+      <c r="R40" s="14">
         <v>17017</v>
       </c>
-      <c r="U40" s="83">
+      <c r="S40" s="19">
         <v>18217</v>
       </c>
-      <c r="V40" s="83">
+      <c r="T40" s="19">
         <v>0.3387</v>
       </c>
-      <c r="W40" s="83">
+      <c r="U40" s="19">
         <v>2.95</v>
       </c>
-      <c r="X40" s="16">
-        <f>0.4884/V40</f>
+      <c r="V40" s="22">
+        <f>0.4884/T40</f>
         <v>1.44198405668733</v>
       </c>
     </row>
-    <row r="41" s="16" customFormat="1" ht="17.6" spans="1:23">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
+    <row r="41" s="22" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="30"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="83"/>
-      <c r="V41" s="83"/>
-      <c r="W41" s="83"/>
-    </row>
-    <row r="42" s="16" customFormat="1" ht="17.6" spans="1:23">
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+    </row>
+    <row r="42" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
@@ -12975,27 +13755,27 @@
       <c r="M42" s="6">
         <v>60</v>
       </c>
-      <c r="N42" s="10">
+      <c r="N42" s="13">
         <f>AVERAGE(F42:M42)</f>
         <v>48.675</v>
       </c>
-      <c r="O42" s="30">
+      <c r="O42" s="36">
         <f>N42-61.6</f>
         <v>-12.925</v>
       </c>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="51"/>
-      <c r="U42" s="83"/>
-      <c r="V42" s="83"/>
-      <c r="W42" s="83"/>
-    </row>
-    <row r="43" s="16" customFormat="1" ht="17.6" spans="1:23">
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+    </row>
+    <row r="43" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5">
@@ -13022,20 +13802,20 @@
       <c r="M43" s="6">
         <v>62</v>
       </c>
-      <c r="N43" s="10">
+      <c r="N43" s="13">
         <f>AVERAGE(F43:M43)</f>
         <v>49.9625</v>
       </c>
-      <c r="O43" s="31">
+      <c r="O43" s="37">
         <f>N43-61.6</f>
         <v>-11.6375</v>
       </c>
-      <c r="R43" s="51"/>
-      <c r="S43" s="51"/>
-      <c r="T43" s="51"/>
-      <c r="U43" s="83"/>
-      <c r="V43" s="83"/>
-      <c r="W43" s="83"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13054,605 +13834,605 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="15.3846153846154" style="57" customWidth="1"/>
+    <col min="1" max="1" width="15.3846153846154" style="60" customWidth="1"/>
     <col min="2" max="2" width="26.9230769230769" customWidth="1"/>
-    <col min="3" max="9" width="9.23076923076923" style="58"/>
-    <col min="10" max="10" width="10.25" style="58" customWidth="1"/>
-    <col min="11" max="11" width="15.0576923076923" style="59" customWidth="1"/>
+    <col min="3" max="9" width="9.23076923076923" style="61"/>
+    <col min="10" max="10" width="10.25" style="61" customWidth="1"/>
+    <col min="11" max="11" width="15.0576923076923" style="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="53" customFormat="1" spans="1:11">
-      <c r="A1" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="61" t="s">
+    <row r="1" s="56" customFormat="1" spans="1:11">
+      <c r="A1" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" s="54" customFormat="1" spans="1:11">
-      <c r="A2" s="63"/>
+      <c r="K1" s="65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" s="57" customFormat="1" spans="1:11">
+      <c r="A2" s="66"/>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="3">
         <v>48.3</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="67">
         <v>72.7</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="67">
         <v>77.4</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="67">
         <v>38.3</v>
       </c>
-      <c r="G2" s="64">
+      <c r="G2" s="67">
         <v>44.2</v>
       </c>
-      <c r="H2" s="64">
+      <c r="H2" s="67">
         <v>78.7</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="67">
         <v>63.2</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="67">
         <v>70.1</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="12">
         <f>AVERAGE(C2:J2)</f>
         <v>61.6125</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="65">
+      <c r="A3" s="68">
         <v>0.893</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="69">
         <v>42.2</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="70">
         <v>71.7102</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="70">
         <v>71.3793</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="70">
         <v>36.8906</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="70">
         <v>39.794</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H3" s="70">
         <v>77.1624</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="70">
         <v>47.3058</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="70">
         <v>69.7871</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="69">
         <f>AVERAGE(C3:J3)</f>
         <v>57.028675</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="65">
+      <c r="A4" s="68">
         <v>0.908</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="68">
+        <v>130</v>
+      </c>
+      <c r="C4" s="71">
         <v>43.3</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="69">
         <v>74</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="69">
         <v>74.8</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="69">
         <v>38</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="69">
         <v>39.4</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="69">
         <v>78.6</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="69">
         <v>58.8</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="69">
         <v>68.8</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="15">
         <f>AVERAGE(C4:J4)</f>
         <v>59.4625</v>
       </c>
     </row>
     <row r="5" ht="17" customHeight="1" spans="1:11">
-      <c r="A5" s="65"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="68">
+        <v>131</v>
+      </c>
+      <c r="C5" s="71">
         <v>43.7</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="69">
         <v>73.7</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="69">
         <v>74.8</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="69">
         <v>38</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="69">
         <v>39</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="69">
         <v>78.8</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="69">
         <v>58.8</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="69">
         <v>68.6</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" s="55" customFormat="1" spans="1:11">
-      <c r="A6" s="69">
+      <c r="K5" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" s="58" customFormat="1" spans="1:11">
+      <c r="A6" s="72">
         <v>0.821</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="73">
         <v>38.7</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="74">
         <v>69.497</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="74">
         <v>67.1197</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="74">
         <v>32.8983</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="74">
         <v>37.809</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="74">
         <v>74.7094</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="74">
         <v>48.034</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="74">
         <v>67.5383</v>
       </c>
-      <c r="K6" s="70">
+      <c r="K6" s="73">
         <f>AVERAGE(C6:J6)</f>
         <v>54.5382125</v>
       </c>
     </row>
-    <row r="7" s="55" customFormat="1" spans="1:11">
-      <c r="A7" s="69">
+    <row r="7" s="58" customFormat="1" spans="1:11">
+      <c r="A7" s="72">
         <v>0.816</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="72">
+        <v>130</v>
+      </c>
+      <c r="C7" s="75">
         <v>38.4</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="73">
         <v>73</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="73">
         <v>66.5</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="73">
         <v>29.3</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="73">
         <v>37.8</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="73">
         <v>77.2</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="73">
         <v>58.1</v>
       </c>
-      <c r="J7" s="70">
+      <c r="J7" s="73">
         <v>68.5</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="13">
         <f>AVERAGE(C7:J7)</f>
         <v>56.1</v>
       </c>
     </row>
-    <row r="8" s="55" customFormat="1" spans="1:11">
-      <c r="A8" s="69"/>
+    <row r="8" s="58" customFormat="1" spans="1:11">
+      <c r="A8" s="72"/>
       <c r="B8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="75">
+        <v>39.5</v>
+      </c>
+      <c r="D8" s="73">
+        <v>74.1</v>
+      </c>
+      <c r="E8" s="73">
+        <v>69.1</v>
+      </c>
+      <c r="F8" s="73">
+        <v>29.7</v>
+      </c>
+      <c r="G8" s="73">
+        <v>38</v>
+      </c>
+      <c r="H8" s="73">
+        <v>77.2</v>
+      </c>
+      <c r="I8" s="73">
+        <v>60.7</v>
+      </c>
+      <c r="J8" s="73">
+        <v>68.4</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="72">
-        <v>39.5</v>
-      </c>
-      <c r="D8" s="70">
-        <v>74.1</v>
-      </c>
-      <c r="E8" s="70">
-        <v>69.1</v>
-      </c>
-      <c r="F8" s="70">
-        <v>29.7</v>
-      </c>
-      <c r="G8" s="70">
-        <v>38</v>
-      </c>
-      <c r="H8" s="70">
-        <v>77.2</v>
-      </c>
-      <c r="I8" s="70">
-        <v>60.7</v>
-      </c>
-      <c r="J8" s="70">
-        <v>68.4</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="65">
+      <c r="A9" s="68">
         <v>0.714</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="69">
         <v>36.2</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="70">
         <v>62.2236</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="70">
         <v>57.1805</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="70">
         <v>28.9827</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="70">
         <v>34.6255</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="70">
         <v>70.1624</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="70">
         <v>63.2443</v>
       </c>
-      <c r="J9" s="67">
+      <c r="J9" s="70">
         <v>64.6763</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="69">
         <f t="shared" ref="K9:K14" si="0">AVERAGE(C9:J9)</f>
         <v>52.1619125</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="65">
+      <c r="A10" s="68">
         <v>0.724</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="68">
+        <v>130</v>
+      </c>
+      <c r="C10" s="71">
         <v>36.4</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="69">
         <v>70.3</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="69">
         <v>63.1</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="69">
         <v>27.8</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="69">
         <v>37.4</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="69">
         <v>75.2</v>
       </c>
-      <c r="I10" s="66">
+      <c r="I10" s="69">
         <v>64.6</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="69">
         <v>67.2</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="15">
         <f t="shared" si="0"/>
         <v>55.25</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="65"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="68">
+        <v>131</v>
+      </c>
+      <c r="C11" s="71">
         <v>38.7</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="69">
         <v>71.6</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="69">
         <v>67.6</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="69">
         <v>27.9</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="69">
         <v>37.8</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="69">
         <v>75.6</v>
       </c>
-      <c r="I11" s="66">
+      <c r="I11" s="69">
         <v>59.6</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="69">
         <v>66.5</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" s="55" customFormat="1" spans="1:11">
-      <c r="A12" s="69">
+      <c r="K11" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" s="58" customFormat="1" spans="1:11">
+      <c r="A12" s="72">
         <v>0.643</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="73">
         <v>31.9</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="74">
         <v>62.1256</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="74">
         <v>50.3854</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="74">
         <v>26.142</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="74">
         <v>33.2397</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="74">
         <v>67.8291</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="74">
         <v>59.199</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="74">
         <v>62.121</v>
       </c>
-      <c r="K12" s="70">
+      <c r="K12" s="73">
         <f t="shared" si="0"/>
         <v>49.117725</v>
       </c>
     </row>
-    <row r="13" s="55" customFormat="1" spans="1:11">
-      <c r="A13" s="69">
+    <row r="13" s="58" customFormat="1" spans="1:11">
+      <c r="A13" s="72">
         <v>0.632</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="72">
+        <v>130</v>
+      </c>
+      <c r="C13" s="75">
         <v>31.7</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="73">
         <v>63.2</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="73">
         <v>57.9</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="73">
         <v>26.1</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13" s="73">
         <v>34.8</v>
       </c>
-      <c r="H13" s="70">
+      <c r="H13" s="73">
         <v>71.6</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="73">
         <v>66.8</v>
       </c>
-      <c r="J13" s="70">
+      <c r="J13" s="73">
         <v>63.2</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="13">
         <f t="shared" si="0"/>
         <v>51.9125</v>
       </c>
     </row>
-    <row r="14" s="55" customFormat="1" spans="1:11">
-      <c r="A14" s="69"/>
+    <row r="14" s="58" customFormat="1" spans="1:11">
+      <c r="A14" s="72"/>
       <c r="B14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="72">
+        <v>131</v>
+      </c>
+      <c r="C14" s="75">
         <v>35.7</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="73">
         <v>65.1</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="73">
         <v>63.9</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="73">
         <v>26</v>
       </c>
-      <c r="G14" s="70">
+      <c r="G14" s="73">
         <v>36.6</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="73">
         <v>73.7</v>
       </c>
-      <c r="I14" s="70">
+      <c r="I14" s="73">
         <v>59.9</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="73">
         <v>64.6</v>
       </c>
-      <c r="K14" s="72" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" s="56" customFormat="1" spans="1:11">
-      <c r="A15" s="65">
+      <c r="K14" s="75" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" s="59" customFormat="1" spans="1:11">
+      <c r="A15" s="68">
         <v>0.536</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="69">
         <v>28.3</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="70">
         <v>62.2083</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="70">
         <v>37.8093</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="70">
         <v>24.3762</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="70">
         <v>30.4307</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="70">
         <v>58.7949</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="70">
         <v>57.8236</v>
       </c>
-      <c r="J15" s="67">
+      <c r="J15" s="70">
         <v>53.586</v>
       </c>
-      <c r="K15" s="66">
+      <c r="K15" s="69">
         <f t="shared" ref="K15:K17" si="1">AVERAGE(C15:J15)</f>
         <v>44.166125</v>
       </c>
     </row>
-    <row r="16" s="56" customFormat="1" spans="1:11">
-      <c r="A16" s="65">
+    <row r="16" s="59" customFormat="1" spans="1:11">
+      <c r="A16" s="68">
         <v>0.54</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="68">
+        <v>130</v>
+      </c>
+      <c r="C16" s="71">
         <v>31</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="69">
         <v>62.3</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="69">
         <v>53.2</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="69">
         <v>24.3</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="69">
         <v>33</v>
       </c>
-      <c r="H16" s="66">
+      <c r="H16" s="69">
         <v>68.2</v>
       </c>
-      <c r="I16" s="66">
+      <c r="I16" s="69">
         <v>57.4</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="69">
         <v>60</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="15">
         <f t="shared" si="1"/>
         <v>48.675</v>
       </c>
     </row>
-    <row r="17" s="56" customFormat="1" spans="1:11">
-      <c r="A17" s="65"/>
+    <row r="17" s="59" customFormat="1" spans="1:11">
+      <c r="A17" s="68"/>
       <c r="B17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="68">
+        <v>131</v>
+      </c>
+      <c r="C17" s="71">
         <v>32.3</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="69">
         <v>62.7</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="69">
         <v>57.1</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="69">
         <v>25.1</v>
       </c>
-      <c r="G17" s="66">
+      <c r="G17" s="69">
         <v>34.2</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="69">
         <v>69.6</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="69">
         <v>56.7</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J17" s="69">
         <v>62</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>138</v>
+      <c r="K17" s="15" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9500" firstSheet="8" activeTab="13"/>
+    <workbookView windowWidth="25600" windowHeight="9500" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="cmp_block" sheetId="14" r:id="rId9"/>
     <sheet name="cmp_shared" sheetId="10" r:id="rId10"/>
     <sheet name="cmp_lora" sheetId="11" r:id="rId11"/>
-    <sheet name="block" sheetId="9" r:id="rId12"/>
-    <sheet name="finetune" sheetId="12" r:id="rId13"/>
-    <sheet name="wo_finetune" sheetId="13" r:id="rId14"/>
-    <sheet name="shared_finetune" sheetId="15" r:id="rId15"/>
+    <sheet name="shared_finetune" sheetId="15" r:id="rId12"/>
+    <sheet name="block" sheetId="9" r:id="rId13"/>
+    <sheet name="finetune" sheetId="12" r:id="rId14"/>
+    <sheet name="wo_finetune" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="149">
   <si>
     <t>origin PPL</t>
   </si>
@@ -519,6 +519,15 @@
   </si>
   <si>
     <t>w/o bad ppl layer</t>
+  </si>
+  <si>
+    <t>3e-5 5000</t>
+  </si>
+  <si>
+    <t>3e-5 10000</t>
+  </si>
+  <si>
+    <t>3e-5 15000</t>
   </si>
   <si>
     <t>2.2B</t>
@@ -1389,12 +1398,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1423,6 +1426,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3105,7 +3114,7 @@
     <col min="17" max="17" width="9.23076923076923" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="17.6" spans="1:17">
+    <row r="1" s="16" customFormat="1" ht="17.6" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3152,13 +3161,13 @@
         <v>102</v>
       </c>
       <c r="P1" s="53" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q1" s="55" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" s="18" customFormat="1" ht="17.6" spans="1:17">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" s="16" customFormat="1" ht="17.6" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -3194,7 +3203,7 @@
       <c r="M2" s="4">
         <v>70.1</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="10">
         <f>AVERAGE(F2:M2)</f>
         <v>61.6125</v>
       </c>
@@ -3205,8 +3214,8 @@
       <c r="P2" s="54">
         <v>100</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>139</v>
+      <c r="Q2" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" ht="17.6" hidden="1" spans="1:15">
@@ -3245,7 +3254,7 @@
       <c r="M3" s="26">
         <v>70</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="10">
         <f>AVERAGE(F3:M3)</f>
         <v>58.975</v>
       </c>
@@ -3290,7 +3299,7 @@
       <c r="M4" s="26">
         <v>65.7</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="10">
         <f>AVERAGE(F4:M4)</f>
         <v>55.35</v>
       </c>
@@ -3335,7 +3344,7 @@
       <c r="M5" s="26">
         <v>68</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <f>AVERAGE(F5:M5)</f>
         <v>56.25</v>
       </c>
@@ -3352,7 +3361,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>60</v>
@@ -3384,7 +3393,7 @@
       <c r="M6" s="6">
         <v>68.3</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="11">
         <f>AVERAGE(F6:M6)</f>
         <v>59.1875</v>
       </c>
@@ -3395,7 +3404,7 @@
       <c r="P6" s="22">
         <v>89.9</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="12"/>
     </row>
     <row r="7" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A7" s="5"/>
@@ -3413,19 +3422,19 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="11" t="s">
         <v>80</v>
       </c>
       <c r="O7" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="14"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>60</v>
@@ -3455,7 +3464,7 @@
       <c r="M8" s="6">
         <v>68.8</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="11">
         <f>AVERAGE(F8:M8)</f>
         <v>59.4625</v>
       </c>
@@ -3466,7 +3475,7 @@
       <c r="P8" s="22">
         <v>90.8</v>
       </c>
-      <c r="Q8" s="14"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="9" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A9" s="5"/>
@@ -3494,13 +3503,13 @@
       <c r="K9" s="6">
         <v>78.8</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="19">
         <v>58.5</v>
       </c>
       <c r="M9" s="6">
         <v>68.3</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="11">
         <f>AVERAGE(F9:M9)</f>
         <v>59.3625</v>
       </c>
@@ -3508,7 +3517,7 @@
         <f>N9-61.6</f>
         <v>-2.2375</v>
       </c>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A10" s="5"/>
@@ -3536,13 +3545,13 @@
       <c r="K10" s="6">
         <v>78.8</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="19">
         <v>58.8</v>
       </c>
       <c r="M10" s="6">
         <v>68.6</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="11">
         <f>AVERAGE(F10:M10)</f>
         <v>59.425</v>
       </c>
@@ -3550,7 +3559,7 @@
         <f>N10-61.6</f>
         <v>-2.175</v>
       </c>
-      <c r="Q10" s="14"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" s="23" customFormat="1" ht="17.6" spans="1:17">
       <c r="A11" s="40" t="s">
@@ -3560,7 +3569,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>60</v>
@@ -3592,7 +3601,7 @@
       <c r="M11" s="48">
         <v>67.3</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="13">
         <f>AVERAGE(F11:M11)</f>
         <v>56.35</v>
       </c>
@@ -3603,7 +3612,7 @@
       <c r="P11" s="23">
         <v>79.7</v>
       </c>
-      <c r="Q11" s="16"/>
+      <c r="Q11" s="14"/>
     </row>
     <row r="12" s="23" customFormat="1" ht="17.6" spans="1:17">
       <c r="A12" s="7"/>
@@ -3621,13 +3630,13 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="13" t="s">
         <v>80</v>
       </c>
       <c r="O12" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="Q12" s="16"/>
+      <c r="Q12" s="14"/>
     </row>
     <row r="13" s="23" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A13" s="7"/>
@@ -3663,7 +3672,7 @@
       <c r="M13" s="8">
         <v>66.1</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="13">
         <f t="shared" ref="N13:N35" si="0">AVERAGE(F13:M13)</f>
         <v>54.6</v>
       </c>
@@ -3671,7 +3680,7 @@
         <f>N13-61.6</f>
         <v>-7.00000000000001</v>
       </c>
-      <c r="Q13" s="16"/>
+      <c r="Q13" s="14"/>
     </row>
     <row r="14" s="23" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A14" s="7"/>
@@ -3705,20 +3714,20 @@
       <c r="M14" s="8">
         <v>66.9</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="13">
         <f t="shared" si="0"/>
         <v>69.1</v>
       </c>
       <c r="O14" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="Q14" s="16"/>
+      <c r="Q14" s="14"/>
     </row>
     <row r="15" s="23" customFormat="1" ht="17.6" spans="1:17">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>60</v>
@@ -3748,7 +3757,7 @@
       <c r="M15" s="8">
         <v>68.5</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="13">
         <f t="shared" si="0"/>
         <v>56.1</v>
       </c>
@@ -3759,7 +3768,7 @@
       <c r="P15" s="23">
         <v>81.6</v>
       </c>
-      <c r="Q15" s="16"/>
+      <c r="Q15" s="14"/>
     </row>
     <row r="16" s="23" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A16" s="7"/>
@@ -3793,7 +3802,7 @@
       <c r="M16" s="8">
         <v>68.3</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="13">
         <f t="shared" si="0"/>
         <v>56.95</v>
       </c>
@@ -3801,7 +3810,7 @@
         <f t="shared" si="1"/>
         <v>-4.65</v>
       </c>
-      <c r="Q16" s="16"/>
+      <c r="Q16" s="14"/>
     </row>
     <row r="17" s="23" customFormat="1" ht="17.6" spans="1:17">
       <c r="A17" s="7"/>
@@ -3835,7 +3844,7 @@
       <c r="M17" s="8">
         <v>68.4</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="13">
         <f t="shared" si="0"/>
         <v>57.0875</v>
       </c>
@@ -3843,7 +3852,7 @@
         <f t="shared" si="1"/>
         <v>-4.51250000000001</v>
       </c>
-      <c r="Q17" s="16"/>
+      <c r="Q17" s="14"/>
     </row>
     <row r="18" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A18" s="5" t="s">
@@ -3853,7 +3862,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>60</v>
@@ -3883,7 +3892,7 @@
       <c r="M18" s="6">
         <v>64.6</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="11">
         <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
@@ -3894,7 +3903,7 @@
       <c r="P18" s="22">
         <v>69.6</v>
       </c>
-      <c r="Q18" s="14"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="19" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A19" s="5"/>
@@ -3928,7 +3937,7 @@
       <c r="M19" s="6">
         <v>63.2</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="11">
         <f t="shared" si="0"/>
         <v>54.175</v>
       </c>
@@ -3936,7 +3945,7 @@
         <f t="shared" si="1"/>
         <v>-7.425</v>
       </c>
-      <c r="Q19" s="14"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A20" s="5"/>
@@ -3964,13 +3973,13 @@
       <c r="K20" s="6">
         <v>75</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="19">
         <v>62.1</v>
       </c>
       <c r="M20" s="6">
         <v>65</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="11">
         <f t="shared" si="0"/>
         <v>54.9</v>
       </c>
@@ -3978,7 +3987,7 @@
         <f t="shared" si="1"/>
         <v>-6.7</v>
       </c>
-      <c r="Q20" s="14"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A21" s="42"/>
@@ -4014,7 +4023,7 @@
       <c r="M21" s="49">
         <v>63.5</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="11">
         <f t="shared" si="0"/>
         <v>52.55</v>
       </c>
@@ -4022,7 +4031,7 @@
         <f t="shared" si="1"/>
         <v>-9.05</v>
       </c>
-      <c r="Q21" s="14"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A22" s="5"/>
@@ -4056,20 +4065,20 @@
       <c r="M22" s="6">
         <v>65.7</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="11">
         <f t="shared" si="0"/>
         <v>65.95</v>
       </c>
       <c r="O22" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="Q22" s="14"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="23" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>60</v>
@@ -4099,7 +4108,7 @@
       <c r="M23" s="6">
         <v>67.2</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="11">
         <f t="shared" si="0"/>
         <v>55.25</v>
       </c>
@@ -4110,7 +4119,7 @@
       <c r="P23" s="22">
         <v>72.4</v>
       </c>
-      <c r="Q23" s="14"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="24" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A24" s="5"/>
@@ -4144,7 +4153,7 @@
       <c r="M24" s="6">
         <v>66.3</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="11">
         <f t="shared" si="0"/>
         <v>52.85</v>
       </c>
@@ -4152,7 +4161,7 @@
         <f t="shared" si="2"/>
         <v>-8.75</v>
       </c>
-      <c r="Q24" s="14"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A25" s="5"/>
@@ -4180,13 +4189,13 @@
       <c r="K25" s="6">
         <v>75.1</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="19">
         <v>59.2</v>
       </c>
       <c r="M25" s="6">
         <v>66.3</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="11">
         <f t="shared" si="0"/>
         <v>55.25</v>
       </c>
@@ -4194,7 +4203,7 @@
         <f t="shared" si="2"/>
         <v>-6.35</v>
       </c>
-      <c r="Q25" s="14"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="26" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A26" s="5"/>
@@ -4222,13 +4231,13 @@
       <c r="K26" s="6">
         <v>75.6</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="19">
         <v>59.6</v>
       </c>
       <c r="M26" s="6">
         <v>66.5</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="11">
         <f t="shared" si="0"/>
         <v>55.6625</v>
       </c>
@@ -4236,7 +4245,7 @@
         <f t="shared" si="2"/>
         <v>-5.93750000000001</v>
       </c>
-      <c r="Q26" s="14"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="27" s="23" customFormat="1" ht="17.6" spans="1:17">
       <c r="A27" s="7" t="s">
@@ -4246,7 +4255,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>60</v>
@@ -4276,7 +4285,7 @@
       <c r="M27" s="8">
         <v>62.4</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="13">
         <f t="shared" si="0"/>
         <v>51.8375</v>
       </c>
@@ -4287,7 +4296,7 @@
       <c r="P27" s="23">
         <v>59.4</v>
       </c>
-      <c r="Q27" s="16"/>
+      <c r="Q27" s="14"/>
     </row>
     <row r="28" s="23" customFormat="1" ht="17.6" spans="1:17">
       <c r="A28" s="7"/>
@@ -4315,13 +4324,13 @@
       <c r="K28" s="8">
         <v>71.2</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="20">
         <v>59.6</v>
       </c>
       <c r="M28" s="8">
         <v>64.2</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="13">
         <f t="shared" si="0"/>
         <v>52.6125</v>
       </c>
@@ -4329,7 +4338,7 @@
         <f t="shared" si="2"/>
         <v>-8.9875</v>
       </c>
-      <c r="Q28" s="16"/>
+      <c r="Q28" s="14"/>
     </row>
     <row r="29" s="23" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A29" s="43"/>
@@ -4365,7 +4374,7 @@
       <c r="M29" s="50">
         <v>61.7</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29" s="13">
         <f t="shared" si="0"/>
         <v>50.0625</v>
       </c>
@@ -4373,7 +4382,7 @@
         <f t="shared" si="2"/>
         <v>-11.5375</v>
       </c>
-      <c r="Q29" s="16"/>
+      <c r="Q29" s="14"/>
     </row>
     <row r="30" s="23" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A30" s="44"/>
@@ -4407,7 +4416,7 @@
       <c r="M30" s="44">
         <v>63.9</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30" s="13">
         <f t="shared" si="0"/>
         <v>52.5375</v>
       </c>
@@ -4415,13 +4424,13 @@
         <f t="shared" si="2"/>
         <v>-9.0625</v>
       </c>
-      <c r="Q30" s="16"/>
+      <c r="Q30" s="14"/>
     </row>
     <row r="31" s="23" customFormat="1" ht="17.6" spans="1:17">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>60</v>
@@ -4451,7 +4460,7 @@
       <c r="M31" s="8">
         <v>63.2</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N31" s="13">
         <f t="shared" si="0"/>
         <v>51.9125</v>
       </c>
@@ -4462,7 +4471,7 @@
       <c r="P31" s="23">
         <v>63.2</v>
       </c>
-      <c r="Q31" s="16"/>
+      <c r="Q31" s="14"/>
     </row>
     <row r="32" s="23" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A32" s="7"/>
@@ -4490,13 +4499,13 @@
       <c r="K32" s="8">
         <v>72.6</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="20">
         <v>59.6</v>
       </c>
       <c r="M32" s="8">
         <v>63.1</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32" s="13">
         <f t="shared" si="0"/>
         <v>52.125</v>
       </c>
@@ -4504,7 +4513,7 @@
         <f t="shared" si="2"/>
         <v>-9.475</v>
       </c>
-      <c r="Q32" s="16"/>
+      <c r="Q32" s="14"/>
     </row>
     <row r="33" s="23" customFormat="1" ht="17.6" spans="1:17">
       <c r="A33" s="7"/>
@@ -4532,13 +4541,13 @@
       <c r="K33" s="8">
         <v>73.7</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="20">
         <v>59.9</v>
       </c>
       <c r="M33" s="8">
         <v>64.6</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="13">
         <f t="shared" si="0"/>
         <v>53.1875</v>
       </c>
@@ -4546,7 +4555,7 @@
         <f t="shared" si="2"/>
         <v>-8.4125</v>
       </c>
-      <c r="Q33" s="16"/>
+      <c r="Q33" s="14"/>
     </row>
     <row r="34" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A34" s="45" t="s">
@@ -4556,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D34" s="45" t="s">
         <v>60</v>
@@ -4586,7 +4595,7 @@
       <c r="M34" s="51">
         <v>59.1</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="11">
         <f t="shared" si="0"/>
         <v>48.1125</v>
       </c>
@@ -4597,7 +4606,7 @@
       <c r="P34" s="22">
         <v>49.3</v>
       </c>
-      <c r="Q34" s="14"/>
+      <c r="Q34" s="12"/>
     </row>
     <row r="35" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A35" s="5"/>
@@ -4615,9 +4624,9 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="13"/>
+      <c r="N35" s="11"/>
       <c r="O35" s="36"/>
-      <c r="Q35" s="14"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="36" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A36" s="5"/>
@@ -4651,7 +4660,7 @@
       <c r="M36" s="6">
         <v>60.5</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="11">
         <f>AVERAGE(F36:M36)</f>
         <v>48.725</v>
       </c>
@@ -4659,7 +4668,7 @@
         <f>N36-61.6</f>
         <v>-12.875</v>
       </c>
-      <c r="Q36" s="14"/>
+      <c r="Q36" s="12"/>
     </row>
     <row r="37" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A37" s="46"/>
@@ -4679,9 +4688,9 @@
       <c r="K37" s="52"/>
       <c r="L37" s="52"/>
       <c r="M37" s="52"/>
-      <c r="N37" s="13"/>
+      <c r="N37" s="11"/>
       <c r="O37" s="36"/>
-      <c r="Q37" s="14"/>
+      <c r="Q37" s="12"/>
     </row>
     <row r="38" s="22" customFormat="1" ht="17.6" hidden="1" spans="1:17">
       <c r="A38" s="47"/>
@@ -4699,15 +4708,15 @@
       <c r="K38" s="47"/>
       <c r="L38" s="47"/>
       <c r="M38" s="47"/>
-      <c r="N38" s="13"/>
+      <c r="N38" s="11"/>
       <c r="O38" s="36"/>
-      <c r="Q38" s="14"/>
+      <c r="Q38" s="12"/>
     </row>
     <row r="39" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>60</v>
@@ -4737,7 +4746,7 @@
       <c r="M39" s="6">
         <v>60</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="11">
         <f>AVERAGE(F39:M39)</f>
         <v>48.675</v>
       </c>
@@ -4748,7 +4757,7 @@
       <c r="P39" s="22">
         <v>54</v>
       </c>
-      <c r="Q39" s="14"/>
+      <c r="Q39" s="12"/>
     </row>
     <row r="40" s="22" customFormat="1" ht="17.6" spans="1:17">
       <c r="A40" s="5"/>
@@ -4782,7 +4791,7 @@
       <c r="M40" s="6">
         <v>62</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="11">
         <f>AVERAGE(F40:M40)</f>
         <v>49.9625</v>
       </c>
@@ -4790,7 +4799,7 @@
         <f>N40-61.6</f>
         <v>-11.6375</v>
       </c>
-      <c r="Q40" s="14"/>
+      <c r="Q40" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4816,9 +4825,9 @@
     <col min="13" max="13" width="15.2211538461538" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="17.6" spans="1:14">
+    <row r="1" s="16" customFormat="1" ht="17.6" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>56</v>
@@ -4854,13 +4863,13 @@
         <v>31</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" s="18" customFormat="1" ht="17.6" spans="1:14">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" s="16" customFormat="1" ht="17.6" spans="1:14">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -4895,7 +4904,7 @@
       <c r="L2" s="4">
         <v>70.1</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="10">
         <f>AVERAGE(E2:L2)</f>
         <v>61.6125</v>
       </c>
@@ -4904,7 +4913,7 @@
         <v>0.0124999999999957</v>
       </c>
     </row>
-    <row r="3" s="18" customFormat="1" ht="17.6" hidden="1" spans="1:14">
+    <row r="3" s="16" customFormat="1" ht="17.6" hidden="1" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -4939,7 +4948,7 @@
       <c r="L3" s="26">
         <v>70</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="10">
         <f>AVERAGE(E3:L3)</f>
         <v>58.975</v>
       </c>
@@ -4948,7 +4957,7 @@
         <v>-2.62500000000001</v>
       </c>
     </row>
-    <row r="4" s="18" customFormat="1" ht="17.6" hidden="1" spans="1:14">
+    <row r="4" s="16" customFormat="1" ht="17.6" hidden="1" spans="1:14">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4979,7 +4988,7 @@
       <c r="L4" s="26">
         <v>67.3</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="10">
         <f>AVERAGE(E4:L4)</f>
         <v>57.1375</v>
       </c>
@@ -4988,7 +4997,7 @@
         <v>-4.4625</v>
       </c>
     </row>
-    <row r="5" s="18" customFormat="1" ht="17.6" hidden="1" spans="1:14">
+    <row r="5" s="16" customFormat="1" ht="17.6" hidden="1" spans="1:14">
       <c r="A5" s="3" t="s">
         <v>116</v>
       </c>
@@ -5023,7 +5032,7 @@
       <c r="L5" s="26">
         <v>65.7</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <f>AVERAGE(E5:L5)</f>
         <v>55.35</v>
       </c>
@@ -5032,7 +5041,7 @@
         <v>-6.25000000000001</v>
       </c>
     </row>
-    <row r="6" s="18" customFormat="1" ht="17.6" hidden="1" spans="1:14">
+    <row r="6" s="16" customFormat="1" ht="17.6" hidden="1" spans="1:14">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -5063,7 +5072,7 @@
       <c r="L6" s="27">
         <v>66.5</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="10">
         <f>AVERAGE(E6:L6)</f>
         <v>55.7625</v>
       </c>
@@ -5072,7 +5081,7 @@
         <v>-5.83750000000001</v>
       </c>
     </row>
-    <row r="7" s="18" customFormat="1" ht="17.6" hidden="1" spans="1:14">
+    <row r="7" s="16" customFormat="1" ht="17.6" hidden="1" spans="1:14">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -5107,7 +5116,7 @@
       <c r="L7" s="26">
         <v>68</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="10">
         <f>AVERAGE(E7:L7)</f>
         <v>56.25</v>
       </c>
@@ -5151,7 +5160,7 @@
       <c r="L8" s="6">
         <v>68.8</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="11">
         <f>AVERAGE(E8:L8)</f>
         <v>59.4625</v>
       </c>
@@ -5185,13 +5194,13 @@
       <c r="J9" s="6">
         <v>78.8</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="19">
         <v>58.5</v>
       </c>
       <c r="L9" s="6">
         <v>68.3</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="11">
         <f>AVERAGE(E9:L9)</f>
         <v>59.3625</v>
       </c>
@@ -5225,13 +5234,13 @@
       <c r="J10" s="6">
         <v>78.8</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="19">
         <v>58.8</v>
       </c>
       <c r="L10" s="6">
         <v>68.6</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="11">
         <f>AVERAGE(E10:L10)</f>
         <v>59.425</v>
       </c>
@@ -5275,7 +5284,7 @@
       <c r="L11" s="8">
         <v>68.5</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="13">
         <f>AVERAGE(E11:L11)</f>
         <v>56.1</v>
       </c>
@@ -5315,7 +5324,7 @@
       <c r="L12" s="8">
         <v>68.3</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="13">
         <f>AVERAGE(E12:L12)</f>
         <v>56.95</v>
       </c>
@@ -5355,7 +5364,7 @@
       <c r="L13" s="8">
         <v>68.4</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="13">
         <f>AVERAGE(E13:L13)</f>
         <v>57.0875</v>
       </c>
@@ -5399,7 +5408,7 @@
       <c r="L14" s="6">
         <v>67.2</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="11">
         <f>AVERAGE(E14:L14)</f>
         <v>55.25</v>
       </c>
@@ -5433,13 +5442,13 @@
       <c r="J15" s="6">
         <v>75.1</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="19">
         <v>59.2</v>
       </c>
       <c r="L15" s="6">
         <v>66.3</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="11">
         <f>AVERAGE(E15:L15)</f>
         <v>55.25</v>
       </c>
@@ -5473,13 +5482,13 @@
       <c r="J16" s="6">
         <v>75.6</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="19">
         <v>59.6</v>
       </c>
       <c r="L16" s="6">
         <v>66.5</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="11">
         <f>AVERAGE(E16:L16)</f>
         <v>55.6625</v>
       </c>
@@ -5523,7 +5532,7 @@
       <c r="L17" s="8">
         <v>63.2</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="13">
         <f>AVERAGE(E17:L17)</f>
         <v>51.9125</v>
       </c>
@@ -5557,13 +5566,13 @@
       <c r="J18" s="8">
         <v>72.6</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="20">
         <v>59.6</v>
       </c>
       <c r="L18" s="8">
         <v>63.1</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="13">
         <f>AVERAGE(E18:L18)</f>
         <v>52.125</v>
       </c>
@@ -5597,13 +5606,13 @@
       <c r="J19" s="8">
         <v>73.7</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="20">
         <v>59.9</v>
       </c>
       <c r="L19" s="8">
         <v>64.6</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="13">
         <f>AVERAGE(E19:L19)</f>
         <v>53.1875</v>
       </c>
@@ -5647,7 +5656,7 @@
       <c r="L20" s="6">
         <v>60</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="11">
         <f>AVERAGE(E20:L20)</f>
         <v>48.675</v>
       </c>
@@ -5671,7 +5680,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="13"/>
+      <c r="M21" s="11"/>
       <c r="N21" s="37"/>
     </row>
     <row r="22" s="22" customFormat="1" ht="17.6" spans="1:14">
@@ -5705,7 +5714,7 @@
       <c r="L22" s="6">
         <v>62</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="11">
         <f>AVERAGE(E22:L22)</f>
         <v>49.9625</v>
       </c>
@@ -5726,7 +5735,357 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:P7"/>
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="11" max="11" width="16.1826923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:16">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:16">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>48.3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>77.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>38.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>78.7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>63.2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>70.1</v>
+      </c>
+      <c r="J2" s="10">
+        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
+        <v>61.6125</v>
+      </c>
+      <c r="K2" s="9">
+        <v>16375728128</v>
+      </c>
+      <c r="L2" s="9">
+        <v>31371</v>
+      </c>
+      <c r="M2" s="15">
+        <v>32571</v>
+      </c>
+      <c r="N2" s="15">
+        <v>0.4884</v>
+      </c>
+      <c r="O2" s="15">
+        <v>2.05</v>
+      </c>
+      <c r="P2" s="16">
+        <f t="shared" ref="P2:P7" si="1">0.4884/N2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:16">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="22">
+        <v>14714784320</v>
+      </c>
+      <c r="L3" s="22">
+        <v>28203</v>
+      </c>
+      <c r="M3" s="17">
+        <v>29403</v>
+      </c>
+      <c r="N3" s="17">
+        <v>0.4467</v>
+      </c>
+      <c r="O3" s="17">
+        <v>2.24</v>
+      </c>
+      <c r="P3" s="16">
+        <f t="shared" si="1"/>
+        <v>1.09335124244459</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:16">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="23">
+        <v>13053840512</v>
+      </c>
+      <c r="L4" s="23">
+        <v>25035</v>
+      </c>
+      <c r="M4" s="18">
+        <v>26235</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0.4155</v>
+      </c>
+      <c r="O4" s="18">
+        <v>2.41</v>
+      </c>
+      <c r="P4" s="16">
+        <f t="shared" si="1"/>
+        <v>1.17545126353791</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:16">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>38.1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>65.3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>66.1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>29.6</v>
+      </c>
+      <c r="F5" s="6">
+        <v>38</v>
+      </c>
+      <c r="G5" s="6">
+        <v>75</v>
+      </c>
+      <c r="H5" s="19">
+        <v>62.1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>65</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="0"/>
+        <v>54.9</v>
+      </c>
+      <c r="K5" s="22">
+        <v>11392896704</v>
+      </c>
+      <c r="L5" s="22">
+        <v>21868</v>
+      </c>
+      <c r="M5" s="17">
+        <v>23068</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0.3722</v>
+      </c>
+      <c r="O5" s="17">
+        <v>2.69</v>
+      </c>
+      <c r="P5" s="16">
+        <f t="shared" si="1"/>
+        <v>1.31219774314884</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:16">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7">
+        <v>34.1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>64.5</v>
+      </c>
+      <c r="D6" s="8">
+        <v>61</v>
+      </c>
+      <c r="E6" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>37.2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>71.2</v>
+      </c>
+      <c r="H6" s="20">
+        <v>59.6</v>
+      </c>
+      <c r="I6" s="8">
+        <v>64.2</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
+        <v>52.6125</v>
+      </c>
+      <c r="K6" s="23">
+        <v>9731952896</v>
+      </c>
+      <c r="L6" s="23">
+        <v>18700</v>
+      </c>
+      <c r="M6" s="18">
+        <v>19900</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0.3417</v>
+      </c>
+      <c r="O6" s="18">
+        <v>2.64</v>
+      </c>
+      <c r="P6" s="16">
+        <f t="shared" si="1"/>
+        <v>1.42932396839333</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:16">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>31.9</v>
+      </c>
+      <c r="C7" s="6">
+        <v>63.1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>50.1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>26.1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>32.7</v>
+      </c>
+      <c r="G7" s="6">
+        <v>67.9</v>
+      </c>
+      <c r="H7" s="6">
+        <v>57.5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>60.5</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
+        <v>48.725</v>
+      </c>
+      <c r="K7" s="12">
+        <v>8071009088</v>
+      </c>
+      <c r="L7" s="12">
+        <v>15532</v>
+      </c>
+      <c r="M7" s="17">
+        <v>16732</v>
+      </c>
+      <c r="N7" s="17">
+        <v>0.2997</v>
+      </c>
+      <c r="O7" s="17">
+        <v>3.34</v>
+      </c>
+      <c r="P7" s="22">
+        <f t="shared" si="1"/>
+        <v>1.62962962962963</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -5742,7 +6101,7 @@
   <sheetData>
     <row r="1" ht="17.6" spans="1:16">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>97</v>
@@ -5769,24 +6128,24 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5818,26 +6177,26 @@
       <c r="I2" s="4">
         <v>70.1</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="10">
         <f>AVERAGE(B2:I2)</f>
         <v>61.6125</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="9">
         <v>16375728128</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="9">
         <v>31371</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="15">
         <v>32571</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="15">
         <v>0.4884</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="15">
         <v>2.05</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="16">
         <f>0.4884/N2</f>
         <v>1</v>
       </c>
@@ -5889,7 +6248,7 @@
       <c r="O3">
         <v>2.27</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="16">
         <f>0.4884/N3</f>
         <v>1.10647938377889</v>
       </c>
@@ -5941,7 +6300,7 @@
       <c r="O4">
         <v>2.25</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="16">
         <f>0.4884/N4</f>
         <v>1.09950472760018</v>
       </c>
@@ -5993,7 +6352,7 @@
       <c r="O5">
         <v>2.84</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="16">
         <f>0.4884/N5</f>
         <v>1.38592508513053</v>
       </c>
@@ -6045,7 +6404,7 @@
       <c r="O6">
         <v>3.15</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="16">
         <f>0.4884/N6</f>
         <v>1.539237314844</v>
       </c>
@@ -6097,7 +6456,7 @@
       <c r="O7">
         <v>3.79</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="16">
         <f>0.4884/N7</f>
         <v>1.85</v>
       </c>
@@ -6108,13 +6467,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -6126,7 +6485,7 @@
   <sheetData>
     <row r="1" ht="17.6" spans="1:16">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>97</v>
@@ -6153,24 +6512,24 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6202,26 +6561,26 @@
       <c r="I2" s="4">
         <v>70.1</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="10">
         <f>AVERAGE(B2:I2)</f>
         <v>61.6125</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="9">
         <v>16375728128</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="9">
         <v>31371</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="15">
         <v>32571</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="15">
         <v>0.4884</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="15">
         <v>2.05</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="16">
         <f t="shared" ref="P2:P7" si="0">0.4884/N2</f>
         <v>1</v>
       </c>
@@ -6248,32 +6607,32 @@
       <c r="G3" s="6">
         <v>78.8</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="19">
         <v>58.8</v>
       </c>
       <c r="I3" s="6">
         <v>68.6</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <f t="shared" ref="J3:J7" si="1">AVERAGE(B3:I3)</f>
         <v>59.425</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="12">
         <v>14870497802</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="12">
         <v>28500</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="17">
         <v>29700</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="17">
         <v>0.4648</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="17">
         <v>2.15</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="16">
         <f t="shared" si="0"/>
         <v>1.05077452667814</v>
       </c>
@@ -6306,26 +6665,26 @@
       <c r="I4" s="8">
         <v>68.4</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <f t="shared" si="1"/>
         <v>57.0875</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="14">
         <v>13365267476</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="14">
         <v>25629</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="18">
         <v>26289</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="18">
         <v>0.4589</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="18">
         <v>2.18</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="16">
         <f t="shared" si="0"/>
         <v>1.06428415776858</v>
       </c>
@@ -6352,32 +6711,32 @@
       <c r="G5" s="6">
         <v>75.6</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="19">
         <v>59.6</v>
       </c>
       <c r="I5" s="6">
         <v>66.5</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <f t="shared" si="1"/>
         <v>55.6625</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="12">
         <v>11860037150</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="12">
         <v>22759</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="17">
         <v>23958</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="17">
         <v>0.4079</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="17">
         <v>2.45</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="16">
         <f t="shared" si="0"/>
         <v>1.19735229222849</v>
       </c>
@@ -6404,32 +6763,32 @@
       <c r="G6" s="8">
         <v>73.7</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="20">
         <v>59.9</v>
       </c>
       <c r="I6" s="8">
         <v>64.6</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="13">
         <f t="shared" si="1"/>
         <v>53.1875</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="14">
         <v>10354806824</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="14">
         <v>19888</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="18">
         <v>21088</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="18">
         <v>0.3793</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="18">
         <v>2.64</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="16">
         <f t="shared" si="0"/>
         <v>1.28763511732138</v>
       </c>
@@ -6462,409 +6821,27 @@
       <c r="I7" s="6">
         <v>62</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <f t="shared" si="1"/>
         <v>49.9625</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="12">
         <v>8849576498</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="12">
         <v>17017</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="17">
         <v>18217</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="17">
         <v>0.3387</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="17">
         <v>2.95</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="16">
         <f t="shared" si="0"/>
-        <v>1.44198405668733</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
-  <cols>
-    <col min="11" max="11" width="18.9038461538462" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.6" spans="1:16">
-      <c r="A1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" ht="17.6" spans="1:16">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>48.3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>72.7</v>
-      </c>
-      <c r="D2" s="4">
-        <v>77.4</v>
-      </c>
-      <c r="E2" s="4">
-        <v>38.3</v>
-      </c>
-      <c r="F2" s="4">
-        <v>44.2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>78.7</v>
-      </c>
-      <c r="H2" s="4">
-        <v>63.2</v>
-      </c>
-      <c r="I2" s="4">
-        <v>70.1</v>
-      </c>
-      <c r="J2" s="12">
-        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
-        <v>61.6125</v>
-      </c>
-      <c r="K2" s="11">
-        <v>16375728128</v>
-      </c>
-      <c r="L2" s="11">
-        <v>31371</v>
-      </c>
-      <c r="M2" s="17">
-        <v>32571</v>
-      </c>
-      <c r="N2" s="17">
-        <v>0.4884</v>
-      </c>
-      <c r="O2" s="17">
-        <v>2.05</v>
-      </c>
-      <c r="P2" s="18">
-        <f t="shared" ref="P2:P7" si="1">0.4884/N2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:16">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5">
-        <v>43.3</v>
-      </c>
-      <c r="C3" s="6">
-        <v>74</v>
-      </c>
-      <c r="D3" s="6">
-        <v>74.8</v>
-      </c>
-      <c r="E3" s="6">
-        <v>38</v>
-      </c>
-      <c r="F3" s="6">
-        <v>39.4</v>
-      </c>
-      <c r="G3" s="6">
-        <v>78.6</v>
-      </c>
-      <c r="H3" s="6">
-        <v>58.8</v>
-      </c>
-      <c r="I3" s="6">
-        <v>68.8</v>
-      </c>
-      <c r="J3" s="13">
-        <f t="shared" si="0"/>
-        <v>59.4625</v>
-      </c>
-      <c r="K3" s="14">
-        <v>14870497802</v>
-      </c>
-      <c r="L3" s="14">
-        <v>28500</v>
-      </c>
-      <c r="M3" s="19">
-        <v>29700</v>
-      </c>
-      <c r="N3" s="19">
-        <v>0.4648</v>
-      </c>
-      <c r="O3" s="19">
-        <v>2.15</v>
-      </c>
-      <c r="P3" s="18">
-        <f t="shared" si="1"/>
-        <v>1.05077452667814</v>
-      </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:16">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>38.4</v>
-      </c>
-      <c r="C4" s="8">
-        <v>73</v>
-      </c>
-      <c r="D4" s="8">
-        <v>66.5</v>
-      </c>
-      <c r="E4" s="8">
-        <v>29.3</v>
-      </c>
-      <c r="F4" s="8">
-        <v>37.8</v>
-      </c>
-      <c r="G4" s="8">
-        <v>77.2</v>
-      </c>
-      <c r="H4" s="8">
-        <v>58.1</v>
-      </c>
-      <c r="I4" s="8">
-        <v>68.5</v>
-      </c>
-      <c r="J4" s="15">
-        <f t="shared" si="0"/>
-        <v>56.1</v>
-      </c>
-      <c r="K4" s="16">
-        <v>13365267476</v>
-      </c>
-      <c r="L4" s="16">
-        <v>25629</v>
-      </c>
-      <c r="M4" s="20">
-        <v>26289</v>
-      </c>
-      <c r="N4" s="20">
-        <v>0.4589</v>
-      </c>
-      <c r="O4" s="20">
-        <v>2.18</v>
-      </c>
-      <c r="P4" s="18">
-        <f t="shared" si="1"/>
-        <v>1.06428415776858</v>
-      </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:16">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>36.4</v>
-      </c>
-      <c r="C5" s="6">
-        <v>70.3</v>
-      </c>
-      <c r="D5" s="6">
-        <v>63.1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>27.8</v>
-      </c>
-      <c r="F5" s="6">
-        <v>37.4</v>
-      </c>
-      <c r="G5" s="6">
-        <v>75.2</v>
-      </c>
-      <c r="H5" s="6">
-        <v>64.6</v>
-      </c>
-      <c r="I5" s="6">
-        <v>67.2</v>
-      </c>
-      <c r="J5" s="13">
-        <f t="shared" si="0"/>
-        <v>55.25</v>
-      </c>
-      <c r="K5" s="14">
-        <v>11860037150</v>
-      </c>
-      <c r="L5" s="14">
-        <v>22759</v>
-      </c>
-      <c r="M5" s="19">
-        <v>23958</v>
-      </c>
-      <c r="N5" s="19">
-        <v>0.4079</v>
-      </c>
-      <c r="O5" s="19">
-        <v>2.45</v>
-      </c>
-      <c r="P5" s="18">
-        <f t="shared" si="1"/>
-        <v>1.19735229222849</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:16">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7">
-        <v>31.7</v>
-      </c>
-      <c r="C6" s="8">
-        <v>63.2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>57.9</v>
-      </c>
-      <c r="E6" s="8">
-        <v>26.1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>34.8</v>
-      </c>
-      <c r="G6" s="8">
-        <v>71.6</v>
-      </c>
-      <c r="H6" s="8">
-        <v>66.8</v>
-      </c>
-      <c r="I6" s="8">
-        <v>63.2</v>
-      </c>
-      <c r="J6" s="15">
-        <f t="shared" si="0"/>
-        <v>51.9125</v>
-      </c>
-      <c r="K6" s="16">
-        <v>10354806824</v>
-      </c>
-      <c r="L6" s="16">
-        <v>19888</v>
-      </c>
-      <c r="M6" s="20">
-        <v>21088</v>
-      </c>
-      <c r="N6" s="20">
-        <v>0.3793</v>
-      </c>
-      <c r="O6" s="20">
-        <v>2.64</v>
-      </c>
-      <c r="P6" s="18">
-        <f t="shared" si="1"/>
-        <v>1.28763511732138</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:16">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
-        <v>31</v>
-      </c>
-      <c r="C7" s="6">
-        <v>62.3</v>
-      </c>
-      <c r="D7" s="6">
-        <v>53.2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>24.3</v>
-      </c>
-      <c r="F7" s="6">
-        <v>33</v>
-      </c>
-      <c r="G7" s="6">
-        <v>68.2</v>
-      </c>
-      <c r="H7" s="6">
-        <v>57.4</v>
-      </c>
-      <c r="I7" s="6">
-        <v>60</v>
-      </c>
-      <c r="J7" s="13">
-        <f t="shared" si="0"/>
-        <v>48.675</v>
-      </c>
-      <c r="K7" s="14">
-        <v>8849576498</v>
-      </c>
-      <c r="L7" s="14">
-        <v>17017</v>
-      </c>
-      <c r="M7" s="19">
-        <v>18217</v>
-      </c>
-      <c r="N7" s="19">
-        <v>0.3387</v>
-      </c>
-      <c r="O7" s="19">
-        <v>2.95</v>
-      </c>
-      <c r="P7" s="18">
-        <f t="shared" si="1"/>
         <v>1.44198405668733</v>
       </c>
     </row>
@@ -6880,17 +6857,17 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="K1:P7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
-    <col min="11" max="11" width="16.1826923076923" customWidth="1"/>
+    <col min="11" max="11" width="18.9038461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.6" spans="1:16">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>97</v>
@@ -6917,24 +6894,24 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6966,26 +6943,26 @@
       <c r="I2" s="4">
         <v>70.1</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="10">
         <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
         <v>61.6125</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="9">
         <v>16375728128</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="9">
         <v>31371</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="15">
         <v>32571</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="15">
         <v>0.4884</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="15">
         <v>2.05</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="16">
         <f t="shared" ref="P2:P7" si="1">0.4884/N2</f>
         <v>1</v>
       </c>
@@ -6995,10 +6972,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="5">
-        <v>43.7</v>
+        <v>43.3</v>
       </c>
       <c r="C3" s="6">
-        <v>73.7</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6">
         <v>74.8</v>
@@ -7007,37 +6984,37 @@
         <v>38</v>
       </c>
       <c r="F3" s="6">
-        <v>39</v>
+        <v>39.4</v>
       </c>
       <c r="G3" s="6">
-        <v>78.8</v>
-      </c>
-      <c r="H3" s="9">
+        <v>78.6</v>
+      </c>
+      <c r="H3" s="6">
         <v>58.8</v>
       </c>
       <c r="I3" s="6">
-        <v>68.6</v>
-      </c>
-      <c r="J3" s="13">
+        <v>68.8</v>
+      </c>
+      <c r="J3" s="11">
         <f t="shared" si="0"/>
-        <v>59.425</v>
-      </c>
-      <c r="K3" s="14">
+        <v>59.4625</v>
+      </c>
+      <c r="K3" s="12">
         <v>14870497802</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="12">
         <v>28500</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="17">
         <v>29700</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="17">
         <v>0.4648</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="17">
         <v>2.15</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="16">
         <f t="shared" si="1"/>
         <v>1.05077452667814</v>
       </c>
@@ -7047,49 +7024,49 @@
         <v>6</v>
       </c>
       <c r="B4" s="7">
-        <v>39.5</v>
+        <v>38.4</v>
       </c>
       <c r="C4" s="8">
-        <v>74.1</v>
+        <v>73</v>
       </c>
       <c r="D4" s="8">
-        <v>69.1</v>
+        <v>66.5</v>
       </c>
       <c r="E4" s="8">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="F4" s="8">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="G4" s="8">
         <v>77.2</v>
       </c>
       <c r="H4" s="8">
-        <v>60.7</v>
+        <v>58.1</v>
       </c>
       <c r="I4" s="8">
-        <v>68.4</v>
-      </c>
-      <c r="J4" s="15">
+        <v>68.5</v>
+      </c>
+      <c r="J4" s="13">
         <f t="shared" si="0"/>
-        <v>57.0875</v>
-      </c>
-      <c r="K4" s="16">
+        <v>56.1</v>
+      </c>
+      <c r="K4" s="14">
         <v>13365267476</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="14">
         <v>25629</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="18">
         <v>26289</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="18">
         <v>0.4589</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="18">
         <v>2.18</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="16">
         <f t="shared" si="1"/>
         <v>1.06428415776858</v>
       </c>
@@ -7099,49 +7076,49 @@
         <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>38.7</v>
+        <v>36.4</v>
       </c>
       <c r="C5" s="6">
-        <v>71.6</v>
+        <v>70.3</v>
       </c>
       <c r="D5" s="6">
-        <v>67.6</v>
+        <v>63.1</v>
       </c>
       <c r="E5" s="6">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F5" s="6">
-        <v>37.8</v>
+        <v>37.4</v>
       </c>
       <c r="G5" s="6">
-        <v>75.6</v>
-      </c>
-      <c r="H5" s="9">
-        <v>59.6</v>
+        <v>75.2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>64.6</v>
       </c>
       <c r="I5" s="6">
-        <v>66.5</v>
-      </c>
-      <c r="J5" s="13">
+        <v>67.2</v>
+      </c>
+      <c r="J5" s="11">
         <f t="shared" si="0"/>
-        <v>55.6625</v>
-      </c>
-      <c r="K5" s="14">
+        <v>55.25</v>
+      </c>
+      <c r="K5" s="12">
         <v>11860037150</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="12">
         <v>22759</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="17">
         <v>23958</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="17">
         <v>0.4079</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="17">
         <v>2.45</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="16">
         <f t="shared" si="1"/>
         <v>1.19735229222849</v>
       </c>
@@ -7151,49 +7128,49 @@
         <v>12</v>
       </c>
       <c r="B6" s="7">
-        <v>35.7</v>
+        <v>31.7</v>
       </c>
       <c r="C6" s="8">
-        <v>65.1</v>
+        <v>63.2</v>
       </c>
       <c r="D6" s="8">
-        <v>63.9</v>
+        <v>57.9</v>
       </c>
       <c r="E6" s="8">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="F6" s="8">
-        <v>36.6</v>
+        <v>34.8</v>
       </c>
       <c r="G6" s="8">
-        <v>73.7</v>
-      </c>
-      <c r="H6" s="10">
-        <v>59.9</v>
+        <v>71.6</v>
+      </c>
+      <c r="H6" s="8">
+        <v>66.8</v>
       </c>
       <c r="I6" s="8">
-        <v>64.6</v>
-      </c>
-      <c r="J6" s="15">
+        <v>63.2</v>
+      </c>
+      <c r="J6" s="13">
         <f t="shared" si="0"/>
-        <v>53.1875</v>
-      </c>
-      <c r="K6" s="16">
+        <v>51.9125</v>
+      </c>
+      <c r="K6" s="14">
         <v>10354806824</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="14">
         <v>19888</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="18">
         <v>21088</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="18">
         <v>0.3793</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="18">
         <v>2.64</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="16">
         <f t="shared" si="1"/>
         <v>1.28763511732138</v>
       </c>
@@ -7203,49 +7180,49 @@
         <v>15</v>
       </c>
       <c r="B7" s="5">
-        <v>32.3</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6">
-        <v>62.7</v>
+        <v>62.3</v>
       </c>
       <c r="D7" s="6">
-        <v>57.1</v>
+        <v>53.2</v>
       </c>
       <c r="E7" s="6">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="F7" s="6">
-        <v>34.2</v>
+        <v>33</v>
       </c>
       <c r="G7" s="6">
-        <v>69.6</v>
+        <v>68.2</v>
       </c>
       <c r="H7" s="6">
-        <v>56.7</v>
+        <v>57.4</v>
       </c>
       <c r="I7" s="6">
-        <v>62</v>
-      </c>
-      <c r="J7" s="13">
+        <v>60</v>
+      </c>
+      <c r="J7" s="11">
         <f t="shared" si="0"/>
-        <v>49.9625</v>
-      </c>
-      <c r="K7" s="14">
+        <v>48.675</v>
+      </c>
+      <c r="K7" s="12">
         <v>8849576498</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="12">
         <v>17017</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="17">
         <v>18217</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="17">
         <v>0.3387</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="17">
         <v>2.95</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="16">
         <f t="shared" si="1"/>
         <v>1.44198405668733</v>
       </c>
@@ -11597,12 +11574,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q40" sqref="Q40:U40"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -11612,14 +11589,14 @@
     <col min="3" max="3" width="12.2788461538462" customWidth="1"/>
     <col min="4" max="4" width="30.2403846153846" customWidth="1"/>
     <col min="5" max="5" width="12.4519230769231" customWidth="1"/>
-    <col min="6" max="6" width="7.84615384615385" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.23076923076923" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.9038461538462" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33653846153846" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="7.53846153846154" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.23076923076923" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.25" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.76923076923077" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.84615384615385" customWidth="1"/>
+    <col min="7" max="7" width="9.23076923076923" customWidth="1"/>
+    <col min="8" max="8" width="10.9038461538462" customWidth="1"/>
+    <col min="9" max="9" width="8.33653846153846" customWidth="1"/>
+    <col min="10" max="10" width="7.53846153846154" customWidth="1"/>
+    <col min="11" max="11" width="9.23076923076923" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="9.76923076923077" customWidth="1"/>
     <col min="14" max="14" width="16.375" style="77" customWidth="1"/>
     <col min="15" max="15" width="10.4134615384615" style="61" customWidth="1"/>
     <col min="16" max="16" width="12.6923076923077" style="38"/>
@@ -11631,7 +11608,7 @@
     <col min="22" max="22" width="12.9230769230769"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="17.6" spans="1:22">
+    <row r="1" s="16" customFormat="1" ht="17.6" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -11677,29 +11654,29 @@
       <c r="O1" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" s="18" customFormat="1" ht="17.6" spans="1:21">
+    <row r="2" s="16" customFormat="1" ht="17.6" spans="1:21">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -11735,7 +11712,7 @@
       <c r="M2" s="4">
         <v>70.1</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="10">
         <f>AVERAGE(F2:M2)</f>
         <v>61.6125</v>
       </c>
@@ -11743,26 +11720,26 @@
         <f>N2-61.6</f>
         <v>0.0124999999999957</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="9">
         <v>16375728128</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="9">
         <v>31371</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="15">
         <v>32571</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="15">
         <v>0.4884</v>
       </c>
-      <c r="U2" s="17">
+      <c r="U2" s="15">
         <v>2.05</v>
       </c>
     </row>
-    <row r="3" s="18" customFormat="1" ht="17.6" spans="1:21">
+    <row r="3" s="16" customFormat="1" ht="17.6" spans="1:21">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -11793,7 +11770,7 @@
       <c r="M3" s="26">
         <v>58.8</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="10">
         <f>AVERAGE(F3:M3)</f>
         <v>53.7125</v>
       </c>
@@ -11806,11 +11783,11 @@
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-    </row>
-    <row r="4" s="18" customFormat="1" ht="17.6" spans="1:21">
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" s="16" customFormat="1" ht="17.6" spans="1:21">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -11846,7 +11823,7 @@
       <c r="M4" s="26">
         <v>70</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="10">
         <f>AVERAGE(F4:M4)</f>
         <v>58.975</v>
       </c>
@@ -11854,14 +11831,14 @@
         <f>N4-61.6</f>
         <v>-2.62500000000001</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-    </row>
-    <row r="5" s="18" customFormat="1" ht="17.6" hidden="1" spans="1:21">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+    </row>
+    <row r="5" s="16" customFormat="1" ht="17.6" hidden="1" spans="1:21">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -11893,7 +11870,7 @@
       <c r="M5" s="26">
         <v>67.3</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <f>AVERAGE(F5:M5)</f>
         <v>57.1375</v>
       </c>
@@ -11901,14 +11878,14 @@
         <f>N5-61.6</f>
         <v>-4.4625</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-    </row>
-    <row r="6" s="18" customFormat="1" ht="17.6" spans="1:21">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+    </row>
+    <row r="6" s="16" customFormat="1" ht="17.6" spans="1:21">
       <c r="A6" s="3" t="s">
         <v>116</v>
       </c>
@@ -11944,7 +11921,7 @@
       <c r="M6" s="26">
         <v>65.7</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="10">
         <f>AVERAGE(F6:M6)</f>
         <v>55.35</v>
       </c>
@@ -11952,14 +11929,14 @@
         <f>N6-61.6</f>
         <v>-6.25000000000001</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-    </row>
-    <row r="7" s="18" customFormat="1" ht="17.6" hidden="1" spans="1:21">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+    </row>
+    <row r="7" s="16" customFormat="1" ht="17.6" hidden="1" spans="1:21">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -11991,7 +11968,7 @@
       <c r="M7" s="27">
         <v>66.5</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="10">
         <f>AVERAGE(F7:M7)</f>
         <v>55.7625</v>
       </c>
@@ -11999,14 +11976,14 @@
         <f>N7-61.6</f>
         <v>-5.83750000000001</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-    </row>
-    <row r="8" s="18" customFormat="1" ht="17.6" spans="1:21">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+    </row>
+    <row r="8" s="16" customFormat="1" ht="17.6" spans="1:21">
       <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
@@ -12042,7 +12019,7 @@
       <c r="M8" s="26">
         <v>68</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="10">
         <f>AVERAGE(F8:M8)</f>
         <v>56.25</v>
       </c>
@@ -12050,12 +12027,12 @@
         <f>N8-61.6</f>
         <v>-5.34999999999999</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" s="76" customFormat="1" ht="17.6" spans="1:21">
       <c r="A9" s="79"/>
@@ -12089,7 +12066,7 @@
       <c r="M9" s="81">
         <v>66.4</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="11">
         <f>AVERAGE(F9:M9)</f>
         <v>55.95</v>
       </c>
@@ -12144,7 +12121,7 @@
       <c r="M10" s="6">
         <v>68.3</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="11">
         <f>AVERAGE(F10:M10)</f>
         <v>59.1875</v>
       </c>
@@ -12158,13 +12135,13 @@
       <c r="R10" s="22">
         <v>28203</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="17">
         <v>29403</v>
       </c>
-      <c r="T10" s="19">
+      <c r="T10" s="17">
         <v>0.4467</v>
       </c>
-      <c r="U10" s="19">
+      <c r="U10" s="17">
         <v>2.24</v>
       </c>
       <c r="V10" s="22">
@@ -12188,14 +12165,14 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="13"/>
+      <c r="N11" s="11"/>
       <c r="O11" s="33"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
     </row>
     <row r="12" s="22" customFormat="1" ht="17.6" spans="1:22">
       <c r="A12" s="5"/>
@@ -12231,7 +12208,7 @@
       <c r="M12" s="6">
         <v>68.8</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="11">
         <f>AVERAGE(F12:M12)</f>
         <v>59.4625</v>
       </c>
@@ -12239,22 +12216,22 @@
         <f>N12-61.6</f>
         <v>-2.1375</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="12">
         <v>14870497802</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="12">
         <v>28500</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="17">
         <v>29700</v>
       </c>
-      <c r="T12" s="19">
+      <c r="T12" s="17">
         <v>0.4648</v>
       </c>
-      <c r="U12" s="19">
+      <c r="U12" s="17">
         <v>2.15</v>
       </c>
       <c r="V12" s="22">
@@ -12288,13 +12265,13 @@
       <c r="K13" s="6">
         <v>78.8</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="19">
         <v>58.5</v>
       </c>
       <c r="M13" s="6">
         <v>68.3</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="11">
         <f>AVERAGE(F13:M13)</f>
         <v>59.3625</v>
       </c>
@@ -12302,12 +12279,12 @@
         <f>N13-61.6</f>
         <v>-2.2375</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
     </row>
     <row r="14" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A14" s="5"/>
@@ -12335,13 +12312,13 @@
       <c r="K14" s="6">
         <v>78.8</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="19">
         <v>58.8</v>
       </c>
       <c r="M14" s="6">
         <v>68.6</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="11">
         <f>AVERAGE(F14:M14)</f>
         <v>59.425</v>
       </c>
@@ -12349,12 +12326,12 @@
         <f>N14-61.6</f>
         <v>-2.175</v>
       </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
     </row>
     <row r="15" s="23" customFormat="1" ht="17.6" spans="1:22">
       <c r="A15" s="40" t="s">
@@ -12396,7 +12373,7 @@
       <c r="M15" s="48">
         <v>67.3</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="13">
         <f>AVERAGE(F15:M15)</f>
         <v>56.35</v>
       </c>
@@ -12410,13 +12387,13 @@
       <c r="R15" s="23">
         <v>25035</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="18">
         <v>26235</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15" s="18">
         <v>0.4155</v>
       </c>
-      <c r="U15" s="20">
+      <c r="U15" s="18">
         <v>2.41</v>
       </c>
       <c r="V15" s="22">
@@ -12440,14 +12417,14 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="15"/>
+      <c r="N16" s="13"/>
       <c r="O16" s="34"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
       <c r="V16" s="22"/>
     </row>
     <row r="17" s="23" customFormat="1" ht="17.6" spans="1:22">
@@ -12484,7 +12461,7 @@
       <c r="M17" s="8">
         <v>66.1</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="13">
         <f>AVERAGE(F17:M17)</f>
         <v>54.6</v>
       </c>
@@ -12492,22 +12469,22 @@
         <f>N17-61.6</f>
         <v>-7.00000000000001</v>
       </c>
-      <c r="P17" s="16" t="s">
+      <c r="P17" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="14">
         <v>13365267476</v>
       </c>
-      <c r="R17" s="16">
+      <c r="R17" s="14">
         <v>25629</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="18">
         <v>26289</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17" s="18">
         <v>0.4589</v>
       </c>
-      <c r="U17" s="20">
+      <c r="U17" s="18">
         <v>2.18</v>
       </c>
       <c r="V17" s="22">
@@ -12547,19 +12524,19 @@
       <c r="M18" s="8">
         <v>66.9</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="13">
         <f>AVERAGE(F18:M18)</f>
         <v>69.1</v>
       </c>
       <c r="O18" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
       <c r="V18" s="22"/>
     </row>
     <row r="19" s="23" customFormat="1" ht="17.6" spans="1:22">
@@ -12596,7 +12573,7 @@
       <c r="M19" s="8">
         <v>68.5</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="13">
         <f>AVERAGE(F19:M19)</f>
         <v>56.1</v>
       </c>
@@ -12604,12 +12581,12 @@
         <f>N19-61.6</f>
         <v>-5.5</v>
       </c>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
       <c r="V19" s="22"/>
     </row>
     <row r="20" s="23" customFormat="1" ht="17.6" spans="1:22">
@@ -12644,7 +12621,7 @@
       <c r="M20" s="8">
         <v>68.3</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="13">
         <f>AVERAGE(F20:M20)</f>
         <v>56.95</v>
       </c>
@@ -12652,12 +12629,12 @@
         <f>N20-61.6</f>
         <v>-4.65</v>
       </c>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
       <c r="V20" s="22"/>
     </row>
     <row r="21" s="23" customFormat="1" ht="17.6" spans="1:22">
@@ -12692,7 +12669,7 @@
       <c r="M21" s="8">
         <v>68.4</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="13">
         <f>AVERAGE(F21:M21)</f>
         <v>57.0875</v>
       </c>
@@ -12700,12 +12677,12 @@
         <f>N21-61.6</f>
         <v>-4.51250000000001</v>
       </c>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
       <c r="V21" s="22"/>
     </row>
     <row r="22" s="22" customFormat="1" ht="17.6" spans="1:22">
@@ -12746,7 +12723,7 @@
       <c r="M22" s="6">
         <v>64.6</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="11">
         <f>AVERAGE(F22:M22)</f>
         <v>54.5</v>
       </c>
@@ -12760,13 +12737,13 @@
       <c r="R22" s="22">
         <v>21868</v>
       </c>
-      <c r="S22" s="19">
+      <c r="S22" s="17">
         <v>23068</v>
       </c>
-      <c r="T22" s="19">
+      <c r="T22" s="17">
         <v>0.3722</v>
       </c>
-      <c r="U22" s="19">
+      <c r="U22" s="17">
         <v>2.69</v>
       </c>
       <c r="V22" s="22">
@@ -12806,7 +12783,7 @@
       <c r="M23" s="6">
         <v>63.2</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="11">
         <f>AVERAGE(F23:M23)</f>
         <v>54.175</v>
       </c>
@@ -12814,9 +12791,9 @@
         <f>N23-61.6</f>
         <v>-7.425</v>
       </c>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
     </row>
     <row r="24" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A24" s="5"/>
@@ -12844,13 +12821,13 @@
       <c r="K24" s="6">
         <v>75</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="19">
         <v>62.1</v>
       </c>
       <c r="M24" s="6">
         <v>65</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="11">
         <f>AVERAGE(F24:M24)</f>
         <v>54.9</v>
       </c>
@@ -12858,12 +12835,12 @@
         <f>N24-61.6</f>
         <v>-6.7</v>
       </c>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
     </row>
     <row r="25" s="22" customFormat="1" ht="17.6" spans="1:22">
       <c r="A25" s="42"/>
@@ -12899,7 +12876,7 @@
       <c r="M25" s="49">
         <v>63.5</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="11">
         <f>AVERAGE(F25:M25)</f>
         <v>52.55</v>
       </c>
@@ -12907,22 +12884,22 @@
         <f>N25-61.6</f>
         <v>-9.05</v>
       </c>
-      <c r="P25" s="14" t="s">
+      <c r="P25" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="12">
         <v>11860037150</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="12">
         <v>22759</v>
       </c>
-      <c r="S25" s="19">
+      <c r="S25" s="17">
         <v>23958</v>
       </c>
-      <c r="T25" s="19">
+      <c r="T25" s="17">
         <v>0.4079</v>
       </c>
-      <c r="U25" s="19">
+      <c r="U25" s="17">
         <v>2.45</v>
       </c>
       <c r="V25" s="22">
@@ -12962,19 +12939,19 @@
       <c r="M26" s="6">
         <v>65.7</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="11">
         <f>AVERAGE(F26:M26)</f>
         <v>65.95</v>
       </c>
       <c r="O26" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
     </row>
     <row r="27" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A27" s="5"/>
@@ -13010,7 +12987,7 @@
       <c r="M27" s="6">
         <v>67.2</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="11">
         <f>AVERAGE(F27:M27)</f>
         <v>55.25</v>
       </c>
@@ -13018,12 +12995,12 @@
         <f>N27-61.6</f>
         <v>-6.35000000000001</v>
       </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
     </row>
     <row r="28" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A28" s="5"/>
@@ -13057,7 +13034,7 @@
       <c r="M28" s="6">
         <v>66.3</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="11">
         <f>AVERAGE(F28:M28)</f>
         <v>52.85</v>
       </c>
@@ -13065,12 +13042,12 @@
         <f>N28-61.6</f>
         <v>-8.75</v>
       </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
     </row>
     <row r="29" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A29" s="5"/>
@@ -13098,13 +13075,13 @@
       <c r="K29" s="6">
         <v>75.1</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="19">
         <v>59.2</v>
       </c>
       <c r="M29" s="6">
         <v>66.3</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="11">
         <f>AVERAGE(F29:M29)</f>
         <v>55.25</v>
       </c>
@@ -13112,12 +13089,12 @@
         <f>N29-61.6</f>
         <v>-6.35</v>
       </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
     </row>
     <row r="30" s="22" customFormat="1" ht="17.6" spans="1:21">
       <c r="A30" s="5"/>
@@ -13145,13 +13122,13 @@
       <c r="K30" s="6">
         <v>75.6</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="19">
         <v>59.6</v>
       </c>
       <c r="M30" s="6">
         <v>66.5</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="11">
         <f>AVERAGE(F30:M30)</f>
         <v>55.6625</v>
       </c>
@@ -13159,663 +13136,984 @@
         <f>N30-61.6</f>
         <v>-5.93750000000001</v>
       </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-    </row>
-    <row r="31" s="23" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A31" s="7" t="s">
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+    </row>
+    <row r="31" s="22" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5">
+        <v>39.2</v>
+      </c>
+      <c r="G31" s="6">
+        <v>71.9</v>
+      </c>
+      <c r="H31" s="6">
+        <v>68.1</v>
+      </c>
+      <c r="I31" s="6">
+        <v>27.9</v>
+      </c>
+      <c r="J31" s="6">
+        <v>37.6</v>
+      </c>
+      <c r="K31" s="6">
+        <v>75.6</v>
+      </c>
+      <c r="L31" s="19">
+        <v>58.1</v>
+      </c>
+      <c r="M31" s="6">
+        <v>66.7</v>
+      </c>
+      <c r="N31" s="11">
+        <f>AVERAGE(F31:M31)</f>
+        <v>55.6375</v>
+      </c>
+      <c r="O31" s="37">
+        <f>N31-61.6</f>
+        <v>-5.96250000000001</v>
+      </c>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+    </row>
+    <row r="32" s="22" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
+        <v>39.3</v>
+      </c>
+      <c r="G32" s="6">
+        <v>71.9</v>
+      </c>
+      <c r="H32" s="6">
+        <v>68.1</v>
+      </c>
+      <c r="I32" s="6">
+        <v>28.1</v>
+      </c>
+      <c r="J32" s="6">
+        <v>38.4</v>
+      </c>
+      <c r="K32" s="6">
+        <v>75.4</v>
+      </c>
+      <c r="L32" s="19">
+        <v>58.8</v>
+      </c>
+      <c r="M32" s="6">
+        <v>67.1</v>
+      </c>
+      <c r="N32" s="11">
+        <f>AVERAGE(F32:M32)</f>
+        <v>55.8875</v>
+      </c>
+      <c r="O32" s="37">
+        <f>N32-61.6</f>
+        <v>-5.7125</v>
+      </c>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+    </row>
+    <row r="33" s="22" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
+        <v>39.1</v>
+      </c>
+      <c r="G33" s="6">
+        <v>72.3</v>
+      </c>
+      <c r="H33" s="6">
+        <v>67.9</v>
+      </c>
+      <c r="I33" s="6">
+        <v>28.1</v>
+      </c>
+      <c r="J33" s="6">
+        <v>37.8</v>
+      </c>
+      <c r="K33" s="6">
+        <v>75.8</v>
+      </c>
+      <c r="L33" s="19">
+        <v>58.1</v>
+      </c>
+      <c r="M33" s="6">
+        <v>66.6</v>
+      </c>
+      <c r="N33" s="11">
+        <f>AVERAGE(F33:M33)</f>
+        <v>55.7125</v>
+      </c>
+      <c r="O33" s="37">
+        <f>N33-61.6</f>
+        <v>-5.8875</v>
+      </c>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+    </row>
+    <row r="34" s="22" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5">
+        <v>39</v>
+      </c>
+      <c r="G34" s="6">
+        <v>71.9</v>
+      </c>
+      <c r="H34" s="6">
+        <v>68.1</v>
+      </c>
+      <c r="I34" s="6">
+        <v>28.1</v>
+      </c>
+      <c r="J34" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="K34" s="6">
+        <v>75.3</v>
+      </c>
+      <c r="L34" s="19">
+        <v>58.8</v>
+      </c>
+      <c r="M34" s="6">
+        <v>66.9</v>
+      </c>
+      <c r="N34" s="11">
+        <f>AVERAGE(F34:M34)</f>
+        <v>55.875</v>
+      </c>
+      <c r="O34" s="37">
+        <f>N34-61.6</f>
+        <v>-5.725</v>
+      </c>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+    </row>
+    <row r="35" s="22" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5">
+        <v>38.1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>68.8</v>
+      </c>
+      <c r="H35" s="6">
+        <v>64.6</v>
+      </c>
+      <c r="I35" s="6">
+        <v>28.3</v>
+      </c>
+      <c r="J35" s="6">
+        <v>38</v>
+      </c>
+      <c r="K35" s="6">
+        <v>75.3</v>
+      </c>
+      <c r="L35" s="19">
+        <v>56.3</v>
+      </c>
+      <c r="M35" s="6">
+        <v>67.5</v>
+      </c>
+      <c r="N35" s="11">
+        <f>AVERAGE(F35:M35)</f>
+        <v>54.6125</v>
+      </c>
+      <c r="O35" s="36">
+        <f>N35-61.6</f>
+        <v>-6.9875</v>
+      </c>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+    </row>
+    <row r="36" s="22" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5">
+        <v>38.4</v>
+      </c>
+      <c r="G36" s="6">
+        <v>68.4</v>
+      </c>
+      <c r="H36" s="6">
+        <v>64.8</v>
+      </c>
+      <c r="I36" s="6">
+        <v>28.8</v>
+      </c>
+      <c r="J36" s="6">
+        <v>38</v>
+      </c>
+      <c r="K36" s="6">
+        <v>75.8</v>
+      </c>
+      <c r="L36" s="19">
+        <v>58.8</v>
+      </c>
+      <c r="M36" s="6">
+        <v>68.2</v>
+      </c>
+      <c r="N36" s="11">
+        <f>AVERAGE(F36:M36)</f>
+        <v>55.15</v>
+      </c>
+      <c r="O36" s="36">
+        <f>N36-61.6</f>
+        <v>-6.45</v>
+      </c>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+    </row>
+    <row r="37" s="22" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5">
+        <v>38.2</v>
+      </c>
+      <c r="G37" s="6">
+        <v>69</v>
+      </c>
+      <c r="H37" s="6">
+        <v>64.9</v>
+      </c>
+      <c r="I37" s="6">
+        <v>28.7</v>
+      </c>
+      <c r="J37" s="6">
+        <v>39</v>
+      </c>
+      <c r="K37" s="6">
+        <v>75.8</v>
+      </c>
+      <c r="L37" s="19">
+        <v>58.8</v>
+      </c>
+      <c r="M37" s="6">
+        <v>67.7</v>
+      </c>
+      <c r="N37" s="11">
+        <f>AVERAGE(F37:M37)</f>
+        <v>55.2625</v>
+      </c>
+      <c r="O37" s="36">
+        <f>N37-61.6</f>
+        <v>-6.3375</v>
+      </c>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+    </row>
+    <row r="38" s="23" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A38" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7">
         <v>33</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G38" s="8">
         <v>64.1</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H38" s="8">
         <v>58.5</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I38" s="8">
         <v>28.3</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J38" s="8">
         <v>36</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K38" s="8">
         <v>70.3</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L38" s="8">
         <v>62.1</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M38" s="8">
         <v>62.4</v>
-      </c>
-      <c r="N31" s="15">
-        <f>AVERAGE(F31:M31)</f>
-        <v>51.8375</v>
-      </c>
-      <c r="O31" s="34">
-        <f>N31-61.6</f>
-        <v>-9.7625</v>
-      </c>
-      <c r="Q31" s="23">
-        <v>9731952896</v>
-      </c>
-      <c r="R31" s="23">
-        <v>18700</v>
-      </c>
-      <c r="S31" s="20">
-        <v>19900</v>
-      </c>
-      <c r="T31" s="20">
-        <v>0.3417</v>
-      </c>
-      <c r="U31" s="20">
-        <v>2.93</v>
-      </c>
-      <c r="V31" s="22">
-        <f>0.4884/T31</f>
-        <v>1.42932396839333</v>
-      </c>
-    </row>
-    <row r="32" s="23" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7">
-        <v>34.1</v>
-      </c>
-      <c r="G32" s="8">
-        <v>64.5</v>
-      </c>
-      <c r="H32" s="8">
-        <v>61</v>
-      </c>
-      <c r="I32" s="8">
-        <v>29.1</v>
-      </c>
-      <c r="J32" s="8">
-        <v>37.2</v>
-      </c>
-      <c r="K32" s="8">
-        <v>71.2</v>
-      </c>
-      <c r="L32" s="10">
-        <v>59.6</v>
-      </c>
-      <c r="M32" s="8">
-        <v>64.2</v>
-      </c>
-      <c r="N32" s="15">
-        <f>AVERAGE(F32:M32)</f>
-        <v>52.6125</v>
-      </c>
-      <c r="O32" s="34">
-        <f>N32-61.6</f>
-        <v>-8.9875</v>
-      </c>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="22"/>
-    </row>
-    <row r="33" s="23" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43">
-        <v>30.6</v>
-      </c>
-      <c r="G33" s="50">
-        <v>63.7</v>
-      </c>
-      <c r="H33" s="50">
-        <v>56.2</v>
-      </c>
-      <c r="I33" s="50">
-        <v>26.1</v>
-      </c>
-      <c r="J33" s="50">
-        <v>32.6</v>
-      </c>
-      <c r="K33" s="50">
-        <v>70.4</v>
-      </c>
-      <c r="L33" s="50">
-        <v>59.2</v>
-      </c>
-      <c r="M33" s="50">
-        <v>61.7</v>
-      </c>
-      <c r="N33" s="15">
-        <f>AVERAGE(F33:M33)</f>
-        <v>50.0625</v>
-      </c>
-      <c r="O33" s="34">
-        <f>N33-61.6</f>
-        <v>-11.5375</v>
-      </c>
-      <c r="P33" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q33" s="16">
-        <v>10354806824</v>
-      </c>
-      <c r="R33" s="16">
-        <v>19888</v>
-      </c>
-      <c r="S33" s="20">
-        <v>21088</v>
-      </c>
-      <c r="T33" s="20">
-        <v>0.3793</v>
-      </c>
-      <c r="U33" s="20">
-        <v>2.64</v>
-      </c>
-      <c r="V33" s="22">
-        <f>0.4884/T33</f>
-        <v>1.28763511732138</v>
-      </c>
-    </row>
-    <row r="34" s="23" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7">
-        <v>32.8</v>
-      </c>
-      <c r="G34" s="44">
-        <v>62.9</v>
-      </c>
-      <c r="H34" s="44">
-        <v>61.4</v>
-      </c>
-      <c r="I34" s="44">
-        <v>26.3</v>
-      </c>
-      <c r="J34" s="44">
-        <v>34.4</v>
-      </c>
-      <c r="K34" s="44">
-        <v>71.8</v>
-      </c>
-      <c r="L34" s="44">
-        <v>66.8</v>
-      </c>
-      <c r="M34" s="44">
-        <v>63.9</v>
-      </c>
-      <c r="N34" s="15">
-        <f>AVERAGE(F34:M34)</f>
-        <v>52.5375</v>
-      </c>
-      <c r="O34" s="34">
-        <f>N34-61.6</f>
-        <v>-9.0625</v>
-      </c>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="22"/>
-    </row>
-    <row r="35" s="23" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7">
-        <v>31.7</v>
-      </c>
-      <c r="G35" s="8">
-        <v>63.2</v>
-      </c>
-      <c r="H35" s="8">
-        <v>57.9</v>
-      </c>
-      <c r="I35" s="8">
-        <v>26.1</v>
-      </c>
-      <c r="J35" s="8">
-        <v>34.8</v>
-      </c>
-      <c r="K35" s="8">
-        <v>71.6</v>
-      </c>
-      <c r="L35" s="8">
-        <v>66.8</v>
-      </c>
-      <c r="M35" s="8">
-        <v>63.2</v>
-      </c>
-      <c r="N35" s="15">
-        <f>AVERAGE(F35:M35)</f>
-        <v>51.9125</v>
-      </c>
-      <c r="O35" s="34">
-        <f>N35-61.6</f>
-        <v>-9.68750000000001</v>
-      </c>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="22"/>
-    </row>
-    <row r="36" s="23" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7">
-        <v>35.1</v>
-      </c>
-      <c r="G36" s="8">
-        <v>64.6</v>
-      </c>
-      <c r="H36" s="8">
-        <v>60.1</v>
-      </c>
-      <c r="I36" s="8">
-        <v>25.9</v>
-      </c>
-      <c r="J36" s="8">
-        <v>36</v>
-      </c>
-      <c r="K36" s="8">
-        <v>72.6</v>
-      </c>
-      <c r="L36" s="10">
-        <v>59.6</v>
-      </c>
-      <c r="M36" s="8">
-        <v>63.1</v>
-      </c>
-      <c r="N36" s="15">
-        <f>AVERAGE(F36:M36)</f>
-        <v>52.125</v>
-      </c>
-      <c r="O36" s="34">
-        <f>N36-61.6</f>
-        <v>-9.475</v>
-      </c>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="22"/>
-    </row>
-    <row r="37" s="23" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7">
-        <v>35.7</v>
-      </c>
-      <c r="G37" s="8">
-        <v>65.1</v>
-      </c>
-      <c r="H37" s="8">
-        <v>63.9</v>
-      </c>
-      <c r="I37" s="8">
-        <v>26</v>
-      </c>
-      <c r="J37" s="8">
-        <v>36.6</v>
-      </c>
-      <c r="K37" s="8">
-        <v>73.7</v>
-      </c>
-      <c r="L37" s="10">
-        <v>59.9</v>
-      </c>
-      <c r="M37" s="8">
-        <v>64.6</v>
-      </c>
-      <c r="N37" s="15">
-        <f>AVERAGE(F37:M37)</f>
-        <v>53.1875</v>
-      </c>
-      <c r="O37" s="35">
-        <f>N37-61.6</f>
-        <v>-8.4125</v>
-      </c>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="22"/>
-    </row>
-    <row r="38" s="22" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A38" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45">
-        <v>30.8</v>
-      </c>
-      <c r="G38" s="51">
-        <v>62.8</v>
-      </c>
-      <c r="H38" s="51">
-        <v>49.3</v>
-      </c>
-      <c r="I38" s="51">
-        <v>25.2</v>
-      </c>
-      <c r="J38" s="51">
-        <v>31.6</v>
-      </c>
-      <c r="K38" s="51">
-        <v>66.9</v>
-      </c>
-      <c r="L38" s="51">
-        <v>59.2</v>
-      </c>
-      <c r="M38" s="51">
-        <v>59.1</v>
       </c>
       <c r="N38" s="13">
         <f>AVERAGE(F38:M38)</f>
-        <v>48.1125</v>
-      </c>
-      <c r="O38" s="36">
+        <v>51.8375</v>
+      </c>
+      <c r="O38" s="34">
         <f>N38-61.6</f>
-        <v>-13.4875</v>
-      </c>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14">
-        <v>8071009088</v>
-      </c>
-      <c r="R38" s="14">
-        <v>15532</v>
-      </c>
-      <c r="S38" s="19">
-        <v>16732</v>
-      </c>
-      <c r="T38" s="19">
-        <v>0.2997</v>
-      </c>
-      <c r="U38" s="19">
-        <v>3.34</v>
+        <v>-9.7625</v>
+      </c>
+      <c r="Q38" s="23">
+        <v>9731952896</v>
+      </c>
+      <c r="R38" s="23">
+        <v>18700</v>
+      </c>
+      <c r="S38" s="18">
+        <v>19900</v>
+      </c>
+      <c r="T38" s="18">
+        <v>0.3417</v>
+      </c>
+      <c r="U38" s="18">
+        <v>2.93</v>
       </c>
       <c r="V38" s="22">
         <f>0.4884/T38</f>
-        <v>1.62962962962963</v>
-      </c>
-    </row>
-    <row r="39" s="22" customFormat="1" ht="17.6" spans="1:21">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
+        <v>1.42932396839333</v>
+      </c>
+    </row>
+    <row r="39" s="23" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5">
-        <v>31.9</v>
-      </c>
-      <c r="G39" s="6">
-        <v>63.1</v>
-      </c>
-      <c r="H39" s="6">
-        <v>50.1</v>
-      </c>
-      <c r="I39" s="6">
-        <v>26.1</v>
-      </c>
-      <c r="J39" s="6">
-        <v>32.7</v>
-      </c>
-      <c r="K39" s="6">
-        <v>67.9</v>
-      </c>
-      <c r="L39" s="6">
-        <v>57.5</v>
-      </c>
-      <c r="M39" s="6">
-        <v>60.5</v>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7">
+        <v>34.1</v>
+      </c>
+      <c r="G39" s="8">
+        <v>64.5</v>
+      </c>
+      <c r="H39" s="8">
+        <v>61</v>
+      </c>
+      <c r="I39" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="J39" s="8">
+        <v>37.2</v>
+      </c>
+      <c r="K39" s="8">
+        <v>71.2</v>
+      </c>
+      <c r="L39" s="20">
+        <v>59.6</v>
+      </c>
+      <c r="M39" s="8">
+        <v>64.2</v>
       </c>
       <c r="N39" s="13">
         <f>AVERAGE(F39:M39)</f>
-        <v>48.725</v>
-      </c>
-      <c r="O39" s="36">
+        <v>52.6125</v>
+      </c>
+      <c r="O39" s="34">
         <f>N39-61.6</f>
-        <v>-12.875</v>
+        <v>-8.9875</v>
       </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-    </row>
-    <row r="40" s="22" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46" t="s">
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="22"/>
+    </row>
+    <row r="40" s="23" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="36"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43">
+        <v>30.6</v>
+      </c>
+      <c r="G40" s="50">
+        <v>63.7</v>
+      </c>
+      <c r="H40" s="50">
+        <v>56.2</v>
+      </c>
+      <c r="I40" s="50">
+        <v>26.1</v>
+      </c>
+      <c r="J40" s="50">
+        <v>32.6</v>
+      </c>
+      <c r="K40" s="50">
+        <v>70.4</v>
+      </c>
+      <c r="L40" s="50">
+        <v>59.2</v>
+      </c>
+      <c r="M40" s="50">
+        <v>61.7</v>
+      </c>
+      <c r="N40" s="13">
+        <f>AVERAGE(F40:M40)</f>
+        <v>50.0625</v>
+      </c>
+      <c r="O40" s="34">
+        <f>N40-61.6</f>
+        <v>-11.5375</v>
+      </c>
       <c r="P40" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q40" s="14">
-        <v>8849576498</v>
+        <v>10354806824</v>
       </c>
       <c r="R40" s="14">
-        <v>17017</v>
-      </c>
-      <c r="S40" s="19">
-        <v>18217</v>
-      </c>
-      <c r="T40" s="19">
-        <v>0.3387</v>
-      </c>
-      <c r="U40" s="19">
-        <v>2.95</v>
+        <v>19888</v>
+      </c>
+      <c r="S40" s="18">
+        <v>21088</v>
+      </c>
+      <c r="T40" s="18">
+        <v>0.3793</v>
+      </c>
+      <c r="U40" s="18">
+        <v>2.64</v>
       </c>
       <c r="V40" s="22">
         <f>0.4884/T40</f>
-        <v>1.44198405668733</v>
-      </c>
-    </row>
-    <row r="41" s="22" customFormat="1" ht="17.6" spans="1:21">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="5" t="s">
+        <v>1.28763511732138</v>
+      </c>
+    </row>
+    <row r="41" s="23" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="36"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7">
+        <v>32.8</v>
+      </c>
+      <c r="G41" s="44">
+        <v>62.9</v>
+      </c>
+      <c r="H41" s="44">
+        <v>61.4</v>
+      </c>
+      <c r="I41" s="44">
+        <v>26.3</v>
+      </c>
+      <c r="J41" s="44">
+        <v>34.4</v>
+      </c>
+      <c r="K41" s="44">
+        <v>71.8</v>
+      </c>
+      <c r="L41" s="44">
+        <v>66.8</v>
+      </c>
+      <c r="M41" s="44">
+        <v>63.9</v>
+      </c>
+      <c r="N41" s="13">
+        <f>AVERAGE(F41:M41)</f>
+        <v>52.5375</v>
+      </c>
+      <c r="O41" s="34">
+        <f>N41-61.6</f>
+        <v>-9.0625</v>
+      </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-    </row>
-    <row r="42" s="22" customFormat="1" ht="17.6" spans="1:21">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5" t="s">
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="22"/>
+    </row>
+    <row r="42" s="23" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5">
-        <v>31</v>
-      </c>
-      <c r="G42" s="6">
-        <v>62.3</v>
-      </c>
-      <c r="H42" s="6">
-        <v>53.2</v>
-      </c>
-      <c r="I42" s="6">
-        <v>24.3</v>
-      </c>
-      <c r="J42" s="6">
-        <v>33</v>
-      </c>
-      <c r="K42" s="6">
-        <v>68.2</v>
-      </c>
-      <c r="L42" s="6">
-        <v>57.4</v>
-      </c>
-      <c r="M42" s="6">
-        <v>60</v>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7">
+        <v>31.7</v>
+      </c>
+      <c r="G42" s="8">
+        <v>63.2</v>
+      </c>
+      <c r="H42" s="8">
+        <v>57.9</v>
+      </c>
+      <c r="I42" s="8">
+        <v>26.1</v>
+      </c>
+      <c r="J42" s="8">
+        <v>34.8</v>
+      </c>
+      <c r="K42" s="8">
+        <v>71.6</v>
+      </c>
+      <c r="L42" s="8">
+        <v>66.8</v>
+      </c>
+      <c r="M42" s="8">
+        <v>63.2</v>
       </c>
       <c r="N42" s="13">
         <f>AVERAGE(F42:M42)</f>
-        <v>48.675</v>
-      </c>
-      <c r="O42" s="36">
+        <v>51.9125</v>
+      </c>
+      <c r="O42" s="34">
         <f>N42-61.6</f>
-        <v>-12.925</v>
+        <v>-9.68750000000001</v>
       </c>
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-    </row>
-    <row r="43" s="22" customFormat="1" ht="17.6" spans="1:21">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5">
-        <v>32.3</v>
-      </c>
-      <c r="G43" s="6">
-        <v>62.7</v>
-      </c>
-      <c r="H43" s="6">
-        <v>57.1</v>
-      </c>
-      <c r="I43" s="6">
-        <v>25.1</v>
-      </c>
-      <c r="J43" s="6">
-        <v>34.2</v>
-      </c>
-      <c r="K43" s="6">
-        <v>69.6</v>
-      </c>
-      <c r="L43" s="6">
-        <v>56.7</v>
-      </c>
-      <c r="M43" s="6">
-        <v>62</v>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="22"/>
+    </row>
+    <row r="43" s="23" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7">
+        <v>35.1</v>
+      </c>
+      <c r="G43" s="8">
+        <v>64.6</v>
+      </c>
+      <c r="H43" s="8">
+        <v>60.1</v>
+      </c>
+      <c r="I43" s="8">
+        <v>25.9</v>
+      </c>
+      <c r="J43" s="8">
+        <v>36</v>
+      </c>
+      <c r="K43" s="8">
+        <v>72.6</v>
+      </c>
+      <c r="L43" s="20">
+        <v>59.6</v>
+      </c>
+      <c r="M43" s="8">
+        <v>63.1</v>
       </c>
       <c r="N43" s="13">
         <f>AVERAGE(F43:M43)</f>
-        <v>49.9625</v>
-      </c>
-      <c r="O43" s="37">
+        <v>52.125</v>
+      </c>
+      <c r="O43" s="34">
         <f>N43-61.6</f>
-        <v>-11.6375</v>
+        <v>-9.475</v>
       </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="22"/>
+    </row>
+    <row r="44" s="23" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7">
+        <v>35.7</v>
+      </c>
+      <c r="G44" s="8">
+        <v>65.1</v>
+      </c>
+      <c r="H44" s="8">
+        <v>63.9</v>
+      </c>
+      <c r="I44" s="8">
+        <v>26</v>
+      </c>
+      <c r="J44" s="8">
+        <v>36.6</v>
+      </c>
+      <c r="K44" s="8">
+        <v>73.7</v>
+      </c>
+      <c r="L44" s="20">
+        <v>59.9</v>
+      </c>
+      <c r="M44" s="8">
+        <v>64.6</v>
+      </c>
+      <c r="N44" s="13">
+        <f>AVERAGE(F44:M44)</f>
+        <v>53.1875</v>
+      </c>
+      <c r="O44" s="35">
+        <f>N44-61.6</f>
+        <v>-8.4125</v>
+      </c>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="22"/>
+    </row>
+    <row r="45" s="22" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A45" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45">
+        <v>30.8</v>
+      </c>
+      <c r="G45" s="51">
+        <v>62.8</v>
+      </c>
+      <c r="H45" s="51">
+        <v>49.3</v>
+      </c>
+      <c r="I45" s="51">
+        <v>25.2</v>
+      </c>
+      <c r="J45" s="51">
+        <v>31.6</v>
+      </c>
+      <c r="K45" s="51">
+        <v>66.9</v>
+      </c>
+      <c r="L45" s="51">
+        <v>59.2</v>
+      </c>
+      <c r="M45" s="51">
+        <v>59.1</v>
+      </c>
+      <c r="N45" s="11">
+        <f>AVERAGE(F45:M45)</f>
+        <v>48.1125</v>
+      </c>
+      <c r="O45" s="36">
+        <f>N45-61.6</f>
+        <v>-13.4875</v>
+      </c>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12">
+        <v>8071009088</v>
+      </c>
+      <c r="R45" s="12">
+        <v>15532</v>
+      </c>
+      <c r="S45" s="17">
+        <v>16732</v>
+      </c>
+      <c r="T45" s="17">
+        <v>0.2997</v>
+      </c>
+      <c r="U45" s="17">
+        <v>3.34</v>
+      </c>
+      <c r="V45" s="22">
+        <f>0.4884/T45</f>
+        <v>1.62962962962963</v>
+      </c>
+    </row>
+    <row r="46" s="22" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
+        <v>31.9</v>
+      </c>
+      <c r="G46" s="6">
+        <v>63.1</v>
+      </c>
+      <c r="H46" s="6">
+        <v>50.1</v>
+      </c>
+      <c r="I46" s="6">
+        <v>26.1</v>
+      </c>
+      <c r="J46" s="6">
+        <v>32.7</v>
+      </c>
+      <c r="K46" s="6">
+        <v>67.9</v>
+      </c>
+      <c r="L46" s="6">
+        <v>57.5</v>
+      </c>
+      <c r="M46" s="6">
+        <v>60.5</v>
+      </c>
+      <c r="N46" s="11">
+        <f>AVERAGE(F46:M46)</f>
+        <v>48.725</v>
+      </c>
+      <c r="O46" s="36">
+        <f>N46-61.6</f>
+        <v>-12.875</v>
+      </c>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+    </row>
+    <row r="47" s="22" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>8849576498</v>
+      </c>
+      <c r="R47" s="12">
+        <v>17017</v>
+      </c>
+      <c r="S47" s="17">
+        <v>18217</v>
+      </c>
+      <c r="T47" s="17">
+        <v>0.3387</v>
+      </c>
+      <c r="U47" s="17">
+        <v>2.95</v>
+      </c>
+      <c r="V47" s="22">
+        <f>0.4884/T47</f>
+        <v>1.44198405668733</v>
+      </c>
+    </row>
+    <row r="48" s="22" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+    </row>
+    <row r="49" s="22" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5">
+        <v>31</v>
+      </c>
+      <c r="G49" s="6">
+        <v>62.3</v>
+      </c>
+      <c r="H49" s="6">
+        <v>53.2</v>
+      </c>
+      <c r="I49" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="J49" s="6">
+        <v>33</v>
+      </c>
+      <c r="K49" s="6">
+        <v>68.2</v>
+      </c>
+      <c r="L49" s="6">
+        <v>57.4</v>
+      </c>
+      <c r="M49" s="6">
+        <v>60</v>
+      </c>
+      <c r="N49" s="11">
+        <f>AVERAGE(F49:M49)</f>
+        <v>48.675</v>
+      </c>
+      <c r="O49" s="36">
+        <f>N49-61.6</f>
+        <v>-12.925</v>
+      </c>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+    </row>
+    <row r="50" s="22" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
+        <v>32.3</v>
+      </c>
+      <c r="G50" s="6">
+        <v>62.7</v>
+      </c>
+      <c r="H50" s="6">
+        <v>57.1</v>
+      </c>
+      <c r="I50" s="6">
+        <v>25.1</v>
+      </c>
+      <c r="J50" s="6">
+        <v>34.2</v>
+      </c>
+      <c r="K50" s="6">
+        <v>69.6</v>
+      </c>
+      <c r="L50" s="6">
+        <v>56.7</v>
+      </c>
+      <c r="M50" s="6">
+        <v>62</v>
+      </c>
+      <c r="N50" s="11">
+        <f>AVERAGE(F50:M50)</f>
+        <v>49.9625</v>
+      </c>
+      <c r="O50" s="37">
+        <f>N50-61.6</f>
+        <v>-11.6375</v>
+      </c>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13843,7 +14141,7 @@
   <sheetData>
     <row r="1" s="56" customFormat="1" spans="1:11">
       <c r="A1" s="63" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B1" s="64" t="s">
         <v>2</v>
@@ -13873,7 +14171,7 @@
         <v>31</v>
       </c>
       <c r="K1" s="65" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" s="57" customFormat="1" spans="1:11">
@@ -13905,7 +14203,7 @@
       <c r="J2" s="67">
         <v>70.1</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="10">
         <f>AVERAGE(C2:J2)</f>
         <v>61.6125</v>
       </c>
@@ -13951,7 +14249,7 @@
         <v>0.908</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C4" s="71">
         <v>43.3</v>
@@ -13977,7 +14275,7 @@
       <c r="J4" s="69">
         <v>68.8</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <f>AVERAGE(C4:J4)</f>
         <v>59.4625</v>
       </c>
@@ -13985,7 +14283,7 @@
     <row r="5" ht="17" customHeight="1" spans="1:11">
       <c r="A5" s="68"/>
       <c r="B5" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C5" s="71">
         <v>43.7</v>
@@ -14011,8 +14309,8 @@
       <c r="J5" s="69">
         <v>68.6</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>132</v>
+      <c r="K5" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" s="58" customFormat="1" spans="1:11">
@@ -14056,7 +14354,7 @@
         <v>0.816</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C7" s="75">
         <v>38.4</v>
@@ -14082,7 +14380,7 @@
       <c r="J7" s="73">
         <v>68.5</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="11">
         <f>AVERAGE(C7:J7)</f>
         <v>56.1</v>
       </c>
@@ -14090,7 +14388,7 @@
     <row r="8" s="58" customFormat="1" spans="1:11">
       <c r="A8" s="72"/>
       <c r="B8" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C8" s="75">
         <v>39.5</v>
@@ -14116,8 +14414,8 @@
       <c r="J8" s="73">
         <v>68.4</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>133</v>
+      <c r="K8" s="11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -14161,7 +14459,7 @@
         <v>0.724</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C10" s="71">
         <v>36.4</v>
@@ -14187,7 +14485,7 @@
       <c r="J10" s="69">
         <v>67.2</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="13">
         <f t="shared" si="0"/>
         <v>55.25</v>
       </c>
@@ -14195,7 +14493,7 @@
     <row r="11" spans="1:11">
       <c r="A11" s="68"/>
       <c r="B11" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C11" s="71">
         <v>38.7</v>
@@ -14221,8 +14519,8 @@
       <c r="J11" s="69">
         <v>66.5</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>134</v>
+      <c r="K11" s="13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12" s="58" customFormat="1" spans="1:11">
@@ -14266,7 +14564,7 @@
         <v>0.632</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C13" s="75">
         <v>31.7</v>
@@ -14292,7 +14590,7 @@
       <c r="J13" s="73">
         <v>63.2</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="11">
         <f t="shared" si="0"/>
         <v>51.9125</v>
       </c>
@@ -14300,7 +14598,7 @@
     <row r="14" s="58" customFormat="1" spans="1:11">
       <c r="A14" s="72"/>
       <c r="B14" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C14" s="75">
         <v>35.7</v>
@@ -14327,7 +14625,7 @@
         <v>64.6</v>
       </c>
       <c r="K14" s="75" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" s="59" customFormat="1" spans="1:11">
@@ -14371,7 +14669,7 @@
         <v>0.54</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C16" s="71">
         <v>31</v>
@@ -14397,7 +14695,7 @@
       <c r="J16" s="69">
         <v>60</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="13">
         <f t="shared" si="1"/>
         <v>48.675</v>
       </c>
@@ -14405,7 +14703,7 @@
     <row r="17" s="59" customFormat="1" spans="1:11">
       <c r="A17" s="68"/>
       <c r="B17" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C17" s="71">
         <v>32.3</v>
@@ -14431,8 +14729,8 @@
       <c r="J17" s="69">
         <v>62</v>
       </c>
-      <c r="K17" s="15" t="s">
-        <v>136</v>
+      <c r="K17" s="13" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -18,16 +18,15 @@
     <sheet name="cmp_shared" sheetId="10" r:id="rId9"/>
     <sheet name="cmp_lora" sheetId="11" r:id="rId10"/>
     <sheet name="main_result" sheetId="8" r:id="rId11"/>
-    <sheet name="layer_trimming" sheetId="17" r:id="rId12"/>
-    <sheet name="block_trimming" sheetId="9" r:id="rId13"/>
-    <sheet name="shared" sheetId="20" r:id="rId14"/>
-    <sheet name="shared_finetune" sheetId="15" r:id="rId15"/>
-    <sheet name="greedy_greedy" sheetId="13" r:id="rId16"/>
-    <sheet name="finetune" sheetId="12" r:id="rId17"/>
-    <sheet name="greedy_block" sheetId="16" r:id="rId18"/>
-    <sheet name="active_cmp" sheetId="18" r:id="rId19"/>
-    <sheet name="Sheet19" sheetId="19" r:id="rId20"/>
-    <sheet name="mix_4" sheetId="21" r:id="rId21"/>
+    <sheet name="mix_layer_condense" sheetId="19" r:id="rId12"/>
+    <sheet name="layer_trimming" sheetId="17" r:id="rId13"/>
+    <sheet name="block_trimming" sheetId="9" r:id="rId14"/>
+    <sheet name="shared" sheetId="20" r:id="rId15"/>
+    <sheet name="shared_finetune" sheetId="15" r:id="rId16"/>
+    <sheet name="greedy_greedy" sheetId="13" r:id="rId17"/>
+    <sheet name="finetune" sheetId="12" r:id="rId18"/>
+    <sheet name="greedy_block" sheetId="16" r:id="rId19"/>
+    <sheet name="active_cmp" sheetId="18" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="177">
   <si>
     <t>origin PPL</t>
   </si>
@@ -566,6 +565,9 @@
     <t>Drop</t>
   </si>
   <si>
+    <t>acc v2</t>
+  </si>
+  <si>
     <t>active</t>
   </si>
   <si>
@@ -596,6 +598,9 @@
     <t>1.8B</t>
   </si>
   <si>
+    <t>block_trimming</t>
+  </si>
+  <si>
     <t>2.7B</t>
   </si>
   <si>
@@ -605,19 +610,22 @@
     <t>finetune 2+6 extra expert 5w</t>
   </si>
   <si>
+    <t>layer_mix_3_3</t>
+  </si>
+  <si>
     <t>2.5B</t>
   </si>
   <si>
     <t>block</t>
   </si>
   <si>
-    <t>mix_4</t>
-  </si>
-  <si>
-    <t>mix_3</t>
-  </si>
-  <si>
-    <t>block_mix3</t>
+    <t>block_trim_8</t>
+  </si>
+  <si>
+    <t>layer_mix_3_6</t>
+  </si>
+  <si>
+    <t>block_mix_3_5</t>
   </si>
   <si>
     <t>2.4B</t>
@@ -656,7 +664,13 @@
     <t>3e-5 15000</t>
   </si>
   <si>
+    <t>layer_mix_3_9</t>
+  </si>
+  <si>
     <t>2.2B</t>
+  </si>
+  <si>
+    <t>layer_mix_3_12</t>
   </si>
   <si>
     <t>2B</t>
@@ -1609,25 +1623,25 @@
     <xf numFmtId="176" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -3036,7 +3050,7 @@
         <f t="shared" ref="M2:M20" si="0">AVERAGE(E2:L2)</f>
         <v>61.6125</v>
       </c>
-      <c r="N2" s="46">
+      <c r="N2" s="49">
         <f t="shared" ref="N2:N20" si="1">M2-61.6</f>
         <v>0.0124999999999957</v>
       </c>
@@ -3080,7 +3094,7 @@
         <f t="shared" si="0"/>
         <v>58.975</v>
       </c>
-      <c r="N3" s="46">
+      <c r="N3" s="49">
         <f t="shared" si="1"/>
         <v>-2.62500000000001</v>
       </c>
@@ -3120,7 +3134,7 @@
         <f t="shared" si="0"/>
         <v>57.1375</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4" s="49">
         <f t="shared" si="1"/>
         <v>-4.4625</v>
       </c>
@@ -3164,7 +3178,7 @@
         <f t="shared" si="0"/>
         <v>55.35</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="49">
         <f t="shared" si="1"/>
         <v>-6.25000000000001</v>
       </c>
@@ -3248,7 +3262,7 @@
         <f t="shared" si="0"/>
         <v>56.25</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="49">
         <f t="shared" si="1"/>
         <v>-5.34999999999999</v>
       </c>
@@ -3292,7 +3306,7 @@
         <f t="shared" si="0"/>
         <v>59.4625</v>
       </c>
-      <c r="N8" s="52">
+      <c r="N8" s="50">
         <f t="shared" si="1"/>
         <v>-2.1375</v>
       </c>
@@ -3416,7 +3430,7 @@
         <f t="shared" si="0"/>
         <v>56.1</v>
       </c>
-      <c r="N11" s="48">
+      <c r="N11" s="51">
         <f t="shared" si="1"/>
         <v>-5.5</v>
       </c>
@@ -3456,7 +3470,7 @@
         <f t="shared" si="0"/>
         <v>56.95</v>
       </c>
-      <c r="N12" s="48">
+      <c r="N12" s="51">
         <f t="shared" si="1"/>
         <v>-4.65</v>
       </c>
@@ -3496,7 +3510,7 @@
         <f t="shared" si="0"/>
         <v>57.0875</v>
       </c>
-      <c r="N13" s="49">
+      <c r="N13" s="52">
         <f t="shared" si="1"/>
         <v>-4.51250000000001</v>
       </c>
@@ -3540,7 +3554,7 @@
         <f t="shared" si="0"/>
         <v>55.25</v>
       </c>
-      <c r="N14" s="50">
+      <c r="N14" s="46">
         <f t="shared" si="1"/>
         <v>-6.35000000000001</v>
       </c>
@@ -3580,7 +3594,7 @@
         <f t="shared" si="0"/>
         <v>55.25</v>
       </c>
-      <c r="N15" s="50">
+      <c r="N15" s="46">
         <f t="shared" si="1"/>
         <v>-6.35</v>
       </c>
@@ -3620,7 +3634,7 @@
         <f t="shared" si="0"/>
         <v>55.6625</v>
       </c>
-      <c r="N16" s="51">
+      <c r="N16" s="48">
         <f t="shared" si="1"/>
         <v>-5.93750000000001</v>
       </c>
@@ -3664,7 +3678,7 @@
         <f t="shared" si="0"/>
         <v>51.9125</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="51">
         <f t="shared" si="1"/>
         <v>-9.68750000000001</v>
       </c>
@@ -3704,7 +3718,7 @@
         <f t="shared" si="0"/>
         <v>52.125</v>
       </c>
-      <c r="N18" s="48">
+      <c r="N18" s="51">
         <f t="shared" si="1"/>
         <v>-9.475</v>
       </c>
@@ -3744,7 +3758,7 @@
         <f t="shared" si="0"/>
         <v>53.1875</v>
       </c>
-      <c r="N19" s="49">
+      <c r="N19" s="52">
         <f t="shared" si="1"/>
         <v>-8.4125</v>
       </c>
@@ -3788,7 +3802,7 @@
         <f t="shared" si="0"/>
         <v>48.675</v>
       </c>
-      <c r="N20" s="50">
+      <c r="N20" s="46">
         <f t="shared" si="1"/>
         <v>-12.925</v>
       </c>
@@ -3809,7 +3823,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="13"/>
-      <c r="N21" s="51"/>
+      <c r="N21" s="48"/>
     </row>
     <row r="22" s="35" customFormat="1" ht="17.6" spans="1:14">
       <c r="A22" s="8"/>
@@ -3846,7 +3860,7 @@
         <f>AVERAGE(E22:L22)</f>
         <v>49.9625</v>
       </c>
-      <c r="N22" s="51">
+      <c r="N22" s="48">
         <f>M22-61.6</f>
         <v>-11.6375</v>
       </c>
@@ -3860,12 +3874,12 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62:M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3938,28 +3952,28 @@
         <v>111</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" s="18" customFormat="1" ht="17.6" spans="1:21">
@@ -4003,11 +4017,11 @@
         <v>61.6125</v>
       </c>
       <c r="O2" s="46">
-        <f t="shared" ref="O2:O10" si="1">N2-61.6</f>
-        <v>0.0124999999999957</v>
+        <f>AVERAGE(F2:K2,M2:M2)</f>
+        <v>61.3857142857143</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q2" s="10">
         <v>16375728128</v>
@@ -4030,7 +4044,7 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F3" s="6">
         <v>35</v>
@@ -4061,11 +4075,11 @@
         <v>53.7125</v>
       </c>
       <c r="O3" s="46">
-        <f t="shared" si="1"/>
-        <v>-7.8875</v>
+        <f>AVERAGE(F3:K3,M3:M3)</f>
+        <v>53.2428571428571</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
@@ -4114,8 +4128,8 @@
         <v>58.975</v>
       </c>
       <c r="O4" s="46">
-        <f t="shared" si="1"/>
-        <v>-2.62500000000001</v>
+        <f>AVERAGE(F4:K4,M4:M4)</f>
+        <v>58.8428571428571</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -4161,8 +4175,8 @@
         <v>57.1375</v>
       </c>
       <c r="O5" s="46">
-        <f t="shared" si="1"/>
-        <v>-4.4625</v>
+        <f>AVERAGE(F5:K5,M5:M5)</f>
+        <v>57.2571428571429</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
@@ -4212,8 +4226,8 @@
         <v>55.35</v>
       </c>
       <c r="O6" s="46">
-        <f t="shared" si="1"/>
-        <v>-6.25000000000001</v>
+        <f>AVERAGE(F6:K6,M6:M6)</f>
+        <v>56.3428571428571</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
@@ -4258,9 +4272,9 @@
         <f t="shared" si="0"/>
         <v>55.7625</v>
       </c>
-      <c r="O7" s="11">
-        <f t="shared" si="1"/>
-        <v>-5.83750000000001</v>
+      <c r="O7" s="46">
+        <f>AVERAGE(F7:K7,M7:M7)</f>
+        <v>56.9142857142857</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
@@ -4310,8 +4324,8 @@
         <v>56.25</v>
       </c>
       <c r="O8" s="46">
-        <f t="shared" si="1"/>
-        <v>-5.34999999999999</v>
+        <f>AVERAGE(F8:K8,M8:M8)</f>
+        <v>56.9142857142857</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
@@ -4356,9 +4370,9 @@
         <f t="shared" si="0"/>
         <v>55.95</v>
       </c>
-      <c r="O9" s="13">
-        <f t="shared" si="1"/>
-        <v>-5.65</v>
+      <c r="O9" s="46">
+        <f>AVERAGE(F9:K9,M9:M9)</f>
+        <v>56.5714285714286</v>
       </c>
       <c r="P9" s="47"/>
       <c r="Q9" s="47"/>
@@ -4411,9 +4425,9 @@
         <f t="shared" si="0"/>
         <v>59.1875</v>
       </c>
-      <c r="O10" s="13">
-        <f t="shared" si="1"/>
-        <v>-2.41249999999999</v>
+      <c r="O10" s="46">
+        <f>AVERAGE(F10:K10,M10:M10)</f>
+        <v>59.1285714285714</v>
       </c>
       <c r="Q10" s="35">
         <v>14714784320</v>
@@ -4440,19 +4454,41 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="F11">
+        <v>42.2</v>
+      </c>
+      <c r="G11" s="29">
+        <v>71.7102</v>
+      </c>
+      <c r="H11" s="29">
+        <v>71.3793</v>
+      </c>
+      <c r="I11" s="29">
+        <v>36.8906</v>
+      </c>
+      <c r="J11" s="29">
+        <v>39.794</v>
+      </c>
+      <c r="K11" s="29">
+        <v>77.1624</v>
+      </c>
+      <c r="L11" s="29">
+        <v>47.3058</v>
+      </c>
+      <c r="M11" s="29">
+        <v>69.7871</v>
+      </c>
+      <c r="N11" s="13">
+        <f>AVERAGE(F11:M11)</f>
+        <v>57.028675</v>
+      </c>
+      <c r="O11" s="46">
+        <f>AVERAGE(F11:K11,M11:M11)</f>
+        <v>58.4176571428571</v>
+      </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
@@ -4462,45 +4498,24 @@
     </row>
     <row r="12" s="35" customFormat="1" ht="17.6" spans="1:21">
       <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8">
-        <v>43.1</v>
-      </c>
-      <c r="G12" s="8">
-        <v>73.6</v>
-      </c>
-      <c r="H12" s="8">
-        <v>72.4</v>
-      </c>
-      <c r="I12" s="8">
-        <v>38</v>
-      </c>
-      <c r="J12" s="8">
-        <v>40</v>
-      </c>
-      <c r="K12" s="8">
-        <v>77.5</v>
-      </c>
-      <c r="L12" s="8">
-        <v>59.2</v>
-      </c>
-      <c r="M12" s="8">
-        <v>69.1</v>
-      </c>
-      <c r="N12" s="13">
-        <f>AVERAGE(F12:M12)</f>
-        <v>59.1125</v>
-      </c>
-      <c r="O12" s="13">
-        <f>N12-61.6</f>
-        <v>-2.4875</v>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="46" t="e">
+        <f>AVERAGE(F12:K12,M12:M12)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -4509,135 +4524,140 @@
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
     </row>
-    <row r="13" s="35" customFormat="1" ht="17.6" spans="1:22">
+    <row r="13" s="35" customFormat="1" ht="17.6" spans="1:21">
       <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="G13" s="8">
-        <v>74</v>
+        <v>73.6</v>
       </c>
       <c r="H13" s="8">
-        <v>74.8</v>
+        <v>72.4</v>
       </c>
       <c r="I13" s="8">
         <v>38</v>
       </c>
       <c r="J13" s="8">
-        <v>39.4</v>
+        <v>40</v>
       </c>
       <c r="K13" s="8">
-        <v>78.6</v>
+        <v>77.5</v>
       </c>
       <c r="L13" s="8">
-        <v>58.8</v>
+        <v>59.2</v>
       </c>
       <c r="M13" s="8">
-        <v>68.8</v>
+        <v>69.1</v>
       </c>
       <c r="N13" s="13">
         <f>AVERAGE(F13:M13)</f>
-        <v>59.4625</v>
-      </c>
-      <c r="O13" s="13">
-        <f>N13-61.6</f>
-        <v>-2.1375</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>14870497802</v>
-      </c>
-      <c r="R13" s="14">
-        <v>28500</v>
-      </c>
-      <c r="S13" s="14">
-        <v>29700</v>
-      </c>
-      <c r="T13" s="14">
-        <v>0.4648</v>
-      </c>
-      <c r="U13" s="14">
-        <v>2.15</v>
-      </c>
-      <c r="V13" s="35">
-        <f>0.4884/T13</f>
-        <v>1.05077452667814</v>
-      </c>
-    </row>
-    <row r="14" s="35" customFormat="1" ht="17.6" spans="1:21">
+        <v>59.1125</v>
+      </c>
+      <c r="O13" s="46">
+        <f>AVERAGE(F13:K13,M13:M13)</f>
+        <v>59.1</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+    </row>
+    <row r="14" s="35" customFormat="1" ht="17.6" spans="1:22">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="D14" s="8" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
+      <c r="F14" s="8">
+        <v>43.3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>74</v>
+      </c>
+      <c r="H14" s="8">
+        <v>74.8</v>
+      </c>
+      <c r="I14" s="8">
+        <v>38</v>
+      </c>
+      <c r="J14" s="8">
+        <v>39.4</v>
+      </c>
+      <c r="K14" s="8">
+        <v>78.6</v>
+      </c>
+      <c r="L14" s="8">
+        <v>58.8</v>
+      </c>
+      <c r="M14" s="8">
+        <v>68.8</v>
+      </c>
+      <c r="N14" s="13">
+        <f>AVERAGE(F14:M14)</f>
+        <v>59.4625</v>
+      </c>
+      <c r="O14" s="46">
+        <f>AVERAGE(F14:K14,M14:M14)</f>
+        <v>59.5571428571429</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>14870497802</v>
+      </c>
+      <c r="R14" s="14">
+        <v>28500</v>
+      </c>
+      <c r="S14" s="14">
+        <v>29700</v>
+      </c>
+      <c r="T14" s="14">
+        <v>0.4648</v>
+      </c>
+      <c r="U14" s="14">
+        <v>2.15</v>
+      </c>
+      <c r="V14" s="35">
+        <f>0.4884/T14</f>
+        <v>1.05077452667814</v>
+      </c>
     </row>
     <row r="15" s="35" customFormat="1" ht="17.6" spans="1:21">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8">
-        <v>43.5</v>
-      </c>
-      <c r="G15" s="8">
-        <v>73.6</v>
-      </c>
-      <c r="H15" s="8">
-        <v>74.7</v>
-      </c>
-      <c r="I15" s="8">
-        <v>37.9</v>
-      </c>
-      <c r="J15" s="8">
-        <v>39.6</v>
-      </c>
-      <c r="K15" s="8">
-        <v>78.8</v>
-      </c>
-      <c r="L15" s="19">
-        <v>58.5</v>
-      </c>
-      <c r="M15" s="8">
-        <v>68.3</v>
-      </c>
-      <c r="N15" s="13">
-        <f>AVERAGE(F15:M15)</f>
-        <v>59.3625</v>
-      </c>
-      <c r="O15" s="13">
-        <f>N15-61.6</f>
-        <v>-2.2375</v>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="46" t="e">
+        <f>AVERAGE(F15:K15,M15:M15)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -4651,40 +4671,40 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="G16" s="8">
-        <v>73.7</v>
+        <v>73.6</v>
       </c>
       <c r="H16" s="8">
-        <v>74.8</v>
+        <v>74.7</v>
       </c>
       <c r="I16" s="8">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J16" s="8">
-        <v>39</v>
+        <v>39.6</v>
       </c>
       <c r="K16" s="8">
         <v>78.8</v>
       </c>
       <c r="L16" s="19">
-        <v>58.8</v>
+        <v>58.5</v>
       </c>
       <c r="M16" s="8">
-        <v>68.6</v>
+        <v>68.3</v>
       </c>
       <c r="N16" s="13">
         <f>AVERAGE(F16:M16)</f>
-        <v>59.425</v>
-      </c>
-      <c r="O16" s="13">
-        <f>N16-61.6</f>
-        <v>-2.175</v>
+        <v>59.3625</v>
+      </c>
+      <c r="O16" s="46">
+        <f>AVERAGE(F16:K16,M16:M16)</f>
+        <v>59.4857142857143</v>
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -4693,205 +4713,187 @@
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
     </row>
-    <row r="17" s="36" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A17" s="21" t="s">
+    <row r="17" s="35" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
+        <v>43.7</v>
+      </c>
+      <c r="G17" s="8">
+        <v>73.7</v>
+      </c>
+      <c r="H17" s="8">
+        <v>74.8</v>
+      </c>
+      <c r="I17" s="8">
+        <v>38</v>
+      </c>
+      <c r="J17" s="8">
+        <v>39</v>
+      </c>
+      <c r="K17" s="8">
+        <v>78.8</v>
+      </c>
+      <c r="L17" s="19">
+        <v>58.8</v>
+      </c>
+      <c r="M17" s="8">
+        <v>68.6</v>
+      </c>
+      <c r="N17" s="13">
+        <f>AVERAGE(F17:M17)</f>
+        <v>59.425</v>
+      </c>
+      <c r="O17" s="46">
+        <f>AVERAGE(F17:K17,M17:M17)</f>
+        <v>59.5142857142857</v>
+      </c>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+    </row>
+    <row r="18" s="36" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A18" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D18" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E18" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F18" s="21">
         <v>38.1</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G18" s="21">
         <v>71.8</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H18" s="21">
         <v>67.3</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I18" s="21">
         <v>29.4</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J18" s="21">
         <v>40.8</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K18" s="21">
         <v>76.5</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L18" s="21">
         <v>59.6</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M18" s="21">
         <v>67.3</v>
       </c>
-      <c r="N17" s="15">
-        <f>AVERAGE(F17:M17)</f>
+      <c r="N18" s="15">
+        <f>AVERAGE(F18:M18)</f>
         <v>56.35</v>
       </c>
-      <c r="O17" s="48">
-        <f>N17-61.6</f>
-        <v>-5.25</v>
-      </c>
-      <c r="Q17" s="36">
+      <c r="O18" s="46">
+        <f>AVERAGE(F18:K18,M18:M18)</f>
+        <v>55.8857142857143</v>
+      </c>
+      <c r="Q18" s="36">
         <v>13053840512</v>
       </c>
-      <c r="R17" s="36">
+      <c r="R18" s="36">
         <v>25035</v>
       </c>
-      <c r="S17" s="16">
+      <c r="S18" s="16">
         <v>26235</v>
       </c>
-      <c r="T17" s="16">
+      <c r="T18" s="16">
         <v>0.4155</v>
       </c>
-      <c r="U17" s="16">
+      <c r="U18" s="16">
         <v>2.41</v>
       </c>
-      <c r="V17" s="35">
-        <f>0.4884/T17</f>
+      <c r="V18" s="35">
+        <f>0.4884/T18</f>
         <v>1.17545126353791</v>
       </c>
-    </row>
-    <row r="18" s="36" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="35"/>
     </row>
     <row r="19" s="36" customFormat="1" ht="17.6" spans="1:22">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>60</v>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9">
-        <v>38.8</v>
+        <v>39.5</v>
       </c>
       <c r="G19" s="9">
-        <v>67.9</v>
+        <v>73</v>
       </c>
       <c r="H19" s="9">
         <v>66.6</v>
       </c>
       <c r="I19" s="9">
-        <v>29.7</v>
+        <v>30.8</v>
       </c>
       <c r="J19" s="9">
-        <v>37.4</v>
+        <v>36.6</v>
       </c>
       <c r="K19" s="9">
-        <v>75.8</v>
+        <v>75.6</v>
       </c>
       <c r="L19" s="9">
-        <v>54.5</v>
+        <v>50.5</v>
       </c>
       <c r="M19" s="9">
-        <v>66.1</v>
+        <v>65.7</v>
       </c>
       <c r="N19" s="15">
-        <f t="shared" ref="N19:N27" si="2">AVERAGE(F19:M19)</f>
-        <v>54.6</v>
-      </c>
-      <c r="O19" s="48">
-        <f t="shared" ref="O19:O27" si="3">N19-61.6</f>
-        <v>-7.00000000000001</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q19" s="16">
-        <v>13365267476</v>
-      </c>
-      <c r="R19" s="16">
-        <v>25629</v>
-      </c>
-      <c r="S19" s="16">
-        <v>26289</v>
-      </c>
-      <c r="T19" s="16">
-        <v>0.4589</v>
-      </c>
-      <c r="U19" s="16">
-        <v>2.18</v>
-      </c>
-      <c r="V19" s="35">
-        <f>0.4884/T19</f>
-        <v>1.06428415776858</v>
-      </c>
+        <f>AVERAGE(F19:M19)</f>
+        <v>54.7875</v>
+      </c>
+      <c r="O19" s="46">
+        <f>AVERAGE(F19:K19,M19:M19)</f>
+        <v>55.4</v>
+      </c>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="35"/>
     </row>
     <row r="20" s="36" customFormat="1" ht="17.6" spans="1:22">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="9">
-        <v>73.1</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="9">
-        <v>75.2</v>
-      </c>
-      <c r="L20" s="9">
-        <v>61.2</v>
-      </c>
-      <c r="M20" s="9">
-        <v>66.9</v>
-      </c>
-      <c r="N20" s="15">
-        <f t="shared" si="2"/>
-        <v>69.1</v>
-      </c>
-      <c r="O20" s="48">
-        <f t="shared" si="3"/>
-        <v>7.49999999999999</v>
-      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="46"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
@@ -4904,93 +4906,106 @@
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9">
-        <v>40.2</v>
+        <v>38.8</v>
       </c>
       <c r="G21" s="9">
-        <v>74.9</v>
+        <v>67.9</v>
       </c>
       <c r="H21" s="9">
-        <v>69.2</v>
+        <v>66.6</v>
       </c>
       <c r="I21" s="9">
-        <v>37</v>
+        <v>29.7</v>
       </c>
       <c r="J21" s="9">
-        <v>36.8</v>
+        <v>37.4</v>
       </c>
       <c r="K21" s="9">
-        <v>76.8</v>
+        <v>75.8</v>
       </c>
       <c r="L21" s="9">
-        <v>62.1</v>
+        <v>54.5</v>
       </c>
       <c r="M21" s="9">
-        <v>68.5</v>
+        <v>66.1</v>
       </c>
       <c r="N21" s="15">
-        <f t="shared" si="2"/>
-        <v>58.1875</v>
-      </c>
-      <c r="O21" s="48">
-        <f t="shared" si="3"/>
-        <v>-3.41249999999999</v>
-      </c>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="35"/>
+        <f t="shared" ref="N21:N29" si="1">AVERAGE(F21:M21)</f>
+        <v>54.6</v>
+      </c>
+      <c r="O21" s="46">
+        <f t="shared" ref="O20:O49" si="2">AVERAGE(F21:K21,M21:M21)</f>
+        <v>54.6142857142857</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>13365267476</v>
+      </c>
+      <c r="R21" s="16">
+        <v>25629</v>
+      </c>
+      <c r="S21" s="16">
+        <v>26289</v>
+      </c>
+      <c r="T21" s="16">
+        <v>0.4589</v>
+      </c>
+      <c r="U21" s="16">
+        <v>2.18</v>
+      </c>
+      <c r="V21" s="35">
+        <f>0.4884/T21</f>
+        <v>1.06428415776858</v>
+      </c>
     </row>
     <row r="22" s="36" customFormat="1" ht="17.6" spans="1:22">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="9">
-        <v>38.4</v>
+      <c r="F22" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="G22" s="9">
-        <v>73</v>
-      </c>
-      <c r="H22" s="9">
-        <v>66.5</v>
-      </c>
-      <c r="I22" s="9">
-        <v>29.3</v>
-      </c>
-      <c r="J22" s="9">
-        <v>37.8</v>
+        <v>73.1</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="K22" s="9">
-        <v>77.2</v>
+        <v>75.2</v>
       </c>
       <c r="L22" s="9">
-        <v>58.1</v>
+        <v>61.2</v>
       </c>
       <c r="M22" s="9">
-        <v>68.5</v>
+        <v>66.9</v>
       </c>
       <c r="N22" s="15">
+        <f t="shared" si="1"/>
+        <v>69.1</v>
+      </c>
+      <c r="O22" s="46">
         <f t="shared" si="2"/>
-        <v>56.1</v>
-      </c>
-      <c r="O22" s="48">
-        <f t="shared" si="3"/>
-        <v>-5.5</v>
+        <v>71.7333333333333</v>
       </c>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
@@ -5003,42 +5018,44 @@
     <row r="23" s="36" customFormat="1" ht="17.6" spans="1:22">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="D23" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9">
-        <v>38.9</v>
+        <v>40.2</v>
       </c>
       <c r="G23" s="9">
-        <v>73.9</v>
+        <v>74.9</v>
       </c>
       <c r="H23" s="9">
-        <v>68.8</v>
+        <v>69.2</v>
       </c>
       <c r="I23" s="9">
-        <v>29.7</v>
+        <v>37</v>
       </c>
       <c r="J23" s="9">
-        <v>38.8</v>
+        <v>36.8</v>
       </c>
       <c r="K23" s="9">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="L23" s="9">
-        <v>59.9</v>
+        <v>62.1</v>
       </c>
       <c r="M23" s="9">
-        <v>68.3</v>
+        <v>68.5</v>
       </c>
       <c r="N23" s="15">
+        <f t="shared" si="1"/>
+        <v>58.1875</v>
+      </c>
+      <c r="O23" s="46">
         <f t="shared" si="2"/>
-        <v>56.95</v>
-      </c>
-      <c r="O23" s="48">
-        <f t="shared" si="3"/>
-        <v>-4.65</v>
+        <v>57.6285714285714</v>
       </c>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
@@ -5051,42 +5068,44 @@
     <row r="24" s="36" customFormat="1" ht="17.6" spans="1:22">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="D24" s="9" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9">
-        <v>39.5</v>
+        <v>38.4</v>
       </c>
       <c r="G24" s="9">
-        <v>74.1</v>
+        <v>73</v>
       </c>
       <c r="H24" s="9">
-        <v>69.1</v>
+        <v>66.5</v>
       </c>
       <c r="I24" s="9">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="J24" s="9">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="K24" s="9">
         <v>77.2</v>
       </c>
       <c r="L24" s="9">
-        <v>60.7</v>
+        <v>58.1</v>
       </c>
       <c r="M24" s="9">
-        <v>68.4</v>
+        <v>68.5</v>
       </c>
       <c r="N24" s="15">
+        <f t="shared" si="1"/>
+        <v>56.1</v>
+      </c>
+      <c r="O24" s="46">
         <f t="shared" si="2"/>
-        <v>57.0875</v>
-      </c>
-      <c r="O24" s="49">
-        <f t="shared" si="3"/>
-        <v>-4.51250000000001</v>
+        <v>55.8142857142857</v>
       </c>
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
@@ -5096,184 +5115,205 @@
       <c r="U24" s="16"/>
       <c r="V24" s="35"/>
     </row>
-    <row r="25" s="35" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A25" s="8" t="s">
+    <row r="25" s="36" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9">
+        <v>38.9</v>
+      </c>
+      <c r="G25" s="9">
+        <v>73.9</v>
+      </c>
+      <c r="H25" s="9">
+        <v>68.8</v>
+      </c>
+      <c r="I25" s="9">
+        <v>29.7</v>
+      </c>
+      <c r="J25" s="9">
+        <v>38.8</v>
+      </c>
+      <c r="K25" s="9">
+        <v>77.3</v>
+      </c>
+      <c r="L25" s="9">
+        <v>59.9</v>
+      </c>
+      <c r="M25" s="9">
+        <v>68.3</v>
+      </c>
+      <c r="N25" s="15">
+        <f t="shared" si="1"/>
+        <v>56.95</v>
+      </c>
+      <c r="O25" s="46">
+        <f t="shared" si="2"/>
+        <v>56.5285714285714</v>
+      </c>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="35"/>
+    </row>
+    <row r="26" s="36" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9">
+        <v>39.5</v>
+      </c>
+      <c r="G26" s="9">
+        <v>74.1</v>
+      </c>
+      <c r="H26" s="9">
+        <v>69.1</v>
+      </c>
+      <c r="I26" s="9">
+        <v>29.7</v>
+      </c>
+      <c r="J26" s="9">
+        <v>38</v>
+      </c>
+      <c r="K26" s="9">
+        <v>77.2</v>
+      </c>
+      <c r="L26" s="9">
+        <v>60.7</v>
+      </c>
+      <c r="M26" s="9">
+        <v>68.4</v>
+      </c>
+      <c r="N26" s="15">
+        <f t="shared" si="1"/>
+        <v>57.0875</v>
+      </c>
+      <c r="O26" s="46">
+        <f t="shared" si="2"/>
+        <v>56.5714285714286</v>
+      </c>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="35"/>
+    </row>
+    <row r="27" s="35" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8">
-        <v>36.6</v>
-      </c>
-      <c r="G25" s="8">
-        <v>65.1</v>
-      </c>
-      <c r="H25" s="8">
-        <v>64.7</v>
-      </c>
-      <c r="I25" s="8">
-        <v>29.6</v>
-      </c>
-      <c r="J25" s="8">
-        <v>38</v>
-      </c>
-      <c r="K25" s="8">
-        <v>74.9</v>
-      </c>
-      <c r="L25" s="8">
-        <v>62.5</v>
-      </c>
-      <c r="M25" s="8">
-        <v>64.6</v>
-      </c>
-      <c r="N25" s="13">
-        <f t="shared" si="2"/>
-        <v>54.5</v>
-      </c>
-      <c r="O25" s="50">
-        <f t="shared" si="3"/>
-        <v>-7.1</v>
-      </c>
-      <c r="Q25" s="35">
-        <v>11392896704</v>
-      </c>
-      <c r="R25" s="35">
-        <v>21868</v>
-      </c>
-      <c r="S25" s="14">
-        <v>23068</v>
-      </c>
-      <c r="T25" s="14">
-        <v>0.3722</v>
-      </c>
-      <c r="U25" s="14">
-        <v>2.69</v>
-      </c>
-      <c r="V25" s="35">
-        <f>0.4884/T25</f>
-        <v>1.31219774314884</v>
-      </c>
-    </row>
-    <row r="26" s="35" customFormat="1" ht="17.6" spans="1:21">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8">
-        <v>34</v>
-      </c>
-      <c r="G26" s="8">
-        <v>67.1</v>
-      </c>
-      <c r="H26" s="8">
-        <v>56.5</v>
-      </c>
-      <c r="I26" s="8">
-        <v>26.8</v>
-      </c>
-      <c r="J26" s="8">
-        <v>35.4</v>
-      </c>
-      <c r="K26" s="8">
-        <v>70.7</v>
-      </c>
-      <c r="L26" s="8">
-        <v>48</v>
-      </c>
-      <c r="M26" s="8">
-        <v>62.4</v>
-      </c>
-      <c r="N26" s="13">
-        <f t="shared" si="2"/>
-        <v>50.1125</v>
-      </c>
-      <c r="O26" s="50">
-        <f t="shared" si="3"/>
-        <v>-11.4875</v>
-      </c>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-    </row>
-    <row r="27" s="35" customFormat="1" ht="17.6" spans="1:21">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8">
-        <v>36.3</v>
+        <v>36.6</v>
       </c>
       <c r="G27" s="8">
-        <v>67.5</v>
+        <v>65.1</v>
       </c>
       <c r="H27" s="8">
-        <v>59.5</v>
+        <v>64.7</v>
       </c>
       <c r="I27" s="8">
-        <v>26.5</v>
+        <v>29.6</v>
       </c>
       <c r="J27" s="8">
-        <v>35.2</v>
+        <v>38</v>
       </c>
       <c r="K27" s="8">
-        <v>72.9</v>
+        <v>74.9</v>
       </c>
       <c r="L27" s="8">
-        <v>51.6</v>
+        <v>62.5</v>
       </c>
       <c r="M27" s="8">
         <v>64.6</v>
       </c>
       <c r="N27" s="13">
+        <f t="shared" si="1"/>
+        <v>54.5</v>
+      </c>
+      <c r="O27" s="46">
         <f t="shared" si="2"/>
-        <v>51.7625</v>
-      </c>
-      <c r="O27" s="50">
-        <f t="shared" si="3"/>
-        <v>-9.8375</v>
-      </c>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
+        <v>53.3571428571429</v>
+      </c>
+      <c r="Q27" s="35">
+        <v>11392896704</v>
+      </c>
+      <c r="R27" s="35">
+        <v>21868</v>
+      </c>
+      <c r="S27" s="14">
+        <v>23068</v>
+      </c>
+      <c r="T27" s="14">
+        <v>0.3722</v>
+      </c>
+      <c r="U27" s="14">
+        <v>2.69</v>
+      </c>
+      <c r="V27" s="35">
+        <f>0.4884/T27</f>
+        <v>1.31219774314884</v>
+      </c>
     </row>
     <row r="28" s="35" customFormat="1" ht="17.6" spans="1:21">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="8">
-        <v>35.4</v>
-      </c>
-      <c r="G28" s="8">
-        <v>66.1</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8">
-        <v>35.2</v>
-      </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="F28">
+        <v>36.2</v>
+      </c>
+      <c r="G28" s="29">
+        <v>62.2236</v>
+      </c>
+      <c r="H28" s="29">
+        <v>57.1805</v>
+      </c>
+      <c r="I28" s="29">
+        <v>28.9827</v>
+      </c>
+      <c r="J28" s="29">
+        <v>34.6255</v>
+      </c>
+      <c r="K28" s="29">
+        <v>70.1624</v>
+      </c>
+      <c r="L28" s="29">
+        <v>63.2443</v>
+      </c>
+      <c r="M28" s="29">
+        <v>64.6763</v>
+      </c>
       <c r="N28" s="13"/>
-      <c r="O28" s="50"/>
+      <c r="O28" s="46">
+        <f t="shared" si="2"/>
+        <v>50.5787142857143</v>
+      </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
@@ -5283,40 +5323,40 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8">
-        <v>37.7</v>
+        <v>36.3</v>
       </c>
       <c r="G29" s="8">
-        <v>64.7</v>
+        <v>67.5</v>
       </c>
       <c r="H29" s="8">
-        <v>65.2</v>
+        <v>59.5</v>
       </c>
       <c r="I29" s="8">
-        <v>28.9</v>
+        <v>26.5</v>
       </c>
       <c r="J29" s="8">
-        <v>39</v>
+        <v>35.2</v>
       </c>
       <c r="K29" s="8">
-        <v>74.8</v>
+        <v>72.9</v>
       </c>
       <c r="L29" s="8">
-        <v>59.9</v>
+        <v>51.6</v>
       </c>
       <c r="M29" s="8">
-        <v>63.2</v>
+        <v>64.6</v>
       </c>
       <c r="N29" s="13">
-        <f t="shared" ref="N29:N60" si="4">AVERAGE(F29:M29)</f>
-        <v>54.175</v>
-      </c>
-      <c r="O29" s="50">
-        <f t="shared" ref="O29:O60" si="5">N29-61.6</f>
-        <v>-7.425</v>
+        <f>AVERAGE(F29:M29)</f>
+        <v>51.7625</v>
+      </c>
+      <c r="O29" s="46">
+        <f t="shared" si="2"/>
+        <v>51.7857142857143</v>
       </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
@@ -5327,154 +5367,128 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8">
-        <v>38.1</v>
+        <v>36.2</v>
       </c>
       <c r="G30" s="8">
-        <v>65.3</v>
+        <v>68.6</v>
       </c>
       <c r="H30" s="8">
-        <v>66.1</v>
+        <v>61.7</v>
       </c>
       <c r="I30" s="8">
-        <v>29.6</v>
+        <v>27.8</v>
       </c>
       <c r="J30" s="8">
-        <v>38</v>
+        <v>36.8</v>
       </c>
       <c r="K30" s="8">
-        <v>75</v>
-      </c>
-      <c r="L30" s="19">
-        <v>62.1</v>
+        <v>72.4</v>
+      </c>
+      <c r="L30" s="8">
+        <v>47.7</v>
       </c>
       <c r="M30" s="8">
-        <v>65</v>
+        <v>65.4</v>
       </c>
       <c r="N30" s="13">
-        <f t="shared" si="4"/>
-        <v>54.9</v>
-      </c>
-      <c r="O30" s="50">
-        <f t="shared" si="5"/>
-        <v>-6.7</v>
-      </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
+        <f>AVERAGE(F30:M30)</f>
+        <v>52.075</v>
+      </c>
+      <c r="O30" s="46">
+        <f t="shared" si="2"/>
+        <v>52.7</v>
+      </c>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
     </row>
-    <row r="31" s="35" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41">
-        <v>35.3</v>
-      </c>
-      <c r="G31" s="41">
-        <v>67.9</v>
-      </c>
-      <c r="H31" s="41">
-        <v>61.8</v>
-      </c>
-      <c r="I31" s="41">
-        <v>27.9</v>
-      </c>
-      <c r="J31" s="41">
-        <v>34.6</v>
-      </c>
-      <c r="K31" s="41">
-        <v>73.8</v>
-      </c>
-      <c r="L31" s="41">
-        <v>55.6</v>
-      </c>
-      <c r="M31" s="41">
-        <v>63.5</v>
+    <row r="31" s="35" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8">
+        <v>37.7</v>
+      </c>
+      <c r="G31" s="8">
+        <v>64.7</v>
+      </c>
+      <c r="H31" s="8">
+        <v>65.2</v>
+      </c>
+      <c r="I31" s="8">
+        <v>28.9</v>
+      </c>
+      <c r="J31" s="8">
+        <v>39</v>
+      </c>
+      <c r="K31" s="8">
+        <v>74.8</v>
+      </c>
+      <c r="L31" s="8">
+        <v>59.9</v>
+      </c>
+      <c r="M31" s="8">
+        <v>63.2</v>
       </c>
       <c r="N31" s="13">
-        <f t="shared" si="4"/>
-        <v>52.55</v>
-      </c>
-      <c r="O31" s="50">
-        <f t="shared" si="5"/>
-        <v>-9.05</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>11860037150</v>
-      </c>
-      <c r="R31" s="14">
-        <v>22759</v>
-      </c>
-      <c r="S31" s="14">
-        <v>23958</v>
-      </c>
-      <c r="T31" s="14">
-        <v>0.4079</v>
-      </c>
-      <c r="U31" s="14">
-        <v>2.45</v>
-      </c>
-      <c r="V31" s="35">
-        <f>0.4884/T31</f>
-        <v>1.19735229222849</v>
-      </c>
+        <f t="shared" ref="N31:N62" si="3">AVERAGE(F31:M31)</f>
+        <v>54.175</v>
+      </c>
+      <c r="O31" s="46">
+        <f t="shared" si="2"/>
+        <v>53.3571428571429</v>
+      </c>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
     </row>
     <row r="32" s="35" customFormat="1" ht="17.6" spans="1:21">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8">
-        <v>37.6</v>
+        <v>38.1</v>
       </c>
       <c r="G32" s="8">
-        <v>70.5</v>
+        <v>65.3</v>
       </c>
       <c r="H32" s="8">
-        <v>63.5</v>
+        <v>66.1</v>
       </c>
       <c r="I32" s="8">
-        <v>34.5</v>
+        <v>29.6</v>
       </c>
       <c r="J32" s="8">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K32" s="8">
-        <v>73.2</v>
-      </c>
-      <c r="L32" s="8">
-        <v>59.9</v>
+        <v>75</v>
+      </c>
+      <c r="L32" s="19">
+        <v>62.1</v>
       </c>
       <c r="M32" s="8">
-        <v>65.6</v>
+        <v>65</v>
       </c>
       <c r="N32" s="13">
-        <f t="shared" si="4"/>
-        <v>54.725</v>
-      </c>
-      <c r="O32" s="50">
-        <f t="shared" si="5"/>
-        <v>-6.87500000000001</v>
+        <f t="shared" si="3"/>
+        <v>54.9</v>
+      </c>
+      <c r="O32" s="46">
+        <f t="shared" si="2"/>
+        <v>53.8714285714286</v>
       </c>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
@@ -5483,94 +5497,112 @@
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
     </row>
-    <row r="33" s="35" customFormat="1" ht="17.6" spans="1:21">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="8" t="s">
+    <row r="33" s="35" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8">
-        <v>36.4</v>
-      </c>
-      <c r="G33" s="8">
-        <v>70.3</v>
-      </c>
-      <c r="H33" s="8">
-        <v>63.1</v>
-      </c>
-      <c r="I33" s="8">
-        <v>27.8</v>
-      </c>
-      <c r="J33" s="8">
-        <v>37.4</v>
-      </c>
-      <c r="K33" s="8">
-        <v>75.2</v>
-      </c>
-      <c r="L33" s="8">
-        <v>64.6</v>
-      </c>
-      <c r="M33" s="8">
-        <v>67.2</v>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41">
+        <v>35.3</v>
+      </c>
+      <c r="G33" s="41">
+        <v>67.9</v>
+      </c>
+      <c r="H33" s="41">
+        <v>61.8</v>
+      </c>
+      <c r="I33" s="41">
+        <v>27.9</v>
+      </c>
+      <c r="J33" s="41">
+        <v>34.6</v>
+      </c>
+      <c r="K33" s="41">
+        <v>73.8</v>
+      </c>
+      <c r="L33" s="41">
+        <v>55.6</v>
+      </c>
+      <c r="M33" s="41">
+        <v>63.5</v>
       </c>
       <c r="N33" s="13">
-        <f t="shared" si="4"/>
-        <v>55.25</v>
-      </c>
-      <c r="O33" s="51">
-        <f t="shared" si="5"/>
-        <v>-6.35000000000001</v>
-      </c>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
+        <f t="shared" si="3"/>
+        <v>52.55</v>
+      </c>
+      <c r="O33" s="46">
+        <f t="shared" si="2"/>
+        <v>52.1142857142857</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>11860037150</v>
+      </c>
+      <c r="R33" s="14">
+        <v>22759</v>
+      </c>
+      <c r="S33" s="14">
+        <v>23958</v>
+      </c>
+      <c r="T33" s="14">
+        <v>0.4079</v>
+      </c>
+      <c r="U33" s="14">
+        <v>2.45</v>
+      </c>
+      <c r="V33" s="35">
+        <f>0.4884/T33</f>
+        <v>1.19735229222849</v>
+      </c>
     </row>
     <row r="34" s="35" customFormat="1" ht="17.6" spans="1:21">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="D34" s="8" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8">
-        <v>38.7</v>
+        <v>37.6</v>
       </c>
       <c r="G34" s="8">
-        <v>71.8</v>
+        <v>70.5</v>
       </c>
       <c r="H34" s="8">
-        <v>67.8</v>
+        <v>63.5</v>
       </c>
       <c r="I34" s="8">
-        <v>28.1</v>
+        <v>34.5</v>
       </c>
       <c r="J34" s="8">
-        <v>38.2</v>
+        <v>33</v>
       </c>
       <c r="K34" s="8">
-        <v>75.5</v>
+        <v>73.2</v>
       </c>
       <c r="L34" s="8">
-        <v>58.1</v>
+        <v>59.9</v>
       </c>
       <c r="M34" s="8">
-        <v>66.9</v>
+        <v>65.6</v>
       </c>
       <c r="N34" s="13">
-        <f t="shared" si="4"/>
-        <v>55.6375</v>
-      </c>
-      <c r="O34" s="51">
-        <f t="shared" si="5"/>
-        <v>-5.9625</v>
+        <f t="shared" si="3"/>
+        <v>54.725</v>
+      </c>
+      <c r="O34" s="46">
+        <f t="shared" si="2"/>
+        <v>53.9857142857143</v>
       </c>
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
@@ -5582,42 +5614,44 @@
     <row r="35" s="35" customFormat="1" ht="17.6" spans="1:21">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="C35" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="D35" s="8" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8">
-        <v>34.6</v>
+        <v>36.4</v>
       </c>
       <c r="G35" s="8">
-        <v>65.7</v>
+        <v>70.3</v>
       </c>
       <c r="H35" s="8">
-        <v>59.4</v>
+        <v>63.1</v>
       </c>
       <c r="I35" s="8">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="J35" s="8">
-        <v>36</v>
+        <v>37.4</v>
       </c>
       <c r="K35" s="8">
-        <v>74.5</v>
+        <v>75.2</v>
       </c>
       <c r="L35" s="8">
-        <v>59.6</v>
+        <v>64.6</v>
       </c>
       <c r="M35" s="8">
-        <v>66.3</v>
+        <v>67.2</v>
       </c>
       <c r="N35" s="13">
-        <f t="shared" si="4"/>
-        <v>52.85</v>
-      </c>
-      <c r="O35" s="50">
-        <f t="shared" si="5"/>
-        <v>-8.75</v>
+        <f t="shared" si="3"/>
+        <v>55.25</v>
+      </c>
+      <c r="O35" s="46">
+        <f t="shared" si="2"/>
+        <v>53.9142857142857</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
@@ -5631,40 +5665,40 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="G36" s="8">
-        <v>71.5</v>
+        <v>71.8</v>
       </c>
       <c r="H36" s="8">
-        <v>65.4</v>
+        <v>67.8</v>
       </c>
       <c r="I36" s="8">
-        <v>27.7</v>
+        <v>28.1</v>
       </c>
       <c r="J36" s="8">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="K36" s="8">
-        <v>75.1</v>
+        <v>75.5</v>
       </c>
       <c r="L36" s="8">
-        <v>59.2</v>
+        <v>58.1</v>
       </c>
       <c r="M36" s="8">
-        <v>66.3</v>
+        <v>66.9</v>
       </c>
       <c r="N36" s="13">
-        <f t="shared" si="4"/>
-        <v>55.25</v>
-      </c>
-      <c r="O36" s="50">
-        <f t="shared" si="5"/>
-        <v>-6.35</v>
+        <f t="shared" si="3"/>
+        <v>55.6375</v>
+      </c>
+      <c r="O36" s="46">
+        <f t="shared" si="2"/>
+        <v>55.2857142857143</v>
       </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
@@ -5678,40 +5712,40 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8">
-        <v>38.7</v>
+        <v>34.6</v>
       </c>
       <c r="G37" s="8">
-        <v>71.6</v>
+        <v>65.7</v>
       </c>
       <c r="H37" s="8">
-        <v>67.6</v>
+        <v>59.4</v>
       </c>
       <c r="I37" s="8">
-        <v>27.9</v>
+        <v>26.7</v>
       </c>
       <c r="J37" s="8">
-        <v>37.8</v>
+        <v>36</v>
       </c>
       <c r="K37" s="8">
-        <v>75.6</v>
+        <v>74.5</v>
       </c>
       <c r="L37" s="8">
         <v>59.6</v>
       </c>
       <c r="M37" s="8">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="N37" s="13">
-        <f t="shared" si="4"/>
-        <v>55.6625</v>
-      </c>
-      <c r="O37" s="50">
-        <f t="shared" si="5"/>
-        <v>-5.93750000000001</v>
+        <f t="shared" si="3"/>
+        <v>52.85</v>
+      </c>
+      <c r="O37" s="46">
+        <f t="shared" si="2"/>
+        <v>51.8857142857143</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
@@ -5725,40 +5759,40 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="G38" s="8">
-        <v>71.6</v>
+        <v>71.5</v>
       </c>
       <c r="H38" s="8">
-        <v>66.8</v>
+        <v>65.4</v>
       </c>
       <c r="I38" s="8">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="J38" s="8">
-        <v>37.6</v>
+        <v>38</v>
       </c>
       <c r="K38" s="8">
-        <v>75.5</v>
+        <v>75.1</v>
       </c>
       <c r="L38" s="8">
-        <v>58.5</v>
+        <v>59.2</v>
       </c>
       <c r="M38" s="8">
-        <v>66.2</v>
+        <v>66.3</v>
       </c>
       <c r="N38" s="13">
-        <f t="shared" si="4"/>
-        <v>55.35</v>
-      </c>
-      <c r="O38" s="50">
-        <f t="shared" si="5"/>
-        <v>-6.25</v>
+        <f t="shared" si="3"/>
+        <v>55.25</v>
+      </c>
+      <c r="O38" s="46">
+        <f t="shared" si="2"/>
+        <v>54.6857142857143</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
@@ -5772,40 +5806,40 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="G39" s="8">
-        <v>72.2</v>
+        <v>71.6</v>
       </c>
       <c r="H39" s="8">
-        <v>67.5</v>
+        <v>67.6</v>
       </c>
       <c r="I39" s="8">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="J39" s="8">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="K39" s="8">
         <v>75.6</v>
       </c>
       <c r="L39" s="8">
-        <v>58.8</v>
+        <v>59.6</v>
       </c>
       <c r="M39" s="8">
-        <v>66.9</v>
+        <v>66.5</v>
       </c>
       <c r="N39" s="13">
-        <f t="shared" si="4"/>
-        <v>55.6875</v>
-      </c>
-      <c r="O39" s="50">
-        <f t="shared" si="5"/>
-        <v>-5.9125</v>
+        <f t="shared" si="3"/>
+        <v>55.6625</v>
+      </c>
+      <c r="O39" s="46">
+        <f t="shared" si="2"/>
+        <v>55.1</v>
       </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
@@ -5819,40 +5853,40 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8">
-        <v>38</v>
+        <v>38.7</v>
       </c>
       <c r="G40" s="8">
-        <v>71.9</v>
+        <v>71.6</v>
       </c>
       <c r="H40" s="8">
-        <v>67.6</v>
+        <v>66.8</v>
       </c>
       <c r="I40" s="8">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="J40" s="8">
-        <v>36.8</v>
+        <v>37.6</v>
       </c>
       <c r="K40" s="8">
-        <v>75.3</v>
+        <v>75.5</v>
       </c>
       <c r="L40" s="8">
-        <v>57</v>
+        <v>58.5</v>
       </c>
       <c r="M40" s="8">
-        <v>67.7</v>
+        <v>66.2</v>
       </c>
       <c r="N40" s="13">
-        <f t="shared" si="4"/>
-        <v>55.1875</v>
-      </c>
-      <c r="O40" s="50">
-        <f t="shared" si="5"/>
-        <v>-6.4125</v>
+        <f t="shared" si="3"/>
+        <v>55.35</v>
+      </c>
+      <c r="O40" s="46">
+        <f t="shared" si="2"/>
+        <v>54.9</v>
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
@@ -5866,40 +5900,40 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="G41" s="8">
-        <v>71.9</v>
+        <v>72.2</v>
       </c>
       <c r="H41" s="8">
-        <v>68.1</v>
+        <v>67.5</v>
       </c>
       <c r="I41" s="8">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="J41" s="8">
-        <v>37.6</v>
+        <v>38</v>
       </c>
       <c r="K41" s="8">
         <v>75.6</v>
       </c>
       <c r="L41" s="8">
-        <v>58.1</v>
+        <v>58.8</v>
       </c>
       <c r="M41" s="8">
-        <v>66.7</v>
+        <v>66.9</v>
       </c>
       <c r="N41" s="13">
-        <f t="shared" si="4"/>
-        <v>55.6375</v>
-      </c>
-      <c r="O41" s="50">
-        <f t="shared" si="5"/>
-        <v>-5.96250000000001</v>
+        <f t="shared" si="3"/>
+        <v>55.6875</v>
+      </c>
+      <c r="O41" s="46">
+        <f t="shared" si="2"/>
+        <v>55.2428571428571</v>
       </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
@@ -5913,40 +5947,40 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8">
-        <v>39.3</v>
+        <v>38</v>
       </c>
       <c r="G42" s="8">
         <v>71.9</v>
       </c>
       <c r="H42" s="8">
-        <v>68.1</v>
+        <v>67.6</v>
       </c>
       <c r="I42" s="8">
-        <v>28.1</v>
+        <v>27.2</v>
       </c>
       <c r="J42" s="8">
-        <v>38.4</v>
+        <v>36.8</v>
       </c>
       <c r="K42" s="8">
-        <v>75.4</v>
+        <v>75.3</v>
       </c>
       <c r="L42" s="8">
-        <v>58.8</v>
+        <v>57</v>
       </c>
       <c r="M42" s="8">
-        <v>67.1</v>
+        <v>67.7</v>
       </c>
       <c r="N42" s="13">
-        <f t="shared" si="4"/>
-        <v>55.8875</v>
-      </c>
-      <c r="O42" s="50">
-        <f t="shared" si="5"/>
-        <v>-5.7125</v>
+        <f t="shared" si="3"/>
+        <v>55.1875</v>
+      </c>
+      <c r="O42" s="46">
+        <f t="shared" si="2"/>
+        <v>54.9285714285714</v>
       </c>
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
@@ -5960,40 +5994,40 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="G43" s="8">
-        <v>72.3</v>
+        <v>71.9</v>
       </c>
       <c r="H43" s="8">
-        <v>67.9</v>
+        <v>68.1</v>
       </c>
       <c r="I43" s="8">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="J43" s="8">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="K43" s="8">
-        <v>75.8</v>
+        <v>75.6</v>
       </c>
       <c r="L43" s="8">
         <v>58.1</v>
       </c>
       <c r="M43" s="8">
-        <v>66.6</v>
+        <v>66.7</v>
       </c>
       <c r="N43" s="13">
-        <f t="shared" si="4"/>
-        <v>55.7125</v>
-      </c>
-      <c r="O43" s="50">
-        <f t="shared" si="5"/>
-        <v>-5.8875</v>
+        <f t="shared" si="3"/>
+        <v>55.6375</v>
+      </c>
+      <c r="O43" s="46">
+        <f t="shared" si="2"/>
+        <v>55.2857142857143</v>
       </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
@@ -6007,11 +6041,11 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8">
-        <v>39</v>
+        <v>39.3</v>
       </c>
       <c r="G44" s="8">
         <v>71.9</v>
@@ -6023,24 +6057,24 @@
         <v>28.1</v>
       </c>
       <c r="J44" s="8">
-        <v>38.9</v>
+        <v>38.4</v>
       </c>
       <c r="K44" s="8">
-        <v>75.3</v>
+        <v>75.4</v>
       </c>
       <c r="L44" s="8">
         <v>58.8</v>
       </c>
       <c r="M44" s="8">
-        <v>66.9</v>
+        <v>67.1</v>
       </c>
       <c r="N44" s="13">
-        <f t="shared" si="4"/>
-        <v>55.875</v>
-      </c>
-      <c r="O44" s="50">
-        <f t="shared" si="5"/>
-        <v>-5.725</v>
+        <f t="shared" si="3"/>
+        <v>55.8875</v>
+      </c>
+      <c r="O44" s="46">
+        <f t="shared" si="2"/>
+        <v>55.4714285714286</v>
       </c>
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
@@ -6054,40 +6088,40 @@
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8">
-        <v>38.1</v>
+        <v>39.1</v>
       </c>
       <c r="G45" s="8">
-        <v>68.8</v>
+        <v>72.3</v>
       </c>
       <c r="H45" s="8">
-        <v>64.6</v>
+        <v>67.9</v>
       </c>
       <c r="I45" s="8">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="J45" s="8">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="K45" s="8">
-        <v>75.3</v>
+        <v>75.8</v>
       </c>
       <c r="L45" s="8">
-        <v>56.3</v>
+        <v>58.1</v>
       </c>
       <c r="M45" s="8">
-        <v>67.5</v>
+        <v>66.6</v>
       </c>
       <c r="N45" s="13">
-        <f t="shared" si="4"/>
-        <v>54.6125</v>
-      </c>
-      <c r="O45" s="50">
-        <f t="shared" si="5"/>
-        <v>-6.9875</v>
+        <f t="shared" si="3"/>
+        <v>55.7125</v>
+      </c>
+      <c r="O45" s="46">
+        <f t="shared" si="2"/>
+        <v>55.3714285714286</v>
       </c>
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
@@ -6101,40 +6135,40 @@
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8">
-        <v>38.4</v>
+        <v>39</v>
       </c>
       <c r="G46" s="8">
-        <v>68.4</v>
+        <v>71.9</v>
       </c>
       <c r="H46" s="8">
-        <v>64.8</v>
+        <v>68.1</v>
       </c>
       <c r="I46" s="8">
-        <v>28.8</v>
+        <v>28.1</v>
       </c>
       <c r="J46" s="8">
-        <v>38</v>
+        <v>38.9</v>
       </c>
       <c r="K46" s="8">
-        <v>75.8</v>
+        <v>75.3</v>
       </c>
       <c r="L46" s="8">
         <v>58.8</v>
       </c>
       <c r="M46" s="8">
-        <v>68.2</v>
+        <v>66.9</v>
       </c>
       <c r="N46" s="13">
-        <f t="shared" si="4"/>
-        <v>55.15</v>
-      </c>
-      <c r="O46" s="50">
-        <f t="shared" si="5"/>
-        <v>-6.45</v>
+        <f t="shared" si="3"/>
+        <v>55.875</v>
+      </c>
+      <c r="O46" s="46">
+        <f t="shared" si="2"/>
+        <v>55.4571428571429</v>
       </c>
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
@@ -6148,40 +6182,40 @@
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="G47" s="8">
-        <v>69</v>
+        <v>68.8</v>
       </c>
       <c r="H47" s="8">
-        <v>64.9</v>
+        <v>64.6</v>
       </c>
       <c r="I47" s="8">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="J47" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K47" s="8">
-        <v>75.8</v>
+        <v>75.3</v>
       </c>
       <c r="L47" s="8">
-        <v>58.8</v>
+        <v>56.3</v>
       </c>
       <c r="M47" s="8">
-        <v>67.7</v>
+        <v>67.5</v>
       </c>
       <c r="N47" s="13">
-        <f t="shared" si="4"/>
-        <v>55.2625</v>
-      </c>
-      <c r="O47" s="50">
-        <f t="shared" si="5"/>
-        <v>-6.3375</v>
+        <f t="shared" si="3"/>
+        <v>54.6125</v>
+      </c>
+      <c r="O47" s="46">
+        <f t="shared" si="2"/>
+        <v>54.3714285714286</v>
       </c>
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
@@ -6190,272 +6224,253 @@
       <c r="T47" s="14"/>
       <c r="U47" s="14"/>
     </row>
-    <row r="48" s="36" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A48" s="9" t="s">
+    <row r="48" s="35" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8">
+        <v>38.4</v>
+      </c>
+      <c r="G48" s="8">
+        <v>68.4</v>
+      </c>
+      <c r="H48" s="8">
+        <v>64.8</v>
+      </c>
+      <c r="I48" s="8">
+        <v>28.8</v>
+      </c>
+      <c r="J48" s="8">
+        <v>38</v>
+      </c>
+      <c r="K48" s="8">
+        <v>75.8</v>
+      </c>
+      <c r="L48" s="8">
+        <v>58.8</v>
+      </c>
+      <c r="M48" s="8">
+        <v>68.2</v>
+      </c>
+      <c r="N48" s="13">
+        <f t="shared" si="3"/>
+        <v>55.15</v>
+      </c>
+      <c r="O48" s="46">
+        <f t="shared" si="2"/>
+        <v>54.6285714285714</v>
+      </c>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+    </row>
+    <row r="49" s="35" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8">
+        <v>38.2</v>
+      </c>
+      <c r="G49" s="8">
+        <v>69</v>
+      </c>
+      <c r="H49" s="8">
+        <v>64.9</v>
+      </c>
+      <c r="I49" s="8">
+        <v>28.7</v>
+      </c>
+      <c r="J49" s="8">
+        <v>39</v>
+      </c>
+      <c r="K49" s="8">
+        <v>75.8</v>
+      </c>
+      <c r="L49" s="8">
+        <v>58.8</v>
+      </c>
+      <c r="M49" s="8">
+        <v>67.7</v>
+      </c>
+      <c r="N49" s="13">
+        <f t="shared" si="3"/>
+        <v>55.2625</v>
+      </c>
+      <c r="O49" s="46">
+        <f t="shared" si="2"/>
+        <v>54.7571428571429</v>
+      </c>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+    </row>
+    <row r="50" s="36" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A50" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B50" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D50" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9">
-        <v>33</v>
-      </c>
-      <c r="G48" s="9">
-        <v>64.1</v>
-      </c>
-      <c r="H48" s="9">
-        <v>58.5</v>
-      </c>
-      <c r="I48" s="9">
-        <v>28.3</v>
-      </c>
-      <c r="J48" s="9">
-        <v>36</v>
-      </c>
-      <c r="K48" s="9">
-        <v>70.3</v>
-      </c>
-      <c r="L48" s="9">
-        <v>62.1</v>
-      </c>
-      <c r="M48" s="9">
-        <v>62.4</v>
-      </c>
-      <c r="N48" s="15">
-        <f t="shared" si="4"/>
-        <v>51.8375</v>
-      </c>
-      <c r="O48" s="48">
-        <f t="shared" si="5"/>
-        <v>-9.7625</v>
-      </c>
-      <c r="Q48" s="36">
-        <v>9731952896</v>
-      </c>
-      <c r="R48" s="36">
-        <v>18700</v>
-      </c>
-      <c r="S48" s="16">
-        <v>19900</v>
-      </c>
-      <c r="T48" s="16">
-        <v>0.3417</v>
-      </c>
-      <c r="U48" s="16">
-        <v>2.93</v>
-      </c>
-      <c r="V48" s="35">
-        <f>0.4884/T48</f>
-        <v>1.42932396839333</v>
-      </c>
-    </row>
-    <row r="49" s="36" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9">
-        <v>31.7</v>
-      </c>
-      <c r="G49" s="9">
-        <v>64.2</v>
-      </c>
-      <c r="H49" s="9">
-        <v>48.3</v>
-      </c>
-      <c r="I49" s="9">
-        <v>25.6</v>
-      </c>
-      <c r="J49" s="9">
-        <v>33</v>
-      </c>
-      <c r="K49" s="9">
-        <v>66.8</v>
-      </c>
-      <c r="L49" s="20">
-        <v>49.1</v>
-      </c>
-      <c r="M49" s="9">
-        <v>59.2</v>
-      </c>
-      <c r="N49" s="15">
-        <f t="shared" si="4"/>
-        <v>47.2375</v>
-      </c>
-      <c r="O49" s="48">
-        <f t="shared" si="5"/>
-        <v>-14.3625</v>
-      </c>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="35"/>
-    </row>
-    <row r="50" s="36" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9">
-        <v>34.1</v>
+        <v>33</v>
       </c>
       <c r="G50" s="9">
-        <v>64.5</v>
+        <v>64.1</v>
       </c>
       <c r="H50" s="9">
-        <v>61</v>
+        <v>58.5</v>
       </c>
       <c r="I50" s="9">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="J50" s="9">
-        <v>37.2</v>
+        <v>36</v>
       </c>
       <c r="K50" s="9">
-        <v>71.2</v>
-      </c>
-      <c r="L50" s="20">
-        <v>59.6</v>
+        <v>70.3</v>
+      </c>
+      <c r="L50" s="9">
+        <v>62.1</v>
       </c>
       <c r="M50" s="9">
+        <v>62.4</v>
+      </c>
+      <c r="N50" s="15">
+        <f t="shared" si="3"/>
+        <v>51.8375</v>
+      </c>
+      <c r="O50" s="46">
+        <f t="shared" ref="O50:O60" si="4">AVERAGE(F50:K50,M50:M50)</f>
+        <v>50.3714285714286</v>
+      </c>
+      <c r="Q50" s="36">
+        <v>9731952896</v>
+      </c>
+      <c r="R50" s="36">
+        <v>18700</v>
+      </c>
+      <c r="S50" s="16">
+        <v>19900</v>
+      </c>
+      <c r="T50" s="16">
+        <v>0.3417</v>
+      </c>
+      <c r="U50" s="16">
+        <v>2.93</v>
+      </c>
+      <c r="V50" s="35">
+        <f>0.4884/T50</f>
+        <v>1.42932396839333</v>
+      </c>
+    </row>
+    <row r="51" s="36" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9">
+        <v>31.7</v>
+      </c>
+      <c r="G51" s="9">
         <v>64.2</v>
       </c>
-      <c r="N50" s="15">
+      <c r="H51" s="9">
+        <v>48.3</v>
+      </c>
+      <c r="I51" s="9">
+        <v>25.6</v>
+      </c>
+      <c r="J51" s="9">
+        <v>33</v>
+      </c>
+      <c r="K51" s="9">
+        <v>66.8</v>
+      </c>
+      <c r="L51" s="20">
+        <v>49.1</v>
+      </c>
+      <c r="M51" s="9">
+        <v>59.2</v>
+      </c>
+      <c r="N51" s="15">
+        <f t="shared" si="3"/>
+        <v>47.2375</v>
+      </c>
+      <c r="O51" s="46">
         <f t="shared" si="4"/>
-        <v>52.6125</v>
-      </c>
-      <c r="O50" s="48">
-        <f t="shared" si="5"/>
-        <v>-8.9875</v>
-      </c>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="35"/>
-    </row>
-    <row r="51" s="36" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42">
-        <v>30.6</v>
-      </c>
-      <c r="G51" s="42">
-        <v>63.7</v>
-      </c>
-      <c r="H51" s="42">
-        <v>56.2</v>
-      </c>
-      <c r="I51" s="42">
-        <v>26.1</v>
-      </c>
-      <c r="J51" s="42">
-        <v>32.6</v>
-      </c>
-      <c r="K51" s="42">
-        <v>70.4</v>
-      </c>
-      <c r="L51" s="42">
-        <v>59.2</v>
-      </c>
-      <c r="M51" s="42">
-        <v>61.7</v>
-      </c>
-      <c r="N51" s="15">
-        <f t="shared" si="4"/>
-        <v>50.0625</v>
-      </c>
-      <c r="O51" s="48">
-        <f t="shared" si="5"/>
-        <v>-11.5375</v>
-      </c>
-      <c r="P51" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q51" s="16">
-        <v>10354806824</v>
-      </c>
-      <c r="R51" s="16">
-        <v>19888</v>
-      </c>
-      <c r="S51" s="16">
-        <v>21088</v>
-      </c>
-      <c r="T51" s="16">
-        <v>0.3793</v>
-      </c>
-      <c r="U51" s="16">
-        <v>2.64</v>
-      </c>
-      <c r="V51" s="35">
-        <f>0.4884/T51</f>
-        <v>1.28763511732138</v>
-      </c>
+        <v>46.9714285714286</v>
+      </c>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="35"/>
     </row>
     <row r="52" s="36" customFormat="1" ht="17.6" spans="1:22">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9">
-        <v>32.8</v>
+        <v>34.1</v>
       </c>
       <c r="G52" s="9">
-        <v>62.9</v>
+        <v>64.5</v>
       </c>
       <c r="H52" s="9">
-        <v>61.4</v>
+        <v>61</v>
       </c>
       <c r="I52" s="9">
-        <v>26.3</v>
+        <v>29.1</v>
       </c>
       <c r="J52" s="9">
-        <v>34.4</v>
+        <v>37.2</v>
       </c>
       <c r="K52" s="9">
-        <v>71.8</v>
-      </c>
-      <c r="L52" s="9">
-        <v>66.8</v>
+        <v>71.2</v>
+      </c>
+      <c r="L52" s="20">
+        <v>59.6</v>
       </c>
       <c r="M52" s="9">
-        <v>63.9</v>
+        <v>64.2</v>
       </c>
       <c r="N52" s="15">
+        <f t="shared" si="3"/>
+        <v>52.6125</v>
+      </c>
+      <c r="O52" s="46">
         <f t="shared" si="4"/>
-        <v>52.5375</v>
-      </c>
-      <c r="O52" s="48">
-        <f t="shared" si="5"/>
-        <v>-9.0625</v>
+        <v>51.6142857142857</v>
       </c>
       <c r="P52" s="16"/>
       <c r="Q52" s="16"/>
@@ -6466,96 +6481,109 @@
       <c r="V52" s="35"/>
     </row>
     <row r="53" s="36" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" s="9" t="s">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9">
-        <v>35.2</v>
-      </c>
-      <c r="G53" s="9">
-        <v>64.9</v>
-      </c>
-      <c r="H53" s="9">
-        <v>56.8</v>
-      </c>
-      <c r="I53" s="9">
-        <v>30.4</v>
-      </c>
-      <c r="J53" s="9">
-        <v>30.8</v>
-      </c>
-      <c r="K53" s="9">
-        <v>68.9</v>
-      </c>
-      <c r="L53" s="9">
+      <c r="E53" s="42"/>
+      <c r="F53" s="42">
+        <v>30.6</v>
+      </c>
+      <c r="G53" s="42">
+        <v>63.7</v>
+      </c>
+      <c r="H53" s="42">
+        <v>56.2</v>
+      </c>
+      <c r="I53" s="42">
+        <v>26.1</v>
+      </c>
+      <c r="J53" s="42">
+        <v>32.6</v>
+      </c>
+      <c r="K53" s="42">
+        <v>70.4</v>
+      </c>
+      <c r="L53" s="42">
+        <v>59.2</v>
+      </c>
+      <c r="M53" s="42">
         <v>61.7</v>
       </c>
-      <c r="M53" s="9">
-        <v>64.3</v>
-      </c>
       <c r="N53" s="15">
+        <f t="shared" si="3"/>
+        <v>50.0625</v>
+      </c>
+      <c r="O53" s="46">
         <f t="shared" si="4"/>
-        <v>51.625</v>
-      </c>
-      <c r="O53" s="48">
-        <f t="shared" si="5"/>
-        <v>-9.975</v>
-      </c>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="35"/>
+        <v>48.7571428571429</v>
+      </c>
+      <c r="P53" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q53" s="16">
+        <v>10354806824</v>
+      </c>
+      <c r="R53" s="16">
+        <v>19888</v>
+      </c>
+      <c r="S53" s="16">
+        <v>21088</v>
+      </c>
+      <c r="T53" s="16">
+        <v>0.3793</v>
+      </c>
+      <c r="U53" s="16">
+        <v>2.64</v>
+      </c>
+      <c r="V53" s="35">
+        <f>0.4884/T53</f>
+        <v>1.28763511732138</v>
+      </c>
     </row>
     <row r="54" s="36" customFormat="1" ht="17.6" spans="1:22">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="C54" s="9"/>
       <c r="D54" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9">
-        <v>31.7</v>
+        <v>32.8</v>
       </c>
       <c r="G54" s="9">
-        <v>63.2</v>
+        <v>62.9</v>
       </c>
       <c r="H54" s="9">
-        <v>57.9</v>
+        <v>61.4</v>
       </c>
       <c r="I54" s="9">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="J54" s="9">
-        <v>34.8</v>
+        <v>34.4</v>
       </c>
       <c r="K54" s="9">
-        <v>71.6</v>
+        <v>71.8</v>
       </c>
       <c r="L54" s="9">
         <v>66.8</v>
       </c>
       <c r="M54" s="9">
-        <v>63.2</v>
+        <v>63.9</v>
       </c>
       <c r="N54" s="15">
+        <f t="shared" si="3"/>
+        <v>52.5375</v>
+      </c>
+      <c r="O54" s="46">
         <f t="shared" si="4"/>
-        <v>51.9125</v>
-      </c>
-      <c r="O54" s="48">
-        <f t="shared" si="5"/>
-        <v>-9.68750000000001</v>
+        <v>50.5</v>
       </c>
       <c r="P54" s="16"/>
       <c r="Q54" s="16"/>
@@ -6568,42 +6596,44 @@
     <row r="55" s="36" customFormat="1" ht="17.6" spans="1:22">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
+      <c r="C55" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="D55" s="9" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9">
-        <v>26.7</v>
+        <v>35.2</v>
       </c>
       <c r="G55" s="9">
-        <v>61.2</v>
+        <v>64.9</v>
       </c>
       <c r="H55" s="9">
-        <v>40.2</v>
+        <v>56.8</v>
       </c>
       <c r="I55" s="9">
-        <v>24.9</v>
+        <v>30.4</v>
       </c>
       <c r="J55" s="9">
-        <v>27.6</v>
+        <v>30.8</v>
       </c>
       <c r="K55" s="9">
-        <v>55.6</v>
-      </c>
-      <c r="L55" s="20">
-        <v>53.8</v>
+        <v>68.9</v>
+      </c>
+      <c r="L55" s="9">
+        <v>61.7</v>
       </c>
       <c r="M55" s="9">
-        <v>54.7</v>
+        <v>64.3</v>
       </c>
       <c r="N55" s="15">
+        <f t="shared" si="3"/>
+        <v>51.625</v>
+      </c>
+      <c r="O55" s="46">
         <f t="shared" si="4"/>
-        <v>43.0875</v>
-      </c>
-      <c r="O55" s="48">
-        <f t="shared" si="5"/>
-        <v>-18.5125</v>
+        <v>50.1857142857143</v>
       </c>
       <c r="P55" s="16"/>
       <c r="Q55" s="16"/>
@@ -6616,42 +6646,44 @@
     <row r="56" s="36" customFormat="1" ht="17.6" spans="1:22">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
+      <c r="C56" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="D56" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9">
-        <v>35.1</v>
+        <v>31.7</v>
       </c>
       <c r="G56" s="9">
-        <v>64.6</v>
+        <v>63.2</v>
       </c>
       <c r="H56" s="9">
-        <v>60.1</v>
+        <v>57.9</v>
       </c>
       <c r="I56" s="9">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="J56" s="9">
-        <v>36</v>
+        <v>34.8</v>
       </c>
       <c r="K56" s="9">
-        <v>72.6</v>
-      </c>
-      <c r="L56" s="20">
-        <v>59.6</v>
+        <v>71.6</v>
+      </c>
+      <c r="L56" s="9">
+        <v>66.8</v>
       </c>
       <c r="M56" s="9">
-        <v>63.1</v>
+        <v>63.2</v>
       </c>
       <c r="N56" s="15">
+        <f t="shared" si="3"/>
+        <v>51.9125</v>
+      </c>
+      <c r="O56" s="46">
         <f t="shared" si="4"/>
-        <v>52.125</v>
-      </c>
-      <c r="O56" s="48">
-        <f t="shared" si="5"/>
-        <v>-9.475</v>
+        <v>49.7857142857143</v>
       </c>
       <c r="P56" s="16"/>
       <c r="Q56" s="16"/>
@@ -6666,40 +6698,40 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9">
-        <v>35.7</v>
+        <v>26.7</v>
       </c>
       <c r="G57" s="9">
-        <v>65.1</v>
+        <v>61.2</v>
       </c>
       <c r="H57" s="9">
-        <v>63.9</v>
+        <v>40.2</v>
       </c>
       <c r="I57" s="9">
-        <v>26</v>
+        <v>24.9</v>
       </c>
       <c r="J57" s="9">
-        <v>36.6</v>
+        <v>27.6</v>
       </c>
       <c r="K57" s="9">
-        <v>73.7</v>
+        <v>55.6</v>
       </c>
       <c r="L57" s="20">
-        <v>59.9</v>
+        <v>53.8</v>
       </c>
       <c r="M57" s="9">
-        <v>64.6</v>
+        <v>54.7</v>
       </c>
       <c r="N57" s="15">
+        <f t="shared" si="3"/>
+        <v>43.0875</v>
+      </c>
+      <c r="O57" s="46">
         <f t="shared" si="4"/>
-        <v>53.1875</v>
-      </c>
-      <c r="O57" s="49">
-        <f t="shared" si="5"/>
-        <v>-8.4125</v>
+        <v>41.5571428571429</v>
       </c>
       <c r="P57" s="16"/>
       <c r="Q57" s="16"/>
@@ -6709,45 +6741,45 @@
       <c r="U57" s="16"/>
       <c r="V57" s="35"/>
     </row>
-    <row r="58" s="36" customFormat="1" ht="17.6" spans="1:21">
+    <row r="58" s="36" customFormat="1" ht="17.6" spans="1:22">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="43">
-        <v>5e-6</v>
+      <c r="D58" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9">
         <v>35.1</v>
       </c>
       <c r="G58" s="9">
-        <v>64.4</v>
+        <v>64.6</v>
       </c>
       <c r="H58" s="9">
-        <v>60.7</v>
+        <v>60.1</v>
       </c>
       <c r="I58" s="9">
         <v>25.9</v>
       </c>
       <c r="J58" s="9">
-        <v>36.8</v>
+        <v>36</v>
       </c>
       <c r="K58" s="9">
-        <v>72.8</v>
-      </c>
-      <c r="L58" s="9">
+        <v>72.6</v>
+      </c>
+      <c r="L58" s="20">
         <v>59.6</v>
       </c>
       <c r="M58" s="9">
-        <v>63.8</v>
+        <v>63.1</v>
       </c>
       <c r="N58" s="15">
+        <f t="shared" si="3"/>
+        <v>52.125</v>
+      </c>
+      <c r="O58" s="46">
         <f t="shared" si="4"/>
-        <v>52.3875</v>
-      </c>
-      <c r="O58" s="49">
-        <f t="shared" si="5"/>
-        <v>-9.2125</v>
+        <v>51.0571428571429</v>
       </c>
       <c r="P58" s="16"/>
       <c r="Q58" s="16"/>
@@ -6755,205 +6787,209 @@
       <c r="S58" s="16"/>
       <c r="T58" s="16"/>
       <c r="U58" s="16"/>
-    </row>
-    <row r="59" s="35" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A59" s="28" t="s">
+      <c r="V58" s="35"/>
+    </row>
+    <row r="59" s="36" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9">
+        <v>35.7</v>
+      </c>
+      <c r="G59" s="9">
+        <v>65.1</v>
+      </c>
+      <c r="H59" s="9">
+        <v>63.9</v>
+      </c>
+      <c r="I59" s="9">
+        <v>26</v>
+      </c>
+      <c r="J59" s="9">
+        <v>36.6</v>
+      </c>
+      <c r="K59" s="9">
+        <v>73.7</v>
+      </c>
+      <c r="L59" s="20">
+        <v>59.9</v>
+      </c>
+      <c r="M59" s="9">
+        <v>64.6</v>
+      </c>
+      <c r="N59" s="15">
+        <f t="shared" si="3"/>
+        <v>53.1875</v>
+      </c>
+      <c r="O59" s="46">
+        <f t="shared" si="4"/>
+        <v>52.2285714285714</v>
+      </c>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="35"/>
+    </row>
+    <row r="60" s="36" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="43">
+        <v>5e-6</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9">
+        <v>35.1</v>
+      </c>
+      <c r="G60" s="9">
+        <v>64.4</v>
+      </c>
+      <c r="H60" s="9">
+        <v>60.7</v>
+      </c>
+      <c r="I60" s="9">
+        <v>25.9</v>
+      </c>
+      <c r="J60" s="9">
+        <v>36.8</v>
+      </c>
+      <c r="K60" s="9">
+        <v>72.8</v>
+      </c>
+      <c r="L60" s="9">
+        <v>59.6</v>
+      </c>
+      <c r="M60" s="9">
+        <v>63.8</v>
+      </c>
+      <c r="N60" s="15">
+        <f t="shared" si="3"/>
+        <v>52.3875</v>
+      </c>
+      <c r="O60" s="46">
+        <f t="shared" si="4"/>
+        <v>51.3571428571429</v>
+      </c>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+    </row>
+    <row r="61" s="35" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A61" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B61" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C61" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D61" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28">
+      <c r="E61" s="28"/>
+      <c r="F61" s="28">
         <v>30.8</v>
       </c>
-      <c r="G59" s="28">
+      <c r="G61" s="28">
         <v>62.8</v>
       </c>
-      <c r="H59" s="28">
+      <c r="H61" s="28">
         <v>49.3</v>
       </c>
-      <c r="I59" s="28">
+      <c r="I61" s="28">
         <v>25.2</v>
       </c>
-      <c r="J59" s="28">
+      <c r="J61" s="28">
         <v>31.6</v>
       </c>
-      <c r="K59" s="28">
+      <c r="K61" s="28">
         <v>66.9</v>
       </c>
-      <c r="L59" s="28">
+      <c r="L61" s="28">
         <v>59.2</v>
       </c>
-      <c r="M59" s="28">
+      <c r="M61" s="28">
         <v>59.1</v>
       </c>
-      <c r="N59" s="13">
-        <f t="shared" si="4"/>
+      <c r="N61" s="13">
+        <f t="shared" si="3"/>
         <v>48.1125</v>
       </c>
-      <c r="O59" s="50">
-        <f t="shared" si="5"/>
-        <v>-13.4875</v>
-      </c>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14">
+      <c r="O61" s="46">
+        <f>AVERAGE(F61:K61,M61:M61)</f>
+        <v>46.5285714285714</v>
+      </c>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14">
         <v>8071009088</v>
       </c>
-      <c r="R59" s="14">
+      <c r="R61" s="14">
         <v>15532</v>
       </c>
-      <c r="S59" s="14">
+      <c r="S61" s="14">
         <v>16732</v>
       </c>
-      <c r="T59" s="14">
+      <c r="T61" s="14">
         <v>0.2997</v>
       </c>
-      <c r="U59" s="14">
+      <c r="U61" s="14">
         <v>3.34</v>
-      </c>
-      <c r="V59" s="35">
-        <f>0.4884/T59</f>
-        <v>1.62962962962963</v>
-      </c>
-    </row>
-    <row r="60" s="35" customFormat="1" ht="17.6" spans="1:21">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8">
-        <v>31.9</v>
-      </c>
-      <c r="G60" s="8">
-        <v>63.1</v>
-      </c>
-      <c r="H60" s="8">
-        <v>50.1</v>
-      </c>
-      <c r="I60" s="8">
-        <v>26.1</v>
-      </c>
-      <c r="J60" s="8">
-        <v>32.7</v>
-      </c>
-      <c r="K60" s="8">
-        <v>67.9</v>
-      </c>
-      <c r="L60" s="8">
-        <v>57.5</v>
-      </c>
-      <c r="M60" s="8">
-        <v>60.5</v>
-      </c>
-      <c r="N60" s="13">
-        <f t="shared" si="4"/>
-        <v>48.725</v>
-      </c>
-      <c r="O60" s="50">
-        <f t="shared" si="5"/>
-        <v>-12.875</v>
-      </c>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="14"/>
-    </row>
-    <row r="61" s="35" customFormat="1" ht="17.6" spans="1:22">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="50"/>
-      <c r="P61" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q61" s="14">
-        <v>8849576498</v>
-      </c>
-      <c r="R61" s="14">
-        <v>17017</v>
-      </c>
-      <c r="S61" s="14">
-        <v>18217</v>
-      </c>
-      <c r="T61" s="14">
-        <v>0.3387</v>
-      </c>
-      <c r="U61" s="14">
-        <v>2.95</v>
       </c>
       <c r="V61" s="35">
         <f>0.4884/T61</f>
-        <v>1.44198405668733</v>
+        <v>1.62962962962963</v>
       </c>
     </row>
     <row r="62" s="35" customFormat="1" ht="17.6" spans="1:21">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
-      <c r="C62" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8">
-        <v>31.6</v>
+        <v>29.3</v>
       </c>
       <c r="G62" s="8">
-        <v>63.8</v>
+        <v>62.2</v>
       </c>
       <c r="H62" s="8">
-        <v>50.3</v>
+        <v>48.5</v>
       </c>
       <c r="I62" s="8">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
       <c r="J62" s="8">
-        <v>29.2</v>
+        <v>32.8</v>
       </c>
       <c r="K62" s="8">
-        <v>66.9</v>
+        <v>65.7</v>
       </c>
       <c r="L62" s="8">
-        <v>52.3</v>
+        <v>48.4</v>
       </c>
       <c r="M62" s="8">
-        <v>64.1</v>
+        <v>60.4</v>
       </c>
       <c r="N62" s="13">
         <f>AVERAGE(F62:M62)</f>
-        <v>48.1</v>
-      </c>
-      <c r="O62" s="50">
-        <f>N62-61.6</f>
-        <v>-13.5</v>
+        <v>46.6375</v>
+      </c>
+      <c r="O62" s="46">
+        <f>AVERAGE(F62:K62,M62:M62)</f>
+        <v>46.3857142857143</v>
       </c>
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
@@ -6965,45 +7001,40 @@
     <row r="63" s="35" customFormat="1" ht="17.6" spans="1:21">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8">
-        <v>31</v>
+        <v>31.9</v>
       </c>
       <c r="G63" s="8">
-        <v>62.3</v>
+        <v>63.1</v>
       </c>
       <c r="H63" s="8">
-        <v>53.2</v>
+        <v>50.1</v>
       </c>
       <c r="I63" s="8">
-        <v>24.3</v>
+        <v>26.1</v>
       </c>
       <c r="J63" s="8">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="K63" s="8">
-        <v>68.2</v>
+        <v>67.9</v>
       </c>
       <c r="L63" s="8">
-        <v>57.4</v>
+        <v>57.5</v>
       </c>
       <c r="M63" s="8">
-        <v>60</v>
+        <v>60.5</v>
       </c>
       <c r="N63" s="13">
         <f>AVERAGE(F63:M63)</f>
-        <v>48.675</v>
-      </c>
-      <c r="O63" s="50">
-        <f>N63-61.6</f>
-        <v>-12.925</v>
-      </c>
+        <v>48.725</v>
+      </c>
+      <c r="O63" s="46"/>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
       <c r="R63" s="14"/>
@@ -7011,83 +7042,215 @@
       <c r="T63" s="14"/>
       <c r="U63" s="14"/>
     </row>
-    <row r="64" s="35" customFormat="1" ht="17.6" spans="1:21">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8">
-        <v>32.3</v>
-      </c>
-      <c r="G64" s="8">
-        <v>62.7</v>
-      </c>
-      <c r="H64" s="8">
-        <v>57.1</v>
-      </c>
-      <c r="I64" s="8">
-        <v>25.1</v>
-      </c>
-      <c r="J64" s="8">
-        <v>34.2</v>
-      </c>
-      <c r="K64" s="8">
-        <v>69.6</v>
-      </c>
-      <c r="L64" s="8">
-        <v>56.7</v>
-      </c>
-      <c r="M64" s="8">
-        <v>62</v>
-      </c>
-      <c r="N64" s="13">
-        <f>AVERAGE(F64:M64)</f>
-        <v>49.9625</v>
-      </c>
-      <c r="O64" s="51">
-        <f>N64-61.6</f>
-        <v>-11.6375</v>
-      </c>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="14"/>
-    </row>
-    <row r="65" ht="17.6" spans="4:14">
-      <c r="D65" t="s">
-        <v>161</v>
-      </c>
-      <c r="F65">
-        <v>32.2</v>
-      </c>
-      <c r="G65">
-        <v>65.1</v>
-      </c>
-      <c r="H65">
-        <v>54</v>
-      </c>
-      <c r="I65">
-        <v>27.9</v>
-      </c>
-      <c r="J65">
-        <v>30.2</v>
-      </c>
-      <c r="K65">
-        <v>68.7</v>
-      </c>
-      <c r="L65">
-        <v>48</v>
-      </c>
-      <c r="M65">
-        <v>63.5</v>
+    <row r="64" s="35" customFormat="1" ht="17.6" spans="1:22">
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q64" s="14">
+        <v>8849576498</v>
+      </c>
+      <c r="R64" s="14">
+        <v>17017</v>
+      </c>
+      <c r="S64" s="14">
+        <v>18217</v>
+      </c>
+      <c r="T64" s="14">
+        <v>0.3387</v>
+      </c>
+      <c r="U64" s="14">
+        <v>2.95</v>
+      </c>
+      <c r="V64" s="35">
+        <f>0.4884/T64</f>
+        <v>1.44198405668733</v>
+      </c>
+    </row>
+    <row r="65" s="35" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8">
+        <v>31.6</v>
+      </c>
+      <c r="G65" s="8">
+        <v>63.8</v>
+      </c>
+      <c r="H65" s="8">
+        <v>50.3</v>
+      </c>
+      <c r="I65" s="8">
+        <v>26.6</v>
+      </c>
+      <c r="J65" s="8">
+        <v>29.2</v>
+      </c>
+      <c r="K65" s="8">
+        <v>66.9</v>
+      </c>
+      <c r="L65" s="8">
+        <v>52.3</v>
+      </c>
+      <c r="M65" s="8">
+        <v>64.1</v>
       </c>
       <c r="N65" s="13">
         <f>AVERAGE(F65:M65)</f>
+        <v>48.1</v>
+      </c>
+      <c r="O65" s="46"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="14"/>
+      <c r="U65" s="14"/>
+    </row>
+    <row r="66" s="35" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8">
+        <v>31</v>
+      </c>
+      <c r="G66" s="8">
+        <v>62.3</v>
+      </c>
+      <c r="H66" s="8">
+        <v>53.2</v>
+      </c>
+      <c r="I66" s="8">
+        <v>24.3</v>
+      </c>
+      <c r="J66" s="8">
+        <v>33</v>
+      </c>
+      <c r="K66" s="8">
+        <v>68.2</v>
+      </c>
+      <c r="L66" s="8">
+        <v>57.4</v>
+      </c>
+      <c r="M66" s="8">
+        <v>60</v>
+      </c>
+      <c r="N66" s="13">
+        <f>AVERAGE(F66:M66)</f>
+        <v>48.675</v>
+      </c>
+      <c r="O66" s="46"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="14"/>
+    </row>
+    <row r="67" s="35" customFormat="1" ht="17.6" spans="1:21">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8">
+        <v>32.3</v>
+      </c>
+      <c r="G67" s="8">
+        <v>62.7</v>
+      </c>
+      <c r="H67" s="8">
+        <v>57.1</v>
+      </c>
+      <c r="I67" s="8">
+        <v>25.1</v>
+      </c>
+      <c r="J67" s="8">
+        <v>34.2</v>
+      </c>
+      <c r="K67" s="8">
+        <v>69.6</v>
+      </c>
+      <c r="L67" s="8">
+        <v>56.7</v>
+      </c>
+      <c r="M67" s="8">
+        <v>62</v>
+      </c>
+      <c r="N67" s="13">
+        <f>AVERAGE(F67:M67)</f>
+        <v>49.9625</v>
+      </c>
+      <c r="O67" s="48"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+    </row>
+    <row r="68" ht="17.6" spans="4:14">
+      <c r="D68" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68">
+        <v>32.2</v>
+      </c>
+      <c r="G68">
+        <v>65.1</v>
+      </c>
+      <c r="H68">
+        <v>54</v>
+      </c>
+      <c r="I68">
+        <v>27.9</v>
+      </c>
+      <c r="J68">
+        <v>30.2</v>
+      </c>
+      <c r="K68">
+        <v>68.7</v>
+      </c>
+      <c r="L68">
+        <v>48</v>
+      </c>
+      <c r="M68">
+        <v>63.5</v>
+      </c>
+      <c r="N68" s="13">
+        <f>AVERAGE(F68:M68)</f>
         <v>48.7</v>
       </c>
     </row>
@@ -7103,7 +7266,411 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="11" max="11" width="13.1346153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:17">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:17">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>48.3</v>
+      </c>
+      <c r="C2" s="7">
+        <v>72.7</v>
+      </c>
+      <c r="D2" s="7">
+        <v>77.4</v>
+      </c>
+      <c r="E2" s="7">
+        <v>38.3</v>
+      </c>
+      <c r="F2" s="7">
+        <v>44.2</v>
+      </c>
+      <c r="G2" s="7">
+        <v>78.7</v>
+      </c>
+      <c r="H2" s="7">
+        <v>63.2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>70.1</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
+        <v>61.6125</v>
+      </c>
+      <c r="K2" s="10">
+        <v>16375728128</v>
+      </c>
+      <c r="L2" s="12">
+        <v>2828650496</v>
+      </c>
+      <c r="M2" s="10">
+        <v>31371</v>
+      </c>
+      <c r="N2" s="10">
+        <v>32571</v>
+      </c>
+      <c r="O2" s="17">
+        <v>0.5196</v>
+      </c>
+      <c r="P2" s="17">
+        <v>1.92</v>
+      </c>
+      <c r="Q2" s="18">
+        <f t="shared" ref="Q2:Q7" si="1">0.4884/O2</f>
+        <v>0.939953810623557</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:17">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="33">
+        <v>43.7435</v>
+      </c>
+      <c r="C3" s="33">
+        <v>73.0738</v>
+      </c>
+      <c r="D3" s="33">
+        <v>71.2252</v>
+      </c>
+      <c r="E3" s="33">
+        <v>37.408</v>
+      </c>
+      <c r="F3" s="33">
+        <v>42.4081</v>
+      </c>
+      <c r="G3" s="33">
+        <v>77.8299</v>
+      </c>
+      <c r="H3" s="33">
+        <v>49.5091</v>
+      </c>
+      <c r="I3" s="33">
+        <v>67.8359</v>
+      </c>
+      <c r="J3" s="13">
+        <f t="shared" si="0"/>
+        <v>57.8791875</v>
+      </c>
+      <c r="K3" s="14">
+        <v>14870497802</v>
+      </c>
+      <c r="L3" s="12">
+        <v>2828650496</v>
+      </c>
+      <c r="M3" s="14">
+        <v>28500</v>
+      </c>
+      <c r="N3" s="14">
+        <v>29700</v>
+      </c>
+      <c r="O3" s="14">
+        <v>0.4648</v>
+      </c>
+      <c r="P3" s="14">
+        <v>2.15</v>
+      </c>
+      <c r="Q3" s="18">
+        <f t="shared" si="1"/>
+        <v>1.05077452667814</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:17">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9">
+        <v>39.5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>73</v>
+      </c>
+      <c r="D4" s="9">
+        <v>66.6</v>
+      </c>
+      <c r="E4" s="9">
+        <v>30.8</v>
+      </c>
+      <c r="F4" s="9">
+        <v>36.6</v>
+      </c>
+      <c r="G4" s="9">
+        <v>75.6</v>
+      </c>
+      <c r="H4" s="9">
+        <v>50.5</v>
+      </c>
+      <c r="I4" s="9">
+        <v>65.7</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="0"/>
+        <v>54.7875</v>
+      </c>
+      <c r="K4" s="16">
+        <v>13365267476</v>
+      </c>
+      <c r="L4" s="12">
+        <v>2828650496</v>
+      </c>
+      <c r="M4" s="16">
+        <v>25629</v>
+      </c>
+      <c r="N4" s="16">
+        <v>26289</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0.4352</v>
+      </c>
+      <c r="P4" s="16">
+        <v>2.3</v>
+      </c>
+      <c r="Q4" s="18">
+        <f t="shared" si="1"/>
+        <v>1.12224264705882</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:17">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>36.3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>67.5</v>
+      </c>
+      <c r="D5" s="8">
+        <v>59.5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>26.5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>35.2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>72.9</v>
+      </c>
+      <c r="H5" s="8">
+        <v>51.6</v>
+      </c>
+      <c r="I5" s="8">
+        <v>64.6</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" si="0"/>
+        <v>51.7625</v>
+      </c>
+      <c r="K5" s="14">
+        <v>11860037150</v>
+      </c>
+      <c r="L5" s="12">
+        <v>2828650496</v>
+      </c>
+      <c r="M5" s="14">
+        <v>22759</v>
+      </c>
+      <c r="N5" s="14">
+        <v>23958</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.4079</v>
+      </c>
+      <c r="P5" s="14">
+        <v>2.45</v>
+      </c>
+      <c r="Q5" s="18">
+        <f t="shared" si="1"/>
+        <v>1.19735229222849</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:17">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9">
+        <v>31.7</v>
+      </c>
+      <c r="C6" s="9">
+        <v>64.2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>48.3</v>
+      </c>
+      <c r="E6" s="9">
+        <v>25.6</v>
+      </c>
+      <c r="F6" s="9">
+        <v>33</v>
+      </c>
+      <c r="G6" s="9">
+        <v>66.8</v>
+      </c>
+      <c r="H6" s="20">
+        <v>49.1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>59.2</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="0"/>
+        <v>47.2375</v>
+      </c>
+      <c r="K6" s="16">
+        <v>10354806824</v>
+      </c>
+      <c r="L6" s="12">
+        <v>2828650496</v>
+      </c>
+      <c r="M6" s="16">
+        <v>19888</v>
+      </c>
+      <c r="N6" s="16">
+        <v>21088</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0.3793</v>
+      </c>
+      <c r="P6" s="16">
+        <v>2.64</v>
+      </c>
+      <c r="Q6" s="18">
+        <f t="shared" si="1"/>
+        <v>1.28763511732138</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:17">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8">
+        <v>29.3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>62.2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>48.5</v>
+      </c>
+      <c r="E7" s="8">
+        <v>25.8</v>
+      </c>
+      <c r="F7" s="8">
+        <v>32.8</v>
+      </c>
+      <c r="G7" s="8">
+        <v>65.7</v>
+      </c>
+      <c r="H7" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="I7" s="8">
+        <v>60.4</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>46.6375</v>
+      </c>
+      <c r="K7" s="14">
+        <v>8849576498</v>
+      </c>
+      <c r="L7" s="12">
+        <v>2828650496</v>
+      </c>
+      <c r="M7" s="14">
+        <v>17017</v>
+      </c>
+      <c r="N7" s="14">
+        <v>18217</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0.3387</v>
+      </c>
+      <c r="P7" s="14">
+        <v>2.95</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" si="1"/>
+        <v>1.44198405668733</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -7146,28 +7713,28 @@
         <v>31</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:17">
@@ -7496,13 +8063,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -7546,28 +8113,28 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:17">
@@ -7906,7 +8473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q7"/>
@@ -7951,28 +8518,28 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:17">
@@ -8311,7 +8878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q7"/>
@@ -8355,28 +8922,28 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:17">
@@ -8715,13 +9282,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+      <selection activeCell="Q7" sqref="A1:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -8759,28 +9326,28 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:17">
@@ -9119,7 +9686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q7"/>
@@ -9164,28 +9731,28 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:17">
@@ -9524,7 +10091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q7"/>
@@ -9569,28 +10136,28 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:17">
@@ -9921,243 +10488,6 @@
       <c r="Q7" s="18">
         <f t="shared" si="1"/>
         <v>1.44198405668733</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
-  <cols>
-    <col min="1" max="1" width="21.9615384615385" customWidth="1"/>
-    <col min="2" max="2" width="16.8173076923077" customWidth="1"/>
-    <col min="11" max="11" width="12.1826923076923" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.6" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" ht="17.6" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="3">
-        <v>35</v>
-      </c>
-      <c r="D2" s="3">
-        <v>66</v>
-      </c>
-      <c r="E2" s="3">
-        <v>60.3</v>
-      </c>
-      <c r="F2" s="3">
-        <v>45.4</v>
-      </c>
-      <c r="G2" s="3">
-        <v>34</v>
-      </c>
-      <c r="H2" s="3">
-        <v>73.2</v>
-      </c>
-      <c r="I2" s="3">
-        <v>57</v>
-      </c>
-      <c r="J2" s="3">
-        <v>58.8</v>
-      </c>
-      <c r="K2" s="3">
-        <f>AVERAGE(C2:J2)</f>
-        <v>53.7125</v>
-      </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="1">
-        <v>38.7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>69.497</v>
-      </c>
-      <c r="E3" s="1">
-        <v>67.1197</v>
-      </c>
-      <c r="F3" s="1">
-        <v>32.8983</v>
-      </c>
-      <c r="G3" s="1">
-        <v>37.809</v>
-      </c>
-      <c r="H3" s="1">
-        <v>74.7094</v>
-      </c>
-      <c r="I3" s="1">
-        <v>48.034</v>
-      </c>
-      <c r="J3" s="1">
-        <v>67.5383</v>
-      </c>
-      <c r="K3" s="3">
-        <f>AVERAGE(C3:J3)</f>
-        <v>54.5382125</v>
-      </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="3">
-        <v>31.9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>62.1256</v>
-      </c>
-      <c r="E4" s="3">
-        <v>50.3854</v>
-      </c>
-      <c r="F4" s="3">
-        <v>26.142</v>
-      </c>
-      <c r="G4" s="3">
-        <v>33.2397</v>
-      </c>
-      <c r="H4" s="3">
-        <v>67.8291</v>
-      </c>
-      <c r="I4" s="3">
-        <v>59.199</v>
-      </c>
-      <c r="J4" s="3">
-        <v>62.121</v>
-      </c>
-      <c r="K4" s="3">
-        <f>AVERAGE(C4:J4)</f>
-        <v>49.117725</v>
-      </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="3">
-        <v>38.1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>65.3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>66.1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>29.6</v>
-      </c>
-      <c r="G5" s="3">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3">
-        <v>75</v>
-      </c>
-      <c r="I5" s="3">
-        <v>62.1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>65</v>
-      </c>
-      <c r="K5" s="3">
-        <f>AVERAGE(C5:J5)</f>
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="3">
-        <v>31.9</v>
-      </c>
-      <c r="D6" s="3">
-        <v>63.1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>50.1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>26.1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>32.7</v>
-      </c>
-      <c r="H6" s="3">
-        <v>67.9</v>
-      </c>
-      <c r="I6" s="3">
-        <v>57.5</v>
-      </c>
-      <c r="J6" s="3">
-        <v>60.5</v>
-      </c>
-      <c r="K6" s="3">
-        <f>AVERAGE(C6:J6)</f>
-        <v>48.725</v>
       </c>
     </row>
   </sheetData>
@@ -10659,30 +10989,235 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="21.9615384615385" customWidth="1"/>
+    <col min="2" max="2" width="16.8173076923077" customWidth="1"/>
+    <col min="11" max="11" width="12.1826923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="3">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3">
+        <v>60.3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45.4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3">
+        <v>73.2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>57</v>
+      </c>
+      <c r="J2" s="3">
+        <v>58.8</v>
+      </c>
+      <c r="K2" s="3">
+        <f>AVERAGE(C2:J2)</f>
+        <v>53.7125</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="1">
+        <v>38.7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>69.497</v>
+      </c>
+      <c r="E3" s="1">
+        <v>67.1197</v>
+      </c>
+      <c r="F3" s="1">
+        <v>32.8983</v>
+      </c>
+      <c r="G3" s="1">
+        <v>37.809</v>
+      </c>
+      <c r="H3" s="1">
+        <v>74.7094</v>
+      </c>
+      <c r="I3" s="1">
+        <v>48.034</v>
+      </c>
+      <c r="J3" s="1">
+        <v>67.5383</v>
+      </c>
+      <c r="K3" s="3">
+        <f>AVERAGE(C3:J3)</f>
+        <v>54.5382125</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="3">
+        <v>31.9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>62.1256</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50.3854</v>
+      </c>
+      <c r="F4" s="3">
+        <v>26.142</v>
+      </c>
+      <c r="G4" s="3">
+        <v>33.2397</v>
+      </c>
+      <c r="H4" s="3">
+        <v>67.8291</v>
+      </c>
+      <c r="I4" s="3">
+        <v>59.199</v>
+      </c>
+      <c r="J4" s="3">
+        <v>62.121</v>
+      </c>
+      <c r="K4" s="3">
+        <f>AVERAGE(C4:J4)</f>
+        <v>49.117725</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="3">
+        <v>38.1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>66.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>29.6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3">
+        <v>75</v>
+      </c>
+      <c r="I5" s="3">
+        <v>62.1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>65</v>
+      </c>
+      <c r="K5" s="3">
+        <f>AVERAGE(C5:J5)</f>
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="3">
+        <v>31.9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>63.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50.1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>26.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>32.7</v>
+      </c>
+      <c r="H6" s="3">
+        <v>67.9</v>
+      </c>
+      <c r="I6" s="3">
+        <v>57.5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>60.5</v>
+      </c>
+      <c r="K6" s="3">
+        <f>AVERAGE(C6:J6)</f>
+        <v>48.725</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -10744,7 +11279,7 @@
       <c r="C4" s="25">
         <v>19.1</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="46">
         <v>16.8</v>
       </c>
     </row>
@@ -10754,7 +11289,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="50">
+      <c r="D5" s="46">
         <v>13.43</v>
       </c>
     </row>
@@ -10764,7 +11299,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="50">
+      <c r="D6" s="46">
         <v>12.84</v>
       </c>
     </row>
@@ -10774,7 +11309,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="50">
+      <c r="D7" s="46">
         <v>13.4</v>
       </c>
     </row>
@@ -10788,7 +11323,7 @@
       <c r="C8" s="26">
         <v>12.7</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="51">
         <v>12.7</v>
       </c>
     </row>
@@ -10798,7 +11333,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="48">
+      <c r="D9" s="51">
         <v>12.6</v>
       </c>
     </row>
@@ -10808,7 +11343,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="26"/>
-      <c r="D10" s="48">
+      <c r="D10" s="51">
         <v>12.8</v>
       </c>
     </row>
@@ -10822,7 +11357,7 @@
       <c r="C11" s="25">
         <v>13</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="46">
         <v>12.9</v>
       </c>
     </row>
@@ -10832,7 +11367,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="25"/>
-      <c r="D12" s="50">
+      <c r="D12" s="46">
         <v>13</v>
       </c>
     </row>
@@ -10842,7 +11377,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="50">
+      <c r="D13" s="46">
         <v>12.9</v>
       </c>
     </row>
@@ -10856,7 +11391,7 @@
       <c r="C14" s="26">
         <v>12.9</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="51">
         <v>13</v>
       </c>
     </row>
@@ -10866,7 +11401,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="26"/>
-      <c r="D15" s="48">
+      <c r="D15" s="51">
         <v>12.92</v>
       </c>
     </row>
@@ -10876,7 +11411,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="26"/>
-      <c r="D16" s="48">
+      <c r="D16" s="51">
         <v>12.8</v>
       </c>
     </row>
@@ -10890,7 +11425,7 @@
       <c r="C17" s="25">
         <v>13</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="46">
         <v>13.1</v>
       </c>
     </row>
@@ -10900,7 +11435,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="25"/>
-      <c r="D18" s="50">
+      <c r="D18" s="46">
         <v>13.07</v>
       </c>
     </row>
@@ -10910,7 +11445,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="25"/>
-      <c r="D19" s="50">
+      <c r="D19" s="46">
         <v>12.4</v>
       </c>
     </row>
@@ -10924,7 +11459,7 @@
       <c r="C20" s="26">
         <v>12.9</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="51">
         <v>12.8</v>
       </c>
     </row>
@@ -11168,7 +11703,7 @@
       <c r="C41" s="14">
         <v>12.7</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="46">
         <v>12.7</v>
       </c>
     </row>
@@ -11178,7 +11713,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="131"/>
-      <c r="D42" s="50">
+      <c r="D42" s="46">
         <v>12.7</v>
       </c>
     </row>
@@ -11188,7 +11723,7 @@
         <v>8</v>
       </c>
       <c r="C43" s="131"/>
-      <c r="D43" s="50">
+      <c r="D43" s="46">
         <v>12.7</v>
       </c>
     </row>
@@ -11202,7 +11737,7 @@
       <c r="C44" s="132">
         <v>16</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="51">
         <v>16.1</v>
       </c>
     </row>
@@ -11212,7 +11747,7 @@
         <v>16</v>
       </c>
       <c r="C45" s="132"/>
-      <c r="D45" s="48">
+      <c r="D45" s="51">
         <v>15.98</v>
       </c>
     </row>
@@ -11222,7 +11757,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="132"/>
-      <c r="D46" s="48">
+      <c r="D46" s="51">
         <v>14.1</v>
       </c>
     </row>
@@ -11236,7 +11771,7 @@
       <c r="C47" s="131">
         <v>12.7</v>
       </c>
-      <c r="D47" s="50">
+      <c r="D47" s="46">
         <v>12.7</v>
       </c>
     </row>
@@ -11246,7 +11781,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="131"/>
-      <c r="D48" s="50">
+      <c r="D48" s="46">
         <v>12.4</v>
       </c>
     </row>
@@ -11256,7 +11791,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="131"/>
-      <c r="D49" s="50">
+      <c r="D49" s="46">
         <v>12.6</v>
       </c>
     </row>
@@ -11270,7 +11805,7 @@
       <c r="C50" s="132">
         <v>12.7</v>
       </c>
-      <c r="D50" s="48">
+      <c r="D50" s="51">
         <v>12.7</v>
       </c>
     </row>
@@ -11280,7 +11815,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="132"/>
-      <c r="D51" s="48">
+      <c r="D51" s="51">
         <v>12.62</v>
       </c>
     </row>
@@ -11290,7 +11825,7 @@
         <v>8</v>
       </c>
       <c r="C52" s="132"/>
-      <c r="D52" s="48">
+      <c r="D52" s="51">
         <v>12.7</v>
       </c>
     </row>
@@ -11304,7 +11839,7 @@
       <c r="C53" s="131">
         <v>15.1</v>
       </c>
-      <c r="D53" s="50">
+      <c r="D53" s="46">
         <v>14.9</v>
       </c>
     </row>
@@ -11314,7 +11849,7 @@
         <v>16</v>
       </c>
       <c r="C54" s="131"/>
-      <c r="D54" s="50">
+      <c r="D54" s="46">
         <v>15.02</v>
       </c>
     </row>
@@ -11324,7 +11859,7 @@
         <v>8</v>
       </c>
       <c r="C55" s="131"/>
-      <c r="D55" s="50">
+      <c r="D55" s="46">
         <v>13.4</v>
       </c>
     </row>
@@ -13704,7 +14239,7 @@
       <c r="H19" s="47">
         <v>67.2</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="50">
         <f t="shared" si="2"/>
         <v>68.9</v>
       </c>
@@ -14349,7 +14884,7 @@
       <c r="H40" s="47">
         <v>60.7</v>
       </c>
-      <c r="I40" s="52">
+      <c r="I40" s="50">
         <f t="shared" si="4"/>
         <v>62.775</v>
       </c>
@@ -15268,7 +15803,7 @@
         <f>AVERAGE(F2:M2)</f>
         <v>61.6125</v>
       </c>
-      <c r="O2" s="46">
+      <c r="O2" s="49">
         <f>N2-61.6</f>
         <v>0.0124999999999957</v>
       </c>
@@ -15319,7 +15854,7 @@
         <f>AVERAGE(F3:M3)</f>
         <v>58.975</v>
       </c>
-      <c r="O3" s="46">
+      <c r="O3" s="49">
         <f>N3-61.6</f>
         <v>-2.62500000000001</v>
       </c>
@@ -15364,7 +15899,7 @@
         <f>AVERAGE(F4:M4)</f>
         <v>55.35</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="49">
         <f>N4-61.6</f>
         <v>-6.25000000000001</v>
       </c>
@@ -15409,7 +15944,7 @@
         <f>AVERAGE(F5:M5)</f>
         <v>56.25</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="49">
         <f>N5-61.6</f>
         <v>-5.34999999999999</v>
       </c>
@@ -15666,7 +16201,7 @@
         <f>AVERAGE(F11:M11)</f>
         <v>56.35</v>
       </c>
-      <c r="O11" s="48">
+      <c r="O11" s="51">
         <f>N11-61.6</f>
         <v>-5.25</v>
       </c>
@@ -15694,7 +16229,7 @@
       <c r="N12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="O12" s="48" t="s">
+      <c r="O12" s="51" t="s">
         <v>80</v>
       </c>
       <c r="Q12" s="16"/>
@@ -15737,7 +16272,7 @@
         <f t="shared" ref="N13:N35" si="0">AVERAGE(F13:M13)</f>
         <v>54.6</v>
       </c>
-      <c r="O13" s="48">
+      <c r="O13" s="51">
         <f>N13-61.6</f>
         <v>-7.00000000000001</v>
       </c>
@@ -15779,7 +16314,7 @@
         <f t="shared" si="0"/>
         <v>69.1</v>
       </c>
-      <c r="O14" s="48" t="s">
+      <c r="O14" s="51" t="s">
         <v>80</v>
       </c>
       <c r="Q14" s="16"/>
@@ -15822,7 +16357,7 @@
         <f t="shared" si="0"/>
         <v>56.1</v>
       </c>
-      <c r="O15" s="48">
+      <c r="O15" s="51">
         <f t="shared" ref="O15:O21" si="1">N15-61.6</f>
         <v>-5.5</v>
       </c>
@@ -15867,7 +16402,7 @@
         <f t="shared" si="0"/>
         <v>56.95</v>
       </c>
-      <c r="O16" s="48">
+      <c r="O16" s="51">
         <f t="shared" si="1"/>
         <v>-4.65</v>
       </c>
@@ -15909,7 +16444,7 @@
         <f t="shared" si="0"/>
         <v>57.0875</v>
       </c>
-      <c r="O17" s="49">
+      <c r="O17" s="52">
         <f t="shared" si="1"/>
         <v>-4.51250000000001</v>
       </c>
@@ -15957,7 +16492,7 @@
         <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
-      <c r="O18" s="50">
+      <c r="O18" s="46">
         <f t="shared" si="1"/>
         <v>-7.1</v>
       </c>
@@ -16002,7 +16537,7 @@
         <f t="shared" si="0"/>
         <v>54.175</v>
       </c>
-      <c r="O19" s="50">
+      <c r="O19" s="46">
         <f t="shared" si="1"/>
         <v>-7.425</v>
       </c>
@@ -16044,7 +16579,7 @@
         <f t="shared" si="0"/>
         <v>54.9</v>
       </c>
-      <c r="O20" s="50">
+      <c r="O20" s="46">
         <f t="shared" si="1"/>
         <v>-6.7</v>
       </c>
@@ -16088,7 +16623,7 @@
         <f t="shared" si="0"/>
         <v>52.55</v>
       </c>
-      <c r="O21" s="50">
+      <c r="O21" s="46">
         <f t="shared" si="1"/>
         <v>-9.05</v>
       </c>
@@ -16130,7 +16665,7 @@
         <f t="shared" si="0"/>
         <v>65.95</v>
       </c>
-      <c r="O22" s="50" t="s">
+      <c r="O22" s="46" t="s">
         <v>80</v>
       </c>
       <c r="Q22" s="14"/>
@@ -16173,7 +16708,7 @@
         <f t="shared" si="0"/>
         <v>55.25</v>
       </c>
-      <c r="O23" s="50">
+      <c r="O23" s="46">
         <f t="shared" ref="O23:O35" si="2">N23-61.6</f>
         <v>-6.35000000000001</v>
       </c>
@@ -16218,7 +16753,7 @@
         <f t="shared" si="0"/>
         <v>52.85</v>
       </c>
-      <c r="O24" s="50">
+      <c r="O24" s="46">
         <f t="shared" si="2"/>
         <v>-8.75</v>
       </c>
@@ -16260,7 +16795,7 @@
         <f t="shared" si="0"/>
         <v>55.25</v>
       </c>
-      <c r="O25" s="50">
+      <c r="O25" s="46">
         <f t="shared" si="2"/>
         <v>-6.35</v>
       </c>
@@ -16302,7 +16837,7 @@
         <f t="shared" si="0"/>
         <v>55.6625</v>
       </c>
-      <c r="O26" s="51">
+      <c r="O26" s="48">
         <f t="shared" si="2"/>
         <v>-5.93750000000001</v>
       </c>
@@ -16350,7 +16885,7 @@
         <f t="shared" si="0"/>
         <v>51.8375</v>
       </c>
-      <c r="O27" s="48">
+      <c r="O27" s="51">
         <f t="shared" si="2"/>
         <v>-9.7625</v>
       </c>
@@ -16395,7 +16930,7 @@
         <f t="shared" si="0"/>
         <v>52.6125</v>
       </c>
-      <c r="O28" s="48">
+      <c r="O28" s="51">
         <f t="shared" si="2"/>
         <v>-8.9875</v>
       </c>
@@ -16439,7 +16974,7 @@
         <f t="shared" si="0"/>
         <v>50.0625</v>
       </c>
-      <c r="O29" s="48">
+      <c r="O29" s="51">
         <f t="shared" si="2"/>
         <v>-11.5375</v>
       </c>
@@ -16481,7 +17016,7 @@
         <f t="shared" si="0"/>
         <v>52.5375</v>
       </c>
-      <c r="O30" s="48">
+      <c r="O30" s="51">
         <f t="shared" si="2"/>
         <v>-9.0625</v>
       </c>
@@ -16525,7 +17060,7 @@
         <f t="shared" si="0"/>
         <v>51.9125</v>
       </c>
-      <c r="O31" s="48">
+      <c r="O31" s="51">
         <f t="shared" si="2"/>
         <v>-9.68750000000001</v>
       </c>
@@ -16570,7 +17105,7 @@
         <f t="shared" si="0"/>
         <v>52.125</v>
       </c>
-      <c r="O32" s="48">
+      <c r="O32" s="51">
         <f t="shared" si="2"/>
         <v>-9.475</v>
       </c>
@@ -16612,7 +17147,7 @@
         <f t="shared" si="0"/>
         <v>53.1875</v>
       </c>
-      <c r="O33" s="49">
+      <c r="O33" s="52">
         <f t="shared" si="2"/>
         <v>-8.4125</v>
       </c>
@@ -16660,7 +17195,7 @@
         <f t="shared" si="0"/>
         <v>48.1125</v>
       </c>
-      <c r="O34" s="50">
+      <c r="O34" s="46">
         <f t="shared" si="2"/>
         <v>-13.4875</v>
       </c>
@@ -16686,7 +17221,7 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="13"/>
-      <c r="O35" s="50"/>
+      <c r="O35" s="46"/>
       <c r="Q35" s="14"/>
     </row>
     <row r="36" s="35" customFormat="1" ht="17.6" spans="1:17">
@@ -16725,7 +17260,7 @@
         <f>AVERAGE(F36:M36)</f>
         <v>48.725</v>
       </c>
-      <c r="O36" s="50">
+      <c r="O36" s="46">
         <f>N36-61.6</f>
         <v>-12.875</v>
       </c>
@@ -16750,7 +17285,7 @@
       <c r="L37" s="40"/>
       <c r="M37" s="40"/>
       <c r="N37" s="13"/>
-      <c r="O37" s="50"/>
+      <c r="O37" s="46"/>
       <c r="Q37" s="14"/>
     </row>
     <row r="38" s="35" customFormat="1" ht="17.6" hidden="1" spans="1:17">
@@ -16770,7 +17305,7 @@
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="13"/>
-      <c r="O38" s="50"/>
+      <c r="O38" s="46"/>
       <c r="Q38" s="14"/>
     </row>
     <row r="39" s="35" customFormat="1" ht="17.6" spans="1:17">
@@ -16811,7 +17346,7 @@
         <f>AVERAGE(F39:M39)</f>
         <v>48.675</v>
       </c>
-      <c r="O39" s="50">
+      <c r="O39" s="46">
         <f>N39-61.6</f>
         <v>-12.925</v>
       </c>
@@ -16856,7 +17391,7 @@
         <f>AVERAGE(F40:M40)</f>
         <v>49.9625</v>
       </c>
-      <c r="O40" s="51">
+      <c r="O40" s="48">
         <f>N40-61.6</f>
         <v>-11.6375</v>
       </c>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="8980" tabRatio="872" firstSheet="17" activeTab="17"/>
+    <workbookView windowWidth="25600" windowHeight="8960" tabRatio="872" firstSheet="17" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="block_trimming" sheetId="9" r:id="rId14"/>
     <sheet name="shared" sheetId="20" r:id="rId15"/>
     <sheet name="shared_e1" sheetId="22" r:id="rId16"/>
-    <sheet name="shared_e6" sheetId="21" r:id="rId17"/>
-    <sheet name="shared_e6_shared_order" sheetId="23" r:id="rId18"/>
+    <sheet name="shared_e2" sheetId="23" r:id="rId17"/>
+    <sheet name="shared_e6" sheetId="21" r:id="rId18"/>
     <sheet name="shared_finetune" sheetId="15" r:id="rId19"/>
     <sheet name="greedy_greedy_old" sheetId="13" state="hidden" r:id="rId20"/>
     <sheet name="finetune" sheetId="12" r:id="rId21"/>
@@ -8511,7 +8511,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I7" sqref="B6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -8938,7 +8938,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -9065,32 +9065,32 @@
         <v>3</v>
       </c>
       <c r="B3" s="8">
-        <v>42.8</v>
+        <v>42.4</v>
       </c>
       <c r="C3" s="8">
-        <v>73.8</v>
+        <v>73.6</v>
       </c>
       <c r="D3" s="8">
-        <v>74.3</v>
+        <v>73.6</v>
       </c>
       <c r="E3" s="8">
-        <v>38</v>
+        <v>33.8</v>
       </c>
       <c r="F3" s="8">
-        <v>40.6</v>
+        <v>41.8</v>
       </c>
       <c r="G3" s="8">
-        <v>78.7</v>
+        <v>79.1</v>
       </c>
       <c r="H3" s="8">
-        <v>59.6</v>
+        <v>63.5</v>
       </c>
       <c r="I3" s="8">
-        <v>67.7</v>
+        <v>67.9</v>
       </c>
       <c r="J3" s="13">
         <f t="shared" si="0"/>
-        <v>59.4375</v>
+        <v>59.4625</v>
       </c>
       <c r="K3" s="23">
         <v>14714784320</v>
@@ -9181,32 +9181,32 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>36.6</v>
+        <v>35</v>
       </c>
       <c r="C5" s="8">
-        <v>65.1</v>
+        <v>70</v>
       </c>
       <c r="D5" s="8">
-        <v>64.7</v>
+        <v>59.1</v>
       </c>
       <c r="E5" s="8">
-        <v>29.6</v>
+        <v>27.3</v>
       </c>
       <c r="F5" s="8">
-        <v>38</v>
+        <v>35.8</v>
       </c>
       <c r="G5" s="8">
-        <v>74.9</v>
+        <v>72.9</v>
       </c>
       <c r="H5" s="8">
         <v>62.5</v>
       </c>
       <c r="I5" s="8">
-        <v>64.6</v>
+        <v>63.9</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="0"/>
-        <v>54.5</v>
+        <v>53.3125</v>
       </c>
       <c r="K5" s="23">
         <v>11392896704</v>
@@ -9239,32 +9239,32 @@
         <v>12</v>
       </c>
       <c r="B6" s="9">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="C6" s="9">
-        <v>64.1</v>
+        <v>69.9</v>
       </c>
       <c r="D6" s="9">
-        <v>58.5</v>
+        <v>54.5</v>
       </c>
       <c r="E6" s="9">
-        <v>28.3</v>
+        <v>27</v>
       </c>
       <c r="F6" s="9">
-        <v>36</v>
+        <v>34.6</v>
       </c>
       <c r="G6" s="9">
-        <v>70.3</v>
+        <v>70</v>
       </c>
       <c r="H6" s="9">
-        <v>62.1</v>
+        <v>57.8</v>
       </c>
       <c r="I6" s="9">
-        <v>62.4</v>
+        <v>61.3</v>
       </c>
       <c r="J6" s="15">
         <f t="shared" si="0"/>
-        <v>51.8375</v>
+        <v>50.975</v>
       </c>
       <c r="K6" s="24">
         <v>9731952896</v>
@@ -9361,11 +9361,15 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="A1:R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="10" max="10" width="13.7692307692308" customWidth="1"/>
+    <col min="11" max="11" width="14.4230769230769" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="17.6" spans="1:18">
       <c r="A1" t="s">
@@ -9486,32 +9490,32 @@
         <v>3</v>
       </c>
       <c r="B3" s="8">
-        <v>43.3</v>
+        <v>42.7</v>
       </c>
       <c r="C3" s="8">
-        <v>74</v>
+        <v>71.4</v>
       </c>
       <c r="D3" s="8">
-        <v>74.8</v>
+        <v>73</v>
       </c>
       <c r="E3" s="8">
-        <v>38</v>
+        <v>33.9</v>
       </c>
       <c r="F3" s="8">
-        <v>39.4</v>
+        <v>41.8</v>
       </c>
       <c r="G3" s="8">
-        <v>78.6</v>
+        <v>78.3</v>
       </c>
       <c r="H3" s="8">
-        <v>58.8</v>
+        <v>61.4</v>
       </c>
       <c r="I3" s="8">
         <v>68.8</v>
       </c>
       <c r="J3" s="13">
         <f t="shared" si="0"/>
-        <v>59.4625</v>
+        <v>58.9125</v>
       </c>
       <c r="K3" s="14">
         <v>14870497802</v>
@@ -9544,32 +9548,32 @@
         <v>6</v>
       </c>
       <c r="B4" s="9">
-        <v>38.4</v>
+        <v>38.1</v>
       </c>
       <c r="C4" s="9">
-        <v>73</v>
+        <v>71.8</v>
       </c>
       <c r="D4" s="9">
-        <v>66.5</v>
+        <v>67.3</v>
       </c>
       <c r="E4" s="9">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="F4" s="9">
-        <v>37.8</v>
+        <v>40.8</v>
       </c>
       <c r="G4" s="9">
-        <v>77.2</v>
+        <v>76.5</v>
       </c>
       <c r="H4" s="9">
-        <v>58.1</v>
+        <v>59.3</v>
       </c>
       <c r="I4" s="9">
-        <v>68.5</v>
+        <v>67.3</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" si="0"/>
-        <v>56.1</v>
+        <v>56.3125</v>
       </c>
       <c r="K4" s="16">
         <v>13365267476</v>
@@ -9602,32 +9606,32 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>36.4</v>
+        <v>35</v>
       </c>
       <c r="C5" s="8">
-        <v>70.3</v>
+        <v>70</v>
       </c>
       <c r="D5" s="8">
-        <v>63.1</v>
+        <v>59</v>
       </c>
       <c r="E5" s="8">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F5" s="8">
-        <v>37.4</v>
+        <v>35.8</v>
       </c>
       <c r="G5" s="8">
-        <v>75.2</v>
+        <v>72.9</v>
       </c>
       <c r="H5" s="8">
-        <v>64.6</v>
+        <v>62.5</v>
       </c>
       <c r="I5" s="8">
-        <v>67.2</v>
+        <v>63.9</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="0"/>
-        <v>55.25</v>
+        <v>53.3</v>
       </c>
       <c r="K5" s="14">
         <v>11860037150</v>
@@ -9660,32 +9664,32 @@
         <v>12</v>
       </c>
       <c r="B6" s="9">
-        <v>31.7</v>
+        <v>32.2</v>
       </c>
       <c r="C6" s="9">
-        <v>63.2</v>
+        <v>67.7</v>
       </c>
       <c r="D6" s="9">
-        <v>57.9</v>
+        <v>57.1</v>
       </c>
       <c r="E6" s="9">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="F6" s="9">
-        <v>34.8</v>
+        <v>34.1</v>
       </c>
       <c r="G6" s="9">
-        <v>71.6</v>
+        <v>70.5</v>
       </c>
       <c r="H6" s="9">
-        <v>66.8</v>
+        <v>57.7</v>
       </c>
       <c r="I6" s="9">
-        <v>63.2</v>
+        <v>59.1</v>
       </c>
       <c r="J6" s="15">
         <f t="shared" si="0"/>
-        <v>51.9125</v>
+        <v>50.6125</v>
       </c>
       <c r="K6" s="16">
         <v>10354806824</v>
@@ -9717,33 +9721,33 @@
       <c r="A7">
         <v>15</v>
       </c>
-      <c r="B7" s="8">
-        <v>31</v>
-      </c>
-      <c r="C7" s="8">
-        <v>62.3</v>
-      </c>
-      <c r="D7" s="8">
-        <v>53.2</v>
-      </c>
-      <c r="E7" s="8">
-        <v>24.3</v>
-      </c>
-      <c r="F7" s="8">
-        <v>33</v>
-      </c>
-      <c r="G7" s="8">
-        <v>68.2</v>
-      </c>
-      <c r="H7" s="8">
-        <v>57.4</v>
-      </c>
-      <c r="I7" s="8">
-        <v>60</v>
+      <c r="B7" s="28">
+        <v>29.1</v>
+      </c>
+      <c r="C7" s="28">
+        <v>66.1</v>
+      </c>
+      <c r="D7" s="28">
+        <v>53.1</v>
+      </c>
+      <c r="E7" s="28">
+        <v>25.6</v>
+      </c>
+      <c r="F7" s="28">
+        <v>31.5</v>
+      </c>
+      <c r="G7" s="28">
+        <v>66.7</v>
+      </c>
+      <c r="H7" s="28">
+        <v>56.1</v>
+      </c>
+      <c r="I7" s="28">
+        <v>56.6</v>
       </c>
       <c r="J7" s="13">
         <f t="shared" si="0"/>
-        <v>48.675</v>
+        <v>48.1</v>
       </c>
       <c r="K7" s="14">
         <v>8849576498</v>
@@ -9782,8 +9786,8 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="8720" tabRatio="872" firstSheet="14" activeTab="24"/>
+    <workbookView windowWidth="25600" windowHeight="8700" tabRatio="872" firstSheet="14" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12621,16 +12621,22 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="A1:R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="4" max="4" width="13.2980769230769" customWidth="1"/>
     <col min="9" max="9" width="14.0961538461538" customWidth="1"/>
+    <col min="11" max="11" width="14.8942307692308" customWidth="1"/>
+    <col min="12" max="12" width="13.2980769230769" customWidth="1"/>
+    <col min="13" max="13" width="12.0192307692308" customWidth="1"/>
+    <col min="14" max="14" width="7.36538461538461" customWidth="1"/>
+    <col min="15" max="15" width="20.6730769230769" customWidth="1"/>
+    <col min="16" max="16" width="13.4519230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.6" spans="1:18">
@@ -12689,7 +12695,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" ht="17.6" spans="1:18">
+    <row r="2" ht="17.6" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12717,33 +12723,15 @@
         <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
         <v>67.8833333333333</v>
       </c>
-      <c r="K2" s="10">
-        <v>16375728128</v>
-      </c>
-      <c r="L2" s="12">
-        <v>2828650496</v>
-      </c>
-      <c r="M2" s="10">
-        <v>31371</v>
-      </c>
-      <c r="N2" s="10">
-        <v>32571</v>
-      </c>
-      <c r="O2" s="10">
-        <v>0.4668</v>
-      </c>
-      <c r="P2" s="10">
-        <v>2.14</v>
-      </c>
-      <c r="Q2" s="19">
-        <f t="shared" ref="Q2:Q7" si="1">0.4884/O2</f>
-        <v>1.04627249357326</v>
-      </c>
-      <c r="R2">
-        <v>16.18</v>
-      </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:18">
+      <c r="K2" s="10"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" ht="17.6" spans="1:17">
       <c r="A3">
         <v>3</v>
       </c>
@@ -12771,198 +12759,225 @@
         <f t="shared" si="0"/>
         <v>65.4666666666667</v>
       </c>
-      <c r="K3" s="14">
-        <v>14714784320</v>
-      </c>
-      <c r="L3" s="12">
-        <v>2672936960</v>
-      </c>
-      <c r="M3" s="14">
-        <v>28203</v>
-      </c>
-      <c r="N3" s="17">
-        <v>29403</v>
-      </c>
-      <c r="O3" s="17">
-        <v>0.4094</v>
-      </c>
-      <c r="P3" s="17">
-        <v>2.44</v>
-      </c>
-      <c r="Q3" s="19">
-        <f t="shared" si="1"/>
-        <v>1.19296531509526</v>
-      </c>
-      <c r="R3">
-        <v>17.06</v>
-      </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:18">
+      <c r="K3" s="14"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" ht="17.6" spans="1:17">
       <c r="A4">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="6">
+        <v>55.4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>82.5</v>
+      </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="6">
+        <v>56.6</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45</v>
+      </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="15" t="e">
+      <c r="H4" s="6">
+        <v>67.5</v>
+      </c>
+      <c r="I4" s="6">
+        <v>74.2</v>
+      </c>
+      <c r="J4" s="15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="16">
-        <v>13053840512</v>
-      </c>
-      <c r="L4" s="12">
-        <v>2517223424</v>
-      </c>
-      <c r="M4" s="16">
-        <v>25035</v>
-      </c>
-      <c r="N4" s="18">
-        <v>26235</v>
-      </c>
-      <c r="O4" s="18">
-        <v>0.374</v>
-      </c>
-      <c r="P4" s="18">
-        <v>2.67</v>
-      </c>
-      <c r="Q4" s="19">
-        <f t="shared" si="1"/>
-        <v>1.30588235294118</v>
-      </c>
-      <c r="R4">
-        <v>18.48</v>
-      </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:18">
+        <v>63.5333333333333</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" ht="17.6" spans="1:17">
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="5">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5">
+        <v>82.6</v>
+      </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="5">
+        <v>53.4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>44.2</v>
+      </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="13" t="e">
+      <c r="H5" s="5">
+        <v>63.9</v>
+      </c>
+      <c r="I5" s="5">
+        <v>74.4</v>
+      </c>
+      <c r="J5" s="13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="14">
-        <v>11392896704</v>
-      </c>
-      <c r="L5" s="12">
-        <v>2361509888</v>
-      </c>
-      <c r="M5" s="14">
-        <v>21868</v>
-      </c>
-      <c r="N5" s="17">
-        <v>23068</v>
-      </c>
-      <c r="O5" s="17">
-        <v>0.3372</v>
-      </c>
-      <c r="P5" s="17">
-        <v>2.97</v>
-      </c>
-      <c r="Q5" s="19">
-        <f t="shared" si="1"/>
-        <v>1.44839857651246</v>
-      </c>
-      <c r="R5">
-        <v>20.37</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:18">
+        <v>61.75</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" ht="17.6" spans="1:17">
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="7">
+        <v>48.6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>83</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="7">
+        <v>49.2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>44.4</v>
+      </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="15" t="e">
+      <c r="H6" s="7">
+        <v>65.3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>72.9</v>
+      </c>
+      <c r="J6" s="15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="16">
-        <v>9731952896</v>
-      </c>
-      <c r="L6" s="12">
-        <v>2205796352</v>
-      </c>
-      <c r="M6" s="16">
-        <v>18700</v>
-      </c>
-      <c r="N6" s="18">
-        <v>19900</v>
-      </c>
-      <c r="O6" s="18">
-        <v>0.2955</v>
-      </c>
-      <c r="P6" s="18">
-        <v>3.38</v>
-      </c>
-      <c r="Q6" s="19">
-        <f t="shared" si="1"/>
-        <v>1.65279187817259</v>
-      </c>
-      <c r="R6">
-        <v>20.62</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:18">
+        <v>60.5666666666667</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" ht="17.6" spans="1:17">
       <c r="A7">
         <v>15</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="8">
+        <v>47.1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>82.2</v>
+      </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="8">
+        <v>43.5</v>
+      </c>
+      <c r="F7" s="8">
+        <v>41.6</v>
+      </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="13" t="e">
+      <c r="H7" s="8">
+        <v>61.7</v>
+      </c>
+      <c r="I7" s="8">
+        <v>73.7</v>
+      </c>
+      <c r="J7" s="13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="17">
-        <v>8071009088</v>
-      </c>
-      <c r="L7" s="12">
-        <v>2050082816</v>
-      </c>
-      <c r="M7" s="17">
-        <v>15532</v>
-      </c>
-      <c r="N7" s="17">
-        <v>16732</v>
-      </c>
-      <c r="O7" s="17">
-        <v>0.2535</v>
-      </c>
-      <c r="P7" s="17">
-        <v>3.94</v>
-      </c>
-      <c r="Q7" s="14">
-        <f t="shared" si="1"/>
-        <v>1.92662721893491</v>
-      </c>
-      <c r="R7">
-        <v>22.77</v>
+        <v>58.3</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="14"/>
+    </row>
+    <row r="8" ht="17.6" spans="1:10">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>42.5</v>
+      </c>
+      <c r="C8">
+        <v>77.7</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>41.4</v>
+      </c>
+      <c r="H8">
+        <v>56.3</v>
+      </c>
+      <c r="I8">
+        <v>69.3</v>
+      </c>
+      <c r="J8" s="13">
+        <f>AVERAGE(B8:I8)</f>
+        <v>52.8666666666667</v>
+      </c>
+    </row>
+    <row r="9" ht="17.6" spans="1:16">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>41.6</v>
+      </c>
+      <c r="C9">
+        <v>74.5</v>
+      </c>
+      <c r="E9">
+        <v>27.7</v>
+      </c>
+      <c r="F9">
+        <v>39.6</v>
+      </c>
+      <c r="H9">
+        <v>54.2</v>
+      </c>
+      <c r="I9">
+        <v>70.4</v>
+      </c>
+      <c r="J9" s="13">
+        <f>AVERAGE(B9:I9)</f>
+        <v>51.3333333333333</v>
+      </c>
+      <c r="K9">
+        <v>39304040574</v>
+      </c>
+      <c r="M9">
+        <v>45334</v>
+      </c>
+      <c r="N9">
+        <v>47239</v>
+      </c>
+      <c r="O9">
+        <v>0.7606</v>
+      </c>
+      <c r="P9">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
@@ -12976,11 +12991,14 @@
   <sheetPr/>
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="11" max="11" width="15.0576923076923" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="17.6" spans="1:18">
       <c r="A1" t="s">
@@ -13038,7 +13056,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" ht="17.6" spans="1:18">
+    <row r="2" ht="17.6" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13064,33 +13082,15 @@
         <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
         <v>67.5833333333333</v>
       </c>
-      <c r="K2" s="10">
-        <v>16375728128</v>
-      </c>
-      <c r="L2" s="12">
-        <v>2828650496</v>
-      </c>
-      <c r="M2" s="10">
-        <v>31371</v>
-      </c>
-      <c r="N2" s="10">
-        <v>32571</v>
-      </c>
-      <c r="O2" s="10">
-        <v>0.4668</v>
-      </c>
-      <c r="P2" s="10">
-        <v>2.14</v>
-      </c>
-      <c r="Q2" s="19">
-        <f t="shared" ref="Q2:Q7" si="1">0.4884/O2</f>
-        <v>1.04627249357326</v>
-      </c>
-      <c r="R2">
-        <v>16.18</v>
-      </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:18">
+      <c r="K2" s="10"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" ht="17.6" spans="1:17">
       <c r="A3">
         <v>3</v>
       </c>
@@ -13116,33 +13116,15 @@
         <f t="shared" si="0"/>
         <v>66.7166666666667</v>
       </c>
-      <c r="K3" s="14">
-        <v>14714784320</v>
-      </c>
-      <c r="L3" s="12">
-        <v>2672936960</v>
-      </c>
-      <c r="M3" s="14">
-        <v>28203</v>
-      </c>
-      <c r="N3" s="17">
-        <v>29403</v>
-      </c>
-      <c r="O3" s="17">
-        <v>0.4094</v>
-      </c>
-      <c r="P3" s="17">
-        <v>2.44</v>
-      </c>
-      <c r="Q3" s="19">
-        <f t="shared" si="1"/>
-        <v>1.19296531509526</v>
-      </c>
-      <c r="R3">
-        <v>17.06</v>
-      </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:18">
+      <c r="K3" s="14"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" ht="17.6" spans="1:17">
       <c r="A4">
         <v>6</v>
       </c>
@@ -13168,33 +13150,15 @@
         <f t="shared" si="0"/>
         <v>63.2333333333333</v>
       </c>
-      <c r="K4" s="16">
-        <v>13053840512</v>
-      </c>
-      <c r="L4" s="12">
-        <v>2517223424</v>
-      </c>
-      <c r="M4" s="16">
-        <v>25035</v>
-      </c>
-      <c r="N4" s="18">
-        <v>26235</v>
-      </c>
-      <c r="O4" s="18">
-        <v>0.374</v>
-      </c>
-      <c r="P4" s="18">
-        <v>2.67</v>
-      </c>
-      <c r="Q4" s="19">
-        <f t="shared" si="1"/>
-        <v>1.30588235294118</v>
-      </c>
-      <c r="R4">
-        <v>18.48</v>
-      </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:18">
+      <c r="K4" s="16"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" ht="17.6" spans="1:17">
       <c r="A5">
         <v>9</v>
       </c>
@@ -13220,33 +13184,15 @@
         <f t="shared" si="0"/>
         <v>57.4666666666667</v>
       </c>
-      <c r="K5" s="14">
-        <v>11392896704</v>
-      </c>
-      <c r="L5" s="12">
-        <v>2361509888</v>
-      </c>
-      <c r="M5" s="14">
-        <v>21868</v>
-      </c>
-      <c r="N5" s="17">
-        <v>23068</v>
-      </c>
-      <c r="O5" s="17">
-        <v>0.3372</v>
-      </c>
-      <c r="P5" s="17">
-        <v>2.97</v>
-      </c>
-      <c r="Q5" s="19">
-        <f t="shared" si="1"/>
-        <v>1.44839857651246</v>
-      </c>
-      <c r="R5">
-        <v>20.37</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:18">
+      <c r="K5" s="14"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" ht="17.6" spans="1:17">
       <c r="A6">
         <v>12</v>
       </c>
@@ -13272,33 +13218,15 @@
         <f t="shared" si="0"/>
         <v>45.4166666666667</v>
       </c>
-      <c r="K6" s="16">
-        <v>9731952896</v>
-      </c>
-      <c r="L6" s="12">
-        <v>2205796352</v>
-      </c>
-      <c r="M6" s="16">
-        <v>18700</v>
-      </c>
-      <c r="N6" s="18">
-        <v>19900</v>
-      </c>
-      <c r="O6" s="18">
-        <v>0.2955</v>
-      </c>
-      <c r="P6" s="18">
-        <v>3.38</v>
-      </c>
-      <c r="Q6" s="19">
-        <f t="shared" si="1"/>
-        <v>1.65279187817259</v>
-      </c>
-      <c r="R6">
-        <v>20.62</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:18">
+      <c r="K6" s="16"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" ht="17.6" spans="1:17">
       <c r="A7">
         <v>15</v>
       </c>
@@ -13324,31 +13252,13 @@
         <f t="shared" si="0"/>
         <v>38.7166666666667</v>
       </c>
-      <c r="K7" s="17">
-        <v>8071009088</v>
-      </c>
-      <c r="L7" s="12">
-        <v>2050082816</v>
-      </c>
-      <c r="M7" s="17">
-        <v>15532</v>
-      </c>
-      <c r="N7" s="17">
-        <v>16732</v>
-      </c>
-      <c r="O7" s="17">
-        <v>0.2535</v>
-      </c>
-      <c r="P7" s="17">
-        <v>3.94</v>
-      </c>
-      <c r="Q7" s="14">
-        <f t="shared" si="1"/>
-        <v>1.92662721893491</v>
-      </c>
-      <c r="R7">
-        <v>22.77</v>
-      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="14"/>
     </row>
     <row r="11" ht="17.6" spans="4:7">
       <c r="D11" s="4">

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="8700" tabRatio="872" firstSheet="14" activeTab="23"/>
+    <workbookView windowWidth="25600" windowHeight="8700" tabRatio="872" firstSheet="15" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,9 @@
     <sheet name="finetune" sheetId="12" r:id="rId21"/>
     <sheet name="greedy_block" sheetId="16" r:id="rId22"/>
     <sheet name="active_cmp" sheetId="18" r:id="rId23"/>
-    <sheet name="mixtral" sheetId="24" r:id="rId24"/>
-    <sheet name="mixtral_block" sheetId="25" r:id="rId25"/>
+    <sheet name="mixtral_e2" sheetId="24" r:id="rId24"/>
+    <sheet name="mixtral_e1" sheetId="26" r:id="rId25"/>
+    <sheet name="mixtral_block" sheetId="25" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="178">
   <si>
     <t>origin PPL</t>
   </si>
@@ -12623,8 +12624,8 @@
   <sheetPr/>
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R9" sqref="A1:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -12637,6 +12638,7 @@
     <col min="14" max="14" width="7.36538461538461" customWidth="1"/>
     <col min="15" max="15" width="20.6730769230769" customWidth="1"/>
     <col min="16" max="16" width="13.4519230769231" customWidth="1"/>
+    <col min="17" max="17" width="12.9230769230769"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.6" spans="1:18">
@@ -12722,6 +12724,457 @@
       <c r="J2" s="11">
         <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
         <v>67.8833333333333</v>
+      </c>
+      <c r="K2" s="10">
+        <v>46702792704</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="10">
+        <v>45334</v>
+      </c>
+      <c r="N2" s="10">
+        <v>47951</v>
+      </c>
+      <c r="O2" s="10">
+        <v>1.0751</v>
+      </c>
+      <c r="P2" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="Q2" s="19">
+        <f>P2/0.93</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:17">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>56.3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>83.9</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
+        <v>62.6</v>
+      </c>
+      <c r="F3" s="5">
+        <v>46.8</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5">
+        <v>66.8</v>
+      </c>
+      <c r="I3" s="5">
+        <v>76.4</v>
+      </c>
+      <c r="J3" s="13">
+        <f t="shared" si="0"/>
+        <v>65.4666666666667</v>
+      </c>
+      <c r="K3" s="14">
+        <v>43531898934</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="14">
+        <v>45334.7</v>
+      </c>
+      <c r="N3" s="17">
+        <v>48026</v>
+      </c>
+      <c r="O3" s="17">
+        <v>1.0204</v>
+      </c>
+      <c r="P3" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="Q3" s="19">
+        <f t="shared" ref="Q3:Q9" si="1">P3/0.93</f>
+        <v>1.05376344086022</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:17">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>55.4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>56.6</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
+        <v>67.5</v>
+      </c>
+      <c r="I4" s="6">
+        <v>74.2</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="0"/>
+        <v>63.5333333333333</v>
+      </c>
+      <c r="K4" s="16">
+        <v>40361005164</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="16">
+        <v>45334</v>
+      </c>
+      <c r="N4" s="18">
+        <v>47813</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0.9701</v>
+      </c>
+      <c r="P4" s="18">
+        <v>1.03</v>
+      </c>
+      <c r="Q4" s="19">
+        <f t="shared" si="1"/>
+        <v>1.10752688172043</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:17">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5">
+        <v>82.6</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>53.4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>44.2</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
+        <v>63.9</v>
+      </c>
+      <c r="I5" s="5">
+        <v>74.4</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" si="0"/>
+        <v>61.75</v>
+      </c>
+      <c r="K5" s="14">
+        <v>37190111394</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="16">
+        <v>45334</v>
+      </c>
+      <c r="N5" s="17">
+        <v>47534</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0.9127</v>
+      </c>
+      <c r="P5" s="17">
+        <v>1.1</v>
+      </c>
+      <c r="Q5" s="19">
+        <f t="shared" si="1"/>
+        <v>1.18279569892473</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:17">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7">
+        <v>48.6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <v>49.2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>44.4</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
+        <v>65.3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>72.9</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="0"/>
+        <v>60.5666666666667</v>
+      </c>
+      <c r="K6" s="16">
+        <v>34019217624</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="16">
+        <v>45334</v>
+      </c>
+      <c r="N6" s="18">
+        <v>47405</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0.8694</v>
+      </c>
+      <c r="P6" s="18">
+        <v>1.15</v>
+      </c>
+      <c r="Q6" s="19">
+        <f t="shared" si="1"/>
+        <v>1.23655913978495</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:17">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8">
+        <v>47.1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>82.2</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>43.5</v>
+      </c>
+      <c r="F7" s="8">
+        <v>41.6</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
+        <v>61.7</v>
+      </c>
+      <c r="I7" s="8">
+        <v>73.7</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>58.3</v>
+      </c>
+      <c r="K7" s="17">
+        <v>30848323854</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="17">
+        <v>45334</v>
+      </c>
+      <c r="N7" s="17">
+        <v>47220</v>
+      </c>
+      <c r="O7" s="17">
+        <v>0.8211</v>
+      </c>
+      <c r="P7" s="17">
+        <v>1.22</v>
+      </c>
+      <c r="Q7" s="19">
+        <f t="shared" si="1"/>
+        <v>1.31182795698925</v>
+      </c>
+    </row>
+    <row r="8" ht="17.6" spans="1:17">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>42.5</v>
+      </c>
+      <c r="C8">
+        <v>77.7</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>41.4</v>
+      </c>
+      <c r="H8">
+        <v>56.3</v>
+      </c>
+      <c r="I8">
+        <v>69.3</v>
+      </c>
+      <c r="J8" s="13">
+        <f>AVERAGE(B8:I8)</f>
+        <v>52.8666666666667</v>
+      </c>
+      <c r="K8">
+        <v>27677430084</v>
+      </c>
+      <c r="M8" s="17">
+        <v>45335</v>
+      </c>
+      <c r="N8">
+        <v>47187</v>
+      </c>
+      <c r="O8">
+        <v>0.7816</v>
+      </c>
+      <c r="P8">
+        <v>1.28</v>
+      </c>
+      <c r="Q8" s="19">
+        <f t="shared" si="1"/>
+        <v>1.37634408602151</v>
+      </c>
+    </row>
+    <row r="9" ht="17.6" spans="1:17">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>41.6</v>
+      </c>
+      <c r="C9">
+        <v>74.5</v>
+      </c>
+      <c r="E9">
+        <v>27.7</v>
+      </c>
+      <c r="F9">
+        <v>39.6</v>
+      </c>
+      <c r="H9">
+        <v>54.2</v>
+      </c>
+      <c r="I9">
+        <v>70.4</v>
+      </c>
+      <c r="J9" s="13">
+        <f>AVERAGE(B9:I9)</f>
+        <v>51.3333333333333</v>
+      </c>
+      <c r="K9">
+        <v>24506536314</v>
+      </c>
+      <c r="M9">
+        <v>45334</v>
+      </c>
+      <c r="N9">
+        <v>47240</v>
+      </c>
+      <c r="O9">
+        <v>0.7377</v>
+      </c>
+      <c r="P9">
+        <v>1.36</v>
+      </c>
+      <c r="Q9" s="19">
+        <f t="shared" si="1"/>
+        <v>1.46236559139785</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="11" max="11" width="17.2980769230769" customWidth="1"/>
+    <col min="12" max="12" width="9.93269230769231" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:18">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:17">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="11" t="e">
+        <f t="shared" ref="J2:J9" si="0">AVERAGE(B2:I2)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="12"/>
@@ -12735,29 +13188,17 @@
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
-        <v>56.3</v>
-      </c>
-      <c r="C3" s="5">
-        <v>83.9</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5">
-        <v>62.6</v>
-      </c>
-      <c r="F3" s="5">
-        <v>46.8</v>
-      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5">
-        <v>66.8</v>
-      </c>
-      <c r="I3" s="5">
-        <v>76.4</v>
-      </c>
-      <c r="J3" s="13">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>65.4666666666667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="12"/>
@@ -12771,29 +13212,17 @@
       <c r="A4">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
-        <v>55.4</v>
-      </c>
-      <c r="C4" s="6">
-        <v>82.5</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <v>56.6</v>
-      </c>
-      <c r="F4" s="6">
-        <v>45</v>
-      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6">
-        <v>67.5</v>
-      </c>
-      <c r="I4" s="6">
-        <v>74.2</v>
-      </c>
-      <c r="J4" s="15">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="15" t="e">
         <f t="shared" si="0"/>
-        <v>63.5333333333333</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="12"/>
@@ -12807,33 +13236,21 @@
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
-        <v>52</v>
-      </c>
-      <c r="C5" s="5">
-        <v>82.6</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5">
-        <v>53.4</v>
-      </c>
-      <c r="F5" s="5">
-        <v>44.2</v>
-      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5">
-        <v>63.9</v>
-      </c>
-      <c r="I5" s="5">
-        <v>74.4</v>
-      </c>
-      <c r="J5" s="13">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>61.75</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
+      <c r="M5" s="16"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
@@ -12843,29 +13260,17 @@
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="B6" s="7">
-        <v>48.6</v>
-      </c>
-      <c r="C6" s="7">
-        <v>83</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7">
-        <v>49.2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>44.4</v>
-      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7">
-        <v>65.3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>72.9</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="15" t="e">
         <f t="shared" si="0"/>
-        <v>60.5666666666667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="12"/>
@@ -12879,29 +13284,17 @@
       <c r="A7">
         <v>15</v>
       </c>
-      <c r="B7" s="8">
-        <v>47.1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>82.2</v>
-      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <v>43.5</v>
-      </c>
-      <c r="F7" s="8">
-        <v>41.6</v>
-      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8">
-        <v>61.7</v>
-      </c>
-      <c r="I7" s="8">
-        <v>73.7</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="13" t="e">
         <f t="shared" si="0"/>
-        <v>58.3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="12"/>
@@ -12909,76 +13302,35 @@
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" ht="17.6" spans="1:10">
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" ht="17.6" spans="1:17">
       <c r="A8">
         <v>18</v>
       </c>
-      <c r="B8">
-        <v>42.5</v>
-      </c>
-      <c r="C8">
-        <v>77.7</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>41.4</v>
-      </c>
-      <c r="H8">
-        <v>56.3</v>
-      </c>
-      <c r="I8">
-        <v>69.3</v>
-      </c>
-      <c r="J8" s="13">
-        <f>AVERAGE(B8:I8)</f>
-        <v>52.8666666666667</v>
-      </c>
-    </row>
-    <row r="9" ht="17.6" spans="1:16">
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="J8" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" ht="17.6" spans="1:17">
       <c r="A9">
         <v>21</v>
       </c>
-      <c r="B9">
-        <v>41.6</v>
-      </c>
-      <c r="C9">
-        <v>74.5</v>
-      </c>
-      <c r="E9">
-        <v>27.7</v>
-      </c>
-      <c r="F9">
-        <v>39.6</v>
-      </c>
-      <c r="H9">
-        <v>54.2</v>
-      </c>
-      <c r="I9">
-        <v>70.4</v>
-      </c>
-      <c r="J9" s="13">
-        <f>AVERAGE(B9:I9)</f>
-        <v>51.3333333333333</v>
-      </c>
-      <c r="K9">
-        <v>39304040574</v>
-      </c>
-      <c r="M9">
-        <v>45334</v>
-      </c>
-      <c r="N9">
-        <v>47239</v>
-      </c>
-      <c r="O9">
-        <v>0.7606</v>
-      </c>
-      <c r="P9">
-        <v>1.31</v>
-      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="J9" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12986,7 +13338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R16"/>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9100" tabRatio="872" firstSheet="18" activeTab="27"/>
+    <workbookView windowWidth="25600" windowHeight="9100" tabRatio="872" firstSheet="18" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12624,15 +12624,16 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="11" max="11" width="15.0576923076923" customWidth="1"/>
+    <col min="17" max="17" width="12.9230769230769"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.6" spans="1:18">
@@ -12717,13 +12718,26 @@
         <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
         <v>67.5833333333333</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="10">
+        <v>46702792704</v>
+      </c>
       <c r="L2" s="12"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="19"/>
+      <c r="M2" s="10">
+        <v>45334</v>
+      </c>
+      <c r="N2" s="10">
+        <v>47951</v>
+      </c>
+      <c r="O2" s="10">
+        <v>1.0751</v>
+      </c>
+      <c r="P2" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="Q2" s="19">
+        <f>P2/0.93</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" ht="17.6" spans="1:17">
       <c r="A3">
@@ -12751,13 +12765,26 @@
         <f t="shared" si="0"/>
         <v>66.7166666666667</v>
       </c>
-      <c r="K3" s="14"/>
+      <c r="K3" s="14">
+        <v>42348982272</v>
+      </c>
       <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="19"/>
+      <c r="M3" s="14">
+        <v>45334</v>
+      </c>
+      <c r="N3" s="17">
+        <v>42659</v>
+      </c>
+      <c r="O3" s="17">
+        <v>1.0515</v>
+      </c>
+      <c r="P3" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="Q3" s="19">
+        <f>P3/0.93</f>
+        <v>1.02150537634409</v>
+      </c>
     </row>
     <row r="4" ht="17.6" spans="1:17">
       <c r="A4">
@@ -12785,13 +12812,26 @@
         <f t="shared" si="0"/>
         <v>63.2333333333333</v>
       </c>
-      <c r="K4" s="16"/>
+      <c r="K4" s="16">
+        <v>37995171840</v>
+      </c>
       <c r="L4" s="12"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="19"/>
+      <c r="M4" s="16">
+        <v>45334</v>
+      </c>
+      <c r="N4" s="18">
+        <v>37993</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0.8639</v>
+      </c>
+      <c r="P4" s="18">
+        <v>1.16</v>
+      </c>
+      <c r="Q4" s="19">
+        <f>P4/0.93</f>
+        <v>1.24731182795699</v>
+      </c>
     </row>
     <row r="5" ht="17.6" spans="1:17">
       <c r="A5">
@@ -12819,13 +12859,26 @@
         <f t="shared" si="0"/>
         <v>57.4666666666667</v>
       </c>
-      <c r="K5" s="14"/>
+      <c r="K5" s="14">
+        <v>33641361408</v>
+      </c>
       <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="19"/>
+      <c r="M5" s="16">
+        <v>45334</v>
+      </c>
+      <c r="N5" s="17">
+        <v>33557</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0.7652</v>
+      </c>
+      <c r="P5" s="17">
+        <v>1.31</v>
+      </c>
+      <c r="Q5" s="19">
+        <f>P5/0.93</f>
+        <v>1.40860215053763</v>
+      </c>
     </row>
     <row r="6" ht="17.6" spans="1:17">
       <c r="A6">
@@ -12853,13 +12906,26 @@
         <f t="shared" si="0"/>
         <v>45.4166666666667</v>
       </c>
-      <c r="K6" s="16"/>
+      <c r="K6" s="16">
+        <v>29287550976</v>
+      </c>
       <c r="L6" s="12"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="19"/>
+      <c r="M6" s="16">
+        <v>45334</v>
+      </c>
+      <c r="N6" s="18">
+        <v>29183</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0.616</v>
+      </c>
+      <c r="P6" s="18">
+        <v>1.62</v>
+      </c>
+      <c r="Q6" s="19">
+        <f>P6/0.93</f>
+        <v>1.74193548387097</v>
+      </c>
     </row>
     <row r="7" ht="17.6" spans="1:17">
       <c r="A7">
@@ -12887,13 +12953,36 @@
         <f t="shared" si="0"/>
         <v>38.7166666666667</v>
       </c>
-      <c r="K7" s="17"/>
+      <c r="K7" s="17">
+        <v>24933740544</v>
+      </c>
       <c r="L7" s="12"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="14"/>
+      <c r="M7" s="17">
+        <v>45334</v>
+      </c>
+      <c r="N7" s="17">
+        <v>24838</v>
+      </c>
+      <c r="O7" s="17">
+        <v>0.504</v>
+      </c>
+      <c r="P7" s="17">
+        <v>1.98</v>
+      </c>
+      <c r="Q7" s="19">
+        <f>P7/0.93</f>
+        <v>2.12903225806452</v>
+      </c>
+    </row>
+    <row r="8" spans="13:13">
+      <c r="M8" s="17">
+        <v>45335</v>
+      </c>
+    </row>
+    <row r="9" spans="13:13">
+      <c r="M9">
+        <v>45334</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13061,7 +13150,7 @@
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="14">
-        <v>45334.7</v>
+        <v>45334</v>
       </c>
       <c r="N3" s="17">
         <v>48026</v>
@@ -13377,7 +13466,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L6" sqref="L6:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -14113,7 +14202,7 @@
   <sheetPr/>
   <dimension ref="D2:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9060" tabRatio="872" firstSheet="18" activeTab="25"/>
+    <workbookView windowWidth="25600" windowHeight="9060" tabRatio="872" firstSheet="18" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12629,8 +12629,8 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -12736,16 +12736,9 @@
       <c r="N2" s="9">
         <v>47951</v>
       </c>
-      <c r="O2" s="9">
-        <v>1.0751</v>
-      </c>
-      <c r="P2" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="Q2" s="18">
-        <f t="shared" ref="Q2:Q7" si="1">P2/0.93</f>
-        <v>1</v>
-      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" ht="17.6" spans="1:17">
       <c r="A3">
@@ -12780,24 +12773,24 @@
         <v>70.4875</v>
       </c>
       <c r="K3" s="13">
-        <v>42348982272</v>
+        <v>42474934344</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="13">
         <v>45334</v>
       </c>
       <c r="N3" s="16">
-        <v>42659</v>
+        <v>47603</v>
       </c>
       <c r="O3" s="16">
-        <v>1.0515</v>
+        <v>1.2839</v>
       </c>
       <c r="P3" s="16">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="Q3" s="18">
-        <f t="shared" si="1"/>
-        <v>1.02150537634409</v>
+        <f t="shared" ref="Q2:Q7" si="1">P3/0.93</f>
+        <v>0.838709677419355</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:17">
@@ -12833,7 +12826,7 @@
         <v>68.425</v>
       </c>
       <c r="K4" s="15">
-        <v>37995171840</v>
+        <v>38247075984</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="15">
@@ -12843,14 +12836,14 @@
         <v>37993</v>
       </c>
       <c r="O4" s="17">
-        <v>0.8639</v>
+        <v>1.0457</v>
       </c>
       <c r="P4" s="17">
-        <v>1.16</v>
+        <v>0.96</v>
       </c>
       <c r="Q4" s="18">
         <f t="shared" si="1"/>
-        <v>1.24731182795699</v>
+        <v>1.03225806451613</v>
       </c>
     </row>
     <row r="5" ht="17.6" spans="1:17">
@@ -12886,7 +12879,7 @@
         <v>65.175</v>
       </c>
       <c r="K5" s="13">
-        <v>33641361408</v>
+        <v>34019217624</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="15">
@@ -12896,14 +12889,14 @@
         <v>33557</v>
       </c>
       <c r="O5" s="16">
-        <v>0.7652</v>
+        <v>0.9514</v>
       </c>
       <c r="P5" s="16">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="Q5" s="18">
         <f t="shared" si="1"/>
-        <v>1.40860215053763</v>
+        <v>1.12903225806452</v>
       </c>
     </row>
     <row r="6" ht="17.6" spans="1:17">
@@ -12939,7 +12932,7 @@
         <v>60.3625</v>
       </c>
       <c r="K6" s="15">
-        <v>29287550976</v>
+        <v>29791359264</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="15">
@@ -12949,14 +12942,14 @@
         <v>29183</v>
       </c>
       <c r="O6" s="17">
-        <v>0.616</v>
+        <v>0.9419</v>
       </c>
       <c r="P6" s="17">
-        <v>1.62</v>
+        <v>1.06</v>
       </c>
       <c r="Q6" s="18">
         <f t="shared" si="1"/>
-        <v>1.74193548387097</v>
+        <v>1.13978494623656</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:17">
@@ -12992,7 +12985,7 @@
         <v>49.075</v>
       </c>
       <c r="K7" s="16">
-        <v>24933740544</v>
+        <v>25563500904</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="16">
@@ -13002,14 +12995,14 @@
         <v>24838</v>
       </c>
       <c r="O7" s="16">
-        <v>0.504</v>
+        <v>0.7864</v>
       </c>
       <c r="P7" s="16">
-        <v>1.98</v>
+        <v>1.27</v>
       </c>
       <c r="Q7" s="18">
         <f t="shared" si="1"/>
-        <v>2.12903225806452</v>
+        <v>1.36559139784946</v>
       </c>
     </row>
   </sheetData>
@@ -13421,7 +13414,7 @@
   <sheetPr/>
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9060" tabRatio="872" firstSheet="18" activeTab="23"/>
+    <workbookView windowWidth="25600" windowHeight="9060" tabRatio="872" firstSheet="18" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12627,15 +12627,16 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
     <col min="11" max="11" width="12.9807692307692" customWidth="1"/>
+    <col min="17" max="17" width="12.9230769230769"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.6" spans="1:18">
@@ -12694,7 +12695,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" ht="17.6" spans="1:17">
+    <row r="2" ht="17.6" spans="1:20">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12704,18 +12705,12 @@
       <c r="C2" s="4">
         <v>85.4</v>
       </c>
-      <c r="D2" s="4">
-        <v>83.9</v>
-      </c>
       <c r="E2" s="4">
         <v>67.8</v>
       </c>
       <c r="F2" s="4">
         <v>46.8</v>
       </c>
-      <c r="G2" s="4">
-        <v>83.9</v>
-      </c>
       <c r="H2" s="4">
         <v>70.8</v>
       </c>
@@ -12724,7 +12719,7 @@
       </c>
       <c r="J2" s="10">
         <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
-        <v>71.7625</v>
+        <v>67.7166666666667</v>
       </c>
       <c r="K2" s="9">
         <v>46702792704</v>
@@ -12736,11 +12731,24 @@
       <c r="N2" s="9">
         <v>47951</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="18"/>
-    </row>
-    <row r="3" ht="17.6" spans="1:17">
+      <c r="O2" s="9">
+        <v>1.3534</v>
+      </c>
+      <c r="P2" s="9">
+        <v>0.74</v>
+      </c>
+      <c r="Q2" s="18">
+        <f>P2/0.74</f>
+        <v>1</v>
+      </c>
+      <c r="S2" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="T2" s="4">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:20">
       <c r="A3">
         <v>3</v>
       </c>
@@ -12750,18 +12758,12 @@
       <c r="C3" s="5">
         <v>85.3</v>
       </c>
-      <c r="D3">
-        <v>82.2</v>
-      </c>
       <c r="E3" s="5">
         <v>67.7</v>
       </c>
       <c r="F3" s="5">
         <v>44.6</v>
       </c>
-      <c r="G3">
-        <v>81.9</v>
-      </c>
       <c r="H3" s="5">
         <v>70.4</v>
       </c>
@@ -12770,7 +12772,7 @@
       </c>
       <c r="J3" s="12">
         <f t="shared" si="0"/>
-        <v>70.4875</v>
+        <v>66.6333333333333</v>
       </c>
       <c r="K3" s="13">
         <v>42474934344</v>
@@ -12789,11 +12791,17 @@
         <v>0.78</v>
       </c>
       <c r="Q3" s="18">
-        <f t="shared" ref="Q2:Q7" si="1">P3/0.93</f>
-        <v>0.838709677419355</v>
-      </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:17">
+        <f>P3/0.74</f>
+        <v>1.05405405405405</v>
+      </c>
+      <c r="S3">
+        <v>82.2</v>
+      </c>
+      <c r="T3">
+        <v>81.9</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:20">
       <c r="A4">
         <v>6</v>
       </c>
@@ -12803,18 +12811,12 @@
       <c r="C4" s="6">
         <v>85.4</v>
       </c>
-      <c r="D4">
-        <v>78.2</v>
-      </c>
       <c r="E4" s="6">
         <v>68</v>
       </c>
       <c r="F4" s="6">
         <v>41.4</v>
       </c>
-      <c r="G4">
-        <v>78.6</v>
-      </c>
       <c r="H4" s="6">
         <v>69.9</v>
       </c>
@@ -12823,7 +12825,7 @@
       </c>
       <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>68.425</v>
+        <v>65.1</v>
       </c>
       <c r="K4" s="15">
         <v>38247075984</v>
@@ -12842,11 +12844,17 @@
         <v>0.96</v>
       </c>
       <c r="Q4" s="18">
-        <f t="shared" si="1"/>
-        <v>1.03225806451613</v>
-      </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:17">
+        <f>P4/0.74</f>
+        <v>1.2972972972973</v>
+      </c>
+      <c r="S4">
+        <v>78.2</v>
+      </c>
+      <c r="T4">
+        <v>78.6</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:20">
       <c r="A5">
         <v>9</v>
       </c>
@@ -12856,18 +12864,12 @@
       <c r="C5" s="5">
         <v>83.3</v>
       </c>
-      <c r="D5">
-        <v>74.8</v>
-      </c>
       <c r="E5" s="5">
         <v>64.4</v>
       </c>
       <c r="F5" s="5">
         <v>37</v>
       </c>
-      <c r="G5">
-        <v>75.9</v>
-      </c>
       <c r="H5" s="5">
         <v>65.3</v>
       </c>
@@ -12876,7 +12878,7 @@
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>65.175</v>
+        <v>61.7833333333333</v>
       </c>
       <c r="K5" s="13">
         <v>34019217624</v>
@@ -12895,11 +12897,17 @@
         <v>1.05</v>
       </c>
       <c r="Q5" s="18">
-        <f t="shared" si="1"/>
-        <v>1.12903225806452</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:17">
+        <f>P5/0.74</f>
+        <v>1.41891891891892</v>
+      </c>
+      <c r="S5">
+        <v>74.8</v>
+      </c>
+      <c r="T5">
+        <v>75.9</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:20">
       <c r="A6">
         <v>12</v>
       </c>
@@ -12909,18 +12917,12 @@
       <c r="C6" s="7">
         <v>79.4</v>
       </c>
-      <c r="D6">
-        <v>68.5</v>
-      </c>
       <c r="E6" s="7">
         <v>54.8</v>
       </c>
       <c r="F6" s="7">
         <v>38.6</v>
       </c>
-      <c r="G6">
-        <v>71.7</v>
-      </c>
       <c r="H6" s="7">
         <v>62.1</v>
       </c>
@@ -12929,7 +12931,7 @@
       </c>
       <c r="J6" s="14">
         <f t="shared" si="0"/>
-        <v>60.3625</v>
+        <v>57.1166666666667</v>
       </c>
       <c r="K6" s="15">
         <v>29791359264</v>
@@ -12942,17 +12944,23 @@
         <v>29183</v>
       </c>
       <c r="O6" s="17">
-        <v>0.9419</v>
+        <v>0.8335</v>
       </c>
       <c r="P6" s="17">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="Q6" s="18">
-        <f t="shared" si="1"/>
-        <v>1.13978494623656</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:17">
+        <f>P6/0.74</f>
+        <v>1.62162162162162</v>
+      </c>
+      <c r="S6">
+        <v>68.5</v>
+      </c>
+      <c r="T6">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:20">
       <c r="A7">
         <v>15</v>
       </c>
@@ -12962,18 +12970,12 @@
       <c r="C7" s="8">
         <v>55.2</v>
       </c>
-      <c r="D7">
-        <v>58.8</v>
-      </c>
       <c r="E7" s="8">
         <v>26.4</v>
       </c>
       <c r="F7" s="8">
         <v>32.3</v>
       </c>
-      <c r="G7">
-        <v>67.8</v>
-      </c>
       <c r="H7" s="8">
         <v>54.2</v>
       </c>
@@ -12982,7 +12984,7 @@
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>49.075</v>
+        <v>44.3333333333333</v>
       </c>
       <c r="K7" s="16">
         <v>25563500904</v>
@@ -13001,8 +13003,14 @@
         <v>1.27</v>
       </c>
       <c r="Q7" s="18">
-        <f t="shared" si="1"/>
-        <v>1.36559139784946</v>
+        <f>P7/0.74</f>
+        <v>1.71621621621622</v>
+      </c>
+      <c r="S7">
+        <v>58.8</v>
+      </c>
+      <c r="T7">
+        <v>67.8</v>
       </c>
     </row>
   </sheetData>
@@ -13014,10 +13022,10 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7"/>
@@ -13082,7 +13090,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" ht="17.6" spans="1:17">
+    <row r="2" ht="17.6" spans="1:20">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13092,18 +13100,12 @@
       <c r="C2" s="4">
         <v>85.4</v>
       </c>
-      <c r="D2" s="4">
-        <v>83.9</v>
-      </c>
       <c r="E2" s="4">
         <v>67.8</v>
       </c>
       <c r="F2" s="4">
         <v>46.8</v>
       </c>
-      <c r="G2" s="4">
-        <v>83.9</v>
-      </c>
       <c r="H2" s="4">
         <v>70.8</v>
       </c>
@@ -13112,7 +13114,7 @@
       </c>
       <c r="J2" s="10">
         <f>AVERAGE(B2:I2)</f>
-        <v>71.7625</v>
+        <v>67.7166666666667</v>
       </c>
       <c r="K2" s="9">
         <v>46702792704</v>
@@ -13134,8 +13136,14 @@
         <f>P2/0.93</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:17">
+      <c r="S2" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="T2" s="4">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:20">
       <c r="A3">
         <v>3</v>
       </c>
@@ -13145,18 +13153,12 @@
       <c r="C3" s="5">
         <v>85.7</v>
       </c>
-      <c r="D3" s="19">
-        <v>81.4</v>
-      </c>
       <c r="E3" s="5">
         <v>67.6</v>
       </c>
       <c r="F3" s="5">
         <v>44.5</v>
       </c>
-      <c r="G3" s="5">
-        <v>81.9</v>
-      </c>
       <c r="H3" s="5">
         <v>70.4</v>
       </c>
@@ -13165,7 +13167,7 @@
       </c>
       <c r="J3" s="12">
         <f>AVERAGE(B3:I3)</f>
-        <v>70.45</v>
+        <v>66.7166666666667</v>
       </c>
       <c r="K3" s="13">
         <v>42348982272</v>
@@ -13187,8 +13189,14 @@
         <f>P3/0.93</f>
         <v>1.02150537634409</v>
       </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:17">
+      <c r="S3" s="19">
+        <v>81.4</v>
+      </c>
+      <c r="T3" s="5">
+        <v>81.9</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:20">
       <c r="A4">
         <v>6</v>
       </c>
@@ -13198,18 +13206,12 @@
       <c r="C4" s="6">
         <v>84.7</v>
       </c>
-      <c r="D4" s="6">
-        <v>72</v>
-      </c>
       <c r="E4" s="6">
         <v>67.3</v>
       </c>
       <c r="F4" s="6">
         <v>40.4</v>
       </c>
-      <c r="G4" s="6">
-        <v>76.6</v>
-      </c>
       <c r="H4" s="6">
         <v>66.4</v>
       </c>
@@ -13218,7 +13220,7 @@
       </c>
       <c r="J4" s="14">
         <f>AVERAGE(B4:I4)</f>
-        <v>66</v>
+        <v>63.2333333333333</v>
       </c>
       <c r="K4" s="15">
         <v>37995171840</v>
@@ -13240,8 +13242,14 @@
         <f>P4/0.93</f>
         <v>1.24731182795699</v>
       </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:17">
+      <c r="S4" s="6">
+        <v>72</v>
+      </c>
+      <c r="T4" s="6">
+        <v>76.6</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:20">
       <c r="A5">
         <v>9</v>
       </c>
@@ -13251,18 +13259,12 @@
       <c r="C5" s="5">
         <v>79.2</v>
       </c>
-      <c r="D5" s="5">
-        <v>51.4</v>
-      </c>
       <c r="E5" s="5">
         <v>61.2</v>
       </c>
       <c r="F5" s="5">
         <v>35.6</v>
       </c>
-      <c r="G5" s="5">
-        <v>69.4</v>
-      </c>
       <c r="H5" s="5">
         <v>65.3</v>
       </c>
@@ -13271,7 +13273,7 @@
       </c>
       <c r="J5" s="12">
         <f>AVERAGE(B5:I5)</f>
-        <v>58.2</v>
+        <v>57.4666666666667</v>
       </c>
       <c r="K5" s="13">
         <v>33641361408</v>
@@ -13293,8 +13295,14 @@
         <f>P5/0.93</f>
         <v>1.40860215053763</v>
       </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:17">
+      <c r="S5" s="5">
+        <v>51.4</v>
+      </c>
+      <c r="T5" s="5">
+        <v>69.4</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:20">
       <c r="A6">
         <v>12</v>
       </c>
@@ -13304,18 +13312,12 @@
       <c r="C6" s="7">
         <v>61.9</v>
       </c>
-      <c r="D6" s="7">
-        <v>44.3</v>
-      </c>
       <c r="E6" s="7">
         <v>31.4</v>
       </c>
       <c r="F6" s="7">
         <v>31.5</v>
       </c>
-      <c r="G6" s="7">
-        <v>67.5</v>
-      </c>
       <c r="H6" s="7">
         <v>54.5</v>
       </c>
@@ -13324,7 +13326,7 @@
       </c>
       <c r="J6" s="14">
         <f>AVERAGE(B6:I6)</f>
-        <v>48.0375</v>
+        <v>45.4166666666667</v>
       </c>
       <c r="K6" s="15">
         <v>29287550976</v>
@@ -13346,8 +13348,14 @@
         <f>P6/0.93</f>
         <v>1.74193548387097</v>
       </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:17">
+      <c r="S6" s="7">
+        <v>44.3</v>
+      </c>
+      <c r="T6" s="7">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:20">
       <c r="A7">
         <v>15</v>
       </c>
@@ -13357,18 +13365,12 @@
       <c r="C7" s="8">
         <v>54.3</v>
       </c>
-      <c r="D7" s="8">
-        <v>38.5</v>
-      </c>
       <c r="E7" s="8">
         <v>23.1</v>
       </c>
       <c r="F7" s="8">
         <v>28.7</v>
       </c>
-      <c r="G7" s="8">
-        <v>56.7</v>
-      </c>
       <c r="H7" s="8">
         <v>48.4</v>
       </c>
@@ -13377,7 +13379,7 @@
       </c>
       <c r="J7" s="12">
         <f>AVERAGE(B7:I7)</f>
-        <v>40.9375</v>
+        <v>38.7166666666667</v>
       </c>
       <c r="K7" s="16">
         <v>24933740544</v>
@@ -13398,6 +13400,12 @@
       <c r="Q7" s="18">
         <f>P7/0.93</f>
         <v>2.12903225806452</v>
+      </c>
+      <c r="S7" s="8">
+        <v>38.5</v>
+      </c>
+      <c r="T7" s="8">
+        <v>56.7</v>
       </c>
     </row>
     <row r="8" spans="13:13">
@@ -13415,7 +13423,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -13497,18 +13505,14 @@
       <c r="C2" s="4">
         <v>85.4</v>
       </c>
-      <c r="D2" s="4">
-        <v>83.9</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4">
         <v>67.8</v>
       </c>
       <c r="F2" s="4">
         <v>46.8</v>
       </c>
-      <c r="G2" s="4">
-        <v>83.9</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4">
         <v>70.8</v>
       </c>
@@ -13517,7 +13521,7 @@
       </c>
       <c r="J2" s="10">
         <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
-        <v>71.7625</v>
+        <v>67.7166666666667</v>
       </c>
       <c r="K2" s="9">
         <v>46702792704</v>
@@ -13889,7 +13893,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -13968,18 +13972,14 @@
       <c r="C2" s="4">
         <v>85.4</v>
       </c>
-      <c r="D2" s="4">
-        <v>83.9</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4">
         <v>67.8</v>
       </c>
       <c r="F2" s="4">
         <v>46.8</v>
       </c>
-      <c r="G2" s="4">
-        <v>83.9</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4">
         <v>70.8</v>
       </c>
@@ -13988,7 +13988,7 @@
       </c>
       <c r="J2" s="10">
         <f t="shared" ref="J2:J10" si="0">AVERAGE(B2:I2)</f>
-        <v>71.7625</v>
+        <v>67.7166666666667</v>
       </c>
       <c r="K2" s="9">
         <v>46702792704</v>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9060" tabRatio="872" firstSheet="18" activeTab="24"/>
+    <workbookView windowWidth="25600" windowHeight="9060" tabRatio="872" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,17 @@
     <sheet name="shared_e1" sheetId="22" r:id="rId16"/>
     <sheet name="shared_e2" sheetId="23" r:id="rId17"/>
     <sheet name="shared_e6" sheetId="21" r:id="rId18"/>
-    <sheet name="shared_finetune" sheetId="15" r:id="rId19"/>
-    <sheet name="greedy_greedy_old" sheetId="13" state="hidden" r:id="rId20"/>
-    <sheet name="finetune" sheetId="12" r:id="rId21"/>
-    <sheet name="greedy_block" sheetId="16" r:id="rId22"/>
-    <sheet name="active_cmp" sheetId="18" r:id="rId23"/>
-    <sheet name="mixtral_layer_trim" sheetId="29" r:id="rId24"/>
-    <sheet name="mixtral_block" sheetId="25" r:id="rId25"/>
-    <sheet name="mixtral_e2" sheetId="24" r:id="rId26"/>
-    <sheet name="mixtral_e1" sheetId="26" r:id="rId27"/>
-    <sheet name="mixtral_tmp" sheetId="28" r:id="rId28"/>
+    <sheet name="shared_e6_v2" sheetId="30" r:id="rId19"/>
+    <sheet name="shared_finetune" sheetId="15" r:id="rId20"/>
+    <sheet name="greedy_greedy_old" sheetId="13" state="hidden" r:id="rId21"/>
+    <sheet name="finetune" sheetId="12" r:id="rId22"/>
+    <sheet name="greedy_block" sheetId="16" r:id="rId23"/>
+    <sheet name="active_cmp" sheetId="18" r:id="rId24"/>
+    <sheet name="mixtral_layer_trim" sheetId="29" r:id="rId25"/>
+    <sheet name="mixtral_block" sheetId="25" r:id="rId26"/>
+    <sheet name="mixtral_e2" sheetId="24" r:id="rId27"/>
+    <sheet name="mixtral_e1" sheetId="26" r:id="rId28"/>
+    <sheet name="mixtral_tmp" sheetId="28" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="178">
   <si>
     <t>origin PPL</t>
   </si>
@@ -8946,7 +8947,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -9795,7 +9796,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -10218,17 +10219,11 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
-  <cols>
-    <col min="11" max="11" width="16.1826923076923" customWidth="1"/>
-    <col min="12" max="12" width="14.4134615384615" customWidth="1"/>
-    <col min="15" max="15" width="12.0192307692308" customWidth="1"/>
-    <col min="16" max="16" width="14.0961538461538" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" ht="17.6" spans="1:18">
       <c r="A1" t="s">
@@ -10261,25 +10256,25 @@
       <c r="J1" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="L1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="27" t="s">
         <v>136</v>
       </c>
       <c r="R1" t="s">
@@ -10318,16 +10313,16 @@
         <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
         <v>61.6125</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="23">
         <v>16375728128</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="24">
         <v>2828650496</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="23">
         <v>31371</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="23">
         <v>32571</v>
       </c>
       <c r="O2" s="9">
@@ -10336,7 +10331,7 @@
       <c r="P2" s="9">
         <v>2.14</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="27">
         <f t="shared" ref="Q2:Q7" si="1">0.4884/O2</f>
         <v>1.04627249357326</v>
       </c>
@@ -10349,115 +10344,115 @@
         <v>3</v>
       </c>
       <c r="B3" s="5">
-        <v>45.1</v>
+        <v>43.2</v>
       </c>
       <c r="C3" s="5">
-        <v>73.8</v>
+        <v>73.9</v>
       </c>
       <c r="D3" s="5">
-        <v>74.2</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5">
-        <v>32.6</v>
+        <v>35.4</v>
       </c>
       <c r="F3" s="5">
-        <v>42.4</v>
+        <v>41.2</v>
       </c>
       <c r="G3" s="5">
-        <v>79</v>
+        <v>78.2</v>
       </c>
       <c r="H3" s="5">
-        <v>60.1</v>
+        <v>61.7</v>
       </c>
       <c r="I3" s="5">
-        <v>68.5</v>
+        <v>69.5</v>
       </c>
       <c r="J3" s="12">
         <f t="shared" si="0"/>
-        <v>59.4625</v>
-      </c>
-      <c r="K3" s="13">
-        <v>14714784320</v>
-      </c>
-      <c r="L3" s="11">
-        <v>2672936960</v>
-      </c>
-      <c r="M3" s="13">
-        <v>28203</v>
-      </c>
-      <c r="N3" s="16">
-        <v>29403</v>
-      </c>
-      <c r="O3" s="16">
-        <v>0.4094</v>
-      </c>
-      <c r="P3" s="16">
-        <v>2.44</v>
-      </c>
-      <c r="Q3" s="18">
+        <v>59.5125</v>
+      </c>
+      <c r="K3" s="25">
+        <v>14870497802</v>
+      </c>
+      <c r="L3" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="M3" s="25">
+        <v>28500</v>
+      </c>
+      <c r="N3" s="25">
+        <v>29700</v>
+      </c>
+      <c r="O3" s="25">
+        <v>0.4208</v>
+      </c>
+      <c r="P3" s="25">
+        <v>2.38</v>
+      </c>
+      <c r="Q3" s="27">
         <f t="shared" si="1"/>
-        <v>1.19296531509526</v>
+        <v>1.1606463878327</v>
       </c>
       <c r="R3">
-        <v>17.06</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:18">
       <c r="A4">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
-        <v>39.5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>71.1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>68.5</v>
-      </c>
-      <c r="E4" s="6">
-        <v>30.6</v>
-      </c>
-      <c r="F4" s="6">
-        <v>40.2</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="B4" s="7">
+        <v>38.7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>71.8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>67.2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>31.6</v>
+      </c>
+      <c r="F4" s="7">
+        <v>37.4</v>
+      </c>
+      <c r="G4" s="7">
         <v>77</v>
       </c>
-      <c r="H4" s="6">
-        <v>60.9</v>
-      </c>
-      <c r="I4" s="6">
-        <v>67</v>
+      <c r="H4" s="7">
+        <v>61.4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>66.5</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>56.85</v>
-      </c>
-      <c r="K4" s="15">
-        <v>13053840512</v>
-      </c>
-      <c r="L4" s="11">
-        <v>2517223424</v>
-      </c>
-      <c r="M4" s="15">
-        <v>25035</v>
-      </c>
-      <c r="N4" s="17">
-        <v>26235</v>
-      </c>
-      <c r="O4" s="17">
-        <v>0.374</v>
-      </c>
-      <c r="P4" s="17">
-        <v>2.67</v>
-      </c>
-      <c r="Q4" s="18">
+        <v>56.45</v>
+      </c>
+      <c r="K4" s="26">
+        <v>13365267476</v>
+      </c>
+      <c r="L4" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="M4" s="26">
+        <v>25629</v>
+      </c>
+      <c r="N4" s="26">
+        <v>26289</v>
+      </c>
+      <c r="O4" s="26">
+        <v>0.4043</v>
+      </c>
+      <c r="P4" s="26">
+        <v>2.47</v>
+      </c>
+      <c r="Q4" s="27">
         <f t="shared" si="1"/>
-        <v>1.30588235294118</v>
+        <v>1.20801385110067</v>
       </c>
       <c r="R4">
-        <v>18.48</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="5" ht="17.6" spans="1:18">
@@ -10465,57 +10460,57 @@
         <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="C5" s="5">
-        <v>65.3</v>
+        <v>72.3</v>
       </c>
       <c r="D5" s="5">
-        <v>66.1</v>
+        <v>64.4</v>
       </c>
       <c r="E5" s="5">
-        <v>29.6</v>
+        <v>27.1</v>
       </c>
       <c r="F5" s="5">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="G5" s="5">
-        <v>75</v>
-      </c>
-      <c r="H5" s="28">
-        <v>62.1</v>
+        <v>75.9</v>
+      </c>
+      <c r="H5" s="5">
+        <v>61.7</v>
       </c>
       <c r="I5" s="5">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>54.9</v>
-      </c>
-      <c r="K5" s="13">
-        <v>11392896704</v>
-      </c>
-      <c r="L5" s="11">
-        <v>2361509888</v>
-      </c>
-      <c r="M5" s="13">
-        <v>21868</v>
-      </c>
-      <c r="N5" s="16">
-        <v>23068</v>
-      </c>
-      <c r="O5" s="16">
-        <v>0.3372</v>
-      </c>
-      <c r="P5" s="16">
-        <v>2.97</v>
-      </c>
-      <c r="Q5" s="18">
+        <v>55.4875</v>
+      </c>
+      <c r="K5" s="25">
+        <v>11860037150</v>
+      </c>
+      <c r="L5" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="M5" s="25">
+        <v>22759</v>
+      </c>
+      <c r="N5" s="25">
+        <v>23958</v>
+      </c>
+      <c r="O5" s="25">
+        <v>0.3755</v>
+      </c>
+      <c r="P5" s="25">
+        <v>2.66</v>
+      </c>
+      <c r="Q5" s="27">
         <f t="shared" si="1"/>
-        <v>1.44839857651246</v>
+        <v>1.30066577896138</v>
       </c>
       <c r="R5">
-        <v>20.37</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="6" ht="17.6" spans="1:18">
@@ -10523,57 +10518,57 @@
         <v>12</v>
       </c>
       <c r="B6" s="7">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="C6" s="7">
-        <v>64.5</v>
+        <v>69.8</v>
       </c>
       <c r="D6" s="7">
-        <v>61</v>
+        <v>59.4</v>
       </c>
       <c r="E6" s="7">
-        <v>29.1</v>
+        <v>24.1</v>
       </c>
       <c r="F6" s="7">
-        <v>37.2</v>
+        <v>33.8</v>
       </c>
       <c r="G6" s="7">
-        <v>71.2</v>
-      </c>
-      <c r="H6" s="29">
-        <v>59.6</v>
+        <v>73.4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>61.5</v>
       </c>
       <c r="I6" s="7">
-        <v>64.2</v>
+        <v>65.5</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="0"/>
-        <v>52.6125</v>
-      </c>
-      <c r="K6" s="15">
-        <v>9731952896</v>
-      </c>
-      <c r="L6" s="11">
-        <v>2205796352</v>
-      </c>
-      <c r="M6" s="15">
-        <v>18700</v>
-      </c>
-      <c r="N6" s="17">
-        <v>19900</v>
-      </c>
-      <c r="O6" s="17">
-        <v>0.2955</v>
-      </c>
-      <c r="P6" s="17">
-        <v>3.38</v>
-      </c>
-      <c r="Q6" s="18">
+        <v>52.75</v>
+      </c>
+      <c r="K6" s="26">
+        <v>10354806824</v>
+      </c>
+      <c r="L6" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="M6" s="26">
+        <v>19888</v>
+      </c>
+      <c r="N6" s="26">
+        <v>21088</v>
+      </c>
+      <c r="O6" s="26">
+        <v>0.3246</v>
+      </c>
+      <c r="P6" s="26">
+        <v>3.08</v>
+      </c>
+      <c r="Q6" s="27">
         <f t="shared" si="1"/>
-        <v>1.65279187817259</v>
+        <v>1.50462107208872</v>
       </c>
       <c r="R6">
-        <v>20.62</v>
+        <v>17.76</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:18">
@@ -10581,57 +10576,57 @@
         <v>15</v>
       </c>
       <c r="B7" s="5">
-        <v>31.9</v>
+        <v>30.4</v>
       </c>
       <c r="C7" s="5">
-        <v>63.1</v>
+        <v>65.5</v>
       </c>
       <c r="D7" s="5">
-        <v>50.1</v>
+        <v>52</v>
       </c>
       <c r="E7" s="5">
-        <v>26.1</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5">
-        <v>32.7</v>
+        <v>31.4</v>
       </c>
       <c r="G7" s="5">
-        <v>67.9</v>
+        <v>68.7</v>
       </c>
       <c r="H7" s="5">
-        <v>57.5</v>
+        <v>56</v>
       </c>
       <c r="I7" s="5">
-        <v>60.5</v>
+        <v>63.8</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>48.725</v>
-      </c>
-      <c r="K7" s="16">
-        <v>8071009088</v>
-      </c>
-      <c r="L7" s="11">
-        <v>2050082816</v>
-      </c>
-      <c r="M7" s="16">
-        <v>15532</v>
-      </c>
-      <c r="N7" s="16">
-        <v>16732</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0.2535</v>
-      </c>
-      <c r="P7" s="16">
-        <v>3.94</v>
-      </c>
-      <c r="Q7" s="13">
+        <v>48.975</v>
+      </c>
+      <c r="K7" s="25">
+        <v>8849576498</v>
+      </c>
+      <c r="L7" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="M7" s="25">
+        <v>17017</v>
+      </c>
+      <c r="N7" s="25">
+        <v>18217</v>
+      </c>
+      <c r="O7" s="25">
+        <v>0.295</v>
+      </c>
+      <c r="P7" s="25">
+        <v>3.39</v>
+      </c>
+      <c r="Q7" s="27">
         <f t="shared" si="1"/>
-        <v>1.92662721893491</v>
+        <v>1.65559322033898</v>
       </c>
       <c r="R7">
-        <v>22.77</v>
+        <v>18.68</v>
       </c>
     </row>
   </sheetData>
@@ -11136,6 +11131,433 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="11" max="11" width="16.1826923076923" customWidth="1"/>
+    <col min="12" max="12" width="14.4134615384615" customWidth="1"/>
+    <col min="15" max="15" width="12.0192307692308" customWidth="1"/>
+    <col min="16" max="16" width="14.0961538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:18">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:18">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>48.3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>77.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>38.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>78.7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>63.2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>70.1</v>
+      </c>
+      <c r="J2" s="10">
+        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
+        <v>61.6125</v>
+      </c>
+      <c r="K2" s="9">
+        <v>16375728128</v>
+      </c>
+      <c r="L2" s="11">
+        <v>2828650496</v>
+      </c>
+      <c r="M2" s="9">
+        <v>31371</v>
+      </c>
+      <c r="N2" s="9">
+        <v>32571</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0.4668</v>
+      </c>
+      <c r="P2" s="9">
+        <v>2.14</v>
+      </c>
+      <c r="Q2" s="18">
+        <f t="shared" ref="Q2:Q7" si="1">0.4884/O2</f>
+        <v>1.04627249357326</v>
+      </c>
+      <c r="R2">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:18">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45.1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>73.8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>74.2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="F3" s="5">
+        <v>42.4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>79</v>
+      </c>
+      <c r="H3" s="5">
+        <v>60.1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>68.5</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" si="0"/>
+        <v>59.4625</v>
+      </c>
+      <c r="K3" s="13">
+        <v>14714784320</v>
+      </c>
+      <c r="L3" s="11">
+        <v>2672936960</v>
+      </c>
+      <c r="M3" s="13">
+        <v>28203</v>
+      </c>
+      <c r="N3" s="16">
+        <v>29403</v>
+      </c>
+      <c r="O3" s="16">
+        <v>0.4094</v>
+      </c>
+      <c r="P3" s="16">
+        <v>2.44</v>
+      </c>
+      <c r="Q3" s="18">
+        <f t="shared" si="1"/>
+        <v>1.19296531509526</v>
+      </c>
+      <c r="R3">
+        <v>17.06</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:18">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>71.1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>68.5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>30.6</v>
+      </c>
+      <c r="F4" s="6">
+        <v>40.2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>77</v>
+      </c>
+      <c r="H4" s="6">
+        <v>60.9</v>
+      </c>
+      <c r="I4" s="6">
+        <v>67</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="0"/>
+        <v>56.85</v>
+      </c>
+      <c r="K4" s="15">
+        <v>13053840512</v>
+      </c>
+      <c r="L4" s="11">
+        <v>2517223424</v>
+      </c>
+      <c r="M4" s="15">
+        <v>25035</v>
+      </c>
+      <c r="N4" s="17">
+        <v>26235</v>
+      </c>
+      <c r="O4" s="17">
+        <v>0.374</v>
+      </c>
+      <c r="P4" s="17">
+        <v>2.67</v>
+      </c>
+      <c r="Q4" s="18">
+        <f t="shared" si="1"/>
+        <v>1.30588235294118</v>
+      </c>
+      <c r="R4">
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:18">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>38.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>65.3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>66.1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>29.6</v>
+      </c>
+      <c r="F5" s="5">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5">
+        <v>75</v>
+      </c>
+      <c r="H5" s="28">
+        <v>62.1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>65</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="0"/>
+        <v>54.9</v>
+      </c>
+      <c r="K5" s="13">
+        <v>11392896704</v>
+      </c>
+      <c r="L5" s="11">
+        <v>2361509888</v>
+      </c>
+      <c r="M5" s="13">
+        <v>21868</v>
+      </c>
+      <c r="N5" s="16">
+        <v>23068</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0.3372</v>
+      </c>
+      <c r="P5" s="16">
+        <v>2.97</v>
+      </c>
+      <c r="Q5" s="18">
+        <f t="shared" si="1"/>
+        <v>1.44839857651246</v>
+      </c>
+      <c r="R5">
+        <v>20.37</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:18">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7">
+        <v>34.1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>64.5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>61</v>
+      </c>
+      <c r="E6" s="7">
+        <v>29.1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>37.2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>71.2</v>
+      </c>
+      <c r="H6" s="29">
+        <v>59.6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>64.2</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="0"/>
+        <v>52.6125</v>
+      </c>
+      <c r="K6" s="15">
+        <v>9731952896</v>
+      </c>
+      <c r="L6" s="11">
+        <v>2205796352</v>
+      </c>
+      <c r="M6" s="15">
+        <v>18700</v>
+      </c>
+      <c r="N6" s="17">
+        <v>19900</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0.2955</v>
+      </c>
+      <c r="P6" s="17">
+        <v>3.38</v>
+      </c>
+      <c r="Q6" s="18">
+        <f t="shared" si="1"/>
+        <v>1.65279187817259</v>
+      </c>
+      <c r="R6">
+        <v>20.62</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:18">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>31.9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>63.1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>50.1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>26.1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>32.7</v>
+      </c>
+      <c r="G7" s="5">
+        <v>67.9</v>
+      </c>
+      <c r="H7" s="5">
+        <v>57.5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>60.5</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="0"/>
+        <v>48.725</v>
+      </c>
+      <c r="K7" s="16">
+        <v>8071009088</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2050082816</v>
+      </c>
+      <c r="M7" s="16">
+        <v>15532</v>
+      </c>
+      <c r="N7" s="16">
+        <v>16732</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0.2535</v>
+      </c>
+      <c r="P7" s="16">
+        <v>3.94</v>
+      </c>
+      <c r="Q7" s="13">
+        <f t="shared" si="1"/>
+        <v>1.92662721893491</v>
+      </c>
+      <c r="R7">
+        <v>22.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -11556,7 +11978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R7"/>
@@ -11982,7 +12404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q7"/>
@@ -12387,7 +12809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K6"/>
@@ -12624,7 +13046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T7"/>
@@ -13019,13 +13441,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7"/>
@@ -13417,7 +13839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R9"/>
@@ -13887,7 +14309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R9"/>
@@ -14354,7 +14776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9060" tabRatio="872" firstSheet="14" activeTab="18"/>
+    <workbookView windowWidth="25600" windowHeight="9580" tabRatio="872" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,20 +22,22 @@
     <sheet name="layer_trimming" sheetId="17" r:id="rId13"/>
     <sheet name="block_trimming" sheetId="9" r:id="rId14"/>
     <sheet name="shared" sheetId="20" r:id="rId15"/>
-    <sheet name="shared_e1" sheetId="22" r:id="rId16"/>
-    <sheet name="shared_e2" sheetId="23" r:id="rId17"/>
-    <sheet name="shared_e6" sheetId="21" r:id="rId18"/>
-    <sheet name="shared_e6_v2" sheetId="30" r:id="rId19"/>
-    <sheet name="shared_finetune" sheetId="15" r:id="rId20"/>
-    <sheet name="greedy_greedy_old" sheetId="13" state="hidden" r:id="rId21"/>
-    <sheet name="finetune" sheetId="12" r:id="rId22"/>
-    <sheet name="greedy_block" sheetId="16" r:id="rId23"/>
-    <sheet name="active_cmp" sheetId="18" r:id="rId24"/>
-    <sheet name="mixtral_layer_trim" sheetId="29" r:id="rId25"/>
-    <sheet name="mixtral_block" sheetId="25" r:id="rId26"/>
-    <sheet name="mixtral_e2" sheetId="24" r:id="rId27"/>
-    <sheet name="mixtral_e1" sheetId="26" r:id="rId28"/>
-    <sheet name="mixtral_tmp" sheetId="28" r:id="rId29"/>
+    <sheet name="shared_sft" sheetId="31" r:id="rId16"/>
+    <sheet name="shared_e1" sheetId="22" r:id="rId17"/>
+    <sheet name="shared_e2" sheetId="23" r:id="rId18"/>
+    <sheet name="shared_e6" sheetId="21" r:id="rId19"/>
+    <sheet name="shared_e6_sft" sheetId="32" r:id="rId20"/>
+    <sheet name="finetune" sheetId="12" r:id="rId21"/>
+    <sheet name="shared_e6_v2" sheetId="30" r:id="rId22"/>
+    <sheet name="shared_finetune" sheetId="15" r:id="rId23"/>
+    <sheet name="greedy_greedy_old" sheetId="13" state="hidden" r:id="rId24"/>
+    <sheet name="greedy_block" sheetId="16" r:id="rId25"/>
+    <sheet name="active_cmp" sheetId="18" r:id="rId26"/>
+    <sheet name="mixtral_layer_trim" sheetId="29" r:id="rId27"/>
+    <sheet name="mixtral_block" sheetId="25" r:id="rId28"/>
+    <sheet name="mixtral_e2" sheetId="24" r:id="rId29"/>
+    <sheet name="mixtral_e1" sheetId="26" r:id="rId30"/>
+    <sheet name="mixtral_tmp" sheetId="28" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="181">
   <si>
     <t>origin PPL</t>
   </si>
@@ -697,7 +699,16 @@
     <t>token/s</t>
   </si>
   <si>
+    <t>maintain_acc</t>
+  </si>
+  <si>
     <t>activa para</t>
+  </si>
+  <si>
+    <t>maintain_mem</t>
+  </si>
+  <si>
+    <t>maintain</t>
   </si>
   <si>
     <t>activa parameter</t>
@@ -4028,11 +4039,11 @@
         <v>70.1</v>
       </c>
       <c r="N2" s="10">
-        <f t="shared" ref="N2:N10" si="0">AVERAGE(F2:M2)</f>
+        <f t="shared" ref="N2:N11" si="0">AVERAGE(F2:M2)</f>
         <v>61.6125</v>
       </c>
       <c r="O2" s="47">
-        <f>AVERAGE(F2:K2,M2:M2)</f>
+        <f t="shared" ref="O2:O19" si="1">AVERAGE(F2:K2,M2:M2)</f>
         <v>61.3857142857143</v>
       </c>
       <c r="P2" s="23" t="s">
@@ -4090,7 +4101,7 @@
         <v>53.7125</v>
       </c>
       <c r="O3" s="47">
-        <f>AVERAGE(F3:K3,M3:M3)</f>
+        <f t="shared" si="1"/>
         <v>53.2428571428571</v>
       </c>
       <c r="P3" s="3" t="s">
@@ -4143,7 +4154,7 @@
         <v>58.975</v>
       </c>
       <c r="O4" s="47">
-        <f>AVERAGE(F4:K4,M4:M4)</f>
+        <f t="shared" si="1"/>
         <v>58.8428571428571</v>
       </c>
       <c r="P4" s="23"/>
@@ -4190,7 +4201,7 @@
         <v>57.1375</v>
       </c>
       <c r="O5" s="47">
-        <f>AVERAGE(F5:K5,M5:M5)</f>
+        <f t="shared" si="1"/>
         <v>57.2571428571429</v>
       </c>
       <c r="P5" s="23"/>
@@ -4241,7 +4252,7 @@
         <v>55.35</v>
       </c>
       <c r="O6" s="47">
-        <f>AVERAGE(F6:K6,M6:M6)</f>
+        <f t="shared" si="1"/>
         <v>56.3428571428571</v>
       </c>
       <c r="P6" s="23"/>
@@ -4288,7 +4299,7 @@
         <v>55.7625</v>
       </c>
       <c r="O7" s="47">
-        <f>AVERAGE(F7:K7,M7:M7)</f>
+        <f t="shared" si="1"/>
         <v>56.9142857142857</v>
       </c>
       <c r="P7" s="23"/>
@@ -4339,7 +4350,7 @@
         <v>56.25</v>
       </c>
       <c r="O8" s="47">
-        <f>AVERAGE(F8:K8,M8:M8)</f>
+        <f t="shared" si="1"/>
         <v>56.9142857142857</v>
       </c>
       <c r="P8" s="23"/>
@@ -4386,7 +4397,7 @@
         <v>55.95</v>
       </c>
       <c r="O9" s="47">
-        <f>AVERAGE(F9:K9,M9:M9)</f>
+        <f t="shared" si="1"/>
         <v>56.5714285714286</v>
       </c>
       <c r="P9" s="48"/>
@@ -4441,7 +4452,7 @@
         <v>59.1875</v>
       </c>
       <c r="O10" s="47">
-        <f>AVERAGE(F10:K10,M10:M10)</f>
+        <f t="shared" si="1"/>
         <v>59.1285714285714</v>
       </c>
       <c r="Q10" s="36">
@@ -4497,11 +4508,11 @@
         <v>69.7871</v>
       </c>
       <c r="N11" s="12">
-        <f>AVERAGE(F11:M11)</f>
+        <f t="shared" si="0"/>
         <v>57.028675</v>
       </c>
       <c r="O11" s="47">
-        <f>AVERAGE(F11:K11,M11:M11)</f>
+        <f t="shared" si="1"/>
         <v>58.4176571428571</v>
       </c>
       <c r="P11" s="25"/>
@@ -4529,7 +4540,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="12"/>
       <c r="O12" s="47" t="e">
-        <f>AVERAGE(F12:K12,M12:M12)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P12" s="25"/>
@@ -4578,7 +4589,7 @@
         <v>59.1125</v>
       </c>
       <c r="O13" s="47">
-        <f>AVERAGE(F13:K13,M13:M13)</f>
+        <f t="shared" si="1"/>
         <v>59.1</v>
       </c>
       <c r="P13" s="25"/>
@@ -4627,7 +4638,7 @@
         <v>59.4625</v>
       </c>
       <c r="O14" s="47">
-        <f>AVERAGE(F14:K14,M14:M14)</f>
+        <f t="shared" si="1"/>
         <v>59.5571428571429</v>
       </c>
       <c r="P14" s="25" t="s">
@@ -4671,7 +4682,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="12"/>
       <c r="O15" s="47" t="e">
-        <f>AVERAGE(F15:K15,M15:M15)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P15" s="25"/>
@@ -4718,7 +4729,7 @@
         <v>59.3625</v>
       </c>
       <c r="O16" s="47">
-        <f>AVERAGE(F16:K16,M16:M16)</f>
+        <f t="shared" si="1"/>
         <v>59.4857142857143</v>
       </c>
       <c r="P16" s="25"/>
@@ -4765,7 +4776,7 @@
         <v>59.425</v>
       </c>
       <c r="O17" s="47">
-        <f>AVERAGE(F17:K17,M17:M17)</f>
+        <f t="shared" si="1"/>
         <v>59.5142857142857</v>
       </c>
       <c r="P17" s="25"/>
@@ -4820,7 +4831,7 @@
         <v>56.35</v>
       </c>
       <c r="O18" s="47">
-        <f>AVERAGE(F18:K18,M18:M18)</f>
+        <f t="shared" si="1"/>
         <v>55.8857142857143</v>
       </c>
       <c r="Q18" s="37">
@@ -4880,7 +4891,7 @@
         <v>54.7875</v>
       </c>
       <c r="O19" s="47">
-        <f>AVERAGE(F19:K19,M19:M19)</f>
+        <f t="shared" si="1"/>
         <v>55.4</v>
       </c>
       <c r="P19" s="26"/>
@@ -4952,11 +4963,11 @@
         <v>66.1</v>
       </c>
       <c r="N21" s="14">
-        <f t="shared" ref="N21:N29" si="1">AVERAGE(F21:M21)</f>
+        <f t="shared" ref="N21:N29" si="2">AVERAGE(F21:M21)</f>
         <v>54.6</v>
       </c>
       <c r="O21" s="47">
-        <f t="shared" ref="O20:O49" si="2">AVERAGE(F21:K21,M21:M21)</f>
+        <f t="shared" ref="O20:O49" si="3">AVERAGE(F21:K21,M21:M21)</f>
         <v>54.6142857142857</v>
       </c>
       <c r="P21" s="26" t="s">
@@ -5015,11 +5026,11 @@
         <v>66.9</v>
       </c>
       <c r="N22" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69.1</v>
       </c>
       <c r="O22" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>71.7333333333333</v>
       </c>
       <c r="P22" s="26"/>
@@ -5065,11 +5076,11 @@
         <v>68.5</v>
       </c>
       <c r="N23" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.1875</v>
       </c>
       <c r="O23" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57.6285714285714</v>
       </c>
       <c r="P23" s="26"/>
@@ -5115,11 +5126,11 @@
         <v>68.5</v>
       </c>
       <c r="N24" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.1</v>
       </c>
       <c r="O24" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.8142857142857</v>
       </c>
       <c r="P24" s="26"/>
@@ -5163,11 +5174,11 @@
         <v>68.3</v>
       </c>
       <c r="N25" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.95</v>
       </c>
       <c r="O25" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.5285714285714</v>
       </c>
       <c r="P25" s="26"/>
@@ -5211,11 +5222,11 @@
         <v>68.4</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.0875</v>
       </c>
       <c r="O26" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.5714285714286</v>
       </c>
       <c r="P26" s="26"/>
@@ -5265,11 +5276,11 @@
         <v>64.6</v>
       </c>
       <c r="N27" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
       <c r="O27" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53.3571428571429</v>
       </c>
       <c r="Q27" s="36">
@@ -5326,7 +5337,7 @@
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.5787142857143</v>
       </c>
       <c r="S28" s="25"/>
@@ -5370,7 +5381,7 @@
         <v>51.7625</v>
       </c>
       <c r="O29" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51.7857142857143</v>
       </c>
       <c r="S29" s="25"/>
@@ -5414,7 +5425,7 @@
         <v>52.075</v>
       </c>
       <c r="O30" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52.7</v>
       </c>
       <c r="S30" s="25"/>
@@ -5454,11 +5465,11 @@
         <v>63.2</v>
       </c>
       <c r="N31" s="12">
-        <f t="shared" ref="N31:N62" si="3">AVERAGE(F31:M31)</f>
+        <f t="shared" ref="N31:N63" si="4">AVERAGE(F31:M31)</f>
         <v>54.175</v>
       </c>
       <c r="O31" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53.3571428571429</v>
       </c>
       <c r="S31" s="25"/>
@@ -5498,11 +5509,11 @@
         <v>65</v>
       </c>
       <c r="N32" s="12">
+        <f t="shared" si="4"/>
+        <v>54.9</v>
+      </c>
+      <c r="O32" s="47">
         <f t="shared" si="3"/>
-        <v>54.9</v>
-      </c>
-      <c r="O32" s="47">
-        <f t="shared" si="2"/>
         <v>53.8714285714286</v>
       </c>
       <c r="P32" s="25"/>
@@ -5547,11 +5558,11 @@
         <v>63.5</v>
       </c>
       <c r="N33" s="12">
+        <f t="shared" si="4"/>
+        <v>52.55</v>
+      </c>
+      <c r="O33" s="47">
         <f t="shared" si="3"/>
-        <v>52.55</v>
-      </c>
-      <c r="O33" s="47">
-        <f t="shared" si="2"/>
         <v>52.1142857142857</v>
       </c>
       <c r="P33" s="25" t="s">
@@ -5612,11 +5623,11 @@
         <v>65.6</v>
       </c>
       <c r="N34" s="12">
+        <f t="shared" si="4"/>
+        <v>54.725</v>
+      </c>
+      <c r="O34" s="47">
         <f t="shared" si="3"/>
-        <v>54.725</v>
-      </c>
-      <c r="O34" s="47">
-        <f t="shared" si="2"/>
         <v>53.9857142857143</v>
       </c>
       <c r="P34" s="25"/>
@@ -5661,11 +5672,11 @@
         <v>67.2</v>
       </c>
       <c r="N35" s="12">
+        <f t="shared" si="4"/>
+        <v>55.25</v>
+      </c>
+      <c r="O35" s="47">
         <f t="shared" si="3"/>
-        <v>55.25</v>
-      </c>
-      <c r="O35" s="47">
-        <f t="shared" si="2"/>
         <v>53.9142857142857</v>
       </c>
       <c r="P35" s="25"/>
@@ -5708,11 +5719,11 @@
         <v>66.9</v>
       </c>
       <c r="N36" s="12">
+        <f t="shared" si="4"/>
+        <v>55.6375</v>
+      </c>
+      <c r="O36" s="47">
         <f t="shared" si="3"/>
-        <v>55.6375</v>
-      </c>
-      <c r="O36" s="47">
-        <f t="shared" si="2"/>
         <v>55.2857142857143</v>
       </c>
       <c r="P36" s="25"/>
@@ -5755,11 +5766,11 @@
         <v>66.3</v>
       </c>
       <c r="N37" s="12">
+        <f t="shared" si="4"/>
+        <v>52.85</v>
+      </c>
+      <c r="O37" s="47">
         <f t="shared" si="3"/>
-        <v>52.85</v>
-      </c>
-      <c r="O37" s="47">
-        <f t="shared" si="2"/>
         <v>51.8857142857143</v>
       </c>
       <c r="P37" s="25"/>
@@ -5802,11 +5813,11 @@
         <v>66.3</v>
       </c>
       <c r="N38" s="12">
+        <f t="shared" si="4"/>
+        <v>55.25</v>
+      </c>
+      <c r="O38" s="47">
         <f t="shared" si="3"/>
-        <v>55.25</v>
-      </c>
-      <c r="O38" s="47">
-        <f t="shared" si="2"/>
         <v>54.6857142857143</v>
       </c>
       <c r="P38" s="25"/>
@@ -5849,11 +5860,11 @@
         <v>66.5</v>
       </c>
       <c r="N39" s="12">
+        <f t="shared" si="4"/>
+        <v>55.6625</v>
+      </c>
+      <c r="O39" s="47">
         <f t="shared" si="3"/>
-        <v>55.6625</v>
-      </c>
-      <c r="O39" s="47">
-        <f t="shared" si="2"/>
         <v>55.1</v>
       </c>
       <c r="P39" s="25"/>
@@ -5896,11 +5907,11 @@
         <v>66.2</v>
       </c>
       <c r="N40" s="12">
+        <f t="shared" si="4"/>
+        <v>55.35</v>
+      </c>
+      <c r="O40" s="47">
         <f t="shared" si="3"/>
-        <v>55.35</v>
-      </c>
-      <c r="O40" s="47">
-        <f t="shared" si="2"/>
         <v>54.9</v>
       </c>
       <c r="P40" s="25"/>
@@ -5943,11 +5954,11 @@
         <v>66.9</v>
       </c>
       <c r="N41" s="12">
+        <f t="shared" si="4"/>
+        <v>55.6875</v>
+      </c>
+      <c r="O41" s="47">
         <f t="shared" si="3"/>
-        <v>55.6875</v>
-      </c>
-      <c r="O41" s="47">
-        <f t="shared" si="2"/>
         <v>55.2428571428571</v>
       </c>
       <c r="P41" s="25"/>
@@ -5990,11 +6001,11 @@
         <v>67.7</v>
       </c>
       <c r="N42" s="12">
+        <f t="shared" si="4"/>
+        <v>55.1875</v>
+      </c>
+      <c r="O42" s="47">
         <f t="shared" si="3"/>
-        <v>55.1875</v>
-      </c>
-      <c r="O42" s="47">
-        <f t="shared" si="2"/>
         <v>54.9285714285714</v>
       </c>
       <c r="P42" s="25"/>
@@ -6037,11 +6048,11 @@
         <v>66.7</v>
       </c>
       <c r="N43" s="12">
+        <f t="shared" si="4"/>
+        <v>55.6375</v>
+      </c>
+      <c r="O43" s="47">
         <f t="shared" si="3"/>
-        <v>55.6375</v>
-      </c>
-      <c r="O43" s="47">
-        <f t="shared" si="2"/>
         <v>55.2857142857143</v>
       </c>
       <c r="P43" s="25"/>
@@ -6084,11 +6095,11 @@
         <v>67.1</v>
       </c>
       <c r="N44" s="12">
+        <f t="shared" si="4"/>
+        <v>55.8875</v>
+      </c>
+      <c r="O44" s="47">
         <f t="shared" si="3"/>
-        <v>55.8875</v>
-      </c>
-      <c r="O44" s="47">
-        <f t="shared" si="2"/>
         <v>55.4714285714286</v>
       </c>
       <c r="P44" s="25"/>
@@ -6131,11 +6142,11 @@
         <v>66.6</v>
       </c>
       <c r="N45" s="12">
+        <f t="shared" si="4"/>
+        <v>55.7125</v>
+      </c>
+      <c r="O45" s="47">
         <f t="shared" si="3"/>
-        <v>55.7125</v>
-      </c>
-      <c r="O45" s="47">
-        <f t="shared" si="2"/>
         <v>55.3714285714286</v>
       </c>
       <c r="P45" s="25"/>
@@ -6178,11 +6189,11 @@
         <v>66.9</v>
       </c>
       <c r="N46" s="12">
+        <f t="shared" si="4"/>
+        <v>55.875</v>
+      </c>
+      <c r="O46" s="47">
         <f t="shared" si="3"/>
-        <v>55.875</v>
-      </c>
-      <c r="O46" s="47">
-        <f t="shared" si="2"/>
         <v>55.4571428571429</v>
       </c>
       <c r="P46" s="25"/>
@@ -6225,11 +6236,11 @@
         <v>67.5</v>
       </c>
       <c r="N47" s="12">
+        <f t="shared" si="4"/>
+        <v>54.6125</v>
+      </c>
+      <c r="O47" s="47">
         <f t="shared" si="3"/>
-        <v>54.6125</v>
-      </c>
-      <c r="O47" s="47">
-        <f t="shared" si="2"/>
         <v>54.3714285714286</v>
       </c>
       <c r="P47" s="25"/>
@@ -6272,11 +6283,11 @@
         <v>68.2</v>
       </c>
       <c r="N48" s="12">
+        <f t="shared" si="4"/>
+        <v>55.15</v>
+      </c>
+      <c r="O48" s="47">
         <f t="shared" si="3"/>
-        <v>55.15</v>
-      </c>
-      <c r="O48" s="47">
-        <f t="shared" si="2"/>
         <v>54.6285714285714</v>
       </c>
       <c r="P48" s="25"/>
@@ -6319,11 +6330,11 @@
         <v>67.7</v>
       </c>
       <c r="N49" s="12">
+        <f t="shared" si="4"/>
+        <v>55.2625</v>
+      </c>
+      <c r="O49" s="47">
         <f t="shared" si="3"/>
-        <v>55.2625</v>
-      </c>
-      <c r="O49" s="47">
-        <f t="shared" si="2"/>
         <v>54.7571428571429</v>
       </c>
       <c r="P49" s="25"/>
@@ -6372,11 +6383,11 @@
         <v>62.4</v>
       </c>
       <c r="N50" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.8375</v>
       </c>
       <c r="O50" s="47">
-        <f t="shared" ref="O50:O60" si="4">AVERAGE(F50:K50,M50:M50)</f>
+        <f t="shared" ref="O50:O62" si="5">AVERAGE(F50:K50,M50:M50)</f>
         <v>50.3714285714286</v>
       </c>
       <c r="Q50" s="37">
@@ -6432,11 +6443,11 @@
         <v>59.2</v>
       </c>
       <c r="N51" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47.2375</v>
       </c>
       <c r="O51" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46.9714285714286</v>
       </c>
       <c r="P51" s="26"/>
@@ -6480,11 +6491,11 @@
         <v>64.2</v>
       </c>
       <c r="N52" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52.6125</v>
       </c>
       <c r="O52" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.6142857142857</v>
       </c>
       <c r="P52" s="26"/>
@@ -6530,11 +6541,11 @@
         <v>61.7</v>
       </c>
       <c r="N53" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50.0625</v>
       </c>
       <c r="O53" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.7571428571429</v>
       </c>
       <c r="P53" s="26" t="s">
@@ -6593,11 +6604,11 @@
         <v>63.9</v>
       </c>
       <c r="N54" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52.5375</v>
       </c>
       <c r="O54" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50.5</v>
       </c>
       <c r="P54" s="26"/>
@@ -6643,11 +6654,11 @@
         <v>64.3</v>
       </c>
       <c r="N55" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.625</v>
       </c>
       <c r="O55" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50.1857142857143</v>
       </c>
       <c r="P55" s="26"/>
@@ -6693,11 +6704,11 @@
         <v>63.2</v>
       </c>
       <c r="N56" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.9125</v>
       </c>
       <c r="O56" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49.7857142857143</v>
       </c>
       <c r="P56" s="26"/>
@@ -6741,11 +6752,11 @@
         <v>54.7</v>
       </c>
       <c r="N57" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43.0875</v>
       </c>
       <c r="O57" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41.5571428571429</v>
       </c>
       <c r="P57" s="26"/>
@@ -6789,11 +6800,11 @@
         <v>63.1</v>
       </c>
       <c r="N58" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52.125</v>
       </c>
       <c r="O58" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.0571428571429</v>
       </c>
       <c r="P58" s="26"/>
@@ -6837,11 +6848,11 @@
         <v>64.6</v>
       </c>
       <c r="N59" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53.1875</v>
       </c>
       <c r="O59" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.2285714285714</v>
       </c>
       <c r="P59" s="26"/>
@@ -6885,11 +6896,11 @@
         <v>63.8</v>
       </c>
       <c r="N60" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52.3875</v>
       </c>
       <c r="O60" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.3571428571429</v>
       </c>
       <c r="P60" s="26"/>
@@ -6938,11 +6949,11 @@
         <v>59.1</v>
       </c>
       <c r="N61" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.1125</v>
       </c>
       <c r="O61" s="47">
-        <f>AVERAGE(F61:K61,M61:M61)</f>
+        <f t="shared" si="5"/>
         <v>46.5285714285714</v>
       </c>
       <c r="P61" s="25"/>
@@ -6999,11 +7010,11 @@
         <v>60.4</v>
       </c>
       <c r="N62" s="12">
-        <f>AVERAGE(F62:M62)</f>
+        <f t="shared" si="4"/>
         <v>46.6375</v>
       </c>
       <c r="O62" s="47">
-        <f>AVERAGE(F62:K62,M62:M62)</f>
+        <f t="shared" si="5"/>
         <v>46.3857142857143</v>
       </c>
       <c r="P62" s="25"/>
@@ -7046,7 +7057,7 @@
         <v>60.5</v>
       </c>
       <c r="N63" s="12">
-        <f>AVERAGE(F63:M63)</f>
+        <f t="shared" si="4"/>
         <v>48.725</v>
       </c>
       <c r="O63" s="47"/>
@@ -7395,7 +7406,7 @@
         <v>1.92</v>
       </c>
       <c r="Q2" s="27">
-        <f>0.5196/O2</f>
+        <f t="shared" ref="Q2:Q7" si="1">0.5196/O2</f>
         <v>1</v>
       </c>
     </row>
@@ -7448,7 +7459,7 @@
         <v>2.15</v>
       </c>
       <c r="Q3" s="27">
-        <f>0.5196/O3</f>
+        <f t="shared" si="1"/>
         <v>1.11621911922664</v>
       </c>
     </row>
@@ -7503,7 +7514,7 @@
         <v>2.29</v>
       </c>
       <c r="Q4" s="27">
-        <f>0.5196/O4</f>
+        <f t="shared" si="1"/>
         <v>1.19146984636551</v>
       </c>
     </row>
@@ -7558,7 +7569,7 @@
         <v>2.42</v>
       </c>
       <c r="Q5" s="27">
-        <f>0.5196/O5</f>
+        <f t="shared" si="1"/>
         <v>1.25750242013553</v>
       </c>
     </row>
@@ -7613,7 +7624,7 @@
         <v>2.78</v>
       </c>
       <c r="Q6" s="27">
-        <f>0.5196/O6</f>
+        <f t="shared" si="1"/>
         <v>1.44253192670738</v>
       </c>
     </row>
@@ -7668,7 +7679,7 @@
         <v>3.22</v>
       </c>
       <c r="Q7" s="27">
-        <f>0.5196/O7</f>
+        <f t="shared" si="1"/>
         <v>1.67342995169082</v>
       </c>
     </row>
@@ -7805,7 +7816,7 @@
         <v>2.14</v>
       </c>
       <c r="Q2" s="27">
-        <f>0.4884/O2</f>
+        <f t="shared" ref="Q2:Q7" si="1">0.4884/O2</f>
         <v>1.04627249357326</v>
       </c>
       <c r="R2">
@@ -7861,7 +7872,7 @@
         <v>2.39</v>
       </c>
       <c r="Q3" s="27">
-        <f>0.4884/O3</f>
+        <f t="shared" si="1"/>
         <v>1.16954022988506</v>
       </c>
       <c r="R3">
@@ -7917,7 +7928,7 @@
         <v>2.56</v>
       </c>
       <c r="Q4" s="27">
-        <f>0.4884/O4</f>
+        <f t="shared" si="1"/>
         <v>1.25198667008459</v>
       </c>
       <c r="R4">
@@ -7973,7 +7984,7 @@
         <v>2.88</v>
       </c>
       <c r="Q5" s="27">
-        <f>0.4884/O5</f>
+        <f t="shared" si="1"/>
         <v>1.404659188956</v>
       </c>
       <c r="R5">
@@ -8029,7 +8040,7 @@
         <v>3.19</v>
       </c>
       <c r="Q6" s="27">
-        <f>0.4884/O6</f>
+        <f t="shared" si="1"/>
         <v>1.55839183152521</v>
       </c>
       <c r="R6">
@@ -8085,7 +8096,7 @@
         <v>3.69</v>
       </c>
       <c r="Q7" s="27">
-        <f>0.4884/O7</f>
+        <f t="shared" si="1"/>
         <v>1.80154924382147</v>
       </c>
       <c r="R7">
@@ -8226,7 +8237,7 @@
         <v>2.14</v>
       </c>
       <c r="Q2" s="27">
-        <f>0.4884/O2</f>
+        <f t="shared" ref="Q2:Q7" si="1">0.4884/O2</f>
         <v>1.04627249357326</v>
       </c>
       <c r="R2">
@@ -8284,7 +8295,7 @@
         <v>2.43</v>
       </c>
       <c r="Q3" s="27">
-        <f>0.4884/O3</f>
+        <f t="shared" si="1"/>
         <v>1.18601262748907</v>
       </c>
     </row>
@@ -8339,7 +8350,7 @@
         <v>2.74</v>
       </c>
       <c r="Q4" s="27">
-        <f>0.4884/O4</f>
+        <f t="shared" si="1"/>
         <v>1.3476821192053</v>
       </c>
     </row>
@@ -8394,7 +8405,7 @@
         <v>3.06</v>
       </c>
       <c r="Q5" s="27">
-        <f>0.4884/O5</f>
+        <f t="shared" si="1"/>
         <v>1.49266503667482</v>
       </c>
     </row>
@@ -8449,7 +8460,7 @@
         <v>3.38</v>
       </c>
       <c r="Q6" s="27">
-        <f>0.4884/O6</f>
+        <f t="shared" si="1"/>
         <v>1.65055762081784</v>
       </c>
     </row>
@@ -8504,7 +8515,7 @@
         <v>4.3</v>
       </c>
       <c r="Q7" s="27">
-        <f>0.4884/O7</f>
+        <f t="shared" si="1"/>
         <v>2.09974204643164</v>
       </c>
     </row>
@@ -8517,21 +8528,22 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="A1:R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
     <col min="10" max="10" width="13.2884615384615" customWidth="1"/>
-    <col min="11" max="11" width="17.2980769230769" customWidth="1"/>
-    <col min="16" max="16" width="14.8942307692308" customWidth="1"/>
-    <col min="17" max="17" width="12.0192307692308" customWidth="1"/>
+    <col min="11" max="12" width="17.2980769230769" customWidth="1"/>
+    <col min="17" max="17" width="12.9230769230769"/>
+    <col min="19" max="19" width="14.8942307692308" customWidth="1"/>
+    <col min="20" max="20" width="12.0192307692308" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:18">
+    <row r="1" ht="17.6" spans="1:21">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -8563,31 +8575,38 @@
         <v>167</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>170</v>
-      </c>
       <c r="M1" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" ht="17.6" spans="1:18">
+    <row r="2" ht="17.6" spans="1:21">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8620,32 +8639,41 @@
         <v>61.6125</v>
       </c>
       <c r="K2" s="9">
+        <f>J2/61.6</f>
+        <v>1.00020292207792</v>
+      </c>
+      <c r="L2" s="9">
         <v>16375728128</v>
       </c>
-      <c r="L2" s="11">
+      <c r="M2" s="11">
         <v>2828650496</v>
       </c>
-      <c r="M2" s="9">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9">
         <v>31371</v>
       </c>
-      <c r="N2" s="9">
+      <c r="P2" s="9">
         <v>32571</v>
       </c>
-      <c r="O2" s="9">
+      <c r="Q2" s="9">
+        <f>O2/31371</f>
+        <v>1</v>
+      </c>
+      <c r="R2" s="9">
         <v>0.4668</v>
       </c>
-      <c r="P2" s="9">
+      <c r="S2" s="9">
         <v>2.14</v>
       </c>
-      <c r="Q2" s="18">
-        <f t="shared" ref="Q2:Q7" si="1">0.4884/O2</f>
+      <c r="T2" s="18">
+        <f t="shared" ref="T2:T7" si="1">0.4884/R2</f>
         <v>1.04627249357326</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>16.18</v>
       </c>
     </row>
-    <row r="3" ht="17.6" spans="1:18">
+    <row r="3" ht="17.6" spans="1:21">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8677,33 +8705,42 @@
         <f t="shared" si="0"/>
         <v>59.1875</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="9">
+        <f>J3/61.6</f>
+        <v>0.960836038961039</v>
+      </c>
+      <c r="L3" s="13">
         <v>14714784320</v>
       </c>
-      <c r="L3" s="11">
+      <c r="M3" s="11">
         <v>2672936960</v>
       </c>
-      <c r="M3" s="13">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13">
         <v>28203</v>
       </c>
-      <c r="N3" s="16">
+      <c r="P3" s="16">
         <v>29403</v>
       </c>
-      <c r="O3" s="16">
+      <c r="Q3" s="9">
+        <f>O3/31371</f>
+        <v>0.89901501386631</v>
+      </c>
+      <c r="R3" s="16">
         <v>0.4094</v>
       </c>
-      <c r="P3" s="16">
+      <c r="S3" s="16">
         <v>2.44</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="T3" s="18">
         <f t="shared" si="1"/>
         <v>1.19296531509526</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>17.06</v>
       </c>
     </row>
-    <row r="4" ht="17.6" spans="1:18">
+    <row r="4" ht="17.6" spans="1:21">
       <c r="A4">
         <v>6</v>
       </c>
@@ -8735,33 +8772,42 @@
         <f t="shared" si="0"/>
         <v>56.35</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="9">
+        <f>J4/61.6</f>
+        <v>0.914772727272727</v>
+      </c>
+      <c r="L4" s="15">
         <v>13053840512</v>
       </c>
-      <c r="L4" s="11">
+      <c r="M4" s="11">
         <v>2517223424</v>
       </c>
-      <c r="M4" s="15">
+      <c r="N4" s="15"/>
+      <c r="O4" s="15">
         <v>25035</v>
       </c>
-      <c r="N4" s="17">
+      <c r="P4" s="17">
         <v>26235</v>
       </c>
-      <c r="O4" s="17">
+      <c r="Q4" s="9">
+        <f>O4/31371</f>
+        <v>0.798030027732619</v>
+      </c>
+      <c r="R4" s="17">
         <v>0.374</v>
       </c>
-      <c r="P4" s="17">
+      <c r="S4" s="17">
         <v>2.67</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="T4" s="18">
         <f t="shared" si="1"/>
         <v>1.30588235294118</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>18.48</v>
       </c>
     </row>
-    <row r="5" ht="17.6" spans="1:18">
+    <row r="5" ht="17.6" spans="1:21">
       <c r="A5">
         <v>9</v>
       </c>
@@ -8793,33 +8839,42 @@
         <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="9">
+        <f>J5/61.6</f>
+        <v>0.88474025974026</v>
+      </c>
+      <c r="L5" s="13">
         <v>11392896704</v>
       </c>
-      <c r="L5" s="11">
+      <c r="M5" s="11">
         <v>2361509888</v>
       </c>
-      <c r="M5" s="13">
+      <c r="N5" s="13"/>
+      <c r="O5" s="13">
         <v>21868</v>
       </c>
-      <c r="N5" s="16">
+      <c r="P5" s="16">
         <v>23068</v>
       </c>
-      <c r="O5" s="16">
+      <c r="Q5" s="9">
+        <f>O5/31371</f>
+        <v>0.697076918172835</v>
+      </c>
+      <c r="R5" s="16">
         <v>0.3372</v>
       </c>
-      <c r="P5" s="16">
+      <c r="S5" s="16">
         <v>2.97</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="T5" s="18">
         <f t="shared" si="1"/>
         <v>1.44839857651246</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>20.37</v>
       </c>
     </row>
-    <row r="6" ht="17.6" spans="1:18">
+    <row r="6" ht="17.6" spans="1:21">
       <c r="A6">
         <v>12</v>
       </c>
@@ -8851,33 +8906,42 @@
         <f t="shared" si="0"/>
         <v>51.8375</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="9">
+        <f>J6/61.6</f>
+        <v>0.841517857142857</v>
+      </c>
+      <c r="L6" s="15">
         <v>9731952896</v>
       </c>
-      <c r="L6" s="11">
+      <c r="M6" s="11">
         <v>2205796352</v>
       </c>
-      <c r="M6" s="15">
+      <c r="N6" s="15"/>
+      <c r="O6" s="15">
         <v>18700</v>
       </c>
-      <c r="N6" s="17">
+      <c r="P6" s="17">
         <v>19900</v>
       </c>
-      <c r="O6" s="17">
+      <c r="Q6" s="9">
+        <f>O6/31371</f>
+        <v>0.596091932039144</v>
+      </c>
+      <c r="R6" s="17">
         <v>0.2955</v>
       </c>
-      <c r="P6" s="17">
+      <c r="S6" s="17">
         <v>3.38</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="T6" s="18">
         <f t="shared" si="1"/>
         <v>1.65279187817259</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>20.62</v>
       </c>
     </row>
-    <row r="7" ht="17.6" spans="1:18">
+    <row r="7" ht="17.6" spans="1:21">
       <c r="A7">
         <v>15</v>
       </c>
@@ -8909,29 +8973,38 @@
         <f t="shared" si="0"/>
         <v>48.1125</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="9">
+        <f>J7/61.6</f>
+        <v>0.781047077922078</v>
+      </c>
+      <c r="L7" s="16">
         <v>8071009088</v>
       </c>
-      <c r="L7" s="11">
+      <c r="M7" s="11">
         <v>2050082816</v>
       </c>
-      <c r="M7" s="16">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
         <v>15532</v>
       </c>
-      <c r="N7" s="16">
+      <c r="P7" s="16">
         <v>16732</v>
       </c>
-      <c r="O7" s="16">
+      <c r="Q7" s="9">
+        <f>O7/31371</f>
+        <v>0.495106945905454</v>
+      </c>
+      <c r="R7" s="16">
         <v>0.2535</v>
       </c>
-      <c r="P7" s="16">
+      <c r="S7" s="16">
         <v>3.94</v>
       </c>
-      <c r="Q7" s="13">
-        <f>0.4884/O7</f>
+      <c r="T7" s="13">
+        <f t="shared" si="1"/>
         <v>1.92662721893491</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>22.77</v>
       </c>
     </row>
@@ -8942,6 +9015,338 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <cols>
+    <col min="9" max="9" width="12.9230769230769"/>
+    <col min="10" max="10" width="10"/>
+    <col min="15" max="15" width="12.9230769230769"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:16">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:16">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>48.3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>77.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>78.7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>70.1</v>
+      </c>
+      <c r="H2" s="10">
+        <f>AVERAGE(B2:G2)</f>
+        <v>65.2333333333333</v>
+      </c>
+      <c r="I2" s="23">
+        <v>16375728128</v>
+      </c>
+      <c r="J2" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="K2" s="23">
+        <v>31371</v>
+      </c>
+      <c r="L2" s="23">
+        <v>32571</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0.4668</v>
+      </c>
+      <c r="N2" s="9">
+        <v>2.14</v>
+      </c>
+      <c r="O2" s="27">
+        <f t="shared" ref="O2:O6" si="0">0.4884/M2</f>
+        <v>1.04627249357326</v>
+      </c>
+      <c r="P2">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:16">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
+        <v>41.3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>47.2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>62.7</v>
+      </c>
+      <c r="E3" s="7">
+        <v>39.8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>77.7</v>
+      </c>
+      <c r="G3" s="7">
+        <v>73.6</v>
+      </c>
+      <c r="H3" s="14">
+        <f>AVERAGE(B3:G3)</f>
+        <v>57.05</v>
+      </c>
+      <c r="I3" s="15">
+        <v>13053840512</v>
+      </c>
+      <c r="J3" s="11">
+        <v>2517223424</v>
+      </c>
+      <c r="K3" s="15">
+        <v>25035</v>
+      </c>
+      <c r="L3" s="17">
+        <v>26235</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0.374</v>
+      </c>
+      <c r="N3" s="17">
+        <v>2.67</v>
+      </c>
+      <c r="O3" s="18">
+        <f t="shared" si="0"/>
+        <v>1.30588235294118</v>
+      </c>
+      <c r="P3">
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:16">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>66</v>
+      </c>
+      <c r="D4" s="5">
+        <v>57.8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>41.2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>74.2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>71.2</v>
+      </c>
+      <c r="H4" s="12">
+        <f>AVERAGE(B4:G4)</f>
+        <v>58.3166666666667</v>
+      </c>
+      <c r="I4" s="13">
+        <v>11392896704</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2361509888</v>
+      </c>
+      <c r="K4" s="13">
+        <v>21868</v>
+      </c>
+      <c r="L4" s="16">
+        <v>23068</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0.3372</v>
+      </c>
+      <c r="N4" s="16">
+        <v>2.97</v>
+      </c>
+      <c r="O4" s="18">
+        <f t="shared" si="0"/>
+        <v>1.44839857651246</v>
+      </c>
+      <c r="P4">
+        <v>20.37</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:16">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7">
+        <v>35.8</v>
+      </c>
+      <c r="C5" s="7">
+        <v>63.9</v>
+      </c>
+      <c r="D5" s="7">
+        <v>57.9</v>
+      </c>
+      <c r="E5" s="7">
+        <v>37.4</v>
+      </c>
+      <c r="F5" s="7">
+        <v>72.5</v>
+      </c>
+      <c r="G5" s="7">
+        <v>70.3</v>
+      </c>
+      <c r="H5" s="14">
+        <f>AVERAGE(B5:G5)</f>
+        <v>56.3</v>
+      </c>
+      <c r="I5" s="15">
+        <v>9731952896</v>
+      </c>
+      <c r="J5" s="11">
+        <v>2205796352</v>
+      </c>
+      <c r="K5" s="15">
+        <v>18700</v>
+      </c>
+      <c r="L5" s="17">
+        <v>19900</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0.2955</v>
+      </c>
+      <c r="N5" s="17">
+        <v>3.38</v>
+      </c>
+      <c r="O5" s="18">
+        <f t="shared" si="0"/>
+        <v>1.65279187817259</v>
+      </c>
+      <c r="P5">
+        <v>20.62</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:16">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5">
+        <v>25.3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>56.7</v>
+      </c>
+      <c r="D6" s="5">
+        <v>22.3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>30.2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>53.4</v>
+      </c>
+      <c r="G6" s="5">
+        <v>50.6</v>
+      </c>
+      <c r="H6" s="12">
+        <f>AVERAGE(B6:G6)</f>
+        <v>39.75</v>
+      </c>
+      <c r="I6" s="16">
+        <v>8071009088</v>
+      </c>
+      <c r="J6" s="11">
+        <v>2050082816</v>
+      </c>
+      <c r="K6" s="16">
+        <v>15532</v>
+      </c>
+      <c r="L6" s="16">
+        <v>16732</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0.2535</v>
+      </c>
+      <c r="N6" s="16">
+        <v>3.94</v>
+      </c>
+      <c r="O6" s="13">
+        <f t="shared" si="0"/>
+        <v>1.92662721893491</v>
+      </c>
+      <c r="P6">
+        <v>22.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R7"/>
@@ -8990,7 +9395,7 @@
         <v>131</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>132</v>
@@ -9365,7 +9770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R7"/>
@@ -9790,13 +10195,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -10181,427 +10586,6 @@
       <c r="J7" s="12">
         <f t="shared" si="0"/>
         <v>48.675</v>
-      </c>
-      <c r="K7" s="25">
-        <v>8849576498</v>
-      </c>
-      <c r="L7" s="24">
-        <v>2828650496</v>
-      </c>
-      <c r="M7" s="25">
-        <v>17017</v>
-      </c>
-      <c r="N7" s="25">
-        <v>18217</v>
-      </c>
-      <c r="O7" s="25">
-        <v>0.295</v>
-      </c>
-      <c r="P7" s="25">
-        <v>3.39</v>
-      </c>
-      <c r="Q7" s="27">
-        <f t="shared" si="1"/>
-        <v>1.65559322033898</v>
-      </c>
-      <c r="R7">
-        <v>18.68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
-  <sheetData>
-    <row r="1" ht="17.6" spans="1:18">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" ht="17.6" spans="1:18">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>48.3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>72.7</v>
-      </c>
-      <c r="D2" s="4">
-        <v>77.4</v>
-      </c>
-      <c r="E2" s="4">
-        <v>38.3</v>
-      </c>
-      <c r="F2" s="4">
-        <v>44.2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>78.7</v>
-      </c>
-      <c r="H2" s="4">
-        <v>63.2</v>
-      </c>
-      <c r="I2" s="4">
-        <v>70.1</v>
-      </c>
-      <c r="J2" s="10">
-        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
-        <v>61.6125</v>
-      </c>
-      <c r="K2" s="23">
-        <v>16375728128</v>
-      </c>
-      <c r="L2" s="24">
-        <v>2828650496</v>
-      </c>
-      <c r="M2" s="23">
-        <v>31371</v>
-      </c>
-      <c r="N2" s="23">
-        <v>32571</v>
-      </c>
-      <c r="O2" s="9">
-        <v>0.4668</v>
-      </c>
-      <c r="P2" s="9">
-        <v>2.14</v>
-      </c>
-      <c r="Q2" s="27">
-        <f t="shared" ref="Q2:Q7" si="1">0.4884/O2</f>
-        <v>1.04627249357326</v>
-      </c>
-      <c r="R2">
-        <v>16.18</v>
-      </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:18">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5">
-        <v>43.2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>73.9</v>
-      </c>
-      <c r="D3" s="5">
-        <v>73</v>
-      </c>
-      <c r="E3" s="5">
-        <v>35.4</v>
-      </c>
-      <c r="F3" s="5">
-        <v>41.2</v>
-      </c>
-      <c r="G3" s="5">
-        <v>78.2</v>
-      </c>
-      <c r="H3" s="5">
-        <v>61.7</v>
-      </c>
-      <c r="I3" s="5">
-        <v>69.5</v>
-      </c>
-      <c r="J3" s="12">
-        <f t="shared" si="0"/>
-        <v>59.5125</v>
-      </c>
-      <c r="K3" s="25">
-        <v>14870497802</v>
-      </c>
-      <c r="L3" s="24">
-        <v>2828650496</v>
-      </c>
-      <c r="M3" s="25">
-        <v>28500</v>
-      </c>
-      <c r="N3" s="25">
-        <v>29700</v>
-      </c>
-      <c r="O3" s="25">
-        <v>0.4208</v>
-      </c>
-      <c r="P3" s="25">
-        <v>2.38</v>
-      </c>
-      <c r="Q3" s="27">
-        <f t="shared" si="1"/>
-        <v>1.1606463878327</v>
-      </c>
-      <c r="R3">
-        <v>16.56</v>
-      </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:18">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>38.7</v>
-      </c>
-      <c r="C4" s="7">
-        <v>71.8</v>
-      </c>
-      <c r="D4" s="7">
-        <v>67.2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>31.6</v>
-      </c>
-      <c r="F4" s="7">
-        <v>37.4</v>
-      </c>
-      <c r="G4" s="7">
-        <v>77</v>
-      </c>
-      <c r="H4" s="7">
-        <v>61.4</v>
-      </c>
-      <c r="I4" s="7">
-        <v>66.5</v>
-      </c>
-      <c r="J4" s="14">
-        <f t="shared" si="0"/>
-        <v>56.45</v>
-      </c>
-      <c r="K4" s="26">
-        <v>13365267476</v>
-      </c>
-      <c r="L4" s="24">
-        <v>2828650496</v>
-      </c>
-      <c r="M4" s="26">
-        <v>25629</v>
-      </c>
-      <c r="N4" s="26">
-        <v>26289</v>
-      </c>
-      <c r="O4" s="26">
-        <v>0.4043</v>
-      </c>
-      <c r="P4" s="26">
-        <v>2.47</v>
-      </c>
-      <c r="Q4" s="27">
-        <f t="shared" si="1"/>
-        <v>1.20801385110067</v>
-      </c>
-      <c r="R4">
-        <v>16.79</v>
-      </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:18">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>37.9</v>
-      </c>
-      <c r="C5" s="5">
-        <v>72.3</v>
-      </c>
-      <c r="D5" s="5">
-        <v>64.4</v>
-      </c>
-      <c r="E5" s="5">
-        <v>27.1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>37.6</v>
-      </c>
-      <c r="G5" s="5">
-        <v>75.9</v>
-      </c>
-      <c r="H5" s="5">
-        <v>61.7</v>
-      </c>
-      <c r="I5" s="5">
-        <v>67</v>
-      </c>
-      <c r="J5" s="12">
-        <f t="shared" si="0"/>
-        <v>55.4875</v>
-      </c>
-      <c r="K5" s="25">
-        <v>11860037150</v>
-      </c>
-      <c r="L5" s="24">
-        <v>2828650496</v>
-      </c>
-      <c r="M5" s="25">
-        <v>22759</v>
-      </c>
-      <c r="N5" s="25">
-        <v>23958</v>
-      </c>
-      <c r="O5" s="25">
-        <v>0.3755</v>
-      </c>
-      <c r="P5" s="25">
-        <v>2.66</v>
-      </c>
-      <c r="Q5" s="27">
-        <f t="shared" si="1"/>
-        <v>1.30066577896138</v>
-      </c>
-      <c r="R5">
-        <v>17.11</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:18">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7">
-        <v>34.5</v>
-      </c>
-      <c r="C6" s="7">
-        <v>69.8</v>
-      </c>
-      <c r="D6" s="7">
-        <v>59.4</v>
-      </c>
-      <c r="E6" s="7">
-        <v>24.1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>33.8</v>
-      </c>
-      <c r="G6" s="7">
-        <v>73.4</v>
-      </c>
-      <c r="H6" s="7">
-        <v>61.5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>65.5</v>
-      </c>
-      <c r="J6" s="14">
-        <f t="shared" si="0"/>
-        <v>52.75</v>
-      </c>
-      <c r="K6" s="26">
-        <v>10354806824</v>
-      </c>
-      <c r="L6" s="24">
-        <v>2828650496</v>
-      </c>
-      <c r="M6" s="26">
-        <v>19888</v>
-      </c>
-      <c r="N6" s="26">
-        <v>21088</v>
-      </c>
-      <c r="O6" s="26">
-        <v>0.3246</v>
-      </c>
-      <c r="P6" s="26">
-        <v>3.08</v>
-      </c>
-      <c r="Q6" s="27">
-        <f t="shared" si="1"/>
-        <v>1.50462107208872</v>
-      </c>
-      <c r="R6">
-        <v>17.76</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:18">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
-        <v>30.4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>65.5</v>
-      </c>
-      <c r="D7" s="5">
-        <v>52</v>
-      </c>
-      <c r="E7" s="5">
-        <v>24</v>
-      </c>
-      <c r="F7" s="5">
-        <v>31.4</v>
-      </c>
-      <c r="G7" s="5">
-        <v>68.7</v>
-      </c>
-      <c r="H7" s="5">
-        <v>56</v>
-      </c>
-      <c r="I7" s="5">
-        <v>63.8</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" si="0"/>
-        <v>48.975</v>
       </c>
       <c r="K7" s="25">
         <v>8849576498</v>
@@ -11128,21 +11112,19 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
-    <col min="11" max="11" width="16.1826923076923" customWidth="1"/>
-    <col min="12" max="12" width="14.4134615384615" customWidth="1"/>
-    <col min="15" max="15" width="12.0192307692308" customWidth="1"/>
-    <col min="16" max="16" width="14.0961538461538" customWidth="1"/>
+    <col min="9" max="9" width="12.9230769230769"/>
+    <col min="10" max="10" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:18">
+    <row r="1" ht="17.6" spans="1:16">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -11156,49 +11138,43 @@
         <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="H1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="L1" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="M1" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="N1" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="O1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="R1" t="s">
+      <c r="P1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" ht="17.6" spans="1:18">
+    <row r="2" ht="17.6" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11212,338 +11188,250 @@
         <v>77.4</v>
       </c>
       <c r="E2" s="4">
-        <v>38.3</v>
+        <v>44.2</v>
       </c>
       <c r="F2" s="4">
-        <v>44.2</v>
+        <v>78.7</v>
       </c>
       <c r="G2" s="4">
-        <v>78.7</v>
-      </c>
-      <c r="H2" s="4">
-        <v>63.2</v>
-      </c>
-      <c r="I2" s="4">
         <v>70.1</v>
       </c>
-      <c r="J2" s="10">
-        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
-        <v>61.6125</v>
-      </c>
-      <c r="K2" s="9">
+      <c r="H2" s="10">
+        <f t="shared" ref="H2:H6" si="0">AVERAGE(B2:G2)</f>
+        <v>65.2333333333333</v>
+      </c>
+      <c r="I2" s="23">
         <v>16375728128</v>
       </c>
-      <c r="L2" s="11">
+      <c r="J2" s="24">
         <v>2828650496</v>
       </c>
+      <c r="K2" s="23">
+        <v>31371</v>
+      </c>
+      <c r="L2" s="23">
+        <v>32571</v>
+      </c>
       <c r="M2" s="9">
-        <v>31371</v>
+        <v>0.4668</v>
       </c>
       <c r="N2" s="9">
-        <v>32571</v>
-      </c>
-      <c r="O2" s="9">
-        <v>0.4668</v>
-      </c>
-      <c r="P2" s="9">
         <v>2.14</v>
       </c>
-      <c r="Q2" s="18">
-        <f t="shared" ref="Q2:Q7" si="1">0.4884/O2</f>
+      <c r="O2" s="27">
+        <f t="shared" ref="O2:O6" si="1">0.4884/M2</f>
         <v>1.04627249357326</v>
       </c>
-      <c r="R2">
+      <c r="P2">
         <v>16.18</v>
       </c>
     </row>
-    <row r="3" ht="17.6" spans="1:18">
+    <row r="3" ht="17.6" spans="1:16">
       <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45.1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>73.8</v>
-      </c>
-      <c r="D3" s="5">
-        <v>74.2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>32.6</v>
-      </c>
-      <c r="F3" s="5">
-        <v>42.4</v>
-      </c>
-      <c r="G3" s="5">
-        <v>79</v>
-      </c>
-      <c r="H3" s="5">
-        <v>60.1</v>
-      </c>
-      <c r="I3" s="5">
-        <v>68.5</v>
-      </c>
-      <c r="J3" s="12">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
+        <v>42.8</v>
+      </c>
+      <c r="C3" s="7">
+        <v>65.4</v>
+      </c>
+      <c r="D3" s="7">
+        <v>65.6</v>
+      </c>
+      <c r="E3" s="7">
+        <v>41</v>
+      </c>
+      <c r="F3" s="7">
+        <v>76.9</v>
+      </c>
+      <c r="G3" s="7">
+        <v>73</v>
+      </c>
+      <c r="H3" s="14">
         <f t="shared" si="0"/>
-        <v>59.4625</v>
-      </c>
-      <c r="K3" s="13">
-        <v>14714784320</v>
-      </c>
-      <c r="L3" s="11">
-        <v>2672936960</v>
-      </c>
-      <c r="M3" s="13">
-        <v>28203</v>
-      </c>
-      <c r="N3" s="16">
-        <v>29403</v>
-      </c>
-      <c r="O3" s="16">
-        <v>0.4094</v>
-      </c>
-      <c r="P3" s="16">
-        <v>2.44</v>
-      </c>
-      <c r="Q3" s="18">
+        <v>60.7833333333333</v>
+      </c>
+      <c r="I3" s="26">
+        <v>13365267476</v>
+      </c>
+      <c r="J3" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="K3" s="26">
+        <v>25629</v>
+      </c>
+      <c r="L3" s="26">
+        <v>26289</v>
+      </c>
+      <c r="M3" s="26">
+        <v>0.4043</v>
+      </c>
+      <c r="N3" s="26">
+        <v>2.47</v>
+      </c>
+      <c r="O3" s="27">
         <f t="shared" si="1"/>
-        <v>1.19296531509526</v>
-      </c>
-      <c r="R3">
-        <v>17.06</v>
-      </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:18">
+        <v>1.20801385110067</v>
+      </c>
+      <c r="P3">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:16">
       <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>39.5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>71.1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>68.5</v>
-      </c>
-      <c r="E4" s="6">
-        <v>30.6</v>
-      </c>
-      <c r="F4" s="6">
-        <v>40.2</v>
-      </c>
-      <c r="G4" s="6">
-        <v>77</v>
-      </c>
-      <c r="H4" s="6">
-        <v>60.9</v>
-      </c>
-      <c r="I4" s="6">
-        <v>67</v>
-      </c>
-      <c r="J4" s="14">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43.3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>70.9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>64.9</v>
+      </c>
+      <c r="E4" s="5">
+        <v>38.2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>77.9</v>
+      </c>
+      <c r="G4" s="5">
+        <v>74</v>
+      </c>
+      <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>56.85</v>
-      </c>
-      <c r="K4" s="15">
-        <v>13053840512</v>
-      </c>
-      <c r="L4" s="11">
-        <v>2517223424</v>
-      </c>
-      <c r="M4" s="15">
-        <v>25035</v>
-      </c>
-      <c r="N4" s="17">
-        <v>26235</v>
-      </c>
-      <c r="O4" s="17">
-        <v>0.374</v>
-      </c>
-      <c r="P4" s="17">
-        <v>2.67</v>
-      </c>
-      <c r="Q4" s="18">
+        <v>61.5333333333333</v>
+      </c>
+      <c r="I4" s="25">
+        <v>11860037150</v>
+      </c>
+      <c r="J4" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="K4" s="25">
+        <v>22759</v>
+      </c>
+      <c r="L4" s="25">
+        <v>23958</v>
+      </c>
+      <c r="M4" s="25">
+        <v>0.3755</v>
+      </c>
+      <c r="N4" s="25">
+        <v>2.66</v>
+      </c>
+      <c r="O4" s="27">
         <f t="shared" si="1"/>
-        <v>1.30588235294118</v>
-      </c>
-      <c r="R4">
-        <v>18.48</v>
-      </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:18">
+        <v>1.30066577896138</v>
+      </c>
+      <c r="P4">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:16">
       <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>38.1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>65.3</v>
-      </c>
-      <c r="D5" s="5">
-        <v>66.1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>29.6</v>
-      </c>
-      <c r="F5" s="5">
-        <v>38</v>
-      </c>
-      <c r="G5" s="5">
-        <v>75</v>
-      </c>
-      <c r="H5" s="28">
-        <v>62.1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>65</v>
-      </c>
-      <c r="J5" s="12">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7">
+        <v>39.1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>68</v>
+      </c>
+      <c r="D5" s="7">
+        <v>63</v>
+      </c>
+      <c r="E5" s="7">
+        <v>36.6</v>
+      </c>
+      <c r="F5" s="7">
+        <v>76</v>
+      </c>
+      <c r="G5" s="7">
+        <v>71.7</v>
+      </c>
+      <c r="H5" s="14">
         <f t="shared" si="0"/>
-        <v>54.9</v>
-      </c>
-      <c r="K5" s="13">
-        <v>11392896704</v>
-      </c>
-      <c r="L5" s="11">
-        <v>2361509888</v>
-      </c>
-      <c r="M5" s="13">
-        <v>21868</v>
-      </c>
-      <c r="N5" s="16">
-        <v>23068</v>
-      </c>
-      <c r="O5" s="16">
-        <v>0.3372</v>
-      </c>
-      <c r="P5" s="16">
-        <v>2.97</v>
-      </c>
-      <c r="Q5" s="18">
+        <v>59.0666666666667</v>
+      </c>
+      <c r="I5" s="26">
+        <v>10354806824</v>
+      </c>
+      <c r="J5" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="K5" s="26">
+        <v>19888</v>
+      </c>
+      <c r="L5" s="26">
+        <v>21088</v>
+      </c>
+      <c r="M5" s="26">
+        <v>0.3246</v>
+      </c>
+      <c r="N5" s="26">
+        <v>3.08</v>
+      </c>
+      <c r="O5" s="27">
         <f t="shared" si="1"/>
-        <v>1.44839857651246</v>
-      </c>
-      <c r="R5">
-        <v>20.37</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:18">
+        <v>1.50462107208872</v>
+      </c>
+      <c r="P5">
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:16">
       <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7">
-        <v>34.1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>64.5</v>
-      </c>
-      <c r="D6" s="7">
-        <v>61</v>
-      </c>
-      <c r="E6" s="7">
-        <v>29.1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>37.2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>71.2</v>
-      </c>
-      <c r="H6" s="29">
-        <v>59.6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>64.2</v>
-      </c>
-      <c r="J6" s="14">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5">
+        <v>35.5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>58.3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>58.9</v>
+      </c>
+      <c r="E6" s="5">
+        <v>35.2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>73.3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>71</v>
+      </c>
+      <c r="H6" s="12">
         <f t="shared" si="0"/>
-        <v>52.6125</v>
-      </c>
-      <c r="K6" s="15">
-        <v>9731952896</v>
-      </c>
-      <c r="L6" s="11">
-        <v>2205796352</v>
-      </c>
-      <c r="M6" s="15">
-        <v>18700</v>
-      </c>
-      <c r="N6" s="17">
-        <v>19900</v>
-      </c>
-      <c r="O6" s="17">
-        <v>0.2955</v>
-      </c>
-      <c r="P6" s="17">
-        <v>3.38</v>
-      </c>
-      <c r="Q6" s="18">
+        <v>55.3666666666667</v>
+      </c>
+      <c r="I6" s="25">
+        <v>8849576498</v>
+      </c>
+      <c r="J6" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="K6" s="25">
+        <v>17017</v>
+      </c>
+      <c r="L6" s="25">
+        <v>18217</v>
+      </c>
+      <c r="M6" s="25">
+        <v>0.295</v>
+      </c>
+      <c r="N6" s="25">
+        <v>3.39</v>
+      </c>
+      <c r="O6" s="27">
         <f t="shared" si="1"/>
-        <v>1.65279187817259</v>
-      </c>
-      <c r="R6">
-        <v>20.62</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:18">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
-        <v>31.9</v>
-      </c>
-      <c r="C7" s="5">
-        <v>63.1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>50.1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>26.1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>32.7</v>
-      </c>
-      <c r="G7" s="5">
-        <v>67.9</v>
-      </c>
-      <c r="H7" s="5">
-        <v>57.5</v>
-      </c>
-      <c r="I7" s="5">
-        <v>60.5</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" si="0"/>
-        <v>48.725</v>
-      </c>
-      <c r="K7" s="16">
-        <v>8071009088</v>
-      </c>
-      <c r="L7" s="11">
-        <v>2050082816</v>
-      </c>
-      <c r="M7" s="16">
-        <v>15532</v>
-      </c>
-      <c r="N7" s="16">
-        <v>16732</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0.2535</v>
-      </c>
-      <c r="P7" s="16">
-        <v>3.94</v>
-      </c>
-      <c r="Q7" s="13">
-        <f t="shared" si="1"/>
-        <v>1.92662721893491</v>
-      </c>
-      <c r="R7">
-        <v>22.77</v>
+        <v>1.65559322033898</v>
+      </c>
+      <c r="P6">
+        <v>18.68</v>
       </c>
     </row>
   </sheetData>
@@ -11553,6 +11441,1334 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="9" max="9" width="24.3461538461538" customWidth="1"/>
+    <col min="10" max="11" width="11.7692307692308"/>
+    <col min="12" max="12" width="14.5769230769231" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:18">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:18">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>48.3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>77.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>38.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>78.7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>63.2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>70.1</v>
+      </c>
+      <c r="J2" s="10">
+        <f>AVERAGE(B2:I2)</f>
+        <v>61.6125</v>
+      </c>
+      <c r="K2" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="L2" s="23">
+        <v>16375728128</v>
+      </c>
+      <c r="M2" s="23">
+        <v>31371</v>
+      </c>
+      <c r="N2" s="23">
+        <v>32571</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0.4668</v>
+      </c>
+      <c r="P2" s="9">
+        <v>2.14</v>
+      </c>
+      <c r="Q2" s="27">
+        <f t="shared" ref="Q2:Q7" si="0">0.4884/O2</f>
+        <v>1.04627249357326</v>
+      </c>
+      <c r="R2">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:18">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43.7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>73.7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>74.8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>38</v>
+      </c>
+      <c r="F3" s="5">
+        <v>39</v>
+      </c>
+      <c r="G3" s="5">
+        <v>78.8</v>
+      </c>
+      <c r="H3" s="28">
+        <v>58.8</v>
+      </c>
+      <c r="I3" s="5">
+        <v>68.6</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" ref="J3:J7" si="1">AVERAGE(B3:I3)</f>
+        <v>59.425</v>
+      </c>
+      <c r="K3" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="L3" s="25">
+        <v>14870497802</v>
+      </c>
+      <c r="M3" s="25">
+        <v>28500</v>
+      </c>
+      <c r="N3" s="25">
+        <v>29700</v>
+      </c>
+      <c r="O3" s="25">
+        <v>0.4208</v>
+      </c>
+      <c r="P3" s="25">
+        <v>2.38</v>
+      </c>
+      <c r="Q3" s="27">
+        <f t="shared" si="0"/>
+        <v>1.1606463878327</v>
+      </c>
+      <c r="R3">
+        <v>16.56</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:18">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>39.5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>74.1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>69.1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>29.7</v>
+      </c>
+      <c r="F4" s="7">
+        <v>38</v>
+      </c>
+      <c r="G4" s="7">
+        <v>77.2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>60.7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>68.4</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="1"/>
+        <v>57.0875</v>
+      </c>
+      <c r="K4" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="L4" s="26">
+        <v>13365267476</v>
+      </c>
+      <c r="M4" s="26">
+        <v>25629</v>
+      </c>
+      <c r="N4" s="26">
+        <v>26289</v>
+      </c>
+      <c r="O4" s="26">
+        <v>0.4043</v>
+      </c>
+      <c r="P4" s="26">
+        <v>2.47</v>
+      </c>
+      <c r="Q4" s="27">
+        <f t="shared" si="0"/>
+        <v>1.20801385110067</v>
+      </c>
+      <c r="R4">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:18">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>38.7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>71.6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>67.6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>27.9</v>
+      </c>
+      <c r="F5" s="5">
+        <v>37.8</v>
+      </c>
+      <c r="G5" s="5">
+        <v>75.6</v>
+      </c>
+      <c r="H5" s="28">
+        <v>59.6</v>
+      </c>
+      <c r="I5" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="1"/>
+        <v>55.6625</v>
+      </c>
+      <c r="K5" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="L5" s="25">
+        <v>11860037150</v>
+      </c>
+      <c r="M5" s="25">
+        <v>22759</v>
+      </c>
+      <c r="N5" s="25">
+        <v>23958</v>
+      </c>
+      <c r="O5" s="25">
+        <v>0.3755</v>
+      </c>
+      <c r="P5" s="25">
+        <v>2.66</v>
+      </c>
+      <c r="Q5" s="27">
+        <f t="shared" si="0"/>
+        <v>1.30066577896138</v>
+      </c>
+      <c r="R5">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:18">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7">
+        <v>35.7</v>
+      </c>
+      <c r="C6" s="7">
+        <v>65.1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>63.9</v>
+      </c>
+      <c r="E6" s="7">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7">
+        <v>36.6</v>
+      </c>
+      <c r="G6" s="7">
+        <v>73.7</v>
+      </c>
+      <c r="H6" s="29">
+        <v>59.9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>64.6</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="1"/>
+        <v>53.1875</v>
+      </c>
+      <c r="K6" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="L6" s="26">
+        <v>10354806824</v>
+      </c>
+      <c r="M6" s="26">
+        <v>19888</v>
+      </c>
+      <c r="N6" s="26">
+        <v>21088</v>
+      </c>
+      <c r="O6" s="26">
+        <v>0.3246</v>
+      </c>
+      <c r="P6" s="26">
+        <v>3.08</v>
+      </c>
+      <c r="Q6" s="27">
+        <f t="shared" si="0"/>
+        <v>1.50462107208872</v>
+      </c>
+      <c r="R6">
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:18">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>32.3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>62.7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>57.1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>25.1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>34.2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>69.6</v>
+      </c>
+      <c r="H7" s="5">
+        <v>56.7</v>
+      </c>
+      <c r="I7" s="5">
+        <v>62</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="1"/>
+        <v>49.9625</v>
+      </c>
+      <c r="K7" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="L7" s="25">
+        <v>8849576498</v>
+      </c>
+      <c r="M7" s="25">
+        <v>17017</v>
+      </c>
+      <c r="N7" s="25">
+        <v>18217</v>
+      </c>
+      <c r="O7" s="25">
+        <v>0.295</v>
+      </c>
+      <c r="P7" s="25">
+        <v>3.39</v>
+      </c>
+      <c r="Q7" s="27">
+        <f t="shared" si="0"/>
+        <v>1.65559322033898</v>
+      </c>
+      <c r="R7">
+        <v>18.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:18">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:18">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>48.3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>77.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>38.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>78.7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>63.2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>70.1</v>
+      </c>
+      <c r="J2" s="10">
+        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
+        <v>61.6125</v>
+      </c>
+      <c r="K2" s="23">
+        <v>16375728128</v>
+      </c>
+      <c r="L2" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="M2" s="23">
+        <v>31371</v>
+      </c>
+      <c r="N2" s="23">
+        <v>32571</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0.4668</v>
+      </c>
+      <c r="P2" s="9">
+        <v>2.14</v>
+      </c>
+      <c r="Q2" s="27">
+        <f t="shared" ref="Q2:Q7" si="1">0.4884/O2</f>
+        <v>1.04627249357326</v>
+      </c>
+      <c r="R2">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:18">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43.2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>73.9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>73</v>
+      </c>
+      <c r="E3" s="5">
+        <v>35.4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>41.2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>78.2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>61.7</v>
+      </c>
+      <c r="I3" s="5">
+        <v>69.5</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" si="0"/>
+        <v>59.5125</v>
+      </c>
+      <c r="K3" s="25">
+        <v>14870497802</v>
+      </c>
+      <c r="L3" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="M3" s="25">
+        <v>28500</v>
+      </c>
+      <c r="N3" s="25">
+        <v>29700</v>
+      </c>
+      <c r="O3" s="25">
+        <v>0.4208</v>
+      </c>
+      <c r="P3" s="25">
+        <v>2.38</v>
+      </c>
+      <c r="Q3" s="27">
+        <f t="shared" si="1"/>
+        <v>1.1606463878327</v>
+      </c>
+      <c r="R3">
+        <v>16.56</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:18">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>38.7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>71.8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>67.2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>31.6</v>
+      </c>
+      <c r="F4" s="7">
+        <v>37.4</v>
+      </c>
+      <c r="G4" s="7">
+        <v>77</v>
+      </c>
+      <c r="H4" s="7">
+        <v>61.4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>66.5</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="0"/>
+        <v>56.45</v>
+      </c>
+      <c r="K4" s="26">
+        <v>13365267476</v>
+      </c>
+      <c r="L4" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="M4" s="26">
+        <v>25629</v>
+      </c>
+      <c r="N4" s="26">
+        <v>26289</v>
+      </c>
+      <c r="O4" s="26">
+        <v>0.4043</v>
+      </c>
+      <c r="P4" s="26">
+        <v>2.47</v>
+      </c>
+      <c r="Q4" s="27">
+        <f t="shared" si="1"/>
+        <v>1.20801385110067</v>
+      </c>
+      <c r="R4">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:18">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>37.9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>72.3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>64.4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>27.1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>37.6</v>
+      </c>
+      <c r="G5" s="5">
+        <v>75.9</v>
+      </c>
+      <c r="H5" s="5">
+        <v>61.7</v>
+      </c>
+      <c r="I5" s="5">
+        <v>67</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="0"/>
+        <v>55.4875</v>
+      </c>
+      <c r="K5" s="25">
+        <v>11860037150</v>
+      </c>
+      <c r="L5" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="M5" s="25">
+        <v>22759</v>
+      </c>
+      <c r="N5" s="25">
+        <v>23958</v>
+      </c>
+      <c r="O5" s="25">
+        <v>0.3755</v>
+      </c>
+      <c r="P5" s="25">
+        <v>2.66</v>
+      </c>
+      <c r="Q5" s="27">
+        <f t="shared" si="1"/>
+        <v>1.30066577896138</v>
+      </c>
+      <c r="R5">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:18">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7">
+        <v>34.5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>69.8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59.4</v>
+      </c>
+      <c r="E6" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>33.8</v>
+      </c>
+      <c r="G6" s="7">
+        <v>73.4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>61.5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>65.5</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="0"/>
+        <v>52.75</v>
+      </c>
+      <c r="K6" s="26">
+        <v>10354806824</v>
+      </c>
+      <c r="L6" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="M6" s="26">
+        <v>19888</v>
+      </c>
+      <c r="N6" s="26">
+        <v>21088</v>
+      </c>
+      <c r="O6" s="26">
+        <v>0.3246</v>
+      </c>
+      <c r="P6" s="26">
+        <v>3.08</v>
+      </c>
+      <c r="Q6" s="27">
+        <f t="shared" si="1"/>
+        <v>1.50462107208872</v>
+      </c>
+      <c r="R6">
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:18">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>30.4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>52</v>
+      </c>
+      <c r="E7" s="5">
+        <v>24</v>
+      </c>
+      <c r="F7" s="5">
+        <v>31.4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>68.7</v>
+      </c>
+      <c r="H7" s="5">
+        <v>56</v>
+      </c>
+      <c r="I7" s="5">
+        <v>63.8</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="0"/>
+        <v>48.975</v>
+      </c>
+      <c r="K7" s="25">
+        <v>8849576498</v>
+      </c>
+      <c r="L7" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="M7" s="25">
+        <v>17017</v>
+      </c>
+      <c r="N7" s="25">
+        <v>18217</v>
+      </c>
+      <c r="O7" s="25">
+        <v>0.295</v>
+      </c>
+      <c r="P7" s="25">
+        <v>3.39</v>
+      </c>
+      <c r="Q7" s="27">
+        <f t="shared" si="1"/>
+        <v>1.65559322033898</v>
+      </c>
+      <c r="R7">
+        <v>18.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P1:P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="11" max="12" width="16.1826923076923" customWidth="1"/>
+    <col min="13" max="13" width="14.4134615384615" customWidth="1"/>
+    <col min="16" max="17" width="12.0192307692308" customWidth="1"/>
+    <col min="18" max="18" width="14.0961538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:20">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="T1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:20">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>48.3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>77.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>38.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>78.7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>63.2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>70.1</v>
+      </c>
+      <c r="J2" s="10">
+        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
+        <v>61.6125</v>
+      </c>
+      <c r="K2" s="9">
+        <f>J2/61.6</f>
+        <v>1.00020292207792</v>
+      </c>
+      <c r="L2" s="9">
+        <v>16375728128</v>
+      </c>
+      <c r="M2" s="11">
+        <v>2828650496</v>
+      </c>
+      <c r="N2" s="9">
+        <v>31371</v>
+      </c>
+      <c r="O2" s="9">
+        <v>32571</v>
+      </c>
+      <c r="P2" s="9">
+        <f>N2/31371</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0.4668</v>
+      </c>
+      <c r="R2" s="9">
+        <v>2.14</v>
+      </c>
+      <c r="S2" s="18">
+        <f t="shared" ref="S2:S7" si="1">0.4884/Q2</f>
+        <v>1.04627249357326</v>
+      </c>
+      <c r="T2">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:20">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45.1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>73.8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>74.2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="F3" s="5">
+        <v>42.4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>79</v>
+      </c>
+      <c r="H3" s="5">
+        <v>60.1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>68.5</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" si="0"/>
+        <v>59.4625</v>
+      </c>
+      <c r="K3" s="9">
+        <f>J3/61.6</f>
+        <v>0.965300324675325</v>
+      </c>
+      <c r="L3" s="13">
+        <v>14714784320</v>
+      </c>
+      <c r="M3" s="11">
+        <v>2672936960</v>
+      </c>
+      <c r="N3" s="13">
+        <v>28203</v>
+      </c>
+      <c r="O3" s="16">
+        <v>29403</v>
+      </c>
+      <c r="P3" s="9">
+        <f>N3/31371</f>
+        <v>0.89901501386631</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0.4094</v>
+      </c>
+      <c r="R3" s="16">
+        <v>2.44</v>
+      </c>
+      <c r="S3" s="18">
+        <f t="shared" si="1"/>
+        <v>1.19296531509526</v>
+      </c>
+      <c r="T3">
+        <v>17.06</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:20">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>71.1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>68.5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>30.6</v>
+      </c>
+      <c r="F4" s="6">
+        <v>40.2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>77</v>
+      </c>
+      <c r="H4" s="6">
+        <v>60.9</v>
+      </c>
+      <c r="I4" s="6">
+        <v>67</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="0"/>
+        <v>56.85</v>
+      </c>
+      <c r="K4" s="9">
+        <f>J4/61.6</f>
+        <v>0.92288961038961</v>
+      </c>
+      <c r="L4" s="15">
+        <v>13053840512</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2517223424</v>
+      </c>
+      <c r="N4" s="15">
+        <v>25035</v>
+      </c>
+      <c r="O4" s="17">
+        <v>26235</v>
+      </c>
+      <c r="P4" s="9">
+        <f>N4/31371</f>
+        <v>0.798030027732619</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>0.374</v>
+      </c>
+      <c r="R4" s="17">
+        <v>2.67</v>
+      </c>
+      <c r="S4" s="18">
+        <f t="shared" si="1"/>
+        <v>1.30588235294118</v>
+      </c>
+      <c r="T4">
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:20">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>38.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>65.3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>66.1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>29.6</v>
+      </c>
+      <c r="F5" s="5">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5">
+        <v>75</v>
+      </c>
+      <c r="H5" s="28">
+        <v>62.1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>65</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="0"/>
+        <v>54.9</v>
+      </c>
+      <c r="K5" s="9">
+        <f>J5/61.6</f>
+        <v>0.891233766233766</v>
+      </c>
+      <c r="L5" s="13">
+        <v>11392896704</v>
+      </c>
+      <c r="M5" s="11">
+        <v>2361509888</v>
+      </c>
+      <c r="N5" s="13">
+        <v>21868</v>
+      </c>
+      <c r="O5" s="16">
+        <v>23068</v>
+      </c>
+      <c r="P5" s="9">
+        <f>N5/31371</f>
+        <v>0.697076918172835</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0.3372</v>
+      </c>
+      <c r="R5" s="16">
+        <v>2.97</v>
+      </c>
+      <c r="S5" s="18">
+        <f t="shared" si="1"/>
+        <v>1.44839857651246</v>
+      </c>
+      <c r="T5">
+        <v>20.37</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:20">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7">
+        <v>34.1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>64.5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>61</v>
+      </c>
+      <c r="E6" s="7">
+        <v>29.1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>37.2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>71.2</v>
+      </c>
+      <c r="H6" s="29">
+        <v>59.6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>64.2</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="0"/>
+        <v>52.6125</v>
+      </c>
+      <c r="K6" s="9">
+        <f>J6/61.6</f>
+        <v>0.854099025974026</v>
+      </c>
+      <c r="L6" s="15">
+        <v>9731952896</v>
+      </c>
+      <c r="M6" s="11">
+        <v>2205796352</v>
+      </c>
+      <c r="N6" s="15">
+        <v>18700</v>
+      </c>
+      <c r="O6" s="17">
+        <v>19900</v>
+      </c>
+      <c r="P6" s="9">
+        <f>N6/31371</f>
+        <v>0.596091932039144</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>0.2955</v>
+      </c>
+      <c r="R6" s="17">
+        <v>3.38</v>
+      </c>
+      <c r="S6" s="18">
+        <f t="shared" si="1"/>
+        <v>1.65279187817259</v>
+      </c>
+      <c r="T6">
+        <v>20.62</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:20">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>31.9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>63.1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>50.1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>26.1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>32.7</v>
+      </c>
+      <c r="G7" s="5">
+        <v>67.9</v>
+      </c>
+      <c r="H7" s="5">
+        <v>57.5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>60.5</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="0"/>
+        <v>48.725</v>
+      </c>
+      <c r="K7" s="9">
+        <f>J7/61.6</f>
+        <v>0.79099025974026</v>
+      </c>
+      <c r="L7" s="16">
+        <v>8071009088</v>
+      </c>
+      <c r="M7" s="11">
+        <v>2050082816</v>
+      </c>
+      <c r="N7" s="16">
+        <v>15532</v>
+      </c>
+      <c r="O7" s="16">
+        <v>16732</v>
+      </c>
+      <c r="P7" s="9">
+        <f>N7/31371</f>
+        <v>0.495106945905454</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0.2535</v>
+      </c>
+      <c r="R7" s="16">
+        <v>3.94</v>
+      </c>
+      <c r="S7" s="13">
+        <f t="shared" si="1"/>
+        <v>1.92662721893491</v>
+      </c>
+      <c r="T7">
+        <v>22.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R7"/>
@@ -11978,433 +13194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:Q7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
-  <cols>
-    <col min="9" max="9" width="24.3461538461538" customWidth="1"/>
-    <col min="10" max="11" width="11.7692307692308"/>
-    <col min="12" max="12" width="14.5769230769231" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.6" spans="1:18">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" ht="17.6" spans="1:18">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>48.3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>72.7</v>
-      </c>
-      <c r="D2" s="4">
-        <v>77.4</v>
-      </c>
-      <c r="E2" s="4">
-        <v>38.3</v>
-      </c>
-      <c r="F2" s="4">
-        <v>44.2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>78.7</v>
-      </c>
-      <c r="H2" s="4">
-        <v>63.2</v>
-      </c>
-      <c r="I2" s="4">
-        <v>70.1</v>
-      </c>
-      <c r="J2" s="10">
-        <f>AVERAGE(B2:I2)</f>
-        <v>61.6125</v>
-      </c>
-      <c r="K2" s="24">
-        <v>2828650496</v>
-      </c>
-      <c r="L2" s="23">
-        <v>16375728128</v>
-      </c>
-      <c r="M2" s="23">
-        <v>31371</v>
-      </c>
-      <c r="N2" s="23">
-        <v>32571</v>
-      </c>
-      <c r="O2" s="9">
-        <v>0.4668</v>
-      </c>
-      <c r="P2" s="9">
-        <v>2.14</v>
-      </c>
-      <c r="Q2" s="27">
-        <f t="shared" ref="Q2:Q7" si="0">0.4884/O2</f>
-        <v>1.04627249357326</v>
-      </c>
-      <c r="R2">
-        <v>16.18</v>
-      </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:18">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5">
-        <v>43.7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>73.7</v>
-      </c>
-      <c r="D3" s="5">
-        <v>74.8</v>
-      </c>
-      <c r="E3" s="5">
-        <v>38</v>
-      </c>
-      <c r="F3" s="5">
-        <v>39</v>
-      </c>
-      <c r="G3" s="5">
-        <v>78.8</v>
-      </c>
-      <c r="H3" s="28">
-        <v>58.8</v>
-      </c>
-      <c r="I3" s="5">
-        <v>68.6</v>
-      </c>
-      <c r="J3" s="12">
-        <f t="shared" ref="J3:J7" si="1">AVERAGE(B3:I3)</f>
-        <v>59.425</v>
-      </c>
-      <c r="K3" s="24">
-        <v>2828650496</v>
-      </c>
-      <c r="L3" s="25">
-        <v>14870497802</v>
-      </c>
-      <c r="M3" s="25">
-        <v>28500</v>
-      </c>
-      <c r="N3" s="25">
-        <v>29700</v>
-      </c>
-      <c r="O3" s="25">
-        <v>0.4208</v>
-      </c>
-      <c r="P3" s="25">
-        <v>2.38</v>
-      </c>
-      <c r="Q3" s="27">
-        <f t="shared" si="0"/>
-        <v>1.1606463878327</v>
-      </c>
-      <c r="R3">
-        <v>16.56</v>
-      </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:18">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>39.5</v>
-      </c>
-      <c r="C4" s="7">
-        <v>74.1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>69.1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>29.7</v>
-      </c>
-      <c r="F4" s="7">
-        <v>38</v>
-      </c>
-      <c r="G4" s="7">
-        <v>77.2</v>
-      </c>
-      <c r="H4" s="7">
-        <v>60.7</v>
-      </c>
-      <c r="I4" s="7">
-        <v>68.4</v>
-      </c>
-      <c r="J4" s="14">
-        <f t="shared" si="1"/>
-        <v>57.0875</v>
-      </c>
-      <c r="K4" s="24">
-        <v>2828650496</v>
-      </c>
-      <c r="L4" s="26">
-        <v>13365267476</v>
-      </c>
-      <c r="M4" s="26">
-        <v>25629</v>
-      </c>
-      <c r="N4" s="26">
-        <v>26289</v>
-      </c>
-      <c r="O4" s="26">
-        <v>0.4043</v>
-      </c>
-      <c r="P4" s="26">
-        <v>2.47</v>
-      </c>
-      <c r="Q4" s="27">
-        <f t="shared" si="0"/>
-        <v>1.20801385110067</v>
-      </c>
-      <c r="R4">
-        <v>16.79</v>
-      </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:18">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>38.7</v>
-      </c>
-      <c r="C5" s="5">
-        <v>71.6</v>
-      </c>
-      <c r="D5" s="5">
-        <v>67.6</v>
-      </c>
-      <c r="E5" s="5">
-        <v>27.9</v>
-      </c>
-      <c r="F5" s="5">
-        <v>37.8</v>
-      </c>
-      <c r="G5" s="5">
-        <v>75.6</v>
-      </c>
-      <c r="H5" s="28">
-        <v>59.6</v>
-      </c>
-      <c r="I5" s="5">
-        <v>66.5</v>
-      </c>
-      <c r="J5" s="12">
-        <f t="shared" si="1"/>
-        <v>55.6625</v>
-      </c>
-      <c r="K5" s="24">
-        <v>2828650496</v>
-      </c>
-      <c r="L5" s="25">
-        <v>11860037150</v>
-      </c>
-      <c r="M5" s="25">
-        <v>22759</v>
-      </c>
-      <c r="N5" s="25">
-        <v>23958</v>
-      </c>
-      <c r="O5" s="25">
-        <v>0.3755</v>
-      </c>
-      <c r="P5" s="25">
-        <v>2.66</v>
-      </c>
-      <c r="Q5" s="27">
-        <f t="shared" si="0"/>
-        <v>1.30066577896138</v>
-      </c>
-      <c r="R5">
-        <v>17.11</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:18">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7">
-        <v>35.7</v>
-      </c>
-      <c r="C6" s="7">
-        <v>65.1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>63.9</v>
-      </c>
-      <c r="E6" s="7">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7">
-        <v>36.6</v>
-      </c>
-      <c r="G6" s="7">
-        <v>73.7</v>
-      </c>
-      <c r="H6" s="29">
-        <v>59.9</v>
-      </c>
-      <c r="I6" s="7">
-        <v>64.6</v>
-      </c>
-      <c r="J6" s="14">
-        <f t="shared" si="1"/>
-        <v>53.1875</v>
-      </c>
-      <c r="K6" s="24">
-        <v>2828650496</v>
-      </c>
-      <c r="L6" s="26">
-        <v>10354806824</v>
-      </c>
-      <c r="M6" s="26">
-        <v>19888</v>
-      </c>
-      <c r="N6" s="26">
-        <v>21088</v>
-      </c>
-      <c r="O6" s="26">
-        <v>0.3246</v>
-      </c>
-      <c r="P6" s="26">
-        <v>3.08</v>
-      </c>
-      <c r="Q6" s="27">
-        <f t="shared" si="0"/>
-        <v>1.50462107208872</v>
-      </c>
-      <c r="R6">
-        <v>17.76</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:18">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
-        <v>32.3</v>
-      </c>
-      <c r="C7" s="5">
-        <v>62.7</v>
-      </c>
-      <c r="D7" s="5">
-        <v>57.1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>25.1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>34.2</v>
-      </c>
-      <c r="G7" s="5">
-        <v>69.6</v>
-      </c>
-      <c r="H7" s="5">
-        <v>56.7</v>
-      </c>
-      <c r="I7" s="5">
-        <v>62</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" si="1"/>
-        <v>49.9625</v>
-      </c>
-      <c r="K7" s="24">
-        <v>2828650496</v>
-      </c>
-      <c r="L7" s="25">
-        <v>8849576498</v>
-      </c>
-      <c r="M7" s="25">
-        <v>17017</v>
-      </c>
-      <c r="N7" s="25">
-        <v>18217</v>
-      </c>
-      <c r="O7" s="25">
-        <v>0.295</v>
-      </c>
-      <c r="P7" s="25">
-        <v>3.39</v>
-      </c>
-      <c r="Q7" s="27">
-        <f t="shared" si="0"/>
-        <v>1.65559322033898</v>
-      </c>
-      <c r="R7">
-        <v>18.68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q7"/>
@@ -12809,7 +13599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K6"/>
@@ -12830,7 +13620,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>98</v>
@@ -12898,7 +13688,7 @@
     </row>
     <row r="3" ht="17.6" spans="1:11">
       <c r="A3" s="20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>150</v>
@@ -12934,10 +13724,10 @@
     </row>
     <row r="4" ht="17.6" spans="1:11">
       <c r="A4" s="20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C4" s="22">
         <v>31.9</v>
@@ -12970,10 +13760,10 @@
     </row>
     <row r="5" ht="17.6" spans="1:11">
       <c r="A5" s="20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C5" s="22">
         <v>38.1</v>
@@ -13006,10 +13796,10 @@
     </row>
     <row r="6" ht="17.6" spans="1:11">
       <c r="A6" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>177</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>174</v>
       </c>
       <c r="C6" s="22">
         <v>31.9</v>
@@ -13046,7 +13836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T7"/>
@@ -13096,7 +13886,7 @@
         <v>131</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>132</v>
@@ -13160,7 +13950,7 @@
         <v>0.74</v>
       </c>
       <c r="Q2" s="18">
-        <f>P2/0.74</f>
+        <f t="shared" ref="Q2:Q7" si="1">P2/0.74</f>
         <v>1</v>
       </c>
       <c r="S2" s="4">
@@ -13213,7 +14003,7 @@
         <v>0.78</v>
       </c>
       <c r="Q3" s="18">
-        <f>P3/0.74</f>
+        <f t="shared" si="1"/>
         <v>1.05405405405405</v>
       </c>
       <c r="S3">
@@ -13266,7 +14056,7 @@
         <v>0.96</v>
       </c>
       <c r="Q4" s="18">
-        <f>P4/0.74</f>
+        <f t="shared" si="1"/>
         <v>1.2972972972973</v>
       </c>
       <c r="S4">
@@ -13319,7 +14109,7 @@
         <v>1.05</v>
       </c>
       <c r="Q5" s="18">
-        <f>P5/0.74</f>
+        <f t="shared" si="1"/>
         <v>1.41891891891892</v>
       </c>
       <c r="S5">
@@ -13372,7 +14162,7 @@
         <v>1.2</v>
       </c>
       <c r="Q6" s="18">
-        <f>P6/0.74</f>
+        <f t="shared" si="1"/>
         <v>1.62162162162162</v>
       </c>
       <c r="S6">
@@ -13425,7 +14215,7 @@
         <v>1.27</v>
       </c>
       <c r="Q7" s="18">
-        <f>P7/0.74</f>
+        <f t="shared" si="1"/>
         <v>1.71621621621622</v>
       </c>
       <c r="S7">
@@ -13441,7 +14231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T8"/>
@@ -13491,7 +14281,7 @@
         <v>131</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>132</v>
@@ -13535,7 +14325,7 @@
         <v>75.9</v>
       </c>
       <c r="J2" s="10">
-        <f>AVERAGE(B2:I2)</f>
+        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
         <v>67.7166666666667</v>
       </c>
       <c r="K2" s="9">
@@ -13555,7 +14345,7 @@
         <v>0.93</v>
       </c>
       <c r="Q2" s="18">
-        <f>P2/0.93</f>
+        <f t="shared" ref="Q2:Q7" si="1">P2/0.93</f>
         <v>1</v>
       </c>
       <c r="S2" s="4">
@@ -13588,7 +14378,7 @@
         <v>75.3</v>
       </c>
       <c r="J3" s="12">
-        <f>AVERAGE(B3:I3)</f>
+        <f t="shared" si="0"/>
         <v>66.7166666666667</v>
       </c>
       <c r="K3" s="13">
@@ -13608,7 +14398,7 @@
         <v>0.95</v>
       </c>
       <c r="Q3" s="18">
-        <f>P3/0.93</f>
+        <f t="shared" si="1"/>
         <v>1.02150537634409</v>
       </c>
       <c r="S3" s="19">
@@ -13641,7 +14431,7 @@
         <v>73.8</v>
       </c>
       <c r="J4" s="14">
-        <f>AVERAGE(B4:I4)</f>
+        <f t="shared" si="0"/>
         <v>63.2333333333333</v>
       </c>
       <c r="K4" s="15">
@@ -13661,7 +14451,7 @@
         <v>1.16</v>
       </c>
       <c r="Q4" s="18">
-        <f>P4/0.93</f>
+        <f t="shared" si="1"/>
         <v>1.24731182795699</v>
       </c>
       <c r="S4" s="6">
@@ -13694,7 +14484,7 @@
         <v>67.1</v>
       </c>
       <c r="J5" s="12">
-        <f>AVERAGE(B5:I5)</f>
+        <f t="shared" si="0"/>
         <v>57.4666666666667</v>
       </c>
       <c r="K5" s="13">
@@ -13714,7 +14504,7 @@
         <v>1.31</v>
       </c>
       <c r="Q5" s="18">
-        <f>P5/0.93</f>
+        <f t="shared" si="1"/>
         <v>1.40860215053763</v>
       </c>
       <c r="S5" s="5">
@@ -13747,7 +14537,7 @@
         <v>58</v>
       </c>
       <c r="J6" s="14">
-        <f>AVERAGE(B6:I6)</f>
+        <f t="shared" si="0"/>
         <v>45.4166666666667</v>
       </c>
       <c r="K6" s="15">
@@ -13767,7 +14557,7 @@
         <v>1.62</v>
       </c>
       <c r="Q6" s="18">
-        <f>P6/0.93</f>
+        <f t="shared" si="1"/>
         <v>1.74193548387097</v>
       </c>
       <c r="S6" s="7">
@@ -13800,7 +14590,7 @@
         <v>50.3</v>
       </c>
       <c r="J7" s="12">
-        <f>AVERAGE(B7:I7)</f>
+        <f t="shared" si="0"/>
         <v>38.7166666666667</v>
       </c>
       <c r="K7" s="16">
@@ -13820,7 +14610,7 @@
         <v>1.98</v>
       </c>
       <c r="Q7" s="18">
-        <f>P7/0.93</f>
+        <f t="shared" si="1"/>
         <v>2.12903225806452</v>
       </c>
       <c r="S7" s="8">
@@ -13839,7 +14629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R9"/>
@@ -13896,7 +14686,7 @@
         <v>131</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>132</v>
@@ -13942,7 +14732,7 @@
         <v>75.9</v>
       </c>
       <c r="J2" s="10">
-        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
+        <f t="shared" ref="J2:J9" si="0">AVERAGE(B2:I2)</f>
         <v>67.7166666666667</v>
       </c>
       <c r="K2" s="9">
@@ -14234,7 +15024,7 @@
         <v>69.3</v>
       </c>
       <c r="J8" s="12">
-        <f>AVERAGE(B8:I8)</f>
+        <f t="shared" si="0"/>
         <v>52.8666666666667</v>
       </c>
       <c r="K8">
@@ -14280,7 +15070,7 @@
         <v>70.4</v>
       </c>
       <c r="J9" s="12">
-        <f>AVERAGE(B9:I9)</f>
+        <f t="shared" si="0"/>
         <v>51.3333333333333</v>
       </c>
       <c r="K9">
@@ -14304,489 +15094,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <cols>
-    <col min="4" max="4" width="11.6826923076923" customWidth="1"/>
-    <col min="9" max="9" width="12.4903846153846" customWidth="1"/>
-    <col min="10" max="10" width="13.7788461538462" customWidth="1"/>
-    <col min="11" max="11" width="17.2980769230769" customWidth="1"/>
-    <col min="12" max="12" width="9.93269230769231" customWidth="1"/>
-    <col min="17" max="17" width="12.9230769230769"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.6" spans="1:18">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" ht="17.6" spans="1:17">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>59.6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>85.4</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4">
-        <v>67.8</v>
-      </c>
-      <c r="F2" s="4">
-        <v>46.8</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4">
-        <v>70.8</v>
-      </c>
-      <c r="I2" s="4">
-        <v>75.9</v>
-      </c>
-      <c r="J2" s="10">
-        <f t="shared" ref="J2:J10" si="0">AVERAGE(B2:I2)</f>
-        <v>67.7166666666667</v>
-      </c>
-      <c r="K2" s="9">
-        <v>46702792704</v>
-      </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="9">
-        <v>45334</v>
-      </c>
-      <c r="N2" s="9">
-        <v>47951</v>
-      </c>
-      <c r="O2" s="9">
-        <v>1.0751</v>
-      </c>
-      <c r="P2" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="Q2" s="18">
-        <f>P2/0.93</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:17">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5">
-        <v>56</v>
-      </c>
-      <c r="C3" s="5">
-        <v>83.9</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5">
-        <v>60.3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>45.8</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5">
-        <v>64.6</v>
-      </c>
-      <c r="I3" s="5">
-        <v>74.1</v>
-      </c>
-      <c r="J3" s="12">
-        <f t="shared" si="0"/>
-        <v>64.1166666666667</v>
-      </c>
-      <c r="K3" s="13">
-        <v>43003416639</v>
-      </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="13">
-        <v>45334.7</v>
-      </c>
-      <c r="N3" s="16">
-        <v>48131</v>
-      </c>
-      <c r="O3" s="16">
-        <v>1.0019</v>
-      </c>
-      <c r="P3" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="18">
-        <f t="shared" ref="Q3:Q9" si="1">P3/0.93</f>
-        <v>1.0752688172043</v>
-      </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:17">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>53.8</v>
-      </c>
-      <c r="C4" s="6">
-        <v>81.9</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <v>53.9</v>
-      </c>
-      <c r="F4" s="6">
-        <v>44.8</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6">
-        <v>62.8</v>
-      </c>
-      <c r="I4" s="6">
-        <v>75.2</v>
-      </c>
-      <c r="J4" s="14">
-        <f t="shared" si="0"/>
-        <v>62.0666666666667</v>
-      </c>
-      <c r="K4" s="15">
-        <v>39304040574</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="15">
-        <v>45334</v>
-      </c>
-      <c r="N4" s="17">
-        <v>47867</v>
-      </c>
-      <c r="O4" s="17">
-        <v>0.9382</v>
-      </c>
-      <c r="P4" s="17">
-        <v>1.07</v>
-      </c>
-      <c r="Q4" s="18">
-        <f t="shared" si="1"/>
-        <v>1.1505376344086</v>
-      </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:17">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>50.1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>82.5</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5">
-        <v>43.4</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
-        <v>62.5</v>
-      </c>
-      <c r="I5" s="5">
-        <v>74.2</v>
-      </c>
-      <c r="J5" s="12">
-        <f t="shared" si="0"/>
-        <v>60.45</v>
-      </c>
-      <c r="K5" s="13">
-        <v>35604664509</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="15">
-        <v>45334</v>
-      </c>
-      <c r="N5" s="16">
-        <v>47573</v>
-      </c>
-      <c r="O5" s="16">
-        <v>0.8595</v>
-      </c>
-      <c r="P5" s="16">
-        <v>1.16</v>
-      </c>
-      <c r="Q5" s="18">
-        <f t="shared" si="1"/>
-        <v>1.24731182795699</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:17">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7">
-        <v>47.3</v>
-      </c>
-      <c r="C6" s="7">
-        <v>81.9</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
-        <v>44.6</v>
-      </c>
-      <c r="F6" s="7">
-        <v>39.2</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
-        <v>62.5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>70.4</v>
-      </c>
-      <c r="J6" s="14">
-        <f t="shared" si="0"/>
-        <v>57.65</v>
-      </c>
-      <c r="K6" s="15">
-        <v>31905288444</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="15">
-        <v>45334</v>
-      </c>
-      <c r="N6" s="17">
-        <v>47480</v>
-      </c>
-      <c r="O6" s="17">
-        <v>0.8009</v>
-      </c>
-      <c r="P6" s="17">
-        <v>1.25</v>
-      </c>
-      <c r="Q6" s="18">
-        <f t="shared" si="1"/>
-        <v>1.34408602150538</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:17">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8">
-        <v>43</v>
-      </c>
-      <c r="C7" s="8">
-        <v>80.3</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <v>40.8</v>
-      </c>
-      <c r="F7" s="8">
-        <v>38.6</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8">
-        <v>57.4</v>
-      </c>
-      <c r="I7" s="8">
-        <v>68.3</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" si="0"/>
-        <v>54.7333333333333</v>
-      </c>
-      <c r="K7" s="16">
-        <v>28205912379</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="16">
-        <v>45334</v>
-      </c>
-      <c r="N7" s="16">
-        <v>47134</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0.7343</v>
-      </c>
-      <c r="P7" s="16">
-        <v>1.36</v>
-      </c>
-      <c r="Q7" s="18">
-        <f t="shared" si="1"/>
-        <v>1.46236559139785</v>
-      </c>
-    </row>
-    <row r="8" ht="17.6" spans="1:17">
-      <c r="A8">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>38.1</v>
-      </c>
-      <c r="C8">
-        <v>71</v>
-      </c>
-      <c r="E8">
-        <v>28.9</v>
-      </c>
-      <c r="F8">
-        <v>37.2</v>
-      </c>
-      <c r="H8">
-        <v>57.4</v>
-      </c>
-      <c r="I8">
-        <v>64.4</v>
-      </c>
-      <c r="J8" s="12">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
-      </c>
-      <c r="K8">
-        <v>24506536314</v>
-      </c>
-      <c r="M8" s="16">
-        <v>45335</v>
-      </c>
-      <c r="N8">
-        <v>47173</v>
-      </c>
-      <c r="O8">
-        <v>0.68</v>
-      </c>
-      <c r="P8">
-        <v>1.47</v>
-      </c>
-      <c r="Q8" s="18">
-        <f t="shared" si="1"/>
-        <v>1.58064516129032</v>
-      </c>
-    </row>
-    <row r="9" ht="17.6" spans="1:17">
-      <c r="A9">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>35.8</v>
-      </c>
-      <c r="C9">
-        <v>68.6</v>
-      </c>
-      <c r="E9">
-        <v>25.9</v>
-      </c>
-      <c r="F9">
-        <v>35.6</v>
-      </c>
-      <c r="H9">
-        <v>53.4</v>
-      </c>
-      <c r="I9">
-        <v>63.5</v>
-      </c>
-      <c r="J9" s="12">
-        <f t="shared" si="0"/>
-        <v>47.1333333333333</v>
-      </c>
-      <c r="K9">
-        <v>20807160249</v>
-      </c>
-      <c r="M9">
-        <v>45334</v>
-      </c>
-      <c r="N9">
-        <v>47120</v>
-      </c>
-      <c r="O9">
-        <v>0.6326</v>
-      </c>
-      <c r="P9">
-        <v>1.58</v>
-      </c>
-      <c r="Q9" s="18">
-        <f t="shared" si="1"/>
-        <v>1.6989247311828</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -15785,6 +16092,489 @@
       <c r="D87" s="154"/>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="4" max="4" width="11.6826923076923" customWidth="1"/>
+    <col min="9" max="9" width="12.4903846153846" customWidth="1"/>
+    <col min="10" max="10" width="13.7788461538462" customWidth="1"/>
+    <col min="11" max="11" width="17.2980769230769" customWidth="1"/>
+    <col min="12" max="12" width="9.93269230769231" customWidth="1"/>
+    <col min="17" max="17" width="12.9230769230769"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:18">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:17">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>59.6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>85.4</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>67.8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>46.8</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
+        <v>70.8</v>
+      </c>
+      <c r="I2" s="4">
+        <v>75.9</v>
+      </c>
+      <c r="J2" s="10">
+        <f t="shared" ref="J2:J10" si="0">AVERAGE(B2:I2)</f>
+        <v>67.7166666666667</v>
+      </c>
+      <c r="K2" s="9">
+        <v>46702792704</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="9">
+        <v>45334</v>
+      </c>
+      <c r="N2" s="9">
+        <v>47951</v>
+      </c>
+      <c r="O2" s="9">
+        <v>1.0751</v>
+      </c>
+      <c r="P2" s="9">
+        <v>0.93</v>
+      </c>
+      <c r="Q2" s="18">
+        <f>P2/0.93</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:17">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5">
+        <v>83.9</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
+        <v>60.3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45.8</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5">
+        <v>64.6</v>
+      </c>
+      <c r="I3" s="5">
+        <v>74.1</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" si="0"/>
+        <v>64.1166666666667</v>
+      </c>
+      <c r="K3" s="13">
+        <v>43003416639</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="13">
+        <v>45334.7</v>
+      </c>
+      <c r="N3" s="16">
+        <v>48131</v>
+      </c>
+      <c r="O3" s="16">
+        <v>1.0019</v>
+      </c>
+      <c r="P3" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="18">
+        <f t="shared" ref="Q3:Q9" si="1">P3/0.93</f>
+        <v>1.0752688172043</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:17">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>53.8</v>
+      </c>
+      <c r="C4" s="6">
+        <v>81.9</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>53.9</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44.8</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
+        <v>62.8</v>
+      </c>
+      <c r="I4" s="6">
+        <v>75.2</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="0"/>
+        <v>62.0666666666667</v>
+      </c>
+      <c r="K4" s="15">
+        <v>39304040574</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="15">
+        <v>45334</v>
+      </c>
+      <c r="N4" s="17">
+        <v>47867</v>
+      </c>
+      <c r="O4" s="17">
+        <v>0.9382</v>
+      </c>
+      <c r="P4" s="17">
+        <v>1.07</v>
+      </c>
+      <c r="Q4" s="18">
+        <f t="shared" si="1"/>
+        <v>1.1505376344086</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:17">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>50.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>82.5</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>50</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43.4</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>74.2</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="0"/>
+        <v>60.45</v>
+      </c>
+      <c r="K5" s="13">
+        <v>35604664509</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="15">
+        <v>45334</v>
+      </c>
+      <c r="N5" s="16">
+        <v>47573</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0.8595</v>
+      </c>
+      <c r="P5" s="16">
+        <v>1.16</v>
+      </c>
+      <c r="Q5" s="18">
+        <f t="shared" si="1"/>
+        <v>1.24731182795699</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:17">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7">
+        <v>47.3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>81.9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <v>44.6</v>
+      </c>
+      <c r="F6" s="7">
+        <v>39.2</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>70.4</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="0"/>
+        <v>57.65</v>
+      </c>
+      <c r="K6" s="15">
+        <v>31905288444</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="15">
+        <v>45334</v>
+      </c>
+      <c r="N6" s="17">
+        <v>47480</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0.8009</v>
+      </c>
+      <c r="P6" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="Q6" s="18">
+        <f t="shared" si="1"/>
+        <v>1.34408602150538</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:17">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8">
+        <v>43</v>
+      </c>
+      <c r="C7" s="8">
+        <v>80.3</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>40.8</v>
+      </c>
+      <c r="F7" s="8">
+        <v>38.6</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
+        <v>57.4</v>
+      </c>
+      <c r="I7" s="8">
+        <v>68.3</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="0"/>
+        <v>54.7333333333333</v>
+      </c>
+      <c r="K7" s="16">
+        <v>28205912379</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="16">
+        <v>45334</v>
+      </c>
+      <c r="N7" s="16">
+        <v>47134</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0.7343</v>
+      </c>
+      <c r="P7" s="16">
+        <v>1.36</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" si="1"/>
+        <v>1.46236559139785</v>
+      </c>
+    </row>
+    <row r="8" ht="17.6" spans="1:17">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>38.1</v>
+      </c>
+      <c r="C8">
+        <v>71</v>
+      </c>
+      <c r="E8">
+        <v>28.9</v>
+      </c>
+      <c r="F8">
+        <v>37.2</v>
+      </c>
+      <c r="H8">
+        <v>57.4</v>
+      </c>
+      <c r="I8">
+        <v>64.4</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="0"/>
+        <v>49.5</v>
+      </c>
+      <c r="K8">
+        <v>24506536314</v>
+      </c>
+      <c r="M8" s="16">
+        <v>45335</v>
+      </c>
+      <c r="N8">
+        <v>47173</v>
+      </c>
+      <c r="O8">
+        <v>0.68</v>
+      </c>
+      <c r="P8">
+        <v>1.47</v>
+      </c>
+      <c r="Q8" s="18">
+        <f t="shared" si="1"/>
+        <v>1.58064516129032</v>
+      </c>
+    </row>
+    <row r="9" ht="17.6" spans="1:17">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>35.8</v>
+      </c>
+      <c r="C9">
+        <v>68.6</v>
+      </c>
+      <c r="E9">
+        <v>25.9</v>
+      </c>
+      <c r="F9">
+        <v>35.6</v>
+      </c>
+      <c r="H9">
+        <v>53.4</v>
+      </c>
+      <c r="I9">
+        <v>63.5</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="0"/>
+        <v>47.1333333333333</v>
+      </c>
+      <c r="K9">
+        <v>20807160249</v>
+      </c>
+      <c r="M9">
+        <v>45334</v>
+      </c>
+      <c r="N9">
+        <v>47120</v>
+      </c>
+      <c r="O9">
+        <v>0.6326</v>
+      </c>
+      <c r="P9">
+        <v>1.58</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" si="1"/>
+        <v>1.6989247311828</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9580" tabRatio="872" firstSheet="14" activeTab="14"/>
+    <workbookView windowWidth="25600" windowHeight="9580" tabRatio="872" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8530,8 +8530,8 @@
   <sheetPr/>
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -9776,7 +9776,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="F15" sqref="F15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -11112,16 +11112,17 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
     <col min="9" max="9" width="12.9230769230769"/>
     <col min="10" max="10" width="10"/>
+    <col min="15" max="15" width="12.9230769230769"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.6" spans="1:16">
@@ -11197,7 +11198,7 @@
         <v>70.1</v>
       </c>
       <c r="H2" s="10">
-        <f t="shared" ref="H2:H6" si="0">AVERAGE(B2:G2)</f>
+        <f>AVERAGE(B2:G2)</f>
         <v>65.2333333333333</v>
       </c>
       <c r="I2" s="23">
@@ -11219,7 +11220,7 @@
         <v>2.14</v>
       </c>
       <c r="O2" s="27">
-        <f t="shared" ref="O2:O6" si="1">0.4884/M2</f>
+        <f>0.4884/M2</f>
         <v>1.04627249357326</v>
       </c>
       <c r="P2">
@@ -11249,7 +11250,7 @@
         <v>73</v>
       </c>
       <c r="H3" s="14">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B3:G3)</f>
         <v>60.7833333333333</v>
       </c>
       <c r="I3" s="26">
@@ -11271,166 +11272,194 @@
         <v>2.47</v>
       </c>
       <c r="O3" s="27">
-        <f t="shared" si="1"/>
+        <f>0.4884/M3</f>
         <v>1.20801385110067</v>
       </c>
       <c r="P3">
         <v>16.79</v>
       </c>
     </row>
-    <row r="4" ht="17.6" spans="1:16">
-      <c r="A4">
-        <v>9</v>
-      </c>
+    <row r="4" ht="17.6" spans="2:15">
       <c r="B4" s="5">
-        <v>43.3</v>
+        <v>45.9</v>
       </c>
       <c r="C4" s="5">
-        <v>70.9</v>
+        <v>75.1</v>
       </c>
       <c r="D4" s="5">
-        <v>64.9</v>
+        <v>75</v>
       </c>
       <c r="E4" s="5">
-        <v>38.2</v>
+        <v>42.4</v>
       </c>
       <c r="F4" s="5">
-        <v>77.9</v>
+        <v>79.4</v>
       </c>
       <c r="G4" s="5">
-        <v>74</v>
-      </c>
-      <c r="H4" s="12">
-        <f t="shared" si="0"/>
-        <v>61.5333333333333</v>
-      </c>
-      <c r="I4" s="25">
-        <v>11860037150</v>
-      </c>
-      <c r="J4" s="24">
-        <v>2828650496</v>
-      </c>
-      <c r="K4" s="25">
-        <v>22759</v>
-      </c>
-      <c r="L4" s="25">
-        <v>23958</v>
-      </c>
-      <c r="M4" s="25">
-        <v>0.3755</v>
-      </c>
-      <c r="N4" s="25">
-        <v>2.66</v>
-      </c>
-      <c r="O4" s="27">
-        <f t="shared" si="1"/>
-        <v>1.30066577896138</v>
-      </c>
-      <c r="P4">
-        <v>17.11</v>
-      </c>
+        <v>74.7</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="27"/>
     </row>
     <row r="5" ht="17.6" spans="1:16">
       <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5" s="7">
-        <v>39.1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>68</v>
-      </c>
-      <c r="D5" s="7">
-        <v>63</v>
-      </c>
-      <c r="E5" s="7">
-        <v>36.6</v>
-      </c>
-      <c r="F5" s="7">
-        <v>76</v>
-      </c>
-      <c r="G5" s="7">
-        <v>71.7</v>
-      </c>
-      <c r="H5" s="14">
-        <f t="shared" si="0"/>
-        <v>59.0666666666667</v>
-      </c>
-      <c r="I5" s="26">
-        <v>10354806824</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43.3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>70.9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>64.9</v>
+      </c>
+      <c r="E5" s="5">
+        <v>38.2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>77.9</v>
+      </c>
+      <c r="G5" s="5">
+        <v>74</v>
+      </c>
+      <c r="H5" s="12">
+        <f>AVERAGE(B5:G5)</f>
+        <v>61.5333333333333</v>
+      </c>
+      <c r="I5" s="25">
+        <v>11860037150</v>
       </c>
       <c r="J5" s="24">
         <v>2828650496</v>
       </c>
-      <c r="K5" s="26">
-        <v>19888</v>
-      </c>
-      <c r="L5" s="26">
-        <v>21088</v>
-      </c>
-      <c r="M5" s="26">
-        <v>0.3246</v>
-      </c>
-      <c r="N5" s="26">
-        <v>3.08</v>
+      <c r="K5" s="25">
+        <v>22759</v>
+      </c>
+      <c r="L5" s="25">
+        <v>23958</v>
+      </c>
+      <c r="M5" s="25">
+        <v>0.3755</v>
+      </c>
+      <c r="N5" s="25">
+        <v>2.66</v>
       </c>
       <c r="O5" s="27">
-        <f t="shared" si="1"/>
-        <v>1.50462107208872</v>
+        <f>0.4884/M5</f>
+        <v>1.30066577896138</v>
       </c>
       <c r="P5">
-        <v>17.76</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="6" ht="17.6" spans="1:16">
       <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5">
-        <v>35.5</v>
-      </c>
-      <c r="C6" s="5">
-        <v>58.3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>58.9</v>
-      </c>
-      <c r="E6" s="5">
-        <v>35.2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>73.3</v>
-      </c>
-      <c r="G6" s="5">
-        <v>71</v>
-      </c>
-      <c r="H6" s="12">
-        <f t="shared" si="0"/>
-        <v>55.3666666666667</v>
-      </c>
-      <c r="I6" s="25">
-        <v>8849576498</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="7">
+        <v>39.1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>68</v>
+      </c>
+      <c r="D6" s="7">
+        <v>63</v>
+      </c>
+      <c r="E6" s="7">
+        <v>36.6</v>
+      </c>
+      <c r="F6" s="7">
+        <v>76</v>
+      </c>
+      <c r="G6" s="7">
+        <v>71.7</v>
+      </c>
+      <c r="H6" s="14">
+        <f>AVERAGE(B6:G6)</f>
+        <v>59.0666666666667</v>
+      </c>
+      <c r="I6" s="26">
+        <v>10354806824</v>
       </c>
       <c r="J6" s="24">
         <v>2828650496</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="26">
+        <v>19888</v>
+      </c>
+      <c r="L6" s="26">
+        <v>21088</v>
+      </c>
+      <c r="M6" s="26">
+        <v>0.3246</v>
+      </c>
+      <c r="N6" s="26">
+        <v>3.08</v>
+      </c>
+      <c r="O6" s="27">
+        <f>0.4884/M6</f>
+        <v>1.50462107208872</v>
+      </c>
+      <c r="P6">
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:16">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>35.5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>58.3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>58.9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>35.2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>73.3</v>
+      </c>
+      <c r="G7" s="5">
+        <v>71</v>
+      </c>
+      <c r="H7" s="12">
+        <f>AVERAGE(B7:G7)</f>
+        <v>55.3666666666667</v>
+      </c>
+      <c r="I7" s="25">
+        <v>8849576498</v>
+      </c>
+      <c r="J7" s="24">
+        <v>2828650496</v>
+      </c>
+      <c r="K7" s="25">
         <v>17017</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L7" s="25">
         <v>18217</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M7" s="25">
         <v>0.295</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N7" s="25">
         <v>3.39</v>
       </c>
-      <c r="O6" s="27">
-        <f t="shared" si="1"/>
+      <c r="O7" s="27">
+        <f>0.4884/M7</f>
         <v>1.65559322033898</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>18.68</v>
       </c>
     </row>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9520" tabRatio="872" firstSheet="11" activeTab="18"/>
+    <workbookView windowWidth="25600" windowHeight="9520" tabRatio="872" firstSheet="27" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,8 @@
     <sheet name="mixtral_e2" sheetId="24" r:id="rId32"/>
     <sheet name="mixtral_e1" sheetId="26" r:id="rId33"/>
     <sheet name="mixtral_tmp" sheetId="28" r:id="rId34"/>
+    <sheet name="qw_e4" sheetId="36" r:id="rId35"/>
+    <sheet name="qw_e0" sheetId="37" r:id="rId36"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="189">
   <si>
     <t>origin PPL</t>
   </si>
@@ -5454,7 +5456,7 @@
         <v>64.6</v>
       </c>
       <c r="N29" s="12">
-        <f>AVERAGE(F29:M29)</f>
+        <f t="shared" ref="N29:N36" si="4">AVERAGE(F29:M29)</f>
         <v>51.7625</v>
       </c>
       <c r="O29" s="55">
@@ -5498,7 +5500,7 @@
         <v>65.4</v>
       </c>
       <c r="N30" s="12">
-        <f>AVERAGE(F30:M30)</f>
+        <f t="shared" si="4"/>
         <v>52.075</v>
       </c>
       <c r="O30" s="55">
@@ -5542,7 +5544,7 @@
         <v>63.2</v>
       </c>
       <c r="N31" s="12">
-        <f>AVERAGE(F31:M31)</f>
+        <f t="shared" si="4"/>
         <v>54.175</v>
       </c>
       <c r="O31" s="55">
@@ -5586,7 +5588,7 @@
         <v>65</v>
       </c>
       <c r="N32" s="12">
-        <f>AVERAGE(F32:M32)</f>
+        <f t="shared" si="4"/>
         <v>54.9</v>
       </c>
       <c r="O32" s="55">
@@ -5635,7 +5637,7 @@
         <v>63.5</v>
       </c>
       <c r="N33" s="12">
-        <f>AVERAGE(F33:M33)</f>
+        <f t="shared" si="4"/>
         <v>52.55</v>
       </c>
       <c r="O33" s="55">
@@ -5699,7 +5701,7 @@
         <v>65.6</v>
       </c>
       <c r="N34" s="12">
-        <f>AVERAGE(F34:M34)</f>
+        <f t="shared" si="4"/>
         <v>54.725</v>
       </c>
       <c r="O34" s="55">
@@ -5747,7 +5749,7 @@
         <v>49.8</v>
       </c>
       <c r="N35" s="12">
-        <f>AVERAGE(F35:M35)</f>
+        <f t="shared" si="4"/>
         <v>41.2375</v>
       </c>
       <c r="O35" s="55"/>
@@ -5793,7 +5795,7 @@
         <v>64.2</v>
       </c>
       <c r="N36" s="12">
-        <f>AVERAGE(F36:M36)</f>
+        <f t="shared" si="4"/>
         <v>52.7125</v>
       </c>
       <c r="O36" s="55"/>
@@ -5839,11 +5841,11 @@
         <v>67.2</v>
       </c>
       <c r="N37" s="12">
-        <f t="shared" ref="N37:N65" si="4">AVERAGE(F37:M37)</f>
+        <f t="shared" ref="N37:N65" si="5">AVERAGE(F37:M37)</f>
         <v>55.25</v>
       </c>
       <c r="O37" s="55">
-        <f>AVERAGE(F37:K37,M37:M37)</f>
+        <f t="shared" ref="O37:O51" si="6">AVERAGE(F37:K37,M37:M37)</f>
         <v>53.9142857142857</v>
       </c>
       <c r="P37" s="25"/>
@@ -5886,11 +5888,11 @@
         <v>66.9</v>
       </c>
       <c r="N38" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.6375</v>
       </c>
       <c r="O38" s="55">
-        <f>AVERAGE(F38:K38,M38:M38)</f>
+        <f t="shared" si="6"/>
         <v>55.2857142857143</v>
       </c>
       <c r="P38" s="25"/>
@@ -5933,11 +5935,11 @@
         <v>66.3</v>
       </c>
       <c r="N39" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.85</v>
       </c>
       <c r="O39" s="55">
-        <f>AVERAGE(F39:K39,M39:M39)</f>
+        <f t="shared" si="6"/>
         <v>51.8857142857143</v>
       </c>
       <c r="P39" s="25"/>
@@ -5980,11 +5982,11 @@
         <v>66.3</v>
       </c>
       <c r="N40" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.25</v>
       </c>
       <c r="O40" s="55">
-        <f>AVERAGE(F40:K40,M40:M40)</f>
+        <f t="shared" si="6"/>
         <v>54.6857142857143</v>
       </c>
       <c r="P40" s="25"/>
@@ -6027,11 +6029,11 @@
         <v>66.5</v>
       </c>
       <c r="N41" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.6625</v>
       </c>
       <c r="O41" s="55">
-        <f>AVERAGE(F41:K41,M41:M41)</f>
+        <f t="shared" si="6"/>
         <v>55.1</v>
       </c>
       <c r="P41" s="25"/>
@@ -6074,11 +6076,11 @@
         <v>66.2</v>
       </c>
       <c r="N42" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.35</v>
       </c>
       <c r="O42" s="55">
-        <f>AVERAGE(F42:K42,M42:M42)</f>
+        <f t="shared" si="6"/>
         <v>54.9</v>
       </c>
       <c r="P42" s="25"/>
@@ -6121,11 +6123,11 @@
         <v>66.9</v>
       </c>
       <c r="N43" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.6875</v>
       </c>
       <c r="O43" s="55">
-        <f>AVERAGE(F43:K43,M43:M43)</f>
+        <f t="shared" si="6"/>
         <v>55.2428571428571</v>
       </c>
       <c r="P43" s="25"/>
@@ -6168,11 +6170,11 @@
         <v>67.7</v>
       </c>
       <c r="N44" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.1875</v>
       </c>
       <c r="O44" s="55">
-        <f>AVERAGE(F44:K44,M44:M44)</f>
+        <f t="shared" si="6"/>
         <v>54.9285714285714</v>
       </c>
       <c r="P44" s="25"/>
@@ -6215,11 +6217,11 @@
         <v>66.7</v>
       </c>
       <c r="N45" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.6375</v>
       </c>
       <c r="O45" s="55">
-        <f>AVERAGE(F45:K45,M45:M45)</f>
+        <f t="shared" si="6"/>
         <v>55.2857142857143</v>
       </c>
       <c r="P45" s="25"/>
@@ -6262,11 +6264,11 @@
         <v>67.1</v>
       </c>
       <c r="N46" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.8875</v>
       </c>
       <c r="O46" s="55">
-        <f>AVERAGE(F46:K46,M46:M46)</f>
+        <f t="shared" si="6"/>
         <v>55.4714285714286</v>
       </c>
       <c r="P46" s="25"/>
@@ -6309,11 +6311,11 @@
         <v>66.6</v>
       </c>
       <c r="N47" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.7125</v>
       </c>
       <c r="O47" s="55">
-        <f>AVERAGE(F47:K47,M47:M47)</f>
+        <f t="shared" si="6"/>
         <v>55.3714285714286</v>
       </c>
       <c r="P47" s="25"/>
@@ -6356,11 +6358,11 @@
         <v>66.9</v>
       </c>
       <c r="N48" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.875</v>
       </c>
       <c r="O48" s="55">
-        <f>AVERAGE(F48:K48,M48:M48)</f>
+        <f t="shared" si="6"/>
         <v>55.4571428571429</v>
       </c>
       <c r="P48" s="25"/>
@@ -6403,11 +6405,11 @@
         <v>67.5</v>
       </c>
       <c r="N49" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.6125</v>
       </c>
       <c r="O49" s="55">
-        <f>AVERAGE(F49:K49,M49:M49)</f>
+        <f t="shared" si="6"/>
         <v>54.3714285714286</v>
       </c>
       <c r="P49" s="25"/>
@@ -6450,11 +6452,11 @@
         <v>68.2</v>
       </c>
       <c r="N50" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.15</v>
       </c>
       <c r="O50" s="55">
-        <f>AVERAGE(F50:K50,M50:M50)</f>
+        <f t="shared" si="6"/>
         <v>54.6285714285714</v>
       </c>
       <c r="P50" s="25"/>
@@ -6497,11 +6499,11 @@
         <v>67.7</v>
       </c>
       <c r="N51" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.2625</v>
       </c>
       <c r="O51" s="55">
-        <f>AVERAGE(F51:K51,M51:M51)</f>
+        <f t="shared" si="6"/>
         <v>54.7571428571429</v>
       </c>
       <c r="P51" s="25"/>
@@ -6550,11 +6552,11 @@
         <v>62.4</v>
       </c>
       <c r="N52" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.8375</v>
       </c>
       <c r="O52" s="55">
-        <f t="shared" ref="O52:O64" si="5">AVERAGE(F52:K52,M52:M52)</f>
+        <f t="shared" ref="O52:O64" si="7">AVERAGE(F52:K52,M52:M52)</f>
         <v>50.3714285714286</v>
       </c>
       <c r="Q52" s="45">
@@ -6610,11 +6612,11 @@
         <v>59.2</v>
       </c>
       <c r="N53" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47.2375</v>
       </c>
       <c r="O53" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>46.9714285714286</v>
       </c>
       <c r="P53" s="26"/>
@@ -6658,11 +6660,11 @@
         <v>64.2</v>
       </c>
       <c r="N54" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.6125</v>
       </c>
       <c r="O54" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>51.6142857142857</v>
       </c>
       <c r="P54" s="26"/>
@@ -6708,11 +6710,11 @@
         <v>61.7</v>
       </c>
       <c r="N55" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50.0625</v>
       </c>
       <c r="O55" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48.7571428571429</v>
       </c>
       <c r="P55" s="26" t="s">
@@ -6771,11 +6773,11 @@
         <v>63.9</v>
       </c>
       <c r="N56" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5375</v>
       </c>
       <c r="O56" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50.5</v>
       </c>
       <c r="P56" s="26"/>
@@ -6821,11 +6823,11 @@
         <v>64.3</v>
       </c>
       <c r="N57" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.625</v>
       </c>
       <c r="O57" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50.1857142857143</v>
       </c>
       <c r="P57" s="26"/>
@@ -6871,11 +6873,11 @@
         <v>63.2</v>
       </c>
       <c r="N58" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.9125</v>
       </c>
       <c r="O58" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>49.7857142857143</v>
       </c>
       <c r="P58" s="26"/>
@@ -6919,11 +6921,11 @@
         <v>54.7</v>
       </c>
       <c r="N59" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43.0875</v>
       </c>
       <c r="O59" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>41.5571428571429</v>
       </c>
       <c r="P59" s="26"/>
@@ -6967,11 +6969,11 @@
         <v>63.1</v>
       </c>
       <c r="N60" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.125</v>
       </c>
       <c r="O60" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>51.0571428571429</v>
       </c>
       <c r="P60" s="26"/>
@@ -7015,11 +7017,11 @@
         <v>64.6</v>
       </c>
       <c r="N61" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.1875</v>
       </c>
       <c r="O61" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>52.2285714285714</v>
       </c>
       <c r="P61" s="26"/>
@@ -7063,11 +7065,11 @@
         <v>63.8</v>
       </c>
       <c r="N62" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.3875</v>
       </c>
       <c r="O62" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>51.3571428571429</v>
       </c>
       <c r="P62" s="26"/>
@@ -7116,11 +7118,11 @@
         <v>59.1</v>
       </c>
       <c r="N63" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.1125</v>
       </c>
       <c r="O63" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>46.5285714285714</v>
       </c>
       <c r="P63" s="25"/>
@@ -7177,11 +7179,11 @@
         <v>60.4</v>
       </c>
       <c r="N64" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46.6375</v>
       </c>
       <c r="O64" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>46.3857142857143</v>
       </c>
       <c r="P64" s="25"/>
@@ -7224,7 +7226,7 @@
         <v>60.5</v>
       </c>
       <c r="N65" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.725</v>
       </c>
       <c r="O65" s="55"/>
@@ -7964,7 +7966,7 @@
         <v>70.356</v>
       </c>
       <c r="J2" s="10">
-        <f>AVERAGE(B2:I2)</f>
+        <f t="shared" ref="J2:J8" si="0">AVERAGE(B2:I2)</f>
         <v>61.812375</v>
       </c>
       <c r="K2" s="23">
@@ -7980,7 +7982,7 @@
         <v>32571</v>
       </c>
       <c r="O2" s="9">
-        <f>M2/31371</f>
+        <f t="shared" ref="O2:O8" si="1">M2/31371</f>
         <v>1</v>
       </c>
       <c r="P2" s="9">
@@ -7990,7 +7992,7 @@
         <v>2.14</v>
       </c>
       <c r="R2" s="27">
-        <f>0.4668/P2</f>
+        <f t="shared" ref="R2:R8" si="2">0.4668/P2</f>
         <v>1</v>
       </c>
       <c r="S2">
@@ -8026,7 +8028,7 @@
         <v>67.8359</v>
       </c>
       <c r="J3" s="40">
-        <f>AVERAGE(B3:I3)</f>
+        <f t="shared" si="0"/>
         <v>57.8791875</v>
       </c>
       <c r="K3" s="25">
@@ -8040,7 +8042,7 @@
         <v>29295</v>
       </c>
       <c r="O3" s="9">
-        <f>M3/31371</f>
+        <f t="shared" si="1"/>
         <v>0.895572343884479</v>
       </c>
       <c r="P3" s="26">
@@ -8050,7 +8052,7 @@
         <v>2.39</v>
       </c>
       <c r="R3" s="27">
-        <f>0.4668/P3</f>
+        <f t="shared" si="2"/>
         <v>1.11781609195402</v>
       </c>
       <c r="S3">
@@ -8086,7 +8088,7 @@
         <v>65.7686</v>
       </c>
       <c r="J4" s="40">
-        <f>AVERAGE(B4:I4)</f>
+        <f t="shared" si="0"/>
         <v>51.4196125</v>
       </c>
       <c r="K4" s="26">
@@ -8100,7 +8102,7 @@
         <v>27111</v>
       </c>
       <c r="O4" s="9">
-        <f>M4/31371</f>
+        <f t="shared" si="1"/>
         <v>0.825953906474132</v>
       </c>
       <c r="P4" s="25">
@@ -8110,7 +8112,7 @@
         <v>2.56</v>
       </c>
       <c r="R4" s="27">
-        <f>0.4668/P4</f>
+        <f t="shared" si="2"/>
         <v>1.19661625224301</v>
       </c>
       <c r="S4">
@@ -8146,7 +8148,7 @@
         <v>63.1</v>
       </c>
       <c r="J5" s="40">
-        <f>AVERAGE(B5:I5)</f>
+        <f t="shared" si="0"/>
         <v>50.925</v>
       </c>
       <c r="K5" s="26">
@@ -8160,7 +8162,7 @@
         <v>24937</v>
       </c>
       <c r="O5" s="9">
-        <f>M5/31371</f>
+        <f t="shared" si="1"/>
         <v>0.756335469063785</v>
       </c>
       <c r="P5" s="25">
@@ -8170,7 +8172,7 @@
         <v>2.81</v>
       </c>
       <c r="R5" s="27">
-        <f>0.4668/P5</f>
+        <f t="shared" si="2"/>
         <v>1.29021558872305</v>
       </c>
     </row>
@@ -8203,7 +8205,7 @@
         <v>63.5514</v>
       </c>
       <c r="J6" s="40">
-        <f>AVERAGE(B6:I6)</f>
+        <f t="shared" si="0"/>
         <v>49.5245875</v>
       </c>
       <c r="K6" s="25">
@@ -8217,7 +8219,7 @@
         <v>23835</v>
       </c>
       <c r="O6" s="9">
-        <f>M6/31371</f>
+        <f t="shared" si="1"/>
         <v>0.721526250358612</v>
       </c>
       <c r="P6" s="26">
@@ -8227,7 +8229,7 @@
         <v>2.88</v>
       </c>
       <c r="R6" s="27">
-        <f>0.4668/P6</f>
+        <f t="shared" si="2"/>
         <v>1.34253666954271</v>
       </c>
       <c r="S6">
@@ -8263,7 +8265,7 @@
         <v>56.181</v>
       </c>
       <c r="J7" s="40">
-        <f>AVERAGE(B7:I7)</f>
+        <f t="shared" si="0"/>
         <v>44.4841125</v>
       </c>
       <c r="K7" s="26">
@@ -8277,7 +8279,7 @@
         <v>21652</v>
       </c>
       <c r="O7" s="9">
-        <f>M7/31371</f>
+        <f t="shared" si="1"/>
         <v>0.65193968952217</v>
       </c>
       <c r="P7" s="25">
@@ -8287,7 +8289,7 @@
         <v>3.19</v>
       </c>
       <c r="R7" s="27">
-        <f>0.4668/P7</f>
+        <f t="shared" si="2"/>
         <v>1.48947032546267</v>
       </c>
       <c r="S7">
@@ -8323,7 +8325,7 @@
         <v>53.8122</v>
       </c>
       <c r="J8" s="40">
-        <f>AVERAGE(B8:I8)</f>
+        <f t="shared" si="0"/>
         <v>41.0063375</v>
       </c>
       <c r="K8" s="25">
@@ -8337,7 +8339,7 @@
         <v>18376</v>
       </c>
       <c r="O8" s="9">
-        <f>M8/31371</f>
+        <f t="shared" si="1"/>
         <v>0.547512033406649</v>
       </c>
       <c r="P8" s="25">
@@ -8347,7 +8349,7 @@
         <v>3.69</v>
       </c>
       <c r="R8" s="27">
-        <f>0.4668/P8</f>
+        <f t="shared" si="2"/>
         <v>1.72187384728882</v>
       </c>
       <c r="S8">
@@ -8469,7 +8471,7 @@
         <v>70.1</v>
       </c>
       <c r="J2" s="10">
-        <f>AVERAGE(B2:I2)</f>
+        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
         <v>61.6125</v>
       </c>
       <c r="K2" s="24">
@@ -8485,7 +8487,7 @@
         <v>32571</v>
       </c>
       <c r="O2" s="9">
-        <f>M2/31371</f>
+        <f t="shared" ref="O2:O7" si="1">M2/31371</f>
         <v>1</v>
       </c>
       <c r="P2" s="9">
@@ -8495,7 +8497,7 @@
         <v>2.14</v>
       </c>
       <c r="R2" s="27">
-        <f>0.4668/P2</f>
+        <f t="shared" ref="R2:R7" si="2">0.4668/P2</f>
         <v>1</v>
       </c>
       <c r="S2">
@@ -8531,7 +8533,7 @@
         <v>69.7871</v>
       </c>
       <c r="J3">
-        <f>AVERAGE(B3:I3)</f>
+        <f t="shared" si="0"/>
         <v>57.028675</v>
       </c>
       <c r="K3" s="24">
@@ -8547,7 +8549,7 @@
         <v>29148</v>
       </c>
       <c r="O3" s="9">
-        <f>M3/31371</f>
+        <f t="shared" si="1"/>
         <v>0.892289056772178</v>
       </c>
       <c r="P3">
@@ -8557,7 +8559,7 @@
         <v>2.43</v>
       </c>
       <c r="R3" s="27">
-        <f>0.4668/P3</f>
+        <f t="shared" si="2"/>
         <v>1.13355998057309</v>
       </c>
     </row>
@@ -8590,7 +8592,7 @@
         <v>67.5383</v>
       </c>
       <c r="J4">
-        <f>AVERAGE(B4:I4)</f>
+        <f t="shared" si="0"/>
         <v>54.5382125</v>
       </c>
       <c r="K4" s="24">
@@ -8606,7 +8608,7 @@
         <v>26866</v>
       </c>
       <c r="O4" s="9">
-        <f>M4/31371</f>
+        <f t="shared" si="1"/>
         <v>0.820471135762328</v>
       </c>
       <c r="P4">
@@ -8616,7 +8618,7 @@
         <v>2.74</v>
       </c>
       <c r="R4" s="27">
-        <f>0.4668/P4</f>
+        <f t="shared" si="2"/>
         <v>1.28807947019868</v>
       </c>
     </row>
@@ -8649,7 +8651,7 @@
         <v>64.6763</v>
       </c>
       <c r="J5">
-        <f>AVERAGE(B5:I5)</f>
+        <f t="shared" si="0"/>
         <v>52.1619125</v>
       </c>
       <c r="K5" s="24">
@@ -8665,7 +8667,7 @@
         <v>23444</v>
       </c>
       <c r="O5" s="9">
-        <f>M5/31371</f>
+        <f t="shared" si="1"/>
         <v>0.712792069108412</v>
       </c>
       <c r="P5">
@@ -8675,7 +8677,7 @@
         <v>3.06</v>
       </c>
       <c r="R5" s="27">
-        <f>0.4668/P5</f>
+        <f t="shared" si="2"/>
         <v>1.42665036674817</v>
       </c>
     </row>
@@ -8708,7 +8710,7 @@
         <v>62.121</v>
       </c>
       <c r="J6">
-        <f>AVERAGE(B6:I6)</f>
+        <f t="shared" si="0"/>
         <v>49.117725</v>
       </c>
       <c r="K6" s="24">
@@ -8724,7 +8726,7 @@
         <v>21162</v>
       </c>
       <c r="O6" s="9">
-        <f>M6/31371</f>
+        <f t="shared" si="1"/>
         <v>0.640974148098562</v>
       </c>
       <c r="P6">
@@ -8734,7 +8736,7 @@
         <v>3.38</v>
       </c>
       <c r="R6" s="27">
-        <f>0.4668/P6</f>
+        <f t="shared" si="2"/>
         <v>1.57755998648192</v>
       </c>
     </row>
@@ -8767,7 +8769,7 @@
         <v>53.586</v>
       </c>
       <c r="J7">
-        <f>AVERAGE(B7:I7)</f>
+        <f t="shared" si="0"/>
         <v>44.166125</v>
       </c>
       <c r="K7" s="24">
@@ -8783,7 +8785,7 @@
         <v>17739</v>
       </c>
       <c r="O7" s="9">
-        <f>M7/31371</f>
+        <f t="shared" si="1"/>
         <v>0.533263204870741</v>
       </c>
       <c r="P7">
@@ -8793,7 +8795,7 @@
         <v>4.3</v>
       </c>
       <c r="R7" s="27">
-        <f>0.4668/P7</f>
+        <f t="shared" si="2"/>
         <v>2.00687876182287</v>
       </c>
     </row>
@@ -9358,7 +9360,7 @@
         <v>70.1</v>
       </c>
       <c r="J2" s="10">
-        <f>AVERAGE(B2:I2)</f>
+        <f t="shared" ref="J2:J9" si="0">AVERAGE(B2:I2)</f>
         <v>61.6125</v>
       </c>
       <c r="K2" s="9">
@@ -9379,7 +9381,7 @@
         <v>32571</v>
       </c>
       <c r="Q2" s="9">
-        <f>O2/31371</f>
+        <f t="shared" ref="Q2:Q9" si="1">O2/31371</f>
         <v>1</v>
       </c>
       <c r="R2" s="9">
@@ -9389,7 +9391,7 @@
         <v>2.14</v>
       </c>
       <c r="T2" s="18">
-        <f>0.4668/R2</f>
+        <f t="shared" ref="T2:T9" si="2">0.4668/R2</f>
         <v>1</v>
       </c>
       <c r="U2">
@@ -9425,7 +9427,7 @@
         <v>68.3</v>
       </c>
       <c r="J3" s="12">
-        <f>AVERAGE(B3:I3)</f>
+        <f t="shared" si="0"/>
         <v>59.1875</v>
       </c>
       <c r="K3" s="9">
@@ -9446,7 +9448,7 @@
         <v>29403</v>
       </c>
       <c r="Q3" s="9">
-        <f>O3/31371</f>
+        <f t="shared" si="1"/>
         <v>0.89901501386631</v>
       </c>
       <c r="R3" s="16">
@@ -9456,7 +9458,7 @@
         <v>2.44</v>
       </c>
       <c r="T3" s="18">
-        <f>0.4668/R3</f>
+        <f t="shared" si="2"/>
         <v>1.14020517830972</v>
       </c>
       <c r="U3">
@@ -9492,7 +9494,7 @@
         <v>67.3</v>
       </c>
       <c r="J4" s="14">
-        <f>AVERAGE(B4:I4)</f>
+        <f t="shared" si="0"/>
         <v>56.35</v>
       </c>
       <c r="K4" s="9">
@@ -9513,7 +9515,7 @@
         <v>26235</v>
       </c>
       <c r="Q4" s="9">
-        <f>O4/31371</f>
+        <f t="shared" si="1"/>
         <v>0.798030027732619</v>
       </c>
       <c r="R4" s="17">
@@ -9523,7 +9525,7 @@
         <v>2.67</v>
       </c>
       <c r="T4" s="18">
-        <f>0.4668/R4</f>
+        <f t="shared" si="2"/>
         <v>1.24812834224599</v>
       </c>
       <c r="U4">
@@ -9559,7 +9561,7 @@
         <v>65</v>
       </c>
       <c r="J5" s="14">
-        <f>AVERAGE(B5:I5)</f>
+        <f t="shared" si="0"/>
         <v>55.5875</v>
       </c>
       <c r="K5" s="9">
@@ -9578,7 +9580,7 @@
         <v>25179</v>
       </c>
       <c r="Q5" s="9">
-        <f>O5/31371</f>
+        <f t="shared" si="1"/>
         <v>0.764368365688056</v>
       </c>
       <c r="R5" s="16">
@@ -9588,7 +9590,7 @@
         <v>2.77</v>
       </c>
       <c r="T5" s="18">
-        <f>0.4668/R5</f>
+        <f t="shared" si="2"/>
         <v>1.28950276243094</v>
       </c>
       <c r="U5">
@@ -9624,7 +9626,7 @@
         <v>65</v>
       </c>
       <c r="J6" s="14">
-        <f>AVERAGE(B6:I6)</f>
+        <f t="shared" si="0"/>
         <v>55.0625</v>
       </c>
       <c r="K6" s="9"/>
@@ -9638,7 +9640,7 @@
         <v>24123</v>
       </c>
       <c r="Q6" s="9">
-        <f>O6/31371</f>
+        <f t="shared" si="1"/>
         <v>0.730706703643492</v>
       </c>
       <c r="R6" s="16">
@@ -9648,7 +9650,7 @@
         <v>2.9</v>
       </c>
       <c r="T6" s="18">
-        <f>0.4668/R6</f>
+        <f t="shared" si="2"/>
         <v>1.33753581661891</v>
       </c>
     </row>
@@ -9681,7 +9683,7 @@
         <v>64.6</v>
       </c>
       <c r="J7" s="12">
-        <f>AVERAGE(B7:I7)</f>
+        <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
       <c r="K7" s="9">
@@ -9702,7 +9704,7 @@
         <v>23068</v>
       </c>
       <c r="Q7" s="9">
-        <f>O7/31371</f>
+        <f t="shared" si="1"/>
         <v>0.697076918172835</v>
       </c>
       <c r="R7" s="16">
@@ -9712,7 +9714,7 @@
         <v>2.97</v>
       </c>
       <c r="T7" s="18">
-        <f>0.4668/R7</f>
+        <f t="shared" si="2"/>
         <v>1.38434163701068</v>
       </c>
       <c r="U7">
@@ -9748,7 +9750,7 @@
         <v>62.4</v>
       </c>
       <c r="J8" s="14">
-        <f>AVERAGE(B8:I8)</f>
+        <f t="shared" si="0"/>
         <v>51.8375</v>
       </c>
       <c r="K8" s="9">
@@ -9769,7 +9771,7 @@
         <v>19900</v>
       </c>
       <c r="Q8" s="9">
-        <f>O8/31371</f>
+        <f t="shared" si="1"/>
         <v>0.596091932039144</v>
       </c>
       <c r="R8" s="17">
@@ -9779,7 +9781,7 @@
         <v>3.38</v>
       </c>
       <c r="T8" s="18">
-        <f>0.4668/R8</f>
+        <f t="shared" si="2"/>
         <v>1.57969543147208</v>
       </c>
       <c r="U8">
@@ -9815,7 +9817,7 @@
         <v>59.1</v>
       </c>
       <c r="J9" s="12">
-        <f>AVERAGE(B9:I9)</f>
+        <f t="shared" si="0"/>
         <v>48.1125</v>
       </c>
       <c r="K9" s="9">
@@ -9836,7 +9838,7 @@
         <v>16732</v>
       </c>
       <c r="Q9" s="9">
-        <f>O9/31371</f>
+        <f t="shared" si="1"/>
         <v>0.495106945905454</v>
       </c>
       <c r="R9" s="16">
@@ -9846,7 +9848,7 @@
         <v>3.94</v>
       </c>
       <c r="T9" s="18">
-        <f>0.4668/R9</f>
+        <f t="shared" si="2"/>
         <v>1.8414201183432</v>
       </c>
       <c r="U9">
@@ -9972,7 +9974,7 @@
         <v>61.6125</v>
       </c>
       <c r="K2" s="9">
-        <f>J2/61.6</f>
+        <f t="shared" ref="K2:K7" si="1">J2/61.6</f>
         <v>1.00020292207792</v>
       </c>
       <c r="L2" s="9">
@@ -9988,7 +9990,7 @@
         <v>32571</v>
       </c>
       <c r="P2" s="9">
-        <f>N2/31371</f>
+        <f t="shared" ref="P2:P7" si="2">N2/31371</f>
         <v>1</v>
       </c>
       <c r="Q2" s="9">
@@ -9998,7 +10000,7 @@
         <v>2.14</v>
       </c>
       <c r="S2" s="18">
-        <f>0.4668/Q2</f>
+        <f t="shared" ref="S2:S7" si="3">0.4668/Q2</f>
         <v>1</v>
       </c>
       <c r="T2">
@@ -10038,7 +10040,7 @@
         <v>59.4625</v>
       </c>
       <c r="K3" s="9">
-        <f>J3/61.6</f>
+        <f t="shared" si="1"/>
         <v>0.965300324675325</v>
       </c>
       <c r="L3" s="13">
@@ -10054,7 +10056,7 @@
         <v>29403</v>
       </c>
       <c r="P3" s="9">
-        <f>N3/31371</f>
+        <f t="shared" si="2"/>
         <v>0.89901501386631</v>
       </c>
       <c r="Q3" s="16">
@@ -10064,7 +10066,7 @@
         <v>2.44</v>
       </c>
       <c r="S3" s="18">
-        <f>0.4668/Q3</f>
+        <f t="shared" si="3"/>
         <v>1.14020517830972</v>
       </c>
       <c r="T3">
@@ -10104,7 +10106,7 @@
         <v>56.85</v>
       </c>
       <c r="K4" s="9">
-        <f>J4/61.6</f>
+        <f t="shared" si="1"/>
         <v>0.92288961038961</v>
       </c>
       <c r="L4" s="15">
@@ -10120,7 +10122,7 @@
         <v>26235</v>
       </c>
       <c r="P4" s="9">
-        <f>N4/31371</f>
+        <f t="shared" si="2"/>
         <v>0.798030027732619</v>
       </c>
       <c r="Q4" s="17">
@@ -10130,7 +10132,7 @@
         <v>2.67</v>
       </c>
       <c r="S4" s="18">
-        <f>0.4668/Q4</f>
+        <f t="shared" si="3"/>
         <v>1.24812834224599</v>
       </c>
       <c r="T4">
@@ -10170,7 +10172,7 @@
         <v>54.9</v>
       </c>
       <c r="K5" s="9">
-        <f>J5/61.6</f>
+        <f t="shared" si="1"/>
         <v>0.891233766233766</v>
       </c>
       <c r="L5" s="13">
@@ -10186,7 +10188,7 @@
         <v>23068</v>
       </c>
       <c r="P5" s="9">
-        <f>N5/31371</f>
+        <f t="shared" si="2"/>
         <v>0.697076918172835</v>
       </c>
       <c r="Q5" s="16">
@@ -10196,7 +10198,7 @@
         <v>2.97</v>
       </c>
       <c r="S5" s="18">
-        <f>0.4668/Q5</f>
+        <f t="shared" si="3"/>
         <v>1.38434163701068</v>
       </c>
       <c r="T5">
@@ -10236,7 +10238,7 @@
         <v>52.6125</v>
       </c>
       <c r="K6" s="9">
-        <f>J6/61.6</f>
+        <f t="shared" si="1"/>
         <v>0.854099025974026</v>
       </c>
       <c r="L6" s="15">
@@ -10252,7 +10254,7 @@
         <v>19900</v>
       </c>
       <c r="P6" s="9">
-        <f>N6/31371</f>
+        <f t="shared" si="2"/>
         <v>0.596091932039144</v>
       </c>
       <c r="Q6" s="17">
@@ -10262,7 +10264,7 @@
         <v>3.38</v>
       </c>
       <c r="S6" s="18">
-        <f>0.4668/Q6</f>
+        <f t="shared" si="3"/>
         <v>1.57969543147208</v>
       </c>
       <c r="T6">
@@ -10302,7 +10304,7 @@
         <v>48.725</v>
       </c>
       <c r="K7" s="9">
-        <f>J7/61.6</f>
+        <f t="shared" si="1"/>
         <v>0.79099025974026</v>
       </c>
       <c r="L7" s="16">
@@ -10318,7 +10320,7 @@
         <v>16732</v>
       </c>
       <c r="P7" s="9">
-        <f>N7/31371</f>
+        <f t="shared" si="2"/>
         <v>0.495106945905454</v>
       </c>
       <c r="Q7" s="16">
@@ -10328,7 +10330,7 @@
         <v>3.94</v>
       </c>
       <c r="S7" s="18">
-        <f>0.4668/Q7</f>
+        <f t="shared" si="3"/>
         <v>1.8414201183432</v>
       </c>
       <c r="T7">
@@ -10347,7 +10349,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+      <selection activeCell="P7" sqref="A1:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -10430,7 +10432,7 @@
         <v>70.1</v>
       </c>
       <c r="H2" s="10">
-        <f>AVERAGE(B2:G2)</f>
+        <f t="shared" ref="H2:H7" si="0">AVERAGE(B2:G2)</f>
         <v>65.2333333333333</v>
       </c>
       <c r="I2" s="23">
@@ -10482,7 +10484,7 @@
         <v>74</v>
       </c>
       <c r="H3" s="14">
-        <f>AVERAGE(B3:G3)</f>
+        <f t="shared" si="0"/>
         <v>59.3</v>
       </c>
       <c r="I3" s="13">
@@ -10531,7 +10533,7 @@
         <v>73.6</v>
       </c>
       <c r="H4" s="14">
-        <f>AVERAGE(B4:G4)</f>
+        <f t="shared" si="0"/>
         <v>57.05</v>
       </c>
       <c r="I4" s="15">
@@ -10583,7 +10585,7 @@
         <v>71.2</v>
       </c>
       <c r="H5" s="12">
-        <f>AVERAGE(B5:G5)</f>
+        <f t="shared" si="0"/>
         <v>58.3166666666667</v>
       </c>
       <c r="I5" s="13">
@@ -10635,7 +10637,7 @@
         <v>70.3</v>
       </c>
       <c r="H6" s="14">
-        <f>AVERAGE(B6:G6)</f>
+        <f t="shared" si="0"/>
         <v>56.3</v>
       </c>
       <c r="I6" s="15">
@@ -10687,7 +10689,7 @@
         <v>50.6</v>
       </c>
       <c r="H7" s="12">
-        <f>AVERAGE(B7:G7)</f>
+        <f t="shared" si="0"/>
         <v>39.75</v>
       </c>
       <c r="I7" s="16">
@@ -10727,7 +10729,7 @@
   <sheetPr/>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T11" sqref="T11:T12"/>
     </sheetView>
   </sheetViews>
@@ -10814,7 +10816,7 @@
         <v>70.1</v>
       </c>
       <c r="H2" s="10">
-        <f>AVERAGE(B2:G2)</f>
+        <f t="shared" ref="H2:H7" si="0">AVERAGE(B2:G2)</f>
         <v>65.2333333333333</v>
       </c>
       <c r="I2" s="23">
@@ -10836,7 +10838,7 @@
         <v>2.14</v>
       </c>
       <c r="O2" s="27">
-        <f>0.4668/M2</f>
+        <f t="shared" ref="O2:O7" si="1">0.4668/M2</f>
         <v>1</v>
       </c>
       <c r="P2">
@@ -10866,7 +10868,7 @@
         <v>73.6</v>
       </c>
       <c r="H3" s="10">
-        <f>AVERAGE(B3:G3)</f>
+        <f t="shared" si="0"/>
         <v>57.05</v>
       </c>
       <c r="I3" s="13">
@@ -10888,7 +10890,7 @@
         <v>2.44</v>
       </c>
       <c r="O3" s="27">
-        <f>0.4668/M3</f>
+        <f t="shared" si="1"/>
         <v>1.14020517830972</v>
       </c>
       <c r="P3">
@@ -10918,7 +10920,7 @@
         <v>74</v>
       </c>
       <c r="H4" s="14">
-        <f>AVERAGE(B4:G4)</f>
+        <f t="shared" si="0"/>
         <v>59.3</v>
       </c>
       <c r="I4" s="15">
@@ -10940,7 +10942,7 @@
         <v>2.67</v>
       </c>
       <c r="O4" s="27">
-        <f>0.4668/M4</f>
+        <f t="shared" si="1"/>
         <v>1.24812834224599</v>
       </c>
       <c r="P4">
@@ -10970,7 +10972,7 @@
         <v>71.2</v>
       </c>
       <c r="H5" s="12">
-        <f>AVERAGE(B5:G5)</f>
+        <f t="shared" si="0"/>
         <v>58.3166666666667</v>
       </c>
       <c r="I5" s="13">
@@ -10992,7 +10994,7 @@
         <v>2.97</v>
       </c>
       <c r="O5" s="27">
-        <f>0.4668/M5</f>
+        <f t="shared" si="1"/>
         <v>1.38434163701068</v>
       </c>
       <c r="P5">
@@ -11022,7 +11024,7 @@
         <v>70.3</v>
       </c>
       <c r="H6" s="14">
-        <f>AVERAGE(B6:G6)</f>
+        <f t="shared" si="0"/>
         <v>56.3</v>
       </c>
       <c r="I6" s="15">
@@ -11044,7 +11046,7 @@
         <v>3.38</v>
       </c>
       <c r="O6" s="27">
-        <f>0.4668/M6</f>
+        <f t="shared" si="1"/>
         <v>1.57969543147208</v>
       </c>
       <c r="P6">
@@ -11074,7 +11076,7 @@
         <v>69.1</v>
       </c>
       <c r="H7" s="12">
-        <f>AVERAGE(B7:G7)</f>
+        <f t="shared" si="0"/>
         <v>53.5166666666667</v>
       </c>
       <c r="I7" s="16">
@@ -11096,7 +11098,7 @@
         <v>3.94</v>
       </c>
       <c r="O7" s="27">
-        <f>0.4668/M7</f>
+        <f t="shared" si="1"/>
         <v>1.8414201183432</v>
       </c>
       <c r="P7">
@@ -12454,7 +12456,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="S8" sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7"/>
@@ -12553,7 +12555,7 @@
         <v>70.1</v>
       </c>
       <c r="J2" s="10">
-        <f>AVERAGE(B2:I2)</f>
+        <f t="shared" ref="J2:J8" si="0">AVERAGE(B2:I2)</f>
         <v>61.6125</v>
       </c>
       <c r="K2" s="23">
@@ -12569,7 +12571,7 @@
         <v>32571</v>
       </c>
       <c r="O2" s="9">
-        <f>M2/31371</f>
+        <f t="shared" ref="O2:O8" si="1">M2/31371</f>
         <v>1</v>
       </c>
       <c r="P2" s="9">
@@ -12615,7 +12617,7 @@
         <v>68.8</v>
       </c>
       <c r="J3" s="12">
-        <f>AVERAGE(B3:I3)</f>
+        <f t="shared" si="0"/>
         <v>59.4625</v>
       </c>
       <c r="K3" s="25">
@@ -12631,7 +12633,7 @@
         <v>29700</v>
       </c>
       <c r="O3" s="9">
-        <f>M3/31371</f>
+        <f t="shared" si="1"/>
         <v>0.908482356316343</v>
       </c>
       <c r="P3" s="25">
@@ -12641,7 +12643,7 @@
         <v>2.38</v>
       </c>
       <c r="R3" s="27">
-        <f t="shared" ref="R3:R8" si="0">0.4668/P3</f>
+        <f t="shared" ref="R3:R8" si="2">0.4668/P3</f>
         <v>1.10931558935361</v>
       </c>
       <c r="S3">
@@ -12677,7 +12679,7 @@
         <v>68.5</v>
       </c>
       <c r="J4" s="14">
-        <f>AVERAGE(B4:I4)</f>
+        <f t="shared" si="0"/>
         <v>56.1</v>
       </c>
       <c r="K4" s="26">
@@ -12693,7 +12695,7 @@
         <v>26289</v>
       </c>
       <c r="O4" s="9">
-        <f>M4/31371</f>
+        <f t="shared" si="1"/>
         <v>0.816964712632686</v>
       </c>
       <c r="P4" s="26">
@@ -12703,7 +12705,7 @@
         <v>2.47</v>
       </c>
       <c r="R4" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.15458817709622</v>
       </c>
       <c r="S4">
@@ -12739,7 +12741,7 @@
         <v>67.2</v>
       </c>
       <c r="J5" s="12">
-        <f>AVERAGE(B5:I5)</f>
+        <f t="shared" si="0"/>
         <v>55.25</v>
       </c>
       <c r="K5" s="25">
@@ -12755,7 +12757,7 @@
         <v>23958</v>
       </c>
       <c r="O5" s="9">
-        <f>M5/31371</f>
+        <f t="shared" si="1"/>
         <v>0.725478945522935</v>
       </c>
       <c r="P5" s="25">
@@ -12765,7 +12767,7 @@
         <v>2.66</v>
       </c>
       <c r="R5" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.24314247669774</v>
       </c>
       <c r="S5">
@@ -12801,7 +12803,7 @@
         <v>65.5</v>
       </c>
       <c r="J6" s="12">
-        <f>AVERAGE(B6:I6)</f>
+        <f t="shared" si="0"/>
         <v>53.2625</v>
       </c>
       <c r="K6" s="26">
@@ -12817,7 +12819,7 @@
         <v>22468</v>
       </c>
       <c r="O6" s="9">
-        <f>M6/31371</f>
+        <f t="shared" si="1"/>
         <v>0.69497306429505</v>
       </c>
       <c r="P6" s="26">
@@ -12827,7 +12829,7 @@
         <v>2.8</v>
       </c>
       <c r="R6" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.29810901001112</v>
       </c>
     </row>
@@ -12860,7 +12862,7 @@
         <v>63.2</v>
       </c>
       <c r="J7" s="14">
-        <f>AVERAGE(B7:I7)</f>
+        <f t="shared" si="0"/>
         <v>51.9125</v>
       </c>
       <c r="K7" s="26">
@@ -12876,7 +12878,7 @@
         <v>21088</v>
       </c>
       <c r="O7" s="9">
-        <f>M7/31371</f>
+        <f t="shared" si="1"/>
         <v>0.633961301839278</v>
       </c>
       <c r="P7" s="26">
@@ -12886,7 +12888,7 @@
         <v>3.08</v>
       </c>
       <c r="R7" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.43807763401109</v>
       </c>
       <c r="S7">
@@ -12922,7 +12924,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="12">
-        <f>AVERAGE(B8:I8)</f>
+        <f t="shared" si="0"/>
         <v>48.675</v>
       </c>
       <c r="K8" s="25">
@@ -12938,7 +12940,7 @@
         <v>18217</v>
       </c>
       <c r="O8" s="9">
-        <f>M8/31371</f>
+        <f t="shared" si="1"/>
         <v>0.542443658155621</v>
       </c>
       <c r="P8" s="25">
@@ -12948,7 +12950,7 @@
         <v>3.39</v>
       </c>
       <c r="R8" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.58237288135593</v>
       </c>
       <c r="S8">
@@ -13050,7 +13052,7 @@
         <v>70.1</v>
       </c>
       <c r="H2" s="10">
-        <f>AVERAGE(B2:G2)</f>
+        <f t="shared" ref="H2:H7" si="0">AVERAGE(B2:G2)</f>
         <v>65.2333333333333</v>
       </c>
       <c r="I2" s="23">
@@ -13072,7 +13074,7 @@
         <v>2.14</v>
       </c>
       <c r="O2" s="27">
-        <f>0.4668/M2</f>
+        <f t="shared" ref="O2:O7" si="1">0.4668/M2</f>
         <v>1</v>
       </c>
       <c r="P2">
@@ -13102,7 +13104,7 @@
         <v>71.5</v>
       </c>
       <c r="H3" s="14">
-        <f>AVERAGE(B3:G3)</f>
+        <f t="shared" si="0"/>
         <v>64.7166666666667</v>
       </c>
       <c r="I3" s="25">
@@ -13124,7 +13126,7 @@
         <v>2.38</v>
       </c>
       <c r="O3" s="27">
-        <f>0.4668/M3</f>
+        <f t="shared" si="1"/>
         <v>1.10931558935361</v>
       </c>
       <c r="P3">
@@ -13154,7 +13156,7 @@
         <v>74.7</v>
       </c>
       <c r="H4" s="14">
-        <f>AVERAGE(B4:G4)</f>
+        <f t="shared" si="0"/>
         <v>65.4166666666667</v>
       </c>
       <c r="I4" s="26">
@@ -13176,7 +13178,7 @@
         <v>2.47</v>
       </c>
       <c r="O4" s="27">
-        <f>0.4668/M4</f>
+        <f t="shared" si="1"/>
         <v>1.15458817709622</v>
       </c>
       <c r="P4">
@@ -13206,7 +13208,7 @@
         <v>73.6</v>
       </c>
       <c r="H5" s="12">
-        <f>AVERAGE(B5:G5)</f>
+        <f t="shared" si="0"/>
         <v>63.1333333333333</v>
       </c>
       <c r="I5" s="25">
@@ -13228,7 +13230,7 @@
         <v>2.66</v>
       </c>
       <c r="O5" s="27">
-        <f>0.4668/M5</f>
+        <f t="shared" si="1"/>
         <v>1.24314247669774</v>
       </c>
       <c r="P5">
@@ -13258,7 +13260,7 @@
         <v>69.7</v>
       </c>
       <c r="H6" s="14">
-        <f>AVERAGE(B6:G6)</f>
+        <f t="shared" si="0"/>
         <v>59.2333333333333</v>
       </c>
       <c r="I6" s="26">
@@ -13280,7 +13282,7 @@
         <v>3.08</v>
       </c>
       <c r="O6" s="27">
-        <f>0.4668/M6</f>
+        <f t="shared" si="1"/>
         <v>1.43807763401109</v>
       </c>
       <c r="P6">
@@ -13310,7 +13312,7 @@
         <v>71</v>
       </c>
       <c r="H7" s="12">
-        <f>AVERAGE(B7:G7)</f>
+        <f t="shared" si="0"/>
         <v>57.7</v>
       </c>
       <c r="I7" s="25">
@@ -13332,7 +13334,7 @@
         <v>3.39</v>
       </c>
       <c r="O7" s="27">
-        <f>0.4668/M7</f>
+        <f t="shared" si="1"/>
         <v>1.58237288135593</v>
       </c>
       <c r="P7">
@@ -13469,7 +13471,7 @@
         <v>2.14</v>
       </c>
       <c r="Q2" s="27">
-        <f>0.4668/O2</f>
+        <f t="shared" ref="Q2:Q7" si="0">0.4668/O2</f>
         <v>1</v>
       </c>
       <c r="R2">
@@ -13505,7 +13507,7 @@
         <v>68.6</v>
       </c>
       <c r="J3" s="12">
-        <f t="shared" ref="J3:J7" si="0">AVERAGE(B3:I3)</f>
+        <f t="shared" ref="J3:J7" si="1">AVERAGE(B3:I3)</f>
         <v>59.425</v>
       </c>
       <c r="K3" s="24">
@@ -13527,7 +13529,7 @@
         <v>2.38</v>
       </c>
       <c r="Q3" s="27">
-        <f>0.4668/O3</f>
+        <f t="shared" si="0"/>
         <v>1.10931558935361</v>
       </c>
       <c r="R3">
@@ -13563,7 +13565,7 @@
         <v>68.4</v>
       </c>
       <c r="J4" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57.0875</v>
       </c>
       <c r="K4" s="24">
@@ -13585,7 +13587,7 @@
         <v>2.47</v>
       </c>
       <c r="Q4" s="27">
-        <f>0.4668/O4</f>
+        <f t="shared" si="0"/>
         <v>1.15458817709622</v>
       </c>
       <c r="R4">
@@ -13621,7 +13623,7 @@
         <v>66.5</v>
       </c>
       <c r="J5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55.6625</v>
       </c>
       <c r="K5" s="24">
@@ -13643,7 +13645,7 @@
         <v>2.66</v>
       </c>
       <c r="Q5" s="27">
-        <f>0.4668/O5</f>
+        <f t="shared" si="0"/>
         <v>1.24314247669774</v>
       </c>
       <c r="R5">
@@ -13679,7 +13681,7 @@
         <v>64.6</v>
       </c>
       <c r="J6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53.1875</v>
       </c>
       <c r="K6" s="24">
@@ -13701,7 +13703,7 @@
         <v>3.08</v>
       </c>
       <c r="Q6" s="27">
-        <f>0.4668/O6</f>
+        <f t="shared" si="0"/>
         <v>1.43807763401109</v>
       </c>
       <c r="R6">
@@ -13737,7 +13739,7 @@
         <v>62</v>
       </c>
       <c r="J7" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49.9625</v>
       </c>
       <c r="K7" s="24">
@@ -13759,7 +13761,7 @@
         <v>3.39</v>
       </c>
       <c r="Q7" s="27">
-        <f>0.4668/O7</f>
+        <f t="shared" si="0"/>
         <v>1.58237288135593</v>
       </c>
       <c r="R7">
@@ -18332,6 +18334,549 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="11" max="11" width="12.9230769230769"/>
+    <col min="14" max="14" width="12.9230769230769"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
+    <col min="16" max="16" width="13.6153846153846" customWidth="1"/>
+    <col min="17" max="17" width="12.9230769230769"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>79.5</v>
+      </c>
+      <c r="D2">
+        <v>77.3</v>
+      </c>
+      <c r="E2">
+        <v>61.2</v>
+      </c>
+      <c r="F2">
+        <v>43.6</v>
+      </c>
+      <c r="G2">
+        <v>80.3</v>
+      </c>
+      <c r="H2">
+        <v>67.9</v>
+      </c>
+      <c r="I2">
+        <v>69.3</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(B2:I2)</f>
+        <v>65.5125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>77.8</v>
+      </c>
+      <c r="D3">
+        <v>74.5</v>
+      </c>
+      <c r="E3">
+        <v>56.7</v>
+      </c>
+      <c r="F3">
+        <v>42.4</v>
+      </c>
+      <c r="G3">
+        <v>79.6</v>
+      </c>
+      <c r="H3">
+        <v>68.6</v>
+      </c>
+      <c r="I3">
+        <v>67.2</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(B3:I3)</f>
+        <v>63.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>40.4</v>
+      </c>
+      <c r="C4">
+        <v>77.2</v>
+      </c>
+      <c r="D4">
+        <v>72.1</v>
+      </c>
+      <c r="E4">
+        <v>54.9</v>
+      </c>
+      <c r="F4">
+        <v>39.4</v>
+      </c>
+      <c r="G4">
+        <v>78</v>
+      </c>
+      <c r="H4">
+        <v>71.1</v>
+      </c>
+      <c r="I4">
+        <v>66.4</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(B4:I4)</f>
+        <v>62.4375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>35.9</v>
+      </c>
+      <c r="C5">
+        <v>77</v>
+      </c>
+      <c r="D5">
+        <v>67.7</v>
+      </c>
+      <c r="E5">
+        <v>54.2</v>
+      </c>
+      <c r="F5">
+        <v>38.2</v>
+      </c>
+      <c r="G5">
+        <v>75.8</v>
+      </c>
+      <c r="H5">
+        <v>67.5</v>
+      </c>
+      <c r="I5">
+        <v>65.2</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(B5:I5)</f>
+        <v>60.1875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>74.3</v>
+      </c>
+      <c r="D6">
+        <v>60.9</v>
+      </c>
+      <c r="E6">
+        <v>51</v>
+      </c>
+      <c r="F6">
+        <v>33.2</v>
+      </c>
+      <c r="G6">
+        <v>71.1</v>
+      </c>
+      <c r="H6">
+        <v>63.5</v>
+      </c>
+      <c r="I6">
+        <v>63.9</v>
+      </c>
+      <c r="J6">
+        <f>AVERAGE(B6:I6)</f>
+        <v>56.3625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>32.1</v>
+      </c>
+      <c r="C7">
+        <v>70.2</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <v>46.1</v>
+      </c>
+      <c r="F7">
+        <v>33.2</v>
+      </c>
+      <c r="G7">
+        <v>69.3</v>
+      </c>
+      <c r="H7">
+        <v>63.5</v>
+      </c>
+      <c r="I7">
+        <v>63.3</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGE(B7:I7)</f>
+        <v>54.0875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>79.5</v>
+      </c>
+      <c r="D2">
+        <v>77.3</v>
+      </c>
+      <c r="E2">
+        <v>61.2</v>
+      </c>
+      <c r="F2">
+        <v>43.6</v>
+      </c>
+      <c r="G2">
+        <v>80.3</v>
+      </c>
+      <c r="H2">
+        <v>67.9</v>
+      </c>
+      <c r="I2">
+        <v>69.3</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(B2:I2)</f>
+        <v>65.5125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>44.5</v>
+      </c>
+      <c r="C3">
+        <v>77.5</v>
+      </c>
+      <c r="D3">
+        <v>74.6</v>
+      </c>
+      <c r="E3">
+        <v>56.1</v>
+      </c>
+      <c r="F3">
+        <v>42.4</v>
+      </c>
+      <c r="G3">
+        <v>80.4</v>
+      </c>
+      <c r="H3">
+        <v>62.1</v>
+      </c>
+      <c r="I3">
+        <v>67.6</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(B3:I3)</f>
+        <v>63.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>41.1</v>
+      </c>
+      <c r="C4">
+        <v>75.8</v>
+      </c>
+      <c r="D4">
+        <v>72.9</v>
+      </c>
+      <c r="E4">
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>78.9</v>
+      </c>
+      <c r="H4">
+        <v>67.2</v>
+      </c>
+      <c r="I4">
+        <v>68.1</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(B4:I4)</f>
+        <v>62.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>38.7</v>
+      </c>
+      <c r="C5">
+        <v>73.6</v>
+      </c>
+      <c r="D5">
+        <v>67.4</v>
+      </c>
+      <c r="E5">
+        <v>52.2</v>
+      </c>
+      <c r="F5">
+        <v>37.6</v>
+      </c>
+      <c r="G5">
+        <v>75.8</v>
+      </c>
+      <c r="H5">
+        <v>70</v>
+      </c>
+      <c r="I5">
+        <v>65.8</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(B5:I5)</f>
+        <v>60.1375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>61.2</v>
+      </c>
+      <c r="E6">
+        <v>46.4</v>
+      </c>
+      <c r="F6">
+        <v>32.8</v>
+      </c>
+      <c r="G6">
+        <v>72.4</v>
+      </c>
+      <c r="H6">
+        <v>69.7</v>
+      </c>
+      <c r="I6">
+        <v>66.3</v>
+      </c>
+      <c r="J6">
+        <f>AVERAGE(B6:I6)</f>
+        <v>57.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>33.1</v>
+      </c>
+      <c r="C7">
+        <v>69</v>
+      </c>
+      <c r="D7">
+        <v>54.9</v>
+      </c>
+      <c r="E7">
+        <v>37.7</v>
+      </c>
+      <c r="F7">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>68.8</v>
+      </c>
+      <c r="H7">
+        <v>59.2</v>
+      </c>
+      <c r="I7">
+        <v>63.6</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGE(B7:I7)</f>
+        <v>52.1625</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9520" tabRatio="872" firstSheet="28" activeTab="37"/>
+    <workbookView windowWidth="25600" windowHeight="9520" tabRatio="872" firstSheet="28" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18358,7 +18358,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -18423,7 +18423,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18455,8 +18455,31 @@
         <f>AVERAGE(B2:I2)</f>
         <v>65.5125</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>14315784192</v>
+      </c>
+      <c r="L2">
+        <v>27420</v>
+      </c>
+      <c r="M2">
+        <v>28964</v>
+      </c>
+      <c r="N2">
+        <f>L2/27420</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0.5353</v>
+      </c>
+      <c r="P2">
+        <v>1.87</v>
+      </c>
+      <c r="Q2">
+        <f>P2/1.87</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>3</v>
       </c>
@@ -18488,8 +18511,31 @@
         <f>AVERAGE(B3:I3)</f>
         <v>63.85</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>12862458360</v>
+      </c>
+      <c r="L3">
+        <v>24646</v>
+      </c>
+      <c r="M3">
+        <v>26190</v>
+      </c>
+      <c r="N3">
+        <f>L3/27420</f>
+        <v>0.898832968636032</v>
+      </c>
+      <c r="O3">
+        <v>0.5026</v>
+      </c>
+      <c r="P3">
+        <v>1.99</v>
+      </c>
+      <c r="Q3">
+        <f>P3/1.87</f>
+        <v>1.06417112299465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>6</v>
       </c>
@@ -18521,8 +18567,31 @@
         <f>AVERAGE(B4:I4)</f>
         <v>62.4375</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>11409132528</v>
+      </c>
+      <c r="L4">
+        <v>21872</v>
+      </c>
+      <c r="M4">
+        <v>23437</v>
+      </c>
+      <c r="N4">
+        <f>L4/27420</f>
+        <v>0.797665937272064</v>
+      </c>
+      <c r="O4">
+        <v>0.4497</v>
+      </c>
+      <c r="P4">
+        <v>2.22</v>
+      </c>
+      <c r="Q4">
+        <f>P4/1.87</f>
+        <v>1.18716577540107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>9</v>
       </c>
@@ -18554,8 +18623,31 @@
         <f>AVERAGE(B5:I5)</f>
         <v>60.1875</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>9955806696</v>
+      </c>
+      <c r="L5">
+        <v>19097</v>
+      </c>
+      <c r="M5">
+        <v>20656</v>
+      </c>
+      <c r="N5">
+        <f>L5/27420</f>
+        <v>0.696462436177972</v>
+      </c>
+      <c r="O5">
+        <v>0.4109</v>
+      </c>
+      <c r="P5">
+        <v>2.43</v>
+      </c>
+      <c r="Q5">
+        <f>P5/1.87</f>
+        <v>1.29946524064171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>12</v>
       </c>
@@ -18587,8 +18679,31 @@
         <f>AVERAGE(B6:I6)</f>
         <v>56.3625</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>8502480864</v>
+      </c>
+      <c r="L6">
+        <v>16325</v>
+      </c>
+      <c r="M6">
+        <v>17877</v>
+      </c>
+      <c r="N6">
+        <f>L6/27420</f>
+        <v>0.595368344274252</v>
+      </c>
+      <c r="O6">
+        <v>0.3324</v>
+      </c>
+      <c r="P6">
+        <v>3.01</v>
+      </c>
+      <c r="Q6">
+        <f>P6/1.87</f>
+        <v>1.6096256684492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>15</v>
       </c>
@@ -18619,6 +18734,29 @@
       <c r="J7">
         <f>AVERAGE(B7:I7)</f>
         <v>54.0875</v>
+      </c>
+      <c r="K7">
+        <v>7049155032</v>
+      </c>
+      <c r="L7">
+        <v>13552</v>
+      </c>
+      <c r="M7">
+        <v>15102</v>
+      </c>
+      <c r="N7">
+        <f>L7/27420</f>
+        <v>0.494237782640408</v>
+      </c>
+      <c r="O7">
+        <v>0.294</v>
+      </c>
+      <c r="P7">
+        <v>3.4</v>
+      </c>
+      <c r="Q7">
+        <f>P7/1.87</f>
+        <v>1.81818181818182</v>
       </c>
     </row>
   </sheetData>
@@ -18632,11 +18770,16 @@
   <sheetPr/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="11" max="11" width="13.6153846153846" customWidth="1"/>
+    <col min="14" max="14" width="12.9230769230769"/>
+    <col min="17" max="17" width="12.9230769230769"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -18691,7 +18834,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18723,8 +18866,31 @@
         <f>AVERAGE(B2:I2)</f>
         <v>65.5125</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>14315784192</v>
+      </c>
+      <c r="L2">
+        <v>27420</v>
+      </c>
+      <c r="M2">
+        <v>28964</v>
+      </c>
+      <c r="N2">
+        <f>L2/27420</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0.5353</v>
+      </c>
+      <c r="P2">
+        <v>1.87</v>
+      </c>
+      <c r="Q2">
+        <f>P2/1.87</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>3</v>
       </c>
@@ -18756,8 +18922,31 @@
         <f>AVERAGE(B3:I3)</f>
         <v>63.15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>12758649372</v>
+      </c>
+      <c r="L3">
+        <v>24448</v>
+      </c>
+      <c r="M3">
+        <v>25992</v>
+      </c>
+      <c r="N3">
+        <f>L3/27420</f>
+        <v>0.891611962071481</v>
+      </c>
+      <c r="O3">
+        <v>0.4892</v>
+      </c>
+      <c r="P3">
+        <v>2.04</v>
+      </c>
+      <c r="Q3">
+        <f>P3/1.87</f>
+        <v>1.09090909090909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>6</v>
       </c>
@@ -18789,8 +18978,31 @@
         <f>AVERAGE(B4:I4)</f>
         <v>62.625</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>11201514552</v>
+      </c>
+      <c r="L4">
+        <v>21476</v>
+      </c>
+      <c r="M4">
+        <v>23039</v>
+      </c>
+      <c r="N4">
+        <f>L4/27420</f>
+        <v>0.783223924142961</v>
+      </c>
+      <c r="O4">
+        <v>0.4381</v>
+      </c>
+      <c r="P4">
+        <v>2.28</v>
+      </c>
+      <c r="Q4">
+        <f>P4/1.87</f>
+        <v>1.2192513368984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>9</v>
       </c>
@@ -18822,8 +19034,31 @@
         <f>AVERAGE(B5:I5)</f>
         <v>60.1375</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>9644379732</v>
+      </c>
+      <c r="L5">
+        <v>18505</v>
+      </c>
+      <c r="M5">
+        <v>20071</v>
+      </c>
+      <c r="N5">
+        <f>L5/27420</f>
+        <v>0.674872355944566</v>
+      </c>
+      <c r="O5">
+        <v>0.3923</v>
+      </c>
+      <c r="P5">
+        <v>2.55</v>
+      </c>
+      <c r="Q5">
+        <f>P5/1.87</f>
+        <v>1.36363636363636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>12</v>
       </c>
@@ -18855,8 +19090,31 @@
         <f>AVERAGE(B6:I6)</f>
         <v>57.35</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>8087244912</v>
+      </c>
+      <c r="L6">
+        <v>15533</v>
+      </c>
+      <c r="M6">
+        <v>17097</v>
+      </c>
+      <c r="N6">
+        <f>L6/27420</f>
+        <v>0.566484318016047</v>
+      </c>
+      <c r="O6">
+        <v>0.3474</v>
+      </c>
+      <c r="P6">
+        <v>2.88</v>
+      </c>
+      <c r="Q6">
+        <f>P6/1.87</f>
+        <v>1.54010695187166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>15</v>
       </c>
@@ -18887,6 +19145,29 @@
       <c r="J7">
         <f>AVERAGE(B7:I7)</f>
         <v>52.1625</v>
+      </c>
+      <c r="K7">
+        <v>6530110092</v>
+      </c>
+      <c r="L7">
+        <v>12561</v>
+      </c>
+      <c r="M7">
+        <v>14124</v>
+      </c>
+      <c r="N7">
+        <f>L7/27420</f>
+        <v>0.458096280087527</v>
+      </c>
+      <c r="O7">
+        <v>0.2795</v>
+      </c>
+      <c r="P7">
+        <v>3.58</v>
+      </c>
+      <c r="Q7">
+        <f>P7/1.87</f>
+        <v>1.9144385026738</v>
       </c>
     </row>
   </sheetData>
@@ -18901,7 +19182,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="A1:Q7"/>
+      <selection activeCell="K2" sqref="K2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -18959,7 +19240,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18990,6 +19271,21 @@
       <c r="J2">
         <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
         <v>65.5125</v>
+      </c>
+      <c r="K2">
+        <v>14315784192</v>
+      </c>
+      <c r="L2">
+        <v>27420</v>
+      </c>
+      <c r="M2">
+        <v>28964</v>
+      </c>
+      <c r="O2">
+        <v>0.5353</v>
+      </c>
+      <c r="P2">
+        <v>1.87</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -19168,11 +19464,16 @@
   <sheetPr/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="11" max="11" width="11.6923076923077" customWidth="1"/>
+    <col min="14" max="14" width="12.9230769230769"/>
+    <col min="17" max="17" width="12.9230769230769"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -19227,7 +19528,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
@@ -19259,170 +19560,308 @@
         <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
         <v>65.5125</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>14315784192</v>
+      </c>
+      <c r="L2">
+        <v>27420</v>
+      </c>
+      <c r="M2">
+        <v>28964</v>
+      </c>
+      <c r="N2">
+        <f>L2/27420</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0.5353</v>
+      </c>
+      <c r="P2">
+        <v>1.87</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q7" si="1">P2/1.87</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>36.9</v>
+        <v>38.4</v>
       </c>
       <c r="C3">
-        <v>62.7</v>
+        <v>63.4</v>
       </c>
       <c r="D3">
-        <v>69.8</v>
+        <v>70.6</v>
       </c>
       <c r="E3">
-        <v>60.3</v>
+        <v>61</v>
       </c>
       <c r="F3">
-        <v>34.8</v>
+        <v>36.4</v>
       </c>
       <c r="G3" s="1">
-        <v>75.6</v>
+        <v>76.1</v>
       </c>
       <c r="H3">
-        <v>63.2</v>
+        <v>63.9</v>
       </c>
       <c r="I3">
-        <v>67.7</v>
+        <v>68.8</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>58.875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>59.825</v>
+      </c>
+      <c r="K3">
+        <v>12758649372</v>
+      </c>
+      <c r="L3">
+        <v>24449</v>
+      </c>
+      <c r="M3">
+        <v>25993</v>
+      </c>
+      <c r="N3">
+        <f>L3/27420</f>
+        <v>0.891648431801605</v>
+      </c>
+      <c r="O3">
+        <v>0.488</v>
+      </c>
+      <c r="P3">
+        <v>2.05</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>1.09625668449198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>31.3</v>
+        <v>34.4</v>
       </c>
       <c r="C4">
-        <v>62.2</v>
+        <v>62.6</v>
       </c>
       <c r="D4">
-        <v>57.4</v>
+        <v>63.1</v>
       </c>
       <c r="E4">
-        <v>38.4</v>
+        <v>45.4</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>32.8</v>
       </c>
       <c r="G4">
-        <v>70.7</v>
+        <v>73.6</v>
       </c>
       <c r="H4">
-        <v>52.7</v>
+        <v>54.5</v>
       </c>
       <c r="I4">
-        <v>58.2</v>
+        <v>62.6</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>50.3625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>53.625</v>
+      </c>
+      <c r="K4">
+        <v>11201514552</v>
+      </c>
+      <c r="L4">
+        <v>21478</v>
+      </c>
+      <c r="M4">
+        <v>20322</v>
+      </c>
+      <c r="N4">
+        <f>L4/27420</f>
+        <v>0.783296863603209</v>
+      </c>
+      <c r="O4">
+        <v>0.4343</v>
+      </c>
+      <c r="P4">
+        <v>2.3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>1.22994652406417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>30.4</v>
       </c>
       <c r="C5">
-        <v>63.7</v>
+        <v>62.9</v>
       </c>
       <c r="D5">
-        <v>34.1</v>
+        <v>47.8</v>
       </c>
       <c r="E5">
-        <v>23.1</v>
+        <v>30.6</v>
       </c>
       <c r="F5">
-        <v>27.6</v>
+        <v>29.4</v>
       </c>
       <c r="G5">
-        <v>57.7</v>
+        <v>65.3</v>
       </c>
       <c r="H5">
-        <v>52.4</v>
+        <v>53.4</v>
       </c>
       <c r="I5">
-        <v>50.5</v>
+        <v>57.6</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>42.1375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>47.175</v>
+      </c>
+      <c r="K5">
+        <v>9644379732</v>
+      </c>
+      <c r="L5">
+        <v>18507</v>
+      </c>
+      <c r="M5">
+        <v>20051</v>
+      </c>
+      <c r="N5">
+        <f>L5/27420</f>
+        <v>0.674945295404814</v>
+      </c>
+      <c r="O5">
+        <v>0.3834</v>
+      </c>
+      <c r="P5">
+        <v>2.61</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1.39572192513369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>27.9</v>
+        <v>28.8</v>
       </c>
       <c r="C6">
-        <v>42.6</v>
+        <v>55.2</v>
       </c>
       <c r="D6">
-        <v>27.2</v>
+        <v>36.4</v>
       </c>
       <c r="E6">
-        <v>22.9</v>
+        <v>23.5</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="G6">
-        <v>53.4</v>
+        <v>60.8</v>
       </c>
       <c r="H6">
         <v>52.7</v>
       </c>
       <c r="I6">
-        <v>49.2</v>
+        <v>52.3</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>38.2375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>42.1625</v>
+      </c>
+      <c r="K6">
+        <v>8087244912</v>
+      </c>
+      <c r="L6">
+        <v>15534</v>
+      </c>
+      <c r="M6">
+        <v>17078</v>
+      </c>
+      <c r="N6">
+        <f>L6/27420</f>
+        <v>0.566520787746171</v>
+      </c>
+      <c r="O6">
+        <v>0.3304</v>
+      </c>
+      <c r="P6">
+        <v>3.03</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>1.62032085561497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>26.8</v>
+        <v>25.2</v>
       </c>
       <c r="C7">
-        <v>53.2</v>
+        <v>38.6</v>
       </c>
       <c r="D7">
-        <v>24.6</v>
+        <v>30.2</v>
       </c>
       <c r="E7">
-        <v>24.5</v>
+        <v>23.1</v>
       </c>
       <c r="F7">
-        <v>29.2</v>
+        <v>27.2</v>
       </c>
       <c r="G7">
-        <v>48.8</v>
+        <v>54.8</v>
       </c>
       <c r="H7">
-        <v>48.8</v>
+        <v>51.6</v>
       </c>
       <c r="I7">
-        <v>52.4</v>
+        <v>49.8</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>38.5375</v>
+        <v>37.5625</v>
+      </c>
+      <c r="K7">
+        <v>6530110092</v>
+      </c>
+      <c r="L7">
+        <v>12562</v>
+      </c>
+      <c r="M7">
+        <v>14106</v>
+      </c>
+      <c r="N7">
+        <f>L7/27420</f>
+        <v>0.458132749817651</v>
+      </c>
+      <c r="O7">
+        <v>0.2745</v>
+      </c>
+      <c r="P7">
+        <v>3.64</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>1.94652406417112</v>
       </c>
     </row>
   </sheetData>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9520" tabRatio="872" firstSheet="28" activeTab="35"/>
+    <workbookView windowWidth="25600" windowHeight="9520" tabRatio="872" firstSheet="28" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18770,7 +18770,7 @@
   <sheetPr/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -19181,11 +19181,16 @@
   <sheetPr/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="11" max="11" width="12.1730769230769" customWidth="1"/>
+    <col min="14" max="14" width="12.9230769230769"/>
+    <col min="17" max="17" width="12.1730769230769" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -19240,7 +19245,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
@@ -19281,14 +19286,22 @@
       <c r="M2">
         <v>28964</v>
       </c>
+      <c r="N2">
+        <f>L2/27420</f>
+        <v>1</v>
+      </c>
       <c r="O2">
         <v>0.5353</v>
       </c>
       <c r="P2">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="Q2">
+        <f>P2/1.87</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>3</v>
       </c>
@@ -19320,8 +19333,31 @@
         <f t="shared" si="0"/>
         <v>58.875</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>12604115520</v>
+      </c>
+      <c r="L3">
+        <v>24153</v>
+      </c>
+      <c r="M3">
+        <v>25650</v>
+      </c>
+      <c r="N3">
+        <f>L3/27420</f>
+        <v>0.880853391684902</v>
+      </c>
+      <c r="O3">
+        <v>0.46</v>
+      </c>
+      <c r="P3">
+        <v>2.17</v>
+      </c>
+      <c r="Q3">
+        <f>P3/1.87</f>
+        <v>1.16042780748663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>6</v>
       </c>
@@ -19353,8 +19389,31 @@
         <f t="shared" si="0"/>
         <v>50.3625</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>10892446848</v>
+      </c>
+      <c r="L4">
+        <v>20886</v>
+      </c>
+      <c r="M4">
+        <v>22336</v>
+      </c>
+      <c r="N4">
+        <f>L4/27420</f>
+        <v>0.761706783369803</v>
+      </c>
+      <c r="O4">
+        <v>0.3944</v>
+      </c>
+      <c r="P4">
+        <v>2.54</v>
+      </c>
+      <c r="Q4">
+        <f>P4/1.87</f>
+        <v>1.35828877005348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>9</v>
       </c>
@@ -19386,8 +19445,31 @@
         <f t="shared" si="0"/>
         <v>42.1375</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>9180778176</v>
+      </c>
+      <c r="L5">
+        <v>17619</v>
+      </c>
+      <c r="M5">
+        <v>19023</v>
+      </c>
+      <c r="N5">
+        <f>L5/27420</f>
+        <v>0.642560175054705</v>
+      </c>
+      <c r="O5">
+        <v>0.3269</v>
+      </c>
+      <c r="P5">
+        <v>3.06</v>
+      </c>
+      <c r="Q5">
+        <f>P5/1.87</f>
+        <v>1.63636363636364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>12</v>
       </c>
@@ -19419,8 +19501,31 @@
         <f t="shared" si="0"/>
         <v>38.2375</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>7469109504</v>
+      </c>
+      <c r="L6">
+        <v>14351</v>
+      </c>
+      <c r="M6">
+        <v>15707</v>
+      </c>
+      <c r="N6">
+        <f>L6/27420</f>
+        <v>0.523377097009482</v>
+      </c>
+      <c r="O6">
+        <v>0.2621</v>
+      </c>
+      <c r="P6">
+        <v>3.82</v>
+      </c>
+      <c r="Q6">
+        <f>P6/1.87</f>
+        <v>2.0427807486631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>15</v>
       </c>
@@ -19451,6 +19556,29 @@
       <c r="J7">
         <f t="shared" si="0"/>
         <v>38.5375</v>
+      </c>
+      <c r="K7">
+        <v>5757440832</v>
+      </c>
+      <c r="L7">
+        <v>11084</v>
+      </c>
+      <c r="M7">
+        <v>12394</v>
+      </c>
+      <c r="N7">
+        <f>L7/27420</f>
+        <v>0.404230488694384</v>
+      </c>
+      <c r="O7">
+        <v>0.1986</v>
+      </c>
+      <c r="P7">
+        <v>5.03</v>
+      </c>
+      <c r="Q7">
+        <f>P7/1.87</f>
+        <v>2.68983957219251</v>
       </c>
     </row>
   </sheetData>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9520" tabRatio="872" firstSheet="9" activeTab="10"/>
+    <workbookView windowWidth="25600" windowHeight="9500" tabRatio="872" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,9 @@
     <sheet name="shared_e1" sheetId="22" state="hidden" r:id="rId20"/>
     <sheet name="shared_e2" sheetId="23" state="hidden" r:id="rId21"/>
     <sheet name="shared_e6" sheetId="21" r:id="rId22"/>
-    <sheet name="shared_e6_v2" sheetId="30" r:id="rId23"/>
+    <sheet name="shared_e6_ft" sheetId="12" r:id="rId23"/>
     <sheet name="shared_e6_ft_sft" sheetId="33" r:id="rId24"/>
-    <sheet name="shared_e6_ft" sheetId="12" r:id="rId25"/>
+    <sheet name="shared_e6_v2" sheetId="30" r:id="rId25"/>
     <sheet name="shared_e6_sft" sheetId="32" r:id="rId26"/>
     <sheet name="greedy_greedy_old" sheetId="13" state="hidden" r:id="rId27"/>
     <sheet name="greedy_block" sheetId="16" r:id="rId28"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="191">
   <si>
     <t>origin PPL</t>
   </si>
@@ -4003,7 +4003,7 @@
   <sheetPr/>
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="O61" sqref="O61"/>
@@ -9462,7 +9462,7 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I6"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -10556,7 +10556,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="A1:P7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -10934,23 +10934,23 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T11" sqref="T11:T12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
     <col min="4" max="4" width="12.6538461538462" customWidth="1"/>
-    <col min="7" max="7" width="14.7307692307692" customWidth="1"/>
-    <col min="8" max="8" width="10.1538461538462"/>
-    <col min="9" max="9" width="12.9230769230769"/>
-    <col min="10" max="10" width="10"/>
-    <col min="15" max="15" width="12.9230769230769"/>
+    <col min="8" max="8" width="14.7307692307692" customWidth="1"/>
+    <col min="9" max="9" width="10.1538461538462"/>
+    <col min="10" max="10" width="12.9230769230769"/>
+    <col min="11" max="11" width="10"/>
+    <col min="16" max="16" width="12.9230769230769"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:16">
+    <row r="1" ht="17.6" spans="1:17">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -10964,43 +10964,46 @@
         <v>99</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" ht="17.6" spans="1:16">
+    <row r="2" ht="17.6" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11014,45 +11017,48 @@
         <v>77.4</v>
       </c>
       <c r="E2" s="6">
+        <v>38.3</v>
+      </c>
+      <c r="F2" s="6">
         <v>44.2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <v>78.7</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>70.1</v>
       </c>
-      <c r="H2" s="3">
-        <f t="shared" ref="H2:H7" si="0">AVERAGE(B2:G2)</f>
-        <v>65.2333333333333</v>
-      </c>
-      <c r="I2" s="24">
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I7" si="0">AVERAGE(B2:H2)</f>
+        <v>61.3857142857143</v>
+      </c>
+      <c r="J2" s="24">
         <v>16375728128</v>
       </c>
-      <c r="J2" s="25">
+      <c r="K2" s="25">
         <v>2828650496</v>
       </c>
-      <c r="K2" s="24">
+      <c r="L2" s="24">
         <v>31371</v>
       </c>
-      <c r="L2" s="24">
+      <c r="M2" s="24">
         <v>32571</v>
       </c>
-      <c r="M2" s="11">
+      <c r="N2" s="11">
         <v>0.4668</v>
       </c>
-      <c r="N2" s="11">
+      <c r="O2" s="11">
         <v>2.14</v>
       </c>
-      <c r="O2" s="28">
-        <f t="shared" ref="O2:O7" si="1">0.4668/M2</f>
+      <c r="P2" s="28">
+        <f t="shared" ref="P2:P7" si="1">0.4668/N2</f>
         <v>1</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>16.18</v>
       </c>
     </row>
-    <row r="3" ht="17.6" spans="1:16">
+    <row r="3" ht="17.6" spans="1:17">
       <c r="A3">
         <v>3</v>
       </c>
@@ -11066,45 +11072,48 @@
         <v>62.7</v>
       </c>
       <c r="E3" s="9">
+        <v>35.1</v>
+      </c>
+      <c r="F3" s="9">
         <v>39.8</v>
       </c>
-      <c r="F3" s="9">
+      <c r="G3" s="9">
         <v>77.7</v>
       </c>
-      <c r="G3" s="9">
+      <c r="H3" s="9">
         <v>73.6</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <f t="shared" si="0"/>
-        <v>57.05</v>
-      </c>
-      <c r="I3" s="14">
+        <v>53.9142857142857</v>
+      </c>
+      <c r="J3" s="14">
         <v>14714784320</v>
       </c>
-      <c r="J3" s="12">
+      <c r="K3" s="12">
         <v>2672936960</v>
       </c>
-      <c r="K3" s="14">
+      <c r="L3" s="14">
         <v>28203</v>
       </c>
-      <c r="L3" s="17">
+      <c r="M3" s="17">
         <v>29403</v>
       </c>
-      <c r="M3" s="17">
+      <c r="N3" s="17">
         <v>0.4094</v>
       </c>
-      <c r="N3" s="17">
+      <c r="O3" s="17">
         <v>2.44</v>
       </c>
-      <c r="O3" s="28">
+      <c r="P3" s="28">
         <f t="shared" si="1"/>
         <v>1.14020517830972</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>17.06</v>
       </c>
     </row>
-    <row r="4" ht="17.6" spans="1:16">
+    <row r="4" ht="17.6" spans="1:17">
       <c r="A4">
         <v>6</v>
       </c>
@@ -11118,45 +11127,48 @@
         <v>71.5</v>
       </c>
       <c r="E4" s="9">
+        <v>31.3</v>
+      </c>
+      <c r="F4" s="9">
         <v>42.6</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
         <v>78.1</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="9">
         <v>74</v>
       </c>
-      <c r="H4" s="15">
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
-        <v>59.3</v>
-      </c>
-      <c r="I4" s="16">
+        <v>55.3</v>
+      </c>
+      <c r="J4" s="16">
         <v>13053840512</v>
       </c>
-      <c r="J4" s="12">
+      <c r="K4" s="12">
         <v>2517223424</v>
       </c>
-      <c r="K4" s="16">
+      <c r="L4" s="16">
         <v>25035</v>
       </c>
-      <c r="L4" s="18">
+      <c r="M4" s="18">
         <v>26235</v>
       </c>
-      <c r="M4" s="18">
+      <c r="N4" s="18">
         <v>0.374</v>
       </c>
-      <c r="N4" s="18">
+      <c r="O4" s="18">
         <v>2.67</v>
       </c>
-      <c r="O4" s="28">
+      <c r="P4" s="28">
         <f t="shared" si="1"/>
         <v>1.24812834224599</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>18.48</v>
       </c>
     </row>
-    <row r="5" ht="17.6" spans="1:16">
+    <row r="5" ht="17.6" spans="1:17">
       <c r="A5">
         <v>9</v>
       </c>
@@ -11170,45 +11182,48 @@
         <v>57.8</v>
       </c>
       <c r="E5" s="7">
+        <v>30.1</v>
+      </c>
+      <c r="F5" s="7">
         <v>41.2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="7">
         <v>74.2</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>71.2</v>
       </c>
-      <c r="H5" s="13">
+      <c r="I5" s="13">
         <f t="shared" si="0"/>
-        <v>58.3166666666667</v>
-      </c>
-      <c r="I5" s="14">
+        <v>54.2857142857143</v>
+      </c>
+      <c r="J5" s="14">
         <v>11392896704</v>
       </c>
-      <c r="J5" s="12">
+      <c r="K5" s="12">
         <v>2361509888</v>
       </c>
-      <c r="K5" s="14">
+      <c r="L5" s="14">
         <v>21868</v>
       </c>
-      <c r="L5" s="17">
+      <c r="M5" s="17">
         <v>23068</v>
       </c>
-      <c r="M5" s="17">
+      <c r="N5" s="17">
         <v>0.3372</v>
       </c>
-      <c r="N5" s="17">
+      <c r="O5" s="17">
         <v>2.97</v>
       </c>
-      <c r="O5" s="28">
+      <c r="P5" s="28">
         <f t="shared" si="1"/>
         <v>1.38434163701068</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>20.37</v>
       </c>
     </row>
-    <row r="6" ht="17.6" spans="1:16">
+    <row r="6" ht="17.6" spans="1:17">
       <c r="A6">
         <v>12</v>
       </c>
@@ -11222,45 +11237,48 @@
         <v>57.9</v>
       </c>
       <c r="E6" s="9">
+        <v>28.5</v>
+      </c>
+      <c r="F6" s="9">
         <v>37.4</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G6" s="9">
         <v>72.5</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>70.3</v>
       </c>
-      <c r="H6" s="15">
+      <c r="I6" s="15">
         <f t="shared" si="0"/>
-        <v>56.3</v>
-      </c>
-      <c r="I6" s="16">
+        <v>52.3285714285714</v>
+      </c>
+      <c r="J6" s="16">
         <v>9731952896</v>
       </c>
-      <c r="J6" s="12">
+      <c r="K6" s="12">
         <v>2205796352</v>
       </c>
-      <c r="K6" s="16">
+      <c r="L6" s="16">
         <v>18700</v>
       </c>
-      <c r="L6" s="18">
+      <c r="M6" s="18">
         <v>19900</v>
       </c>
-      <c r="M6" s="18">
+      <c r="N6" s="18">
         <v>0.2955</v>
       </c>
-      <c r="N6" s="18">
+      <c r="O6" s="18">
         <v>3.38</v>
       </c>
-      <c r="O6" s="28">
+      <c r="P6" s="28">
         <f t="shared" si="1"/>
         <v>1.57969543147208</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>20.62</v>
       </c>
     </row>
-    <row r="7" ht="17.6" spans="1:16">
+    <row r="7" ht="17.6" spans="1:17">
       <c r="A7">
         <v>15</v>
       </c>
@@ -11274,41 +11292,44 @@
         <v>55.6</v>
       </c>
       <c r="E7" s="7">
+        <v>25.3</v>
+      </c>
+      <c r="F7" s="7">
         <v>31.8</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>70.4</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>69.1</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <f t="shared" si="0"/>
-        <v>53.5166666666667</v>
-      </c>
-      <c r="I7" s="17">
+        <v>49.4857142857143</v>
+      </c>
+      <c r="J7" s="17">
         <v>8071009088</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="12">
         <v>2050082816</v>
       </c>
-      <c r="K7" s="17">
+      <c r="L7" s="17">
         <v>15532</v>
       </c>
-      <c r="L7" s="17">
+      <c r="M7" s="17">
         <v>16732</v>
       </c>
-      <c r="M7" s="17">
+      <c r="N7" s="17">
         <v>0.2535</v>
       </c>
-      <c r="N7" s="17">
+      <c r="O7" s="17">
         <v>3.94</v>
       </c>
-      <c r="O7" s="28">
+      <c r="P7" s="28">
         <f t="shared" si="1"/>
         <v>1.8414201183432</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>22.77</v>
       </c>
     </row>
@@ -13176,811 +13197,6 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="B6:I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
-  <sheetData>
-    <row r="1" ht="17.6" spans="1:18">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" ht="17.6" spans="1:18">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>48.3</v>
-      </c>
-      <c r="C2" s="6">
-        <v>72.7</v>
-      </c>
-      <c r="D2" s="6">
-        <v>77.4</v>
-      </c>
-      <c r="E2" s="6">
-        <v>38.3</v>
-      </c>
-      <c r="F2" s="6">
-        <v>44.2</v>
-      </c>
-      <c r="G2" s="6">
-        <v>78.7</v>
-      </c>
-      <c r="H2" s="6">
-        <v>63.2</v>
-      </c>
-      <c r="I2" s="6">
-        <v>70.1</v>
-      </c>
-      <c r="J2" s="3">
-        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
-        <v>61.6125</v>
-      </c>
-      <c r="K2" s="24">
-        <v>16375728128</v>
-      </c>
-      <c r="L2" s="25">
-        <v>2828650496</v>
-      </c>
-      <c r="M2" s="24">
-        <v>31371</v>
-      </c>
-      <c r="N2" s="24">
-        <v>32571</v>
-      </c>
-      <c r="O2" s="11">
-        <v>0.4668</v>
-      </c>
-      <c r="P2" s="11">
-        <v>2.14</v>
-      </c>
-      <c r="Q2" s="28">
-        <f t="shared" ref="Q2:Q7" si="1">0.4884/O2</f>
-        <v>1.04627249357326</v>
-      </c>
-      <c r="R2">
-        <v>16.18</v>
-      </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:18">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7">
-        <v>43.2</v>
-      </c>
-      <c r="C3" s="7">
-        <v>73.9</v>
-      </c>
-      <c r="D3" s="7">
-        <v>73</v>
-      </c>
-      <c r="E3" s="7">
-        <v>35.4</v>
-      </c>
-      <c r="F3" s="7">
-        <v>41.2</v>
-      </c>
-      <c r="G3" s="7">
-        <v>78.2</v>
-      </c>
-      <c r="H3" s="7">
-        <v>61.7</v>
-      </c>
-      <c r="I3" s="7">
-        <v>69.5</v>
-      </c>
-      <c r="J3" s="13">
-        <f t="shared" si="0"/>
-        <v>59.5125</v>
-      </c>
-      <c r="K3" s="26">
-        <v>14870497802</v>
-      </c>
-      <c r="L3" s="25">
-        <v>2828650496</v>
-      </c>
-      <c r="M3" s="26">
-        <v>28500</v>
-      </c>
-      <c r="N3" s="26">
-        <v>29700</v>
-      </c>
-      <c r="O3" s="26">
-        <v>0.4208</v>
-      </c>
-      <c r="P3" s="26">
-        <v>2.38</v>
-      </c>
-      <c r="Q3" s="28">
-        <f t="shared" si="1"/>
-        <v>1.1606463878327</v>
-      </c>
-      <c r="R3">
-        <v>16.56</v>
-      </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:18">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9">
-        <v>38.7</v>
-      </c>
-      <c r="C4" s="9">
-        <v>71.8</v>
-      </c>
-      <c r="D4" s="9">
-        <v>67.2</v>
-      </c>
-      <c r="E4" s="9">
-        <v>31.6</v>
-      </c>
-      <c r="F4" s="9">
-        <v>37.4</v>
-      </c>
-      <c r="G4" s="9">
-        <v>77</v>
-      </c>
-      <c r="H4" s="9">
-        <v>61.4</v>
-      </c>
-      <c r="I4" s="9">
-        <v>66.5</v>
-      </c>
-      <c r="J4" s="15">
-        <f t="shared" si="0"/>
-        <v>56.45</v>
-      </c>
-      <c r="K4" s="27">
-        <v>13365267476</v>
-      </c>
-      <c r="L4" s="25">
-        <v>2828650496</v>
-      </c>
-      <c r="M4" s="27">
-        <v>25629</v>
-      </c>
-      <c r="N4" s="27">
-        <v>26289</v>
-      </c>
-      <c r="O4" s="27">
-        <v>0.4043</v>
-      </c>
-      <c r="P4" s="27">
-        <v>2.47</v>
-      </c>
-      <c r="Q4" s="28">
-        <f t="shared" si="1"/>
-        <v>1.20801385110067</v>
-      </c>
-      <c r="R4">
-        <v>16.79</v>
-      </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:18">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7">
-        <v>37.9</v>
-      </c>
-      <c r="C5" s="7">
-        <v>72.3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>64.4</v>
-      </c>
-      <c r="E5" s="7">
-        <v>27.1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>37.6</v>
-      </c>
-      <c r="G5" s="7">
-        <v>75.9</v>
-      </c>
-      <c r="H5" s="7">
-        <v>61.7</v>
-      </c>
-      <c r="I5" s="7">
-        <v>67</v>
-      </c>
-      <c r="J5" s="13">
-        <f t="shared" si="0"/>
-        <v>55.4875</v>
-      </c>
-      <c r="K5" s="26">
-        <v>11860037150</v>
-      </c>
-      <c r="L5" s="25">
-        <v>2828650496</v>
-      </c>
-      <c r="M5" s="26">
-        <v>22759</v>
-      </c>
-      <c r="N5" s="26">
-        <v>23958</v>
-      </c>
-      <c r="O5" s="26">
-        <v>0.3755</v>
-      </c>
-      <c r="P5" s="26">
-        <v>2.66</v>
-      </c>
-      <c r="Q5" s="28">
-        <f t="shared" si="1"/>
-        <v>1.30066577896138</v>
-      </c>
-      <c r="R5">
-        <v>17.11</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:18">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6" s="9">
-        <v>34.5</v>
-      </c>
-      <c r="C6" s="9">
-        <v>69.8</v>
-      </c>
-      <c r="D6" s="9">
-        <v>59.4</v>
-      </c>
-      <c r="E6" s="9">
-        <v>24.1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>33.8</v>
-      </c>
-      <c r="G6" s="9">
-        <v>73.4</v>
-      </c>
-      <c r="H6" s="9">
-        <v>61.5</v>
-      </c>
-      <c r="I6" s="9">
-        <v>65.5</v>
-      </c>
-      <c r="J6" s="15">
-        <f t="shared" si="0"/>
-        <v>52.75</v>
-      </c>
-      <c r="K6" s="27">
-        <v>10354806824</v>
-      </c>
-      <c r="L6" s="25">
-        <v>2828650496</v>
-      </c>
-      <c r="M6" s="27">
-        <v>19888</v>
-      </c>
-      <c r="N6" s="27">
-        <v>21088</v>
-      </c>
-      <c r="O6" s="27">
-        <v>0.3246</v>
-      </c>
-      <c r="P6" s="27">
-        <v>3.08</v>
-      </c>
-      <c r="Q6" s="28">
-        <f t="shared" si="1"/>
-        <v>1.50462107208872</v>
-      </c>
-      <c r="R6">
-        <v>17.76</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:18">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7">
-        <v>30.4</v>
-      </c>
-      <c r="C7" s="7">
-        <v>65.5</v>
-      </c>
-      <c r="D7" s="7">
-        <v>52</v>
-      </c>
-      <c r="E7" s="7">
-        <v>24</v>
-      </c>
-      <c r="F7" s="7">
-        <v>31.4</v>
-      </c>
-      <c r="G7" s="7">
-        <v>68.7</v>
-      </c>
-      <c r="H7" s="7">
-        <v>56</v>
-      </c>
-      <c r="I7" s="7">
-        <v>63.8</v>
-      </c>
-      <c r="J7" s="13">
-        <f t="shared" si="0"/>
-        <v>48.975</v>
-      </c>
-      <c r="K7" s="26">
-        <v>8849576498</v>
-      </c>
-      <c r="L7" s="25">
-        <v>2828650496</v>
-      </c>
-      <c r="M7" s="26">
-        <v>17017</v>
-      </c>
-      <c r="N7" s="26">
-        <v>18217</v>
-      </c>
-      <c r="O7" s="26">
-        <v>0.295</v>
-      </c>
-      <c r="P7" s="26">
-        <v>3.39</v>
-      </c>
-      <c r="Q7" s="28">
-        <f t="shared" si="1"/>
-        <v>1.65559322033898</v>
-      </c>
-      <c r="R7">
-        <v>18.68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P7"/>
-  <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
-  <cols>
-    <col min="9" max="9" width="12.9230769230769"/>
-    <col min="10" max="10" width="10"/>
-    <col min="15" max="15" width="12.9230769230769"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.6" spans="1:16">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="P1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" ht="17.6" spans="1:16">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>48.3</v>
-      </c>
-      <c r="C2" s="6">
-        <v>72.7</v>
-      </c>
-      <c r="D2" s="6">
-        <v>77.4</v>
-      </c>
-      <c r="E2" s="6">
-        <v>44.2</v>
-      </c>
-      <c r="F2" s="6">
-        <v>78.7</v>
-      </c>
-      <c r="G2" s="6">
-        <v>70.1</v>
-      </c>
-      <c r="H2" s="3">
-        <f t="shared" ref="H2:H7" si="0">AVERAGE(B2:G2)</f>
-        <v>65.2333333333333</v>
-      </c>
-      <c r="I2" s="24">
-        <v>16375728128</v>
-      </c>
-      <c r="J2" s="25">
-        <v>2828650496</v>
-      </c>
-      <c r="K2" s="24">
-        <v>31371</v>
-      </c>
-      <c r="L2" s="24">
-        <v>32571</v>
-      </c>
-      <c r="M2" s="11">
-        <v>0.4668</v>
-      </c>
-      <c r="N2" s="11">
-        <v>2.14</v>
-      </c>
-      <c r="O2" s="28">
-        <f t="shared" ref="O2:O7" si="1">0.4668/M2</f>
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>16.18</v>
-      </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:16">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7">
-        <v>45.4</v>
-      </c>
-      <c r="C3" s="7">
-        <v>74.1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>75.8</v>
-      </c>
-      <c r="E3" s="7">
-        <v>41.8</v>
-      </c>
-      <c r="F3" s="7">
-        <v>79.7</v>
-      </c>
-      <c r="G3" s="7">
-        <v>71.5</v>
-      </c>
-      <c r="H3" s="15">
-        <f t="shared" si="0"/>
-        <v>64.7166666666667</v>
-      </c>
-      <c r="I3" s="26">
-        <v>14870497802</v>
-      </c>
-      <c r="J3" s="25">
-        <v>2828650496</v>
-      </c>
-      <c r="K3" s="26">
-        <v>28500</v>
-      </c>
-      <c r="L3" s="26">
-        <v>29700</v>
-      </c>
-      <c r="M3" s="26">
-        <v>0.4208</v>
-      </c>
-      <c r="N3" s="26">
-        <v>2.38</v>
-      </c>
-      <c r="O3" s="28">
-        <f t="shared" si="1"/>
-        <v>1.10931558935361</v>
-      </c>
-      <c r="P3">
-        <v>16.56</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:16">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>45.9</v>
-      </c>
-      <c r="C4" s="7">
-        <v>75.1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>75</v>
-      </c>
-      <c r="E4" s="7">
-        <v>42.4</v>
-      </c>
-      <c r="F4" s="7">
-        <v>79.4</v>
-      </c>
-      <c r="G4" s="7">
-        <v>74.7</v>
-      </c>
-      <c r="H4" s="15">
-        <f t="shared" si="0"/>
-        <v>65.4166666666667</v>
-      </c>
-      <c r="I4" s="27">
-        <v>13365267476</v>
-      </c>
-      <c r="J4" s="25">
-        <v>2828650496</v>
-      </c>
-      <c r="K4" s="27">
-        <v>25629</v>
-      </c>
-      <c r="L4" s="27">
-        <v>26289</v>
-      </c>
-      <c r="M4" s="27">
-        <v>0.4043</v>
-      </c>
-      <c r="N4" s="27">
-        <v>2.47</v>
-      </c>
-      <c r="O4" s="28">
-        <f t="shared" si="1"/>
-        <v>1.15458817709622</v>
-      </c>
-      <c r="P4">
-        <v>16.79</v>
-      </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:16">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7">
-        <v>43.5</v>
-      </c>
-      <c r="C5" s="7">
-        <v>76.7</v>
-      </c>
-      <c r="D5" s="7">
-        <v>69</v>
-      </c>
-      <c r="E5" s="7">
-        <v>38.6</v>
-      </c>
-      <c r="F5" s="7">
-        <v>77.4</v>
-      </c>
-      <c r="G5" s="7">
-        <v>73.6</v>
-      </c>
-      <c r="H5" s="13">
-        <f t="shared" si="0"/>
-        <v>63.1333333333333</v>
-      </c>
-      <c r="I5" s="26">
-        <v>11860037150</v>
-      </c>
-      <c r="J5" s="25">
-        <v>2828650496</v>
-      </c>
-      <c r="K5" s="26">
-        <v>22759</v>
-      </c>
-      <c r="L5" s="26">
-        <v>23958</v>
-      </c>
-      <c r="M5" s="26">
-        <v>0.3755</v>
-      </c>
-      <c r="N5" s="26">
-        <v>2.66</v>
-      </c>
-      <c r="O5" s="28">
-        <f t="shared" si="1"/>
-        <v>1.24314247669774</v>
-      </c>
-      <c r="P5">
-        <v>17.11</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:16">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6" s="9">
-        <v>36.1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>77.5</v>
-      </c>
-      <c r="D6" s="9">
-        <v>63</v>
-      </c>
-      <c r="E6" s="9">
-        <v>35.4</v>
-      </c>
-      <c r="F6" s="9">
-        <v>73.7</v>
-      </c>
-      <c r="G6" s="9">
-        <v>69.7</v>
-      </c>
-      <c r="H6" s="15">
-        <f t="shared" si="0"/>
-        <v>59.2333333333333</v>
-      </c>
-      <c r="I6" s="27">
-        <v>10354806824</v>
-      </c>
-      <c r="J6" s="25">
-        <v>2828650496</v>
-      </c>
-      <c r="K6" s="27">
-        <v>19888</v>
-      </c>
-      <c r="L6" s="27">
-        <v>21088</v>
-      </c>
-      <c r="M6" s="27">
-        <v>0.3246</v>
-      </c>
-      <c r="N6" s="27">
-        <v>3.08</v>
-      </c>
-      <c r="O6" s="28">
-        <f t="shared" si="1"/>
-        <v>1.43807763401109</v>
-      </c>
-      <c r="P6">
-        <v>17.76</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:16">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7">
-        <v>35.5</v>
-      </c>
-      <c r="C7" s="7">
-        <v>72.3</v>
-      </c>
-      <c r="D7" s="7">
-        <v>58.9</v>
-      </c>
-      <c r="E7" s="7">
-        <v>35.2</v>
-      </c>
-      <c r="F7" s="7">
-        <v>73.3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>71</v>
-      </c>
-      <c r="H7" s="13">
-        <f t="shared" si="0"/>
-        <v>57.7</v>
-      </c>
-      <c r="I7" s="26">
-        <v>8849576498</v>
-      </c>
-      <c r="J7" s="25">
-        <v>2828650496</v>
-      </c>
-      <c r="K7" s="26">
-        <v>17017</v>
-      </c>
-      <c r="L7" s="26">
-        <v>18217</v>
-      </c>
-      <c r="M7" s="26">
-        <v>0.295</v>
-      </c>
-      <c r="N7" s="26">
-        <v>3.39</v>
-      </c>
-      <c r="O7" s="28">
-        <f t="shared" si="1"/>
-        <v>1.58237288135593</v>
-      </c>
-      <c r="P7">
-        <v>18.68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -14391,6 +13607,832 @@
       <c r="Q7" s="28">
         <f t="shared" si="0"/>
         <v>1.58237288135593</v>
+      </c>
+      <c r="R7">
+        <v>18.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="10" max="10" width="12.9230769230769"/>
+    <col min="11" max="11" width="10"/>
+    <col min="16" max="16" width="12.9230769230769"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:17">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:17">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>48.3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>72.7</v>
+      </c>
+      <c r="D2" s="6">
+        <v>77.4</v>
+      </c>
+      <c r="E2" s="6">
+        <v>38.3</v>
+      </c>
+      <c r="F2" s="6">
+        <v>44.2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>78.7</v>
+      </c>
+      <c r="H2" s="6">
+        <v>70.1</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I7" si="0">AVERAGE(B2:H2)</f>
+        <v>61.3857142857143</v>
+      </c>
+      <c r="J2" s="24">
+        <v>16375728128</v>
+      </c>
+      <c r="K2" s="25">
+        <v>2828650496</v>
+      </c>
+      <c r="L2" s="24">
+        <v>31371</v>
+      </c>
+      <c r="M2" s="24">
+        <v>32571</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0.4668</v>
+      </c>
+      <c r="O2" s="11">
+        <v>2.14</v>
+      </c>
+      <c r="P2" s="28">
+        <f t="shared" ref="P2:P7" si="1">0.4668/N2</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:17">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7">
+        <v>45.4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>74.1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>75.8</v>
+      </c>
+      <c r="E3" s="7">
+        <v>40.4</v>
+      </c>
+      <c r="F3" s="7">
+        <v>41.8</v>
+      </c>
+      <c r="G3" s="7">
+        <v>79.7</v>
+      </c>
+      <c r="H3" s="7">
+        <v>71.5</v>
+      </c>
+      <c r="I3" s="15">
+        <f t="shared" si="0"/>
+        <v>61.2428571428571</v>
+      </c>
+      <c r="J3" s="26">
+        <v>14870497802</v>
+      </c>
+      <c r="K3" s="25">
+        <v>2828650496</v>
+      </c>
+      <c r="L3" s="26">
+        <v>28500</v>
+      </c>
+      <c r="M3" s="26">
+        <v>29700</v>
+      </c>
+      <c r="N3" s="26">
+        <v>0.4208</v>
+      </c>
+      <c r="O3" s="26">
+        <v>2.38</v>
+      </c>
+      <c r="P3" s="28">
+        <f t="shared" si="1"/>
+        <v>1.10931558935361</v>
+      </c>
+      <c r="Q3">
+        <v>16.56</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:17">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>45.9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>75.1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>75</v>
+      </c>
+      <c r="E4" s="7">
+        <v>31.4</v>
+      </c>
+      <c r="F4" s="7">
+        <v>42.4</v>
+      </c>
+      <c r="G4" s="7">
+        <v>79.4</v>
+      </c>
+      <c r="H4" s="7">
+        <v>74.7</v>
+      </c>
+      <c r="I4" s="15">
+        <f t="shared" si="0"/>
+        <v>60.5571428571429</v>
+      </c>
+      <c r="J4" s="27">
+        <v>13365267476</v>
+      </c>
+      <c r="K4" s="25">
+        <v>2828650496</v>
+      </c>
+      <c r="L4" s="27">
+        <v>25629</v>
+      </c>
+      <c r="M4" s="27">
+        <v>26289</v>
+      </c>
+      <c r="N4" s="27">
+        <v>0.4043</v>
+      </c>
+      <c r="O4" s="27">
+        <v>2.47</v>
+      </c>
+      <c r="P4" s="28">
+        <f t="shared" si="1"/>
+        <v>1.15458817709622</v>
+      </c>
+      <c r="Q4">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:17">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7">
+        <v>43.5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>76.7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>69</v>
+      </c>
+      <c r="E5" s="7">
+        <v>29.1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>38.6</v>
+      </c>
+      <c r="G5" s="7">
+        <v>77.4</v>
+      </c>
+      <c r="H5" s="7">
+        <v>73.6</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" si="0"/>
+        <v>58.2714285714286</v>
+      </c>
+      <c r="J5" s="26">
+        <v>11860037150</v>
+      </c>
+      <c r="K5" s="25">
+        <v>2828650496</v>
+      </c>
+      <c r="L5" s="26">
+        <v>22759</v>
+      </c>
+      <c r="M5" s="26">
+        <v>23958</v>
+      </c>
+      <c r="N5" s="26">
+        <v>0.3755</v>
+      </c>
+      <c r="O5" s="26">
+        <v>2.66</v>
+      </c>
+      <c r="P5" s="28">
+        <f t="shared" si="1"/>
+        <v>1.24314247669774</v>
+      </c>
+      <c r="Q5">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:17">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9">
+        <v>36.1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>77.5</v>
+      </c>
+      <c r="D6" s="9">
+        <v>63</v>
+      </c>
+      <c r="E6" s="9">
+        <v>25.4</v>
+      </c>
+      <c r="F6" s="9">
+        <v>35.4</v>
+      </c>
+      <c r="G6" s="9">
+        <v>73.7</v>
+      </c>
+      <c r="H6" s="9">
+        <v>69.7</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="0"/>
+        <v>54.4</v>
+      </c>
+      <c r="J6" s="27">
+        <v>10354806824</v>
+      </c>
+      <c r="K6" s="25">
+        <v>2828650496</v>
+      </c>
+      <c r="L6" s="27">
+        <v>19888</v>
+      </c>
+      <c r="M6" s="27">
+        <v>21088</v>
+      </c>
+      <c r="N6" s="27">
+        <v>0.3246</v>
+      </c>
+      <c r="O6" s="27">
+        <v>3.08</v>
+      </c>
+      <c r="P6" s="28">
+        <f t="shared" si="1"/>
+        <v>1.43807763401109</v>
+      </c>
+      <c r="Q6">
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:17">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>72.3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>58.9</v>
+      </c>
+      <c r="E7" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>35.2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>73.3</v>
+      </c>
+      <c r="H7" s="7">
+        <v>71</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="0"/>
+        <v>52.9571428571429</v>
+      </c>
+      <c r="J7" s="26">
+        <v>8849576498</v>
+      </c>
+      <c r="K7" s="25">
+        <v>2828650496</v>
+      </c>
+      <c r="L7" s="26">
+        <v>17017</v>
+      </c>
+      <c r="M7" s="26">
+        <v>18217</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0.295</v>
+      </c>
+      <c r="O7" s="26">
+        <v>3.39</v>
+      </c>
+      <c r="P7" s="28">
+        <f t="shared" si="1"/>
+        <v>1.58237288135593</v>
+      </c>
+      <c r="Q7">
+        <v>18.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="B6:I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:18">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:18">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>48.3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>72.7</v>
+      </c>
+      <c r="D2" s="6">
+        <v>77.4</v>
+      </c>
+      <c r="E2" s="6">
+        <v>38.3</v>
+      </c>
+      <c r="F2" s="6">
+        <v>44.2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>78.7</v>
+      </c>
+      <c r="H2" s="6">
+        <v>63.2</v>
+      </c>
+      <c r="I2" s="6">
+        <v>70.1</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
+        <v>61.6125</v>
+      </c>
+      <c r="K2" s="24">
+        <v>16375728128</v>
+      </c>
+      <c r="L2" s="25">
+        <v>2828650496</v>
+      </c>
+      <c r="M2" s="24">
+        <v>31371</v>
+      </c>
+      <c r="N2" s="24">
+        <v>32571</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0.4668</v>
+      </c>
+      <c r="P2" s="11">
+        <v>2.14</v>
+      </c>
+      <c r="Q2" s="28">
+        <f t="shared" ref="Q2:Q7" si="1">0.4884/O2</f>
+        <v>1.04627249357326</v>
+      </c>
+      <c r="R2">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:18">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7">
+        <v>43.2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>73.9</v>
+      </c>
+      <c r="D3" s="7">
+        <v>73</v>
+      </c>
+      <c r="E3" s="7">
+        <v>35.4</v>
+      </c>
+      <c r="F3" s="7">
+        <v>41.2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>78.2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>61.7</v>
+      </c>
+      <c r="I3" s="7">
+        <v>69.5</v>
+      </c>
+      <c r="J3" s="13">
+        <f t="shared" si="0"/>
+        <v>59.5125</v>
+      </c>
+      <c r="K3" s="26">
+        <v>14870497802</v>
+      </c>
+      <c r="L3" s="25">
+        <v>2828650496</v>
+      </c>
+      <c r="M3" s="26">
+        <v>28500</v>
+      </c>
+      <c r="N3" s="26">
+        <v>29700</v>
+      </c>
+      <c r="O3" s="26">
+        <v>0.4208</v>
+      </c>
+      <c r="P3" s="26">
+        <v>2.38</v>
+      </c>
+      <c r="Q3" s="28">
+        <f t="shared" si="1"/>
+        <v>1.1606463878327</v>
+      </c>
+      <c r="R3">
+        <v>16.56</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:18">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9">
+        <v>38.7</v>
+      </c>
+      <c r="C4" s="9">
+        <v>71.8</v>
+      </c>
+      <c r="D4" s="9">
+        <v>67.2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>31.6</v>
+      </c>
+      <c r="F4" s="9">
+        <v>37.4</v>
+      </c>
+      <c r="G4" s="9">
+        <v>77</v>
+      </c>
+      <c r="H4" s="9">
+        <v>61.4</v>
+      </c>
+      <c r="I4" s="9">
+        <v>66.5</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="0"/>
+        <v>56.45</v>
+      </c>
+      <c r="K4" s="27">
+        <v>13365267476</v>
+      </c>
+      <c r="L4" s="25">
+        <v>2828650496</v>
+      </c>
+      <c r="M4" s="27">
+        <v>25629</v>
+      </c>
+      <c r="N4" s="27">
+        <v>26289</v>
+      </c>
+      <c r="O4" s="27">
+        <v>0.4043</v>
+      </c>
+      <c r="P4" s="27">
+        <v>2.47</v>
+      </c>
+      <c r="Q4" s="28">
+        <f t="shared" si="1"/>
+        <v>1.20801385110067</v>
+      </c>
+      <c r="R4">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:18">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7">
+        <v>37.9</v>
+      </c>
+      <c r="C5" s="7">
+        <v>72.3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>64.4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>27.1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>37.6</v>
+      </c>
+      <c r="G5" s="7">
+        <v>75.9</v>
+      </c>
+      <c r="H5" s="7">
+        <v>61.7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>67</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" si="0"/>
+        <v>55.4875</v>
+      </c>
+      <c r="K5" s="26">
+        <v>11860037150</v>
+      </c>
+      <c r="L5" s="25">
+        <v>2828650496</v>
+      </c>
+      <c r="M5" s="26">
+        <v>22759</v>
+      </c>
+      <c r="N5" s="26">
+        <v>23958</v>
+      </c>
+      <c r="O5" s="26">
+        <v>0.3755</v>
+      </c>
+      <c r="P5" s="26">
+        <v>2.66</v>
+      </c>
+      <c r="Q5" s="28">
+        <f t="shared" si="1"/>
+        <v>1.30066577896138</v>
+      </c>
+      <c r="R5">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:18">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9">
+        <v>34.5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>69.8</v>
+      </c>
+      <c r="D6" s="9">
+        <v>59.4</v>
+      </c>
+      <c r="E6" s="9">
+        <v>24.1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>33.8</v>
+      </c>
+      <c r="G6" s="9">
+        <v>73.4</v>
+      </c>
+      <c r="H6" s="9">
+        <v>61.5</v>
+      </c>
+      <c r="I6" s="9">
+        <v>65.5</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="0"/>
+        <v>52.75</v>
+      </c>
+      <c r="K6" s="27">
+        <v>10354806824</v>
+      </c>
+      <c r="L6" s="25">
+        <v>2828650496</v>
+      </c>
+      <c r="M6" s="27">
+        <v>19888</v>
+      </c>
+      <c r="N6" s="27">
+        <v>21088</v>
+      </c>
+      <c r="O6" s="27">
+        <v>0.3246</v>
+      </c>
+      <c r="P6" s="27">
+        <v>3.08</v>
+      </c>
+      <c r="Q6" s="28">
+        <f t="shared" si="1"/>
+        <v>1.50462107208872</v>
+      </c>
+      <c r="R6">
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:18">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7">
+        <v>30.4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>65.5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>52</v>
+      </c>
+      <c r="E7" s="7">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7">
+        <v>31.4</v>
+      </c>
+      <c r="G7" s="7">
+        <v>68.7</v>
+      </c>
+      <c r="H7" s="7">
+        <v>56</v>
+      </c>
+      <c r="I7" s="7">
+        <v>63.8</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>48.975</v>
+      </c>
+      <c r="K7" s="26">
+        <v>8849576498</v>
+      </c>
+      <c r="L7" s="25">
+        <v>2828650496</v>
+      </c>
+      <c r="M7" s="26">
+        <v>17017</v>
+      </c>
+      <c r="N7" s="26">
+        <v>18217</v>
+      </c>
+      <c r="O7" s="26">
+        <v>0.295</v>
+      </c>
+      <c r="P7" s="26">
+        <v>3.39</v>
+      </c>
+      <c r="Q7" s="28">
+        <f t="shared" si="1"/>
+        <v>1.65559322033898</v>
       </c>
       <c r="R7">
         <v>18.68</v>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9500" tabRatio="872" firstSheet="31" activeTab="39"/>
+    <workbookView windowWidth="25600" windowHeight="9500" tabRatio="872" firstSheet="15" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="193">
   <si>
     <t>origin PPL</t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>ppl</t>
+  </si>
+  <si>
+    <t>js</t>
   </si>
 </sst>
 </file>
@@ -13144,8 +13147,8 @@
   <sheetPr/>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7"/>
@@ -20942,15 +20945,15 @@
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -20978,8 +20981,11 @@
       <c r="I1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -21008,8 +21014,11 @@
       <c r="I2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>0.165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -21027,8 +21036,11 @@
       <c r="I3">
         <v>12.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -21046,8 +21058,11 @@
       <c r="I4">
         <v>12.07</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -21065,8 +21080,11 @@
       <c r="I5">
         <v>12.07</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0.0194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -21084,8 +21102,11 @@
       <c r="I6">
         <v>12.03</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -21103,8 +21124,11 @@
       <c r="I7">
         <v>11.94</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -21122,8 +21146,11 @@
       <c r="I8">
         <v>11.89</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>0.0137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -21152,8 +21179,11 @@
       <c r="I9">
         <v>11.89</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>0.0141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -21171,8 +21201,11 @@
       <c r="I10">
         <v>12.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>0.0184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -21190,8 +21223,11 @@
       <c r="I11">
         <v>11.88</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>0.0144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -21209,8 +21245,11 @@
       <c r="I12">
         <v>11.87</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>0.0137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -21228,8 +21267,11 @@
       <c r="I13">
         <v>12.46</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>0.0188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -21258,8 +21300,11 @@
       <c r="I14">
         <v>11.91</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>0.0141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -21277,8 +21322,11 @@
       <c r="I15">
         <v>12.57</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>0.0197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -21296,8 +21344,11 @@
       <c r="I16">
         <v>11.96</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>0.0143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -21315,8 +21366,11 @@
       <c r="I17">
         <v>11.97</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0.0129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -21334,8 +21388,11 @@
       <c r="I18">
         <v>12.43</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0.0197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -21353,8 +21410,11 @@
       <c r="I19">
         <v>12.02</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0.0161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -21372,8 +21432,11 @@
       <c r="I20">
         <v>12.02</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>0.0139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -21402,8 +21465,11 @@
       <c r="I21">
         <v>11.94</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>0.0131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -21432,8 +21498,11 @@
       <c r="I22">
         <v>12.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>0.0194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -21451,8 +21520,11 @@
       <c r="I23">
         <v>12.09</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>0.0168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -21481,8 +21553,11 @@
       <c r="I24">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>0.0141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -21511,8 +21586,11 @@
       <c r="I25">
         <v>11.98</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>0.0196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -21530,8 +21608,11 @@
       <c r="I26">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>0.0404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -21549,8 +21630,11 @@
       <c r="I27">
         <v>12.73</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0.0665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -21578,6 +21662,9 @@
       </c>
       <c r="I28">
         <v>12.85</v>
+      </c>
+      <c r="J28">
+        <v>0.0253</v>
       </c>
     </row>
   </sheetData>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9440" tabRatio="872" firstSheet="38" activeTab="43"/>
+    <workbookView windowWidth="25600" windowHeight="9440" tabRatio="872" firstSheet="14" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,7 @@
     <sheet name="shared_e6_kl" sheetId="44" r:id="rId43"/>
     <sheet name="shared_e6_js_global" sheetId="45" r:id="rId44"/>
     <sheet name="shared_e6_js_local" sheetId="46" r:id="rId45"/>
+    <sheet name="shared_e6_random" sheetId="47" r:id="rId46"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="193">
   <si>
     <t>origin PPL</t>
   </si>
@@ -3110,7 +3111,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -4031,10 +4032,10 @@
   <sheetPr/>
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <selection pane="bottomLeft" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -12744,13 +12745,13 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
     <col min="11" max="11" width="13.9326923076923" customWidth="1"/>
     <col min="12" max="12" width="10"/>
@@ -12842,7 +12843,7 @@
         <v>70.1</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
+        <f>AVERAGE(B2:I2)</f>
         <v>61.6125</v>
       </c>
       <c r="K2" s="7">
@@ -12864,7 +12865,7 @@
         <v>2.14</v>
       </c>
       <c r="Q2" s="15">
-        <f t="shared" ref="Q2:Q7" si="1">0.4668/O2</f>
+        <f>0.4668/O2</f>
         <v>1</v>
       </c>
       <c r="R2">
@@ -12900,7 +12901,7 @@
         <v>69.5</v>
       </c>
       <c r="J3" s="10">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B3:I3)</f>
         <v>59.5125</v>
       </c>
       <c r="K3" s="11">
@@ -12922,7 +12923,7 @@
         <v>2.38</v>
       </c>
       <c r="Q3" s="15">
-        <f t="shared" si="1"/>
+        <f>0.4668/O3</f>
         <v>1.10931558935361</v>
       </c>
       <c r="R3">
@@ -12958,7 +12959,7 @@
         <v>66.5</v>
       </c>
       <c r="J4" s="12">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B4:I4)</f>
         <v>56.45</v>
       </c>
       <c r="K4" s="13">
@@ -12980,7 +12981,7 @@
         <v>2.47</v>
       </c>
       <c r="Q4" s="15">
-        <f t="shared" si="1"/>
+        <f>0.4668/O4</f>
         <v>1.15458817709622</v>
       </c>
       <c r="R4">
@@ -13016,7 +13017,7 @@
         <v>67</v>
       </c>
       <c r="J5" s="10">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B5:I5)</f>
         <v>55.4875</v>
       </c>
       <c r="K5" s="11">
@@ -13038,126 +13039,162 @@
         <v>2.66</v>
       </c>
       <c r="Q5" s="15">
-        <f t="shared" si="1"/>
+        <f>0.4668/O5</f>
         <v>1.24314247669774</v>
       </c>
       <c r="R5">
         <v>17.11</v>
       </c>
     </row>
-    <row r="6" ht="17.6" spans="1:18">
+    <row r="6" ht="17.6" spans="1:17">
       <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6">
-        <v>34.5</v>
-      </c>
-      <c r="C6" s="6">
-        <v>69.8</v>
-      </c>
-      <c r="D6" s="6">
-        <v>59.4</v>
-      </c>
-      <c r="E6" s="6">
-        <v>24.1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>33.8</v>
-      </c>
-      <c r="G6" s="6">
-        <v>73.4</v>
-      </c>
-      <c r="H6" s="6">
-        <v>61.5</v>
-      </c>
-      <c r="I6" s="6">
-        <v>65.5</v>
-      </c>
-      <c r="J6" s="12">
-        <f t="shared" si="0"/>
-        <v>52.75</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="13">
-        <v>10354806824</v>
+        <v>11358293708</v>
       </c>
       <c r="L6" s="9">
         <v>2828650496</v>
       </c>
       <c r="M6" s="13">
-        <v>19888</v>
+        <v>21802</v>
       </c>
       <c r="N6" s="13">
-        <v>21088</v>
+        <v>22468</v>
       </c>
       <c r="O6" s="13">
-        <v>0.3246</v>
+        <v>0.3596</v>
       </c>
       <c r="P6" s="13">
-        <v>3.08</v>
+        <v>2.8</v>
       </c>
       <c r="Q6" s="15">
-        <f t="shared" si="1"/>
-        <v>1.43807763401109</v>
-      </c>
-      <c r="R6">
-        <v>17.76</v>
+        <f>0.4668/O6</f>
+        <v>1.29810901001112</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:18">
       <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
-        <v>30.4</v>
-      </c>
-      <c r="C7" s="5">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6">
+        <v>34.5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>69.8</v>
+      </c>
+      <c r="D7" s="6">
+        <v>59.4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>33.8</v>
+      </c>
+      <c r="G7" s="6">
+        <v>73.4</v>
+      </c>
+      <c r="H7" s="6">
+        <v>61.5</v>
+      </c>
+      <c r="I7" s="6">
         <v>65.5</v>
       </c>
-      <c r="D7" s="5">
-        <v>52</v>
-      </c>
-      <c r="E7" s="5">
-        <v>24</v>
-      </c>
-      <c r="F7" s="5">
-        <v>31.4</v>
-      </c>
-      <c r="G7" s="5">
-        <v>68.7</v>
-      </c>
-      <c r="H7" s="5">
-        <v>56</v>
-      </c>
-      <c r="I7" s="5">
-        <v>63.8</v>
-      </c>
-      <c r="J7" s="10">
-        <f t="shared" si="0"/>
-        <v>48.975</v>
-      </c>
-      <c r="K7" s="11">
-        <v>8849576498</v>
+      <c r="J7" s="12">
+        <f>AVERAGE(B7:I7)</f>
+        <v>52.75</v>
+      </c>
+      <c r="K7" s="13">
+        <v>10354806824</v>
       </c>
       <c r="L7" s="9">
         <v>2828650496</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="13">
+        <v>19888</v>
+      </c>
+      <c r="N7" s="13">
+        <v>21088</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0.3246</v>
+      </c>
+      <c r="P7" s="13">
+        <v>3.08</v>
+      </c>
+      <c r="Q7" s="15">
+        <f>0.4668/O7</f>
+        <v>1.43807763401109</v>
+      </c>
+      <c r="R7">
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="8" ht="17.6" spans="1:18">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5">
+        <v>30.4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>52</v>
+      </c>
+      <c r="E8" s="5">
+        <v>24</v>
+      </c>
+      <c r="F8" s="5">
+        <v>31.4</v>
+      </c>
+      <c r="G8" s="5">
+        <v>68.7</v>
+      </c>
+      <c r="H8" s="5">
+        <v>56</v>
+      </c>
+      <c r="I8" s="5">
+        <v>63.8</v>
+      </c>
+      <c r="J8" s="10">
+        <f>AVERAGE(B8:I8)</f>
+        <v>48.975</v>
+      </c>
+      <c r="K8" s="11">
+        <v>8849576498</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M8" s="11">
         <v>17017</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N8" s="11">
         <v>18217</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O8" s="11">
         <v>0.295</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P8" s="11">
         <v>3.39</v>
       </c>
-      <c r="Q7" s="15">
-        <f t="shared" si="1"/>
+      <c r="Q8" s="15">
+        <f>0.4668/O8</f>
         <v>1.58237288135593</v>
       </c>
-      <c r="R7">
+      <c r="R8">
         <v>18.68</v>
       </c>
     </row>
@@ -13173,7 +13210,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="K6" sqref="K6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7"/>
@@ -15917,7 +15954,7 @@
   <sheetPr/>
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A19" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -22804,7 +22841,7 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -23226,7 +23263,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="R7" sqref="A1:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -23608,6 +23645,430 @@
       <c r="J7" s="10">
         <f t="shared" si="0"/>
         <v>42.2</v>
+      </c>
+      <c r="K7" s="11">
+        <v>8849576498</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M7" s="11">
+        <v>17017</v>
+      </c>
+      <c r="N7" s="11">
+        <v>18217</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0.295</v>
+      </c>
+      <c r="P7" s="11">
+        <v>3.39</v>
+      </c>
+      <c r="Q7" s="15">
+        <f t="shared" si="1"/>
+        <v>1.58237288135593</v>
+      </c>
+      <c r="R7">
+        <v>18.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="11" max="11" width="13.7788461538462" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:18">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:18">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>48.3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>77.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>38.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>78.7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>63.2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>70.1</v>
+      </c>
+      <c r="J2" s="8">
+        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
+        <v>61.6125</v>
+      </c>
+      <c r="K2" s="7">
+        <v>16375728128</v>
+      </c>
+      <c r="L2" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M2" s="7">
+        <v>31371</v>
+      </c>
+      <c r="N2" s="7">
+        <v>32571</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0.4668</v>
+      </c>
+      <c r="P2" s="14">
+        <v>2.14</v>
+      </c>
+      <c r="Q2" s="15">
+        <f t="shared" ref="Q2:Q7" si="1">0.4668/O2</f>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:18">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>41.4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>70.7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>72.6</v>
+      </c>
+      <c r="E3" s="5">
+        <v>37.6</v>
+      </c>
+      <c r="F3" s="5">
+        <v>40.6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>79.4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>59.9</v>
+      </c>
+      <c r="I3" s="5">
+        <v>69.6</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" si="0"/>
+        <v>58.975</v>
+      </c>
+      <c r="K3" s="11">
+        <v>14870497802</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M3" s="11">
+        <v>28500</v>
+      </c>
+      <c r="N3" s="11">
+        <v>29700</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.4208</v>
+      </c>
+      <c r="P3" s="11">
+        <v>2.38</v>
+      </c>
+      <c r="Q3" s="15">
+        <f t="shared" si="1"/>
+        <v>1.10931558935361</v>
+      </c>
+      <c r="R3">
+        <v>16.56</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:18">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>39.8</v>
+      </c>
+      <c r="C4" s="6">
+        <v>69.3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>70</v>
+      </c>
+      <c r="E4" s="6">
+        <v>34.3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>37.8</v>
+      </c>
+      <c r="G4" s="6">
+        <v>77.8</v>
+      </c>
+      <c r="H4" s="6">
+        <v>58.5</v>
+      </c>
+      <c r="I4" s="6">
+        <v>68.3</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" si="0"/>
+        <v>56.975</v>
+      </c>
+      <c r="K4" s="13">
+        <v>13365267476</v>
+      </c>
+      <c r="L4" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M4" s="13">
+        <v>25629</v>
+      </c>
+      <c r="N4" s="13">
+        <v>26289</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.4043</v>
+      </c>
+      <c r="P4" s="13">
+        <v>2.47</v>
+      </c>
+      <c r="Q4" s="15">
+        <f t="shared" si="1"/>
+        <v>1.15458817709622</v>
+      </c>
+      <c r="R4">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:18">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5">
+        <v>67.7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>65.9</v>
+      </c>
+      <c r="E5" s="5">
+        <v>31.8</v>
+      </c>
+      <c r="F5" s="5">
+        <v>36.8</v>
+      </c>
+      <c r="G5" s="5">
+        <v>76.2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>56.3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>64.6</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="0"/>
+        <v>54.6625</v>
+      </c>
+      <c r="K5" s="11">
+        <v>11860037150</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M5" s="11">
+        <v>22759</v>
+      </c>
+      <c r="N5" s="11">
+        <v>23958</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.3755</v>
+      </c>
+      <c r="P5" s="11">
+        <v>2.66</v>
+      </c>
+      <c r="Q5" s="15">
+        <f t="shared" si="1"/>
+        <v>1.24314247669774</v>
+      </c>
+      <c r="R5">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:18">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6">
+        <v>35.9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>63.9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>60.3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>29.2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="G6" s="6">
+        <v>72.9</v>
+      </c>
+      <c r="H6" s="6">
+        <v>54.5</v>
+      </c>
+      <c r="I6" s="6">
+        <v>64.9</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="K6" s="13">
+        <v>10354806824</v>
+      </c>
+      <c r="L6" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M6" s="13">
+        <v>19888</v>
+      </c>
+      <c r="N6" s="13">
+        <v>21088</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.3246</v>
+      </c>
+      <c r="P6" s="13">
+        <v>3.08</v>
+      </c>
+      <c r="Q6" s="15">
+        <f t="shared" si="1"/>
+        <v>1.43807763401109</v>
+      </c>
+      <c r="R6">
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:18">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>32.3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>62.3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>53.2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>25.9</v>
+      </c>
+      <c r="F7" s="5">
+        <v>30</v>
+      </c>
+      <c r="G7" s="5">
+        <v>69.7</v>
+      </c>
+      <c r="H7" s="5">
+        <v>52.1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>61.1</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="0"/>
+        <v>48.325</v>
       </c>
       <c r="K7" s="11">
         <v>8849576498</v>
@@ -23647,9 +24108,9 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/moe_prune/ppl_result.xlsx
+++ b/moe_prune/ppl_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9440" tabRatio="872" firstSheet="14" activeTab="21"/>
+    <workbookView windowWidth="25600" windowHeight="9440" tabRatio="872" firstSheet="41" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,8 @@
     <sheet name="shared_e6_js_global" sheetId="45" r:id="rId44"/>
     <sheet name="shared_e6_js_local" sheetId="46" r:id="rId45"/>
     <sheet name="shared_e6_random" sheetId="47" r:id="rId46"/>
+    <sheet name="shared_e6_route" sheetId="48" r:id="rId47"/>
+    <sheet name="shared_e6_l1" sheetId="49" r:id="rId48"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="193">
   <si>
     <t>origin PPL</t>
   </si>
@@ -12747,8 +12749,8 @@
   <sheetPr/>
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7"/>
@@ -13050,15 +13052,34 @@
       <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="12"/>
+      <c r="B6" s="6">
+        <v>37.2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>71.7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>63.1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>26.2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>36</v>
+      </c>
+      <c r="G6" s="6">
+        <v>75</v>
+      </c>
+      <c r="H6" s="6">
+        <v>60.3</v>
+      </c>
+      <c r="I6" s="6">
+        <v>65.3</v>
+      </c>
+      <c r="J6" s="10">
+        <f>AVERAGE(B6:I6)</f>
+        <v>54.35</v>
+      </c>
       <c r="K6" s="13">
         <v>11358293708</v>
       </c>
@@ -21999,8 +22020,8 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -22261,11 +22282,11 @@
         <v>61</v>
       </c>
       <c r="I5" s="5">
-        <v>65.8</v>
+        <v>65.1</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="0"/>
-        <v>55.5</v>
+        <v>55.4125</v>
       </c>
       <c r="K5" s="11">
         <v>11860037150</v>
@@ -23684,7 +23705,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -24069,6 +24090,851 @@
       <c r="J7" s="10">
         <f t="shared" si="0"/>
         <v>48.325</v>
+      </c>
+      <c r="K7" s="11">
+        <v>8849576498</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M7" s="11">
+        <v>17017</v>
+      </c>
+      <c r="N7" s="11">
+        <v>18217</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0.295</v>
+      </c>
+      <c r="P7" s="11">
+        <v>3.39</v>
+      </c>
+      <c r="Q7" s="15">
+        <f t="shared" si="1"/>
+        <v>1.58237288135593</v>
+      </c>
+      <c r="R7">
+        <v>18.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:18">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:18">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>48.3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>77.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>38.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>78.7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>63.2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>70.1</v>
+      </c>
+      <c r="J2" s="8">
+        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
+        <v>61.6125</v>
+      </c>
+      <c r="K2" s="7">
+        <v>16375728128</v>
+      </c>
+      <c r="L2" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M2" s="7">
+        <v>31371</v>
+      </c>
+      <c r="N2" s="7">
+        <v>32571</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0.4668</v>
+      </c>
+      <c r="P2" s="14">
+        <v>2.14</v>
+      </c>
+      <c r="Q2" s="15">
+        <f t="shared" ref="Q2:Q7" si="1">0.4668/O2</f>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:18">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43.8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>75.1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>72.7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>34.8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>40.4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>77.9</v>
+      </c>
+      <c r="H3" s="5">
+        <v>65</v>
+      </c>
+      <c r="I3" s="5">
+        <v>69.1</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" si="0"/>
+        <v>59.85</v>
+      </c>
+      <c r="K3" s="11">
+        <v>14870497802</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M3" s="11">
+        <v>28500</v>
+      </c>
+      <c r="N3" s="11">
+        <v>29700</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.4208</v>
+      </c>
+      <c r="P3" s="11">
+        <v>2.38</v>
+      </c>
+      <c r="Q3" s="15">
+        <f t="shared" si="1"/>
+        <v>1.10931558935361</v>
+      </c>
+      <c r="R3">
+        <v>16.56</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:18">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>40.2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>74.8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>69.3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6">
+        <v>37</v>
+      </c>
+      <c r="G4" s="6">
+        <v>77</v>
+      </c>
+      <c r="H4" s="6">
+        <v>62.8</v>
+      </c>
+      <c r="I4" s="6">
+        <v>67.6</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" si="0"/>
+        <v>57.8375</v>
+      </c>
+      <c r="K4" s="13">
+        <v>13365267476</v>
+      </c>
+      <c r="L4" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M4" s="13">
+        <v>25629</v>
+      </c>
+      <c r="N4" s="13">
+        <v>26289</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.4043</v>
+      </c>
+      <c r="P4" s="13">
+        <v>2.47</v>
+      </c>
+      <c r="Q4" s="15">
+        <f t="shared" si="1"/>
+        <v>1.15458817709622</v>
+      </c>
+      <c r="R4">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:18">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5">
+        <v>74.1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>32.1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>36.2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>74.3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>61.7</v>
+      </c>
+      <c r="I5" s="5">
+        <v>65.7</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="0"/>
+        <v>55.7</v>
+      </c>
+      <c r="K5" s="11">
+        <v>11860037150</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M5" s="11">
+        <v>22759</v>
+      </c>
+      <c r="N5" s="11">
+        <v>23958</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.3755</v>
+      </c>
+      <c r="P5" s="11">
+        <v>2.66</v>
+      </c>
+      <c r="Q5" s="15">
+        <f t="shared" si="1"/>
+        <v>1.24314247669774</v>
+      </c>
+      <c r="R5">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:18">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6">
+        <v>34.3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>72.1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>56.2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>27.4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>35.4</v>
+      </c>
+      <c r="G6" s="6">
+        <v>71.6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>60.3</v>
+      </c>
+      <c r="I6" s="6">
+        <v>64.5</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="0"/>
+        <v>52.725</v>
+      </c>
+      <c r="K6" s="13">
+        <v>10354806824</v>
+      </c>
+      <c r="L6" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M6" s="13">
+        <v>19888</v>
+      </c>
+      <c r="N6" s="13">
+        <v>21088</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.3246</v>
+      </c>
+      <c r="P6" s="13">
+        <v>3.08</v>
+      </c>
+      <c r="Q6" s="15">
+        <f t="shared" si="1"/>
+        <v>1.43807763401109</v>
+      </c>
+      <c r="R6">
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:18">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>30.9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5">
+        <v>51.9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>24.9</v>
+      </c>
+      <c r="F7" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>68.7</v>
+      </c>
+      <c r="H7" s="5">
+        <v>53.8</v>
+      </c>
+      <c r="I7" s="5">
+        <v>60.5</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="0"/>
+        <v>49.0375</v>
+      </c>
+      <c r="K7" s="11">
+        <v>8849576498</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M7" s="11">
+        <v>17017</v>
+      </c>
+      <c r="N7" s="11">
+        <v>18217</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0.295</v>
+      </c>
+      <c r="P7" s="11">
+        <v>3.39</v>
+      </c>
+      <c r="Q7" s="15">
+        <f t="shared" si="1"/>
+        <v>1.58237288135593</v>
+      </c>
+      <c r="R7">
+        <v>18.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="9" max="9" width="12.0192307692308" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:18">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:18">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>48.3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>77.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>38.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>78.7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>63.2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>70.1</v>
+      </c>
+      <c r="J2" s="8">
+        <f t="shared" ref="J2:J7" si="0">AVERAGE(B2:I2)</f>
+        <v>61.6125</v>
+      </c>
+      <c r="K2" s="7">
+        <v>16375728128</v>
+      </c>
+      <c r="L2" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M2" s="7">
+        <v>31371</v>
+      </c>
+      <c r="N2" s="7">
+        <v>32571</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0.4668</v>
+      </c>
+      <c r="P2" s="14">
+        <v>2.14</v>
+      </c>
+      <c r="Q2" s="15">
+        <f t="shared" ref="Q2:Q7" si="1">0.4668/O2</f>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:18">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43.5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>74.1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>70.5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>30.3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>39.2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>77.5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>61</v>
+      </c>
+      <c r="I3" s="5">
+        <v>69.1</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" si="0"/>
+        <v>58.15</v>
+      </c>
+      <c r="K3" s="11">
+        <v>14870497802</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M3" s="11">
+        <v>28500</v>
+      </c>
+      <c r="N3" s="11">
+        <v>29700</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.4208</v>
+      </c>
+      <c r="P3" s="11">
+        <v>2.38</v>
+      </c>
+      <c r="Q3" s="15">
+        <f t="shared" si="1"/>
+        <v>1.10931558935361</v>
+      </c>
+      <c r="R3">
+        <v>16.56</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:18">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>39.7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>70.9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>67</v>
+      </c>
+      <c r="E4" s="6">
+        <v>29.1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>38.6</v>
+      </c>
+      <c r="G4" s="6">
+        <v>75.9</v>
+      </c>
+      <c r="H4" s="6">
+        <v>62.1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>68.5</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" si="0"/>
+        <v>56.475</v>
+      </c>
+      <c r="K4" s="13">
+        <v>13365267476</v>
+      </c>
+      <c r="L4" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M4" s="13">
+        <v>25629</v>
+      </c>
+      <c r="N4" s="13">
+        <v>26289</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.4043</v>
+      </c>
+      <c r="P4" s="13">
+        <v>2.47</v>
+      </c>
+      <c r="Q4" s="15">
+        <f t="shared" si="1"/>
+        <v>1.15458817709622</v>
+      </c>
+      <c r="R4">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:18">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>36.6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>71</v>
+      </c>
+      <c r="D5" s="5">
+        <v>62</v>
+      </c>
+      <c r="E5" s="5">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5">
+        <v>34.8</v>
+      </c>
+      <c r="G5" s="5">
+        <v>73.8</v>
+      </c>
+      <c r="H5" s="5">
+        <v>56.7</v>
+      </c>
+      <c r="I5" s="5">
+        <v>64.3</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="0"/>
+        <v>53.15</v>
+      </c>
+      <c r="K5" s="11">
+        <v>11860037150</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M5" s="11">
+        <v>22759</v>
+      </c>
+      <c r="N5" s="11">
+        <v>23958</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.3755</v>
+      </c>
+      <c r="P5" s="11">
+        <v>2.66</v>
+      </c>
+      <c r="Q5" s="15">
+        <f t="shared" si="1"/>
+        <v>1.24314247669774</v>
+      </c>
+      <c r="R5">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:18">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6">
+        <v>30.1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>68.4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>56.9</v>
+      </c>
+      <c r="E6" s="6">
+        <v>25.9</v>
+      </c>
+      <c r="F6" s="6">
+        <v>29.8</v>
+      </c>
+      <c r="G6" s="6">
+        <v>71.3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>58.5</v>
+      </c>
+      <c r="I6" s="6">
+        <v>62.4</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="0"/>
+        <v>50.4125</v>
+      </c>
+      <c r="K6" s="13">
+        <v>10354806824</v>
+      </c>
+      <c r="L6" s="9">
+        <v>2828650496</v>
+      </c>
+      <c r="M6" s="13">
+        <v>19888</v>
+      </c>
+      <c r="N6" s="13">
+        <v>21088</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.3246</v>
+      </c>
+      <c r="P6" s="13">
+        <v>3.08</v>
+      </c>
+      <c r="Q6" s="15">
+        <f t="shared" si="1"/>
+        <v>1.43807763401109</v>
+      </c>
+      <c r="R6">
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:18">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>26.8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>66</v>
+      </c>
+      <c r="D7" s="5">
+        <v>49.2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>23.1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>28.4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>59.9</v>
+      </c>
+      <c r="I7" s="5">
+        <v>59</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="0"/>
+        <v>47.4875</v>
       </c>
       <c r="K7" s="11">
         <v>8849576498</v>
